--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DFE1C8-051A-48F5-A50B-31B8DC02701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFA72B9-023A-4D2A-9AA6-3D4D28374DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="66">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Paulo Lima-Soc.Unipessoal, Lda</t>
-  </si>
-  <si>
-    <t>NCPR</t>
   </si>
   <si>
     <t>31A60</t>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>A Knaipa Restaurante, Lda.</t>
+  </si>
+  <si>
+    <t>Transferência</t>
   </si>
 </sst>
 </file>
@@ -608,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,39 +676,39 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>9254</v>
+        <v>10226</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1">
-        <v>45851.570648148147</v>
+        <v>45875.491770833331</v>
       </c>
       <c r="H2" s="1">
-        <v>45821.570983796293</v>
+        <v>45845.491770833331</v>
       </c>
       <c r="I2" s="2">
-        <v>10.429351851853426</v>
+        <v>-11.49177083333052</v>
       </c>
       <c r="J2" s="3">
-        <v>334.41</v>
+        <v>418.54</v>
       </c>
       <c r="K2" s="3">
-        <v>334.41</v>
+        <v>418.54</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>211110102</v>
+        <v>211110434</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -717,25 +717,25 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>10226</v>
+        <v>10249</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1">
-        <v>45875.491770833331</v>
+        <v>45876.3825</v>
       </c>
       <c r="H3" s="1">
-        <v>45845.491770833331</v>
+        <v>45846.3825</v>
       </c>
       <c r="I3" s="2">
-        <v>-13.49177083333052</v>
+        <v>-12.382499999999709</v>
       </c>
       <c r="J3" s="3">
-        <v>418.54</v>
+        <v>359.15000000000003</v>
       </c>
       <c r="K3" s="3">
-        <v>418.54</v>
+        <v>359.15000000000003</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -758,25 +758,25 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>10249</v>
+        <v>10771</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>45876.3825</v>
+        <v>45886.494351851848</v>
       </c>
       <c r="H4" s="1">
-        <v>45846.3825</v>
+        <v>45856.494363425925</v>
       </c>
       <c r="I4" s="2">
-        <v>-14.382499999999709</v>
+        <v>-22.494351851848478</v>
       </c>
       <c r="J4" s="3">
-        <v>359.15000000000003</v>
+        <v>1004.71</v>
       </c>
       <c r="K4" s="3">
-        <v>359.15000000000003</v>
+        <v>1004.71</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>211110434</v>
+        <v>211110477</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -799,72 +799,72 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>10771</v>
+        <v>10713</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>45886.494351851848</v>
+        <v>45855.558912037035</v>
       </c>
       <c r="H5" s="1">
-        <v>45856.494363425925</v>
+        <v>45855.558912037035</v>
       </c>
       <c r="I5" s="2">
-        <v>-24.494351851848478</v>
+        <v>8.4410879629649571</v>
       </c>
       <c r="J5" s="3">
-        <v>1004.71</v>
+        <v>223.16</v>
       </c>
       <c r="K5" s="3">
-        <v>1004.71</v>
+        <v>223.16</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>211110477</v>
+        <v>211110574</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>2025</v>
       </c>
       <c r="E6">
-        <v>10713</v>
+        <v>615</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45855.558912037035</v>
+        <v>45872</v>
       </c>
       <c r="H6" s="1">
-        <v>45855.558912037035</v>
+        <v>45842</v>
       </c>
       <c r="I6" s="2">
-        <v>6.4410879629649571</v>
+        <v>-8</v>
       </c>
       <c r="J6" s="3">
-        <v>223.16</v>
+        <v>-28.150000000000002</v>
       </c>
       <c r="K6" s="3">
-        <v>223.16</v>
+        <v>-28.150000000000002</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -875,37 +875,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>88</v>
+        <v>10155</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45820</v>
+        <v>45872.49386574074</v>
       </c>
       <c r="H7" s="1">
-        <v>45790</v>
+        <v>45842.49386574074</v>
       </c>
       <c r="I7" s="2">
-        <v>42</v>
+        <v>-8.4938657407401479</v>
       </c>
       <c r="J7" s="3">
-        <v>-31.220000000000002</v>
+        <v>595.76</v>
       </c>
       <c r="K7" s="3">
-        <v>-31.220000000000002</v>
+        <v>595.76</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -916,37 +916,37 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>2025</v>
       </c>
       <c r="E8">
-        <v>8438</v>
+        <v>625</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45834.441793981481</v>
+        <v>45876</v>
       </c>
       <c r="H8" s="1">
-        <v>45804.442719907405</v>
+        <v>45846</v>
       </c>
       <c r="I8" s="2">
-        <v>27.558206018518831</v>
+        <v>-12</v>
       </c>
       <c r="J8" s="3">
-        <v>439.75</v>
+        <v>-19.89</v>
       </c>
       <c r="K8" s="3">
-        <v>439.75</v>
+        <v>-19.89</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -963,31 +963,31 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>8780</v>
+        <v>10246</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45841.423738425925</v>
+        <v>45876.376550925925</v>
       </c>
       <c r="H9" s="1">
-        <v>45811.42591435185</v>
+        <v>45846.376550925925</v>
       </c>
       <c r="I9" s="2">
-        <v>20.576261574075033</v>
+        <v>-12.376550925924676</v>
       </c>
       <c r="J9" s="3">
-        <v>585.65</v>
+        <v>602.47</v>
       </c>
       <c r="K9" s="3">
-        <v>585.65</v>
+        <v>602.47</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1004,31 +1004,31 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>9021</v>
+        <v>10574</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45847.487916666665</v>
+        <v>45883.638935185183</v>
       </c>
       <c r="H10" s="1">
-        <v>45817.488344907404</v>
+        <v>45853.638935185183</v>
       </c>
       <c r="I10" s="2">
-        <v>14.512083333334886</v>
+        <v>-19.638935185183072</v>
       </c>
       <c r="J10" s="3">
-        <v>722.55000000000007</v>
+        <v>612.18000000000006</v>
       </c>
       <c r="K10" s="3">
-        <v>722.55000000000007</v>
+        <v>612.18000000000006</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1045,66 +1045,66 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>9365</v>
+        <v>10864</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45855.465439814812</v>
+        <v>45890.531319444446</v>
       </c>
       <c r="H11" s="1">
-        <v>45825.465787037036</v>
+        <v>45860.531319444446</v>
       </c>
       <c r="I11" s="2">
-        <v>6.5345601851877291</v>
+        <v>-26.531319444446126</v>
       </c>
       <c r="J11" s="3">
-        <v>570.59</v>
+        <v>521.47</v>
       </c>
       <c r="K11" s="3">
-        <v>570.59</v>
+        <v>521.47</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>211110574</v>
+        <v>211110681</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>593</v>
+        <v>10430</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45865</v>
+        <v>45878.592557870368</v>
       </c>
       <c r="H12" s="1">
-        <v>45835</v>
+        <v>45848.592557870368</v>
       </c>
       <c r="I12" s="2">
-        <v>-3</v>
+        <v>-14.592557870368182</v>
       </c>
       <c r="J12" s="3">
-        <v>-47.800000000000004</v>
+        <v>964.74</v>
       </c>
       <c r="K12" s="3">
-        <v>-47.800000000000004</v>
+        <v>7.7700000000000005</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211110574</v>
+        <v>211110681</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1127,25 +1127,25 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>9825</v>
+        <v>11015</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45865.386874999997</v>
+        <v>45893.298807870371</v>
       </c>
       <c r="H13" s="1">
-        <v>45835.39163194444</v>
+        <v>45863.300034722219</v>
       </c>
       <c r="I13" s="2">
-        <v>-3.3868749999965075</v>
+        <v>-29.298807870371093</v>
       </c>
       <c r="J13" s="3">
-        <v>584.20000000000005</v>
+        <v>2446.73</v>
       </c>
       <c r="K13" s="3">
-        <v>584.20000000000005</v>
+        <v>2446.73</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1156,92 +1156,92 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>2025</v>
       </c>
       <c r="E14">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45872</v>
+        <v>45847</v>
       </c>
       <c r="H14" s="1">
-        <v>45842</v>
+        <v>45840</v>
       </c>
       <c r="I14" s="2">
-        <v>-10</v>
+        <v>17</v>
       </c>
       <c r="J14" s="3">
-        <v>-28.150000000000002</v>
+        <v>-42.26</v>
       </c>
       <c r="K14" s="3">
-        <v>-28.150000000000002</v>
+        <v>-42.26</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15">
-        <v>10155</v>
+        <v>522</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45872.49386574074</v>
+        <v>45856</v>
       </c>
       <c r="H15" s="1">
-        <v>45842.49386574074</v>
+        <v>45849</v>
       </c>
       <c r="I15" s="2">
-        <v>-10.493865740740148</v>
+        <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>595.76</v>
+        <v>-43.6</v>
       </c>
       <c r="K15" s="3">
-        <v>595.76</v>
+        <v>-43.6</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1250,25 +1250,25 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>10246</v>
+        <v>10748</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45876.376550925925</v>
+        <v>45863.428020833329</v>
       </c>
       <c r="H16" s="1">
-        <v>45846.376550925925</v>
+        <v>45856.428020833329</v>
       </c>
       <c r="I16" s="2">
-        <v>-14.376550925924676</v>
+        <v>0.57197916667064419</v>
       </c>
       <c r="J16" s="3">
-        <v>602.47</v>
+        <v>249.14000000000001</v>
       </c>
       <c r="K16" s="3">
-        <v>602.47</v>
+        <v>249.14000000000001</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1279,51 +1279,51 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211110574</v>
+        <v>211111588</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17">
-        <v>10574</v>
+        <v>275</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45883.638935185183</v>
+        <v>45763</v>
       </c>
       <c r="H17" s="1">
-        <v>45853.638935185183</v>
+        <v>45728</v>
       </c>
       <c r="I17" s="2">
-        <v>-21.638935185183072</v>
+        <v>101</v>
       </c>
       <c r="J17" s="3">
-        <v>612.18000000000006</v>
+        <v>-112.59</v>
       </c>
       <c r="K17" s="3">
-        <v>612.18000000000006</v>
+        <v>-75.92</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>211110574</v>
+        <v>211111588</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1332,39 +1332,39 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>10864</v>
+        <v>8178</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45890.531319444446</v>
+        <v>45834.347986111112</v>
       </c>
       <c r="H18" s="1">
-        <v>45860.531319444446</v>
+        <v>45799.348622685182</v>
       </c>
       <c r="I18" s="2">
-        <v>-28.531319444446126</v>
+        <v>29.652013888888177</v>
       </c>
       <c r="J18" s="3">
-        <v>521.47</v>
+        <v>601.93000000000006</v>
       </c>
       <c r="K18" s="3">
-        <v>521.47</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>211110681</v>
+        <v>211111588</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1373,77 +1373,77 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>10430</v>
+        <v>9338</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45878.592557870368</v>
+        <v>45860.416597222218</v>
       </c>
       <c r="H19" s="1">
-        <v>45848.592557870368</v>
+        <v>45825.417175925926</v>
       </c>
       <c r="I19" s="2">
-        <v>-16.592557870368182</v>
+        <v>3.5834027777818847</v>
       </c>
       <c r="J19" s="3">
-        <v>964.74</v>
+        <v>691.45</v>
       </c>
       <c r="K19" s="3">
-        <v>7.7700000000000005</v>
+        <v>32.82</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>603</v>
+        <v>9568</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45847</v>
+        <v>45863.713865740741</v>
       </c>
       <c r="H20" s="1">
-        <v>45840</v>
+        <v>45828.714143518519</v>
       </c>
       <c r="I20" s="2">
-        <v>15</v>
+        <v>0.28613425925868796</v>
       </c>
       <c r="J20" s="3">
-        <v>-42.26</v>
+        <v>742.15</v>
       </c>
       <c r="K20" s="3">
-        <v>-42.26</v>
+        <v>742.15</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1455,25 +1455,25 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>10748</v>
+        <v>9739</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45863.428020833329</v>
+        <v>45869.337118055555</v>
       </c>
       <c r="H21" s="1">
-        <v>45856.428020833329</v>
+        <v>45834.337858796294</v>
       </c>
       <c r="I21" s="2">
-        <v>-1.4280208333293558</v>
+        <v>-5.3371180555550382</v>
       </c>
       <c r="J21" s="3">
-        <v>249.14000000000001</v>
+        <v>89.460000000000008</v>
       </c>
       <c r="K21" s="3">
-        <v>249.14000000000001</v>
+        <v>89.460000000000008</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1487,40 +1487,40 @@
         <v>211111588</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>275</v>
+        <v>514</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45763</v>
+        <v>45877</v>
       </c>
       <c r="H22" s="1">
-        <v>45728</v>
+        <v>45842</v>
       </c>
       <c r="I22" s="2">
-        <v>99</v>
+        <v>-13</v>
       </c>
       <c r="J22" s="3">
-        <v>-112.59</v>
+        <v>-2.12</v>
       </c>
       <c r="K22" s="3">
-        <v>-75.92</v>
+        <v>-2.12</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>211111588</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1537,31 +1537,31 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>8178</v>
+        <v>10101</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45834.347986111112</v>
+        <v>45877.371099537035</v>
       </c>
       <c r="H23" s="1">
-        <v>45799.348622685182</v>
+        <v>45842.371099537035</v>
       </c>
       <c r="I23" s="2">
-        <v>27.652013888888177</v>
+        <v>-13.371099537034752</v>
       </c>
       <c r="J23" s="3">
-        <v>601.93000000000006</v>
+        <v>1172.54</v>
       </c>
       <c r="K23" s="3">
-        <v>21</v>
+        <v>1172.54</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>211111588</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1578,31 +1578,31 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>8754</v>
+        <v>10373</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45846.332881944443</v>
+        <v>45883.311967592592</v>
       </c>
       <c r="H24" s="1">
-        <v>45811.333865740737</v>
+        <v>45848.312951388885</v>
       </c>
       <c r="I24" s="2">
-        <v>15.667118055556784</v>
+        <v>-19.311967592591827</v>
       </c>
       <c r="J24" s="3">
-        <v>366.71</v>
+        <v>793.1</v>
       </c>
       <c r="K24" s="3">
-        <v>366.71</v>
+        <v>793.1</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
         <v>211111588</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1619,39 +1619,39 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>8891</v>
+        <v>10988</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45848.37122685185</v>
+        <v>45897.491388888884</v>
       </c>
       <c r="H25" s="1">
-        <v>45813.371423611112</v>
+        <v>45862.491388888884</v>
       </c>
       <c r="I25" s="2">
-        <v>13.628773148149776</v>
+        <v>-33.491388888884103</v>
       </c>
       <c r="J25" s="3">
-        <v>646.35</v>
+        <v>1073.29</v>
       </c>
       <c r="K25" s="3">
-        <v>646.35</v>
+        <v>1073.29</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211111588</v>
+        <v>211111720</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1660,39 +1660,39 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>9119</v>
+        <v>8229</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45855.397627314815</v>
+        <v>45860.354687499996</v>
       </c>
       <c r="H26" s="1">
-        <v>45820.399027777778</v>
+        <v>45800.35528935185</v>
       </c>
       <c r="I26" s="2">
-        <v>6.6023726851854008</v>
+        <v>3.6453125000043656</v>
       </c>
       <c r="J26" s="3">
-        <v>44.730000000000004</v>
+        <v>945.91</v>
       </c>
       <c r="K26" s="3">
-        <v>44.730000000000004</v>
+        <v>945.91</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211111588</v>
+        <v>211111720</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1701,39 +1701,39 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>9338</v>
+        <v>9806</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45860.416597222218</v>
+        <v>45895.300613425927</v>
       </c>
       <c r="H27" s="1">
-        <v>45825.417175925926</v>
+        <v>45835.301053240742</v>
       </c>
       <c r="I27" s="2">
-        <v>1.5834027777818847</v>
+        <v>-31.300613425926713</v>
       </c>
       <c r="J27" s="3">
-        <v>691.45</v>
+        <v>198.19</v>
       </c>
       <c r="K27" s="3">
-        <v>691.45</v>
+        <v>198.19</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111588</v>
+        <v>211111720</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1742,25 +1742,25 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>9568</v>
+        <v>10727</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45863.713865740741</v>
+        <v>45916.281041666662</v>
       </c>
       <c r="H28" s="1">
-        <v>45828.714143518519</v>
+        <v>45856.283530092587</v>
       </c>
       <c r="I28" s="2">
-        <v>-1.713865740741312</v>
+        <v>-52.281041666661622</v>
       </c>
       <c r="J28" s="3">
-        <v>742.15</v>
+        <v>199.79</v>
       </c>
       <c r="K28" s="3">
-        <v>742.15</v>
+        <v>199.79</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111588</v>
+        <v>211111720</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1783,25 +1783,25 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>9739</v>
+        <v>11012</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45869.337118055555</v>
+        <v>45923.282870370371</v>
       </c>
       <c r="H29" s="1">
-        <v>45834.337858796294</v>
+        <v>45863.28329861111</v>
       </c>
       <c r="I29" s="2">
-        <v>-7.3371180555550382</v>
+        <v>-59.282870370370802</v>
       </c>
       <c r="J29" s="3">
-        <v>89.460000000000008</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="K29" s="3">
-        <v>89.460000000000008</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1812,89 +1812,89 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>2025</v>
       </c>
       <c r="E30">
-        <v>10101</v>
+        <v>561</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45877.371099537035</v>
+        <v>45854</v>
       </c>
       <c r="H30" s="1">
-        <v>45842.371099537035</v>
+        <v>45824</v>
       </c>
       <c r="I30" s="2">
-        <v>-15.371099537034752</v>
+        <v>10</v>
       </c>
       <c r="J30" s="3">
-        <v>1172.54</v>
+        <v>-1.73</v>
       </c>
       <c r="K30" s="3">
-        <v>1172.54</v>
+        <v>-1.73</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>2025</v>
       </c>
       <c r="E31">
-        <v>10373</v>
+        <v>584</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45883.311967592592</v>
+        <v>45863</v>
       </c>
       <c r="H31" s="1">
-        <v>45848.312951388885</v>
+        <v>45833</v>
       </c>
       <c r="I31" s="2">
-        <v>-21.311967592591827</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3">
-        <v>793.1</v>
+        <v>-467.51</v>
       </c>
       <c r="K31" s="3">
-        <v>793.1</v>
+        <v>-467.51</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -1906,36 +1906,36 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>8229</v>
+        <v>9738</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45860.354687499996</v>
+        <v>45864.329062500001</v>
       </c>
       <c r="H32" s="1">
-        <v>45800.35528935185</v>
+        <v>45834.329247685186</v>
       </c>
       <c r="I32" s="2">
-        <v>1.6453125000043656</v>
+        <v>-0.32906250000087311</v>
       </c>
       <c r="J32" s="3">
-        <v>945.91</v>
+        <v>381.92</v>
       </c>
       <c r="K32" s="3">
-        <v>945.91</v>
+        <v>381.92</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1947,25 +1947,25 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>9806</v>
+        <v>10165</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45895.300613425927</v>
+        <v>45872.519525462958</v>
       </c>
       <c r="H33" s="1">
-        <v>45835.301053240742</v>
+        <v>45842.519537037035</v>
       </c>
       <c r="I33" s="2">
-        <v>-33.300613425926713</v>
+        <v>-8.5195254629579722</v>
       </c>
       <c r="J33" s="3">
-        <v>198.19</v>
+        <v>764.51</v>
       </c>
       <c r="K33" s="3">
-        <v>198.19</v>
+        <v>764.51</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -1976,37 +1976,37 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>2025</v>
       </c>
       <c r="E34">
-        <v>10727</v>
+        <v>630</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45916.281041666662</v>
+        <v>45876</v>
       </c>
       <c r="H34" s="1">
-        <v>45856.283530092587</v>
+        <v>45846</v>
       </c>
       <c r="I34" s="2">
-        <v>-54.281041666661622</v>
+        <v>-12</v>
       </c>
       <c r="J34" s="3">
-        <v>199.79</v>
+        <v>-89.27</v>
       </c>
       <c r="K34" s="3">
-        <v>199.79</v>
+        <v>-89.27</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2020,40 +2020,40 @@
         <v>211111739</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>561</v>
+        <v>10238</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45854</v>
+        <v>45876.313310185185</v>
       </c>
       <c r="H35" s="1">
-        <v>45824</v>
+        <v>45846.315902777773</v>
       </c>
       <c r="I35" s="2">
-        <v>8</v>
+        <v>-12.313310185185401</v>
       </c>
       <c r="J35" s="3">
-        <v>-1.73</v>
+        <v>720.1</v>
       </c>
       <c r="K35" s="3">
-        <v>-1.73</v>
+        <v>720.1</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2061,34 +2061,34 @@
         <v>211111739</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
       </c>
       <c r="E36">
-        <v>584</v>
+        <v>10819</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45863</v>
+        <v>45889.487662037034</v>
       </c>
       <c r="H36" s="1">
-        <v>45833</v>
+        <v>45859.487673611111</v>
       </c>
       <c r="I36" s="2">
-        <v>-1</v>
+        <v>-25.48766203703417</v>
       </c>
       <c r="J36" s="3">
-        <v>-467.51</v>
+        <v>694.31000000000006</v>
       </c>
       <c r="K36" s="3">
-        <v>-467.51</v>
+        <v>694.31000000000006</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2102,7 +2102,7 @@
         <v>211111739</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2111,25 +2111,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>9738</v>
+        <v>11069</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45864.329062500001</v>
+        <v>45893.5234375</v>
       </c>
       <c r="H37" s="1">
-        <v>45834.329247685186</v>
+        <v>45863.5234375</v>
       </c>
       <c r="I37" s="2">
-        <v>-2.3290625000008731</v>
+        <v>-29.5234375</v>
       </c>
       <c r="J37" s="3">
-        <v>381.92</v>
+        <v>596.72</v>
       </c>
       <c r="K37" s="3">
-        <v>381.92</v>
+        <v>596.72</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2140,37 +2140,37 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>2025</v>
       </c>
       <c r="E38">
-        <v>10165</v>
+        <v>522</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45872.519525462958</v>
+        <v>45871</v>
       </c>
       <c r="H38" s="1">
-        <v>45842.519537037035</v>
+        <v>45811</v>
       </c>
       <c r="I38" s="2">
-        <v>-10.519525462957972</v>
+        <v>-7</v>
       </c>
       <c r="J38" s="3">
-        <v>764.51</v>
+        <v>-29.34</v>
       </c>
       <c r="K38" s="3">
-        <v>764.51</v>
+        <v>-29.34</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2181,37 +2181,37 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>2025</v>
       </c>
       <c r="E39">
-        <v>10238</v>
+        <v>525</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45876.313310185185</v>
+        <v>45871</v>
       </c>
       <c r="H39" s="1">
-        <v>45846.315902777773</v>
+        <v>45811</v>
       </c>
       <c r="I39" s="2">
-        <v>-14.313310185185401</v>
+        <v>-7</v>
       </c>
       <c r="J39" s="3">
-        <v>720.1</v>
+        <v>-4.99</v>
       </c>
       <c r="K39" s="3">
-        <v>720.1</v>
+        <v>-4.99</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -2234,25 +2234,25 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>10819</v>
+        <v>8798</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45889.487662037034</v>
+        <v>45871.469687500001</v>
       </c>
       <c r="H40" s="1">
-        <v>45859.487673611111</v>
+        <v>45811.47006944444</v>
       </c>
       <c r="I40" s="2">
-        <v>-27.48766203703417</v>
+        <v>-7.4696875000008731</v>
       </c>
       <c r="J40" s="3">
-        <v>694.31000000000006</v>
+        <v>421.25</v>
       </c>
       <c r="K40" s="3">
-        <v>694.31000000000006</v>
+        <v>421.25</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -2266,34 +2266,34 @@
         <v>211111878</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>522</v>
+        <v>8799</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45871</v>
+        <v>45871.471655092588</v>
       </c>
       <c r="H41" s="1">
-        <v>45811</v>
+        <v>45811.472187499996</v>
       </c>
       <c r="I41" s="2">
-        <v>-9</v>
+        <v>-7.4716550925877527</v>
       </c>
       <c r="J41" s="3">
-        <v>-29.34</v>
+        <v>361.42</v>
       </c>
       <c r="K41" s="3">
-        <v>-29.34</v>
+        <v>361.42</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -2307,34 +2307,34 @@
         <v>211111878</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D42">
         <v>2025</v>
       </c>
       <c r="E42">
-        <v>525</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45871</v>
+        <v>45874.455740740741</v>
       </c>
       <c r="H42" s="1">
-        <v>45811</v>
+        <v>45814.455775462964</v>
       </c>
       <c r="I42" s="2">
-        <v>-9</v>
+        <v>-10.455740740741021</v>
       </c>
       <c r="J42" s="3">
-        <v>-4.99</v>
+        <v>177.99</v>
       </c>
       <c r="K42" s="3">
-        <v>-4.99</v>
+        <v>177.99</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2348,34 +2348,34 @@
         <v>211111878</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="s">
-        <v>15</v>
+      <c r="D43">
+        <v>2025</v>
       </c>
       <c r="E43">
-        <v>8798</v>
+        <v>64</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45871.469687500001</v>
+        <v>45874.612268518518</v>
       </c>
       <c r="H43" s="1">
-        <v>45811.47006944444</v>
+        <v>45814.613090277773</v>
       </c>
       <c r="I43" s="2">
-        <v>-9.4696875000008731</v>
+        <v>-10.612268518518249</v>
       </c>
       <c r="J43" s="3">
-        <v>421.25</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="K43" s="3">
-        <v>421.25</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2389,34 +2389,34 @@
         <v>211111878</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>2025</v>
       </c>
       <c r="E44">
-        <v>8799</v>
+        <v>542</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45871.471655092588</v>
+        <v>45877</v>
       </c>
       <c r="H44" s="1">
-        <v>45811.472187499996</v>
+        <v>45817</v>
       </c>
       <c r="I44" s="2">
-        <v>-9.4716550925877527</v>
+        <v>-13</v>
       </c>
       <c r="J44" s="3">
-        <v>361.42</v>
+        <v>-9.41</v>
       </c>
       <c r="K44" s="3">
-        <v>361.42</v>
+        <v>-9.41</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2430,34 +2430,34 @@
         <v>211111878</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D45">
-        <v>2025</v>
+      <c r="D45" t="s">
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>37</v>
+        <v>8996</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45874.455740740741</v>
+        <v>45877.440046296295</v>
       </c>
       <c r="H45" s="1">
-        <v>45814.455775462964</v>
+        <v>45817.44049768518</v>
       </c>
       <c r="I45" s="2">
-        <v>-12.455740740741021</v>
+        <v>-13.440046296294895</v>
       </c>
       <c r="J45" s="3">
-        <v>177.99</v>
+        <v>377.68</v>
       </c>
       <c r="K45" s="3">
-        <v>177.99</v>
+        <v>377.68</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2471,34 +2471,34 @@
         <v>211111878</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46">
-        <v>2025</v>
+      <c r="D46" t="s">
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>64</v>
+        <v>8998</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45874.612268518518</v>
+        <v>45877.440960648149</v>
       </c>
       <c r="H46" s="1">
-        <v>45814.613090277773</v>
+        <v>45817.441377314812</v>
       </c>
       <c r="I46" s="2">
-        <v>-12.612268518518249</v>
+        <v>-13.440960648149485</v>
       </c>
       <c r="J46" s="3">
-        <v>258.84000000000003</v>
+        <v>257.82</v>
       </c>
       <c r="K46" s="3">
-        <v>258.84000000000003</v>
+        <v>257.82</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2512,34 +2512,34 @@
         <v>211111878</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>542</v>
+        <v>9025</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45877</v>
+        <v>45877.494490740741</v>
       </c>
       <c r="H47" s="1">
-        <v>45817</v>
+        <v>45817.494999999995</v>
       </c>
       <c r="I47" s="2">
-        <v>-15</v>
+        <v>-13.49449074074073</v>
       </c>
       <c r="J47" s="3">
-        <v>-9.41</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="K47" s="3">
-        <v>-9.41</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2553,34 +2553,34 @@
         <v>211111878</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>2025</v>
       </c>
       <c r="E48">
-        <v>8996</v>
+        <v>570</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45877.440046296295</v>
+        <v>45886</v>
       </c>
       <c r="H48" s="1">
-        <v>45817.44049768518</v>
+        <v>45826</v>
       </c>
       <c r="I48" s="2">
-        <v>-15.440046296294895</v>
+        <v>-22</v>
       </c>
       <c r="J48" s="3">
-        <v>377.68</v>
+        <v>-10.74</v>
       </c>
       <c r="K48" s="3">
-        <v>377.68</v>
+        <v>-10.74</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2594,7 +2594,7 @@
         <v>211111878</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2603,25 +2603,25 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>8998</v>
+        <v>9386</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45877.440960648149</v>
+        <v>45886.314513888887</v>
       </c>
       <c r="H49" s="1">
-        <v>45817.441377314812</v>
+        <v>45826.314837962964</v>
       </c>
       <c r="I49" s="2">
-        <v>-15.440960648149485</v>
+        <v>-22.314513888886722</v>
       </c>
       <c r="J49" s="3">
-        <v>257.82</v>
+        <v>328.96</v>
       </c>
       <c r="K49" s="3">
-        <v>257.82</v>
+        <v>328.96</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2635,7 +2635,7 @@
         <v>211111878</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2644,25 +2644,25 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>9025</v>
+        <v>9436</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45877.494490740741</v>
+        <v>45886.459780092591</v>
       </c>
       <c r="H50" s="1">
-        <v>45817.494999999995</v>
+        <v>45826.462314814809</v>
       </c>
       <c r="I50" s="2">
-        <v>-15.49449074074073</v>
+        <v>-22.459780092591245</v>
       </c>
       <c r="J50" s="3">
-        <v>315.04000000000002</v>
+        <v>58.57</v>
       </c>
       <c r="K50" s="3">
-        <v>315.04000000000002</v>
+        <v>58.57</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2676,34 +2676,34 @@
         <v>211111878</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>570</v>
+        <v>9438</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45886</v>
+        <v>45886.462488425925</v>
       </c>
       <c r="H51" s="1">
-        <v>45826</v>
+        <v>45826.466331018513</v>
       </c>
       <c r="I51" s="2">
-        <v>-24</v>
+        <v>-22.462488425924676</v>
       </c>
       <c r="J51" s="3">
-        <v>-10.74</v>
+        <v>408.29</v>
       </c>
       <c r="K51" s="3">
-        <v>-10.74</v>
+        <v>408.29</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2717,7 +2717,7 @@
         <v>211111878</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2726,25 +2726,25 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>9386</v>
+        <v>9456</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45886.314513888887</v>
+        <v>45888.299930555557</v>
       </c>
       <c r="H52" s="1">
-        <v>45826.314837962964</v>
+        <v>45828.300671296296</v>
       </c>
       <c r="I52" s="2">
-        <v>-24.314513888886722</v>
+        <v>-24.299930555556784</v>
       </c>
       <c r="J52" s="3">
-        <v>328.96</v>
+        <v>20.76</v>
       </c>
       <c r="K52" s="3">
-        <v>328.96</v>
+        <v>20.76</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2758,7 +2758,7 @@
         <v>211111878</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2767,25 +2767,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>9436</v>
+        <v>9457</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45886.459780092591</v>
+        <v>45888.30097222222</v>
       </c>
       <c r="H53" s="1">
-        <v>45826.462314814809</v>
+        <v>45828.306631944441</v>
       </c>
       <c r="I53" s="2">
-        <v>-24.459780092591245</v>
+        <v>-24.300972222219571</v>
       </c>
       <c r="J53" s="3">
-        <v>58.57</v>
+        <v>45.83</v>
       </c>
       <c r="K53" s="3">
-        <v>58.57</v>
+        <v>45.83</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2799,7 +2799,7 @@
         <v>211111878</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2808,25 +2808,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>9438</v>
+        <v>9700</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45886.462488425925</v>
+        <v>45893.496446759258</v>
       </c>
       <c r="H54" s="1">
-        <v>45826.466331018513</v>
+        <v>45833.497314814813</v>
       </c>
       <c r="I54" s="2">
-        <v>-24.462488425924676</v>
+        <v>-29.496446759258106</v>
       </c>
       <c r="J54" s="3">
-        <v>408.29</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="K54" s="3">
-        <v>408.29</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2840,7 +2840,7 @@
         <v>211111878</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2849,25 +2849,25 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>9456</v>
+        <v>9701</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45888.299930555557</v>
+        <v>45893.497546296298</v>
       </c>
       <c r="H55" s="1">
-        <v>45828.300671296296</v>
+        <v>45833.49827546296</v>
       </c>
       <c r="I55" s="2">
-        <v>-26.299930555556784</v>
+        <v>-29.497546296297514</v>
       </c>
       <c r="J55" s="3">
-        <v>20.76</v>
+        <v>367.16</v>
       </c>
       <c r="K55" s="3">
-        <v>20.76</v>
+        <v>367.16</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2881,7 +2881,7 @@
         <v>211111878</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2890,25 +2890,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>9457</v>
+        <v>9772</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45888.30097222222</v>
+        <v>45894.447523148148</v>
       </c>
       <c r="H56" s="1">
-        <v>45828.306631944441</v>
+        <v>45834.448113425926</v>
       </c>
       <c r="I56" s="2">
-        <v>-26.300972222219571</v>
+        <v>-30.447523148148321</v>
       </c>
       <c r="J56" s="3">
-        <v>45.83</v>
+        <v>441.87</v>
       </c>
       <c r="K56" s="3">
-        <v>45.83</v>
+        <v>441.87</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2922,7 +2922,7 @@
         <v>211111878</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2931,25 +2931,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>9700</v>
+        <v>9871</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45893.496446759258</v>
+        <v>45895.479108796295</v>
       </c>
       <c r="H57" s="1">
-        <v>45833.497314814813</v>
+        <v>45835.481898148144</v>
       </c>
       <c r="I57" s="2">
-        <v>-31.496446759258106</v>
+        <v>-31.479108796294895</v>
       </c>
       <c r="J57" s="3">
-        <v>18.059999999999999</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="K57" s="3">
-        <v>18.059999999999999</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2963,7 +2963,7 @@
         <v>211111878</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2972,25 +2972,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>9701</v>
+        <v>9874</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45893.497546296298</v>
+        <v>45895.494687499995</v>
       </c>
       <c r="H58" s="1">
-        <v>45833.49827546296</v>
+        <v>45835.494895833333</v>
       </c>
       <c r="I58" s="2">
-        <v>-31.497546296297514</v>
+        <v>-31.494687499995052</v>
       </c>
       <c r="J58" s="3">
-        <v>367.16</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="K58" s="3">
-        <v>367.16</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3004,7 +3004,7 @@
         <v>211111878</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -3013,25 +3013,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>9772</v>
+        <v>9935</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45894.447523148148</v>
+        <v>45899.405474537038</v>
       </c>
       <c r="H59" s="1">
-        <v>45834.448113425926</v>
+        <v>45839.405821759254</v>
       </c>
       <c r="I59" s="2">
-        <v>-32.447523148148321</v>
+        <v>-35.405474537037662</v>
       </c>
       <c r="J59" s="3">
-        <v>441.87</v>
+        <v>249.19</v>
       </c>
       <c r="K59" s="3">
-        <v>441.87</v>
+        <v>249.19</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3045,7 +3045,7 @@
         <v>211111878</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3054,25 +3054,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>9871</v>
+        <v>10275</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45895.479108796295</v>
+        <v>45906.438090277778</v>
       </c>
       <c r="H60" s="1">
-        <v>45835.481898148144</v>
+        <v>45846.438090277778</v>
       </c>
       <c r="I60" s="2">
-        <v>-33.479108796294895</v>
+        <v>-42.438090277777519</v>
       </c>
       <c r="J60" s="3">
-        <v>175.89000000000001</v>
+        <v>333.66</v>
       </c>
       <c r="K60" s="3">
-        <v>175.89000000000001</v>
+        <v>333.66</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3086,7 +3086,7 @@
         <v>211111878</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3095,25 +3095,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>9874</v>
+        <v>10276</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45895.494687499995</v>
+        <v>45906.438113425924</v>
       </c>
       <c r="H61" s="1">
-        <v>45835.494895833333</v>
+        <v>45846.438125000001</v>
       </c>
       <c r="I61" s="2">
-        <v>-33.494687499995052</v>
+        <v>-42.438113425923802</v>
       </c>
       <c r="J61" s="3">
-        <v>276.79000000000002</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="K61" s="3">
-        <v>276.79000000000002</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3127,7 +3127,7 @@
         <v>211111878</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3136,25 +3136,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>9935</v>
+        <v>10496</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45899.405474537038</v>
+        <v>45909.601944444439</v>
       </c>
       <c r="H62" s="1">
-        <v>45839.405821759254</v>
+        <v>45849.60251157407</v>
       </c>
       <c r="I62" s="2">
-        <v>-37.405474537037662</v>
+        <v>-45.601944444439141</v>
       </c>
       <c r="J62" s="3">
-        <v>249.19</v>
+        <v>330.27</v>
       </c>
       <c r="K62" s="3">
-        <v>249.19</v>
+        <v>330.27</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3168,34 +3168,34 @@
         <v>211111878</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>2025</v>
       </c>
       <c r="E63">
-        <v>10275</v>
+        <v>646</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45906.438090277778</v>
+        <v>45913</v>
       </c>
       <c r="H63" s="1">
-        <v>45846.438090277778</v>
+        <v>45853</v>
       </c>
       <c r="I63" s="2">
-        <v>-44.438090277777519</v>
+        <v>-49</v>
       </c>
       <c r="J63" s="3">
-        <v>333.66</v>
+        <v>-9.23</v>
       </c>
       <c r="K63" s="3">
-        <v>333.66</v>
+        <v>-9.23</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3209,7 +3209,7 @@
         <v>211111878</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3218,25 +3218,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>10276</v>
+        <v>10552</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45906.438113425924</v>
+        <v>45913.414108796293</v>
       </c>
       <c r="H64" s="1">
-        <v>45846.438125000001</v>
+        <v>45853.415949074071</v>
       </c>
       <c r="I64" s="2">
-        <v>-44.438113425923802</v>
+        <v>-49.414108796292567</v>
       </c>
       <c r="J64" s="3">
-        <v>114.07000000000001</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="K64" s="3">
-        <v>114.07000000000001</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3250,7 +3250,7 @@
         <v>211111878</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3259,25 +3259,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>10496</v>
+        <v>10556</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45909.601944444439</v>
+        <v>45913.417696759258</v>
       </c>
       <c r="H65" s="1">
-        <v>45849.60251157407</v>
+        <v>45853.418020833335</v>
       </c>
       <c r="I65" s="2">
-        <v>-47.601944444439141</v>
+        <v>-49.417696759257524</v>
       </c>
       <c r="J65" s="3">
-        <v>330.27</v>
+        <v>120.59</v>
       </c>
       <c r="K65" s="3">
-        <v>330.27</v>
+        <v>120.59</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3291,7 +3291,7 @@
         <v>211111878</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3300,25 +3300,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>10552</v>
+        <v>10719</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45913.414108796293</v>
+        <v>45915.588217592587</v>
       </c>
       <c r="H66" s="1">
-        <v>45853.415949074071</v>
+        <v>45855.588634259257</v>
       </c>
       <c r="I66" s="2">
-        <v>-51.414108796292567</v>
+        <v>-51.588217592587171</v>
       </c>
       <c r="J66" s="3">
-        <v>451.46000000000004</v>
+        <v>107.66</v>
       </c>
       <c r="K66" s="3">
-        <v>451.46000000000004</v>
+        <v>107.66</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3332,7 +3332,7 @@
         <v>211111878</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3341,25 +3341,25 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>10556</v>
+        <v>10841</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45913.417696759258</v>
+        <v>45920.44799768518</v>
       </c>
       <c r="H67" s="1">
-        <v>45853.418020833335</v>
+        <v>45860.450138888889</v>
       </c>
       <c r="I67" s="2">
-        <v>-51.417696759257524</v>
+        <v>-56.447997685179871</v>
       </c>
       <c r="J67" s="3">
-        <v>120.59</v>
+        <v>391.77</v>
       </c>
       <c r="K67" s="3">
-        <v>120.59</v>
+        <v>391.77</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3373,7 +3373,7 @@
         <v>211111878</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3382,25 +3382,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>10719</v>
+        <v>10940</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45915.588217592587</v>
+        <v>45921.562048611107</v>
       </c>
       <c r="H68" s="1">
-        <v>45855.588634259257</v>
+        <v>45861.562060185184</v>
       </c>
       <c r="I68" s="2">
-        <v>-53.588217592587171</v>
+        <v>-57.562048611107457</v>
       </c>
       <c r="J68" s="3">
-        <v>107.66</v>
+        <v>184.52</v>
       </c>
       <c r="K68" s="3">
-        <v>107.66</v>
+        <v>184.52</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3414,7 +3414,7 @@
         <v>211111878</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3423,25 +3423,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>10841</v>
+        <v>10941</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45920.44799768518</v>
+        <v>45921.562083333331</v>
       </c>
       <c r="H69" s="1">
-        <v>45860.450138888889</v>
+        <v>45861.562083333331</v>
       </c>
       <c r="I69" s="2">
-        <v>-58.447997685179871</v>
+        <v>-57.56208333333052</v>
       </c>
       <c r="J69" s="3">
-        <v>391.77</v>
+        <v>518.65</v>
       </c>
       <c r="K69" s="3">
-        <v>391.77</v>
+        <v>518.65</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3455,7 +3455,7 @@
         <v>211111878</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3464,25 +3464,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>10940</v>
+        <v>10942</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45921.562048611107</v>
+        <v>45921.562106481477</v>
       </c>
       <c r="H70" s="1">
-        <v>45861.562060185184</v>
+        <v>45861.562106481477</v>
       </c>
       <c r="I70" s="2">
-        <v>-59.562048611107457</v>
+        <v>-57.562106481476803</v>
       </c>
       <c r="J70" s="3">
-        <v>184.52</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="K70" s="3">
-        <v>184.52</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B71" t="s">
         <v>33</v>
@@ -3505,25 +3505,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>10941</v>
+        <v>10687</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45921.562083333331</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H71" s="1">
-        <v>45861.562083333331</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I71" s="2">
-        <v>-59.56208333333052</v>
+        <v>-21.468888888884976</v>
       </c>
       <c r="J71" s="3">
-        <v>518.65</v>
+        <v>542.13</v>
       </c>
       <c r="K71" s="3">
-        <v>518.65</v>
+        <v>542.13</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3534,84 +3534,84 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
       </c>
       <c r="E72">
-        <v>10942</v>
+        <v>326</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45921.562106481477</v>
+        <v>45777</v>
       </c>
       <c r="H72" s="1">
-        <v>45861.562106481477</v>
+        <v>45747</v>
       </c>
       <c r="I72" s="2">
-        <v>-59.562106481476803</v>
+        <v>87</v>
       </c>
       <c r="J72" s="3">
-        <v>325.40000000000003</v>
+        <v>-22</v>
       </c>
       <c r="K72" s="3">
-        <v>325.40000000000003</v>
+        <v>-22</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>211112043</v>
+        <v>211112050</v>
       </c>
       <c r="B73" t="s">
         <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10687</v>
+        <v>327</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45885.468888888885</v>
+        <v>45777</v>
       </c>
       <c r="H73" s="1">
-        <v>45855.468888888885</v>
+        <v>45747</v>
       </c>
       <c r="I73" s="2">
-        <v>-23.468888888884976</v>
+        <v>87</v>
       </c>
       <c r="J73" s="3">
-        <v>542.13</v>
+        <v>-27.45</v>
       </c>
       <c r="K73" s="3">
-        <v>542.13</v>
+        <v>-27.45</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3619,16 +3619,16 @@
         <v>211112050</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -3640,101 +3640,101 @@
         <v>45747</v>
       </c>
       <c r="I74" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J74" s="3">
-        <v>-22</v>
+        <v>-5.73</v>
       </c>
       <c r="K74" s="3">
-        <v>-22</v>
+        <v>-5.73</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211112050</v>
+        <v>211112052</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <v>2025</v>
       </c>
       <c r="E75">
-        <v>327</v>
+        <v>546</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45777</v>
+        <v>45879</v>
       </c>
       <c r="H75" s="1">
-        <v>45747</v>
+        <v>45819</v>
       </c>
       <c r="I75" s="2">
-        <v>85</v>
+        <v>-15</v>
       </c>
       <c r="J75" s="3">
-        <v>-27.45</v>
+        <v>-680.83</v>
       </c>
       <c r="K75" s="3">
-        <v>-27.45</v>
+        <v>-680.83</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211112050</v>
+        <v>211112052</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="E76">
-        <v>328</v>
+        <v>9182</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45777</v>
+        <v>45881.340092592589</v>
       </c>
       <c r="H76" s="1">
-        <v>45747</v>
+        <v>45821.340949074074</v>
       </c>
       <c r="I76" s="2">
-        <v>85</v>
+        <v>-17.340092592588917</v>
       </c>
       <c r="J76" s="3">
-        <v>-5.73</v>
+        <v>968.26</v>
       </c>
       <c r="K76" s="3">
-        <v>-5.73</v>
+        <v>968.26</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
       </c>
       <c r="M76" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3742,34 +3742,34 @@
         <v>211112052</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77">
         <v>2025</v>
       </c>
       <c r="E77">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45879</v>
+        <v>45885</v>
       </c>
       <c r="H77" s="1">
-        <v>45819</v>
+        <v>45825</v>
       </c>
       <c r="I77" s="2">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="J77" s="3">
-        <v>-680.83</v>
+        <v>-69.09</v>
       </c>
       <c r="K77" s="3">
-        <v>-680.83</v>
+        <v>-69.09</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3783,7 +3783,7 @@
         <v>211112052</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3792,25 +3792,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>9182</v>
+        <v>9796</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45881.340092592589</v>
+        <v>45894.634768518517</v>
       </c>
       <c r="H78" s="1">
-        <v>45821.340949074074</v>
+        <v>45834.635682870372</v>
       </c>
       <c r="I78" s="2">
-        <v>-19.340092592588917</v>
+        <v>-30.634768518517376</v>
       </c>
       <c r="J78" s="3">
-        <v>968.26</v>
+        <v>107.37</v>
       </c>
       <c r="K78" s="3">
-        <v>968.26</v>
+        <v>107.37</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3824,34 +3824,34 @@
         <v>211112052</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>569</v>
+        <v>10369</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45885</v>
+        <v>45908.309050925927</v>
       </c>
       <c r="H79" s="1">
-        <v>45825</v>
+        <v>45848.309965277775</v>
       </c>
       <c r="I79" s="2">
-        <v>-23</v>
+        <v>-44.309050925927295</v>
       </c>
       <c r="J79" s="3">
-        <v>-69.09</v>
+        <v>1512.89</v>
       </c>
       <c r="K79" s="3">
-        <v>-69.09</v>
+        <v>1512.89</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3865,7 +3865,7 @@
         <v>211112052</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3874,25 +3874,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>9796</v>
+        <v>11013</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45894.634768518517</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H80" s="1">
-        <v>45834.635682870372</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I80" s="2">
-        <v>-32.634768518517376</v>
+        <v>-59.283518518517667</v>
       </c>
       <c r="J80" s="3">
-        <v>107.37</v>
+        <v>417.19</v>
       </c>
       <c r="K80" s="3">
-        <v>107.37</v>
+        <v>417.19</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3906,7 +3906,7 @@
         <v>211112052</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3915,25 +3915,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>10369</v>
+        <v>11014</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45908.309050925927</v>
+        <v>45923.288171296292</v>
       </c>
       <c r="H81" s="1">
-        <v>45848.309965277775</v>
+        <v>45863.288368055553</v>
       </c>
       <c r="I81" s="2">
-        <v>-46.309050925927295</v>
+        <v>-59.288171296291694</v>
       </c>
       <c r="J81" s="3">
-        <v>1512.89</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="K81" s="3">
-        <v>1512.89</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3956,25 +3956,25 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>10043</v>
+        <v>11085</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45871.497939814813</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H82" s="1">
-        <v>45841.497939814813</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I82" s="2">
-        <v>-9.4979398148134351</v>
+        <v>-59.645879629628325</v>
       </c>
       <c r="J82" s="3">
-        <v>1040.5999999999999</v>
+        <v>726.19</v>
       </c>
       <c r="K82" s="3">
-        <v>1040.5999999999999</v>
+        <v>726.19</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3985,43 +3985,43 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211112151</v>
+        <v>211112098</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>10043</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45627</v>
+        <v>45871.497939814813</v>
       </c>
       <c r="H83" s="1">
-        <v>45567</v>
+        <v>45841.497939814813</v>
       </c>
       <c r="I83" s="2">
-        <v>235</v>
+        <v>-7.4979398148134351</v>
       </c>
       <c r="J83" s="3">
-        <v>-463.01</v>
+        <v>1040.5999999999999</v>
       </c>
       <c r="K83" s="3">
-        <v>-459.04</v>
+        <v>1040.5999999999999</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4029,40 +4029,40 @@
         <v>211112151</v>
       </c>
       <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="s">
         <v>39</v>
       </c>
-      <c r="C84" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" t="s">
-        <v>44</v>
+      <c r="E84">
+        <v>14</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45629</v>
+        <v>45627</v>
       </c>
       <c r="H84" s="1">
-        <v>45569</v>
+        <v>45567</v>
       </c>
       <c r="I84" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J84" s="3">
-        <v>-39741.590000000004</v>
+        <v>-463.01</v>
       </c>
       <c r="K84" s="3">
-        <v>-2522.2600000000002</v>
+        <v>-459.04</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4070,40 +4070,40 @@
         <v>211112151</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85">
-        <v>2025</v>
-      </c>
-      <c r="E85">
-        <v>331</v>
+        <v>41</v>
+      </c>
+      <c r="D85" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45816</v>
+        <v>45629</v>
       </c>
       <c r="H85" s="1">
-        <v>45756</v>
+        <v>45569</v>
       </c>
       <c r="I85" s="2">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="J85" s="3">
-        <v>-2377.96</v>
+        <v>-39741.590000000004</v>
       </c>
       <c r="K85" s="3">
-        <v>-2377.96</v>
+        <v>-2522.2600000000002</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4111,16 +4111,16 @@
         <v>211112151</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D86">
         <v>2025</v>
       </c>
       <c r="E86">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -4132,19 +4132,19 @@
         <v>45756</v>
       </c>
       <c r="I86" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J86" s="3">
-        <v>-1248.79</v>
+        <v>-2377.96</v>
       </c>
       <c r="K86" s="3">
-        <v>-1248.79</v>
+        <v>-2377.96</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4152,40 +4152,40 @@
         <v>211112151</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D87">
+        <v>2025</v>
       </c>
       <c r="E87">
-        <v>8893</v>
+        <v>332</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45873.43032407407</v>
+        <v>45816</v>
       </c>
       <c r="H87" s="1">
-        <v>45813.430856481478</v>
+        <v>45756</v>
       </c>
       <c r="I87" s="2">
-        <v>-11.430324074070086</v>
+        <v>48</v>
       </c>
       <c r="J87" s="3">
-        <v>3413.67</v>
+        <v>-1248.79</v>
       </c>
       <c r="K87" s="3">
-        <v>3413.67</v>
+        <v>-1248.79</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4193,7 +4193,7 @@
         <v>211112151</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4202,25 +4202,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>8894</v>
+        <v>8893</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45873.431076388886</v>
+        <v>45873.43032407407</v>
       </c>
       <c r="H88" s="1">
-        <v>45813.431388888886</v>
+        <v>45813.430856481478</v>
       </c>
       <c r="I88" s="2">
-        <v>-11.43107638888614</v>
+        <v>-9.4303240740700858</v>
       </c>
       <c r="J88" s="3">
-        <v>2973.26</v>
+        <v>3413.67</v>
       </c>
       <c r="K88" s="3">
-        <v>2973.26</v>
+        <v>3413.67</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4234,7 +4234,7 @@
         <v>211112151</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4243,25 +4243,25 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>9177</v>
+        <v>8894</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45880.637939814813</v>
+        <v>45873.431076388886</v>
       </c>
       <c r="H89" s="1">
-        <v>45820.639421296291</v>
+        <v>45813.431388888886</v>
       </c>
       <c r="I89" s="2">
-        <v>-18.637939814812853</v>
+        <v>-9.4310763888861402</v>
       </c>
       <c r="J89" s="3">
-        <v>3277.76</v>
+        <v>2973.26</v>
       </c>
       <c r="K89" s="3">
-        <v>3277.76</v>
+        <v>2973.26</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4275,7 +4275,7 @@
         <v>211112151</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4284,25 +4284,25 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>9560</v>
+        <v>9177</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45888.627025462964</v>
+        <v>45880.637939814813</v>
       </c>
       <c r="H90" s="1">
-        <v>45828.628541666665</v>
+        <v>45820.639421296291</v>
       </c>
       <c r="I90" s="2">
-        <v>-26.627025462963502</v>
+        <v>-16.637939814812853</v>
       </c>
       <c r="J90" s="3">
-        <v>2976.7400000000002</v>
+        <v>3277.76</v>
       </c>
       <c r="K90" s="3">
-        <v>2976.7400000000002</v>
+        <v>3277.76</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4316,34 +4316,34 @@
         <v>211112151</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>123</v>
+        <v>9560</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45888.628900462958</v>
+        <v>45888.627025462964</v>
       </c>
       <c r="H91" s="1">
-        <v>45828.673252314809</v>
+        <v>45828.628541666665</v>
       </c>
       <c r="I91" s="2">
-        <v>-26.628900462957972</v>
+        <v>-24.627025462963502</v>
       </c>
       <c r="J91" s="3">
-        <v>1721.02</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="K91" s="3">
-        <v>1721.02</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4357,34 +4357,34 @@
         <v>211112151</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E92">
-        <v>9800</v>
+        <v>123</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45894.651828703703</v>
+        <v>45888.628900462958</v>
       </c>
       <c r="H92" s="1">
-        <v>45834.65211805555</v>
+        <v>45828.673252314809</v>
       </c>
       <c r="I92" s="2">
-        <v>-32.651828703703359</v>
+        <v>-24.628900462957972</v>
       </c>
       <c r="J92" s="3">
-        <v>617.68000000000006</v>
+        <v>1721.02</v>
       </c>
       <c r="K92" s="3">
-        <v>617.68000000000006</v>
+        <v>1721.02</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4398,7 +4398,7 @@
         <v>211112151</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4407,25 +4407,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>9801</v>
+        <v>9800</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45894.653275462959</v>
+        <v>45894.651828703703</v>
       </c>
       <c r="H93" s="1">
-        <v>45834.653495370367</v>
+        <v>45834.65211805555</v>
       </c>
       <c r="I93" s="2">
-        <v>-32.653275462958845</v>
+        <v>-30.651828703703359</v>
       </c>
       <c r="J93" s="3">
-        <v>1272.99</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="K93" s="3">
-        <v>1272.99</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4439,7 +4439,7 @@
         <v>211112151</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4448,25 +4448,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>9911</v>
+        <v>9801</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45898.70108796296</v>
+        <v>45894.653275462959</v>
       </c>
       <c r="H94" s="1">
-        <v>45838.702037037037</v>
+        <v>45834.653495370367</v>
       </c>
       <c r="I94" s="2">
-        <v>-36.701087962959718</v>
+        <v>-30.653275462958845</v>
       </c>
       <c r="J94" s="3">
-        <v>2730.67</v>
+        <v>1272.99</v>
       </c>
       <c r="K94" s="3">
-        <v>2730.67</v>
+        <v>1272.99</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4480,7 +4480,7 @@
         <v>211112151</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4489,25 +4489,25 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>10234</v>
+        <v>9911</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45905.634965277779</v>
+        <v>45898.70108796296</v>
       </c>
       <c r="H95" s="1">
-        <v>45845.635636574072</v>
+        <v>45838.702037037037</v>
       </c>
       <c r="I95" s="2">
-        <v>-43.634965277778974</v>
+        <v>-34.701087962959718</v>
       </c>
       <c r="J95" s="3">
-        <v>2189.11</v>
+        <v>2730.67</v>
       </c>
       <c r="K95" s="3">
-        <v>2189.11</v>
+        <v>2730.67</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4521,7 +4521,7 @@
         <v>211112151</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4530,25 +4530,25 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>10548</v>
+        <v>10234</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45913.353020833332</v>
+        <v>45905.634965277779</v>
       </c>
       <c r="H96" s="1">
-        <v>45853.353888888887</v>
+        <v>45845.635636574072</v>
       </c>
       <c r="I96" s="2">
-        <v>-51.353020833332266</v>
+        <v>-41.634965277778974</v>
       </c>
       <c r="J96" s="3">
-        <v>4871.05</v>
+        <v>2189.11</v>
       </c>
       <c r="K96" s="3">
-        <v>4871.05</v>
+        <v>2189.11</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -4559,10 +4559,10 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112166</v>
+        <v>211112151</v>
       </c>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4571,113 +4571,113 @@
         <v>15</v>
       </c>
       <c r="E97">
-        <v>7829</v>
+        <v>10548</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45852.51222222222</v>
+        <v>45913.353020833332</v>
       </c>
       <c r="H97" s="1">
-        <v>45792.512337962959</v>
+        <v>45853.353888888887</v>
       </c>
       <c r="I97" s="2">
-        <v>9.4877777777801384</v>
+        <v>-49.353020833332266</v>
       </c>
       <c r="J97" s="3">
-        <v>1804.88</v>
+        <v>4871.05</v>
       </c>
       <c r="K97" s="3">
-        <v>1804.88</v>
+        <v>4871.05</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112183</v>
+        <v>211112166</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
       </c>
       <c r="E98">
-        <v>14</v>
+        <v>7829</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45693</v>
+        <v>45852.51222222222</v>
       </c>
       <c r="H98" s="1">
-        <v>45663</v>
+        <v>45792.512337962959</v>
       </c>
       <c r="I98" s="2">
-        <v>169</v>
+        <v>11.487777777780138</v>
       </c>
       <c r="J98" s="3">
-        <v>-4385.22</v>
+        <v>1804.88</v>
       </c>
       <c r="K98" s="3">
-        <v>-782.21</v>
+        <v>1804.88</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112216</v>
+        <v>211112183</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
       </c>
       <c r="E99">
-        <v>8763</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45841.406585648147</v>
+        <v>45693</v>
       </c>
       <c r="H99" s="1">
-        <v>45811.406979166662</v>
+        <v>45663</v>
       </c>
       <c r="I99" s="2">
-        <v>20.593414351853426</v>
+        <v>171</v>
       </c>
       <c r="J99" s="3">
-        <v>808.13</v>
+        <v>-4385.22</v>
       </c>
       <c r="K99" s="3">
-        <v>143.54</v>
+        <v>-782.21</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4685,40 +4685,40 @@
         <v>211112216</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E100">
-        <v>122</v>
+        <v>8763</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45858.629687499997</v>
+        <v>45841.406585648147</v>
       </c>
       <c r="H100" s="1">
-        <v>45828.63045138889</v>
+        <v>45811.406979166662</v>
       </c>
       <c r="I100" s="2">
-        <v>3.3703125000029104</v>
+        <v>22.593414351853426</v>
       </c>
       <c r="J100" s="3">
-        <v>675.35</v>
+        <v>808.13</v>
       </c>
       <c r="K100" s="3">
-        <v>255.70000000000002</v>
+        <v>143.54</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4726,34 +4726,34 @@
         <v>211112216</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E101">
-        <v>9924</v>
+        <v>122</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45869.354363425926</v>
+        <v>45858.629687499997</v>
       </c>
       <c r="H101" s="1">
-        <v>45839.356215277774</v>
+        <v>45828.63045138889</v>
       </c>
       <c r="I101" s="2">
-        <v>-7.3543634259258397</v>
+        <v>5.3703125000029104</v>
       </c>
       <c r="J101" s="3">
-        <v>574.62</v>
+        <v>675.35</v>
       </c>
       <c r="K101" s="3">
-        <v>574.62</v>
+        <v>255.70000000000002</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112290</v>
+        <v>211112216</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4776,25 +4776,25 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>10786</v>
+        <v>9924</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45916.621446759258</v>
+        <v>45869.354363425926</v>
       </c>
       <c r="H102" s="1">
-        <v>45856.622523148144</v>
+        <v>45839.356215277774</v>
       </c>
       <c r="I102" s="2">
-        <v>-54.621446759258106</v>
+        <v>-5.3543634259258397</v>
       </c>
       <c r="J102" s="3">
-        <v>2347.12</v>
+        <v>574.62</v>
       </c>
       <c r="K102" s="3">
-        <v>2347.12</v>
+        <v>574.62</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -4805,43 +4805,43 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112334</v>
+        <v>211112290</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>43</v>
-      </c>
-      <c r="E103" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="E103">
+        <v>10786</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45406</v>
+        <v>45916.621446759258</v>
       </c>
       <c r="H103" s="1">
-        <v>45391</v>
+        <v>45856.622523148144</v>
       </c>
       <c r="I103" s="2">
-        <v>456</v>
+        <v>-52.621446759258106</v>
       </c>
       <c r="J103" s="3">
-        <v>597.29</v>
+        <v>2347.12</v>
       </c>
       <c r="K103" s="3">
-        <v>597.29</v>
+        <v>2347.12</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4849,16 +4849,16 @@
         <v>211112334</v>
       </c>
       <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" t="s">
         <v>50</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104" t="s">
         <v>51</v>
-      </c>
-      <c r="D104" t="s">
-        <v>43</v>
-      </c>
-      <c r="E104" t="s">
-        <v>53</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -4870,19 +4870,19 @@
         <v>45391</v>
       </c>
       <c r="I104" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J104" s="3">
-        <v>591.72</v>
+        <v>597.29</v>
       </c>
       <c r="K104" s="3">
-        <v>591.72</v>
+        <v>597.29</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4890,81 +4890,81 @@
         <v>211112334</v>
       </c>
       <c r="B105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" t="s">
         <v>50</v>
       </c>
-      <c r="C105" t="s">
-        <v>51</v>
-      </c>
       <c r="D105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45419</v>
+        <v>45406</v>
       </c>
       <c r="H105" s="1">
-        <v>45404</v>
+        <v>45391</v>
       </c>
       <c r="I105" s="2">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="J105" s="3">
-        <v>599.27</v>
+        <v>591.72</v>
       </c>
       <c r="K105" s="3">
-        <v>599.27</v>
+        <v>591.72</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106">
-        <v>5429</v>
+        <v>42</v>
+      </c>
+      <c r="E106" t="s">
+        <v>53</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45808.375983796293</v>
+        <v>45419</v>
       </c>
       <c r="H106" s="1">
-        <v>45748.378148148149</v>
+        <v>45404</v>
       </c>
       <c r="I106" s="2">
-        <v>53.62401620370656</v>
+        <v>445</v>
       </c>
       <c r="J106" s="3">
-        <v>764.69</v>
+        <v>599.27</v>
       </c>
       <c r="K106" s="3">
-        <v>764.69</v>
+        <v>599.27</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4972,7 +4972,7 @@
         <v>211112351</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4981,31 +4981,31 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>5858</v>
+        <v>6019</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45815.442060185182</v>
+        <v>45817.325613425921</v>
       </c>
       <c r="H107" s="1">
-        <v>45755.446064814816</v>
+        <v>45757.3278125</v>
       </c>
       <c r="I107" s="2">
-        <v>46.557939814818383</v>
+        <v>46.674386574079108</v>
       </c>
       <c r="J107" s="3">
-        <v>3342.73</v>
+        <v>726.95</v>
       </c>
       <c r="K107" s="3">
-        <v>3342.73</v>
+        <v>726.95</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5013,7 +5013,7 @@
         <v>211112351</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -5022,31 +5022,31 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>6019</v>
+        <v>6427</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45817.325613425921</v>
+        <v>45824.359131944446</v>
       </c>
       <c r="H108" s="1">
-        <v>45757.3278125</v>
+        <v>45764.360150462962</v>
       </c>
       <c r="I108" s="2">
-        <v>44.674386574079108</v>
+        <v>39.640868055554165</v>
       </c>
       <c r="J108" s="3">
-        <v>726.95</v>
+        <v>1840.3600000000001</v>
       </c>
       <c r="K108" s="3">
-        <v>726.95</v>
+        <v>1840.3600000000001</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5054,7 +5054,7 @@
         <v>211112351</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5063,31 +5063,31 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>6427</v>
+        <v>6604</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45824.359131944446</v>
+        <v>45829.522847222222</v>
       </c>
       <c r="H109" s="1">
-        <v>45764.360150462962</v>
+        <v>45769.523923611108</v>
       </c>
       <c r="I109" s="2">
-        <v>37.640868055554165</v>
+        <v>34.477152777777519</v>
       </c>
       <c r="J109" s="3">
-        <v>1840.3600000000001</v>
+        <v>1571.66</v>
       </c>
       <c r="K109" s="3">
-        <v>1840.3600000000001</v>
+        <v>1571.66</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5095,40 +5095,40 @@
         <v>211112351</v>
       </c>
       <c r="B110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110">
-        <v>6604</v>
+        <v>411</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45829.522847222222</v>
+        <v>45837</v>
       </c>
       <c r="H110" s="1">
-        <v>45769.523923611108</v>
+        <v>45777</v>
       </c>
       <c r="I110" s="2">
-        <v>32.477152777777519</v>
+        <v>27</v>
       </c>
       <c r="J110" s="3">
-        <v>1571.66</v>
+        <v>-313.76</v>
       </c>
       <c r="K110" s="3">
-        <v>1571.66</v>
+        <v>-313.76</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5136,34 +5136,34 @@
         <v>211112351</v>
       </c>
       <c r="B111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
       <c r="E111">
-        <v>411</v>
+        <v>7018</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45837</v>
+        <v>45837.739259259259</v>
       </c>
       <c r="H111" s="1">
-        <v>45777</v>
+        <v>45777.741296296292</v>
       </c>
       <c r="I111" s="2">
-        <v>25</v>
+        <v>26.260740740741312</v>
       </c>
       <c r="J111" s="3">
-        <v>-313.76</v>
+        <v>4925.1000000000004</v>
       </c>
       <c r="K111" s="3">
-        <v>-313.76</v>
+        <v>4925.1000000000004</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -5177,7 +5177,7 @@
         <v>211112351</v>
       </c>
       <c r="B112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5186,25 +5186,25 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>7018</v>
+        <v>7192</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45837.739259259259</v>
+        <v>45843.368854166663</v>
       </c>
       <c r="H112" s="1">
-        <v>45777.741296296292</v>
+        <v>45783.369363425925</v>
       </c>
       <c r="I112" s="2">
-        <v>24.260740740741312</v>
+        <v>20.631145833336632</v>
       </c>
       <c r="J112" s="3">
-        <v>4925.1000000000004</v>
+        <v>4675.67</v>
       </c>
       <c r="K112" s="3">
-        <v>4925.1000000000004</v>
+        <v>4675.67</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -5218,7 +5218,7 @@
         <v>211112351</v>
       </c>
       <c r="B113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5227,25 +5227,25 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>7192</v>
+        <v>7370</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45843.368854166663</v>
+        <v>45845.34983796296</v>
       </c>
       <c r="H113" s="1">
-        <v>45783.369363425925</v>
+        <v>45785.350659722222</v>
       </c>
       <c r="I113" s="2">
-        <v>18.631145833336632</v>
+        <v>18.650162037039991</v>
       </c>
       <c r="J113" s="3">
-        <v>4675.67</v>
+        <v>4323.37</v>
       </c>
       <c r="K113" s="3">
-        <v>4675.67</v>
+        <v>4323.37</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -5259,7 +5259,7 @@
         <v>211112351</v>
       </c>
       <c r="B114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5268,25 +5268,25 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>7370</v>
+        <v>7619</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45845.34983796296</v>
+        <v>45850.387407407405</v>
       </c>
       <c r="H114" s="1">
-        <v>45785.350659722222</v>
+        <v>45790.388252314813</v>
       </c>
       <c r="I114" s="2">
-        <v>16.650162037039991</v>
+        <v>13.61259259259532</v>
       </c>
       <c r="J114" s="3">
-        <v>4323.37</v>
+        <v>7394.88</v>
       </c>
       <c r="K114" s="3">
-        <v>4323.37</v>
+        <v>7394.88</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -5300,7 +5300,7 @@
         <v>211112351</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5309,25 +5309,25 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>7619</v>
+        <v>8006</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45850.387407407405</v>
+        <v>45857.37296296296</v>
       </c>
       <c r="H115" s="1">
-        <v>45790.388252314813</v>
+        <v>45797.375092592592</v>
       </c>
       <c r="I115" s="2">
-        <v>11.61259259259532</v>
+        <v>6.6270370370402816</v>
       </c>
       <c r="J115" s="3">
-        <v>7394.88</v>
+        <v>3927.87</v>
       </c>
       <c r="K115" s="3">
-        <v>7394.88</v>
+        <v>3927.87</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -5341,7 +5341,7 @@
         <v>211112351</v>
       </c>
       <c r="B116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5350,31 +5350,31 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>8006</v>
+        <v>8750</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45857.37296296296</v>
+        <v>45871.312986111108</v>
       </c>
       <c r="H116" s="1">
-        <v>45797.375092592592</v>
+        <v>45811.315150462964</v>
       </c>
       <c r="I116" s="2">
-        <v>4.6270370370402816</v>
+        <v>-7.3129861111083301</v>
       </c>
       <c r="J116" s="3">
-        <v>3927.87</v>
+        <v>2626.23</v>
       </c>
       <c r="K116" s="3">
-        <v>3927.87</v>
+        <v>2626.23</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
       </c>
       <c r="M116" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5382,7 +5382,7 @@
         <v>211112351</v>
       </c>
       <c r="B117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5391,25 +5391,25 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>8750</v>
+        <v>9758</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45871.312986111108</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H117" s="1">
-        <v>45811.315150462964</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I117" s="2">
-        <v>-9.3129861111083301</v>
+        <v>-30.404513888890506</v>
       </c>
       <c r="J117" s="3">
-        <v>2626.23</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K117" s="3">
-        <v>2626.23</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112351</v>
+        <v>211112421</v>
       </c>
       <c r="B118" t="s">
         <v>55</v>
@@ -5432,36 +5432,36 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>9758</v>
+        <v>3848</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45894.404513888891</v>
+        <v>45746.622569444444</v>
       </c>
       <c r="H118" s="1">
-        <v>45834.411666666667</v>
+        <v>45716.624456018515</v>
       </c>
       <c r="I118" s="2">
-        <v>-32.404513888890506</v>
+        <v>117.3774305555562</v>
       </c>
       <c r="J118" s="3">
-        <v>2212.2600000000002</v>
+        <v>233.77</v>
       </c>
       <c r="K118" s="3">
-        <v>2212.2600000000002</v>
+        <v>233.77</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112421</v>
+        <v>211112443</v>
       </c>
       <c r="B119" t="s">
         <v>56</v>
@@ -5473,31 +5473,31 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>3848</v>
+        <v>8418</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45746.622569444444</v>
+        <v>45834.405034722222</v>
       </c>
       <c r="H119" s="1">
-        <v>45716.624456018515</v>
+        <v>45804.405219907407</v>
       </c>
       <c r="I119" s="2">
-        <v>115.3774305555562</v>
+        <v>29.594965277778101</v>
       </c>
       <c r="J119" s="3">
-        <v>233.77</v>
+        <v>396.04</v>
       </c>
       <c r="K119" s="3">
-        <v>233.77</v>
+        <v>396.04</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5505,7 +5505,7 @@
         <v>211112443</v>
       </c>
       <c r="B120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5514,25 +5514,25 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>8418</v>
+        <v>8910</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45834.405034722222</v>
+        <v>45843.497025462959</v>
       </c>
       <c r="H120" s="1">
-        <v>45804.405219907407</v>
+        <v>45813.497488425921</v>
       </c>
       <c r="I120" s="2">
-        <v>27.594965277778101</v>
+        <v>20.502974537041155</v>
       </c>
       <c r="J120" s="3">
-        <v>396.04</v>
+        <v>765.47</v>
       </c>
       <c r="K120" s="3">
-        <v>396.04</v>
+        <v>765.47</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -5546,7 +5546,7 @@
         <v>211112443</v>
       </c>
       <c r="B121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -5555,36 +5555,36 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>8910</v>
+        <v>10549</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45843.497025462959</v>
+        <v>45883.354108796295</v>
       </c>
       <c r="H121" s="1">
-        <v>45813.497488425921</v>
+        <v>45853.354548611111</v>
       </c>
       <c r="I121" s="2">
-        <v>18.502974537041155</v>
+        <v>-19.354108796294895</v>
       </c>
       <c r="J121" s="3">
-        <v>765.47</v>
+        <v>1094.7</v>
       </c>
       <c r="K121" s="3">
-        <v>765.47</v>
+        <v>1094.7</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>211112443</v>
+        <v>211112455</v>
       </c>
       <c r="B122" t="s">
         <v>57</v>
@@ -5596,25 +5596,25 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>10549</v>
+        <v>9798</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45883.354108796295</v>
+        <v>45864.648715277777</v>
       </c>
       <c r="H122" s="1">
-        <v>45853.354548611111</v>
+        <v>45834.649039351847</v>
       </c>
       <c r="I122" s="2">
-        <v>-21.354108796294895</v>
+        <v>-0.64871527777722804</v>
       </c>
       <c r="J122" s="3">
-        <v>1094.7</v>
+        <v>2220.65</v>
       </c>
       <c r="K122" s="3">
-        <v>1094.7</v>
+        <v>2220.65</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
@@ -5628,7 +5628,7 @@
         <v>211112455</v>
       </c>
       <c r="B123" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -5637,25 +5637,25 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>9798</v>
+        <v>9912</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45864.648715277777</v>
+        <v>45868.70212962963</v>
       </c>
       <c r="H123" s="1">
-        <v>45834.649039351847</v>
+        <v>45838.702465277776</v>
       </c>
       <c r="I123" s="2">
-        <v>-2.648715277777228</v>
+        <v>-4.7021296296297805</v>
       </c>
       <c r="J123" s="3">
-        <v>2220.65</v>
+        <v>2033.5</v>
       </c>
       <c r="K123" s="3">
-        <v>2220.65</v>
+        <v>2033.5</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
@@ -5669,7 +5669,7 @@
         <v>211112455</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5678,25 +5678,25 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>9912</v>
+        <v>10545</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45868.70212962963</v>
+        <v>45883.337488425925</v>
       </c>
       <c r="H124" s="1">
-        <v>45838.702465277776</v>
+        <v>45853.348136574074</v>
       </c>
       <c r="I124" s="2">
-        <v>-6.7021296296297805</v>
+        <v>-19.337488425924676</v>
       </c>
       <c r="J124" s="3">
-        <v>2033.5</v>
+        <v>1711.91</v>
       </c>
       <c r="K124" s="3">
-        <v>2033.5</v>
+        <v>1711.91</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
@@ -5710,7 +5710,7 @@
         <v>211112455</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -5719,25 +5719,25 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>10545</v>
+        <v>10837</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45883.337488425925</v>
+        <v>45890.319421296292</v>
       </c>
       <c r="H125" s="1">
-        <v>45853.348136574074</v>
+        <v>45860.320057870369</v>
       </c>
       <c r="I125" s="2">
-        <v>-21.337488425924676</v>
+        <v>-26.319421296291694</v>
       </c>
       <c r="J125" s="3">
-        <v>1711.91</v>
+        <v>1555.67</v>
       </c>
       <c r="K125" s="3">
-        <v>1711.91</v>
+        <v>1555.67</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112455</v>
+        <v>211112469</v>
       </c>
       <c r="B126" t="s">
         <v>58</v>
@@ -5760,25 +5760,25 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>10837</v>
+        <v>9799</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45890.319421296292</v>
+        <v>45864.65042824074</v>
       </c>
       <c r="H126" s="1">
-        <v>45860.320057870369</v>
+        <v>45834.650648148148</v>
       </c>
       <c r="I126" s="2">
-        <v>-28.319421296291694</v>
+        <v>-0.65042824074043892</v>
       </c>
       <c r="J126" s="3">
-        <v>1555.67</v>
+        <v>1067.26</v>
       </c>
       <c r="K126" s="3">
-        <v>1555.67</v>
+        <v>1067.26</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -5792,7 +5792,7 @@
         <v>211112469</v>
       </c>
       <c r="B127" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -5801,25 +5801,25 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>9799</v>
+        <v>10547</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45864.65042824074</v>
+        <v>45883.352349537032</v>
       </c>
       <c r="H127" s="1">
-        <v>45834.650648148148</v>
+        <v>45853.352858796294</v>
       </c>
       <c r="I127" s="2">
-        <v>-2.6504282407404389</v>
+        <v>-19.352349537031841</v>
       </c>
       <c r="J127" s="3">
-        <v>1067.26</v>
+        <v>957.17000000000007</v>
       </c>
       <c r="K127" s="3">
-        <v>1067.26</v>
+        <v>957.17000000000007</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112469</v>
+        <v>211112476</v>
       </c>
       <c r="B128" t="s">
         <v>59</v>
@@ -5842,25 +5842,25 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>10547</v>
+        <v>10023</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45883.352349537032</v>
+        <v>45871.36619212963</v>
       </c>
       <c r="H128" s="1">
-        <v>45853.352858796294</v>
+        <v>45841.366562499999</v>
       </c>
       <c r="I128" s="2">
-        <v>-21.352349537031841</v>
+        <v>-7.3661921296297805</v>
       </c>
       <c r="J128" s="3">
-        <v>957.17000000000007</v>
+        <v>275.11</v>
       </c>
       <c r="K128" s="3">
-        <v>957.17000000000007</v>
+        <v>275.11</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -5874,7 +5874,7 @@
         <v>211112476</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -5883,25 +5883,25 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>9807</v>
+        <v>10295</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45865.306018518517</v>
+        <v>45877.345173611109</v>
       </c>
       <c r="H129" s="1">
-        <v>45835.306504629625</v>
+        <v>45847.345173611109</v>
       </c>
       <c r="I129" s="2">
-        <v>-3.3060185185167938</v>
+        <v>-13.345173611109203</v>
       </c>
       <c r="J129" s="3">
-        <v>137.53</v>
+        <v>290.51</v>
       </c>
       <c r="K129" s="3">
-        <v>137.53</v>
+        <v>290.51</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -5915,7 +5915,7 @@
         <v>211112476</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -5924,25 +5924,25 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>10023</v>
+        <v>10666</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45871.36619212963</v>
+        <v>45885.346874999996</v>
       </c>
       <c r="H130" s="1">
-        <v>45841.366562499999</v>
+        <v>45855.347696759258</v>
       </c>
       <c r="I130" s="2">
-        <v>-9.3661921296297805</v>
+        <v>-21.346874999995634</v>
       </c>
       <c r="J130" s="3">
-        <v>275.11</v>
+        <v>211.36</v>
       </c>
       <c r="K130" s="3">
-        <v>275.11</v>
+        <v>211.36</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112476</v>
+        <v>211112488</v>
       </c>
       <c r="B131" t="s">
         <v>60</v>
@@ -5965,36 +5965,36 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>10295</v>
+        <v>9567</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45877.345173611109</v>
+        <v>45828.710740740738</v>
       </c>
       <c r="H131" s="1">
-        <v>45847.345173611109</v>
+        <v>45828.710740740738</v>
       </c>
       <c r="I131" s="2">
-        <v>-15.345173611109203</v>
+        <v>35.289259259261598</v>
       </c>
       <c r="J131" s="3">
-        <v>290.51</v>
+        <v>992.69</v>
       </c>
       <c r="K131" s="3">
-        <v>290.51</v>
+        <v>992.69</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112476</v>
+        <v>211112488</v>
       </c>
       <c r="B132" t="s">
         <v>60</v>
@@ -6006,31 +6006,31 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>10666</v>
+        <v>10184</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45885.346874999996</v>
+        <v>45842.656388888885</v>
       </c>
       <c r="H132" s="1">
-        <v>45855.347696759258</v>
+        <v>45842.656388888885</v>
       </c>
       <c r="I132" s="2">
-        <v>-23.346874999995634</v>
+        <v>21.343611111115024</v>
       </c>
       <c r="J132" s="3">
-        <v>211.36</v>
+        <v>1008.07</v>
       </c>
       <c r="K132" s="3">
-        <v>211.36</v>
+        <v>1008.07</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6038,45 +6038,45 @@
         <v>211112488</v>
       </c>
       <c r="B133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D133">
+        <v>2025</v>
       </c>
       <c r="E133">
-        <v>9567</v>
+        <v>639</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45828.710740740738</v>
+        <v>45848</v>
       </c>
       <c r="H133" s="1">
-        <v>45828.710740740738</v>
+        <v>45848</v>
       </c>
       <c r="I133" s="2">
-        <v>33.289259259261598</v>
+        <v>16</v>
       </c>
       <c r="J133" s="3">
-        <v>992.69</v>
+        <v>-992.69</v>
       </c>
       <c r="K133" s="3">
-        <v>992.69</v>
+        <v>-992.69</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112488</v>
+        <v>211112494</v>
       </c>
       <c r="B134" t="s">
         <v>61</v>
@@ -6088,31 +6088,31 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>10184</v>
+        <v>5411</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45842.656388888885</v>
+        <v>45777.661319444444</v>
       </c>
       <c r="H134" s="1">
-        <v>45842.656388888885</v>
+        <v>45747.663402777776</v>
       </c>
       <c r="I134" s="2">
-        <v>19.343611111115024</v>
+        <v>86.338680555556493</v>
       </c>
       <c r="J134" s="3">
-        <v>1008.07</v>
+        <v>213.1</v>
       </c>
       <c r="K134" s="3">
-        <v>1008.07</v>
+        <v>213.1</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6120,7 +6120,7 @@
         <v>211112494</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6129,72 +6129,72 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>5411</v>
+        <v>6692</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45777.661319444444</v>
+        <v>45800.410613425927</v>
       </c>
       <c r="H135" s="1">
-        <v>45747.663402777776</v>
+        <v>45770.412349537037</v>
       </c>
       <c r="I135" s="2">
-        <v>84.338680555556493</v>
+        <v>63.589386574072705</v>
       </c>
       <c r="J135" s="3">
-        <v>213.1</v>
+        <v>177.04</v>
       </c>
       <c r="K135" s="3">
-        <v>213.1</v>
+        <v>177.04</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112494</v>
+        <v>211112515</v>
       </c>
       <c r="B136" t="s">
         <v>62</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D136">
+        <v>2025</v>
       </c>
       <c r="E136">
-        <v>6692</v>
+        <v>514</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45800.410613425927</v>
+        <v>45840</v>
       </c>
       <c r="H136" s="1">
-        <v>45770.412349537037</v>
+        <v>45810</v>
       </c>
       <c r="I136" s="2">
-        <v>61.589386574072705</v>
+        <v>24</v>
       </c>
       <c r="J136" s="3">
-        <v>177.04</v>
+        <v>-29.53</v>
       </c>
       <c r="K136" s="3">
-        <v>177.04</v>
+        <v>-11.39</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6202,34 +6202,34 @@
         <v>211112515</v>
       </c>
       <c r="B137" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D137">
         <v>2025</v>
       </c>
       <c r="E137">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45840</v>
+        <v>45851</v>
       </c>
       <c r="H137" s="1">
-        <v>45810</v>
+        <v>45821</v>
       </c>
       <c r="I137" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J137" s="3">
-        <v>-29.53</v>
+        <v>-37.33</v>
       </c>
       <c r="K137" s="3">
-        <v>-11.39</v>
+        <v>-37.33</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
@@ -6243,34 +6243,34 @@
         <v>211112515</v>
       </c>
       <c r="B138" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
-      </c>
-      <c r="D138">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
       </c>
       <c r="E138">
-        <v>555</v>
+        <v>9268</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45851</v>
+        <v>45851.698854166665</v>
       </c>
       <c r="H138" s="1">
-        <v>45821</v>
+        <v>45821.70107638889</v>
       </c>
       <c r="I138" s="2">
-        <v>11</v>
+        <v>12.301145833334886</v>
       </c>
       <c r="J138" s="3">
-        <v>-37.33</v>
+        <v>887.1</v>
       </c>
       <c r="K138" s="3">
-        <v>-37.33</v>
+        <v>887.1</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -6284,40 +6284,40 @@
         <v>211112515</v>
       </c>
       <c r="B139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D139">
+        <v>2025</v>
       </c>
       <c r="E139">
-        <v>9268</v>
+        <v>575</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45851.698854166665</v>
+        <v>45861</v>
       </c>
       <c r="H139" s="1">
-        <v>45821.70107638889</v>
+        <v>45831</v>
       </c>
       <c r="I139" s="2">
-        <v>10.301145833334886</v>
+        <v>3</v>
       </c>
       <c r="J139" s="3">
-        <v>887.1</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="K139" s="3">
-        <v>887.1</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6325,40 +6325,40 @@
         <v>211112515</v>
       </c>
       <c r="B140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
-      </c>
-      <c r="D140">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
       </c>
       <c r="E140">
-        <v>575</v>
+        <v>9816</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45861</v>
+        <v>45865.353425925925</v>
       </c>
       <c r="H140" s="1">
-        <v>45831</v>
+        <v>45835.355115740742</v>
       </c>
       <c r="I140" s="2">
-        <v>1</v>
+        <v>-1.3534259259249666</v>
       </c>
       <c r="J140" s="3">
-        <v>-390.40000000000003</v>
+        <v>838.81000000000006</v>
       </c>
       <c r="K140" s="3">
-        <v>-390.40000000000003</v>
+        <v>838.81000000000006</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6366,34 +6366,34 @@
         <v>211112515</v>
       </c>
       <c r="B141" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D141">
+        <v>2025</v>
       </c>
       <c r="E141">
-        <v>9816</v>
+        <v>621</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45865.353425925925</v>
+        <v>45875</v>
       </c>
       <c r="H141" s="1">
-        <v>45835.355115740742</v>
+        <v>45845</v>
       </c>
       <c r="I141" s="2">
-        <v>-3.3534259259249666</v>
+        <v>-11</v>
       </c>
       <c r="J141" s="3">
-        <v>838.81000000000006</v>
+        <v>-49.21</v>
       </c>
       <c r="K141" s="3">
-        <v>838.81000000000006</v>
+        <v>-49.21</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -6407,7 +6407,7 @@
         <v>211112515</v>
       </c>
       <c r="B142" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6428,7 +6428,7 @@
         <v>45845.36451388889</v>
       </c>
       <c r="I142" s="2">
-        <v>-13.364108796296932</v>
+        <v>-11.364108796296932</v>
       </c>
       <c r="J142" s="3">
         <v>1144.45</v>
@@ -6445,37 +6445,37 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112518</v>
+        <v>211112515</v>
       </c>
       <c r="B143" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E143">
-        <v>9953</v>
+        <v>42</v>
+      </c>
+      <c r="E143" t="s">
+        <v>65</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45900.407731481479</v>
+        <v>45891</v>
       </c>
       <c r="H143" s="1">
-        <v>45840.408055555556</v>
+        <v>45861</v>
       </c>
       <c r="I143" s="2">
-        <v>-38.40773148147855</v>
+        <v>-27</v>
       </c>
       <c r="J143" s="3">
-        <v>358.40000000000003</v>
+        <v>-812.04</v>
       </c>
       <c r="K143" s="3">
-        <v>358.40000000000003</v>
+        <v>-812.04</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -6486,10 +6486,10 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112518</v>
+        <v>211112515</v>
       </c>
       <c r="B144" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6498,25 +6498,25 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>10114</v>
+        <v>11018</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45902.400694444441</v>
+        <v>45893.344247685185</v>
       </c>
       <c r="H144" s="1">
-        <v>45842.400694444441</v>
+        <v>45863.344930555555</v>
       </c>
       <c r="I144" s="2">
-        <v>-40.400694444440887</v>
+        <v>-29.34424768518511</v>
       </c>
       <c r="J144" s="3">
-        <v>219.86</v>
+        <v>653.94000000000005</v>
       </c>
       <c r="K144" s="3">
-        <v>219.86</v>
+        <v>653.94000000000005</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -6530,7 +6530,7 @@
         <v>211112518</v>
       </c>
       <c r="B145" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6539,25 +6539,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>10919</v>
+        <v>9953</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45921.540416666663</v>
+        <v>45900.407731481479</v>
       </c>
       <c r="H145" s="1">
-        <v>45861.54415509259</v>
+        <v>45840.408055555556</v>
       </c>
       <c r="I145" s="2">
-        <v>-59.540416666663077</v>
+        <v>-36.40773148147855</v>
       </c>
       <c r="J145" s="3">
-        <v>817.86</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="K145" s="3">
-        <v>817.86</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6568,10 +6568,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112531</v>
+        <v>211112518</v>
       </c>
       <c r="B146" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6580,25 +6580,25 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>9756</v>
+        <v>10114</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45864.399351851847</v>
+        <v>45902.400694444441</v>
       </c>
       <c r="H146" s="1">
-        <v>45834.402754629627</v>
+        <v>45842.400694444441</v>
       </c>
       <c r="I146" s="2">
-        <v>-2.3993518518473138</v>
+        <v>-38.400694444440887</v>
       </c>
       <c r="J146" s="3">
-        <v>133.61000000000001</v>
+        <v>219.86</v>
       </c>
       <c r="K146" s="3">
-        <v>133.61000000000001</v>
+        <v>219.86</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -6609,10 +6609,10 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112531</v>
+        <v>211112518</v>
       </c>
       <c r="B147" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6621,25 +6621,25 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>9755</v>
+        <v>10919</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45864.400925925926</v>
+        <v>45921.540416666663</v>
       </c>
       <c r="H147" s="1">
-        <v>45834.401967592588</v>
+        <v>45861.54415509259</v>
       </c>
       <c r="I147" s="2">
-        <v>-2.4009259259255487</v>
+        <v>-57.540416666663077</v>
       </c>
       <c r="J147" s="3">
-        <v>32.1</v>
+        <v>817.86</v>
       </c>
       <c r="K147" s="3">
-        <v>32.1</v>
+        <v>817.86</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -6653,7 +6653,7 @@
         <v>211112531</v>
       </c>
       <c r="B148" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6662,30 +6662,153 @@
         <v>15</v>
       </c>
       <c r="E148">
+        <v>9756</v>
+      </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="1">
+        <v>45864.399351851847</v>
+      </c>
+      <c r="H148" s="1">
+        <v>45834.402754629627</v>
+      </c>
+      <c r="I148" s="2">
+        <v>-0.39935185184731381</v>
+      </c>
+      <c r="J148" s="3">
+        <v>133.61000000000001</v>
+      </c>
+      <c r="K148" s="3">
+        <v>133.61000000000001</v>
+      </c>
+      <c r="L148" t="s">
+        <v>17</v>
+      </c>
+      <c r="M148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>211112531</v>
+      </c>
+      <c r="B149" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149">
+        <v>9755</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" s="1">
+        <v>45864.400925925926</v>
+      </c>
+      <c r="H149" s="1">
+        <v>45834.401967592588</v>
+      </c>
+      <c r="I149" s="2">
+        <v>-0.40092592592554865</v>
+      </c>
+      <c r="J149" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="K149" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="L149" t="s">
+        <v>17</v>
+      </c>
+      <c r="M149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>211112531</v>
+      </c>
+      <c r="B150" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150">
         <v>10440</v>
       </c>
-      <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" s="1">
+      <c r="F150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" s="1">
         <v>45879.370173611111</v>
       </c>
-      <c r="H148" s="1">
+      <c r="H150" s="1">
         <v>45849.370173611111</v>
       </c>
-      <c r="I148" s="2">
-        <v>-17.370173611110658</v>
-      </c>
-      <c r="J148" s="3">
+      <c r="I150" s="2">
+        <v>-15.370173611110658</v>
+      </c>
+      <c r="J150" s="3">
         <v>210.75</v>
       </c>
-      <c r="K148" s="3">
+      <c r="K150" s="3">
         <v>210.75</v>
       </c>
-      <c r="L148" t="s">
-        <v>17</v>
-      </c>
-      <c r="M148" t="s">
+      <c r="L150" t="s">
+        <v>17</v>
+      </c>
+      <c r="M150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>211112531</v>
+      </c>
+      <c r="B151" t="s">
+        <v>64</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151">
+        <v>11028</v>
+      </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="1">
+        <v>45893.474282407406</v>
+      </c>
+      <c r="H151" s="1">
+        <v>45863.474293981482</v>
+      </c>
+      <c r="I151" s="2">
+        <v>-29.474282407405553</v>
+      </c>
+      <c r="J151" s="3">
+        <v>221.74</v>
+      </c>
+      <c r="K151" s="3">
+        <v>221.74</v>
+      </c>
+      <c r="L151" t="s">
+        <v>17</v>
+      </c>
+      <c r="M151" t="s">
         <v>19</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ce9537a3d4953a2/Desktop/COMERCIAIS/Comerciais_Sttremlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7AFA72B9-023A-4D2A-9AA6-3D4D28374DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C71F24B-4EA0-4C45-AF54-0E5716B29256}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66029BF-B44D-48F4-82E5-6B7BB296AF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
   <sheets>
     <sheet name="VSilva" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="65">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -605,20 +605,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="2"/>
-    <col min="10" max="11" width="9.109375" style="3"/>
+    <col min="7" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>211110102</v>
       </c>
@@ -685,7 +685,7 @@
         <v>45845.491770833331</v>
       </c>
       <c r="I2" s="2">
-        <v>-6</v>
+        <v>-4.49177083333052</v>
       </c>
       <c r="J2" s="3">
         <v>418.54</v>
@@ -700,7 +700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>211110102</v>
       </c>
@@ -726,7 +726,7 @@
         <v>45869.506041666667</v>
       </c>
       <c r="I3" s="2">
-        <v>-30</v>
+        <v>-28.506041666667443</v>
       </c>
       <c r="J3" s="3">
         <v>470.6</v>
@@ -741,7 +741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>211110434</v>
       </c>
@@ -767,7 +767,7 @@
         <v>45846.3825</v>
       </c>
       <c r="I4" s="2">
-        <v>-7</v>
+        <v>-5.382499999999709</v>
       </c>
       <c r="J4" s="3">
         <v>359.15000000000003</v>
@@ -782,7 +782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>211110434</v>
       </c>
@@ -808,7 +808,7 @@
         <v>45856.494363425925</v>
       </c>
       <c r="I5" s="2">
-        <v>-17</v>
+        <v>-15.494351851848478</v>
       </c>
       <c r="J5" s="3">
         <v>1004.71</v>
@@ -823,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>211110477</v>
       </c>
@@ -849,7 +849,7 @@
         <v>45855.558912037035</v>
       </c>
       <c r="I6" s="2">
-        <v>14</v>
+        <v>15.441087962964957</v>
       </c>
       <c r="J6" s="3">
         <v>223.16</v>
@@ -864,7 +864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>211110574</v>
       </c>
@@ -890,7 +890,7 @@
         <v>45842</v>
       </c>
       <c r="I7" s="2">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J7" s="3">
         <v>-28.150000000000002</v>
@@ -905,7 +905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>211110574</v>
       </c>
@@ -931,7 +931,7 @@
         <v>45842.49386574074</v>
       </c>
       <c r="I8" s="2">
-        <v>-3</v>
+        <v>-1.4938657407401479</v>
       </c>
       <c r="J8" s="3">
         <v>595.76</v>
@@ -946,7 +946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>211110574</v>
       </c>
@@ -972,7 +972,7 @@
         <v>45846</v>
       </c>
       <c r="I9" s="2">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="J9" s="3">
         <v>-19.89</v>
@@ -987,7 +987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>211110574</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>45846.376550925925</v>
       </c>
       <c r="I10" s="2">
-        <v>-7</v>
+        <v>-5.3765509259246755</v>
       </c>
       <c r="J10" s="3">
         <v>602.47</v>
@@ -1028,7 +1028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>211110574</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>45853.638935185183</v>
       </c>
       <c r="I11" s="2">
-        <v>-14</v>
+        <v>-12.638935185183072</v>
       </c>
       <c r="J11" s="3">
         <v>612.18000000000006</v>
@@ -1069,7 +1069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>211110574</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>45860.531319444446</v>
       </c>
       <c r="I12" s="2">
-        <v>-21</v>
+        <v>-19.531319444446126</v>
       </c>
       <c r="J12" s="3">
         <v>521.47</v>
@@ -1110,7 +1110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>211110574</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>45867.53765046296</v>
       </c>
       <c r="I13" s="2">
-        <v>-28</v>
+        <v>-26.537638888883521</v>
       </c>
       <c r="J13" s="3">
         <v>671.6</v>
@@ -1151,7 +1151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>211110681</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>45848.592557870368</v>
       </c>
       <c r="I14" s="2">
-        <v>-9</v>
+        <v>-7.5925578703681822</v>
       </c>
       <c r="J14" s="3">
         <v>964.74</v>
@@ -1192,7 +1192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>211110681</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>45863.300034722219</v>
       </c>
       <c r="I15" s="2">
-        <v>-24</v>
+        <v>-22.298807870371093</v>
       </c>
       <c r="J15" s="3">
         <v>2446.73</v>
@@ -1233,7 +1233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>211110903</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>45840</v>
       </c>
       <c r="I16" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J16" s="3">
         <v>-42.26</v>
@@ -1274,7 +1274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>211110903</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>45849</v>
       </c>
       <c r="I17" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3">
         <v>-43.6</v>
@@ -1315,7 +1315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>211110903</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>45853</v>
       </c>
       <c r="I18" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J18" s="3">
         <v>-113.52</v>
@@ -1356,7 +1356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>211110903</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>45856.428020833329</v>
       </c>
       <c r="I19" s="2">
-        <v>6</v>
+        <v>7.5719791666706442</v>
       </c>
       <c r="J19" s="3">
         <v>249.14000000000001</v>
@@ -1397,7 +1397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>211110903</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -1423,13 +1423,13 @@
         <v>45866</v>
       </c>
       <c r="I20" s="2">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J20" s="3">
-        <v>-169.13</v>
+        <v>-27.2</v>
       </c>
       <c r="K20" s="3">
-        <v>-169.13</v>
+        <v>-27.2</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1438,12 +1438,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -1452,39 +1452,39 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>527</v>
+        <v>275</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45873</v>
+        <v>45763</v>
       </c>
       <c r="H21" s="1">
-        <v>45866</v>
+        <v>45728</v>
       </c>
       <c r="I21" s="2">
-        <v>-4</v>
+        <v>108</v>
       </c>
       <c r="J21" s="3">
-        <v>-27.2</v>
+        <v>-112.59</v>
       </c>
       <c r="K21" s="3">
-        <v>-27.2</v>
+        <v>-75.92</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1493,39 +1493,39 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>11089</v>
+        <v>8178</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45873.369212962964</v>
+        <v>45834.347986111112</v>
       </c>
       <c r="H22" s="1">
-        <v>45866.370115740741</v>
+        <v>45799.348622685182</v>
       </c>
       <c r="I22" s="2">
-        <v>-4</v>
+        <v>36.652013888888177</v>
       </c>
       <c r="J22" s="3">
-        <v>5449.43</v>
+        <v>601.93000000000006</v>
       </c>
       <c r="K22" s="3">
-        <v>5449.43</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1534,39 +1534,39 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>11254</v>
+        <v>9338</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45875.561527777776</v>
+        <v>45860.416597222218</v>
       </c>
       <c r="H23" s="1">
-        <v>45868.562199074069</v>
+        <v>45825.417175925926</v>
       </c>
       <c r="I23" s="2">
-        <v>-6</v>
+        <v>10.583402777781885</v>
       </c>
       <c r="J23" s="3">
-        <v>1235.95</v>
+        <v>691.45</v>
       </c>
       <c r="K23" s="3">
-        <v>1235.95</v>
+        <v>32.82</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1575,34 +1575,34 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>11264</v>
+        <v>9568</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45876.461365740739</v>
+        <v>45863.713865740741</v>
       </c>
       <c r="H24" s="1">
-        <v>45869.463391203702</v>
+        <v>45828.714143518519</v>
       </c>
       <c r="I24" s="2">
-        <v>-7</v>
+        <v>7.286134259258688</v>
       </c>
       <c r="J24" s="3">
-        <v>723.74</v>
+        <v>742.15</v>
       </c>
       <c r="K24" s="3">
-        <v>723.74</v>
+        <v>742.15</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>211111588</v>
       </c>
@@ -1610,40 +1610,40 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25">
-        <v>275</v>
+        <v>9739</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45763</v>
+        <v>45869.337118055555</v>
       </c>
       <c r="H25" s="1">
-        <v>45728</v>
+        <v>45834.337858796294</v>
       </c>
       <c r="I25" s="2">
-        <v>106</v>
+        <v>1.6628819444449618</v>
       </c>
       <c r="J25" s="3">
-        <v>-112.59</v>
+        <v>89.460000000000008</v>
       </c>
       <c r="K25" s="3">
-        <v>-75.92</v>
+        <v>89.460000000000008</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>211111588</v>
       </c>
@@ -1651,40 +1651,40 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26">
-        <v>8178</v>
+        <v>514</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45834.347986111112</v>
+        <v>45877</v>
       </c>
       <c r="H26" s="1">
-        <v>45799.348622685182</v>
+        <v>45842</v>
       </c>
       <c r="I26" s="2">
-        <v>35</v>
+        <v>-6</v>
       </c>
       <c r="J26" s="3">
-        <v>601.93000000000006</v>
+        <v>-2.12</v>
       </c>
       <c r="K26" s="3">
-        <v>21</v>
+        <v>-2.12</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>211111588</v>
       </c>
@@ -1698,34 +1698,34 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>9338</v>
+        <v>10101</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45860.416597222218</v>
+        <v>45877.371099537035</v>
       </c>
       <c r="H27" s="1">
-        <v>45825.417175925926</v>
+        <v>45842.371099537035</v>
       </c>
       <c r="I27" s="2">
-        <v>9</v>
+        <v>-6.3710995370347518</v>
       </c>
       <c r="J27" s="3">
-        <v>691.45</v>
+        <v>1172.54</v>
       </c>
       <c r="K27" s="3">
-        <v>32.82</v>
+        <v>1172.54</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>211111588</v>
       </c>
@@ -1739,34 +1739,34 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>9568</v>
+        <v>10373</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45863.713865740741</v>
+        <v>45883.311967592592</v>
       </c>
       <c r="H28" s="1">
-        <v>45828.714143518519</v>
+        <v>45848.312951388885</v>
       </c>
       <c r="I28" s="2">
-        <v>6</v>
+        <v>-12.311967592591827</v>
       </c>
       <c r="J28" s="3">
-        <v>742.15</v>
+        <v>793.1</v>
       </c>
       <c r="K28" s="3">
-        <v>742.15</v>
+        <v>793.1</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>211111588</v>
       </c>
@@ -1780,25 +1780,25 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>9739</v>
+        <v>10988</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45869.337118055555</v>
+        <v>45897.491388888884</v>
       </c>
       <c r="H29" s="1">
-        <v>45834.337858796294</v>
+        <v>45862.491388888884</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>-26.491388888884103</v>
       </c>
       <c r="J29" s="3">
-        <v>89.460000000000008</v>
+        <v>1073.29</v>
       </c>
       <c r="K29" s="3">
-        <v>89.460000000000008</v>
+        <v>1073.29</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1807,203 +1807,203 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111588</v>
+        <v>211111720</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>8229</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45860.354687499996</v>
+      </c>
+      <c r="H30" s="1">
+        <v>45800.35528935185</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10.645312500004366</v>
+      </c>
+      <c r="J30" s="3">
+        <v>945.91</v>
+      </c>
+      <c r="K30" s="3">
+        <v>945.91</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>211111720</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>9806</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45895.300613425927</v>
+      </c>
+      <c r="H31" s="1">
+        <v>45835.301053240742</v>
+      </c>
+      <c r="I31" s="2">
+        <v>-24.300613425926713</v>
+      </c>
+      <c r="J31" s="3">
+        <v>198.19</v>
+      </c>
+      <c r="K31" s="3">
+        <v>198.19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>211111720</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>10727</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45916.281041666662</v>
+      </c>
+      <c r="H32" s="1">
+        <v>45856.283530092587</v>
+      </c>
+      <c r="I32" s="2">
+        <v>-45.281041666661622</v>
+      </c>
+      <c r="J32" s="3">
+        <v>199.79</v>
+      </c>
+      <c r="K32" s="3">
+        <v>199.79</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>211111720</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>11012</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45923.282870370371</v>
+      </c>
+      <c r="H33" s="1">
+        <v>45863.28329861111</v>
+      </c>
+      <c r="I33" s="2">
+        <v>-52.282870370370802</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1478.6200000000001</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1478.6200000000001</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>211111739</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30">
-        <v>514</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="1">
-        <v>45877</v>
-      </c>
-      <c r="H30" s="1">
-        <v>45842</v>
-      </c>
-      <c r="I30" s="2">
-        <v>-8</v>
-      </c>
-      <c r="J30" s="3">
-        <v>-2.12</v>
-      </c>
-      <c r="K30" s="3">
-        <v>-2.12</v>
-      </c>
-      <c r="L30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>211111588</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>10101</v>
-      </c>
-      <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="1">
-        <v>45877.371099537035</v>
-      </c>
-      <c r="H31" s="1">
-        <v>45842.371099537035</v>
-      </c>
-      <c r="I31" s="2">
-        <v>-8</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1172.54</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1172.54</v>
-      </c>
-      <c r="L31" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>211111588</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32">
-        <v>10373</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="1">
-        <v>45883.311967592592</v>
-      </c>
-      <c r="H32" s="1">
-        <v>45848.312951388885</v>
-      </c>
-      <c r="I32" s="2">
-        <v>-14</v>
-      </c>
-      <c r="J32" s="3">
-        <v>793.1</v>
-      </c>
-      <c r="K32" s="3">
-        <v>793.1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>211111588</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>10988</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="1">
-        <v>45897.491388888884</v>
-      </c>
-      <c r="H33" s="1">
-        <v>45862.491388888884</v>
-      </c>
-      <c r="I33" s="2">
-        <v>-28</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1073.29</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1073.29</v>
-      </c>
-      <c r="L33" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>211111720</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
+      <c r="D34">
+        <v>2025</v>
       </c>
       <c r="E34">
-        <v>8229</v>
+        <v>561</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45860.354687499996</v>
+        <v>45854</v>
       </c>
       <c r="H34" s="1">
-        <v>45800.35528935185</v>
+        <v>45824</v>
       </c>
       <c r="I34" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J34" s="3">
-        <v>945.91</v>
+        <v>-1.73</v>
       </c>
       <c r="K34" s="3">
-        <v>945.91</v>
+        <v>-1.73</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2012,53 +2012,53 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>2025</v>
       </c>
       <c r="E35">
-        <v>9806</v>
+        <v>584</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45895.300613425927</v>
+        <v>45863</v>
       </c>
       <c r="H35" s="1">
-        <v>45835.301053240742</v>
+        <v>45833</v>
       </c>
       <c r="I35" s="2">
-        <v>-26</v>
+        <v>8</v>
       </c>
       <c r="J35" s="3">
-        <v>198.19</v>
+        <v>-467.51</v>
       </c>
       <c r="K35" s="3">
-        <v>198.19</v>
+        <v>-467.51</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2067,25 +2067,25 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>10727</v>
+        <v>10165</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45916.281041666662</v>
+        <v>45872.519525462958</v>
       </c>
       <c r="H36" s="1">
-        <v>45856.283530092587</v>
+        <v>45842.519537037035</v>
       </c>
       <c r="I36" s="2">
-        <v>-47</v>
+        <v>-1.5195254629579722</v>
       </c>
       <c r="J36" s="3">
-        <v>199.79</v>
+        <v>764.51</v>
       </c>
       <c r="K36" s="3">
-        <v>199.79</v>
+        <v>764.51</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2094,39 +2094,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>2025</v>
       </c>
       <c r="E37">
-        <v>11012</v>
+        <v>630</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45923.282870370371</v>
+        <v>45876</v>
       </c>
       <c r="H37" s="1">
-        <v>45863.28329861111</v>
+        <v>45846</v>
       </c>
       <c r="I37" s="2">
-        <v>-54</v>
+        <v>-5</v>
       </c>
       <c r="J37" s="3">
-        <v>1478.6200000000001</v>
+        <v>-89.27</v>
       </c>
       <c r="K37" s="3">
-        <v>1478.6200000000001</v>
+        <v>-89.27</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2135,7 +2135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>211111739</v>
       </c>
@@ -2143,40 +2143,40 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>561</v>
+        <v>10238</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45854</v>
+        <v>45876.313310185185</v>
       </c>
       <c r="H38" s="1">
-        <v>45824</v>
+        <v>45846.315902777773</v>
       </c>
       <c r="I38" s="2">
-        <v>15</v>
+        <v>-5.3133101851854008</v>
       </c>
       <c r="J38" s="3">
-        <v>-1.73</v>
+        <v>720.1</v>
       </c>
       <c r="K38" s="3">
-        <v>-1.73</v>
+        <v>720.1</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>211111739</v>
       </c>
@@ -2184,40 +2184,40 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>584</v>
+        <v>10819</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45863</v>
+        <v>45889.487662037034</v>
       </c>
       <c r="H39" s="1">
-        <v>45833</v>
+        <v>45859.487673611111</v>
       </c>
       <c r="I39" s="2">
-        <v>6</v>
+        <v>-18.48766203703417</v>
       </c>
       <c r="J39" s="3">
-        <v>-467.51</v>
+        <v>694.31000000000006</v>
       </c>
       <c r="K39" s="3">
-        <v>-467.51</v>
+        <v>694.31000000000006</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>211111739</v>
       </c>
@@ -2231,25 +2231,25 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>10165</v>
+        <v>11069</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45872.519525462958</v>
+        <v>45893.5234375</v>
       </c>
       <c r="H40" s="1">
-        <v>45842.519537037035</v>
+        <v>45863.5234375</v>
       </c>
       <c r="I40" s="2">
-        <v>-3</v>
+        <v>-22.5234375</v>
       </c>
       <c r="J40" s="3">
-        <v>764.51</v>
+        <v>596.72</v>
       </c>
       <c r="K40" s="3">
-        <v>764.51</v>
+        <v>596.72</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -2258,7 +2258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>211111739</v>
       </c>
@@ -2266,72 +2266,72 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>11191</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1">
+        <v>45898.329004629624</v>
+      </c>
+      <c r="H41" s="1">
+        <v>45868.329722222217</v>
+      </c>
+      <c r="I41" s="2">
+        <v>-27.329004629624251</v>
+      </c>
+      <c r="J41" s="3">
+        <v>938.86</v>
+      </c>
+      <c r="K41" s="3">
+        <v>938.86</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>211111878</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
         <v>24</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>2025</v>
       </c>
-      <c r="E41">
-        <v>630</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="1">
-        <v>45876</v>
-      </c>
-      <c r="H41" s="1">
-        <v>45846</v>
-      </c>
-      <c r="I41" s="2">
-        <v>-7</v>
-      </c>
-      <c r="J41" s="3">
-        <v>-89.27</v>
-      </c>
-      <c r="K41" s="3">
-        <v>-89.27</v>
-      </c>
-      <c r="L41" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>211111739</v>
-      </c>
-      <c r="B42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
       <c r="E42">
-        <v>10238</v>
+        <v>522</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45876.313310185185</v>
+        <v>45871</v>
       </c>
       <c r="H42" s="1">
-        <v>45846.315902777773</v>
+        <v>45811</v>
       </c>
       <c r="I42" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>720.1</v>
+        <v>-29.34</v>
       </c>
       <c r="K42" s="3">
-        <v>720.1</v>
+        <v>-29.34</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2340,39 +2340,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>2025</v>
       </c>
       <c r="E43">
-        <v>10819</v>
+        <v>525</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45889.487662037034</v>
+        <v>45871</v>
       </c>
       <c r="H43" s="1">
-        <v>45859.487673611111</v>
+        <v>45811</v>
       </c>
       <c r="I43" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>694.31000000000006</v>
+        <v>-4.99</v>
       </c>
       <c r="K43" s="3">
-        <v>694.31000000000006</v>
+        <v>-4.99</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2381,12 +2381,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2395,25 +2395,25 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>11069</v>
+        <v>8798</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45893.5234375</v>
+        <v>45871.469687500001</v>
       </c>
       <c r="H44" s="1">
-        <v>45863.5234375</v>
+        <v>45811.47006944444</v>
       </c>
       <c r="I44" s="2">
-        <v>-24</v>
+        <v>-0.46968750000087311</v>
       </c>
       <c r="J44" s="3">
-        <v>596.72</v>
+        <v>421.25</v>
       </c>
       <c r="K44" s="3">
-        <v>596.72</v>
+        <v>421.25</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2422,12 +2422,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2436,25 +2436,25 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>11191</v>
+        <v>8799</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45898.329004629624</v>
+        <v>45871.471655092588</v>
       </c>
       <c r="H45" s="1">
-        <v>45868.329722222217</v>
+        <v>45811.472187499996</v>
       </c>
       <c r="I45" s="2">
-        <v>-29</v>
+        <v>-0.47165509258775273</v>
       </c>
       <c r="J45" s="3">
-        <v>938.86</v>
+        <v>361.42</v>
       </c>
       <c r="K45" s="3">
-        <v>938.86</v>
+        <v>361.42</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2463,7 +2463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>211111878</v>
       </c>
@@ -2471,31 +2471,31 @@
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46">
-        <v>522</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45871</v>
+        <v>45874.455740740741</v>
       </c>
       <c r="H46" s="1">
-        <v>45811</v>
+        <v>45814.455775462964</v>
       </c>
       <c r="I46" s="2">
-        <v>-2</v>
+        <v>-3.455740740741021</v>
       </c>
       <c r="J46" s="3">
-        <v>-29.34</v>
+        <v>177.99</v>
       </c>
       <c r="K46" s="3">
-        <v>-29.34</v>
+        <v>177.99</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2504,7 +2504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>211111878</v>
       </c>
@@ -2512,31 +2512,31 @@
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>525</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45871</v>
+        <v>45874.612268518518</v>
       </c>
       <c r="H47" s="1">
-        <v>45811</v>
+        <v>45814.613090277773</v>
       </c>
       <c r="I47" s="2">
-        <v>-2</v>
+        <v>-3.612268518518249</v>
       </c>
       <c r="J47" s="3">
-        <v>-4.99</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="K47" s="3">
-        <v>-4.99</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2545,7 +2545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>211111878</v>
       </c>
@@ -2553,31 +2553,31 @@
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>2025</v>
       </c>
       <c r="E48">
-        <v>8798</v>
+        <v>542</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45871.469687500001</v>
+        <v>45877</v>
       </c>
       <c r="H48" s="1">
-        <v>45811.47006944444</v>
+        <v>45817</v>
       </c>
       <c r="I48" s="2">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="J48" s="3">
-        <v>421.25</v>
+        <v>-9.41</v>
       </c>
       <c r="K48" s="3">
-        <v>421.25</v>
+        <v>-9.41</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2586,7 +2586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>211111878</v>
       </c>
@@ -2600,25 +2600,25 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>8799</v>
+        <v>8996</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45871.471655092588</v>
+        <v>45877.440046296295</v>
       </c>
       <c r="H49" s="1">
-        <v>45811.472187499996</v>
+        <v>45817.44049768518</v>
       </c>
       <c r="I49" s="2">
-        <v>-2</v>
+        <v>-6.440046296294895</v>
       </c>
       <c r="J49" s="3">
-        <v>361.42</v>
+        <v>377.68</v>
       </c>
       <c r="K49" s="3">
-        <v>361.42</v>
+        <v>377.68</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2627,7 +2627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>211111878</v>
       </c>
@@ -2637,29 +2637,29 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D50">
-        <v>2025</v>
+      <c r="D50" t="s">
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>37</v>
+        <v>8998</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45874.455740740741</v>
+        <v>45877.440960648149</v>
       </c>
       <c r="H50" s="1">
-        <v>45814.455775462964</v>
+        <v>45817.441377314812</v>
       </c>
       <c r="I50" s="2">
-        <v>-5</v>
+        <v>-6.4409606481494848</v>
       </c>
       <c r="J50" s="3">
-        <v>177.99</v>
+        <v>257.82</v>
       </c>
       <c r="K50" s="3">
-        <v>177.99</v>
+        <v>257.82</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2668,7 +2668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>211111878</v>
       </c>
@@ -2678,29 +2678,29 @@
       <c r="C51" t="s">
         <v>14</v>
       </c>
-      <c r="D51">
-        <v>2025</v>
+      <c r="D51" t="s">
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>64</v>
+        <v>9025</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45874.612268518518</v>
+        <v>45877.494490740741</v>
       </c>
       <c r="H51" s="1">
-        <v>45814.613090277773</v>
+        <v>45817.494999999995</v>
       </c>
       <c r="I51" s="2">
-        <v>-5</v>
+        <v>-6.49449074074073</v>
       </c>
       <c r="J51" s="3">
-        <v>258.84000000000003</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="K51" s="3">
-        <v>258.84000000000003</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2709,7 +2709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>211111878</v>
       </c>
@@ -2723,25 +2723,25 @@
         <v>2025</v>
       </c>
       <c r="E52">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45877</v>
+        <v>45886</v>
       </c>
       <c r="H52" s="1">
-        <v>45817</v>
+        <v>45826</v>
       </c>
       <c r="I52" s="2">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="J52" s="3">
-        <v>-9.41</v>
+        <v>-10.74</v>
       </c>
       <c r="K52" s="3">
-        <v>-9.41</v>
+        <v>-10.74</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2750,7 +2750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>211111878</v>
       </c>
@@ -2764,25 +2764,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>8996</v>
+        <v>9386</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45877.440046296295</v>
+        <v>45886.314513888887</v>
       </c>
       <c r="H53" s="1">
-        <v>45817.44049768518</v>
+        <v>45826.314837962964</v>
       </c>
       <c r="I53" s="2">
-        <v>-8</v>
+        <v>-15.314513888886722</v>
       </c>
       <c r="J53" s="3">
-        <v>377.68</v>
+        <v>328.96</v>
       </c>
       <c r="K53" s="3">
-        <v>377.68</v>
+        <v>328.96</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2791,7 +2791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>211111878</v>
       </c>
@@ -2805,25 +2805,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>8998</v>
+        <v>9436</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45877.440960648149</v>
+        <v>45886.459780092591</v>
       </c>
       <c r="H54" s="1">
-        <v>45817.441377314812</v>
+        <v>45826.462314814809</v>
       </c>
       <c r="I54" s="2">
-        <v>-8</v>
+        <v>-15.459780092591245</v>
       </c>
       <c r="J54" s="3">
-        <v>257.82</v>
+        <v>58.57</v>
       </c>
       <c r="K54" s="3">
-        <v>257.82</v>
+        <v>58.57</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2832,7 +2832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>211111878</v>
       </c>
@@ -2846,25 +2846,25 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>9025</v>
+        <v>9438</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45877.494490740741</v>
+        <v>45886.462488425925</v>
       </c>
       <c r="H55" s="1">
-        <v>45817.494999999995</v>
+        <v>45826.466331018513</v>
       </c>
       <c r="I55" s="2">
-        <v>-8</v>
+        <v>-15.462488425924676</v>
       </c>
       <c r="J55" s="3">
-        <v>315.04000000000002</v>
+        <v>408.29</v>
       </c>
       <c r="K55" s="3">
-        <v>315.04000000000002</v>
+        <v>408.29</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2873,7 +2873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>211111878</v>
       </c>
@@ -2881,31 +2881,31 @@
         <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>570</v>
+        <v>9456</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45886</v>
+        <v>45888.299930555557</v>
       </c>
       <c r="H56" s="1">
-        <v>45826</v>
+        <v>45828.300671296296</v>
       </c>
       <c r="I56" s="2">
-        <v>-17</v>
+        <v>-17.299930555556784</v>
       </c>
       <c r="J56" s="3">
-        <v>-10.74</v>
+        <v>20.76</v>
       </c>
       <c r="K56" s="3">
-        <v>-10.74</v>
+        <v>20.76</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>211111878</v>
       </c>
@@ -2928,25 +2928,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>9386</v>
+        <v>9457</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45886.314513888887</v>
+        <v>45888.30097222222</v>
       </c>
       <c r="H57" s="1">
-        <v>45826.314837962964</v>
+        <v>45828.306631944441</v>
       </c>
       <c r="I57" s="2">
-        <v>-17</v>
+        <v>-17.300972222219571</v>
       </c>
       <c r="J57" s="3">
-        <v>328.96</v>
+        <v>45.83</v>
       </c>
       <c r="K57" s="3">
-        <v>328.96</v>
+        <v>45.83</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2955,7 +2955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>211111878</v>
       </c>
@@ -2969,25 +2969,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>9436</v>
+        <v>9700</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45886.459780092591</v>
+        <v>45893.496446759258</v>
       </c>
       <c r="H58" s="1">
-        <v>45826.462314814809</v>
+        <v>45833.497314814813</v>
       </c>
       <c r="I58" s="2">
-        <v>-17</v>
+        <v>-22.496446759258106</v>
       </c>
       <c r="J58" s="3">
-        <v>58.57</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="K58" s="3">
-        <v>58.57</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -2996,7 +2996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>211111878</v>
       </c>
@@ -3010,25 +3010,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>9438</v>
+        <v>9701</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45886.462488425925</v>
+        <v>45893.497546296298</v>
       </c>
       <c r="H59" s="1">
-        <v>45826.466331018513</v>
+        <v>45833.49827546296</v>
       </c>
       <c r="I59" s="2">
-        <v>-17</v>
+        <v>-22.497546296297514</v>
       </c>
       <c r="J59" s="3">
-        <v>408.29</v>
+        <v>367.16</v>
       </c>
       <c r="K59" s="3">
-        <v>408.29</v>
+        <v>367.16</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3037,7 +3037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>211111878</v>
       </c>
@@ -3051,25 +3051,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>9456</v>
+        <v>9772</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45888.299930555557</v>
+        <v>45894.447523148148</v>
       </c>
       <c r="H60" s="1">
-        <v>45828.300671296296</v>
+        <v>45834.448113425926</v>
       </c>
       <c r="I60" s="2">
-        <v>-19</v>
+        <v>-23.447523148148321</v>
       </c>
       <c r="J60" s="3">
-        <v>20.76</v>
+        <v>441.87</v>
       </c>
       <c r="K60" s="3">
-        <v>20.76</v>
+        <v>441.87</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3078,7 +3078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>211111878</v>
       </c>
@@ -3092,25 +3092,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>9457</v>
+        <v>9871</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45888.30097222222</v>
+        <v>45895.479108796295</v>
       </c>
       <c r="H61" s="1">
-        <v>45828.306631944441</v>
+        <v>45835.481898148144</v>
       </c>
       <c r="I61" s="2">
-        <v>-19</v>
+        <v>-24.479108796294895</v>
       </c>
       <c r="J61" s="3">
-        <v>45.83</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="K61" s="3">
-        <v>45.83</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3119,7 +3119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>211111878</v>
       </c>
@@ -3133,25 +3133,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>9700</v>
+        <v>9874</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45893.496446759258</v>
+        <v>45895.494687499995</v>
       </c>
       <c r="H62" s="1">
-        <v>45833.497314814813</v>
+        <v>45835.494895833333</v>
       </c>
       <c r="I62" s="2">
-        <v>-24</v>
+        <v>-24.494687499995052</v>
       </c>
       <c r="J62" s="3">
-        <v>18.059999999999999</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="K62" s="3">
-        <v>18.059999999999999</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3160,7 +3160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>211111878</v>
       </c>
@@ -3174,25 +3174,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>9701</v>
+        <v>9935</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45893.497546296298</v>
+        <v>45899.405474537038</v>
       </c>
       <c r="H63" s="1">
-        <v>45833.49827546296</v>
+        <v>45839.405821759254</v>
       </c>
       <c r="I63" s="2">
-        <v>-24</v>
+        <v>-28.405474537037662</v>
       </c>
       <c r="J63" s="3">
-        <v>367.16</v>
+        <v>249.19</v>
       </c>
       <c r="K63" s="3">
-        <v>367.16</v>
+        <v>249.19</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3201,7 +3201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>211111878</v>
       </c>
@@ -3215,25 +3215,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>9772</v>
+        <v>10275</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45894.447523148148</v>
+        <v>45906.438090277778</v>
       </c>
       <c r="H64" s="1">
-        <v>45834.448113425926</v>
+        <v>45846.438090277778</v>
       </c>
       <c r="I64" s="2">
-        <v>-25</v>
+        <v>-35.438090277777519</v>
       </c>
       <c r="J64" s="3">
-        <v>441.87</v>
+        <v>333.66</v>
       </c>
       <c r="K64" s="3">
-        <v>441.87</v>
+        <v>333.66</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3242,7 +3242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>211111878</v>
       </c>
@@ -3256,25 +3256,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>9871</v>
+        <v>10276</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45895.479108796295</v>
+        <v>45906.438113425924</v>
       </c>
       <c r="H65" s="1">
-        <v>45835.481898148144</v>
+        <v>45846.438125000001</v>
       </c>
       <c r="I65" s="2">
-        <v>-26</v>
+        <v>-35.438113425923802</v>
       </c>
       <c r="J65" s="3">
-        <v>175.89000000000001</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="K65" s="3">
-        <v>175.89000000000001</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3283,7 +3283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>211111878</v>
       </c>
@@ -3297,25 +3297,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>9874</v>
+        <v>10496</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45895.494687499995</v>
+        <v>45909.601944444439</v>
       </c>
       <c r="H66" s="1">
-        <v>45835.494895833333</v>
+        <v>45849.60251157407</v>
       </c>
       <c r="I66" s="2">
-        <v>-26</v>
+        <v>-38.601944444439141</v>
       </c>
       <c r="J66" s="3">
-        <v>276.79000000000002</v>
+        <v>330.27</v>
       </c>
       <c r="K66" s="3">
-        <v>276.79000000000002</v>
+        <v>330.27</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3324,7 +3324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>211111878</v>
       </c>
@@ -3332,31 +3332,31 @@
         <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
       </c>
       <c r="E67">
-        <v>9935</v>
+        <v>646</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45899.405474537038</v>
+        <v>45913</v>
       </c>
       <c r="H67" s="1">
-        <v>45839.405821759254</v>
+        <v>45853</v>
       </c>
       <c r="I67" s="2">
-        <v>-30</v>
+        <v>-42</v>
       </c>
       <c r="J67" s="3">
-        <v>249.19</v>
+        <v>-9.23</v>
       </c>
       <c r="K67" s="3">
-        <v>249.19</v>
+        <v>-9.23</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3365,7 +3365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>211111878</v>
       </c>
@@ -3379,25 +3379,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>10275</v>
+        <v>10552</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45906.438090277778</v>
+        <v>45913.414108796293</v>
       </c>
       <c r="H68" s="1">
-        <v>45846.438090277778</v>
+        <v>45853.415949074071</v>
       </c>
       <c r="I68" s="2">
-        <v>-37</v>
+        <v>-42.414108796292567</v>
       </c>
       <c r="J68" s="3">
-        <v>333.66</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="K68" s="3">
-        <v>333.66</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3406,7 +3406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>211111878</v>
       </c>
@@ -3420,25 +3420,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>10276</v>
+        <v>10556</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45906.438113425924</v>
+        <v>45913.417696759258</v>
       </c>
       <c r="H69" s="1">
-        <v>45846.438125000001</v>
+        <v>45853.418020833335</v>
       </c>
       <c r="I69" s="2">
-        <v>-37</v>
+        <v>-42.417696759257524</v>
       </c>
       <c r="J69" s="3">
-        <v>114.07000000000001</v>
+        <v>120.59</v>
       </c>
       <c r="K69" s="3">
-        <v>114.07000000000001</v>
+        <v>120.59</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3447,7 +3447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>211111878</v>
       </c>
@@ -3461,25 +3461,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>10496</v>
+        <v>10719</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45909.601944444439</v>
+        <v>45915.588217592587</v>
       </c>
       <c r="H70" s="1">
-        <v>45849.60251157407</v>
+        <v>45855.588634259257</v>
       </c>
       <c r="I70" s="2">
-        <v>-40</v>
+        <v>-44.588217592587171</v>
       </c>
       <c r="J70" s="3">
-        <v>330.27</v>
+        <v>107.66</v>
       </c>
       <c r="K70" s="3">
-        <v>330.27</v>
+        <v>107.66</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3488,7 +3488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>211111878</v>
       </c>
@@ -3496,31 +3496,31 @@
         <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>646</v>
+        <v>10841</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45913</v>
+        <v>45920.44799768518</v>
       </c>
       <c r="H71" s="1">
-        <v>45853</v>
+        <v>45860.450138888889</v>
       </c>
       <c r="I71" s="2">
-        <v>-44</v>
+        <v>-49.447997685179871</v>
       </c>
       <c r="J71" s="3">
-        <v>-9.23</v>
+        <v>391.77</v>
       </c>
       <c r="K71" s="3">
-        <v>-9.23</v>
+        <v>391.77</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3529,7 +3529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>211111878</v>
       </c>
@@ -3543,25 +3543,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>10552</v>
+        <v>10940</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45913.414108796293</v>
+        <v>45921.562048611107</v>
       </c>
       <c r="H72" s="1">
-        <v>45853.415949074071</v>
+        <v>45861.562060185184</v>
       </c>
       <c r="I72" s="2">
-        <v>-44</v>
+        <v>-50.562048611107457</v>
       </c>
       <c r="J72" s="3">
-        <v>451.46000000000004</v>
+        <v>184.52</v>
       </c>
       <c r="K72" s="3">
-        <v>451.46000000000004</v>
+        <v>184.52</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3570,7 +3570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>211111878</v>
       </c>
@@ -3584,25 +3584,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10556</v>
+        <v>10941</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45913.417696759258</v>
+        <v>45921.562083333331</v>
       </c>
       <c r="H73" s="1">
-        <v>45853.418020833335</v>
+        <v>45861.562083333331</v>
       </c>
       <c r="I73" s="2">
-        <v>-44</v>
+        <v>-50.56208333333052</v>
       </c>
       <c r="J73" s="3">
-        <v>120.59</v>
+        <v>518.65</v>
       </c>
       <c r="K73" s="3">
-        <v>120.59</v>
+        <v>518.65</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3611,7 +3611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>211111878</v>
       </c>
@@ -3625,25 +3625,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10719</v>
+        <v>10942</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45915.588217592587</v>
+        <v>45921.562106481477</v>
       </c>
       <c r="H74" s="1">
-        <v>45855.588634259257</v>
+        <v>45861.562106481477</v>
       </c>
       <c r="I74" s="2">
-        <v>-46</v>
+        <v>-50.562106481476803</v>
       </c>
       <c r="J74" s="3">
-        <v>107.66</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="K74" s="3">
-        <v>107.66</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3652,7 +3652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>211111878</v>
       </c>
@@ -3666,25 +3666,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>10841</v>
+        <v>11119</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45920.44799768518</v>
+        <v>45926.540925925925</v>
       </c>
       <c r="H75" s="1">
-        <v>45860.450138888889</v>
+        <v>45866.540937500002</v>
       </c>
       <c r="I75" s="2">
-        <v>-51</v>
+        <v>-55.540925925924967</v>
       </c>
       <c r="J75" s="3">
-        <v>391.77</v>
+        <v>665</v>
       </c>
       <c r="K75" s="3">
-        <v>391.77</v>
+        <v>665</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3693,7 +3693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>211111878</v>
       </c>
@@ -3707,25 +3707,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>10940</v>
+        <v>11120</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45921.562048611107</v>
+        <v>45926.540960648148</v>
       </c>
       <c r="H76" s="1">
-        <v>45861.562060185184</v>
+        <v>45866.540960648148</v>
       </c>
       <c r="I76" s="2">
-        <v>-52</v>
+        <v>-55.54096064814803</v>
       </c>
       <c r="J76" s="3">
-        <v>184.52</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="K76" s="3">
-        <v>184.52</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3734,7 +3734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>211111878</v>
       </c>
@@ -3748,25 +3748,25 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>10941</v>
+        <v>11186</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45921.562083333331</v>
+        <v>45927.594328703701</v>
       </c>
       <c r="H77" s="1">
-        <v>45861.562083333331</v>
+        <v>45867.594340277778</v>
       </c>
       <c r="I77" s="2">
-        <v>-52</v>
+        <v>-56.594328703700739</v>
       </c>
       <c r="J77" s="3">
-        <v>518.65</v>
+        <v>379.86</v>
       </c>
       <c r="K77" s="3">
-        <v>518.65</v>
+        <v>379.86</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3775,7 +3775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>211111878</v>
       </c>
@@ -3789,25 +3789,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>10942</v>
+        <v>11366</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45921.562106481477</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H78" s="1">
-        <v>45861.562106481477</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I78" s="2">
-        <v>-52</v>
+        <v>-59.614166666666279</v>
       </c>
       <c r="J78" s="3">
-        <v>325.40000000000003</v>
+        <v>159.29</v>
       </c>
       <c r="K78" s="3">
-        <v>325.40000000000003</v>
+        <v>159.29</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3816,7 +3816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>211111878</v>
       </c>
@@ -3830,25 +3830,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>11119</v>
+        <v>11369</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45926.540925925925</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H79" s="1">
-        <v>45866.540937500002</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I79" s="2">
-        <v>-57</v>
+        <v>-59.684340277774027</v>
       </c>
       <c r="J79" s="3">
-        <v>665</v>
+        <v>106.19</v>
       </c>
       <c r="K79" s="3">
-        <v>665</v>
+        <v>106.19</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3857,12 +3857,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3871,25 +3871,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>11120</v>
+        <v>10687</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45926.540960648148</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H80" s="1">
-        <v>45866.540960648148</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I80" s="2">
-        <v>-57</v>
+        <v>-14.468888888884976</v>
       </c>
       <c r="J80" s="3">
-        <v>131.55000000000001</v>
+        <v>542.13</v>
       </c>
       <c r="K80" s="3">
-        <v>131.55000000000001</v>
+        <v>542.13</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3898,89 +3898,89 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81">
-        <v>11186</v>
+        <v>326</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45927.594328703701</v>
+        <v>45777</v>
       </c>
       <c r="H81" s="1">
-        <v>45867.594340277778</v>
+        <v>45747</v>
       </c>
       <c r="I81" s="2">
-        <v>-58</v>
+        <v>94</v>
       </c>
       <c r="J81" s="3">
-        <v>379.86</v>
+        <v>-22</v>
       </c>
       <c r="K81" s="3">
-        <v>379.86</v>
+        <v>-22</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211112043</v>
+        <v>211112050</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82">
-        <v>10687</v>
+        <v>327</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45885.468888888885</v>
+        <v>45777</v>
       </c>
       <c r="H82" s="1">
-        <v>45855.468888888885</v>
+        <v>45747</v>
       </c>
       <c r="I82" s="2">
-        <v>-16</v>
+        <v>94</v>
       </c>
       <c r="J82" s="3">
-        <v>542.13</v>
+        <v>-27.45</v>
       </c>
       <c r="K82" s="3">
-        <v>542.13</v>
+        <v>-27.45</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>211112050</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
@@ -4006,13 +4006,13 @@
         <v>45747</v>
       </c>
       <c r="I83" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J83" s="3">
-        <v>-22</v>
+        <v>-5.73</v>
       </c>
       <c r="K83" s="3">
-        <v>-22</v>
+        <v>-5.73</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4021,89 +4021,89 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211112050</v>
+        <v>211112052</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
         <v>24</v>
       </c>
-      <c r="D84" t="s">
-        <v>15</v>
+      <c r="D84">
+        <v>2025</v>
       </c>
       <c r="E84">
-        <v>327</v>
+        <v>546</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45777</v>
+        <v>45879</v>
       </c>
       <c r="H84" s="1">
-        <v>45747</v>
+        <v>45819</v>
       </c>
       <c r="I84" s="2">
-        <v>92</v>
+        <v>-8</v>
       </c>
       <c r="J84" s="3">
-        <v>-27.45</v>
+        <v>-680.83</v>
       </c>
       <c r="K84" s="3">
-        <v>-27.45</v>
+        <v>-680.83</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211112050</v>
+        <v>211112052</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
       </c>
       <c r="E85">
-        <v>328</v>
+        <v>9182</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45777</v>
+        <v>45881.340092592589</v>
       </c>
       <c r="H85" s="1">
-        <v>45747</v>
+        <v>45821.340949074074</v>
       </c>
       <c r="I85" s="2">
-        <v>92</v>
+        <v>-10.340092592588917</v>
       </c>
       <c r="J85" s="3">
-        <v>-5.73</v>
+        <v>968.26</v>
       </c>
       <c r="K85" s="3">
-        <v>-5.73</v>
+        <v>968.26</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>211112052</v>
       </c>
@@ -4117,25 +4117,25 @@
         <v>2025</v>
       </c>
       <c r="E86">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45879</v>
+        <v>45885</v>
       </c>
       <c r="H86" s="1">
-        <v>45819</v>
+        <v>45825</v>
       </c>
       <c r="I86" s="2">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="J86" s="3">
-        <v>-680.83</v>
+        <v>-69.09</v>
       </c>
       <c r="K86" s="3">
-        <v>-680.83</v>
+        <v>-69.09</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4144,7 +4144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>211112052</v>
       </c>
@@ -4158,25 +4158,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>9182</v>
+        <v>9796</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45881.340092592589</v>
+        <v>45894.634768518517</v>
       </c>
       <c r="H87" s="1">
-        <v>45821.340949074074</v>
+        <v>45834.635682870372</v>
       </c>
       <c r="I87" s="2">
-        <v>-12</v>
+        <v>-23.634768518517376</v>
       </c>
       <c r="J87" s="3">
-        <v>968.26</v>
+        <v>107.37</v>
       </c>
       <c r="K87" s="3">
-        <v>968.26</v>
+        <v>107.37</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4185,7 +4185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>211112052</v>
       </c>
@@ -4193,31 +4193,31 @@
         <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
       </c>
       <c r="E88">
-        <v>569</v>
+        <v>10369</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45885</v>
+        <v>45908.309050925927</v>
       </c>
       <c r="H88" s="1">
-        <v>45825</v>
+        <v>45848.309965277775</v>
       </c>
       <c r="I88" s="2">
-        <v>-16</v>
+        <v>-37.309050925927295</v>
       </c>
       <c r="J88" s="3">
-        <v>-69.09</v>
+        <v>1512.89</v>
       </c>
       <c r="K88" s="3">
-        <v>-69.09</v>
+        <v>1512.89</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4226,7 +4226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>211112052</v>
       </c>
@@ -4234,31 +4234,31 @@
         <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E89">
-        <v>9796</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45894.634768518517</v>
+        <v>45922</v>
       </c>
       <c r="H89" s="1">
-        <v>45834.635682870372</v>
+        <v>45862</v>
       </c>
       <c r="I89" s="2">
-        <v>-25</v>
+        <v>-51</v>
       </c>
       <c r="J89" s="3">
-        <v>107.37</v>
+        <v>-15.38</v>
       </c>
       <c r="K89" s="3">
-        <v>107.37</v>
+        <v>-15.38</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4267,7 +4267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>211112052</v>
       </c>
@@ -4275,31 +4275,31 @@
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D90">
+        <v>2025</v>
       </c>
       <c r="E90">
-        <v>10369</v>
+        <v>682</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45908.309050925927</v>
+        <v>45922</v>
       </c>
       <c r="H90" s="1">
-        <v>45848.309965277775</v>
+        <v>45862</v>
       </c>
       <c r="I90" s="2">
-        <v>-39</v>
+        <v>-51</v>
       </c>
       <c r="J90" s="3">
-        <v>1512.89</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="K90" s="3">
-        <v>1512.89</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4308,7 +4308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>211112052</v>
       </c>
@@ -4316,31 +4316,31 @@
         <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>11013</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45922</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H91" s="1">
-        <v>45862</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I91" s="2">
-        <v>-53</v>
+        <v>-52.283518518517667</v>
       </c>
       <c r="J91" s="3">
-        <v>-15.38</v>
+        <v>417.19</v>
       </c>
       <c r="K91" s="3">
-        <v>-15.38</v>
+        <v>417.19</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4349,7 +4349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>211112052</v>
       </c>
@@ -4357,31 +4357,31 @@
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>682</v>
+        <v>11014</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45922</v>
+        <v>45923.288171296292</v>
       </c>
       <c r="H92" s="1">
-        <v>45862</v>
+        <v>45863.288368055553</v>
       </c>
       <c r="I92" s="2">
-        <v>-53</v>
+        <v>-52.288171296291694</v>
       </c>
       <c r="J92" s="3">
-        <v>-606.93000000000006</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="K92" s="3">
-        <v>-606.93000000000006</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4390,7 +4390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>211112052</v>
       </c>
@@ -4404,25 +4404,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>11013</v>
+        <v>11085</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45923.283518518518</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H93" s="1">
-        <v>45863.287939814814</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I93" s="2">
-        <v>-54</v>
+        <v>-52.645879629628325</v>
       </c>
       <c r="J93" s="3">
-        <v>417.19</v>
+        <v>726.19</v>
       </c>
       <c r="K93" s="3">
-        <v>417.19</v>
+        <v>726.19</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4431,12 +4431,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112052</v>
+        <v>211112098</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4445,25 +4445,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>11014</v>
+        <v>10043</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45923.288171296292</v>
+        <v>45871.497939814813</v>
       </c>
       <c r="H94" s="1">
-        <v>45863.288368055553</v>
+        <v>45841.497939814813</v>
       </c>
       <c r="I94" s="2">
-        <v>-54</v>
+        <v>-0.49793981481343508</v>
       </c>
       <c r="J94" s="3">
-        <v>606.93000000000006</v>
+        <v>1040.5999999999999</v>
       </c>
       <c r="K94" s="3">
-        <v>606.93000000000006</v>
+        <v>1040.5999999999999</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4472,89 +4472,89 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E95">
-        <v>11085</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45923.645879629628</v>
+        <v>45627</v>
       </c>
       <c r="H95" s="1">
-        <v>45863.645879629628</v>
+        <v>45567</v>
       </c>
       <c r="I95" s="2">
-        <v>-54</v>
+        <v>244</v>
       </c>
       <c r="J95" s="3">
-        <v>726.19</v>
+        <v>-463.01</v>
       </c>
       <c r="K95" s="3">
-        <v>726.19</v>
+        <v>-459.04</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112098</v>
+        <v>211112151</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96">
-        <v>10043</v>
+        <v>42</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45871.497939814813</v>
+        <v>45629</v>
       </c>
       <c r="H96" s="1">
-        <v>45841.497939814813</v>
+        <v>45569</v>
       </c>
       <c r="I96" s="2">
-        <v>-2</v>
+        <v>242</v>
       </c>
       <c r="J96" s="3">
-        <v>1040.5999999999999</v>
+        <v>-39741.590000000004</v>
       </c>
       <c r="K96" s="3">
-        <v>1040.5999999999999</v>
+        <v>-2522.2600000000002</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>211112151</v>
       </c>
@@ -4564,38 +4564,38 @@
       <c r="C97" t="s">
         <v>24</v>
       </c>
-      <c r="D97" t="s">
-        <v>39</v>
+      <c r="D97">
+        <v>2025</v>
       </c>
       <c r="E97">
-        <v>14</v>
+        <v>331</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45627</v>
+        <v>45816</v>
       </c>
       <c r="H97" s="1">
-        <v>45567</v>
+        <v>45756</v>
       </c>
       <c r="I97" s="2">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="J97" s="3">
-        <v>-463.01</v>
+        <v>-2377.96</v>
       </c>
       <c r="K97" s="3">
-        <v>-459.04</v>
+        <v>-2377.96</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>211112151</v>
       </c>
@@ -4603,40 +4603,40 @@
         <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
-      </c>
-      <c r="D98" t="s">
-        <v>42</v>
-      </c>
-      <c r="E98" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
+      </c>
+      <c r="E98">
+        <v>332</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45629</v>
+        <v>45816</v>
       </c>
       <c r="H98" s="1">
-        <v>45569</v>
+        <v>45756</v>
       </c>
       <c r="I98" s="2">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="J98" s="3">
-        <v>-39741.590000000004</v>
+        <v>-1248.79</v>
       </c>
       <c r="K98" s="3">
-        <v>-2522.2600000000002</v>
+        <v>-1248.79</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>211112151</v>
       </c>
@@ -4644,40 +4644,40 @@
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
-      </c>
-      <c r="D99">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
       </c>
       <c r="E99">
-        <v>331</v>
+        <v>8893</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45816</v>
+        <v>45873.43032407407</v>
       </c>
       <c r="H99" s="1">
-        <v>45756</v>
+        <v>45813.430856481478</v>
       </c>
       <c r="I99" s="2">
-        <v>53</v>
+        <v>-2.4303240740700858</v>
       </c>
       <c r="J99" s="3">
-        <v>-2377.96</v>
+        <v>3413.67</v>
       </c>
       <c r="K99" s="3">
-        <v>-2377.96</v>
+        <v>3413.67</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>211112151</v>
       </c>
@@ -4685,40 +4685,40 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
       </c>
       <c r="E100">
-        <v>332</v>
+        <v>8894</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45816</v>
+        <v>45873.431076388886</v>
       </c>
       <c r="H100" s="1">
-        <v>45756</v>
+        <v>45813.431388888886</v>
       </c>
       <c r="I100" s="2">
-        <v>53</v>
+        <v>-2.4310763888861402</v>
       </c>
       <c r="J100" s="3">
-        <v>-1248.79</v>
+        <v>2973.26</v>
       </c>
       <c r="K100" s="3">
-        <v>-1248.79</v>
+        <v>2973.26</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>211112151</v>
       </c>
@@ -4732,25 +4732,25 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>8893</v>
+        <v>9177</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45873.43032407407</v>
+        <v>45880.637939814813</v>
       </c>
       <c r="H101" s="1">
-        <v>45813.430856481478</v>
+        <v>45820.639421296291</v>
       </c>
       <c r="I101" s="2">
-        <v>-4</v>
+        <v>-9.637939814812853</v>
       </c>
       <c r="J101" s="3">
-        <v>3413.67</v>
+        <v>3277.76</v>
       </c>
       <c r="K101" s="3">
-        <v>3413.67</v>
+        <v>3277.76</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4759,7 +4759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>211112151</v>
       </c>
@@ -4773,25 +4773,25 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>8894</v>
+        <v>9560</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45873.431076388886</v>
+        <v>45888.627025462964</v>
       </c>
       <c r="H102" s="1">
-        <v>45813.431388888886</v>
+        <v>45828.628541666665</v>
       </c>
       <c r="I102" s="2">
-        <v>-4</v>
+        <v>-17.627025462963502</v>
       </c>
       <c r="J102" s="3">
-        <v>2973.26</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="K102" s="3">
-        <v>2973.26</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -4800,7 +4800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>211112151</v>
       </c>
@@ -4811,28 +4811,28 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E103">
-        <v>9177</v>
+        <v>123</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45880.637939814813</v>
+        <v>45888.628900462958</v>
       </c>
       <c r="H103" s="1">
-        <v>45820.639421296291</v>
+        <v>45828.673252314809</v>
       </c>
       <c r="I103" s="2">
-        <v>-11</v>
+        <v>-17.628900462957972</v>
       </c>
       <c r="J103" s="3">
-        <v>3277.76</v>
+        <v>1721.02</v>
       </c>
       <c r="K103" s="3">
-        <v>3277.76</v>
+        <v>1721.02</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -4841,7 +4841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>211112151</v>
       </c>
@@ -4855,25 +4855,25 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>9560</v>
+        <v>9800</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45888.627025462964</v>
+        <v>45894.651828703703</v>
       </c>
       <c r="H104" s="1">
-        <v>45828.628541666665</v>
+        <v>45834.65211805555</v>
       </c>
       <c r="I104" s="2">
-        <v>-19</v>
+        <v>-23.651828703703359</v>
       </c>
       <c r="J104" s="3">
-        <v>2976.7400000000002</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="K104" s="3">
-        <v>2976.7400000000002</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -4882,7 +4882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>211112151</v>
       </c>
@@ -4893,28 +4893,28 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E105">
-        <v>123</v>
+        <v>9801</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45888.628900462958</v>
+        <v>45894.653275462959</v>
       </c>
       <c r="H105" s="1">
-        <v>45828.673252314809</v>
+        <v>45834.653495370367</v>
       </c>
       <c r="I105" s="2">
-        <v>-19</v>
+        <v>-23.653275462958845</v>
       </c>
       <c r="J105" s="3">
-        <v>1721.02</v>
+        <v>1272.99</v>
       </c>
       <c r="K105" s="3">
-        <v>1721.02</v>
+        <v>1272.99</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -4923,7 +4923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>211112151</v>
       </c>
@@ -4937,25 +4937,25 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>9800</v>
+        <v>9911</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45894.651828703703</v>
+        <v>45898.70108796296</v>
       </c>
       <c r="H106" s="1">
-        <v>45834.65211805555</v>
+        <v>45838.702037037037</v>
       </c>
       <c r="I106" s="2">
-        <v>-25</v>
+        <v>-27.701087962959718</v>
       </c>
       <c r="J106" s="3">
-        <v>617.68000000000006</v>
+        <v>2730.67</v>
       </c>
       <c r="K106" s="3">
-        <v>617.68000000000006</v>
+        <v>2730.67</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -4964,7 +4964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>211112151</v>
       </c>
@@ -4978,25 +4978,25 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>9801</v>
+        <v>10234</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45894.653275462959</v>
+        <v>45905.634965277779</v>
       </c>
       <c r="H107" s="1">
-        <v>45834.653495370367</v>
+        <v>45845.635636574072</v>
       </c>
       <c r="I107" s="2">
-        <v>-25</v>
+        <v>-34.634965277778974</v>
       </c>
       <c r="J107" s="3">
-        <v>1272.99</v>
+        <v>2189.11</v>
       </c>
       <c r="K107" s="3">
-        <v>1272.99</v>
+        <v>2189.11</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -5005,7 +5005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>211112151</v>
       </c>
@@ -5019,25 +5019,25 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>9911</v>
+        <v>10548</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45898.70108796296</v>
+        <v>45913.353020833332</v>
       </c>
       <c r="H108" s="1">
-        <v>45838.702037037037</v>
+        <v>45853.353888888887</v>
       </c>
       <c r="I108" s="2">
-        <v>-29</v>
+        <v>-42.353020833332266</v>
       </c>
       <c r="J108" s="3">
-        <v>2730.67</v>
+        <v>4871.05</v>
       </c>
       <c r="K108" s="3">
-        <v>2730.67</v>
+        <v>4871.05</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -5046,7 +5046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>211112151</v>
       </c>
@@ -5060,25 +5060,25 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>10234</v>
+        <v>11138</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45905.634965277779</v>
+        <v>45927.358495370368</v>
       </c>
       <c r="H109" s="1">
-        <v>45845.635636574072</v>
+        <v>45867.359340277777</v>
       </c>
       <c r="I109" s="2">
-        <v>-36</v>
+        <v>-56.358495370368473</v>
       </c>
       <c r="J109" s="3">
-        <v>2189.11</v>
+        <v>1891.52</v>
       </c>
       <c r="K109" s="3">
-        <v>2189.11</v>
+        <v>1891.52</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5087,53 +5087,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112151</v>
+        <v>211112183</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
       </c>
       <c r="E110">
-        <v>10548</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45913.353020833332</v>
+        <v>45693</v>
       </c>
       <c r="H110" s="1">
-        <v>45853.353888888887</v>
+        <v>45663</v>
       </c>
       <c r="I110" s="2">
-        <v>-44</v>
+        <v>178</v>
       </c>
       <c r="J110" s="3">
-        <v>4871.05</v>
+        <v>-4385.22</v>
       </c>
       <c r="K110" s="3">
-        <v>4871.05</v>
+        <v>-782.21</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5142,75 +5142,75 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>11138</v>
+        <v>8763</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45927.358495370368</v>
+        <v>45841.406585648147</v>
       </c>
       <c r="H111" s="1">
-        <v>45867.359340277777</v>
+        <v>45811.406979166662</v>
       </c>
       <c r="I111" s="2">
-        <v>-58</v>
+        <v>29.593414351853426</v>
       </c>
       <c r="J111" s="3">
-        <v>1891.52</v>
+        <v>808.13</v>
       </c>
       <c r="K111" s="3">
-        <v>1891.52</v>
+        <v>143.54</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112183</v>
+        <v>211112216</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>44</v>
       </c>
       <c r="E112">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45693</v>
+        <v>45858.629687499997</v>
       </c>
       <c r="H112" s="1">
-        <v>45663</v>
+        <v>45828.63045138889</v>
       </c>
       <c r="I112" s="2">
-        <v>176</v>
+        <v>12.37031250000291</v>
       </c>
       <c r="J112" s="3">
-        <v>-4385.22</v>
+        <v>675.35</v>
       </c>
       <c r="K112" s="3">
-        <v>-782.21</v>
+        <v>255.70000000000002</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>211112216</v>
       </c>
@@ -5224,157 +5224,157 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>8763</v>
+        <v>9924</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45841.406585648147</v>
+        <v>45869.354363425926</v>
       </c>
       <c r="H113" s="1">
-        <v>45811.406979166662</v>
+        <v>45839.356215277774</v>
       </c>
       <c r="I113" s="2">
-        <v>28</v>
+        <v>1.6456365740741603</v>
       </c>
       <c r="J113" s="3">
-        <v>808.13</v>
+        <v>574.62</v>
       </c>
       <c r="K113" s="3">
-        <v>143.54</v>
+        <v>57.78</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211112216</v>
+        <v>211112290</v>
       </c>
       <c r="B114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E114">
-        <v>122</v>
+        <v>10786</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45858.629687499997</v>
+        <v>45916.621446759258</v>
       </c>
       <c r="H114" s="1">
-        <v>45828.63045138889</v>
+        <v>45856.622523148144</v>
       </c>
       <c r="I114" s="2">
-        <v>11</v>
+        <v>-45.621446759258106</v>
       </c>
       <c r="J114" s="3">
-        <v>675.35</v>
+        <v>2347.12</v>
       </c>
       <c r="K114" s="3">
-        <v>255.70000000000002</v>
+        <v>2347.12</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211112216</v>
+        <v>211112334</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115">
-        <v>9924</v>
+        <v>42</v>
+      </c>
+      <c r="E115" t="s">
+        <v>50</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45869.354363425926</v>
+        <v>45406</v>
       </c>
       <c r="H115" s="1">
-        <v>45839.356215277774</v>
+        <v>45391</v>
       </c>
       <c r="I115" s="2">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="J115" s="3">
-        <v>574.62</v>
+        <v>597.29</v>
       </c>
       <c r="K115" s="3">
-        <v>574.62</v>
+        <v>597.29</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211112290</v>
+        <v>211112334</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116">
-        <v>10786</v>
+        <v>42</v>
+      </c>
+      <c r="E116" t="s">
+        <v>51</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45916.621446759258</v>
+        <v>45406</v>
       </c>
       <c r="H116" s="1">
-        <v>45856.622523148144</v>
+        <v>45391</v>
       </c>
       <c r="I116" s="2">
-        <v>-47</v>
+        <v>465</v>
       </c>
       <c r="J116" s="3">
-        <v>2347.12</v>
+        <v>591.72</v>
       </c>
       <c r="K116" s="3">
-        <v>2347.12</v>
+        <v>591.72</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
       </c>
       <c r="M116" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>211112334</v>
       </c>
@@ -5388,25 +5388,25 @@
         <v>42</v>
       </c>
       <c r="E117" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45406</v>
+        <v>45419</v>
       </c>
       <c r="H117" s="1">
-        <v>45391</v>
+        <v>45404</v>
       </c>
       <c r="I117" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="J117" s="3">
-        <v>597.29</v>
+        <v>599.27</v>
       </c>
       <c r="K117" s="3">
-        <v>597.29</v>
+        <v>599.27</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
@@ -5415,89 +5415,89 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112334</v>
+        <v>211112351</v>
       </c>
       <c r="B118" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C118" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>42</v>
-      </c>
-      <c r="E118" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="E118">
+        <v>6604</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45406</v>
+        <v>45829.522847222222</v>
       </c>
       <c r="H118" s="1">
-        <v>45391</v>
+        <v>45769.523923611108</v>
       </c>
       <c r="I118" s="2">
-        <v>463</v>
+        <v>41.477152777777519</v>
       </c>
       <c r="J118" s="3">
-        <v>591.72</v>
+        <v>1571.66</v>
       </c>
       <c r="K118" s="3">
-        <v>591.72</v>
+        <v>1571.66</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112334</v>
+        <v>211112351</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C119" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>42</v>
-      </c>
-      <c r="E119" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="E119">
+        <v>411</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45419</v>
+        <v>45837</v>
       </c>
       <c r="H119" s="1">
-        <v>45404</v>
+        <v>45777</v>
       </c>
       <c r="I119" s="2">
-        <v>450</v>
+        <v>34</v>
       </c>
       <c r="J119" s="3">
-        <v>599.27</v>
+        <v>-313.76</v>
       </c>
       <c r="K119" s="3">
-        <v>599.27</v>
+        <v>-313.76</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>211112351</v>
       </c>
@@ -5511,25 +5511,25 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>6019</v>
+        <v>7018</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45817.325613425921</v>
+        <v>45837.739259259259</v>
       </c>
       <c r="H120" s="1">
-        <v>45757.3278125</v>
+        <v>45777.741296296292</v>
       </c>
       <c r="I120" s="2">
-        <v>52</v>
+        <v>33.260740740741312</v>
       </c>
       <c r="J120" s="3">
-        <v>726.95</v>
+        <v>4925.1000000000004</v>
       </c>
       <c r="K120" s="3">
-        <v>726.95</v>
+        <v>4925.1000000000004</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -5538,7 +5538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>211112351</v>
       </c>
@@ -5552,34 +5552,34 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>6427</v>
+        <v>7192</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45824.359131944446</v>
+        <v>45843.368854166663</v>
       </c>
       <c r="H121" s="1">
-        <v>45764.360150462962</v>
+        <v>45783.369363425925</v>
       </c>
       <c r="I121" s="2">
-        <v>45</v>
+        <v>27.631145833336632</v>
       </c>
       <c r="J121" s="3">
-        <v>1840.3600000000001</v>
+        <v>4675.67</v>
       </c>
       <c r="K121" s="3">
-        <v>1840.3600000000001</v>
+        <v>4675.67</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>211112351</v>
       </c>
@@ -5593,34 +5593,34 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>6604</v>
+        <v>7370</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45829.522847222222</v>
+        <v>45845.34983796296</v>
       </c>
       <c r="H122" s="1">
-        <v>45769.523923611108</v>
+        <v>45785.350659722222</v>
       </c>
       <c r="I122" s="2">
-        <v>40</v>
+        <v>25.650162037039991</v>
       </c>
       <c r="J122" s="3">
-        <v>1571.66</v>
+        <v>4323.37</v>
       </c>
       <c r="K122" s="3">
-        <v>1571.66</v>
+        <v>4323.37</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>211112351</v>
       </c>
@@ -5628,40 +5628,40 @@
         <v>53</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
       </c>
       <c r="E123">
-        <v>411</v>
+        <v>7619</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45837</v>
+        <v>45850.387407407405</v>
       </c>
       <c r="H123" s="1">
-        <v>45777</v>
+        <v>45790.388252314813</v>
       </c>
       <c r="I123" s="2">
-        <v>32</v>
+        <v>20.61259259259532</v>
       </c>
       <c r="J123" s="3">
-        <v>-313.76</v>
+        <v>7394.88</v>
       </c>
       <c r="K123" s="3">
-        <v>-313.76</v>
+        <v>7394.88</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>211112351</v>
       </c>
@@ -5675,34 +5675,34 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>7018</v>
+        <v>8006</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45837.739259259259</v>
+        <v>45857.37296296296</v>
       </c>
       <c r="H124" s="1">
-        <v>45777.741296296292</v>
+        <v>45797.375092592592</v>
       </c>
       <c r="I124" s="2">
-        <v>32</v>
+        <v>13.627037037040282</v>
       </c>
       <c r="J124" s="3">
-        <v>4925.1000000000004</v>
+        <v>3927.87</v>
       </c>
       <c r="K124" s="3">
-        <v>4925.1000000000004</v>
+        <v>3927.87</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>211112351</v>
       </c>
@@ -5716,34 +5716,34 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>7192</v>
+        <v>8750</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45843.368854166663</v>
+        <v>45871.312986111108</v>
       </c>
       <c r="H125" s="1">
-        <v>45783.369363425925</v>
+        <v>45811.315150462964</v>
       </c>
       <c r="I125" s="2">
-        <v>26</v>
+        <v>-0.31298611110833008</v>
       </c>
       <c r="J125" s="3">
-        <v>4675.67</v>
+        <v>2626.23</v>
       </c>
       <c r="K125" s="3">
-        <v>4675.67</v>
+        <v>2626.23</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>211112351</v>
       </c>
@@ -5757,244 +5757,244 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>7370</v>
+        <v>9758</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45845.34983796296</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H126" s="1">
-        <v>45785.350659722222</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I126" s="2">
-        <v>24</v>
+        <v>-23.404513888890506</v>
       </c>
       <c r="J126" s="3">
-        <v>4323.37</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K126" s="3">
-        <v>4323.37</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
       </c>
       <c r="M126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>211112421</v>
+      </c>
+      <c r="B127" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127">
+        <v>3848</v>
+      </c>
+      <c r="F127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" s="1">
+        <v>45746.622569444444</v>
+      </c>
+      <c r="H127" s="1">
+        <v>45716.624456018515</v>
+      </c>
+      <c r="I127" s="2">
+        <v>124.3774305555562</v>
+      </c>
+      <c r="J127" s="3">
+        <v>233.77</v>
+      </c>
+      <c r="K127" s="3">
+        <v>233.77</v>
+      </c>
+      <c r="L127" t="s">
+        <v>17</v>
+      </c>
+      <c r="M127" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>211112443</v>
+      </c>
+      <c r="B128" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128">
+        <v>8418</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="1">
+        <v>45834.405034722222</v>
+      </c>
+      <c r="H128" s="1">
+        <v>45804.405219907407</v>
+      </c>
+      <c r="I128" s="2">
+        <v>36.594965277778101</v>
+      </c>
+      <c r="J128" s="3">
+        <v>396.04</v>
+      </c>
+      <c r="K128" s="3">
+        <v>396.04</v>
+      </c>
+      <c r="L128" t="s">
+        <v>17</v>
+      </c>
+      <c r="M128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>211112443</v>
+      </c>
+      <c r="B129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129">
+        <v>8910</v>
+      </c>
+      <c r="F129" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="1">
+        <v>45843.497025462959</v>
+      </c>
+      <c r="H129" s="1">
+        <v>45813.497488425921</v>
+      </c>
+      <c r="I129" s="2">
+        <v>27.502974537041155</v>
+      </c>
+      <c r="J129" s="3">
+        <v>765.47</v>
+      </c>
+      <c r="K129" s="3">
+        <v>765.47</v>
+      </c>
+      <c r="L129" t="s">
+        <v>17</v>
+      </c>
+      <c r="M129" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>211112351</v>
-      </c>
-      <c r="B127" t="s">
-        <v>53</v>
-      </c>
-      <c r="C127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127">
-        <v>7619</v>
-      </c>
-      <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="1">
-        <v>45850.387407407405</v>
-      </c>
-      <c r="H127" s="1">
-        <v>45790.388252314813</v>
-      </c>
-      <c r="I127" s="2">
-        <v>19</v>
-      </c>
-      <c r="J127" s="3">
-        <v>7394.88</v>
-      </c>
-      <c r="K127" s="3">
-        <v>7394.88</v>
-      </c>
-      <c r="L127" t="s">
-        <v>17</v>
-      </c>
-      <c r="M127" t="s">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>211112443</v>
+      </c>
+      <c r="B130" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130">
+        <v>10549</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="1">
+        <v>45883.354108796295</v>
+      </c>
+      <c r="H130" s="1">
+        <v>45853.354548611111</v>
+      </c>
+      <c r="I130" s="2">
+        <v>-12.354108796294895</v>
+      </c>
+      <c r="J130" s="3">
+        <v>1094.7</v>
+      </c>
+      <c r="K130" s="3">
+        <v>1094.7</v>
+      </c>
+      <c r="L130" t="s">
+        <v>17</v>
+      </c>
+      <c r="M130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>211112455</v>
+      </c>
+      <c r="B131" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131">
+        <v>9798</v>
+      </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="1">
+        <v>45864.648715277777</v>
+      </c>
+      <c r="H131" s="1">
+        <v>45834.649039351847</v>
+      </c>
+      <c r="I131" s="2">
+        <v>6.351284722222772</v>
+      </c>
+      <c r="J131" s="3">
+        <v>2220.65</v>
+      </c>
+      <c r="K131" s="3">
+        <v>2220.65</v>
+      </c>
+      <c r="L131" t="s">
+        <v>17</v>
+      </c>
+      <c r="M131" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>211112351</v>
-      </c>
-      <c r="B128" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128">
-        <v>8006</v>
-      </c>
-      <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" s="1">
-        <v>45857.37296296296</v>
-      </c>
-      <c r="H128" s="1">
-        <v>45797.375092592592</v>
-      </c>
-      <c r="I128" s="2">
-        <v>12</v>
-      </c>
-      <c r="J128" s="3">
-        <v>3927.87</v>
-      </c>
-      <c r="K128" s="3">
-        <v>3927.87</v>
-      </c>
-      <c r="L128" t="s">
-        <v>17</v>
-      </c>
-      <c r="M128" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>211112351</v>
-      </c>
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129">
-        <v>8750</v>
-      </c>
-      <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" s="1">
-        <v>45871.312986111108</v>
-      </c>
-      <c r="H129" s="1">
-        <v>45811.315150462964</v>
-      </c>
-      <c r="I129" s="2">
-        <v>-2</v>
-      </c>
-      <c r="J129" s="3">
-        <v>2626.23</v>
-      </c>
-      <c r="K129" s="3">
-        <v>2626.23</v>
-      </c>
-      <c r="L129" t="s">
-        <v>17</v>
-      </c>
-      <c r="M129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>211112351</v>
-      </c>
-      <c r="B130" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130">
-        <v>9758</v>
-      </c>
-      <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" s="1">
-        <v>45894.404513888891</v>
-      </c>
-      <c r="H130" s="1">
-        <v>45834.411666666667</v>
-      </c>
-      <c r="I130" s="2">
-        <v>-25</v>
-      </c>
-      <c r="J130" s="3">
-        <v>2212.2600000000002</v>
-      </c>
-      <c r="K130" s="3">
-        <v>2212.2600000000002</v>
-      </c>
-      <c r="L130" t="s">
-        <v>17</v>
-      </c>
-      <c r="M130" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>211112421</v>
-      </c>
-      <c r="B131" t="s">
-        <v>54</v>
-      </c>
-      <c r="C131" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131">
-        <v>3848</v>
-      </c>
-      <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" s="1">
-        <v>45746.622569444444</v>
-      </c>
-      <c r="H131" s="1">
-        <v>45716.624456018515</v>
-      </c>
-      <c r="I131" s="2">
-        <v>123</v>
-      </c>
-      <c r="J131" s="3">
-        <v>233.77</v>
-      </c>
-      <c r="K131" s="3">
-        <v>233.77</v>
-      </c>
-      <c r="L131" t="s">
-        <v>17</v>
-      </c>
-      <c r="M131" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112443</v>
+        <v>211112455</v>
       </c>
       <c r="B132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -6003,39 +6003,39 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>8418</v>
+        <v>9912</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45834.405034722222</v>
+        <v>45868.70212962963</v>
       </c>
       <c r="H132" s="1">
-        <v>45804.405219907407</v>
+        <v>45838.702465277776</v>
       </c>
       <c r="I132" s="2">
-        <v>35</v>
+        <v>2.2978703703702195</v>
       </c>
       <c r="J132" s="3">
-        <v>396.04</v>
+        <v>2033.5</v>
       </c>
       <c r="K132" s="3">
-        <v>396.04</v>
+        <v>2033.5</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112443</v>
+        <v>211112455</v>
       </c>
       <c r="B133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6044,39 +6044,39 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>8910</v>
+        <v>10545</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45843.497025462959</v>
+        <v>45883.337488425925</v>
       </c>
       <c r="H133" s="1">
-        <v>45813.497488425921</v>
+        <v>45853.348136574074</v>
       </c>
       <c r="I133" s="2">
-        <v>26</v>
+        <v>-12.337488425924676</v>
       </c>
       <c r="J133" s="3">
-        <v>765.47</v>
+        <v>1711.91</v>
       </c>
       <c r="K133" s="3">
-        <v>765.47</v>
+        <v>1711.91</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112443</v>
+        <v>211112455</v>
       </c>
       <c r="B134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6085,25 +6085,25 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>10549</v>
+        <v>10837</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45883.354108796295</v>
+        <v>45890.319421296292</v>
       </c>
       <c r="H134" s="1">
-        <v>45853.354548611111</v>
+        <v>45860.320057870369</v>
       </c>
       <c r="I134" s="2">
-        <v>-14</v>
+        <v>-19.319421296291694</v>
       </c>
       <c r="J134" s="3">
-        <v>1094.7</v>
+        <v>1555.67</v>
       </c>
       <c r="K134" s="3">
-        <v>1094.7</v>
+        <v>1555.67</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -6112,7 +6112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>211112455</v>
       </c>
@@ -6126,39 +6126,39 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>9798</v>
+        <v>11299</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45864.648715277777</v>
+        <v>45900.301238425927</v>
       </c>
       <c r="H135" s="1">
-        <v>45834.649039351847</v>
+        <v>45870.301851851851</v>
       </c>
       <c r="I135" s="2">
-        <v>5</v>
+        <v>-29.301238425927295</v>
       </c>
       <c r="J135" s="3">
-        <v>2220.65</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="K135" s="3">
-        <v>2220.65</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112455</v>
+        <v>211112469</v>
       </c>
       <c r="B136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6167,39 +6167,39 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>9912</v>
+        <v>10547</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45868.70212962963</v>
+        <v>45883.352349537032</v>
       </c>
       <c r="H136" s="1">
-        <v>45838.702465277776</v>
+        <v>45853.352858796294</v>
       </c>
       <c r="I136" s="2">
-        <v>1</v>
+        <v>-12.352349537031841</v>
       </c>
       <c r="J136" s="3">
-        <v>2033.5</v>
+        <v>957.17000000000007</v>
       </c>
       <c r="K136" s="3">
-        <v>2033.5</v>
+        <v>957.17000000000007</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112455</v>
+        <v>211112476</v>
       </c>
       <c r="B137" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6208,25 +6208,25 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>10545</v>
+        <v>10023</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45883.337488425925</v>
+        <v>45871.36619212963</v>
       </c>
       <c r="H137" s="1">
-        <v>45853.348136574074</v>
+        <v>45841.366562499999</v>
       </c>
       <c r="I137" s="2">
-        <v>-14</v>
+        <v>-0.36619212962978054</v>
       </c>
       <c r="J137" s="3">
-        <v>1711.91</v>
+        <v>275.11</v>
       </c>
       <c r="K137" s="3">
-        <v>1711.91</v>
+        <v>275.11</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
@@ -6235,12 +6235,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112455</v>
+        <v>211112476</v>
       </c>
       <c r="B138" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6249,25 +6249,25 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>10837</v>
+        <v>10295</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45890.319421296292</v>
+        <v>45877.345173611109</v>
       </c>
       <c r="H138" s="1">
-        <v>45860.320057870369</v>
+        <v>45847.345173611109</v>
       </c>
       <c r="I138" s="2">
-        <v>-21</v>
+        <v>-6.3451736111092032</v>
       </c>
       <c r="J138" s="3">
-        <v>1555.67</v>
+        <v>290.51</v>
       </c>
       <c r="K138" s="3">
-        <v>1555.67</v>
+        <v>290.51</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -6276,12 +6276,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112469</v>
+        <v>211112476</v>
       </c>
       <c r="B139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6290,25 +6290,25 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>10547</v>
+        <v>10666</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45883.352349537032</v>
+        <v>45885.346874999996</v>
       </c>
       <c r="H139" s="1">
-        <v>45853.352858796294</v>
+        <v>45855.347696759258</v>
       </c>
       <c r="I139" s="2">
-        <v>-14</v>
+        <v>-14.346874999995634</v>
       </c>
       <c r="J139" s="3">
-        <v>957.17000000000007</v>
+        <v>211.36</v>
       </c>
       <c r="K139" s="3">
-        <v>957.17000000000007</v>
+        <v>211.36</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
@@ -6317,12 +6317,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112476</v>
+        <v>211112488</v>
       </c>
       <c r="B140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6331,39 +6331,39 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>10023</v>
+        <v>9567</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45871.36619212963</v>
+        <v>45828.710740740738</v>
       </c>
       <c r="H140" s="1">
-        <v>45841.366562499999</v>
+        <v>45828.710740740738</v>
       </c>
       <c r="I140" s="2">
-        <v>-2</v>
+        <v>42.289259259261598</v>
       </c>
       <c r="J140" s="3">
-        <v>275.11</v>
+        <v>992.69</v>
       </c>
       <c r="K140" s="3">
-        <v>275.11</v>
+        <v>992.69</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112476</v>
+        <v>211112488</v>
       </c>
       <c r="B141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6372,80 +6372,80 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>10295</v>
+        <v>10184</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45877.345173611109</v>
+        <v>45842.656388888885</v>
       </c>
       <c r="H141" s="1">
-        <v>45847.345173611109</v>
+        <v>45842.656388888885</v>
       </c>
       <c r="I141" s="2">
-        <v>-8</v>
+        <v>28.343611111115024</v>
       </c>
       <c r="J141" s="3">
-        <v>290.51</v>
+        <v>1008.07</v>
       </c>
       <c r="K141" s="3">
-        <v>290.51</v>
+        <v>1008.07</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112476</v>
+        <v>211112488</v>
       </c>
       <c r="B142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D142">
+        <v>2025</v>
       </c>
       <c r="E142">
-        <v>10666</v>
+        <v>639</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45885.346874999996</v>
+        <v>45848</v>
       </c>
       <c r="H142" s="1">
-        <v>45855.347696759258</v>
+        <v>45848</v>
       </c>
       <c r="I142" s="2">
-        <v>-16</v>
+        <v>23</v>
       </c>
       <c r="J142" s="3">
-        <v>211.36</v>
+        <v>-992.69</v>
       </c>
       <c r="K142" s="3">
-        <v>211.36</v>
+        <v>-992.69</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112488</v>
+        <v>211112494</v>
       </c>
       <c r="B143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6454,39 +6454,39 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>9567</v>
+        <v>5411</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45828.710740740738</v>
+        <v>45777.661319444444</v>
       </c>
       <c r="H143" s="1">
-        <v>45828.710740740738</v>
+        <v>45747.663402777776</v>
       </c>
       <c r="I143" s="2">
-        <v>41</v>
+        <v>93.338680555556493</v>
       </c>
       <c r="J143" s="3">
-        <v>992.69</v>
+        <v>213.1</v>
       </c>
       <c r="K143" s="3">
-        <v>992.69</v>
+        <v>213.1</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112488</v>
+        <v>211112494</v>
       </c>
       <c r="B144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6495,39 +6495,39 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>10184</v>
+        <v>6692</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45842.656388888885</v>
+        <v>45800.410613425927</v>
       </c>
       <c r="H144" s="1">
-        <v>45842.656388888885</v>
+        <v>45770.412349537037</v>
       </c>
       <c r="I144" s="2">
-        <v>27</v>
+        <v>70.589386574072705</v>
       </c>
       <c r="J144" s="3">
-        <v>1008.07</v>
+        <v>177.04</v>
       </c>
       <c r="K144" s="3">
-        <v>1008.07</v>
+        <v>177.04</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112488</v>
+        <v>211112515</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C145" t="s">
         <v>24</v>
@@ -6536,25 +6536,25 @@
         <v>2025</v>
       </c>
       <c r="E145">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45848</v>
+        <v>45861</v>
       </c>
       <c r="H145" s="1">
-        <v>45848</v>
+        <v>45831</v>
       </c>
       <c r="I145" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J145" s="3">
-        <v>-992.69</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="K145" s="3">
-        <v>-992.69</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6563,53 +6563,53 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112494</v>
+        <v>211112515</v>
       </c>
       <c r="B146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D146">
+        <v>2025</v>
       </c>
       <c r="E146">
-        <v>5411</v>
+        <v>621</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45777.661319444444</v>
+        <v>45875</v>
       </c>
       <c r="H146" s="1">
-        <v>45747.663402777776</v>
+        <v>45845</v>
       </c>
       <c r="I146" s="2">
-        <v>92</v>
+        <v>-4</v>
       </c>
       <c r="J146" s="3">
-        <v>213.1</v>
+        <v>-49.21</v>
       </c>
       <c r="K146" s="3">
-        <v>213.1</v>
+        <v>-49.21</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112494</v>
+        <v>211112515</v>
       </c>
       <c r="B147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6618,34 +6618,34 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>6692</v>
+        <v>10193</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45800.410613425927</v>
+        <v>45875.364108796297</v>
       </c>
       <c r="H147" s="1">
-        <v>45770.412349537037</v>
+        <v>45845.36451388889</v>
       </c>
       <c r="I147" s="2">
-        <v>69</v>
+        <v>-4.3641087962969323</v>
       </c>
       <c r="J147" s="3">
-        <v>177.04</v>
+        <v>1144.45</v>
       </c>
       <c r="K147" s="3">
-        <v>177.04</v>
+        <v>1144.45</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>211112515</v>
       </c>
@@ -6655,38 +6655,38 @@
       <c r="C148" t="s">
         <v>24</v>
       </c>
-      <c r="D148">
-        <v>2025</v>
+      <c r="D148" t="s">
+        <v>64</v>
       </c>
       <c r="E148">
-        <v>575</v>
+        <v>3</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45861</v>
+        <v>45892</v>
       </c>
       <c r="H148" s="1">
-        <v>45831</v>
+        <v>45862</v>
       </c>
       <c r="I148" s="2">
-        <v>8</v>
+        <v>-21</v>
       </c>
       <c r="J148" s="3">
-        <v>-390.40000000000003</v>
+        <v>-15.38</v>
       </c>
       <c r="K148" s="3">
-        <v>-390.40000000000003</v>
+        <v>-15.38</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>211112515</v>
       </c>
@@ -6694,236 +6694,236 @@
         <v>61</v>
       </c>
       <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149">
+        <v>11018</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" s="1">
+        <v>45893.344247685185</v>
+      </c>
+      <c r="H149" s="1">
+        <v>45863.344930555555</v>
+      </c>
+      <c r="I149" s="2">
+        <v>-22.34424768518511</v>
+      </c>
+      <c r="J149" s="3">
+        <v>653.94000000000005</v>
+      </c>
+      <c r="K149" s="3">
+        <v>653.94000000000005</v>
+      </c>
+      <c r="L149" t="s">
+        <v>17</v>
+      </c>
+      <c r="M149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>211112518</v>
+      </c>
+      <c r="B150" t="s">
+        <v>62</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150">
+        <v>9953</v>
+      </c>
+      <c r="F150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" s="1">
+        <v>45900.407731481479</v>
+      </c>
+      <c r="H150" s="1">
+        <v>45840.408055555556</v>
+      </c>
+      <c r="I150" s="2">
+        <v>-29.40773148147855</v>
+      </c>
+      <c r="J150" s="3">
+        <v>358.40000000000003</v>
+      </c>
+      <c r="K150" s="3">
+        <v>358.40000000000003</v>
+      </c>
+      <c r="L150" t="s">
+        <v>17</v>
+      </c>
+      <c r="M150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>211112518</v>
+      </c>
+      <c r="B151" t="s">
+        <v>62</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151">
+        <v>10114</v>
+      </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="1">
+        <v>45902.400694444441</v>
+      </c>
+      <c r="H151" s="1">
+        <v>45842.400694444441</v>
+      </c>
+      <c r="I151" s="2">
+        <v>-31.400694444440887</v>
+      </c>
+      <c r="J151" s="3">
+        <v>219.86</v>
+      </c>
+      <c r="K151" s="3">
+        <v>219.86</v>
+      </c>
+      <c r="L151" t="s">
+        <v>17</v>
+      </c>
+      <c r="M151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>211112518</v>
+      </c>
+      <c r="B152" t="s">
+        <v>62</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>10919</v>
+      </c>
+      <c r="F152" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="1">
+        <v>45921.540416666663</v>
+      </c>
+      <c r="H152" s="1">
+        <v>45861.54415509259</v>
+      </c>
+      <c r="I152" s="2">
+        <v>-50.540416666663077</v>
+      </c>
+      <c r="J152" s="3">
+        <v>817.86</v>
+      </c>
+      <c r="K152" s="3">
+        <v>817.86</v>
+      </c>
+      <c r="L152" t="s">
+        <v>17</v>
+      </c>
+      <c r="M152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>211112531</v>
+      </c>
+      <c r="B153" t="s">
+        <v>63</v>
+      </c>
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153">
+        <v>10440</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="1">
+        <v>45879.370173611111</v>
+      </c>
+      <c r="H153" s="1">
+        <v>45849.370173611111</v>
+      </c>
+      <c r="I153" s="2">
+        <v>-8.3701736111106584</v>
+      </c>
+      <c r="J153" s="3">
+        <v>210.75</v>
+      </c>
+      <c r="K153" s="3">
+        <v>210.75</v>
+      </c>
+      <c r="L153" t="s">
+        <v>17</v>
+      </c>
+      <c r="M153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>211112531</v>
+      </c>
+      <c r="B154" t="s">
+        <v>63</v>
+      </c>
+      <c r="C154" t="s">
         <v>24</v>
       </c>
-      <c r="D149">
+      <c r="D154">
         <v>2025</v>
       </c>
-      <c r="E149">
-        <v>621</v>
-      </c>
-      <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" s="1">
-        <v>45875</v>
-      </c>
-      <c r="H149" s="1">
-        <v>45845</v>
-      </c>
-      <c r="I149" s="2">
-        <v>-6</v>
-      </c>
-      <c r="J149" s="3">
-        <v>-49.21</v>
-      </c>
-      <c r="K149" s="3">
-        <v>-49.21</v>
-      </c>
-      <c r="L149" t="s">
-        <v>17</v>
-      </c>
-      <c r="M149" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>211112515</v>
-      </c>
-      <c r="B150" t="s">
-        <v>61</v>
-      </c>
-      <c r="C150" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E150">
-        <v>10193</v>
-      </c>
-      <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" s="1">
-        <v>45875.364108796297</v>
-      </c>
-      <c r="H150" s="1">
-        <v>45845.36451388889</v>
-      </c>
-      <c r="I150" s="2">
-        <v>-6</v>
-      </c>
-      <c r="J150" s="3">
-        <v>1144.45</v>
-      </c>
-      <c r="K150" s="3">
-        <v>1144.45</v>
-      </c>
-      <c r="L150" t="s">
-        <v>17</v>
-      </c>
-      <c r="M150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>211112515</v>
-      </c>
-      <c r="B151" t="s">
-        <v>61</v>
-      </c>
-      <c r="C151" t="s">
-        <v>24</v>
-      </c>
-      <c r="D151" t="s">
-        <v>64</v>
-      </c>
-      <c r="E151">
-        <v>3</v>
-      </c>
-      <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" s="1">
+      <c r="E154">
+        <v>681</v>
+      </c>
+      <c r="F154" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" s="1">
         <v>45892</v>
       </c>
-      <c r="H151" s="1">
+      <c r="H154" s="1">
         <v>45862</v>
       </c>
-      <c r="I151" s="2">
-        <v>-23</v>
-      </c>
-      <c r="J151" s="3">
-        <v>-15.38</v>
-      </c>
-      <c r="K151" s="3">
-        <v>-15.38</v>
-      </c>
-      <c r="L151" t="s">
-        <v>17</v>
-      </c>
-      <c r="M151" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>211112515</v>
-      </c>
-      <c r="B152" t="s">
-        <v>61</v>
-      </c>
-      <c r="C152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152">
-        <v>11018</v>
-      </c>
-      <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" s="1">
-        <v>45893.344247685185</v>
-      </c>
-      <c r="H152" s="1">
-        <v>45863.344930555555</v>
-      </c>
-      <c r="I152" s="2">
-        <v>-24</v>
-      </c>
-      <c r="J152" s="3">
-        <v>653.94000000000005</v>
-      </c>
-      <c r="K152" s="3">
-        <v>653.94000000000005</v>
-      </c>
-      <c r="L152" t="s">
-        <v>17</v>
-      </c>
-      <c r="M152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>211112518</v>
-      </c>
-      <c r="B153" t="s">
-        <v>62</v>
-      </c>
-      <c r="C153" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153">
-        <v>9953</v>
-      </c>
-      <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" s="1">
-        <v>45900.407731481479</v>
-      </c>
-      <c r="H153" s="1">
-        <v>45840.408055555556</v>
-      </c>
-      <c r="I153" s="2">
-        <v>-31</v>
-      </c>
-      <c r="J153" s="3">
-        <v>358.40000000000003</v>
-      </c>
-      <c r="K153" s="3">
-        <v>358.40000000000003</v>
-      </c>
-      <c r="L153" t="s">
-        <v>17</v>
-      </c>
-      <c r="M153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>211112518</v>
-      </c>
-      <c r="B154" t="s">
-        <v>62</v>
-      </c>
-      <c r="C154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154">
-        <v>10114</v>
-      </c>
-      <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" s="1">
-        <v>45902.400694444441</v>
-      </c>
-      <c r="H154" s="1">
-        <v>45842.400694444441</v>
-      </c>
       <c r="I154" s="2">
-        <v>-33</v>
+        <v>-21</v>
       </c>
       <c r="J154" s="3">
-        <v>219.86</v>
+        <v>-13.55</v>
       </c>
       <c r="K154" s="3">
-        <v>219.86</v>
+        <v>-13.55</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -6932,12 +6932,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112518</v>
+        <v>211112531</v>
       </c>
       <c r="B155" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -6946,153 +6946,30 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>10919</v>
+        <v>11028</v>
       </c>
       <c r="F155" t="s">
         <v>16</v>
       </c>
       <c r="G155" s="1">
-        <v>45921.540416666663</v>
+        <v>45893.474282407406</v>
       </c>
       <c r="H155" s="1">
-        <v>45861.54415509259</v>
+        <v>45863.474293981482</v>
       </c>
       <c r="I155" s="2">
-        <v>-52</v>
+        <v>-22.474282407405553</v>
       </c>
       <c r="J155" s="3">
-        <v>817.86</v>
+        <v>221.74</v>
       </c>
       <c r="K155" s="3">
-        <v>817.86</v>
+        <v>221.74</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>211112531</v>
-      </c>
-      <c r="B156" t="s">
-        <v>63</v>
-      </c>
-      <c r="C156" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156">
-        <v>10440</v>
-      </c>
-      <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" s="1">
-        <v>45879.370173611111</v>
-      </c>
-      <c r="H156" s="1">
-        <v>45849.370173611111</v>
-      </c>
-      <c r="I156" s="2">
-        <v>-10</v>
-      </c>
-      <c r="J156" s="3">
-        <v>210.75</v>
-      </c>
-      <c r="K156" s="3">
-        <v>210.75</v>
-      </c>
-      <c r="L156" t="s">
-        <v>17</v>
-      </c>
-      <c r="M156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>211112531</v>
-      </c>
-      <c r="B157" t="s">
-        <v>63</v>
-      </c>
-      <c r="C157" t="s">
-        <v>24</v>
-      </c>
-      <c r="D157">
-        <v>2025</v>
-      </c>
-      <c r="E157">
-        <v>681</v>
-      </c>
-      <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" s="1">
-        <v>45892</v>
-      </c>
-      <c r="H157" s="1">
-        <v>45862</v>
-      </c>
-      <c r="I157" s="2">
-        <v>-23</v>
-      </c>
-      <c r="J157" s="3">
-        <v>-13.55</v>
-      </c>
-      <c r="K157" s="3">
-        <v>-13.55</v>
-      </c>
-      <c r="L157" t="s">
-        <v>17</v>
-      </c>
-      <c r="M157" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>211112531</v>
-      </c>
-      <c r="B158" t="s">
-        <v>63</v>
-      </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158">
-        <v>11028</v>
-      </c>
-      <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" s="1">
-        <v>45893.474282407406</v>
-      </c>
-      <c r="H158" s="1">
-        <v>45863.474293981482</v>
-      </c>
-      <c r="I158" s="2">
-        <v>-24</v>
-      </c>
-      <c r="J158" s="3">
-        <v>221.74</v>
-      </c>
-      <c r="K158" s="3">
-        <v>221.74</v>
-      </c>
-      <c r="L158" t="s">
-        <v>17</v>
-      </c>
-      <c r="M158" t="s">
         <v>19</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66029BF-B44D-48F4-82E5-6B7BB296AF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95983D4-8C72-4FE3-A701-CDE5F4E77EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="65">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M155"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
         <v>45845.491770833331</v>
       </c>
       <c r="I2" s="2">
-        <v>-4.49177083333052</v>
+        <v>2</v>
       </c>
       <c r="J2" s="3">
         <v>418.54</v>
@@ -697,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>45869.506041666667</v>
       </c>
       <c r="I3" s="2">
-        <v>-28.506041666667443</v>
+        <v>-22</v>
       </c>
       <c r="J3" s="3">
         <v>470.6</v>
@@ -767,7 +767,7 @@
         <v>45846.3825</v>
       </c>
       <c r="I4" s="2">
-        <v>-5.382499999999709</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
         <v>359.15000000000003</v>
@@ -779,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>45856.494363425925</v>
       </c>
       <c r="I5" s="2">
-        <v>-15.494351851848478</v>
+        <v>-9</v>
       </c>
       <c r="J5" s="3">
         <v>1004.71</v>
@@ -849,7 +849,7 @@
         <v>45855.558912037035</v>
       </c>
       <c r="I6" s="2">
-        <v>15.441087962964957</v>
+        <v>22</v>
       </c>
       <c r="J6" s="3">
         <v>223.16</v>
@@ -890,7 +890,7 @@
         <v>45842</v>
       </c>
       <c r="I7" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
         <v>-28.150000000000002</v>
@@ -902,7 +902,7 @@
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>45842.49386574074</v>
       </c>
       <c r="I8" s="2">
-        <v>-1.4938657407401479</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3">
         <v>595.76</v>
@@ -943,7 +943,7 @@
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>45846</v>
       </c>
       <c r="I9" s="2">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3">
         <v>-19.89</v>
@@ -984,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>45846.376550925925</v>
       </c>
       <c r="I10" s="2">
-        <v>-5.3765509259246755</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
         <v>602.47</v>
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>45853.638935185183</v>
       </c>
       <c r="I11" s="2">
-        <v>-12.638935185183072</v>
+        <v>-6</v>
       </c>
       <c r="J11" s="3">
         <v>612.18000000000006</v>
@@ -1095,7 +1095,7 @@
         <v>45860.531319444446</v>
       </c>
       <c r="I12" s="2">
-        <v>-19.531319444446126</v>
+        <v>-13</v>
       </c>
       <c r="J12" s="3">
         <v>521.47</v>
@@ -1136,7 +1136,7 @@
         <v>45867.53765046296</v>
       </c>
       <c r="I13" s="2">
-        <v>-26.537638888883521</v>
+        <v>-20</v>
       </c>
       <c r="J13" s="3">
         <v>671.6</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211110681</v>
+        <v>211110574</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1165,25 +1165,25 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>10430</v>
+        <v>11449</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45878.592557870368</v>
+        <v>45904.531504629631</v>
       </c>
       <c r="H14" s="1">
-        <v>45848.592557870368</v>
+        <v>45874.5315162037</v>
       </c>
       <c r="I14" s="2">
-        <v>-7.5925578703681822</v>
+        <v>-27</v>
       </c>
       <c r="J14" s="3">
-        <v>964.74</v>
+        <v>308.06</v>
       </c>
       <c r="K14" s="3">
-        <v>7.7700000000000005</v>
+        <v>308.06</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1206,25 +1206,25 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>11015</v>
+        <v>10430</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45893.298807870371</v>
+        <v>45878.592557870368</v>
       </c>
       <c r="H15" s="1">
-        <v>45863.300034722219</v>
+        <v>45848.592557870368</v>
       </c>
       <c r="I15" s="2">
-        <v>-22.298807870371093</v>
+        <v>-1</v>
       </c>
       <c r="J15" s="3">
-        <v>2446.73</v>
+        <v>964.74</v>
       </c>
       <c r="K15" s="3">
-        <v>2446.73</v>
+        <v>7.7700000000000005</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1235,43 +1235,43 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211110903</v>
+        <v>211110681</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>603</v>
+        <v>11015</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45847</v>
+        <v>45893.298807870371</v>
       </c>
       <c r="H16" s="1">
-        <v>45840</v>
+        <v>45863.300034722219</v>
       </c>
       <c r="I16" s="2">
-        <v>24</v>
+        <v>-16</v>
       </c>
       <c r="J16" s="3">
-        <v>-42.26</v>
+        <v>2446.73</v>
       </c>
       <c r="K16" s="3">
-        <v>-42.26</v>
+        <v>2446.73</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1284,29 +1284,29 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
+      <c r="D17">
+        <v>2025</v>
       </c>
       <c r="E17">
-        <v>522</v>
+        <v>603</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45856</v>
+        <v>45847</v>
       </c>
       <c r="H17" s="1">
-        <v>45849</v>
+        <v>45840</v>
       </c>
       <c r="I17" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J17" s="3">
-        <v>-43.6</v>
+        <v>-42.26</v>
       </c>
       <c r="K17" s="3">
-        <v>-43.6</v>
+        <v>-42.26</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1325,29 +1325,29 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18">
-        <v>2025</v>
+      <c r="D18" t="s">
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>653</v>
+        <v>522</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45860</v>
+        <v>45856</v>
       </c>
       <c r="H18" s="1">
-        <v>45853</v>
+        <v>45849</v>
       </c>
       <c r="I18" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J18" s="3">
-        <v>-113.52</v>
+        <v>-43.6</v>
       </c>
       <c r="K18" s="3">
-        <v>-113.52</v>
+        <v>-43.6</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1364,31 +1364,31 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>2025</v>
       </c>
       <c r="E19">
-        <v>10748</v>
+        <v>653</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45863.428020833329</v>
+        <v>45860</v>
       </c>
       <c r="H19" s="1">
-        <v>45856.428020833329</v>
+        <v>45853</v>
       </c>
       <c r="I19" s="2">
-        <v>7.5719791666706442</v>
+        <v>17</v>
       </c>
       <c r="J19" s="3">
-        <v>249.14000000000001</v>
+        <v>-113.52</v>
       </c>
       <c r="K19" s="3">
-        <v>249.14000000000001</v>
+        <v>-113.52</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1405,45 +1405,45 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20">
-        <v>527</v>
+        <v>10748</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45873</v>
+        <v>45863.428020833329</v>
       </c>
       <c r="H20" s="1">
-        <v>45866</v>
+        <v>45856.428020833329</v>
       </c>
       <c r="I20" s="2">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="J20" s="3">
-        <v>-27.2</v>
+        <v>249.14000000000001</v>
       </c>
       <c r="K20" s="3">
-        <v>-27.2</v>
+        <v>249.14000000000001</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -1452,121 +1452,121 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>275</v>
+        <v>527</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45763</v>
+        <v>45873</v>
       </c>
       <c r="H21" s="1">
-        <v>45728</v>
+        <v>45866</v>
       </c>
       <c r="I21" s="2">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>-112.59</v>
+        <v>-27.2</v>
       </c>
       <c r="K21" s="3">
-        <v>-75.92</v>
+        <v>-27.2</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>8178</v>
+        <v>533</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45834.347986111112</v>
+        <v>45873</v>
       </c>
       <c r="H22" s="1">
-        <v>45799.348622685182</v>
+        <v>45866</v>
       </c>
       <c r="I22" s="2">
-        <v>36.652013888888177</v>
+        <v>4</v>
       </c>
       <c r="J22" s="3">
-        <v>601.93000000000006</v>
+        <v>-50.85</v>
       </c>
       <c r="K22" s="3">
-        <v>21</v>
+        <v>-50.85</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>2025</v>
       </c>
       <c r="E23">
-        <v>9338</v>
+        <v>711</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45860.416597222218</v>
+        <v>45875</v>
       </c>
       <c r="H23" s="1">
-        <v>45825.417175925926</v>
+        <v>45868</v>
       </c>
       <c r="I23" s="2">
-        <v>10.583402777781885</v>
+        <v>2</v>
       </c>
       <c r="J23" s="3">
-        <v>691.45</v>
+        <v>-100.23</v>
       </c>
       <c r="K23" s="3">
-        <v>32.82</v>
+        <v>-100.23</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1575,39 +1575,39 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>9568</v>
+        <v>11431</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45863.713865740741</v>
+        <v>45881.485289351847</v>
       </c>
       <c r="H24" s="1">
-        <v>45828.714143518519</v>
+        <v>45874.485289351847</v>
       </c>
       <c r="I24" s="2">
-        <v>7.286134259258688</v>
+        <v>-4</v>
       </c>
       <c r="J24" s="3">
-        <v>742.15</v>
+        <v>1383.09</v>
       </c>
       <c r="K24" s="3">
-        <v>742.15</v>
+        <v>1383.09</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1616,66 +1616,66 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>9739</v>
+        <v>11549</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45869.337118055555</v>
+        <v>45882.644108796296</v>
       </c>
       <c r="H25" s="1">
-        <v>45834.337858796294</v>
+        <v>45875.644444444442</v>
       </c>
       <c r="I25" s="2">
-        <v>1.6628819444449618</v>
+        <v>-5</v>
       </c>
       <c r="J25" s="3">
-        <v>89.460000000000008</v>
+        <v>1178.1200000000001</v>
       </c>
       <c r="K25" s="3">
-        <v>89.460000000000008</v>
+        <v>1178.1200000000001</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26">
-        <v>514</v>
+        <v>11582</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45877</v>
+        <v>45883.495416666665</v>
       </c>
       <c r="H26" s="1">
-        <v>45842</v>
+        <v>45876.497893518514</v>
       </c>
       <c r="I26" s="2">
         <v>-6</v>
       </c>
       <c r="J26" s="3">
-        <v>-2.12</v>
+        <v>1385.29</v>
       </c>
       <c r="K26" s="3">
-        <v>-2.12</v>
+        <v>1385.29</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1692,37 +1692,37 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27">
-        <v>10101</v>
+        <v>275</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45877.371099537035</v>
+        <v>45763</v>
       </c>
       <c r="H27" s="1">
-        <v>45842.371099537035</v>
+        <v>45728</v>
       </c>
       <c r="I27" s="2">
-        <v>-6.3710995370347518</v>
+        <v>114</v>
       </c>
       <c r="J27" s="3">
-        <v>1172.54</v>
+        <v>-112.59</v>
       </c>
       <c r="K27" s="3">
-        <v>1172.54</v>
+        <v>-75.92</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1739,31 +1739,31 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>10373</v>
+        <v>8178</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45883.311967592592</v>
+        <v>45834.347986111112</v>
       </c>
       <c r="H28" s="1">
-        <v>45848.312951388885</v>
+        <v>45799.348622685182</v>
       </c>
       <c r="I28" s="2">
-        <v>-12.311967592591827</v>
+        <v>43</v>
       </c>
       <c r="J28" s="3">
-        <v>793.1</v>
+        <v>601.93000000000006</v>
       </c>
       <c r="K28" s="3">
-        <v>793.1</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1780,39 +1780,39 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>10988</v>
+        <v>9338</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45897.491388888884</v>
+        <v>45860.416597222218</v>
       </c>
       <c r="H29" s="1">
-        <v>45862.491388888884</v>
+        <v>45825.417175925926</v>
       </c>
       <c r="I29" s="2">
-        <v>-26.491388888884103</v>
+        <v>17</v>
       </c>
       <c r="J29" s="3">
-        <v>1073.29</v>
+        <v>691.45</v>
       </c>
       <c r="K29" s="3">
-        <v>1073.29</v>
+        <v>32.82</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1821,25 +1821,25 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>8229</v>
+        <v>9568</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45860.354687499996</v>
+        <v>45863.713865740741</v>
       </c>
       <c r="H30" s="1">
-        <v>45800.35528935185</v>
+        <v>45828.714143518519</v>
       </c>
       <c r="I30" s="2">
-        <v>10.645312500004366</v>
+        <v>14</v>
       </c>
       <c r="J30" s="3">
-        <v>945.91</v>
+        <v>742.15</v>
       </c>
       <c r="K30" s="3">
-        <v>945.91</v>
+        <v>742.15</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1862,66 +1862,66 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>9806</v>
+        <v>9739</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45895.300613425927</v>
+        <v>45869.337118055555</v>
       </c>
       <c r="H31" s="1">
-        <v>45835.301053240742</v>
+        <v>45834.337858796294</v>
       </c>
       <c r="I31" s="2">
-        <v>-24.300613425926713</v>
+        <v>8</v>
       </c>
       <c r="J31" s="3">
-        <v>198.19</v>
+        <v>89.460000000000008</v>
       </c>
       <c r="K31" s="3">
-        <v>198.19</v>
+        <v>89.460000000000008</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32">
-        <v>10727</v>
+        <v>514</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45916.281041666662</v>
+        <v>45877</v>
       </c>
       <c r="H32" s="1">
-        <v>45856.283530092587</v>
+        <v>45842</v>
       </c>
       <c r="I32" s="2">
-        <v>-45.281041666661622</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>199.79</v>
+        <v>-2.12</v>
       </c>
       <c r="K32" s="3">
-        <v>199.79</v>
+        <v>-2.12</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1944,25 +1944,25 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>11012</v>
+        <v>10101</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45923.282870370371</v>
+        <v>45877.371099537035</v>
       </c>
       <c r="H33" s="1">
-        <v>45863.28329861111</v>
+        <v>45842.371099537035</v>
       </c>
       <c r="I33" s="2">
-        <v>-52.282870370370802</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>1478.6200000000001</v>
+        <v>1172.54</v>
       </c>
       <c r="K33" s="3">
-        <v>1478.6200000000001</v>
+        <v>1172.54</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -1973,92 +1973,92 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>561</v>
+        <v>10373</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45854</v>
+        <v>45883.311967592592</v>
       </c>
       <c r="H34" s="1">
-        <v>45824</v>
+        <v>45848.312951388885</v>
       </c>
       <c r="I34" s="2">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="J34" s="3">
-        <v>-1.73</v>
+        <v>793.1</v>
       </c>
       <c r="K34" s="3">
-        <v>-1.73</v>
+        <v>793.1</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>584</v>
+        <v>10988</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45863</v>
+        <v>45897.491388888884</v>
       </c>
       <c r="H35" s="1">
-        <v>45833</v>
+        <v>45862.491388888884</v>
       </c>
       <c r="I35" s="2">
-        <v>8</v>
+        <v>-20</v>
       </c>
       <c r="J35" s="3">
-        <v>-467.51</v>
+        <v>1073.29</v>
       </c>
       <c r="K35" s="3">
-        <v>-467.51</v>
+        <v>1073.29</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2067,25 +2067,25 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>10165</v>
+        <v>11560</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45872.519525462958</v>
+        <v>45911.437928240739</v>
       </c>
       <c r="H36" s="1">
-        <v>45842.519537037035</v>
+        <v>45876.438402777778</v>
       </c>
       <c r="I36" s="2">
-        <v>-1.5195254629579722</v>
+        <v>-34</v>
       </c>
       <c r="J36" s="3">
-        <v>764.51</v>
+        <v>673.4</v>
       </c>
       <c r="K36" s="3">
-        <v>764.51</v>
+        <v>673.4</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2096,37 +2096,37 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111739</v>
+        <v>211111720</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>630</v>
+        <v>10727</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45876</v>
+        <v>45916.281041666662</v>
       </c>
       <c r="H37" s="1">
-        <v>45846</v>
+        <v>45856.283530092587</v>
       </c>
       <c r="I37" s="2">
-        <v>-5</v>
+        <v>-39</v>
       </c>
       <c r="J37" s="3">
-        <v>-89.27</v>
+        <v>199.79</v>
       </c>
       <c r="K37" s="3">
-        <v>-89.27</v>
+        <v>199.79</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111739</v>
+        <v>211111720</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2149,25 +2149,25 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>10238</v>
+        <v>11012</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45876.313310185185</v>
+        <v>45923.282870370371</v>
       </c>
       <c r="H38" s="1">
-        <v>45846.315902777773</v>
+        <v>45863.28329861111</v>
       </c>
       <c r="I38" s="2">
-        <v>-5.3133101851854008</v>
+        <v>-46</v>
       </c>
       <c r="J38" s="3">
-        <v>720.1</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="K38" s="3">
-        <v>720.1</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2184,37 +2184,37 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>2025</v>
       </c>
       <c r="E39">
-        <v>10819</v>
+        <v>561</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45889.487662037034</v>
+        <v>45854</v>
       </c>
       <c r="H39" s="1">
-        <v>45859.487673611111</v>
+        <v>45824</v>
       </c>
       <c r="I39" s="2">
-        <v>-18.48766203703417</v>
+        <v>23</v>
       </c>
       <c r="J39" s="3">
-        <v>694.31000000000006</v>
+        <v>-1.73</v>
       </c>
       <c r="K39" s="3">
-        <v>694.31000000000006</v>
+        <v>-1.73</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2225,37 +2225,37 @@
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
       </c>
       <c r="E40">
-        <v>11069</v>
+        <v>630</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45893.5234375</v>
+        <v>45876</v>
       </c>
       <c r="H40" s="1">
-        <v>45863.5234375</v>
+        <v>45846</v>
       </c>
       <c r="I40" s="2">
-        <v>-22.5234375</v>
+        <v>1</v>
       </c>
       <c r="J40" s="3">
-        <v>596.72</v>
+        <v>-89.27</v>
       </c>
       <c r="K40" s="3">
-        <v>596.72</v>
+        <v>-89.27</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2272,25 +2272,25 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>11191</v>
+        <v>10819</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45898.329004629624</v>
+        <v>45889.487662037034</v>
       </c>
       <c r="H41" s="1">
-        <v>45868.329722222217</v>
+        <v>45859.487673611111</v>
       </c>
       <c r="I41" s="2">
-        <v>-27.329004629624251</v>
+        <v>-12</v>
       </c>
       <c r="J41" s="3">
-        <v>938.86</v>
+        <v>694.31000000000006</v>
       </c>
       <c r="K41" s="3">
-        <v>938.86</v>
+        <v>694.31000000000006</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -2301,37 +2301,37 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>522</v>
+        <v>11069</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45871</v>
+        <v>45893.5234375</v>
       </c>
       <c r="H42" s="1">
-        <v>45811</v>
+        <v>45863.5234375</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J42" s="3">
-        <v>-29.34</v>
+        <v>596.72</v>
       </c>
       <c r="K42" s="3">
-        <v>-29.34</v>
+        <v>596.72</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
@@ -2354,25 +2354,25 @@
         <v>2025</v>
       </c>
       <c r="E43">
-        <v>525</v>
+        <v>709</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45871</v>
+        <v>45898</v>
       </c>
       <c r="H43" s="1">
-        <v>45811</v>
+        <v>45868</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="J43" s="3">
-        <v>-4.99</v>
+        <v>-8.6</v>
       </c>
       <c r="K43" s="3">
-        <v>-4.99</v>
+        <v>-8.6</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2395,25 +2395,25 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>8798</v>
+        <v>11191</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45871.469687500001</v>
+        <v>45898.329004629624</v>
       </c>
       <c r="H44" s="1">
-        <v>45811.47006944444</v>
+        <v>45868.329722222217</v>
       </c>
       <c r="I44" s="2">
-        <v>-0.46968750000087311</v>
+        <v>-21</v>
       </c>
       <c r="J44" s="3">
-        <v>421.25</v>
+        <v>938.86</v>
       </c>
       <c r="K44" s="3">
-        <v>421.25</v>
+        <v>938.86</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2430,37 +2430,37 @@
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>2025</v>
       </c>
       <c r="E45">
-        <v>8799</v>
+        <v>522</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45871.471655092588</v>
+        <v>45871</v>
       </c>
       <c r="H45" s="1">
-        <v>45811.472187499996</v>
+        <v>45811</v>
       </c>
       <c r="I45" s="2">
-        <v>-0.47165509258775273</v>
+        <v>6</v>
       </c>
       <c r="J45" s="3">
-        <v>361.42</v>
+        <v>-29.34</v>
       </c>
       <c r="K45" s="3">
-        <v>361.42</v>
+        <v>-29.34</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2471,37 +2471,37 @@
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46">
-        <v>37</v>
+        <v>525</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45874.455740740741</v>
+        <v>45871</v>
       </c>
       <c r="H46" s="1">
-        <v>45814.455775462964</v>
+        <v>45811</v>
       </c>
       <c r="I46" s="2">
-        <v>-3.455740740741021</v>
+        <v>6</v>
       </c>
       <c r="J46" s="3">
-        <v>177.99</v>
+        <v>-4.99</v>
       </c>
       <c r="K46" s="3">
-        <v>177.99</v>
+        <v>-4.99</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2514,35 +2514,35 @@
       <c r="C47" t="s">
         <v>14</v>
       </c>
-      <c r="D47">
-        <v>2025</v>
+      <c r="D47" t="s">
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>64</v>
+        <v>8798</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45874.612268518518</v>
+        <v>45871.469687500001</v>
       </c>
       <c r="H47" s="1">
-        <v>45814.613090277773</v>
+        <v>45811.47006944444</v>
       </c>
       <c r="I47" s="2">
-        <v>-3.612268518518249</v>
+        <v>6</v>
       </c>
       <c r="J47" s="3">
-        <v>258.84000000000003</v>
+        <v>421.25</v>
       </c>
       <c r="K47" s="3">
-        <v>258.84000000000003</v>
+        <v>421.25</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2553,37 +2553,37 @@
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>542</v>
+        <v>8799</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45877</v>
+        <v>45871.471655092588</v>
       </c>
       <c r="H48" s="1">
-        <v>45817</v>
+        <v>45811.472187499996</v>
       </c>
       <c r="I48" s="2">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="J48" s="3">
-        <v>-9.41</v>
+        <v>361.42</v>
       </c>
       <c r="K48" s="3">
-        <v>-9.41</v>
+        <v>361.42</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2596,35 +2596,35 @@
       <c r="C49" t="s">
         <v>14</v>
       </c>
-      <c r="D49" t="s">
-        <v>15</v>
+      <c r="D49">
+        <v>2025</v>
       </c>
       <c r="E49">
-        <v>8996</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45877.440046296295</v>
+        <v>45874.455740740741</v>
       </c>
       <c r="H49" s="1">
-        <v>45817.44049768518</v>
+        <v>45814.455775462964</v>
       </c>
       <c r="I49" s="2">
-        <v>-6.440046296294895</v>
+        <v>3</v>
       </c>
       <c r="J49" s="3">
-        <v>377.68</v>
+        <v>177.99</v>
       </c>
       <c r="K49" s="3">
-        <v>377.68</v>
+        <v>177.99</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2637,35 +2637,35 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" t="s">
-        <v>15</v>
+      <c r="D50">
+        <v>2025</v>
       </c>
       <c r="E50">
-        <v>8998</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45877.440960648149</v>
+        <v>45874.612268518518</v>
       </c>
       <c r="H50" s="1">
-        <v>45817.441377314812</v>
+        <v>45814.613090277773</v>
       </c>
       <c r="I50" s="2">
-        <v>-6.4409606481494848</v>
+        <v>3</v>
       </c>
       <c r="J50" s="3">
-        <v>257.82</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="K50" s="3">
-        <v>257.82</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2676,31 +2676,31 @@
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>2025</v>
       </c>
       <c r="E51">
-        <v>9025</v>
+        <v>542</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45877.494490740741</v>
+        <v>45877</v>
       </c>
       <c r="H51" s="1">
-        <v>45817.494999999995</v>
+        <v>45817</v>
       </c>
       <c r="I51" s="2">
-        <v>-6.49449074074073</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3">
-        <v>315.04000000000002</v>
+        <v>-9.41</v>
       </c>
       <c r="K51" s="3">
-        <v>315.04000000000002</v>
+        <v>-9.41</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2717,31 +2717,31 @@
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>570</v>
+        <v>8996</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45886</v>
+        <v>45877.440046296295</v>
       </c>
       <c r="H52" s="1">
-        <v>45826</v>
+        <v>45817.44049768518</v>
       </c>
       <c r="I52" s="2">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>-10.74</v>
+        <v>377.68</v>
       </c>
       <c r="K52" s="3">
-        <v>-10.74</v>
+        <v>377.68</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2764,25 +2764,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>9386</v>
+        <v>8998</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45886.314513888887</v>
+        <v>45877.440960648149</v>
       </c>
       <c r="H53" s="1">
-        <v>45826.314837962964</v>
+        <v>45817.441377314812</v>
       </c>
       <c r="I53" s="2">
-        <v>-15.314513888886722</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>328.96</v>
+        <v>257.82</v>
       </c>
       <c r="K53" s="3">
-        <v>328.96</v>
+        <v>257.82</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2805,25 +2805,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>9436</v>
+        <v>9025</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45886.459780092591</v>
+        <v>45877.494490740741</v>
       </c>
       <c r="H54" s="1">
-        <v>45826.462314814809</v>
+        <v>45817.494999999995</v>
       </c>
       <c r="I54" s="2">
-        <v>-15.459780092591245</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>58.57</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="K54" s="3">
-        <v>58.57</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2840,31 +2840,31 @@
         <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>2025</v>
       </c>
       <c r="E55">
-        <v>9438</v>
+        <v>570</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45886.462488425925</v>
+        <v>45886</v>
       </c>
       <c r="H55" s="1">
-        <v>45826.466331018513</v>
+        <v>45826</v>
       </c>
       <c r="I55" s="2">
-        <v>-15.462488425924676</v>
+        <v>-9</v>
       </c>
       <c r="J55" s="3">
-        <v>408.29</v>
+        <v>-10.74</v>
       </c>
       <c r="K55" s="3">
-        <v>408.29</v>
+        <v>-10.74</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2887,25 +2887,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>9456</v>
+        <v>9386</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45888.299930555557</v>
+        <v>45886.314513888887</v>
       </c>
       <c r="H56" s="1">
-        <v>45828.300671296296</v>
+        <v>45826.314837962964</v>
       </c>
       <c r="I56" s="2">
-        <v>-17.299930555556784</v>
+        <v>-9</v>
       </c>
       <c r="J56" s="3">
-        <v>20.76</v>
+        <v>328.96</v>
       </c>
       <c r="K56" s="3">
-        <v>20.76</v>
+        <v>328.96</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2928,25 +2928,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>9457</v>
+        <v>9436</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45888.30097222222</v>
+        <v>45886.459780092591</v>
       </c>
       <c r="H57" s="1">
-        <v>45828.306631944441</v>
+        <v>45826.462314814809</v>
       </c>
       <c r="I57" s="2">
-        <v>-17.300972222219571</v>
+        <v>-9</v>
       </c>
       <c r="J57" s="3">
-        <v>45.83</v>
+        <v>58.57</v>
       </c>
       <c r="K57" s="3">
-        <v>45.83</v>
+        <v>58.57</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2969,25 +2969,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>9700</v>
+        <v>9438</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45893.496446759258</v>
+        <v>45886.462488425925</v>
       </c>
       <c r="H58" s="1">
-        <v>45833.497314814813</v>
+        <v>45826.466331018513</v>
       </c>
       <c r="I58" s="2">
-        <v>-22.496446759258106</v>
+        <v>-9</v>
       </c>
       <c r="J58" s="3">
-        <v>18.059999999999999</v>
+        <v>408.29</v>
       </c>
       <c r="K58" s="3">
-        <v>18.059999999999999</v>
+        <v>408.29</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3010,25 +3010,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>9701</v>
+        <v>9456</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45893.497546296298</v>
+        <v>45888.299930555557</v>
       </c>
       <c r="H59" s="1">
-        <v>45833.49827546296</v>
+        <v>45828.300671296296</v>
       </c>
       <c r="I59" s="2">
-        <v>-22.497546296297514</v>
+        <v>-11</v>
       </c>
       <c r="J59" s="3">
-        <v>367.16</v>
+        <v>20.76</v>
       </c>
       <c r="K59" s="3">
-        <v>367.16</v>
+        <v>20.76</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3051,25 +3051,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>9772</v>
+        <v>9457</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45894.447523148148</v>
+        <v>45888.30097222222</v>
       </c>
       <c r="H60" s="1">
-        <v>45834.448113425926</v>
+        <v>45828.306631944441</v>
       </c>
       <c r="I60" s="2">
-        <v>-23.447523148148321</v>
+        <v>-11</v>
       </c>
       <c r="J60" s="3">
-        <v>441.87</v>
+        <v>45.83</v>
       </c>
       <c r="K60" s="3">
-        <v>441.87</v>
+        <v>45.83</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3092,25 +3092,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>9871</v>
+        <v>9700</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45895.479108796295</v>
+        <v>45893.496446759258</v>
       </c>
       <c r="H61" s="1">
-        <v>45835.481898148144</v>
+        <v>45833.497314814813</v>
       </c>
       <c r="I61" s="2">
-        <v>-24.479108796294895</v>
+        <v>-16</v>
       </c>
       <c r="J61" s="3">
-        <v>175.89000000000001</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="K61" s="3">
-        <v>175.89000000000001</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3133,25 +3133,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>9874</v>
+        <v>9701</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45895.494687499995</v>
+        <v>45893.497546296298</v>
       </c>
       <c r="H62" s="1">
-        <v>45835.494895833333</v>
+        <v>45833.49827546296</v>
       </c>
       <c r="I62" s="2">
-        <v>-24.494687499995052</v>
+        <v>-16</v>
       </c>
       <c r="J62" s="3">
-        <v>276.79000000000002</v>
+        <v>367.16</v>
       </c>
       <c r="K62" s="3">
-        <v>276.79000000000002</v>
+        <v>367.16</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3174,25 +3174,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>9935</v>
+        <v>9772</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45899.405474537038</v>
+        <v>45894.447523148148</v>
       </c>
       <c r="H63" s="1">
-        <v>45839.405821759254</v>
+        <v>45834.448113425926</v>
       </c>
       <c r="I63" s="2">
-        <v>-28.405474537037662</v>
+        <v>-17</v>
       </c>
       <c r="J63" s="3">
-        <v>249.19</v>
+        <v>441.87</v>
       </c>
       <c r="K63" s="3">
-        <v>249.19</v>
+        <v>441.87</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3215,25 +3215,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>10275</v>
+        <v>9871</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45906.438090277778</v>
+        <v>45895.479108796295</v>
       </c>
       <c r="H64" s="1">
-        <v>45846.438090277778</v>
+        <v>45835.481898148144</v>
       </c>
       <c r="I64" s="2">
-        <v>-35.438090277777519</v>
+        <v>-18</v>
       </c>
       <c r="J64" s="3">
-        <v>333.66</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="K64" s="3">
-        <v>333.66</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3256,25 +3256,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>10276</v>
+        <v>9874</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45906.438113425924</v>
+        <v>45895.494687499995</v>
       </c>
       <c r="H65" s="1">
-        <v>45846.438125000001</v>
+        <v>45835.494895833333</v>
       </c>
       <c r="I65" s="2">
-        <v>-35.438113425923802</v>
+        <v>-18</v>
       </c>
       <c r="J65" s="3">
-        <v>114.07000000000001</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="K65" s="3">
-        <v>114.07000000000001</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3297,25 +3297,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>10496</v>
+        <v>9935</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45909.601944444439</v>
+        <v>45899.405474537038</v>
       </c>
       <c r="H66" s="1">
-        <v>45849.60251157407</v>
+        <v>45839.405821759254</v>
       </c>
       <c r="I66" s="2">
-        <v>-38.601944444439141</v>
+        <v>-22</v>
       </c>
       <c r="J66" s="3">
-        <v>330.27</v>
+        <v>249.19</v>
       </c>
       <c r="K66" s="3">
-        <v>330.27</v>
+        <v>249.19</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3332,31 +3332,31 @@
         <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>646</v>
+        <v>10275</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45913</v>
+        <v>45906.438090277778</v>
       </c>
       <c r="H67" s="1">
-        <v>45853</v>
+        <v>45846.438090277778</v>
       </c>
       <c r="I67" s="2">
-        <v>-42</v>
+        <v>-29</v>
       </c>
       <c r="J67" s="3">
-        <v>-9.23</v>
+        <v>333.66</v>
       </c>
       <c r="K67" s="3">
-        <v>-9.23</v>
+        <v>333.66</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3379,25 +3379,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>10552</v>
+        <v>10276</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45913.414108796293</v>
+        <v>45906.438113425924</v>
       </c>
       <c r="H68" s="1">
-        <v>45853.415949074071</v>
+        <v>45846.438125000001</v>
       </c>
       <c r="I68" s="2">
-        <v>-42.414108796292567</v>
+        <v>-29</v>
       </c>
       <c r="J68" s="3">
-        <v>451.46000000000004</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="K68" s="3">
-        <v>451.46000000000004</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3420,25 +3420,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>10556</v>
+        <v>10496</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45913.417696759258</v>
+        <v>45909.601944444439</v>
       </c>
       <c r="H69" s="1">
-        <v>45853.418020833335</v>
+        <v>45849.60251157407</v>
       </c>
       <c r="I69" s="2">
-        <v>-42.417696759257524</v>
+        <v>-32</v>
       </c>
       <c r="J69" s="3">
-        <v>120.59</v>
+        <v>330.27</v>
       </c>
       <c r="K69" s="3">
-        <v>120.59</v>
+        <v>330.27</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3455,31 +3455,31 @@
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
       </c>
       <c r="E70">
-        <v>10719</v>
+        <v>646</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45915.588217592587</v>
+        <v>45913</v>
       </c>
       <c r="H70" s="1">
-        <v>45855.588634259257</v>
+        <v>45853</v>
       </c>
       <c r="I70" s="2">
-        <v>-44.588217592587171</v>
+        <v>-36</v>
       </c>
       <c r="J70" s="3">
-        <v>107.66</v>
+        <v>-9.23</v>
       </c>
       <c r="K70" s="3">
-        <v>107.66</v>
+        <v>-9.23</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3502,25 +3502,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>10841</v>
+        <v>10552</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45920.44799768518</v>
+        <v>45913.414108796293</v>
       </c>
       <c r="H71" s="1">
-        <v>45860.450138888889</v>
+        <v>45853.415949074071</v>
       </c>
       <c r="I71" s="2">
-        <v>-49.447997685179871</v>
+        <v>-36</v>
       </c>
       <c r="J71" s="3">
-        <v>391.77</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="K71" s="3">
-        <v>391.77</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3543,25 +3543,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>10940</v>
+        <v>10556</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45921.562048611107</v>
+        <v>45913.417696759258</v>
       </c>
       <c r="H72" s="1">
-        <v>45861.562060185184</v>
+        <v>45853.418020833335</v>
       </c>
       <c r="I72" s="2">
-        <v>-50.562048611107457</v>
+        <v>-36</v>
       </c>
       <c r="J72" s="3">
-        <v>184.52</v>
+        <v>120.59</v>
       </c>
       <c r="K72" s="3">
-        <v>184.52</v>
+        <v>120.59</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3584,25 +3584,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10941</v>
+        <v>10719</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45921.562083333331</v>
+        <v>45915.588217592587</v>
       </c>
       <c r="H73" s="1">
-        <v>45861.562083333331</v>
+        <v>45855.588634259257</v>
       </c>
       <c r="I73" s="2">
-        <v>-50.56208333333052</v>
+        <v>-38</v>
       </c>
       <c r="J73" s="3">
-        <v>518.65</v>
+        <v>107.66</v>
       </c>
       <c r="K73" s="3">
-        <v>518.65</v>
+        <v>107.66</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3625,25 +3625,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10942</v>
+        <v>10841</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45921.562106481477</v>
+        <v>45920.44799768518</v>
       </c>
       <c r="H74" s="1">
-        <v>45861.562106481477</v>
+        <v>45860.450138888889</v>
       </c>
       <c r="I74" s="2">
-        <v>-50.562106481476803</v>
+        <v>-43</v>
       </c>
       <c r="J74" s="3">
-        <v>325.40000000000003</v>
+        <v>391.77</v>
       </c>
       <c r="K74" s="3">
-        <v>325.40000000000003</v>
+        <v>391.77</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3666,25 +3666,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>11119</v>
+        <v>10940</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45926.540925925925</v>
+        <v>45921.562048611107</v>
       </c>
       <c r="H75" s="1">
-        <v>45866.540937500002</v>
+        <v>45861.562060185184</v>
       </c>
       <c r="I75" s="2">
-        <v>-55.540925925924967</v>
+        <v>-44</v>
       </c>
       <c r="J75" s="3">
-        <v>665</v>
+        <v>184.52</v>
       </c>
       <c r="K75" s="3">
-        <v>665</v>
+        <v>184.52</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3707,25 +3707,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>11120</v>
+        <v>10941</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45926.540960648148</v>
+        <v>45921.562083333331</v>
       </c>
       <c r="H76" s="1">
-        <v>45866.540960648148</v>
+        <v>45861.562083333331</v>
       </c>
       <c r="I76" s="2">
-        <v>-55.54096064814803</v>
+        <v>-44</v>
       </c>
       <c r="J76" s="3">
-        <v>131.55000000000001</v>
+        <v>518.65</v>
       </c>
       <c r="K76" s="3">
-        <v>131.55000000000001</v>
+        <v>518.65</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3748,25 +3748,25 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>11186</v>
+        <v>10942</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45927.594328703701</v>
+        <v>45921.562106481477</v>
       </c>
       <c r="H77" s="1">
-        <v>45867.594340277778</v>
+        <v>45861.562106481477</v>
       </c>
       <c r="I77" s="2">
-        <v>-56.594328703700739</v>
+        <v>-44</v>
       </c>
       <c r="J77" s="3">
-        <v>379.86</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="K77" s="3">
-        <v>379.86</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3789,25 +3789,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>11366</v>
+        <v>11119</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45930.614166666666</v>
+        <v>45926.540925925925</v>
       </c>
       <c r="H78" s="1">
-        <v>45870.614722222221</v>
+        <v>45866.540937500002</v>
       </c>
       <c r="I78" s="2">
-        <v>-59.614166666666279</v>
+        <v>-49</v>
       </c>
       <c r="J78" s="3">
-        <v>159.29</v>
+        <v>665</v>
       </c>
       <c r="K78" s="3">
-        <v>159.29</v>
+        <v>665</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3830,25 +3830,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>11369</v>
+        <v>11120</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45930.684340277774</v>
+        <v>45926.540960648148</v>
       </c>
       <c r="H79" s="1">
-        <v>45870.684976851851</v>
+        <v>45866.540960648148</v>
       </c>
       <c r="I79" s="2">
-        <v>-59.684340277774027</v>
+        <v>-49</v>
       </c>
       <c r="J79" s="3">
-        <v>106.19</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="K79" s="3">
-        <v>106.19</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3859,10 +3859,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3871,25 +3871,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>10687</v>
+        <v>11186</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45885.468888888885</v>
+        <v>45927.594328703701</v>
       </c>
       <c r="H80" s="1">
-        <v>45855.468888888885</v>
+        <v>45867.594340277778</v>
       </c>
       <c r="I80" s="2">
-        <v>-14.468888888884976</v>
+        <v>-50</v>
       </c>
       <c r="J80" s="3">
-        <v>542.13</v>
+        <v>379.86</v>
       </c>
       <c r="K80" s="3">
-        <v>542.13</v>
+        <v>379.86</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3900,160 +3900,160 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81">
-        <v>326</v>
+        <v>11366</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45777</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H81" s="1">
-        <v>45747</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I81" s="2">
-        <v>94</v>
+        <v>-53</v>
       </c>
       <c r="J81" s="3">
-        <v>-22</v>
+        <v>159.29</v>
       </c>
       <c r="K81" s="3">
-        <v>-22</v>
+        <v>159.29</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82">
-        <v>327</v>
+        <v>11369</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45777</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H82" s="1">
-        <v>45747</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I82" s="2">
-        <v>94</v>
+        <v>-53</v>
       </c>
       <c r="J82" s="3">
-        <v>-27.45</v>
+        <v>106.19</v>
       </c>
       <c r="K82" s="3">
-        <v>-27.45</v>
+        <v>106.19</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83">
-        <v>328</v>
+        <v>11428</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45777</v>
+        <v>45934.485219907408</v>
       </c>
       <c r="H83" s="1">
-        <v>45747</v>
+        <v>45874.485219907408</v>
       </c>
       <c r="I83" s="2">
-        <v>94</v>
+        <v>-57</v>
       </c>
       <c r="J83" s="3">
-        <v>-5.73</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="K83" s="3">
-        <v>-5.73</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
       </c>
       <c r="E84">
-        <v>546</v>
+        <v>11429</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45879</v>
+        <v>45934.485231481478</v>
       </c>
       <c r="H84" s="1">
-        <v>45819</v>
+        <v>45874.485231481478</v>
       </c>
       <c r="I84" s="2">
-        <v>-8</v>
+        <v>-57</v>
       </c>
       <c r="J84" s="3">
-        <v>-680.83</v>
+        <v>472.14</v>
       </c>
       <c r="K84" s="3">
-        <v>-680.83</v>
+        <v>472.14</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4076,25 +4076,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>9182</v>
+        <v>11430</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45881.340092592589</v>
+        <v>45934.485266203701</v>
       </c>
       <c r="H85" s="1">
-        <v>45821.340949074074</v>
+        <v>45874.485266203701</v>
       </c>
       <c r="I85" s="2">
-        <v>-10.340092592588917</v>
+        <v>-57</v>
       </c>
       <c r="J85" s="3">
-        <v>968.26</v>
+        <v>405.8</v>
       </c>
       <c r="K85" s="3">
-        <v>968.26</v>
+        <v>405.8</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4105,37 +4105,37 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
       </c>
       <c r="E86">
-        <v>569</v>
+        <v>10687</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45885</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H86" s="1">
-        <v>45825</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I86" s="2">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="J86" s="3">
-        <v>-69.09</v>
+        <v>542.13</v>
       </c>
       <c r="K86" s="3">
-        <v>-69.09</v>
+        <v>542.13</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4146,125 +4146,125 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87">
-        <v>9796</v>
+        <v>326</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45894.634768518517</v>
+        <v>45777</v>
       </c>
       <c r="H87" s="1">
-        <v>45834.635682870372</v>
+        <v>45747</v>
       </c>
       <c r="I87" s="2">
-        <v>-23.634768518517376</v>
+        <v>100</v>
       </c>
       <c r="J87" s="3">
-        <v>107.37</v>
+        <v>-22</v>
       </c>
       <c r="K87" s="3">
-        <v>107.37</v>
+        <v>-22</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="E88">
-        <v>10369</v>
+        <v>327</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45908.309050925927</v>
+        <v>45777</v>
       </c>
       <c r="H88" s="1">
-        <v>45848.309965277775</v>
+        <v>45747</v>
       </c>
       <c r="I88" s="2">
-        <v>-37.309050925927295</v>
+        <v>100</v>
       </c>
       <c r="J88" s="3">
-        <v>1512.89</v>
+        <v>-27.45</v>
       </c>
       <c r="K88" s="3">
-        <v>1512.89</v>
+        <v>-27.45</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
       </c>
       <c r="M88" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
         <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>4</v>
+        <v>328</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45922</v>
+        <v>45777</v>
       </c>
       <c r="H89" s="1">
-        <v>45862</v>
+        <v>45747</v>
       </c>
       <c r="I89" s="2">
-        <v>-51</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>-15.38</v>
+        <v>-5.73</v>
       </c>
       <c r="K89" s="3">
-        <v>-15.38</v>
+        <v>-5.73</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4281,25 +4281,25 @@
         <v>2025</v>
       </c>
       <c r="E90">
-        <v>682</v>
+        <v>546</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45922</v>
+        <v>45879</v>
       </c>
       <c r="H90" s="1">
-        <v>45862</v>
+        <v>45819</v>
       </c>
       <c r="I90" s="2">
-        <v>-51</v>
+        <v>-2</v>
       </c>
       <c r="J90" s="3">
-        <v>-606.93000000000006</v>
+        <v>-680.83</v>
       </c>
       <c r="K90" s="3">
-        <v>-606.93000000000006</v>
+        <v>-680.83</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4322,25 +4322,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11013</v>
+        <v>9182</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45923.283518518518</v>
+        <v>45881.340092592589</v>
       </c>
       <c r="H91" s="1">
-        <v>45863.287939814814</v>
+        <v>45821.340949074074</v>
       </c>
       <c r="I91" s="2">
-        <v>-52.283518518517667</v>
+        <v>-4</v>
       </c>
       <c r="J91" s="3">
-        <v>417.19</v>
+        <v>968.26</v>
       </c>
       <c r="K91" s="3">
-        <v>417.19</v>
+        <v>968.26</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4357,31 +4357,31 @@
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D92">
+        <v>2025</v>
       </c>
       <c r="E92">
-        <v>11014</v>
+        <v>569</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45923.288171296292</v>
+        <v>45885</v>
       </c>
       <c r="H92" s="1">
-        <v>45863.288368055553</v>
+        <v>45825</v>
       </c>
       <c r="I92" s="2">
-        <v>-52.288171296291694</v>
+        <v>-8</v>
       </c>
       <c r="J92" s="3">
-        <v>606.93000000000006</v>
+        <v>-69.09</v>
       </c>
       <c r="K92" s="3">
-        <v>606.93000000000006</v>
+        <v>-69.09</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4404,25 +4404,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>11085</v>
+        <v>9796</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45923.645879629628</v>
+        <v>45894.634768518517</v>
       </c>
       <c r="H93" s="1">
-        <v>45863.645879629628</v>
+        <v>45834.635682870372</v>
       </c>
       <c r="I93" s="2">
-        <v>-52.645879629628325</v>
+        <v>-17</v>
       </c>
       <c r="J93" s="3">
-        <v>726.19</v>
+        <v>107.37</v>
       </c>
       <c r="K93" s="3">
-        <v>726.19</v>
+        <v>107.37</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4433,10 +4433,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4445,25 +4445,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>10043</v>
+        <v>10369</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45871.497939814813</v>
+        <v>45908.309050925927</v>
       </c>
       <c r="H94" s="1">
-        <v>45841.497939814813</v>
+        <v>45848.309965277775</v>
       </c>
       <c r="I94" s="2">
-        <v>-0.49793981481343508</v>
+        <v>-31</v>
       </c>
       <c r="J94" s="3">
-        <v>1040.5999999999999</v>
+        <v>1512.89</v>
       </c>
       <c r="K94" s="3">
-        <v>1040.5999999999999</v>
+        <v>1512.89</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4474,174 +4474,174 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E95">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45627</v>
+        <v>45922</v>
       </c>
       <c r="H95" s="1">
-        <v>45567</v>
+        <v>45862</v>
       </c>
       <c r="I95" s="2">
-        <v>244</v>
+        <v>-45</v>
       </c>
       <c r="J95" s="3">
-        <v>-463.01</v>
+        <v>-15.38</v>
       </c>
       <c r="K95" s="3">
-        <v>-459.04</v>
+        <v>-15.38</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
-      </c>
-      <c r="D96" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
+      </c>
+      <c r="E96">
+        <v>682</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45629</v>
+        <v>45922</v>
       </c>
       <c r="H96" s="1">
-        <v>45569</v>
+        <v>45862</v>
       </c>
       <c r="I96" s="2">
-        <v>242</v>
+        <v>-45</v>
       </c>
       <c r="J96" s="3">
-        <v>-39741.590000000004</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="K96" s="3">
-        <v>-2522.2600000000002</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>331</v>
+        <v>11013</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45816</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H97" s="1">
-        <v>45756</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I97" s="2">
-        <v>55</v>
+        <v>-46</v>
       </c>
       <c r="J97" s="3">
-        <v>-2377.96</v>
+        <v>417.19</v>
       </c>
       <c r="K97" s="3">
-        <v>-2377.96</v>
+        <v>417.19</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
       </c>
       <c r="E98">
-        <v>332</v>
+        <v>11014</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45816</v>
+        <v>45923.288171296292</v>
       </c>
       <c r="H98" s="1">
-        <v>45756</v>
+        <v>45863.288368055553</v>
       </c>
       <c r="I98" s="2">
-        <v>55</v>
+        <v>-46</v>
       </c>
       <c r="J98" s="3">
-        <v>-1248.79</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="K98" s="3">
-        <v>-1248.79</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4650,25 +4650,25 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>8893</v>
+        <v>11085</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45873.43032407407</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H99" s="1">
-        <v>45813.430856481478</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I99" s="2">
-        <v>-2.4303240740700858</v>
+        <v>-46</v>
       </c>
       <c r="J99" s="3">
-        <v>3413.67</v>
+        <v>726.19</v>
       </c>
       <c r="K99" s="3">
-        <v>3413.67</v>
+        <v>726.19</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
@@ -4679,10 +4679,10 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112151</v>
+        <v>211112098</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4691,31 +4691,31 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>8894</v>
+        <v>10043</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45873.431076388886</v>
+        <v>45871.497939814813</v>
       </c>
       <c r="H100" s="1">
-        <v>45813.431388888886</v>
+        <v>45841.497939814813</v>
       </c>
       <c r="I100" s="2">
-        <v>-2.4310763888861402</v>
+        <v>6</v>
       </c>
       <c r="J100" s="3">
-        <v>2973.26</v>
+        <v>1040.5999999999999</v>
       </c>
       <c r="K100" s="3">
-        <v>2973.26</v>
+        <v>1040.5999999999999</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4726,37 +4726,37 @@
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E101">
-        <v>9177</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45880.637939814813</v>
+        <v>45627</v>
       </c>
       <c r="H101" s="1">
-        <v>45820.639421296291</v>
+        <v>45567</v>
       </c>
       <c r="I101" s="2">
-        <v>-9.637939814812853</v>
+        <v>250</v>
       </c>
       <c r="J101" s="3">
-        <v>3277.76</v>
+        <v>-463.01</v>
       </c>
       <c r="K101" s="3">
-        <v>3277.76</v>
+        <v>-459.04</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4767,37 +4767,37 @@
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102">
-        <v>9560</v>
+        <v>42</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45888.627025462964</v>
+        <v>45629</v>
       </c>
       <c r="H102" s="1">
-        <v>45828.628541666665</v>
+        <v>45569</v>
       </c>
       <c r="I102" s="2">
-        <v>-17.627025462963502</v>
+        <v>248</v>
       </c>
       <c r="J102" s="3">
-        <v>2976.7400000000002</v>
+        <v>-39741.590000000004</v>
       </c>
       <c r="K102" s="3">
-        <v>2976.7400000000002</v>
+        <v>-2522.2600000000002</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4808,37 +4808,37 @@
         <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
       </c>
       <c r="E103">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45888.628900462958</v>
+        <v>45816</v>
       </c>
       <c r="H103" s="1">
-        <v>45828.673252314809</v>
+        <v>45756</v>
       </c>
       <c r="I103" s="2">
-        <v>-17.628900462957972</v>
+        <v>61</v>
       </c>
       <c r="J103" s="3">
-        <v>1721.02</v>
+        <v>-2377.96</v>
       </c>
       <c r="K103" s="3">
-        <v>1721.02</v>
+        <v>-2377.96</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4849,37 +4849,37 @@
         <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
       </c>
       <c r="E104">
-        <v>9800</v>
+        <v>332</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45894.651828703703</v>
+        <v>45816</v>
       </c>
       <c r="H104" s="1">
-        <v>45834.65211805555</v>
+        <v>45756</v>
       </c>
       <c r="I104" s="2">
-        <v>-23.651828703703359</v>
+        <v>61</v>
       </c>
       <c r="J104" s="3">
-        <v>617.68000000000006</v>
+        <v>-1248.79</v>
       </c>
       <c r="K104" s="3">
-        <v>617.68000000000006</v>
+        <v>-1248.79</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4896,31 +4896,31 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>9801</v>
+        <v>8893</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45894.653275462959</v>
+        <v>45873.43032407407</v>
       </c>
       <c r="H105" s="1">
-        <v>45834.653495370367</v>
+        <v>45813.430856481478</v>
       </c>
       <c r="I105" s="2">
-        <v>-23.653275462958845</v>
+        <v>4</v>
       </c>
       <c r="J105" s="3">
-        <v>1272.99</v>
+        <v>3413.67</v>
       </c>
       <c r="K105" s="3">
-        <v>1272.99</v>
+        <v>3413.67</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4937,31 +4937,31 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>9911</v>
+        <v>8894</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45898.70108796296</v>
+        <v>45873.431076388886</v>
       </c>
       <c r="H106" s="1">
-        <v>45838.702037037037</v>
+        <v>45813.431388888886</v>
       </c>
       <c r="I106" s="2">
-        <v>-27.701087962959718</v>
+        <v>4</v>
       </c>
       <c r="J106" s="3">
-        <v>2730.67</v>
+        <v>2973.26</v>
       </c>
       <c r="K106" s="3">
-        <v>2730.67</v>
+        <v>2973.26</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4978,25 +4978,25 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>10234</v>
+        <v>9177</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45905.634965277779</v>
+        <v>45880.637939814813</v>
       </c>
       <c r="H107" s="1">
-        <v>45845.635636574072</v>
+        <v>45820.639421296291</v>
       </c>
       <c r="I107" s="2">
-        <v>-34.634965277778974</v>
+        <v>-3</v>
       </c>
       <c r="J107" s="3">
-        <v>2189.11</v>
+        <v>3277.76</v>
       </c>
       <c r="K107" s="3">
-        <v>2189.11</v>
+        <v>3277.76</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -5019,25 +5019,25 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>10548</v>
+        <v>9560</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45913.353020833332</v>
+        <v>45888.627025462964</v>
       </c>
       <c r="H108" s="1">
-        <v>45853.353888888887</v>
+        <v>45828.628541666665</v>
       </c>
       <c r="I108" s="2">
-        <v>-42.353020833332266</v>
+        <v>-11</v>
       </c>
       <c r="J108" s="3">
-        <v>4871.05</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="K108" s="3">
-        <v>4871.05</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -5057,28 +5057,28 @@
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E109">
-        <v>11138</v>
+        <v>123</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45927.358495370368</v>
+        <v>45888.628900462958</v>
       </c>
       <c r="H109" s="1">
-        <v>45867.359340277777</v>
+        <v>45828.673252314809</v>
       </c>
       <c r="I109" s="2">
-        <v>-56.358495370368473</v>
+        <v>-11</v>
       </c>
       <c r="J109" s="3">
-        <v>1891.52</v>
+        <v>1721.02</v>
       </c>
       <c r="K109" s="3">
-        <v>1891.52</v>
+        <v>1721.02</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5089,51 +5089,51 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112183</v>
+        <v>211112151</v>
       </c>
       <c r="B110" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
-      </c>
-      <c r="D110">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>14</v>
+        <v>9800</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45693</v>
+        <v>45894.651828703703</v>
       </c>
       <c r="H110" s="1">
-        <v>45663</v>
+        <v>45834.65211805555</v>
       </c>
       <c r="I110" s="2">
-        <v>178</v>
+        <v>-17</v>
       </c>
       <c r="J110" s="3">
-        <v>-4385.22</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="K110" s="3">
-        <v>-782.21</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5142,80 +5142,80 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>8763</v>
+        <v>9801</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45841.406585648147</v>
+        <v>45894.653275462959</v>
       </c>
       <c r="H111" s="1">
-        <v>45811.406979166662</v>
+        <v>45834.653495370367</v>
       </c>
       <c r="I111" s="2">
-        <v>29.593414351853426</v>
+        <v>-17</v>
       </c>
       <c r="J111" s="3">
-        <v>808.13</v>
+        <v>1272.99</v>
       </c>
       <c r="K111" s="3">
-        <v>143.54</v>
+        <v>1272.99</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E112">
-        <v>122</v>
+        <v>9911</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45858.629687499997</v>
+        <v>45898.70108796296</v>
       </c>
       <c r="H112" s="1">
-        <v>45828.63045138889</v>
+        <v>45838.702037037037</v>
       </c>
       <c r="I112" s="2">
-        <v>12.37031250000291</v>
+        <v>-21</v>
       </c>
       <c r="J112" s="3">
-        <v>675.35</v>
+        <v>2730.67</v>
       </c>
       <c r="K112" s="3">
-        <v>255.70000000000002</v>
+        <v>2730.67</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5224,39 +5224,39 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>9924</v>
+        <v>10234</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45869.354363425926</v>
+        <v>45905.634965277779</v>
       </c>
       <c r="H113" s="1">
-        <v>45839.356215277774</v>
+        <v>45845.635636574072</v>
       </c>
       <c r="I113" s="2">
-        <v>1.6456365740741603</v>
+        <v>-28</v>
       </c>
       <c r="J113" s="3">
-        <v>574.62</v>
+        <v>2189.11</v>
       </c>
       <c r="K113" s="3">
-        <v>57.78</v>
+        <v>2189.11</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211112290</v>
+        <v>211112151</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5265,25 +5265,25 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>10786</v>
+        <v>10548</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45916.621446759258</v>
+        <v>45913.353020833332</v>
       </c>
       <c r="H114" s="1">
-        <v>45856.622523148144</v>
+        <v>45853.353888888887</v>
       </c>
       <c r="I114" s="2">
-        <v>-45.621446759258106</v>
+        <v>-36</v>
       </c>
       <c r="J114" s="3">
-        <v>2347.12</v>
+        <v>4871.05</v>
       </c>
       <c r="K114" s="3">
-        <v>2347.12</v>
+        <v>4871.05</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -5294,201 +5294,201 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C115" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>42</v>
-      </c>
-      <c r="E115" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>11138</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45406</v>
+        <v>45927.358495370368</v>
       </c>
       <c r="H115" s="1">
-        <v>45391</v>
+        <v>45867.359340277777</v>
       </c>
       <c r="I115" s="2">
-        <v>465</v>
+        <v>-50</v>
       </c>
       <c r="J115" s="3">
-        <v>597.29</v>
+        <v>1891.52</v>
       </c>
       <c r="K115" s="3">
-        <v>597.29</v>
+        <v>1891.52</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C116" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>42</v>
-      </c>
-      <c r="E116" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>11469</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45406</v>
+        <v>45935.331585648149</v>
       </c>
       <c r="H116" s="1">
-        <v>45391</v>
+        <v>45875.332268518519</v>
       </c>
       <c r="I116" s="2">
-        <v>465</v>
+        <v>-58</v>
       </c>
       <c r="J116" s="3">
-        <v>591.72</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="K116" s="3">
-        <v>591.72</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
       </c>
       <c r="M116" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C117" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="E117">
+        <v>11470</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45419</v>
+        <v>45935.332488425927</v>
       </c>
       <c r="H117" s="1">
-        <v>45404</v>
+        <v>45875.332824074074</v>
       </c>
       <c r="I117" s="2">
-        <v>452</v>
+        <v>-58</v>
       </c>
       <c r="J117" s="3">
-        <v>599.27</v>
+        <v>1486.91</v>
       </c>
       <c r="K117" s="3">
-        <v>599.27</v>
+        <v>1486.91</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112351</v>
+        <v>211112183</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D118">
+        <v>2025</v>
       </c>
       <c r="E118">
-        <v>6604</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45829.522847222222</v>
+        <v>45693</v>
       </c>
       <c r="H118" s="1">
-        <v>45769.523923611108</v>
+        <v>45663</v>
       </c>
       <c r="I118" s="2">
-        <v>41.477152777777519</v>
+        <v>184</v>
       </c>
       <c r="J118" s="3">
-        <v>1571.66</v>
+        <v>-4385.22</v>
       </c>
       <c r="K118" s="3">
-        <v>1571.66</v>
+        <v>-782.21</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112351</v>
+        <v>211112216</v>
       </c>
       <c r="B119" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="E119">
-        <v>411</v>
+        <v>8763</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45837</v>
+        <v>45841.406585648147</v>
       </c>
       <c r="H119" s="1">
-        <v>45777</v>
+        <v>45811.406979166662</v>
       </c>
       <c r="I119" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J119" s="3">
-        <v>-313.76</v>
+        <v>808.13</v>
       </c>
       <c r="K119" s="3">
-        <v>-313.76</v>
+        <v>143.54</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
@@ -5499,51 +5499,51 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>211112351</v>
+        <v>211112216</v>
       </c>
       <c r="B120" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E120">
-        <v>7018</v>
+        <v>122</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45837.739259259259</v>
+        <v>45858.629687499997</v>
       </c>
       <c r="H120" s="1">
-        <v>45777.741296296292</v>
+        <v>45828.63045138889</v>
       </c>
       <c r="I120" s="2">
-        <v>33.260740740741312</v>
+        <v>19</v>
       </c>
       <c r="J120" s="3">
-        <v>4925.1000000000004</v>
+        <v>675.35</v>
       </c>
       <c r="K120" s="3">
-        <v>4925.1000000000004</v>
+        <v>255.70000000000002</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>211112351</v>
+        <v>211112216</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -5552,25 +5552,25 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>7192</v>
+        <v>9924</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45843.368854166663</v>
+        <v>45869.354363425926</v>
       </c>
       <c r="H121" s="1">
-        <v>45783.369363425925</v>
+        <v>45839.356215277774</v>
       </c>
       <c r="I121" s="2">
-        <v>27.631145833336632</v>
+        <v>8</v>
       </c>
       <c r="J121" s="3">
-        <v>4675.67</v>
+        <v>574.62</v>
       </c>
       <c r="K121" s="3">
-        <v>4675.67</v>
+        <v>57.78</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
@@ -5581,10 +5581,10 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>211112351</v>
+        <v>211112216</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -5593,39 +5593,39 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>7370</v>
+        <v>11575</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45845.34983796296</v>
+        <v>45906.462129629625</v>
       </c>
       <c r="H122" s="1">
-        <v>45785.350659722222</v>
+        <v>45876.462129629625</v>
       </c>
       <c r="I122" s="2">
-        <v>25.650162037039991</v>
+        <v>-29</v>
       </c>
       <c r="J122" s="3">
-        <v>4323.37</v>
+        <v>647.14</v>
       </c>
       <c r="K122" s="3">
-        <v>4323.37</v>
+        <v>647.14</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211112351</v>
+        <v>211112290</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -5634,203 +5634,203 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>7619</v>
+        <v>10786</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45850.387407407405</v>
+        <v>45916.621446759258</v>
       </c>
       <c r="H123" s="1">
-        <v>45790.388252314813</v>
+        <v>45856.622523148144</v>
       </c>
       <c r="I123" s="2">
-        <v>20.61259259259532</v>
+        <v>-39</v>
       </c>
       <c r="J123" s="3">
-        <v>7394.88</v>
+        <v>2347.12</v>
       </c>
       <c r="K123" s="3">
-        <v>7394.88</v>
+        <v>2347.12</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B124" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124">
-        <v>8006</v>
+        <v>42</v>
+      </c>
+      <c r="E124" t="s">
+        <v>50</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45857.37296296296</v>
+        <v>45406</v>
       </c>
       <c r="H124" s="1">
-        <v>45797.375092592592</v>
+        <v>45391</v>
       </c>
       <c r="I124" s="2">
-        <v>13.627037037040282</v>
+        <v>471</v>
       </c>
       <c r="J124" s="3">
-        <v>3927.87</v>
+        <v>597.29</v>
       </c>
       <c r="K124" s="3">
-        <v>3927.87</v>
+        <v>597.29</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B125" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125">
-        <v>8750</v>
+        <v>42</v>
+      </c>
+      <c r="E125" t="s">
+        <v>51</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45871.312986111108</v>
+        <v>45406</v>
       </c>
       <c r="H125" s="1">
-        <v>45811.315150462964</v>
+        <v>45391</v>
       </c>
       <c r="I125" s="2">
-        <v>-0.31298611110833008</v>
+        <v>471</v>
       </c>
       <c r="J125" s="3">
-        <v>2626.23</v>
+        <v>591.72</v>
       </c>
       <c r="K125" s="3">
-        <v>2626.23</v>
+        <v>591.72</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126">
-        <v>9758</v>
+        <v>42</v>
+      </c>
+      <c r="E126" t="s">
+        <v>52</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45894.404513888891</v>
+        <v>45419</v>
       </c>
       <c r="H126" s="1">
-        <v>45834.411666666667</v>
+        <v>45404</v>
       </c>
       <c r="I126" s="2">
-        <v>-23.404513888890506</v>
+        <v>458</v>
       </c>
       <c r="J126" s="3">
-        <v>2212.2600000000002</v>
+        <v>599.27</v>
       </c>
       <c r="K126" s="3">
-        <v>2212.2600000000002</v>
+        <v>599.27</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112421</v>
+        <v>211112351</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="E127">
-        <v>3848</v>
+        <v>411</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45746.622569444444</v>
+        <v>45837</v>
       </c>
       <c r="H127" s="1">
-        <v>45716.624456018515</v>
+        <v>45777</v>
       </c>
       <c r="I127" s="2">
-        <v>124.3774305555562</v>
+        <v>40</v>
       </c>
       <c r="J127" s="3">
-        <v>233.77</v>
+        <v>-313.76</v>
       </c>
       <c r="K127" s="3">
-        <v>233.77</v>
+        <v>-313.76</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
       </c>
       <c r="M127" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112443</v>
+        <v>211112351</v>
       </c>
       <c r="B128" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
@@ -5839,25 +5839,25 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>8418</v>
+        <v>7018</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45834.405034722222</v>
+        <v>45837.739259259259</v>
       </c>
       <c r="H128" s="1">
-        <v>45804.405219907407</v>
+        <v>45777.741296296292</v>
       </c>
       <c r="I128" s="2">
-        <v>36.594965277778101</v>
+        <v>40</v>
       </c>
       <c r="J128" s="3">
-        <v>396.04</v>
+        <v>4925.1000000000004</v>
       </c>
       <c r="K128" s="3">
-        <v>396.04</v>
+        <v>4925.1000000000004</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112443</v>
+        <v>211112351</v>
       </c>
       <c r="B129" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -5880,39 +5880,39 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>8910</v>
+        <v>7192</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45843.497025462959</v>
+        <v>45843.368854166663</v>
       </c>
       <c r="H129" s="1">
-        <v>45813.497488425921</v>
+        <v>45783.369363425925</v>
       </c>
       <c r="I129" s="2">
-        <v>27.502974537041155</v>
+        <v>34</v>
       </c>
       <c r="J129" s="3">
-        <v>765.47</v>
+        <v>4675.67</v>
       </c>
       <c r="K129" s="3">
-        <v>765.47</v>
+        <v>4675.67</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
       </c>
       <c r="M129" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112443</v>
+        <v>211112351</v>
       </c>
       <c r="B130" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -5921,39 +5921,39 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>10549</v>
+        <v>7370</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45883.354108796295</v>
+        <v>45845.34983796296</v>
       </c>
       <c r="H130" s="1">
-        <v>45853.354548611111</v>
+        <v>45785.350659722222</v>
       </c>
       <c r="I130" s="2">
-        <v>-12.354108796294895</v>
+        <v>32</v>
       </c>
       <c r="J130" s="3">
-        <v>1094.7</v>
+        <v>4323.37</v>
       </c>
       <c r="K130" s="3">
-        <v>1094.7</v>
+        <v>4323.37</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112455</v>
+        <v>211112351</v>
       </c>
       <c r="B131" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5962,25 +5962,25 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>9798</v>
+        <v>7619</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45864.648715277777</v>
+        <v>45850.387407407405</v>
       </c>
       <c r="H131" s="1">
-        <v>45834.649039351847</v>
+        <v>45790.388252314813</v>
       </c>
       <c r="I131" s="2">
-        <v>6.351284722222772</v>
+        <v>27</v>
       </c>
       <c r="J131" s="3">
-        <v>2220.65</v>
+        <v>7394.88</v>
       </c>
       <c r="K131" s="3">
-        <v>2220.65</v>
+        <v>7394.88</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -5991,10 +5991,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112455</v>
+        <v>211112351</v>
       </c>
       <c r="B132" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -6003,39 +6003,39 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>9912</v>
+        <v>8006</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45868.70212962963</v>
+        <v>45857.37296296296</v>
       </c>
       <c r="H132" s="1">
-        <v>45838.702465277776</v>
+        <v>45797.375092592592</v>
       </c>
       <c r="I132" s="2">
-        <v>2.2978703703702195</v>
+        <v>20</v>
       </c>
       <c r="J132" s="3">
-        <v>2033.5</v>
+        <v>3927.87</v>
       </c>
       <c r="K132" s="3">
-        <v>2033.5</v>
+        <v>3927.87</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112455</v>
+        <v>211112351</v>
       </c>
       <c r="B133" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6044,39 +6044,39 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>10545</v>
+        <v>8750</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45883.337488425925</v>
+        <v>45871.312986111108</v>
       </c>
       <c r="H133" s="1">
-        <v>45853.348136574074</v>
+        <v>45811.315150462964</v>
       </c>
       <c r="I133" s="2">
-        <v>-12.337488425924676</v>
+        <v>6</v>
       </c>
       <c r="J133" s="3">
-        <v>1711.91</v>
+        <v>2626.23</v>
       </c>
       <c r="K133" s="3">
-        <v>1711.91</v>
+        <v>2626.23</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112455</v>
+        <v>211112351</v>
       </c>
       <c r="B134" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6085,25 +6085,25 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>10837</v>
+        <v>9758</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45890.319421296292</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H134" s="1">
-        <v>45860.320057870369</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I134" s="2">
-        <v>-19.319421296291694</v>
+        <v>-17</v>
       </c>
       <c r="J134" s="3">
-        <v>1555.67</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K134" s="3">
-        <v>1555.67</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -6114,10 +6114,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112455</v>
+        <v>211112421</v>
       </c>
       <c r="B135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6126,39 +6126,39 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>11299</v>
+        <v>3848</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45900.301238425927</v>
+        <v>45746.622569444444</v>
       </c>
       <c r="H135" s="1">
-        <v>45870.301851851851</v>
+        <v>45716.624456018515</v>
       </c>
       <c r="I135" s="2">
-        <v>-29.301238425927295</v>
+        <v>131</v>
       </c>
       <c r="J135" s="3">
-        <v>1512.3600000000001</v>
+        <v>233.77</v>
       </c>
       <c r="K135" s="3">
-        <v>1512.3600000000001</v>
+        <v>233.77</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112469</v>
+        <v>211112443</v>
       </c>
       <c r="B136" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6167,39 +6167,39 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>10547</v>
+        <v>8418</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45883.352349537032</v>
+        <v>45834.405034722222</v>
       </c>
       <c r="H136" s="1">
-        <v>45853.352858796294</v>
+        <v>45804.405219907407</v>
       </c>
       <c r="I136" s="2">
-        <v>-12.352349537031841</v>
+        <v>43</v>
       </c>
       <c r="J136" s="3">
-        <v>957.17000000000007</v>
+        <v>396.04</v>
       </c>
       <c r="K136" s="3">
-        <v>957.17000000000007</v>
+        <v>396.04</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112476</v>
+        <v>211112443</v>
       </c>
       <c r="B137" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6208,39 +6208,39 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>10023</v>
+        <v>8910</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45871.36619212963</v>
+        <v>45843.497025462959</v>
       </c>
       <c r="H137" s="1">
-        <v>45841.366562499999</v>
+        <v>45813.497488425921</v>
       </c>
       <c r="I137" s="2">
-        <v>-0.36619212962978054</v>
+        <v>34</v>
       </c>
       <c r="J137" s="3">
-        <v>275.11</v>
+        <v>765.47</v>
       </c>
       <c r="K137" s="3">
-        <v>275.11</v>
+        <v>765.47</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112476</v>
+        <v>211112443</v>
       </c>
       <c r="B138" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6249,25 +6249,25 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>10295</v>
+        <v>10549</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45877.345173611109</v>
+        <v>45883.354108796295</v>
       </c>
       <c r="H138" s="1">
-        <v>45847.345173611109</v>
+        <v>45853.354548611111</v>
       </c>
       <c r="I138" s="2">
-        <v>-6.3451736111092032</v>
+        <v>-6</v>
       </c>
       <c r="J138" s="3">
-        <v>290.51</v>
+        <v>1094.7</v>
       </c>
       <c r="K138" s="3">
-        <v>290.51</v>
+        <v>1094.7</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -6278,10 +6278,10 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112476</v>
+        <v>211112455</v>
       </c>
       <c r="B139" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6290,39 +6290,39 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>10666</v>
+        <v>9798</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45885.346874999996</v>
+        <v>45864.648715277777</v>
       </c>
       <c r="H139" s="1">
-        <v>45855.347696759258</v>
+        <v>45834.649039351847</v>
       </c>
       <c r="I139" s="2">
-        <v>-14.346874999995634</v>
+        <v>13</v>
       </c>
       <c r="J139" s="3">
-        <v>211.36</v>
+        <v>2220.65</v>
       </c>
       <c r="K139" s="3">
-        <v>211.36</v>
+        <v>2220.65</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112488</v>
+        <v>211112455</v>
       </c>
       <c r="B140" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6331,39 +6331,39 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>9567</v>
+        <v>9912</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45828.710740740738</v>
+        <v>45868.70212962963</v>
       </c>
       <c r="H140" s="1">
-        <v>45828.710740740738</v>
+        <v>45838.702465277776</v>
       </c>
       <c r="I140" s="2">
-        <v>42.289259259261598</v>
+        <v>9</v>
       </c>
       <c r="J140" s="3">
-        <v>992.69</v>
+        <v>2033.5</v>
       </c>
       <c r="K140" s="3">
-        <v>992.69</v>
+        <v>2033.5</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112488</v>
+        <v>211112455</v>
       </c>
       <c r="B141" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6372,80 +6372,80 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>10184</v>
+        <v>10545</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45842.656388888885</v>
+        <v>45883.337488425925</v>
       </c>
       <c r="H141" s="1">
-        <v>45842.656388888885</v>
+        <v>45853.348136574074</v>
       </c>
       <c r="I141" s="2">
-        <v>28.343611111115024</v>
+        <v>-6</v>
       </c>
       <c r="J141" s="3">
-        <v>1008.07</v>
+        <v>1711.91</v>
       </c>
       <c r="K141" s="3">
-        <v>1008.07</v>
+        <v>1711.91</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112488</v>
+        <v>211112455</v>
       </c>
       <c r="B142" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
       </c>
       <c r="E142">
-        <v>639</v>
+        <v>10837</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45848</v>
+        <v>45890.319421296292</v>
       </c>
       <c r="H142" s="1">
-        <v>45848</v>
+        <v>45860.320057870369</v>
       </c>
       <c r="I142" s="2">
-        <v>23</v>
+        <v>-13</v>
       </c>
       <c r="J142" s="3">
-        <v>-992.69</v>
+        <v>1555.67</v>
       </c>
       <c r="K142" s="3">
-        <v>-992.69</v>
+        <v>1555.67</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112494</v>
+        <v>211112455</v>
       </c>
       <c r="B143" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6454,39 +6454,39 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>5411</v>
+        <v>11299</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45777.661319444444</v>
+        <v>45900.301238425927</v>
       </c>
       <c r="H143" s="1">
-        <v>45747.663402777776</v>
+        <v>45870.301851851851</v>
       </c>
       <c r="I143" s="2">
-        <v>93.338680555556493</v>
+        <v>-23</v>
       </c>
       <c r="J143" s="3">
-        <v>213.1</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="K143" s="3">
-        <v>213.1</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112494</v>
+        <v>211112455</v>
       </c>
       <c r="B144" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6495,107 +6495,107 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>6692</v>
+        <v>11471</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45800.410613425927</v>
+        <v>45905.332974537036</v>
       </c>
       <c r="H144" s="1">
-        <v>45770.412349537037</v>
+        <v>45875.333553240736</v>
       </c>
       <c r="I144" s="2">
-        <v>70.589386574072705</v>
+        <v>-28</v>
       </c>
       <c r="J144" s="3">
-        <v>177.04</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="K144" s="3">
-        <v>177.04</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112515</v>
+        <v>211112469</v>
       </c>
       <c r="B145" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
-      </c>
-      <c r="D145">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
       </c>
       <c r="E145">
-        <v>575</v>
+        <v>10547</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45861</v>
+        <v>45883.352349537032</v>
       </c>
       <c r="H145" s="1">
-        <v>45831</v>
+        <v>45853.352858796294</v>
       </c>
       <c r="I145" s="2">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="J145" s="3">
-        <v>-390.40000000000003</v>
+        <v>957.17000000000007</v>
       </c>
       <c r="K145" s="3">
-        <v>-390.40000000000003</v>
+        <v>957.17000000000007</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
       </c>
       <c r="M145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112515</v>
+        <v>211112469</v>
       </c>
       <c r="B146" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C146" t="s">
         <v>24</v>
       </c>
-      <c r="D146">
-        <v>2025</v>
+      <c r="D146" t="s">
+        <v>64</v>
       </c>
       <c r="E146">
-        <v>621</v>
+        <v>7</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45875</v>
+        <v>45892</v>
       </c>
       <c r="H146" s="1">
-        <v>45845</v>
+        <v>45862</v>
       </c>
       <c r="I146" s="2">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="J146" s="3">
-        <v>-49.21</v>
+        <v>-15.38</v>
       </c>
       <c r="K146" s="3">
-        <v>-49.21</v>
+        <v>-15.38</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -6606,10 +6606,10 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112515</v>
+        <v>211112469</v>
       </c>
       <c r="B147" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6618,25 +6618,25 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>10193</v>
+        <v>11558</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45875.364108796297</v>
+        <v>45906.43645833333</v>
       </c>
       <c r="H147" s="1">
-        <v>45845.36451388889</v>
+        <v>45876.437384259254</v>
       </c>
       <c r="I147" s="2">
-        <v>-4.3641087962969323</v>
+        <v>-29</v>
       </c>
       <c r="J147" s="3">
-        <v>1144.45</v>
+        <v>1107.6200000000001</v>
       </c>
       <c r="K147" s="3">
-        <v>1144.45</v>
+        <v>1107.6200000000001</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -6647,51 +6647,51 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112515</v>
+        <v>211112476</v>
       </c>
       <c r="B148" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E148">
-        <v>3</v>
+        <v>10023</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45892</v>
+        <v>45871.36619212963</v>
       </c>
       <c r="H148" s="1">
-        <v>45862</v>
+        <v>45841.366562499999</v>
       </c>
       <c r="I148" s="2">
-        <v>-21</v>
+        <v>6</v>
       </c>
       <c r="J148" s="3">
-        <v>-15.38</v>
+        <v>275.11</v>
       </c>
       <c r="K148" s="3">
-        <v>-15.38</v>
+        <v>275.11</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112515</v>
+        <v>211112476</v>
       </c>
       <c r="B149" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6700,25 +6700,25 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>11018</v>
+        <v>10666</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="1">
-        <v>45893.344247685185</v>
+        <v>45885.346874999996</v>
       </c>
       <c r="H149" s="1">
-        <v>45863.344930555555</v>
+        <v>45855.347696759258</v>
       </c>
       <c r="I149" s="2">
-        <v>-22.34424768518511</v>
+        <v>-8</v>
       </c>
       <c r="J149" s="3">
-        <v>653.94000000000005</v>
+        <v>211.36</v>
       </c>
       <c r="K149" s="3">
-        <v>653.94000000000005</v>
+        <v>211.36</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
@@ -6729,10 +6729,10 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112518</v>
+        <v>211112488</v>
       </c>
       <c r="B150" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6741,39 +6741,39 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>9953</v>
+        <v>9567</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" s="1">
-        <v>45900.407731481479</v>
+        <v>45828.710740740738</v>
       </c>
       <c r="H150" s="1">
-        <v>45840.408055555556</v>
+        <v>45828.710740740738</v>
       </c>
       <c r="I150" s="2">
-        <v>-29.40773148147855</v>
+        <v>49</v>
       </c>
       <c r="J150" s="3">
-        <v>358.40000000000003</v>
+        <v>992.69</v>
       </c>
       <c r="K150" s="3">
-        <v>358.40000000000003</v>
+        <v>992.69</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112518</v>
+        <v>211112488</v>
       </c>
       <c r="B151" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6782,80 +6782,80 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>10114</v>
+        <v>10184</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>45902.400694444441</v>
+        <v>45842.656388888885</v>
       </c>
       <c r="H151" s="1">
-        <v>45842.400694444441</v>
+        <v>45842.656388888885</v>
       </c>
       <c r="I151" s="2">
-        <v>-31.400694444440887</v>
+        <v>35</v>
       </c>
       <c r="J151" s="3">
-        <v>219.86</v>
+        <v>1008.07</v>
       </c>
       <c r="K151" s="3">
-        <v>219.86</v>
+        <v>1008.07</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
       </c>
       <c r="M151" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112518</v>
+        <v>211112488</v>
       </c>
       <c r="B152" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D152">
+        <v>2025</v>
       </c>
       <c r="E152">
-        <v>10919</v>
+        <v>639</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="1">
-        <v>45921.540416666663</v>
+        <v>45848</v>
       </c>
       <c r="H152" s="1">
-        <v>45861.54415509259</v>
+        <v>45848</v>
       </c>
       <c r="I152" s="2">
-        <v>-50.540416666663077</v>
+        <v>29</v>
       </c>
       <c r="J152" s="3">
-        <v>817.86</v>
+        <v>-992.69</v>
       </c>
       <c r="K152" s="3">
-        <v>817.86</v>
+        <v>-992.69</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
       </c>
       <c r="M152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112531</v>
+        <v>211112494</v>
       </c>
       <c r="B153" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6864,112 +6864,563 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>10440</v>
+        <v>5411</v>
       </c>
       <c r="F153" t="s">
         <v>16</v>
       </c>
       <c r="G153" s="1">
-        <v>45879.370173611111</v>
+        <v>45777.661319444444</v>
       </c>
       <c r="H153" s="1">
-        <v>45849.370173611111</v>
+        <v>45747.663402777776</v>
       </c>
       <c r="I153" s="2">
-        <v>-8.3701736111106584</v>
+        <v>100</v>
       </c>
       <c r="J153" s="3">
-        <v>210.75</v>
+        <v>213.1</v>
       </c>
       <c r="K153" s="3">
-        <v>210.75</v>
+        <v>213.1</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211112531</v>
+        <v>211112494</v>
       </c>
       <c r="B154" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
-      </c>
-      <c r="D154">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
       </c>
       <c r="E154">
-        <v>681</v>
+        <v>6692</v>
       </c>
       <c r="F154" t="s">
         <v>16</v>
       </c>
       <c r="G154" s="1">
-        <v>45892</v>
+        <v>45800.410613425927</v>
       </c>
       <c r="H154" s="1">
-        <v>45862</v>
+        <v>45770.412349537037</v>
       </c>
       <c r="I154" s="2">
-        <v>-21</v>
+        <v>77</v>
       </c>
       <c r="J154" s="3">
-        <v>-13.55</v>
+        <v>177.04</v>
       </c>
       <c r="K154" s="3">
-        <v>-13.55</v>
+        <v>177.04</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
       </c>
       <c r="M154" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
+        <v>211112515</v>
+      </c>
+      <c r="B155" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155">
+        <v>2025</v>
+      </c>
+      <c r="E155">
+        <v>575</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="1">
+        <v>45861</v>
+      </c>
+      <c r="H155" s="1">
+        <v>45831</v>
+      </c>
+      <c r="I155" s="2">
+        <v>16</v>
+      </c>
+      <c r="J155" s="3">
+        <v>-390.40000000000003</v>
+      </c>
+      <c r="K155" s="3">
+        <v>-390.40000000000003</v>
+      </c>
+      <c r="L155" t="s">
+        <v>17</v>
+      </c>
+      <c r="M155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>211112515</v>
+      </c>
+      <c r="B156" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156">
+        <v>2025</v>
+      </c>
+      <c r="E156">
+        <v>621</v>
+      </c>
+      <c r="F156" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" s="1">
+        <v>45875</v>
+      </c>
+      <c r="H156" s="1">
+        <v>45845</v>
+      </c>
+      <c r="I156" s="2">
+        <v>2</v>
+      </c>
+      <c r="J156" s="3">
+        <v>-49.21</v>
+      </c>
+      <c r="K156" s="3">
+        <v>-49.21</v>
+      </c>
+      <c r="L156" t="s">
+        <v>17</v>
+      </c>
+      <c r="M156" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>211112515</v>
+      </c>
+      <c r="B157" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="F157" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="1">
+        <v>45892</v>
+      </c>
+      <c r="H157" s="1">
+        <v>45862</v>
+      </c>
+      <c r="I157" s="2">
+        <v>-15</v>
+      </c>
+      <c r="J157" s="3">
+        <v>-15.38</v>
+      </c>
+      <c r="K157" s="3">
+        <v>-15.38</v>
+      </c>
+      <c r="L157" t="s">
+        <v>17</v>
+      </c>
+      <c r="M157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>211112515</v>
+      </c>
+      <c r="B158" t="s">
+        <v>61</v>
+      </c>
+      <c r="C158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158">
+        <v>2025</v>
+      </c>
+      <c r="E158">
+        <v>696</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="1">
+        <v>45893</v>
+      </c>
+      <c r="H158" s="1">
+        <v>45863</v>
+      </c>
+      <c r="I158" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J158" s="3">
+        <v>-102.25</v>
+      </c>
+      <c r="K158" s="3">
+        <v>-102.25</v>
+      </c>
+      <c r="L158" t="s">
+        <v>17</v>
+      </c>
+      <c r="M158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>211112515</v>
+      </c>
+      <c r="B159" t="s">
+        <v>61</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159">
+        <v>11018</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="1">
+        <v>45893.344247685185</v>
+      </c>
+      <c r="H159" s="1">
+        <v>45863.344930555555</v>
+      </c>
+      <c r="I159" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J159" s="3">
+        <v>653.94000000000005</v>
+      </c>
+      <c r="K159" s="3">
+        <v>653.94000000000005</v>
+      </c>
+      <c r="L159" t="s">
+        <v>17</v>
+      </c>
+      <c r="M159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>211112518</v>
+      </c>
+      <c r="B160" t="s">
+        <v>62</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160">
+        <v>9953</v>
+      </c>
+      <c r="F160" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="1">
+        <v>45900.407731481479</v>
+      </c>
+      <c r="H160" s="1">
+        <v>45840.408055555556</v>
+      </c>
+      <c r="I160" s="2">
+        <v>-23</v>
+      </c>
+      <c r="J160" s="3">
+        <v>358.40000000000003</v>
+      </c>
+      <c r="K160" s="3">
+        <v>358.40000000000003</v>
+      </c>
+      <c r="L160" t="s">
+        <v>17</v>
+      </c>
+      <c r="M160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>211112518</v>
+      </c>
+      <c r="B161" t="s">
+        <v>62</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161">
+        <v>10114</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="1">
+        <v>45902.400694444441</v>
+      </c>
+      <c r="H161" s="1">
+        <v>45842.400694444441</v>
+      </c>
+      <c r="I161" s="2">
+        <v>-25</v>
+      </c>
+      <c r="J161" s="3">
+        <v>219.86</v>
+      </c>
+      <c r="K161" s="3">
+        <v>219.86</v>
+      </c>
+      <c r="L161" t="s">
+        <v>17</v>
+      </c>
+      <c r="M161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>211112518</v>
+      </c>
+      <c r="B162" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162">
+        <v>10919</v>
+      </c>
+      <c r="F162" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="1">
+        <v>45921.540416666663</v>
+      </c>
+      <c r="H162" s="1">
+        <v>45861.54415509259</v>
+      </c>
+      <c r="I162" s="2">
+        <v>-44</v>
+      </c>
+      <c r="J162" s="3">
+        <v>817.86</v>
+      </c>
+      <c r="K162" s="3">
+        <v>817.86</v>
+      </c>
+      <c r="L162" t="s">
+        <v>17</v>
+      </c>
+      <c r="M162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>211112531</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B163" t="s">
         <v>63</v>
       </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155">
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163">
+        <v>10440</v>
+      </c>
+      <c r="F163" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="1">
+        <v>45879.370173611111</v>
+      </c>
+      <c r="H163" s="1">
+        <v>45849.370173611111</v>
+      </c>
+      <c r="I163" s="2">
+        <v>-2</v>
+      </c>
+      <c r="J163" s="3">
+        <v>210.75</v>
+      </c>
+      <c r="K163" s="3">
+        <v>210.75</v>
+      </c>
+      <c r="L163" t="s">
+        <v>17</v>
+      </c>
+      <c r="M163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>211112531</v>
+      </c>
+      <c r="B164" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164">
+        <v>2025</v>
+      </c>
+      <c r="E164">
+        <v>681</v>
+      </c>
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="1">
+        <v>45892</v>
+      </c>
+      <c r="H164" s="1">
+        <v>45862</v>
+      </c>
+      <c r="I164" s="2">
+        <v>-15</v>
+      </c>
+      <c r="J164" s="3">
+        <v>-13.55</v>
+      </c>
+      <c r="K164" s="3">
+        <v>-13.55</v>
+      </c>
+      <c r="L164" t="s">
+        <v>17</v>
+      </c>
+      <c r="M164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>211112531</v>
+      </c>
+      <c r="B165" t="s">
+        <v>63</v>
+      </c>
+      <c r="C165" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165">
         <v>11028</v>
       </c>
-      <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" s="1">
+      <c r="F165" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="1">
         <v>45893.474282407406</v>
       </c>
-      <c r="H155" s="1">
+      <c r="H165" s="1">
         <v>45863.474293981482</v>
       </c>
-      <c r="I155" s="2">
-        <v>-22.474282407405553</v>
-      </c>
-      <c r="J155" s="3">
+      <c r="I165" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J165" s="3">
         <v>221.74</v>
       </c>
-      <c r="K155" s="3">
+      <c r="K165" s="3">
         <v>221.74</v>
       </c>
-      <c r="L155" t="s">
-        <v>17</v>
-      </c>
-      <c r="M155" t="s">
+      <c r="L165" t="s">
+        <v>17</v>
+      </c>
+      <c r="M165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>211112531</v>
+      </c>
+      <c r="B166" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166">
+        <v>11383</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="1">
+        <v>45903.496435185181</v>
+      </c>
+      <c r="H166" s="1">
+        <v>45873.497210648144</v>
+      </c>
+      <c r="I166" s="2">
+        <v>-26</v>
+      </c>
+      <c r="J166" s="3">
+        <v>236.21</v>
+      </c>
+      <c r="K166" s="3">
+        <v>236.21</v>
+      </c>
+      <c r="L166" t="s">
+        <v>17</v>
+      </c>
+      <c r="M166" t="s">
         <v>19</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95983D4-8C72-4FE3-A701-CDE5F4E77EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7F5FC-20B4-46D0-84D2-7F4DDDEE3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="65">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="S149" sqref="S149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
         <v>45845.491770833331</v>
       </c>
       <c r="I2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3">
         <v>418.54</v>
@@ -726,7 +726,7 @@
         <v>45869.506041666667</v>
       </c>
       <c r="I3" s="2">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="J3" s="3">
         <v>470.6</v>
@@ -767,7 +767,7 @@
         <v>45846.3825</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="3">
         <v>359.15000000000003</v>
@@ -808,7 +808,7 @@
         <v>45856.494363425925</v>
       </c>
       <c r="I5" s="2">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="J5" s="3">
         <v>1004.71</v>
@@ -849,7 +849,7 @@
         <v>45855.558912037035</v>
       </c>
       <c r="I6" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3">
         <v>223.16</v>
@@ -890,7 +890,7 @@
         <v>45842</v>
       </c>
       <c r="I7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="3">
         <v>-28.150000000000002</v>
@@ -902,7 +902,7 @@
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>45842.49386574074</v>
       </c>
       <c r="I8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="3">
         <v>595.76</v>
@@ -943,7 +943,7 @@
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>45846</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3">
         <v>-19.89</v>
@@ -1013,7 +1013,7 @@
         <v>45846.376550925925</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="3">
         <v>602.47</v>
@@ -1054,7 +1054,7 @@
         <v>45853.638935185183</v>
       </c>
       <c r="I11" s="2">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="J11" s="3">
         <v>612.18000000000006</v>
@@ -1095,7 +1095,7 @@
         <v>45860.531319444446</v>
       </c>
       <c r="I12" s="2">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="J12" s="3">
         <v>521.47</v>
@@ -1136,7 +1136,7 @@
         <v>45867.53765046296</v>
       </c>
       <c r="I13" s="2">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="J13" s="3">
         <v>671.6</v>
@@ -1177,7 +1177,7 @@
         <v>45874.5315162037</v>
       </c>
       <c r="I14" s="2">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="J14" s="3">
         <v>308.06</v>
@@ -1218,7 +1218,7 @@
         <v>45848.592557870368</v>
       </c>
       <c r="I15" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>964.74</v>
@@ -1259,7 +1259,7 @@
         <v>45863.300034722219</v>
       </c>
       <c r="I16" s="2">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="J16" s="3">
         <v>2446.73</v>
@@ -1300,7 +1300,7 @@
         <v>45840</v>
       </c>
       <c r="I17" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J17" s="3">
         <v>-42.26</v>
@@ -1312,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>45849</v>
       </c>
       <c r="I18" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" s="3">
         <v>-43.6</v>
@@ -1382,7 +1382,7 @@
         <v>45853</v>
       </c>
       <c r="I19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" s="3">
         <v>-113.52</v>
@@ -1423,7 +1423,7 @@
         <v>45856.428020833329</v>
       </c>
       <c r="I20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J20" s="3">
         <v>249.14000000000001</v>
@@ -1464,7 +1464,7 @@
         <v>45866</v>
       </c>
       <c r="I21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="3">
         <v>-27.2</v>
@@ -1505,7 +1505,7 @@
         <v>45866</v>
       </c>
       <c r="I22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3">
         <v>-50.85</v>
@@ -1546,7 +1546,7 @@
         <v>45868</v>
       </c>
       <c r="I23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" s="3">
         <v>-100.23</v>
@@ -1587,7 +1587,7 @@
         <v>45874.485289351847</v>
       </c>
       <c r="I24" s="2">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J24" s="3">
         <v>1383.09</v>
@@ -1628,7 +1628,7 @@
         <v>45875.644444444442</v>
       </c>
       <c r="I25" s="2">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J25" s="3">
         <v>1178.1200000000001</v>
@@ -1669,7 +1669,7 @@
         <v>45876.497893518514</v>
       </c>
       <c r="I26" s="2">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="J26" s="3">
         <v>1385.29</v>
@@ -1686,43 +1686,43 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27">
-        <v>275</v>
+        <v>11652</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45763</v>
+        <v>45884.586608796293</v>
       </c>
       <c r="H27" s="1">
-        <v>45728</v>
+        <v>45877.586608796293</v>
       </c>
       <c r="I27" s="2">
-        <v>114</v>
+        <v>-6</v>
       </c>
       <c r="J27" s="3">
-        <v>-112.59</v>
+        <v>1723.43</v>
       </c>
       <c r="K27" s="3">
-        <v>-75.92</v>
+        <v>1723.43</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1733,37 +1733,37 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28">
-        <v>8178</v>
+        <v>275</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45834.347986111112</v>
+        <v>45763</v>
       </c>
       <c r="H28" s="1">
-        <v>45799.348622685182</v>
+        <v>45728</v>
       </c>
       <c r="I28" s="2">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="J28" s="3">
-        <v>601.93000000000006</v>
+        <v>-112.59</v>
       </c>
       <c r="K28" s="3">
-        <v>21</v>
+        <v>-75.92</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1780,31 +1780,31 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>9338</v>
+        <v>8178</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45860.416597222218</v>
+        <v>45834.347986111112</v>
       </c>
       <c r="H29" s="1">
-        <v>45825.417175925926</v>
+        <v>45799.348622685182</v>
       </c>
       <c r="I29" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J29" s="3">
-        <v>691.45</v>
+        <v>601.93000000000006</v>
       </c>
       <c r="K29" s="3">
-        <v>32.82</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1821,25 +1821,25 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>9568</v>
+        <v>9338</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45863.713865740741</v>
+        <v>45860.416597222218</v>
       </c>
       <c r="H30" s="1">
-        <v>45828.714143518519</v>
+        <v>45825.417175925926</v>
       </c>
       <c r="I30" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J30" s="3">
-        <v>742.15</v>
+        <v>691.45</v>
       </c>
       <c r="K30" s="3">
-        <v>742.15</v>
+        <v>32.82</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -1862,25 +1862,25 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>9739</v>
+        <v>9568</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45869.337118055555</v>
+        <v>45863.713865740741</v>
       </c>
       <c r="H31" s="1">
-        <v>45834.337858796294</v>
+        <v>45828.714143518519</v>
       </c>
       <c r="I31" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J31" s="3">
-        <v>89.460000000000008</v>
+        <v>742.15</v>
       </c>
       <c r="K31" s="3">
-        <v>89.460000000000008</v>
+        <v>742.15</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1897,37 +1897,37 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32">
-        <v>514</v>
+        <v>9739</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45877</v>
+        <v>45869.337118055555</v>
       </c>
       <c r="H32" s="1">
-        <v>45842</v>
+        <v>45834.337858796294</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J32" s="3">
-        <v>-2.12</v>
+        <v>89.460000000000008</v>
       </c>
       <c r="K32" s="3">
-        <v>-2.12</v>
+        <v>89.460000000000008</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1938,37 +1938,37 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33">
-        <v>10101</v>
+        <v>514</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45877.371099537035</v>
+        <v>45877</v>
       </c>
       <c r="H33" s="1">
-        <v>45842.371099537035</v>
+        <v>45842</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="3">
-        <v>1172.54</v>
+        <v>-2.12</v>
       </c>
       <c r="K33" s="3">
-        <v>1172.54</v>
+        <v>-2.12</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1985,31 +1985,31 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>10373</v>
+        <v>10101</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45883.311967592592</v>
+        <v>45877.371099537035</v>
       </c>
       <c r="H34" s="1">
-        <v>45848.312951388885</v>
+        <v>45842.371099537035</v>
       </c>
       <c r="I34" s="2">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="J34" s="3">
-        <v>793.1</v>
+        <v>1172.54</v>
       </c>
       <c r="K34" s="3">
-        <v>793.1</v>
+        <v>1172.54</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2026,25 +2026,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>10988</v>
+        <v>10373</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45897.491388888884</v>
+        <v>45883.311967592592</v>
       </c>
       <c r="H35" s="1">
-        <v>45862.491388888884</v>
+        <v>45848.312951388885</v>
       </c>
       <c r="I35" s="2">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="J35" s="3">
-        <v>1073.29</v>
+        <v>793.1</v>
       </c>
       <c r="K35" s="3">
-        <v>1073.29</v>
+        <v>793.1</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2067,25 +2067,25 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>11560</v>
+        <v>10988</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45911.437928240739</v>
+        <v>45897.491388888884</v>
       </c>
       <c r="H36" s="1">
-        <v>45876.438402777778</v>
+        <v>45862.491388888884</v>
       </c>
       <c r="I36" s="2">
-        <v>-34</v>
+        <v>-19</v>
       </c>
       <c r="J36" s="3">
-        <v>673.4</v>
+        <v>1073.29</v>
       </c>
       <c r="K36" s="3">
-        <v>673.4</v>
+        <v>1073.29</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2108,25 +2108,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>10727</v>
+        <v>11560</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45916.281041666662</v>
+        <v>45911.437928240739</v>
       </c>
       <c r="H37" s="1">
-        <v>45856.283530092587</v>
+        <v>45876.438402777778</v>
       </c>
       <c r="I37" s="2">
-        <v>-39</v>
+        <v>-33</v>
       </c>
       <c r="J37" s="3">
-        <v>199.79</v>
+        <v>673.4</v>
       </c>
       <c r="K37" s="3">
-        <v>199.79</v>
+        <v>673.4</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2149,25 +2149,25 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>11012</v>
+        <v>10727</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45923.282870370371</v>
+        <v>45916.281041666662</v>
       </c>
       <c r="H38" s="1">
-        <v>45863.28329861111</v>
+        <v>45856.283530092587</v>
       </c>
       <c r="I38" s="2">
-        <v>-46</v>
+        <v>-38</v>
       </c>
       <c r="J38" s="3">
-        <v>1478.6200000000001</v>
+        <v>199.79</v>
       </c>
       <c r="K38" s="3">
-        <v>1478.6200000000001</v>
+        <v>199.79</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2178,43 +2178,43 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111739</v>
+        <v>211111720</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>561</v>
+        <v>11012</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45854</v>
+        <v>45923.282870370371</v>
       </c>
       <c r="H39" s="1">
-        <v>45824</v>
+        <v>45863.28329861111</v>
       </c>
       <c r="I39" s="2">
-        <v>23</v>
+        <v>-45</v>
       </c>
       <c r="J39" s="3">
-        <v>-1.73</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="K39" s="3">
-        <v>-1.73</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2231,31 +2231,31 @@
         <v>2025</v>
       </c>
       <c r="E40">
-        <v>630</v>
+        <v>561</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45876</v>
+        <v>45854</v>
       </c>
       <c r="H40" s="1">
-        <v>45846</v>
+        <v>45824</v>
       </c>
       <c r="I40" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J40" s="3">
-        <v>-89.27</v>
+        <v>-1.73</v>
       </c>
       <c r="K40" s="3">
-        <v>-89.27</v>
+        <v>-1.73</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2266,37 +2266,37 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>2025</v>
       </c>
       <c r="E41">
-        <v>10819</v>
+        <v>630</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45889.487662037034</v>
+        <v>45876</v>
       </c>
       <c r="H41" s="1">
-        <v>45859.487673611111</v>
+        <v>45846</v>
       </c>
       <c r="I41" s="2">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="J41" s="3">
-        <v>694.31000000000006</v>
+        <v>-89.27</v>
       </c>
       <c r="K41" s="3">
-        <v>694.31000000000006</v>
+        <v>-89.27</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2313,25 +2313,25 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>11069</v>
+        <v>10819</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45893.5234375</v>
+        <v>45889.487662037034</v>
       </c>
       <c r="H42" s="1">
-        <v>45863.5234375</v>
+        <v>45859.487673611111</v>
       </c>
       <c r="I42" s="2">
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="J42" s="3">
-        <v>596.72</v>
+        <v>694.31000000000006</v>
       </c>
       <c r="K42" s="3">
-        <v>596.72</v>
+        <v>694.31000000000006</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2348,31 +2348,31 @@
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>709</v>
+        <v>11069</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45898</v>
+        <v>45893.5234375</v>
       </c>
       <c r="H43" s="1">
-        <v>45868</v>
+        <v>45863.5234375</v>
       </c>
       <c r="I43" s="2">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="J43" s="3">
-        <v>-8.6</v>
+        <v>596.72</v>
       </c>
       <c r="K43" s="3">
-        <v>-8.6</v>
+        <v>596.72</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2389,31 +2389,31 @@
         <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>2025</v>
       </c>
       <c r="E44">
-        <v>11191</v>
+        <v>709</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45898.329004629624</v>
+        <v>45898</v>
       </c>
       <c r="H44" s="1">
-        <v>45868.329722222217</v>
+        <v>45868</v>
       </c>
       <c r="I44" s="2">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="J44" s="3">
-        <v>938.86</v>
+        <v>-8.6</v>
       </c>
       <c r="K44" s="3">
-        <v>938.86</v>
+        <v>-8.6</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2424,84 +2424,84 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>522</v>
+        <v>11191</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45871</v>
+        <v>45898.329004629624</v>
       </c>
       <c r="H45" s="1">
-        <v>45811</v>
+        <v>45868.329722222217</v>
       </c>
       <c r="I45" s="2">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="J45" s="3">
-        <v>-29.34</v>
+        <v>938.86</v>
       </c>
       <c r="K45" s="3">
-        <v>-29.34</v>
+        <v>938.86</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>525</v>
+        <v>11604</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45871</v>
+        <v>45907.310011574074</v>
       </c>
       <c r="H46" s="1">
-        <v>45811</v>
+        <v>45877.31108796296</v>
       </c>
       <c r="I46" s="2">
-        <v>6</v>
+        <v>-29</v>
       </c>
       <c r="J46" s="3">
-        <v>-4.99</v>
+        <v>625.66</v>
       </c>
       <c r="K46" s="3">
-        <v>-4.99</v>
+        <v>625.66</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2512,31 +2512,31 @@
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>2025</v>
       </c>
       <c r="E47">
-        <v>8798</v>
+        <v>522</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45871.469687500001</v>
+        <v>45871</v>
       </c>
       <c r="H47" s="1">
-        <v>45811.47006944444</v>
+        <v>45811</v>
       </c>
       <c r="I47" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J47" s="3">
-        <v>421.25</v>
+        <v>-29.34</v>
       </c>
       <c r="K47" s="3">
-        <v>421.25</v>
+        <v>-29.34</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2553,31 +2553,31 @@
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>2025</v>
       </c>
       <c r="E48">
-        <v>8799</v>
+        <v>525</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45871.471655092588</v>
+        <v>45871</v>
       </c>
       <c r="H48" s="1">
-        <v>45811.472187499996</v>
+        <v>45811</v>
       </c>
       <c r="I48" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J48" s="3">
-        <v>361.42</v>
+        <v>-4.99</v>
       </c>
       <c r="K48" s="3">
-        <v>361.42</v>
+        <v>-4.99</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2596,35 +2596,35 @@
       <c r="C49" t="s">
         <v>14</v>
       </c>
-      <c r="D49">
-        <v>2025</v>
+      <c r="D49" t="s">
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>37</v>
+        <v>8798</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45874.455740740741</v>
+        <v>45871.469687500001</v>
       </c>
       <c r="H49" s="1">
-        <v>45814.455775462964</v>
+        <v>45811.47006944444</v>
       </c>
       <c r="I49" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J49" s="3">
-        <v>177.99</v>
+        <v>421.25</v>
       </c>
       <c r="K49" s="3">
-        <v>177.99</v>
+        <v>421.25</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2637,35 +2637,35 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D50">
-        <v>2025</v>
+      <c r="D50" t="s">
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>64</v>
+        <v>8799</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45874.612268518518</v>
+        <v>45871.471655092588</v>
       </c>
       <c r="H50" s="1">
-        <v>45814.613090277773</v>
+        <v>45811.472187499996</v>
       </c>
       <c r="I50" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J50" s="3">
-        <v>258.84000000000003</v>
+        <v>361.42</v>
       </c>
       <c r="K50" s="3">
-        <v>258.84000000000003</v>
+        <v>361.42</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2676,37 +2676,37 @@
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
       <c r="E51">
-        <v>542</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45877</v>
+        <v>45874.455740740741</v>
       </c>
       <c r="H51" s="1">
-        <v>45817</v>
+        <v>45814.455775462964</v>
       </c>
       <c r="I51" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J51" s="3">
-        <v>-9.41</v>
+        <v>177.99</v>
       </c>
       <c r="K51" s="3">
-        <v>-9.41</v>
+        <v>177.99</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2719,35 +2719,35 @@
       <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" t="s">
-        <v>15</v>
+      <c r="D52">
+        <v>2025</v>
       </c>
       <c r="E52">
-        <v>8996</v>
+        <v>64</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45877.440046296295</v>
+        <v>45874.612268518518</v>
       </c>
       <c r="H52" s="1">
-        <v>45817.44049768518</v>
+        <v>45814.613090277773</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" s="3">
-        <v>377.68</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="K52" s="3">
-        <v>377.68</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2758,37 +2758,37 @@
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>2025</v>
       </c>
       <c r="E53">
-        <v>8998</v>
+        <v>542</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45877.440960648149</v>
+        <v>45877</v>
       </c>
       <c r="H53" s="1">
-        <v>45817.441377314812</v>
+        <v>45817</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="3">
-        <v>257.82</v>
+        <v>-9.41</v>
       </c>
       <c r="K53" s="3">
-        <v>257.82</v>
+        <v>-9.41</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2805,31 +2805,31 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>9025</v>
+        <v>8996</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45877.494490740741</v>
+        <v>45877.440046296295</v>
       </c>
       <c r="H54" s="1">
-        <v>45817.494999999995</v>
+        <v>45817.44049768518</v>
       </c>
       <c r="I54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="3">
-        <v>315.04000000000002</v>
+        <v>377.68</v>
       </c>
       <c r="K54" s="3">
-        <v>315.04000000000002</v>
+        <v>377.68</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2840,37 +2840,37 @@
         <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>570</v>
+        <v>8998</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45886</v>
+        <v>45877.440960648149</v>
       </c>
       <c r="H55" s="1">
-        <v>45826</v>
+        <v>45817.441377314812</v>
       </c>
       <c r="I55" s="2">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="J55" s="3">
-        <v>-10.74</v>
+        <v>257.82</v>
       </c>
       <c r="K55" s="3">
-        <v>-10.74</v>
+        <v>257.82</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2887,31 +2887,31 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>9386</v>
+        <v>9025</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45886.314513888887</v>
+        <v>45877.494490740741</v>
       </c>
       <c r="H56" s="1">
-        <v>45826.314837962964</v>
+        <v>45817.494999999995</v>
       </c>
       <c r="I56" s="2">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="J56" s="3">
-        <v>328.96</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="K56" s="3">
-        <v>328.96</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2922,31 +2922,31 @@
         <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>2025</v>
       </c>
       <c r="E57">
-        <v>9436</v>
+        <v>570</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45886.459780092591</v>
+        <v>45886</v>
       </c>
       <c r="H57" s="1">
-        <v>45826.462314814809</v>
+        <v>45826</v>
       </c>
       <c r="I57" s="2">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="J57" s="3">
-        <v>58.57</v>
+        <v>-10.74</v>
       </c>
       <c r="K57" s="3">
-        <v>58.57</v>
+        <v>-10.74</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2969,25 +2969,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>9438</v>
+        <v>9386</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45886.462488425925</v>
+        <v>45886.314513888887</v>
       </c>
       <c r="H58" s="1">
-        <v>45826.466331018513</v>
+        <v>45826.314837962964</v>
       </c>
       <c r="I58" s="2">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="J58" s="3">
-        <v>408.29</v>
+        <v>328.96</v>
       </c>
       <c r="K58" s="3">
-        <v>408.29</v>
+        <v>328.96</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3010,25 +3010,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>9456</v>
+        <v>9436</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45888.299930555557</v>
+        <v>45886.459780092591</v>
       </c>
       <c r="H59" s="1">
-        <v>45828.300671296296</v>
+        <v>45826.462314814809</v>
       </c>
       <c r="I59" s="2">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="J59" s="3">
-        <v>20.76</v>
+        <v>58.57</v>
       </c>
       <c r="K59" s="3">
-        <v>20.76</v>
+        <v>58.57</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3051,25 +3051,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>9457</v>
+        <v>9438</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45888.30097222222</v>
+        <v>45886.462488425925</v>
       </c>
       <c r="H60" s="1">
-        <v>45828.306631944441</v>
+        <v>45826.466331018513</v>
       </c>
       <c r="I60" s="2">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="J60" s="3">
-        <v>45.83</v>
+        <v>408.29</v>
       </c>
       <c r="K60" s="3">
-        <v>45.83</v>
+        <v>408.29</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3092,25 +3092,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>9700</v>
+        <v>9456</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45893.496446759258</v>
+        <v>45888.299930555557</v>
       </c>
       <c r="H61" s="1">
-        <v>45833.497314814813</v>
+        <v>45828.300671296296</v>
       </c>
       <c r="I61" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J61" s="3">
-        <v>18.059999999999999</v>
+        <v>20.76</v>
       </c>
       <c r="K61" s="3">
-        <v>18.059999999999999</v>
+        <v>20.76</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3133,25 +3133,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>9701</v>
+        <v>9457</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45893.497546296298</v>
+        <v>45888.30097222222</v>
       </c>
       <c r="H62" s="1">
-        <v>45833.49827546296</v>
+        <v>45828.306631944441</v>
       </c>
       <c r="I62" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J62" s="3">
-        <v>367.16</v>
+        <v>45.83</v>
       </c>
       <c r="K62" s="3">
-        <v>367.16</v>
+        <v>45.83</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3174,25 +3174,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>9772</v>
+        <v>9700</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45894.447523148148</v>
+        <v>45893.496446759258</v>
       </c>
       <c r="H63" s="1">
-        <v>45834.448113425926</v>
+        <v>45833.497314814813</v>
       </c>
       <c r="I63" s="2">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="J63" s="3">
-        <v>441.87</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="K63" s="3">
-        <v>441.87</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3215,25 +3215,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>9871</v>
+        <v>9701</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45895.479108796295</v>
+        <v>45893.497546296298</v>
       </c>
       <c r="H64" s="1">
-        <v>45835.481898148144</v>
+        <v>45833.49827546296</v>
       </c>
       <c r="I64" s="2">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="J64" s="3">
-        <v>175.89000000000001</v>
+        <v>367.16</v>
       </c>
       <c r="K64" s="3">
-        <v>175.89000000000001</v>
+        <v>367.16</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3256,25 +3256,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>9874</v>
+        <v>9772</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45895.494687499995</v>
+        <v>45894.447523148148</v>
       </c>
       <c r="H65" s="1">
-        <v>45835.494895833333</v>
+        <v>45834.448113425926</v>
       </c>
       <c r="I65" s="2">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="J65" s="3">
-        <v>276.79000000000002</v>
+        <v>441.87</v>
       </c>
       <c r="K65" s="3">
-        <v>276.79000000000002</v>
+        <v>441.87</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3297,25 +3297,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>9935</v>
+        <v>9871</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45899.405474537038</v>
+        <v>45895.479108796295</v>
       </c>
       <c r="H66" s="1">
-        <v>45839.405821759254</v>
+        <v>45835.481898148144</v>
       </c>
       <c r="I66" s="2">
-        <v>-22</v>
+        <v>-17</v>
       </c>
       <c r="J66" s="3">
-        <v>249.19</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="K66" s="3">
-        <v>249.19</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3338,25 +3338,25 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>10275</v>
+        <v>9874</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45906.438090277778</v>
+        <v>45895.494687499995</v>
       </c>
       <c r="H67" s="1">
-        <v>45846.438090277778</v>
+        <v>45835.494895833333</v>
       </c>
       <c r="I67" s="2">
-        <v>-29</v>
+        <v>-17</v>
       </c>
       <c r="J67" s="3">
-        <v>333.66</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="K67" s="3">
-        <v>333.66</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3379,25 +3379,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>10276</v>
+        <v>9935</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45906.438113425924</v>
+        <v>45899.405474537038</v>
       </c>
       <c r="H68" s="1">
-        <v>45846.438125000001</v>
+        <v>45839.405821759254</v>
       </c>
       <c r="I68" s="2">
-        <v>-29</v>
+        <v>-21</v>
       </c>
       <c r="J68" s="3">
-        <v>114.07000000000001</v>
+        <v>249.19</v>
       </c>
       <c r="K68" s="3">
-        <v>114.07000000000001</v>
+        <v>249.19</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3420,25 +3420,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>10496</v>
+        <v>10275</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45909.601944444439</v>
+        <v>45906.438090277778</v>
       </c>
       <c r="H69" s="1">
-        <v>45849.60251157407</v>
+        <v>45846.438090277778</v>
       </c>
       <c r="I69" s="2">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="J69" s="3">
-        <v>330.27</v>
+        <v>333.66</v>
       </c>
       <c r="K69" s="3">
-        <v>330.27</v>
+        <v>333.66</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3455,31 +3455,31 @@
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
       </c>
       <c r="E70">
-        <v>646</v>
+        <v>10276</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45913</v>
+        <v>45906.438113425924</v>
       </c>
       <c r="H70" s="1">
-        <v>45853</v>
+        <v>45846.438125000001</v>
       </c>
       <c r="I70" s="2">
-        <v>-36</v>
+        <v>-28</v>
       </c>
       <c r="J70" s="3">
-        <v>-9.23</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="K70" s="3">
-        <v>-9.23</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3502,25 +3502,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>10552</v>
+        <v>10496</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45913.414108796293</v>
+        <v>45909.601944444439</v>
       </c>
       <c r="H71" s="1">
-        <v>45853.415949074071</v>
+        <v>45849.60251157407</v>
       </c>
       <c r="I71" s="2">
-        <v>-36</v>
+        <v>-31</v>
       </c>
       <c r="J71" s="3">
-        <v>451.46000000000004</v>
+        <v>330.27</v>
       </c>
       <c r="K71" s="3">
-        <v>451.46000000000004</v>
+        <v>330.27</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3537,31 +3537,31 @@
         <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
       </c>
       <c r="E72">
-        <v>10556</v>
+        <v>646</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45913.417696759258</v>
+        <v>45913</v>
       </c>
       <c r="H72" s="1">
-        <v>45853.418020833335</v>
+        <v>45853</v>
       </c>
       <c r="I72" s="2">
-        <v>-36</v>
+        <v>-35</v>
       </c>
       <c r="J72" s="3">
-        <v>120.59</v>
+        <v>-9.23</v>
       </c>
       <c r="K72" s="3">
-        <v>120.59</v>
+        <v>-9.23</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3584,25 +3584,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10719</v>
+        <v>10552</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45915.588217592587</v>
+        <v>45913.414108796293</v>
       </c>
       <c r="H73" s="1">
-        <v>45855.588634259257</v>
+        <v>45853.415949074071</v>
       </c>
       <c r="I73" s="2">
-        <v>-38</v>
+        <v>-35</v>
       </c>
       <c r="J73" s="3">
-        <v>107.66</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="K73" s="3">
-        <v>107.66</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3625,25 +3625,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10841</v>
+        <v>10556</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45920.44799768518</v>
+        <v>45913.417696759258</v>
       </c>
       <c r="H74" s="1">
-        <v>45860.450138888889</v>
+        <v>45853.418020833335</v>
       </c>
       <c r="I74" s="2">
-        <v>-43</v>
+        <v>-35</v>
       </c>
       <c r="J74" s="3">
-        <v>391.77</v>
+        <v>120.59</v>
       </c>
       <c r="K74" s="3">
-        <v>391.77</v>
+        <v>120.59</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3666,25 +3666,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>10940</v>
+        <v>10719</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45921.562048611107</v>
+        <v>45915.588217592587</v>
       </c>
       <c r="H75" s="1">
-        <v>45861.562060185184</v>
+        <v>45855.588634259257</v>
       </c>
       <c r="I75" s="2">
-        <v>-44</v>
+        <v>-37</v>
       </c>
       <c r="J75" s="3">
-        <v>184.52</v>
+        <v>107.66</v>
       </c>
       <c r="K75" s="3">
-        <v>184.52</v>
+        <v>107.66</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3707,25 +3707,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>10941</v>
+        <v>10841</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45921.562083333331</v>
+        <v>45920.44799768518</v>
       </c>
       <c r="H76" s="1">
-        <v>45861.562083333331</v>
+        <v>45860.450138888889</v>
       </c>
       <c r="I76" s="2">
-        <v>-44</v>
+        <v>-42</v>
       </c>
       <c r="J76" s="3">
-        <v>518.65</v>
+        <v>391.77</v>
       </c>
       <c r="K76" s="3">
-        <v>518.65</v>
+        <v>391.77</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3748,25 +3748,25 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>10942</v>
+        <v>10940</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45921.562106481477</v>
+        <v>45921.562048611107</v>
       </c>
       <c r="H77" s="1">
-        <v>45861.562106481477</v>
+        <v>45861.562060185184</v>
       </c>
       <c r="I77" s="2">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="J77" s="3">
-        <v>325.40000000000003</v>
+        <v>184.52</v>
       </c>
       <c r="K77" s="3">
-        <v>325.40000000000003</v>
+        <v>184.52</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3789,25 +3789,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>11119</v>
+        <v>10941</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45926.540925925925</v>
+        <v>45921.562083333331</v>
       </c>
       <c r="H78" s="1">
-        <v>45866.540937500002</v>
+        <v>45861.562083333331</v>
       </c>
       <c r="I78" s="2">
-        <v>-49</v>
+        <v>-43</v>
       </c>
       <c r="J78" s="3">
-        <v>665</v>
+        <v>518.65</v>
       </c>
       <c r="K78" s="3">
-        <v>665</v>
+        <v>518.65</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3830,25 +3830,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>11120</v>
+        <v>10942</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45926.540960648148</v>
+        <v>45921.562106481477</v>
       </c>
       <c r="H79" s="1">
-        <v>45866.540960648148</v>
+        <v>45861.562106481477</v>
       </c>
       <c r="I79" s="2">
-        <v>-49</v>
+        <v>-43</v>
       </c>
       <c r="J79" s="3">
-        <v>131.55000000000001</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="K79" s="3">
-        <v>131.55000000000001</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3871,25 +3871,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>11186</v>
+        <v>11119</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45927.594328703701</v>
+        <v>45926.540925925925</v>
       </c>
       <c r="H80" s="1">
-        <v>45867.594340277778</v>
+        <v>45866.540937500002</v>
       </c>
       <c r="I80" s="2">
-        <v>-50</v>
+        <v>-48</v>
       </c>
       <c r="J80" s="3">
-        <v>379.86</v>
+        <v>665</v>
       </c>
       <c r="K80" s="3">
-        <v>379.86</v>
+        <v>665</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3912,25 +3912,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>11366</v>
+        <v>11120</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45930.614166666666</v>
+        <v>45926.540960648148</v>
       </c>
       <c r="H81" s="1">
-        <v>45870.614722222221</v>
+        <v>45866.540960648148</v>
       </c>
       <c r="I81" s="2">
-        <v>-53</v>
+        <v>-48</v>
       </c>
       <c r="J81" s="3">
-        <v>159.29</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="K81" s="3">
-        <v>159.29</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3953,25 +3953,25 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>11369</v>
+        <v>11186</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45930.684340277774</v>
+        <v>45927.594328703701</v>
       </c>
       <c r="H82" s="1">
-        <v>45870.684976851851</v>
+        <v>45867.594340277778</v>
       </c>
       <c r="I82" s="2">
-        <v>-53</v>
+        <v>-49</v>
       </c>
       <c r="J82" s="3">
-        <v>106.19</v>
+        <v>379.86</v>
       </c>
       <c r="K82" s="3">
-        <v>106.19</v>
+        <v>379.86</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3994,25 +3994,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>11428</v>
+        <v>11366</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45934.485219907408</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H83" s="1">
-        <v>45874.485219907408</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I83" s="2">
-        <v>-57</v>
+        <v>-52</v>
       </c>
       <c r="J83" s="3">
-        <v>56.480000000000004</v>
+        <v>159.29</v>
       </c>
       <c r="K83" s="3">
-        <v>56.480000000000004</v>
+        <v>159.29</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4035,25 +4035,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>11429</v>
+        <v>11369</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45934.485231481478</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H84" s="1">
-        <v>45874.485231481478</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I84" s="2">
-        <v>-57</v>
+        <v>-52</v>
       </c>
       <c r="J84" s="3">
-        <v>472.14</v>
+        <v>106.19</v>
       </c>
       <c r="K84" s="3">
-        <v>472.14</v>
+        <v>106.19</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4076,25 +4076,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>11430</v>
+        <v>11428</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45934.485266203701</v>
+        <v>45934.485219907408</v>
       </c>
       <c r="H85" s="1">
-        <v>45874.485266203701</v>
+        <v>45874.485219907408</v>
       </c>
       <c r="I85" s="2">
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="J85" s="3">
-        <v>405.8</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="K85" s="3">
-        <v>405.8</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4117,25 +4117,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>10687</v>
+        <v>11429</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45885.468888888885</v>
+        <v>45934.485231481478</v>
       </c>
       <c r="H86" s="1">
-        <v>45855.468888888885</v>
+        <v>45874.485231481478</v>
       </c>
       <c r="I86" s="2">
-        <v>-8</v>
+        <v>-56</v>
       </c>
       <c r="J86" s="3">
-        <v>542.13</v>
+        <v>472.14</v>
       </c>
       <c r="K86" s="3">
-        <v>542.13</v>
+        <v>472.14</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4146,84 +4146,84 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87">
-        <v>326</v>
+        <v>11430</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45777</v>
+        <v>45934.485266203701</v>
       </c>
       <c r="H87" s="1">
-        <v>45747</v>
+        <v>45874.485266203701</v>
       </c>
       <c r="I87" s="2">
-        <v>100</v>
+        <v>-56</v>
       </c>
       <c r="J87" s="3">
-        <v>-22</v>
+        <v>405.8</v>
       </c>
       <c r="K87" s="3">
-        <v>-22</v>
+        <v>405.8</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112050</v>
+        <v>211112043</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="E88">
-        <v>327</v>
+        <v>10687</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45777</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H88" s="1">
-        <v>45747</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I88" s="2">
-        <v>100</v>
+        <v>-7</v>
       </c>
       <c r="J88" s="3">
-        <v>-27.45</v>
+        <v>542.13</v>
       </c>
       <c r="K88" s="3">
-        <v>-27.45</v>
+        <v>542.13</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
       </c>
       <c r="M88" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
@@ -4252,13 +4252,13 @@
         <v>45747</v>
       </c>
       <c r="I89" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J89" s="3">
-        <v>-5.73</v>
+        <v>-22</v>
       </c>
       <c r="K89" s="3">
-        <v>-5.73</v>
+        <v>-22</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4269,84 +4269,84 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
       </c>
-      <c r="D90">
-        <v>2025</v>
+      <c r="D90" t="s">
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>546</v>
+        <v>327</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45879</v>
+        <v>45777</v>
       </c>
       <c r="H90" s="1">
-        <v>45819</v>
+        <v>45747</v>
       </c>
       <c r="I90" s="2">
-        <v>-2</v>
+        <v>101</v>
       </c>
       <c r="J90" s="3">
-        <v>-680.83</v>
+        <v>-27.45</v>
       </c>
       <c r="K90" s="3">
-        <v>-680.83</v>
+        <v>-27.45</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="E91">
-        <v>9182</v>
+        <v>328</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45881.340092592589</v>
+        <v>45777</v>
       </c>
       <c r="H91" s="1">
-        <v>45821.340949074074</v>
+        <v>45747</v>
       </c>
       <c r="I91" s="2">
-        <v>-4</v>
+        <v>101</v>
       </c>
       <c r="J91" s="3">
-        <v>968.26</v>
+        <v>-5.73</v>
       </c>
       <c r="K91" s="3">
-        <v>968.26</v>
+        <v>-5.73</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4363,25 +4363,25 @@
         <v>2025</v>
       </c>
       <c r="E92">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45885</v>
+        <v>45879</v>
       </c>
       <c r="H92" s="1">
-        <v>45825</v>
+        <v>45819</v>
       </c>
       <c r="I92" s="2">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="J92" s="3">
-        <v>-69.09</v>
+        <v>-680.83</v>
       </c>
       <c r="K92" s="3">
-        <v>-69.09</v>
+        <v>-680.83</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4404,25 +4404,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>9796</v>
+        <v>9182</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45894.634768518517</v>
+        <v>45881.340092592589</v>
       </c>
       <c r="H93" s="1">
-        <v>45834.635682870372</v>
+        <v>45821.340949074074</v>
       </c>
       <c r="I93" s="2">
-        <v>-17</v>
+        <v>-3</v>
       </c>
       <c r="J93" s="3">
-        <v>107.37</v>
+        <v>968.26</v>
       </c>
       <c r="K93" s="3">
-        <v>107.37</v>
+        <v>968.26</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4439,31 +4439,31 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D94">
+        <v>2025</v>
       </c>
       <c r="E94">
-        <v>10369</v>
+        <v>569</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45908.309050925927</v>
+        <v>45885</v>
       </c>
       <c r="H94" s="1">
-        <v>45848.309965277775</v>
+        <v>45825</v>
       </c>
       <c r="I94" s="2">
-        <v>-31</v>
+        <v>-7</v>
       </c>
       <c r="J94" s="3">
-        <v>1512.89</v>
+        <v>-69.09</v>
       </c>
       <c r="K94" s="3">
-        <v>1512.89</v>
+        <v>-69.09</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4480,31 +4480,31 @@
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>9796</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45922</v>
+        <v>45894.634768518517</v>
       </c>
       <c r="H95" s="1">
-        <v>45862</v>
+        <v>45834.635682870372</v>
       </c>
       <c r="I95" s="2">
-        <v>-45</v>
+        <v>-16</v>
       </c>
       <c r="J95" s="3">
-        <v>-15.38</v>
+        <v>107.37</v>
       </c>
       <c r="K95" s="3">
-        <v>-15.38</v>
+        <v>107.37</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4521,31 +4521,31 @@
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
       </c>
       <c r="E96">
-        <v>682</v>
+        <v>10369</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45922</v>
+        <v>45908.309050925927</v>
       </c>
       <c r="H96" s="1">
-        <v>45862</v>
+        <v>45848.309965277775</v>
       </c>
       <c r="I96" s="2">
-        <v>-45</v>
+        <v>-30</v>
       </c>
       <c r="J96" s="3">
-        <v>-606.93000000000006</v>
+        <v>1512.89</v>
       </c>
       <c r="K96" s="3">
-        <v>-606.93000000000006</v>
+        <v>1512.89</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -4562,31 +4562,31 @@
         <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E97">
-        <v>11013</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45923.283518518518</v>
+        <v>45922</v>
       </c>
       <c r="H97" s="1">
-        <v>45863.287939814814</v>
+        <v>45862</v>
       </c>
       <c r="I97" s="2">
-        <v>-46</v>
+        <v>-44</v>
       </c>
       <c r="J97" s="3">
-        <v>417.19</v>
+        <v>-15.38</v>
       </c>
       <c r="K97" s="3">
-        <v>417.19</v>
+        <v>-15.38</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -4603,31 +4603,31 @@
         <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
       </c>
       <c r="E98">
-        <v>11014</v>
+        <v>682</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45923.288171296292</v>
+        <v>45922</v>
       </c>
       <c r="H98" s="1">
-        <v>45863.288368055553</v>
+        <v>45862</v>
       </c>
       <c r="I98" s="2">
-        <v>-46</v>
+        <v>-44</v>
       </c>
       <c r="J98" s="3">
-        <v>606.93000000000006</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="K98" s="3">
-        <v>606.93000000000006</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
@@ -4650,25 +4650,25 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>11085</v>
+        <v>11013</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45923.645879629628</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H99" s="1">
-        <v>45863.645879629628</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I99" s="2">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="J99" s="3">
-        <v>726.19</v>
+        <v>417.19</v>
       </c>
       <c r="K99" s="3">
-        <v>726.19</v>
+        <v>417.19</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
@@ -4679,10 +4679,10 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4691,154 +4691,154 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>10043</v>
+        <v>11014</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45871.497939814813</v>
+        <v>45923.288171296292</v>
       </c>
       <c r="H100" s="1">
-        <v>45841.497939814813</v>
+        <v>45863.288368055553</v>
       </c>
       <c r="I100" s="2">
-        <v>6</v>
+        <v>-45</v>
       </c>
       <c r="J100" s="3">
-        <v>1040.5999999999999</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="K100" s="3">
-        <v>1040.5999999999999</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E101">
-        <v>14</v>
+        <v>11085</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45627</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H101" s="1">
-        <v>45567</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I101" s="2">
-        <v>250</v>
+        <v>-45</v>
       </c>
       <c r="J101" s="3">
-        <v>-463.01</v>
+        <v>726.19</v>
       </c>
       <c r="K101" s="3">
-        <v>-459.04</v>
+        <v>726.19</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
-      </c>
-      <c r="E102" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="E102">
+        <v>11609</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45629</v>
+        <v>45937.476863425924</v>
       </c>
       <c r="H102" s="1">
-        <v>45569</v>
+        <v>45877.477210648147</v>
       </c>
       <c r="I102" s="2">
-        <v>248</v>
+        <v>-59</v>
       </c>
       <c r="J102" s="3">
-        <v>-39741.590000000004</v>
+        <v>957.27</v>
       </c>
       <c r="K102" s="3">
-        <v>-2522.2600000000002</v>
+        <v>957.27</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112151</v>
+        <v>211112098</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>331</v>
+        <v>10043</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45816</v>
+        <v>45871.497939814813</v>
       </c>
       <c r="H103" s="1">
-        <v>45756</v>
+        <v>45841.497939814813</v>
       </c>
       <c r="I103" s="2">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="J103" s="3">
-        <v>-2377.96</v>
+        <v>1040.5999999999999</v>
       </c>
       <c r="K103" s="3">
-        <v>-2377.96</v>
+        <v>1040.5999999999999</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4851,35 +4851,35 @@
       <c r="C104" t="s">
         <v>24</v>
       </c>
-      <c r="D104">
-        <v>2025</v>
+      <c r="D104" t="s">
+        <v>39</v>
       </c>
       <c r="E104">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45816</v>
+        <v>45627</v>
       </c>
       <c r="H104" s="1">
-        <v>45756</v>
+        <v>45567</v>
       </c>
       <c r="I104" s="2">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="J104" s="3">
-        <v>-1248.79</v>
+        <v>-463.01</v>
       </c>
       <c r="K104" s="3">
-        <v>-1248.79</v>
+        <v>-459.04</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4890,37 +4890,37 @@
         <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105">
-        <v>8893</v>
+        <v>42</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45873.43032407407</v>
+        <v>45629</v>
       </c>
       <c r="H105" s="1">
-        <v>45813.430856481478</v>
+        <v>45569</v>
       </c>
       <c r="I105" s="2">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="J105" s="3">
-        <v>3413.67</v>
+        <v>-39741.590000000004</v>
       </c>
       <c r="K105" s="3">
-        <v>3413.67</v>
+        <v>-2522.2600000000002</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4931,37 +4931,37 @@
         <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D106">
+        <v>2025</v>
       </c>
       <c r="E106">
-        <v>8894</v>
+        <v>331</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45873.431076388886</v>
+        <v>45816</v>
       </c>
       <c r="H106" s="1">
-        <v>45813.431388888886</v>
+        <v>45756</v>
       </c>
       <c r="I106" s="2">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="J106" s="3">
-        <v>2973.26</v>
+        <v>-2377.96</v>
       </c>
       <c r="K106" s="3">
-        <v>2973.26</v>
+        <v>-2377.96</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4972,37 +4972,37 @@
         <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D107">
+        <v>2025</v>
       </c>
       <c r="E107">
-        <v>9177</v>
+        <v>332</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45880.637939814813</v>
+        <v>45816</v>
       </c>
       <c r="H107" s="1">
-        <v>45820.639421296291</v>
+        <v>45756</v>
       </c>
       <c r="I107" s="2">
-        <v>-3</v>
+        <v>62</v>
       </c>
       <c r="J107" s="3">
-        <v>3277.76</v>
+        <v>-1248.79</v>
       </c>
       <c r="K107" s="3">
-        <v>3277.76</v>
+        <v>-1248.79</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5019,31 +5019,31 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>9560</v>
+        <v>8893</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45888.627025462964</v>
+        <v>45873.43032407407</v>
       </c>
       <c r="H108" s="1">
-        <v>45828.628541666665</v>
+        <v>45813.430856481478</v>
       </c>
       <c r="I108" s="2">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="J108" s="3">
-        <v>2976.7400000000002</v>
+        <v>3413.67</v>
       </c>
       <c r="K108" s="3">
-        <v>2976.7400000000002</v>
+        <v>3413.67</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5057,34 +5057,34 @@
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E109">
-        <v>123</v>
+        <v>8894</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45888.628900462958</v>
+        <v>45873.431076388886</v>
       </c>
       <c r="H109" s="1">
-        <v>45828.673252314809</v>
+        <v>45813.431388888886</v>
       </c>
       <c r="I109" s="2">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="J109" s="3">
-        <v>1721.02</v>
+        <v>2973.26</v>
       </c>
       <c r="K109" s="3">
-        <v>1721.02</v>
+        <v>2973.26</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5101,25 +5101,25 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>9800</v>
+        <v>9177</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45894.651828703703</v>
+        <v>45880.637939814813</v>
       </c>
       <c r="H110" s="1">
-        <v>45834.65211805555</v>
+        <v>45820.639421296291</v>
       </c>
       <c r="I110" s="2">
-        <v>-17</v>
+        <v>-2</v>
       </c>
       <c r="J110" s="3">
-        <v>617.68000000000006</v>
+        <v>3277.76</v>
       </c>
       <c r="K110" s="3">
-        <v>617.68000000000006</v>
+        <v>3277.76</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -5142,25 +5142,25 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>9801</v>
+        <v>9560</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45894.653275462959</v>
+        <v>45888.627025462964</v>
       </c>
       <c r="H111" s="1">
-        <v>45834.653495370367</v>
+        <v>45828.628541666665</v>
       </c>
       <c r="I111" s="2">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="J111" s="3">
-        <v>1272.99</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="K111" s="3">
-        <v>1272.99</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -5180,28 +5180,28 @@
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E112">
-        <v>9911</v>
+        <v>123</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45898.70108796296</v>
+        <v>45888.628900462958</v>
       </c>
       <c r="H112" s="1">
-        <v>45838.702037037037</v>
+        <v>45828.673252314809</v>
       </c>
       <c r="I112" s="2">
-        <v>-21</v>
+        <v>-10</v>
       </c>
       <c r="J112" s="3">
-        <v>2730.67</v>
+        <v>1721.02</v>
       </c>
       <c r="K112" s="3">
-        <v>2730.67</v>
+        <v>1721.02</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -5224,25 +5224,25 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>10234</v>
+        <v>9800</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45905.634965277779</v>
+        <v>45894.651828703703</v>
       </c>
       <c r="H113" s="1">
-        <v>45845.635636574072</v>
+        <v>45834.65211805555</v>
       </c>
       <c r="I113" s="2">
-        <v>-28</v>
+        <v>-16</v>
       </c>
       <c r="J113" s="3">
-        <v>2189.11</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="K113" s="3">
-        <v>2189.11</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -5265,25 +5265,25 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>10548</v>
+        <v>9801</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45913.353020833332</v>
+        <v>45894.653275462959</v>
       </c>
       <c r="H114" s="1">
-        <v>45853.353888888887</v>
+        <v>45834.653495370367</v>
       </c>
       <c r="I114" s="2">
-        <v>-36</v>
+        <v>-16</v>
       </c>
       <c r="J114" s="3">
-        <v>4871.05</v>
+        <v>1272.99</v>
       </c>
       <c r="K114" s="3">
-        <v>4871.05</v>
+        <v>1272.99</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -5306,25 +5306,25 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>11138</v>
+        <v>9911</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45927.358495370368</v>
+        <v>45898.70108796296</v>
       </c>
       <c r="H115" s="1">
-        <v>45867.359340277777</v>
+        <v>45838.702037037037</v>
       </c>
       <c r="I115" s="2">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="J115" s="3">
-        <v>1891.52</v>
+        <v>2730.67</v>
       </c>
       <c r="K115" s="3">
-        <v>1891.52</v>
+        <v>2730.67</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -5347,25 +5347,25 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>11469</v>
+        <v>10234</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45935.331585648149</v>
+        <v>45905.634965277779</v>
       </c>
       <c r="H116" s="1">
-        <v>45875.332268518519</v>
+        <v>45845.635636574072</v>
       </c>
       <c r="I116" s="2">
-        <v>-58</v>
+        <v>-27</v>
       </c>
       <c r="J116" s="3">
-        <v>2536.7800000000002</v>
+        <v>2189.11</v>
       </c>
       <c r="K116" s="3">
-        <v>2536.7800000000002</v>
+        <v>2189.11</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -5388,25 +5388,25 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>11470</v>
+        <v>10548</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45935.332488425927</v>
+        <v>45913.353020833332</v>
       </c>
       <c r="H117" s="1">
-        <v>45875.332824074074</v>
+        <v>45853.353888888887</v>
       </c>
       <c r="I117" s="2">
-        <v>-58</v>
+        <v>-35</v>
       </c>
       <c r="J117" s="3">
-        <v>1486.91</v>
+        <v>4871.05</v>
       </c>
       <c r="K117" s="3">
-        <v>1486.91</v>
+        <v>4871.05</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
@@ -5417,51 +5417,51 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112183</v>
+        <v>211112151</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
       </c>
       <c r="E118">
-        <v>14</v>
+        <v>11138</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45693</v>
+        <v>45927.358495370368</v>
       </c>
       <c r="H118" s="1">
-        <v>45663</v>
+        <v>45867.359340277777</v>
       </c>
       <c r="I118" s="2">
-        <v>184</v>
+        <v>-49</v>
       </c>
       <c r="J118" s="3">
-        <v>-4385.22</v>
+        <v>1891.52</v>
       </c>
       <c r="K118" s="3">
-        <v>-782.21</v>
+        <v>1891.52</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5470,113 +5470,113 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>8763</v>
+        <v>11469</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45841.406585648147</v>
+        <v>45935.331585648149</v>
       </c>
       <c r="H119" s="1">
-        <v>45811.406979166662</v>
+        <v>45875.332268518519</v>
       </c>
       <c r="I119" s="2">
-        <v>36</v>
+        <v>-57</v>
       </c>
       <c r="J119" s="3">
-        <v>808.13</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="K119" s="3">
-        <v>143.54</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B120" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E120">
-        <v>122</v>
+        <v>11470</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45858.629687499997</v>
+        <v>45935.332488425927</v>
       </c>
       <c r="H120" s="1">
-        <v>45828.63045138889</v>
+        <v>45875.332824074074</v>
       </c>
       <c r="I120" s="2">
-        <v>19</v>
+        <v>-57</v>
       </c>
       <c r="J120" s="3">
-        <v>675.35</v>
+        <v>1486.91</v>
       </c>
       <c r="K120" s="3">
-        <v>255.70000000000002</v>
+        <v>1486.91</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>211112216</v>
+        <v>211112183</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D121">
+        <v>2025</v>
       </c>
       <c r="E121">
-        <v>9924</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45869.354363425926</v>
+        <v>45693</v>
       </c>
       <c r="H121" s="1">
-        <v>45839.356215277774</v>
+        <v>45663</v>
       </c>
       <c r="I121" s="2">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="J121" s="3">
-        <v>574.62</v>
+        <v>-4385.22</v>
       </c>
       <c r="K121" s="3">
-        <v>57.78</v>
+        <v>-782.21</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5593,318 +5593,318 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>11575</v>
+        <v>8763</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45906.462129629625</v>
+        <v>45841.406585648147</v>
       </c>
       <c r="H122" s="1">
-        <v>45876.462129629625</v>
+        <v>45811.406979166662</v>
       </c>
       <c r="I122" s="2">
-        <v>-29</v>
+        <v>37</v>
       </c>
       <c r="J122" s="3">
-        <v>647.14</v>
+        <v>808.13</v>
       </c>
       <c r="K122" s="3">
-        <v>647.14</v>
+        <v>143.54</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211112290</v>
+        <v>211112216</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E123">
-        <v>10786</v>
+        <v>122</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45916.621446759258</v>
+        <v>45858.629687499997</v>
       </c>
       <c r="H123" s="1">
-        <v>45856.622523148144</v>
+        <v>45828.63045138889</v>
       </c>
       <c r="I123" s="2">
-        <v>-39</v>
+        <v>20</v>
       </c>
       <c r="J123" s="3">
-        <v>2347.12</v>
+        <v>675.35</v>
       </c>
       <c r="K123" s="3">
-        <v>2347.12</v>
+        <v>255.70000000000002</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211112334</v>
+        <v>211112216</v>
       </c>
       <c r="B124" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C124" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>42</v>
-      </c>
-      <c r="E124" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="E124">
+        <v>9924</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45406</v>
+        <v>45869.354363425926</v>
       </c>
       <c r="H124" s="1">
-        <v>45391</v>
+        <v>45839.356215277774</v>
       </c>
       <c r="I124" s="2">
-        <v>471</v>
+        <v>9</v>
       </c>
       <c r="J124" s="3">
-        <v>597.29</v>
+        <v>574.62</v>
       </c>
       <c r="K124" s="3">
-        <v>597.29</v>
+        <v>57.78</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211112334</v>
+        <v>211112216</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C125" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="E125">
+        <v>11575</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45406</v>
+        <v>45906.462129629625</v>
       </c>
       <c r="H125" s="1">
-        <v>45391</v>
+        <v>45876.462129629625</v>
       </c>
       <c r="I125" s="2">
-        <v>471</v>
+        <v>-28</v>
       </c>
       <c r="J125" s="3">
-        <v>591.72</v>
+        <v>647.14</v>
       </c>
       <c r="K125" s="3">
-        <v>591.72</v>
+        <v>647.14</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112334</v>
+        <v>211112290</v>
       </c>
       <c r="B126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>42</v>
-      </c>
-      <c r="E126" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="E126">
+        <v>10786</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45419</v>
+        <v>45916.621446759258</v>
       </c>
       <c r="H126" s="1">
-        <v>45404</v>
+        <v>45856.622523148144</v>
       </c>
       <c r="I126" s="2">
-        <v>458</v>
+        <v>-38</v>
       </c>
       <c r="J126" s="3">
-        <v>599.27</v>
+        <v>2347.12</v>
       </c>
       <c r="K126" s="3">
-        <v>599.27</v>
+        <v>2347.12</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127">
-        <v>411</v>
+        <v>42</v>
+      </c>
+      <c r="E127" t="s">
+        <v>50</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45837</v>
+        <v>45406</v>
       </c>
       <c r="H127" s="1">
-        <v>45777</v>
+        <v>45391</v>
       </c>
       <c r="I127" s="2">
+        <v>472</v>
+      </c>
+      <c r="J127" s="3">
+        <v>597.29</v>
+      </c>
+      <c r="K127" s="3">
+        <v>597.29</v>
+      </c>
+      <c r="L127" t="s">
+        <v>17</v>
+      </c>
+      <c r="M127" t="s">
         <v>40</v>
-      </c>
-      <c r="J127" s="3">
-        <v>-313.76</v>
-      </c>
-      <c r="K127" s="3">
-        <v>-313.76</v>
-      </c>
-      <c r="L127" t="s">
-        <v>17</v>
-      </c>
-      <c r="M127" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128">
-        <v>7018</v>
+        <v>42</v>
+      </c>
+      <c r="E128" t="s">
+        <v>51</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45837.739259259259</v>
+        <v>45406</v>
       </c>
       <c r="H128" s="1">
-        <v>45777.741296296292</v>
+        <v>45391</v>
       </c>
       <c r="I128" s="2">
+        <v>472</v>
+      </c>
+      <c r="J128" s="3">
+        <v>591.72</v>
+      </c>
+      <c r="K128" s="3">
+        <v>591.72</v>
+      </c>
+      <c r="L128" t="s">
+        <v>17</v>
+      </c>
+      <c r="M128" t="s">
         <v>40</v>
-      </c>
-      <c r="J128" s="3">
-        <v>4925.1000000000004</v>
-      </c>
-      <c r="K128" s="3">
-        <v>4925.1000000000004</v>
-      </c>
-      <c r="L128" t="s">
-        <v>17</v>
-      </c>
-      <c r="M128" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129">
-        <v>7192</v>
+        <v>42</v>
+      </c>
+      <c r="E129" t="s">
+        <v>52</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45843.368854166663</v>
+        <v>45419</v>
       </c>
       <c r="H129" s="1">
-        <v>45783.369363425925</v>
+        <v>45404</v>
       </c>
       <c r="I129" s="2">
-        <v>34</v>
+        <v>459</v>
       </c>
       <c r="J129" s="3">
-        <v>4675.67</v>
+        <v>599.27</v>
       </c>
       <c r="K129" s="3">
-        <v>4675.67</v>
+        <v>599.27</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
       </c>
       <c r="M129" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5915,31 +5915,31 @@
         <v>53</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="E130">
-        <v>7370</v>
+        <v>411</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45845.34983796296</v>
+        <v>45837</v>
       </c>
       <c r="H130" s="1">
-        <v>45785.350659722222</v>
+        <v>45777</v>
       </c>
       <c r="I130" s="2">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J130" s="3">
-        <v>4323.37</v>
+        <v>-313.76</v>
       </c>
       <c r="K130" s="3">
-        <v>4323.37</v>
+        <v>-313.76</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -5962,31 +5962,31 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>7619</v>
+        <v>7018</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45850.387407407405</v>
+        <v>45837.739259259259</v>
       </c>
       <c r="H131" s="1">
-        <v>45790.388252314813</v>
+        <v>45777.741296296292</v>
       </c>
       <c r="I131" s="2">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J131" s="3">
-        <v>7394.88</v>
+        <v>4925.1000000000004</v>
       </c>
       <c r="K131" s="3">
-        <v>7394.88</v>
+        <v>4925.1000000000004</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6003,31 +6003,31 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>8006</v>
+        <v>7192</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45857.37296296296</v>
+        <v>45843.368854166663</v>
       </c>
       <c r="H132" s="1">
-        <v>45797.375092592592</v>
+        <v>45783.369363425925</v>
       </c>
       <c r="I132" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J132" s="3">
-        <v>3927.87</v>
+        <v>4675.67</v>
       </c>
       <c r="K132" s="3">
-        <v>3927.87</v>
+        <v>4675.67</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6044,31 +6044,31 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>8750</v>
+        <v>7370</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45871.312986111108</v>
+        <v>45845.34983796296</v>
       </c>
       <c r="H133" s="1">
-        <v>45811.315150462964</v>
+        <v>45785.350659722222</v>
       </c>
       <c r="I133" s="2">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J133" s="3">
-        <v>2626.23</v>
+        <v>4323.37</v>
       </c>
       <c r="K133" s="3">
-        <v>2626.23</v>
+        <v>4323.37</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6085,39 +6085,39 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>9758</v>
+        <v>7619</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45894.404513888891</v>
+        <v>45850.387407407405</v>
       </c>
       <c r="H134" s="1">
-        <v>45834.411666666667</v>
+        <v>45790.388252314813</v>
       </c>
       <c r="I134" s="2">
-        <v>-17</v>
+        <v>28</v>
       </c>
       <c r="J134" s="3">
-        <v>2212.2600000000002</v>
+        <v>7394.88</v>
       </c>
       <c r="K134" s="3">
-        <v>2212.2600000000002</v>
+        <v>7394.88</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112421</v>
+        <v>211112351</v>
       </c>
       <c r="B135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6126,39 +6126,39 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>3848</v>
+        <v>8006</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45746.622569444444</v>
+        <v>45857.37296296296</v>
       </c>
       <c r="H135" s="1">
-        <v>45716.624456018515</v>
+        <v>45797.375092592592</v>
       </c>
       <c r="I135" s="2">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="J135" s="3">
-        <v>233.77</v>
+        <v>3927.87</v>
       </c>
       <c r="K135" s="3">
-        <v>233.77</v>
+        <v>3927.87</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112443</v>
+        <v>211112351</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6167,39 +6167,39 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>8418</v>
+        <v>8750</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45834.405034722222</v>
+        <v>45871.312986111108</v>
       </c>
       <c r="H136" s="1">
-        <v>45804.405219907407</v>
+        <v>45811.315150462964</v>
       </c>
       <c r="I136" s="2">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="J136" s="3">
-        <v>396.04</v>
+        <v>2626.23</v>
       </c>
       <c r="K136" s="3">
-        <v>396.04</v>
+        <v>2626.23</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112443</v>
+        <v>211112351</v>
       </c>
       <c r="B137" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6208,39 +6208,39 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>8910</v>
+        <v>9758</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45843.497025462959</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H137" s="1">
-        <v>45813.497488425921</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I137" s="2">
-        <v>34</v>
+        <v>-16</v>
       </c>
       <c r="J137" s="3">
-        <v>765.47</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K137" s="3">
-        <v>765.47</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112443</v>
+        <v>211112421</v>
       </c>
       <c r="B138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6249,39 +6249,39 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>10549</v>
+        <v>3848</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45883.354108796295</v>
+        <v>45746.622569444444</v>
       </c>
       <c r="H138" s="1">
-        <v>45853.354548611111</v>
+        <v>45716.624456018515</v>
       </c>
       <c r="I138" s="2">
-        <v>-6</v>
+        <v>132</v>
       </c>
       <c r="J138" s="3">
-        <v>1094.7</v>
+        <v>233.77</v>
       </c>
       <c r="K138" s="3">
-        <v>1094.7</v>
+        <v>233.77</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112455</v>
+        <v>211112443</v>
       </c>
       <c r="B139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6290,39 +6290,39 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>9798</v>
+        <v>8418</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45864.648715277777</v>
+        <v>45834.405034722222</v>
       </c>
       <c r="H139" s="1">
-        <v>45834.649039351847</v>
+        <v>45804.405219907407</v>
       </c>
       <c r="I139" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="J139" s="3">
-        <v>2220.65</v>
+        <v>396.04</v>
       </c>
       <c r="K139" s="3">
-        <v>2220.65</v>
+        <v>396.04</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112455</v>
+        <v>211112443</v>
       </c>
       <c r="B140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6331,39 +6331,39 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>9912</v>
+        <v>8910</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45868.70212962963</v>
+        <v>45843.497025462959</v>
       </c>
       <c r="H140" s="1">
-        <v>45838.702465277776</v>
+        <v>45813.497488425921</v>
       </c>
       <c r="I140" s="2">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J140" s="3">
-        <v>2033.5</v>
+        <v>765.47</v>
       </c>
       <c r="K140" s="3">
-        <v>2033.5</v>
+        <v>765.47</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112455</v>
+        <v>211112443</v>
       </c>
       <c r="B141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6372,25 +6372,25 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>10545</v>
+        <v>10549</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45883.337488425925</v>
+        <v>45883.354108796295</v>
       </c>
       <c r="H141" s="1">
-        <v>45853.348136574074</v>
+        <v>45853.354548611111</v>
       </c>
       <c r="I141" s="2">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="J141" s="3">
-        <v>1711.91</v>
+        <v>1094.7</v>
       </c>
       <c r="K141" s="3">
-        <v>1711.91</v>
+        <v>1094.7</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -6413,31 +6413,31 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>10837</v>
+        <v>9912</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45890.319421296292</v>
+        <v>45868.70212962963</v>
       </c>
       <c r="H142" s="1">
-        <v>45860.320057870369</v>
+        <v>45838.702465277776</v>
       </c>
       <c r="I142" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="J142" s="3">
-        <v>1555.67</v>
+        <v>2033.5</v>
       </c>
       <c r="K142" s="3">
-        <v>1555.67</v>
+        <v>2033.5</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6454,25 +6454,25 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>11299</v>
+        <v>10545</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45900.301238425927</v>
+        <v>45883.337488425925</v>
       </c>
       <c r="H143" s="1">
-        <v>45870.301851851851</v>
+        <v>45853.348136574074</v>
       </c>
       <c r="I143" s="2">
-        <v>-23</v>
+        <v>-5</v>
       </c>
       <c r="J143" s="3">
-        <v>1512.3600000000001</v>
+        <v>1711.91</v>
       </c>
       <c r="K143" s="3">
-        <v>1512.3600000000001</v>
+        <v>1711.91</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -6495,25 +6495,25 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>11471</v>
+        <v>10837</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45905.332974537036</v>
+        <v>45890.319421296292</v>
       </c>
       <c r="H144" s="1">
-        <v>45875.333553240736</v>
+        <v>45860.320057870369</v>
       </c>
       <c r="I144" s="2">
-        <v>-28</v>
+        <v>-12</v>
       </c>
       <c r="J144" s="3">
-        <v>1789.6000000000001</v>
+        <v>1555.67</v>
       </c>
       <c r="K144" s="3">
-        <v>1789.6000000000001</v>
+        <v>1555.67</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112469</v>
+        <v>211112455</v>
       </c>
       <c r="B145" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6536,25 +6536,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>10547</v>
+        <v>11299</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45883.352349537032</v>
+        <v>45900.301238425927</v>
       </c>
       <c r="H145" s="1">
-        <v>45853.352858796294</v>
+        <v>45870.301851851851</v>
       </c>
       <c r="I145" s="2">
-        <v>-6</v>
+        <v>-22</v>
       </c>
       <c r="J145" s="3">
-        <v>957.17000000000007</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="K145" s="3">
-        <v>957.17000000000007</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6565,37 +6565,37 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112469</v>
+        <v>211112455</v>
       </c>
       <c r="B146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E146">
-        <v>7</v>
+        <v>11471</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45892</v>
+        <v>45905.332974537036</v>
       </c>
       <c r="H146" s="1">
-        <v>45862</v>
+        <v>45875.333553240736</v>
       </c>
       <c r="I146" s="2">
-        <v>-15</v>
+        <v>-27</v>
       </c>
       <c r="J146" s="3">
-        <v>-15.38</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="K146" s="3">
-        <v>-15.38</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -6618,25 +6618,25 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>11558</v>
+        <v>10547</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45906.43645833333</v>
+        <v>45883.352349537032</v>
       </c>
       <c r="H147" s="1">
-        <v>45876.437384259254</v>
+        <v>45853.352858796294</v>
       </c>
       <c r="I147" s="2">
-        <v>-29</v>
+        <v>-5</v>
       </c>
       <c r="J147" s="3">
-        <v>1107.6200000000001</v>
+        <v>957.17000000000007</v>
       </c>
       <c r="K147" s="3">
-        <v>1107.6200000000001</v>
+        <v>957.17000000000007</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -6647,51 +6647,51 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112476</v>
+        <v>211112469</v>
       </c>
       <c r="B148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E148">
-        <v>10023</v>
+        <v>7</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45871.36619212963</v>
+        <v>45892</v>
       </c>
       <c r="H148" s="1">
-        <v>45841.366562499999</v>
+        <v>45862</v>
       </c>
       <c r="I148" s="2">
-        <v>6</v>
+        <v>-14</v>
       </c>
       <c r="J148" s="3">
-        <v>275.11</v>
+        <v>-15.38</v>
       </c>
       <c r="K148" s="3">
-        <v>275.11</v>
+        <v>-15.38</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112476</v>
+        <v>211112469</v>
       </c>
       <c r="B149" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6700,25 +6700,25 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>10666</v>
+        <v>11558</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="1">
-        <v>45885.346874999996</v>
+        <v>45906.43645833333</v>
       </c>
       <c r="H149" s="1">
-        <v>45855.347696759258</v>
+        <v>45876.437384259254</v>
       </c>
       <c r="I149" s="2">
-        <v>-8</v>
+        <v>-28</v>
       </c>
       <c r="J149" s="3">
-        <v>211.36</v>
+        <v>1107.6200000000001</v>
       </c>
       <c r="K149" s="3">
-        <v>211.36</v>
+        <v>1107.6200000000001</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
@@ -6729,10 +6729,10 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112488</v>
+        <v>211112476</v>
       </c>
       <c r="B150" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6741,39 +6741,39 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>9567</v>
+        <v>10023</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" s="1">
-        <v>45828.710740740738</v>
+        <v>45871.36619212963</v>
       </c>
       <c r="H150" s="1">
-        <v>45828.710740740738</v>
+        <v>45841.366562499999</v>
       </c>
       <c r="I150" s="2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J150" s="3">
-        <v>992.69</v>
+        <v>275.11</v>
       </c>
       <c r="K150" s="3">
-        <v>992.69</v>
+        <v>275.11</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112488</v>
+        <v>211112476</v>
       </c>
       <c r="B151" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6782,31 +6782,31 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>10184</v>
+        <v>10666</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>45842.656388888885</v>
+        <v>45885.346874999996</v>
       </c>
       <c r="H151" s="1">
-        <v>45842.656388888885</v>
+        <v>45855.347696759258</v>
       </c>
       <c r="I151" s="2">
-        <v>35</v>
+        <v>-7</v>
       </c>
       <c r="J151" s="3">
-        <v>1008.07</v>
+        <v>211.36</v>
       </c>
       <c r="K151" s="3">
-        <v>1008.07</v>
+        <v>211.36</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
       </c>
       <c r="M151" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6817,45 +6817,45 @@
         <v>59</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
-      </c>
-      <c r="D152">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
       </c>
       <c r="E152">
-        <v>639</v>
+        <v>9567</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="1">
-        <v>45848</v>
+        <v>45828.710740740738</v>
       </c>
       <c r="H152" s="1">
-        <v>45848</v>
+        <v>45828.710740740738</v>
       </c>
       <c r="I152" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J152" s="3">
-        <v>-992.69</v>
+        <v>992.69</v>
       </c>
       <c r="K152" s="3">
-        <v>-992.69</v>
+        <v>992.69</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
       </c>
       <c r="M152" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112494</v>
+        <v>211112488</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6864,154 +6864,154 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>5411</v>
+        <v>10184</v>
       </c>
       <c r="F153" t="s">
         <v>16</v>
       </c>
       <c r="G153" s="1">
-        <v>45777.661319444444</v>
+        <v>45842.656388888885</v>
       </c>
       <c r="H153" s="1">
-        <v>45747.663402777776</v>
+        <v>45842.656388888885</v>
       </c>
       <c r="I153" s="2">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J153" s="3">
-        <v>213.1</v>
+        <v>1008.07</v>
       </c>
       <c r="K153" s="3">
-        <v>213.1</v>
+        <v>1008.07</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211112494</v>
+        <v>211112488</v>
       </c>
       <c r="B154" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D154">
+        <v>2025</v>
       </c>
       <c r="E154">
-        <v>6692</v>
+        <v>639</v>
       </c>
       <c r="F154" t="s">
         <v>16</v>
       </c>
       <c r="G154" s="1">
-        <v>45800.410613425927</v>
+        <v>45848</v>
       </c>
       <c r="H154" s="1">
-        <v>45770.412349537037</v>
+        <v>45848</v>
       </c>
       <c r="I154" s="2">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="J154" s="3">
-        <v>177.04</v>
+        <v>-992.69</v>
       </c>
       <c r="K154" s="3">
-        <v>177.04</v>
+        <v>-992.69</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
       </c>
       <c r="M154" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112515</v>
+        <v>211112494</v>
       </c>
       <c r="B155" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
-      </c>
-      <c r="D155">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>575</v>
+        <v>5411</v>
       </c>
       <c r="F155" t="s">
         <v>16</v>
       </c>
       <c r="G155" s="1">
-        <v>45861</v>
+        <v>45777.661319444444</v>
       </c>
       <c r="H155" s="1">
-        <v>45831</v>
+        <v>45747.663402777776</v>
       </c>
       <c r="I155" s="2">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="J155" s="3">
-        <v>-390.40000000000003</v>
+        <v>213.1</v>
       </c>
       <c r="K155" s="3">
-        <v>-390.40000000000003</v>
+        <v>213.1</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211112515</v>
+        <v>211112494</v>
       </c>
       <c r="B156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
-      </c>
-      <c r="D156">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
       </c>
       <c r="E156">
-        <v>621</v>
+        <v>6692</v>
       </c>
       <c r="F156" t="s">
         <v>16</v>
       </c>
       <c r="G156" s="1">
-        <v>45875</v>
+        <v>45800.410613425927</v>
       </c>
       <c r="H156" s="1">
-        <v>45845</v>
+        <v>45770.412349537037</v>
       </c>
       <c r="I156" s="2">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="J156" s="3">
-        <v>-49.21</v>
+        <v>177.04</v>
       </c>
       <c r="K156" s="3">
-        <v>-49.21</v>
+        <v>177.04</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
       </c>
       <c r="M156" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7024,35 +7024,35 @@
       <c r="C157" t="s">
         <v>24</v>
       </c>
-      <c r="D157" t="s">
-        <v>64</v>
+      <c r="D157">
+        <v>2025</v>
       </c>
       <c r="E157">
-        <v>3</v>
+        <v>575</v>
       </c>
       <c r="F157" t="s">
         <v>16</v>
       </c>
       <c r="G157" s="1">
-        <v>45892</v>
+        <v>45861</v>
       </c>
       <c r="H157" s="1">
-        <v>45862</v>
+        <v>45831</v>
       </c>
       <c r="I157" s="2">
-        <v>-15</v>
+        <v>17</v>
       </c>
       <c r="J157" s="3">
-        <v>-15.38</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="K157" s="3">
-        <v>-15.38</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
       </c>
       <c r="M157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7069,31 +7069,31 @@
         <v>2025</v>
       </c>
       <c r="E158">
-        <v>696</v>
+        <v>621</v>
       </c>
       <c r="F158" t="s">
         <v>16</v>
       </c>
       <c r="G158" s="1">
-        <v>45893</v>
+        <v>45875</v>
       </c>
       <c r="H158" s="1">
-        <v>45863</v>
+        <v>45845</v>
       </c>
       <c r="I158" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="J158" s="3">
-        <v>-102.25</v>
+        <v>-49.21</v>
       </c>
       <c r="K158" s="3">
-        <v>-102.25</v>
+        <v>-49.21</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
       </c>
       <c r="M158" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7104,31 +7104,31 @@
         <v>61</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E159">
-        <v>11018</v>
+        <v>3</v>
       </c>
       <c r="F159" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="1">
-        <v>45893.344247685185</v>
+        <v>45892</v>
       </c>
       <c r="H159" s="1">
-        <v>45863.344930555555</v>
+        <v>45862</v>
       </c>
       <c r="I159" s="2">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="J159" s="3">
-        <v>653.94000000000005</v>
+        <v>-15.38</v>
       </c>
       <c r="K159" s="3">
-        <v>653.94000000000005</v>
+        <v>-15.38</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -7139,37 +7139,37 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>211112518</v>
+        <v>211112515</v>
       </c>
       <c r="B160" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D160">
+        <v>2025</v>
       </c>
       <c r="E160">
-        <v>9953</v>
+        <v>696</v>
       </c>
       <c r="F160" t="s">
         <v>16</v>
       </c>
       <c r="G160" s="1">
-        <v>45900.407731481479</v>
+        <v>45893</v>
       </c>
       <c r="H160" s="1">
-        <v>45840.408055555556</v>
+        <v>45863</v>
       </c>
       <c r="I160" s="2">
-        <v>-23</v>
+        <v>-15</v>
       </c>
       <c r="J160" s="3">
-        <v>358.40000000000003</v>
+        <v>-102.25</v>
       </c>
       <c r="K160" s="3">
-        <v>358.40000000000003</v>
+        <v>-102.25</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
@@ -7180,10 +7180,10 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>211112518</v>
+        <v>211112515</v>
       </c>
       <c r="B161" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -7192,25 +7192,25 @@
         <v>15</v>
       </c>
       <c r="E161">
-        <v>10114</v>
+        <v>11018</v>
       </c>
       <c r="F161" t="s">
         <v>16</v>
       </c>
       <c r="G161" s="1">
-        <v>45902.400694444441</v>
+        <v>45893.344247685185</v>
       </c>
       <c r="H161" s="1">
-        <v>45842.400694444441</v>
+        <v>45863.344930555555</v>
       </c>
       <c r="I161" s="2">
-        <v>-25</v>
+        <v>-15</v>
       </c>
       <c r="J161" s="3">
-        <v>219.86</v>
+        <v>653.94000000000005</v>
       </c>
       <c r="K161" s="3">
-        <v>219.86</v>
+        <v>653.94000000000005</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
@@ -7233,25 +7233,25 @@
         <v>15</v>
       </c>
       <c r="E162">
-        <v>10919</v>
+        <v>9953</v>
       </c>
       <c r="F162" t="s">
         <v>16</v>
       </c>
       <c r="G162" s="1">
-        <v>45921.540416666663</v>
+        <v>45900.407731481479</v>
       </c>
       <c r="H162" s="1">
-        <v>45861.54415509259</v>
+        <v>45840.408055555556</v>
       </c>
       <c r="I162" s="2">
-        <v>-44</v>
+        <v>-22</v>
       </c>
       <c r="J162" s="3">
-        <v>817.86</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="K162" s="3">
-        <v>817.86</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="L162" t="s">
         <v>17</v>
@@ -7262,10 +7262,10 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>211112531</v>
+        <v>211112518</v>
       </c>
       <c r="B163" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
@@ -7274,25 +7274,25 @@
         <v>15</v>
       </c>
       <c r="E163">
-        <v>10440</v>
+        <v>10114</v>
       </c>
       <c r="F163" t="s">
         <v>16</v>
       </c>
       <c r="G163" s="1">
-        <v>45879.370173611111</v>
+        <v>45902.400694444441</v>
       </c>
       <c r="H163" s="1">
-        <v>45849.370173611111</v>
+        <v>45842.400694444441</v>
       </c>
       <c r="I163" s="2">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="J163" s="3">
-        <v>210.75</v>
+        <v>219.86</v>
       </c>
       <c r="K163" s="3">
-        <v>210.75</v>
+        <v>219.86</v>
       </c>
       <c r="L163" t="s">
         <v>17</v>
@@ -7303,37 +7303,37 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>211112531</v>
+        <v>211112518</v>
       </c>
       <c r="B164" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
-      </c>
-      <c r="D164">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>15</v>
       </c>
       <c r="E164">
-        <v>681</v>
+        <v>10919</v>
       </c>
       <c r="F164" t="s">
         <v>16</v>
       </c>
       <c r="G164" s="1">
-        <v>45892</v>
+        <v>45921.540416666663</v>
       </c>
       <c r="H164" s="1">
-        <v>45862</v>
+        <v>45861.54415509259</v>
       </c>
       <c r="I164" s="2">
-        <v>-15</v>
+        <v>-43</v>
       </c>
       <c r="J164" s="3">
-        <v>-13.55</v>
+        <v>817.86</v>
       </c>
       <c r="K164" s="3">
-        <v>-13.55</v>
+        <v>817.86</v>
       </c>
       <c r="L164" t="s">
         <v>17</v>
@@ -7356,25 +7356,25 @@
         <v>15</v>
       </c>
       <c r="E165">
-        <v>11028</v>
+        <v>10440</v>
       </c>
       <c r="F165" t="s">
         <v>16</v>
       </c>
       <c r="G165" s="1">
-        <v>45893.474282407406</v>
+        <v>45879.370173611111</v>
       </c>
       <c r="H165" s="1">
-        <v>45863.474293981482</v>
+        <v>45849.370173611111</v>
       </c>
       <c r="I165" s="2">
-        <v>-16</v>
+        <v>-1</v>
       </c>
       <c r="J165" s="3">
-        <v>221.74</v>
+        <v>210.75</v>
       </c>
       <c r="K165" s="3">
-        <v>221.74</v>
+        <v>210.75</v>
       </c>
       <c r="L165" t="s">
         <v>17</v>
@@ -7391,36 +7391,118 @@
         <v>63</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="D166">
+        <v>2025</v>
       </c>
       <c r="E166">
+        <v>681</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="1">
+        <v>45892</v>
+      </c>
+      <c r="H166" s="1">
+        <v>45862</v>
+      </c>
+      <c r="I166" s="2">
+        <v>-14</v>
+      </c>
+      <c r="J166" s="3">
+        <v>-13.55</v>
+      </c>
+      <c r="K166" s="3">
+        <v>-13.55</v>
+      </c>
+      <c r="L166" t="s">
+        <v>17</v>
+      </c>
+      <c r="M166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>211112531</v>
+      </c>
+      <c r="B167" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167">
+        <v>11028</v>
+      </c>
+      <c r="F167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="1">
+        <v>45893.474282407406</v>
+      </c>
+      <c r="H167" s="1">
+        <v>45863.474293981482</v>
+      </c>
+      <c r="I167" s="2">
+        <v>-15</v>
+      </c>
+      <c r="J167" s="3">
+        <v>221.74</v>
+      </c>
+      <c r="K167" s="3">
+        <v>221.74</v>
+      </c>
+      <c r="L167" t="s">
+        <v>17</v>
+      </c>
+      <c r="M167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>211112531</v>
+      </c>
+      <c r="B168" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168">
         <v>11383</v>
       </c>
-      <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" s="1">
+      <c r="F168" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" s="1">
         <v>45903.496435185181</v>
       </c>
-      <c r="H166" s="1">
+      <c r="H168" s="1">
         <v>45873.497210648144</v>
       </c>
-      <c r="I166" s="2">
-        <v>-26</v>
-      </c>
-      <c r="J166" s="3">
+      <c r="I168" s="2">
+        <v>-25</v>
+      </c>
+      <c r="J168" s="3">
         <v>236.21</v>
       </c>
-      <c r="K166" s="3">
+      <c r="K168" s="3">
         <v>236.21</v>
       </c>
-      <c r="L166" t="s">
-        <v>17</v>
-      </c>
-      <c r="M166" t="s">
+      <c r="L168" t="s">
+        <v>17</v>
+      </c>
+      <c r="M168" t="s">
         <v>19</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7F5FC-20B4-46D0-84D2-7F4DDDEE3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0460B6-4622-4E49-941D-B11B873BFD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="61">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Artur Matos Xavier Forte &amp; Ca., Lda</t>
   </si>
   <si>
-    <t>Osfama - Dist. Import. E Export. De</t>
-  </si>
-  <si>
     <t>Paulo Lima-Soc.Unipessoal, Lda</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>Alimentar Desafios-Comércio De</t>
   </si>
   <si>
-    <t>61A90</t>
-  </si>
-  <si>
     <t>Mtz, Lda</t>
   </si>
   <si>
@@ -155,19 +149,10 @@
     <t>Glacialis Soc.Unipessoal,Lda</t>
   </si>
   <si>
-    <t>2024B</t>
-  </si>
-  <si>
     <t>M120</t>
   </si>
   <si>
-    <t>CCR</t>
-  </si>
-  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>eurofactor</t>
   </si>
   <si>
     <t>2025B</t>
@@ -218,9 +203,6 @@
     <t>Jupitergália, Lda</t>
   </si>
   <si>
-    <t>Campmar, Lda.</t>
-  </si>
-  <si>
     <t>Lordelodis - Soc. Distribuição S.A.</t>
   </si>
   <si>
@@ -231,6 +213,12 @@
   </si>
   <si>
     <t>2025P</t>
+  </si>
+  <si>
+    <t>Pereira &amp; Ribeiro, Lda.</t>
+  </si>
+  <si>
+    <t>Henrique Mendes Ribeiro - Mm,Lda</t>
   </si>
 </sst>
 </file>
@@ -605,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="S149" sqref="S149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,51 +649,51 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>211110102</v>
+        <v>211110034</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>512</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45872</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45842</v>
+      </c>
+      <c r="I2" s="2">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>10226</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45875.491770833331</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45845.491770833331</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3</v>
-      </c>
       <c r="J2" s="3">
-        <v>418.54</v>
+        <v>-4.08</v>
       </c>
       <c r="K2" s="3">
-        <v>418.54</v>
+        <v>-4.08</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>211110102</v>
+        <v>211110034</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -714,80 +702,80 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>11289</v>
+        <v>10154</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1">
-        <v>45899.506041666667</v>
+        <v>45872.493842592594</v>
       </c>
       <c r="H3" s="1">
-        <v>45869.506041666667</v>
+        <v>45842.493854166663</v>
       </c>
       <c r="I3" s="2">
-        <v>-21</v>
+        <v>12.506157407406135</v>
       </c>
       <c r="J3" s="3">
-        <v>470.6</v>
+        <v>323.56</v>
       </c>
       <c r="K3" s="3">
-        <v>470.6</v>
+        <v>323.56</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>211110434</v>
+        <v>211110034</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4">
-        <v>10249</v>
+        <v>523</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>45876.3825</v>
+        <v>45883</v>
       </c>
       <c r="H4" s="1">
-        <v>45846.3825</v>
+        <v>45853</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
       </c>
       <c r="J4" s="3">
-        <v>359.15000000000003</v>
+        <v>-6.62</v>
       </c>
       <c r="K4" s="3">
-        <v>359.15000000000003</v>
+        <v>-6.62</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>211110434</v>
+        <v>211110034</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -796,39 +784,39 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>10771</v>
+        <v>10564</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>45886.494351851848</v>
+        <v>45883.631342592591</v>
       </c>
       <c r="H5" s="1">
-        <v>45856.494363425925</v>
+        <v>45853.631354166668</v>
       </c>
       <c r="I5" s="2">
-        <v>-8</v>
+        <v>1.3686574074090458</v>
       </c>
       <c r="J5" s="3">
-        <v>1004.71</v>
+        <v>524.56000000000006</v>
       </c>
       <c r="K5" s="3">
-        <v>1004.71</v>
+        <v>524.56000000000006</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>211110477</v>
+        <v>211110102</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -837,25 +825,25 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>10713</v>
+        <v>10226</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45855.558912037035</v>
+        <v>45875.491770833331</v>
       </c>
       <c r="H6" s="1">
-        <v>45855.558912037035</v>
+        <v>45845.491770833331</v>
       </c>
       <c r="I6" s="2">
-        <v>23</v>
+        <v>9.50822916666948</v>
       </c>
       <c r="J6" s="3">
-        <v>223.16</v>
+        <v>418.54</v>
       </c>
       <c r="K6" s="3">
-        <v>223.16</v>
+        <v>418.54</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -866,51 +854,51 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>211110574</v>
+        <v>211110102</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>615</v>
+        <v>11289</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45872</v>
+        <v>45899.506041666667</v>
       </c>
       <c r="H7" s="1">
-        <v>45842</v>
+        <v>45869.506041666667</v>
       </c>
       <c r="I7" s="2">
-        <v>6</v>
+        <v>-14</v>
       </c>
       <c r="J7" s="3">
-        <v>-28.150000000000002</v>
+        <v>470.6</v>
       </c>
       <c r="K7" s="3">
-        <v>-28.150000000000002</v>
+        <v>470.6</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>211110574</v>
+        <v>211110434</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -919,31 +907,31 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>10155</v>
+        <v>10771</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45872.49386574074</v>
+        <v>45886.494351851848</v>
       </c>
       <c r="H8" s="1">
-        <v>45842.49386574074</v>
+        <v>45856.494363425925</v>
       </c>
       <c r="I8" s="2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="3">
-        <v>595.76</v>
+        <v>1004.71</v>
       </c>
       <c r="K8" s="3">
-        <v>595.76</v>
+        <v>1004.71</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -951,40 +939,40 @@
         <v>211110574</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45876</v>
+        <v>45872</v>
       </c>
       <c r="H9" s="1">
-        <v>45846</v>
+        <v>45842</v>
       </c>
       <c r="I9" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J9" s="3">
-        <v>-19.89</v>
+        <v>-28.150000000000002</v>
       </c>
       <c r="K9" s="3">
-        <v>-19.89</v>
+        <v>-28.150000000000002</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -992,7 +980,7 @@
         <v>211110574</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1001,31 +989,31 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>10246</v>
+        <v>10155</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45876.376550925925</v>
+        <v>45872.49386574074</v>
       </c>
       <c r="H10" s="1">
-        <v>45846.376550925925</v>
+        <v>45842.49386574074</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>12.506134259259852</v>
       </c>
       <c r="J10" s="3">
-        <v>602.47</v>
+        <v>595.76</v>
       </c>
       <c r="K10" s="3">
-        <v>602.47</v>
+        <v>595.76</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1033,40 +1021,40 @@
         <v>211110574</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>2025</v>
       </c>
       <c r="E11">
-        <v>10574</v>
+        <v>625</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45883.638935185183</v>
+        <v>45876</v>
       </c>
       <c r="H11" s="1">
-        <v>45853.638935185183</v>
+        <v>45846</v>
       </c>
       <c r="I11" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="J11" s="3">
-        <v>612.18000000000006</v>
+        <v>-19.89</v>
       </c>
       <c r="K11" s="3">
-        <v>612.18000000000006</v>
+        <v>-19.89</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1074,7 +1062,7 @@
         <v>211110574</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1083,31 +1071,31 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>10864</v>
+        <v>10246</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45890.531319444446</v>
+        <v>45876.376550925925</v>
       </c>
       <c r="H12" s="1">
-        <v>45860.531319444446</v>
+        <v>45846.376550925925</v>
       </c>
       <c r="I12" s="2">
-        <v>-12</v>
+        <v>8.6234490740753245</v>
       </c>
       <c r="J12" s="3">
-        <v>521.47</v>
+        <v>602.47</v>
       </c>
       <c r="K12" s="3">
-        <v>521.47</v>
+        <v>602.47</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1115,7 +1103,7 @@
         <v>211110574</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1124,31 +1112,31 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>11152</v>
+        <v>10574</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45897.537638888884</v>
+        <v>45883.638935185183</v>
       </c>
       <c r="H13" s="1">
-        <v>45867.53765046296</v>
+        <v>45853.638935185183</v>
       </c>
       <c r="I13" s="2">
-        <v>-19</v>
+        <v>1.3610648148169275</v>
       </c>
       <c r="J13" s="3">
-        <v>671.6</v>
+        <v>612.18000000000006</v>
       </c>
       <c r="K13" s="3">
-        <v>671.6</v>
+        <v>612.18000000000006</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1156,7 +1144,7 @@
         <v>211110574</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1165,25 +1153,25 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>11449</v>
+        <v>10864</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45904.531504629631</v>
+        <v>45890.531319444446</v>
       </c>
       <c r="H14" s="1">
-        <v>45874.5315162037</v>
+        <v>45860.531319444446</v>
       </c>
       <c r="I14" s="2">
-        <v>-26</v>
+        <v>-5</v>
       </c>
       <c r="J14" s="3">
-        <v>308.06</v>
+        <v>521.47</v>
       </c>
       <c r="K14" s="3">
-        <v>308.06</v>
+        <v>521.47</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1194,10 +1182,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>211110681</v>
+        <v>211110574</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1206,25 +1194,25 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>10430</v>
+        <v>11152</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45878.592557870368</v>
+        <v>45897.537638888884</v>
       </c>
       <c r="H15" s="1">
-        <v>45848.592557870368</v>
+        <v>45867.53765046296</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="J15" s="3">
-        <v>964.74</v>
+        <v>671.6</v>
       </c>
       <c r="K15" s="3">
-        <v>7.7700000000000005</v>
+        <v>671.6</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1235,10 +1223,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211110681</v>
+        <v>211110574</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1247,25 +1235,25 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>11015</v>
+        <v>11449</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45893.298807870371</v>
+        <v>45904.531504629631</v>
       </c>
       <c r="H16" s="1">
-        <v>45863.300034722219</v>
+        <v>45874.5315162037</v>
       </c>
       <c r="I16" s="2">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="J16" s="3">
-        <v>2446.73</v>
+        <v>308.06</v>
       </c>
       <c r="K16" s="3">
-        <v>2446.73</v>
+        <v>308.06</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1276,119 +1264,119 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211110903</v>
+        <v>211110574</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>603</v>
+        <v>11751</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45847</v>
+        <v>45911.462754629625</v>
       </c>
       <c r="H17" s="1">
-        <v>45840</v>
+        <v>45881.462754629625</v>
       </c>
       <c r="I17" s="2">
-        <v>31</v>
+        <v>-26</v>
       </c>
       <c r="J17" s="3">
-        <v>-42.26</v>
+        <v>800.58</v>
       </c>
       <c r="K17" s="3">
-        <v>-42.26</v>
+        <v>800.58</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>211110903</v>
+        <v>211110574</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18">
-        <v>522</v>
+        <v>11769</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45856</v>
+        <v>45911.61515046296</v>
       </c>
       <c r="H18" s="1">
-        <v>45849</v>
+        <v>45881.615937499999</v>
       </c>
       <c r="I18" s="2">
-        <v>22</v>
+        <v>-26</v>
       </c>
       <c r="J18" s="3">
-        <v>-43.6</v>
+        <v>202.27</v>
       </c>
       <c r="K18" s="3">
-        <v>-43.6</v>
+        <v>202.27</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>211110903</v>
+        <v>211110681</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>653</v>
+        <v>10430</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45860</v>
+        <v>45878.592557870368</v>
       </c>
       <c r="H19" s="1">
-        <v>45853</v>
+        <v>45848.592557870368</v>
       </c>
       <c r="I19" s="2">
-        <v>18</v>
+        <v>6.4074421296318178</v>
       </c>
       <c r="J19" s="3">
-        <v>-113.52</v>
+        <v>964.74</v>
       </c>
       <c r="K19" s="3">
-        <v>-113.52</v>
+        <v>7.7700000000000005</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1399,10 +1387,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>211110903</v>
+        <v>211110681</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1411,31 +1399,31 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>10748</v>
+        <v>11015</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45863.428020833329</v>
+        <v>45893.298807870371</v>
       </c>
       <c r="H20" s="1">
-        <v>45856.428020833329</v>
+        <v>45863.300034722219</v>
       </c>
       <c r="I20" s="2">
-        <v>15</v>
+        <v>-8</v>
       </c>
       <c r="J20" s="3">
-        <v>249.14000000000001</v>
+        <v>2446.73</v>
       </c>
       <c r="K20" s="3">
-        <v>249.14000000000001</v>
+        <v>2446.73</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1443,40 +1431,40 @@
         <v>211110903</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>2025</v>
       </c>
       <c r="E21">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45873</v>
+        <v>45847</v>
       </c>
       <c r="H21" s="1">
-        <v>45866</v>
+        <v>45840</v>
       </c>
       <c r="I21" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J21" s="3">
-        <v>-27.2</v>
+        <v>-42.26</v>
       </c>
       <c r="K21" s="3">
-        <v>-27.2</v>
+        <v>-42.26</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1484,40 +1472,40 @@
         <v>211110903</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45873</v>
+        <v>45856</v>
       </c>
       <c r="H22" s="1">
-        <v>45866</v>
+        <v>45849</v>
       </c>
       <c r="I22" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J22" s="3">
-        <v>-50.85</v>
+        <v>-43.6</v>
       </c>
       <c r="K22" s="3">
-        <v>-50.85</v>
+        <v>-43.6</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1525,40 +1513,40 @@
         <v>211110903</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>2025</v>
       </c>
       <c r="E23">
-        <v>711</v>
+        <v>653</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45875</v>
+        <v>45860</v>
       </c>
       <c r="H23" s="1">
-        <v>45868</v>
+        <v>45853</v>
       </c>
       <c r="I23" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J23" s="3">
-        <v>-100.23</v>
+        <v>-113.52</v>
       </c>
       <c r="K23" s="3">
-        <v>-100.23</v>
+        <v>-113.52</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1566,40 +1554,40 @@
         <v>211110903</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>11431</v>
+        <v>533</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45881.485289351847</v>
+        <v>45873</v>
       </c>
       <c r="H24" s="1">
-        <v>45874.485289351847</v>
+        <v>45866</v>
       </c>
       <c r="I24" s="2">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="J24" s="3">
-        <v>1383.09</v>
+        <v>-50.85</v>
       </c>
       <c r="K24" s="3">
-        <v>1383.09</v>
+        <v>-50.85</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1607,40 +1595,40 @@
         <v>211110903</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>2025</v>
       </c>
       <c r="E25">
-        <v>11549</v>
+        <v>711</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45882.644108796296</v>
+        <v>45875</v>
       </c>
       <c r="H25" s="1">
-        <v>45875.644444444442</v>
+        <v>45868</v>
       </c>
       <c r="I25" s="2">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="J25" s="3">
-        <v>1178.1200000000001</v>
+        <v>-100.23</v>
       </c>
       <c r="K25" s="3">
-        <v>1178.1200000000001</v>
+        <v>-100.23</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1648,7 +1636,7 @@
         <v>211110903</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1657,25 +1645,25 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>11582</v>
+        <v>11652</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45883.495416666665</v>
+        <v>45884.586608796293</v>
       </c>
       <c r="H26" s="1">
-        <v>45876.497893518514</v>
+        <v>45877.586608796293</v>
       </c>
       <c r="I26" s="2">
-        <v>-5</v>
+        <v>0.41339120370685123</v>
       </c>
       <c r="J26" s="3">
-        <v>1385.29</v>
+        <v>1723.43</v>
       </c>
       <c r="K26" s="3">
-        <v>1385.29</v>
+        <v>1723.43</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1689,7 +1677,7 @@
         <v>211110903</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1698,25 +1686,25 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>11652</v>
+        <v>11721</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45884.586608796293</v>
+        <v>45887.565509259257</v>
       </c>
       <c r="H27" s="1">
-        <v>45877.586608796293</v>
+        <v>45880.565925925926</v>
       </c>
       <c r="I27" s="2">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="J27" s="3">
-        <v>1723.43</v>
+        <v>3222.03</v>
       </c>
       <c r="K27" s="3">
-        <v>1723.43</v>
+        <v>3222.03</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1727,51 +1715,51 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28">
-        <v>275</v>
+        <v>11863</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45763</v>
+        <v>45889.699282407404</v>
       </c>
       <c r="H28" s="1">
-        <v>45728</v>
+        <v>45882.699803240735</v>
       </c>
       <c r="I28" s="2">
-        <v>115</v>
+        <v>-4</v>
       </c>
       <c r="J28" s="3">
-        <v>-112.59</v>
+        <v>2354.5100000000002</v>
       </c>
       <c r="K28" s="3">
-        <v>-75.92</v>
+        <v>2354.5100000000002</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1780,39 +1768,39 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>8178</v>
+        <v>11875</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45834.347986111112</v>
+        <v>45890.397152777776</v>
       </c>
       <c r="H29" s="1">
-        <v>45799.348622685182</v>
+        <v>45883.400231481479</v>
       </c>
       <c r="I29" s="2">
-        <v>44</v>
+        <v>-5</v>
       </c>
       <c r="J29" s="3">
-        <v>601.93000000000006</v>
+        <v>1198.4100000000001</v>
       </c>
       <c r="K29" s="3">
-        <v>21</v>
+        <v>1198.4100000000001</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111588</v>
+        <v>211111373</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1821,31 +1809,31 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>9338</v>
+        <v>11785</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45860.416597222218</v>
+        <v>45882.399768518517</v>
       </c>
       <c r="H30" s="1">
-        <v>45825.417175925926</v>
+        <v>45882.399768518517</v>
       </c>
       <c r="I30" s="2">
-        <v>18</v>
+        <v>2.6002314814832062</v>
       </c>
       <c r="J30" s="3">
-        <v>691.45</v>
+        <v>240.19</v>
       </c>
       <c r="K30" s="3">
-        <v>32.82</v>
+        <v>240.19</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1853,40 +1841,40 @@
         <v>211111588</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31">
-        <v>9568</v>
+        <v>275</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45863.713865740741</v>
+        <v>45763</v>
       </c>
       <c r="H31" s="1">
-        <v>45828.714143518519</v>
+        <v>45728</v>
       </c>
       <c r="I31" s="2">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="J31" s="3">
-        <v>742.15</v>
+        <v>-112.59</v>
       </c>
       <c r="K31" s="3">
-        <v>742.15</v>
+        <v>-22.1</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1894,7 +1882,7 @@
         <v>211111588</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1903,25 +1891,25 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>9739</v>
+        <v>9568</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45869.337118055555</v>
+        <v>45863.713865740741</v>
       </c>
       <c r="H32" s="1">
-        <v>45834.337858796294</v>
+        <v>45828.714143518519</v>
       </c>
       <c r="I32" s="2">
-        <v>9</v>
+        <v>21.286134259258688</v>
       </c>
       <c r="J32" s="3">
-        <v>89.460000000000008</v>
+        <v>742.15</v>
       </c>
       <c r="K32" s="3">
-        <v>89.460000000000008</v>
+        <v>742.15</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
@@ -1935,10 +1923,10 @@
         <v>211111588</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -1956,7 +1944,7 @@
         <v>45842</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J33" s="3">
         <v>-2.12</v>
@@ -1968,7 +1956,7 @@
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1976,7 +1964,7 @@
         <v>211111588</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1985,31 +1973,31 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>10101</v>
+        <v>10373</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45877.371099537035</v>
+        <v>45883.311967592592</v>
       </c>
       <c r="H34" s="1">
-        <v>45842.371099537035</v>
+        <v>45848.312951388885</v>
       </c>
       <c r="I34" s="2">
-        <v>1</v>
+        <v>1.6880324074081727</v>
       </c>
       <c r="J34" s="3">
-        <v>1172.54</v>
+        <v>793.1</v>
       </c>
       <c r="K34" s="3">
-        <v>1172.54</v>
+        <v>793.1</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2017,7 +2005,7 @@
         <v>211111588</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2026,25 +2014,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>10373</v>
+        <v>10988</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45883.311967592592</v>
+        <v>45897.491388888884</v>
       </c>
       <c r="H35" s="1">
-        <v>45848.312951388885</v>
+        <v>45862.491388888884</v>
       </c>
       <c r="I35" s="2">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="J35" s="3">
-        <v>793.1</v>
+        <v>1073.29</v>
       </c>
       <c r="K35" s="3">
-        <v>793.1</v>
+        <v>1073.29</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2058,7 +2046,7 @@
         <v>211111588</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2067,25 +2055,25 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>10988</v>
+        <v>11560</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45897.491388888884</v>
+        <v>45911.437928240739</v>
       </c>
       <c r="H36" s="1">
-        <v>45862.491388888884</v>
+        <v>45876.438402777778</v>
       </c>
       <c r="I36" s="2">
-        <v>-19</v>
+        <v>-26</v>
       </c>
       <c r="J36" s="3">
-        <v>1073.29</v>
+        <v>673.4</v>
       </c>
       <c r="K36" s="3">
-        <v>1073.29</v>
+        <v>673.4</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2099,7 +2087,7 @@
         <v>211111588</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2108,25 +2096,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>11560</v>
+        <v>11778</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45911.437928240739</v>
+        <v>45917.361284722218</v>
       </c>
       <c r="H37" s="1">
-        <v>45876.438402777778</v>
+        <v>45882.361284722218</v>
       </c>
       <c r="I37" s="2">
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="J37" s="3">
-        <v>673.4</v>
+        <v>382.83</v>
       </c>
       <c r="K37" s="3">
-        <v>673.4</v>
+        <v>382.83</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2140,7 +2128,7 @@
         <v>211111720</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2161,7 +2149,7 @@
         <v>45856.283530092587</v>
       </c>
       <c r="I38" s="2">
-        <v>-38</v>
+        <v>-31</v>
       </c>
       <c r="J38" s="3">
         <v>199.79</v>
@@ -2181,7 +2169,7 @@
         <v>211111720</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2202,7 +2190,7 @@
         <v>45863.28329861111</v>
       </c>
       <c r="I39" s="2">
-        <v>-45</v>
+        <v>-38</v>
       </c>
       <c r="J39" s="3">
         <v>1478.6200000000001</v>
@@ -2222,10 +2210,10 @@
         <v>211111739</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40">
         <v>2025</v>
@@ -2243,7 +2231,7 @@
         <v>45824</v>
       </c>
       <c r="I40" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J40" s="3">
         <v>-1.73</v>
@@ -2255,7 +2243,7 @@
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2263,10 +2251,10 @@
         <v>211111739</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41">
         <v>2025</v>
@@ -2284,7 +2272,7 @@
         <v>45846</v>
       </c>
       <c r="I41" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J41" s="3">
         <v>-89.27</v>
@@ -2296,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2304,7 +2292,7 @@
         <v>211111739</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2325,7 +2313,7 @@
         <v>45859.487673611111</v>
       </c>
       <c r="I42" s="2">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="J42" s="3">
         <v>694.31000000000006</v>
@@ -2345,7 +2333,7 @@
         <v>211111739</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2366,7 +2354,7 @@
         <v>45863.5234375</v>
       </c>
       <c r="I43" s="2">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="J43" s="3">
         <v>596.72</v>
@@ -2386,10 +2374,10 @@
         <v>211111739</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44">
         <v>2025</v>
@@ -2407,7 +2395,7 @@
         <v>45868</v>
       </c>
       <c r="I44" s="2">
-        <v>-20</v>
+        <v>-13</v>
       </c>
       <c r="J44" s="3">
         <v>-8.6</v>
@@ -2427,7 +2415,7 @@
         <v>211111739</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2448,7 +2436,7 @@
         <v>45868.329722222217</v>
       </c>
       <c r="I45" s="2">
-        <v>-20</v>
+        <v>-13</v>
       </c>
       <c r="J45" s="3">
         <v>938.86</v>
@@ -2468,7 +2456,7 @@
         <v>211111739</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2489,7 +2477,7 @@
         <v>45877.31108796296</v>
       </c>
       <c r="I46" s="2">
-        <v>-29</v>
+        <v>-22</v>
       </c>
       <c r="J46" s="3">
         <v>625.66</v>
@@ -2506,43 +2494,43 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>522</v>
+        <v>11767</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45871</v>
+        <v>45911.605520833335</v>
       </c>
       <c r="H47" s="1">
-        <v>45811</v>
+        <v>45881.605520833335</v>
       </c>
       <c r="I47" s="2">
-        <v>7</v>
+        <v>-26</v>
       </c>
       <c r="J47" s="3">
-        <v>-29.34</v>
+        <v>468.84000000000003</v>
       </c>
       <c r="K47" s="3">
-        <v>-29.34</v>
+        <v>468.84000000000003</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2550,16 +2538,16 @@
         <v>211111878</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -2571,13 +2559,13 @@
         <v>45811</v>
       </c>
       <c r="I48" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J48" s="3">
-        <v>-4.99</v>
+        <v>-29.34</v>
       </c>
       <c r="K48" s="3">
-        <v>-4.99</v>
+        <v>-29.34</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2591,34 +2579,34 @@
         <v>211111878</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>2025</v>
       </c>
       <c r="E49">
-        <v>8798</v>
+        <v>525</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45871.469687500001</v>
+        <v>45871</v>
       </c>
       <c r="H49" s="1">
-        <v>45811.47006944444</v>
+        <v>45811</v>
       </c>
       <c r="I49" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J49" s="3">
-        <v>421.25</v>
+        <v>-4.99</v>
       </c>
       <c r="K49" s="3">
-        <v>421.25</v>
+        <v>-4.99</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2632,7 +2620,7 @@
         <v>211111878</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2641,25 +2629,25 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>8799</v>
+        <v>8798</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45871.471655092588</v>
+        <v>45871.469687500001</v>
       </c>
       <c r="H50" s="1">
-        <v>45811.472187499996</v>
+        <v>45811.47006944444</v>
       </c>
       <c r="I50" s="2">
-        <v>7</v>
+        <v>13.530312499999127</v>
       </c>
       <c r="J50" s="3">
-        <v>361.42</v>
+        <v>421.25</v>
       </c>
       <c r="K50" s="3">
-        <v>361.42</v>
+        <v>421.25</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2673,40 +2661,40 @@
         <v>211111878</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
-      <c r="D51">
-        <v>2025</v>
+      <c r="D51" t="s">
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>37</v>
+        <v>8799</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45874.455740740741</v>
+        <v>45871.471655092588</v>
       </c>
       <c r="H51" s="1">
-        <v>45814.455775462964</v>
+        <v>45811.472187499996</v>
       </c>
       <c r="I51" s="2">
-        <v>4</v>
+        <v>13.528344907412247</v>
       </c>
       <c r="J51" s="3">
-        <v>177.99</v>
+        <v>361.42</v>
       </c>
       <c r="K51" s="3">
-        <v>177.99</v>
+        <v>361.42</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2714,7 +2702,7 @@
         <v>211111878</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2723,31 +2711,31 @@
         <v>2025</v>
       </c>
       <c r="E52">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45874.612268518518</v>
+        <v>45874.455740740741</v>
       </c>
       <c r="H52" s="1">
-        <v>45814.613090277773</v>
+        <v>45814.455775462964</v>
       </c>
       <c r="I52" s="2">
-        <v>4</v>
+        <v>10.544259259258979</v>
       </c>
       <c r="J52" s="3">
-        <v>258.84000000000003</v>
+        <v>177.99</v>
       </c>
       <c r="K52" s="3">
-        <v>258.84000000000003</v>
+        <v>177.99</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2755,40 +2743,40 @@
         <v>211111878</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53">
-        <v>542</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45877</v>
+        <v>45874.612268518518</v>
       </c>
       <c r="H53" s="1">
-        <v>45817</v>
+        <v>45814.613090277773</v>
       </c>
       <c r="I53" s="2">
-        <v>1</v>
+        <v>10.387731481481751</v>
       </c>
       <c r="J53" s="3">
-        <v>-9.41</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="K53" s="3">
-        <v>-9.41</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2796,40 +2784,40 @@
         <v>211111878</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>2025</v>
       </c>
       <c r="E54">
-        <v>8996</v>
+        <v>542</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45877.440046296295</v>
+        <v>45877</v>
       </c>
       <c r="H54" s="1">
-        <v>45817.44049768518</v>
+        <v>45817</v>
       </c>
       <c r="I54" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J54" s="3">
-        <v>377.68</v>
+        <v>-9.41</v>
       </c>
       <c r="K54" s="3">
-        <v>377.68</v>
+        <v>-9.41</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2837,7 +2825,7 @@
         <v>211111878</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2846,31 +2834,31 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>8998</v>
+        <v>8996</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45877.440960648149</v>
+        <v>45877.440046296295</v>
       </c>
       <c r="H55" s="1">
-        <v>45817.441377314812</v>
+        <v>45817.44049768518</v>
       </c>
       <c r="I55" s="2">
-        <v>1</v>
+        <v>7.559953703705105</v>
       </c>
       <c r="J55" s="3">
-        <v>257.82</v>
+        <v>377.68</v>
       </c>
       <c r="K55" s="3">
-        <v>257.82</v>
+        <v>377.68</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2878,7 +2866,7 @@
         <v>211111878</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2887,31 +2875,31 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>9025</v>
+        <v>8998</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45877.494490740741</v>
+        <v>45877.440960648149</v>
       </c>
       <c r="H56" s="1">
-        <v>45817.494999999995</v>
+        <v>45817.441377314812</v>
       </c>
       <c r="I56" s="2">
-        <v>1</v>
+        <v>7.5590393518505152</v>
       </c>
       <c r="J56" s="3">
-        <v>315.04000000000002</v>
+        <v>257.82</v>
       </c>
       <c r="K56" s="3">
-        <v>315.04000000000002</v>
+        <v>257.82</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2919,40 +2907,40 @@
         <v>211111878</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
       </c>
       <c r="E57">
-        <v>570</v>
+        <v>9025</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45886</v>
+        <v>45877.494490740741</v>
       </c>
       <c r="H57" s="1">
-        <v>45826</v>
+        <v>45817.494999999995</v>
       </c>
       <c r="I57" s="2">
-        <v>-8</v>
+        <v>7.50550925925927</v>
       </c>
       <c r="J57" s="3">
-        <v>-10.74</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="K57" s="3">
-        <v>-10.74</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2960,34 +2948,34 @@
         <v>211111878</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>2025</v>
       </c>
       <c r="E58">
-        <v>9386</v>
+        <v>570</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45886.314513888887</v>
+        <v>45886</v>
       </c>
       <c r="H58" s="1">
-        <v>45826.314837962964</v>
+        <v>45826</v>
       </c>
       <c r="I58" s="2">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="J58" s="3">
-        <v>328.96</v>
+        <v>-10.74</v>
       </c>
       <c r="K58" s="3">
-        <v>328.96</v>
+        <v>-10.74</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3001,7 +2989,7 @@
         <v>211111878</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -3010,25 +2998,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>9436</v>
+        <v>9386</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45886.459780092591</v>
+        <v>45886.314513888887</v>
       </c>
       <c r="H59" s="1">
-        <v>45826.462314814809</v>
+        <v>45826.314837962964</v>
       </c>
       <c r="I59" s="2">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="J59" s="3">
-        <v>58.57</v>
+        <v>328.96</v>
       </c>
       <c r="K59" s="3">
-        <v>58.57</v>
+        <v>328.96</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3042,7 +3030,7 @@
         <v>211111878</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3051,25 +3039,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>9438</v>
+        <v>9436</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45886.462488425925</v>
+        <v>45886.459780092591</v>
       </c>
       <c r="H60" s="1">
-        <v>45826.466331018513</v>
+        <v>45826.462314814809</v>
       </c>
       <c r="I60" s="2">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="J60" s="3">
-        <v>408.29</v>
+        <v>58.57</v>
       </c>
       <c r="K60" s="3">
-        <v>408.29</v>
+        <v>58.57</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3083,7 +3071,7 @@
         <v>211111878</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3092,25 +3080,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>9456</v>
+        <v>9438</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45888.299930555557</v>
+        <v>45886.462488425925</v>
       </c>
       <c r="H61" s="1">
-        <v>45828.300671296296</v>
+        <v>45826.466331018513</v>
       </c>
       <c r="I61" s="2">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="J61" s="3">
-        <v>20.76</v>
+        <v>408.29</v>
       </c>
       <c r="K61" s="3">
-        <v>20.76</v>
+        <v>408.29</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3124,7 +3112,7 @@
         <v>211111878</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3133,25 +3121,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>9457</v>
+        <v>9456</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45888.30097222222</v>
+        <v>45888.299930555557</v>
       </c>
       <c r="H62" s="1">
-        <v>45828.306631944441</v>
+        <v>45828.300671296296</v>
       </c>
       <c r="I62" s="2">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="J62" s="3">
-        <v>45.83</v>
+        <v>20.76</v>
       </c>
       <c r="K62" s="3">
-        <v>45.83</v>
+        <v>20.76</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3165,7 +3153,7 @@
         <v>211111878</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3174,25 +3162,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>9700</v>
+        <v>9457</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45893.496446759258</v>
+        <v>45888.30097222222</v>
       </c>
       <c r="H63" s="1">
-        <v>45833.497314814813</v>
+        <v>45828.306631944441</v>
       </c>
       <c r="I63" s="2">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="J63" s="3">
-        <v>18.059999999999999</v>
+        <v>45.83</v>
       </c>
       <c r="K63" s="3">
-        <v>18.059999999999999</v>
+        <v>45.83</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3206,7 +3194,7 @@
         <v>211111878</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3215,25 +3203,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>9701</v>
+        <v>9700</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45893.497546296298</v>
+        <v>45893.496446759258</v>
       </c>
       <c r="H64" s="1">
-        <v>45833.49827546296</v>
+        <v>45833.497314814813</v>
       </c>
       <c r="I64" s="2">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="J64" s="3">
-        <v>367.16</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="K64" s="3">
-        <v>367.16</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3247,7 +3235,7 @@
         <v>211111878</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3256,25 +3244,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>9772</v>
+        <v>9701</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45894.447523148148</v>
+        <v>45893.497546296298</v>
       </c>
       <c r="H65" s="1">
-        <v>45834.448113425926</v>
+        <v>45833.49827546296</v>
       </c>
       <c r="I65" s="2">
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="J65" s="3">
-        <v>441.87</v>
+        <v>367.16</v>
       </c>
       <c r="K65" s="3">
-        <v>441.87</v>
+        <v>367.16</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3288,7 +3276,7 @@
         <v>211111878</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3297,25 +3285,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>9871</v>
+        <v>9772</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45895.479108796295</v>
+        <v>45894.447523148148</v>
       </c>
       <c r="H66" s="1">
-        <v>45835.481898148144</v>
+        <v>45834.448113425926</v>
       </c>
       <c r="I66" s="2">
-        <v>-17</v>
+        <v>-9</v>
       </c>
       <c r="J66" s="3">
-        <v>175.89000000000001</v>
+        <v>441.87</v>
       </c>
       <c r="K66" s="3">
-        <v>175.89000000000001</v>
+        <v>441.87</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3329,7 +3317,7 @@
         <v>211111878</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3338,25 +3326,25 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>9874</v>
+        <v>9871</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45895.494687499995</v>
+        <v>45895.479108796295</v>
       </c>
       <c r="H67" s="1">
-        <v>45835.494895833333</v>
+        <v>45835.481898148144</v>
       </c>
       <c r="I67" s="2">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="J67" s="3">
-        <v>276.79000000000002</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="K67" s="3">
-        <v>276.79000000000002</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3370,7 +3358,7 @@
         <v>211111878</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3379,25 +3367,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>9935</v>
+        <v>9874</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45899.405474537038</v>
+        <v>45895.494687499995</v>
       </c>
       <c r="H68" s="1">
-        <v>45839.405821759254</v>
+        <v>45835.494895833333</v>
       </c>
       <c r="I68" s="2">
-        <v>-21</v>
+        <v>-10</v>
       </c>
       <c r="J68" s="3">
-        <v>249.19</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="K68" s="3">
-        <v>249.19</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3411,7 +3399,7 @@
         <v>211111878</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3420,25 +3408,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>10275</v>
+        <v>9935</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45906.438090277778</v>
+        <v>45899.405474537038</v>
       </c>
       <c r="H69" s="1">
-        <v>45846.438090277778</v>
+        <v>45839.405821759254</v>
       </c>
       <c r="I69" s="2">
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="J69" s="3">
-        <v>333.66</v>
+        <v>249.19</v>
       </c>
       <c r="K69" s="3">
-        <v>333.66</v>
+        <v>249.19</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3452,7 +3440,7 @@
         <v>211111878</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3461,25 +3449,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>10276</v>
+        <v>10275</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45906.438113425924</v>
+        <v>45906.438090277778</v>
       </c>
       <c r="H70" s="1">
-        <v>45846.438125000001</v>
+        <v>45846.438090277778</v>
       </c>
       <c r="I70" s="2">
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="J70" s="3">
-        <v>114.07000000000001</v>
+        <v>333.66</v>
       </c>
       <c r="K70" s="3">
-        <v>114.07000000000001</v>
+        <v>333.66</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3493,7 +3481,7 @@
         <v>211111878</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3502,25 +3490,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>10496</v>
+        <v>10276</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45909.601944444439</v>
+        <v>45906.438113425924</v>
       </c>
       <c r="H71" s="1">
-        <v>45849.60251157407</v>
+        <v>45846.438125000001</v>
       </c>
       <c r="I71" s="2">
-        <v>-31</v>
+        <v>-21</v>
       </c>
       <c r="J71" s="3">
-        <v>330.27</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="K71" s="3">
-        <v>330.27</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3534,34 +3522,34 @@
         <v>211111878</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>646</v>
+        <v>10496</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45913</v>
+        <v>45909.601944444439</v>
       </c>
       <c r="H72" s="1">
-        <v>45853</v>
+        <v>45849.60251157407</v>
       </c>
       <c r="I72" s="2">
-        <v>-35</v>
+        <v>-24</v>
       </c>
       <c r="J72" s="3">
-        <v>-9.23</v>
+        <v>330.27</v>
       </c>
       <c r="K72" s="3">
-        <v>-9.23</v>
+        <v>330.27</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3575,34 +3563,34 @@
         <v>211111878</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
       </c>
       <c r="E73">
-        <v>10552</v>
+        <v>646</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45913.414108796293</v>
+        <v>45913</v>
       </c>
       <c r="H73" s="1">
-        <v>45853.415949074071</v>
+        <v>45853</v>
       </c>
       <c r="I73" s="2">
-        <v>-35</v>
+        <v>-28</v>
       </c>
       <c r="J73" s="3">
-        <v>451.46000000000004</v>
+        <v>-9.23</v>
       </c>
       <c r="K73" s="3">
-        <v>451.46000000000004</v>
+        <v>-9.23</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3616,7 +3604,7 @@
         <v>211111878</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3625,25 +3613,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10556</v>
+        <v>10552</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45913.417696759258</v>
+        <v>45913.414108796293</v>
       </c>
       <c r="H74" s="1">
-        <v>45853.418020833335</v>
+        <v>45853.415949074071</v>
       </c>
       <c r="I74" s="2">
-        <v>-35</v>
+        <v>-28</v>
       </c>
       <c r="J74" s="3">
-        <v>120.59</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="K74" s="3">
-        <v>120.59</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3657,7 +3645,7 @@
         <v>211111878</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3666,25 +3654,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>10719</v>
+        <v>10556</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45915.588217592587</v>
+        <v>45913.417696759258</v>
       </c>
       <c r="H75" s="1">
-        <v>45855.588634259257</v>
+        <v>45853.418020833335</v>
       </c>
       <c r="I75" s="2">
-        <v>-37</v>
+        <v>-28</v>
       </c>
       <c r="J75" s="3">
-        <v>107.66</v>
+        <v>120.59</v>
       </c>
       <c r="K75" s="3">
-        <v>107.66</v>
+        <v>120.59</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3698,7 +3686,7 @@
         <v>211111878</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3707,25 +3695,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>10841</v>
+        <v>10719</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45920.44799768518</v>
+        <v>45915.588217592587</v>
       </c>
       <c r="H76" s="1">
-        <v>45860.450138888889</v>
+        <v>45855.588634259257</v>
       </c>
       <c r="I76" s="2">
-        <v>-42</v>
+        <v>-30</v>
       </c>
       <c r="J76" s="3">
-        <v>391.77</v>
+        <v>107.66</v>
       </c>
       <c r="K76" s="3">
-        <v>391.77</v>
+        <v>107.66</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3739,7 +3727,7 @@
         <v>211111878</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3748,25 +3736,25 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>10940</v>
+        <v>10841</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45921.562048611107</v>
+        <v>45920.44799768518</v>
       </c>
       <c r="H77" s="1">
-        <v>45861.562060185184</v>
+        <v>45860.450138888889</v>
       </c>
       <c r="I77" s="2">
-        <v>-43</v>
+        <v>-35</v>
       </c>
       <c r="J77" s="3">
-        <v>184.52</v>
+        <v>391.77</v>
       </c>
       <c r="K77" s="3">
-        <v>184.52</v>
+        <v>391.77</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3780,7 +3768,7 @@
         <v>211111878</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3789,25 +3777,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>10941</v>
+        <v>10940</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45921.562083333331</v>
+        <v>45921.562048611107</v>
       </c>
       <c r="H78" s="1">
-        <v>45861.562083333331</v>
+        <v>45861.562060185184</v>
       </c>
       <c r="I78" s="2">
-        <v>-43</v>
+        <v>-36</v>
       </c>
       <c r="J78" s="3">
-        <v>518.65</v>
+        <v>184.52</v>
       </c>
       <c r="K78" s="3">
-        <v>518.65</v>
+        <v>184.52</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3821,7 +3809,7 @@
         <v>211111878</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3830,25 +3818,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>10942</v>
+        <v>10941</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45921.562106481477</v>
+        <v>45921.562083333331</v>
       </c>
       <c r="H79" s="1">
-        <v>45861.562106481477</v>
+        <v>45861.562083333331</v>
       </c>
       <c r="I79" s="2">
-        <v>-43</v>
+        <v>-36</v>
       </c>
       <c r="J79" s="3">
-        <v>325.40000000000003</v>
+        <v>518.65</v>
       </c>
       <c r="K79" s="3">
-        <v>325.40000000000003</v>
+        <v>518.65</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3862,7 +3850,7 @@
         <v>211111878</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3871,25 +3859,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>11119</v>
+        <v>10942</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45926.540925925925</v>
+        <v>45921.562106481477</v>
       </c>
       <c r="H80" s="1">
-        <v>45866.540937500002</v>
+        <v>45861.562106481477</v>
       </c>
       <c r="I80" s="2">
-        <v>-48</v>
+        <v>-36</v>
       </c>
       <c r="J80" s="3">
-        <v>665</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="K80" s="3">
-        <v>665</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3903,7 +3891,7 @@
         <v>211111878</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3912,25 +3900,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>11120</v>
+        <v>11119</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45926.540960648148</v>
+        <v>45926.540925925925</v>
       </c>
       <c r="H81" s="1">
-        <v>45866.540960648148</v>
+        <v>45866.540937500002</v>
       </c>
       <c r="I81" s="2">
-        <v>-48</v>
+        <v>-41</v>
       </c>
       <c r="J81" s="3">
-        <v>131.55000000000001</v>
+        <v>665</v>
       </c>
       <c r="K81" s="3">
-        <v>131.55000000000001</v>
+        <v>665</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3944,7 +3932,7 @@
         <v>211111878</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3953,25 +3941,25 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>11186</v>
+        <v>11120</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45927.594328703701</v>
+        <v>45926.540960648148</v>
       </c>
       <c r="H82" s="1">
-        <v>45867.594340277778</v>
+        <v>45866.540960648148</v>
       </c>
       <c r="I82" s="2">
-        <v>-49</v>
+        <v>-41</v>
       </c>
       <c r="J82" s="3">
-        <v>379.86</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="K82" s="3">
-        <v>379.86</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3985,7 +3973,7 @@
         <v>211111878</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3994,25 +3982,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>11366</v>
+        <v>11186</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45930.614166666666</v>
+        <v>45927.594328703701</v>
       </c>
       <c r="H83" s="1">
-        <v>45870.614722222221</v>
+        <v>45867.594340277778</v>
       </c>
       <c r="I83" s="2">
-        <v>-52</v>
+        <v>-42</v>
       </c>
       <c r="J83" s="3">
-        <v>159.29</v>
+        <v>379.86</v>
       </c>
       <c r="K83" s="3">
-        <v>159.29</v>
+        <v>379.86</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4026,7 +4014,7 @@
         <v>211111878</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -4035,25 +4023,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>11369</v>
+        <v>11366</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45930.684340277774</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H84" s="1">
-        <v>45870.684976851851</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I84" s="2">
-        <v>-52</v>
+        <v>-45</v>
       </c>
       <c r="J84" s="3">
-        <v>106.19</v>
+        <v>159.29</v>
       </c>
       <c r="K84" s="3">
-        <v>106.19</v>
+        <v>159.29</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4067,7 +4055,7 @@
         <v>211111878</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4076,25 +4064,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>11428</v>
+        <v>11369</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45934.485219907408</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H85" s="1">
-        <v>45874.485219907408</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I85" s="2">
-        <v>-56</v>
+        <v>-45</v>
       </c>
       <c r="J85" s="3">
-        <v>56.480000000000004</v>
+        <v>106.19</v>
       </c>
       <c r="K85" s="3">
-        <v>56.480000000000004</v>
+        <v>106.19</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4108,7 +4096,7 @@
         <v>211111878</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4117,25 +4105,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>11429</v>
+        <v>11428</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45934.485231481478</v>
+        <v>45934.485219907408</v>
       </c>
       <c r="H86" s="1">
-        <v>45874.485231481478</v>
+        <v>45874.485219907408</v>
       </c>
       <c r="I86" s="2">
-        <v>-56</v>
+        <v>-49</v>
       </c>
       <c r="J86" s="3">
-        <v>472.14</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="K86" s="3">
-        <v>472.14</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4149,7 +4137,7 @@
         <v>211111878</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4158,25 +4146,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>11430</v>
+        <v>11429</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45934.485266203701</v>
+        <v>45934.485231481478</v>
       </c>
       <c r="H87" s="1">
-        <v>45874.485266203701</v>
+        <v>45874.485231481478</v>
       </c>
       <c r="I87" s="2">
-        <v>-56</v>
+        <v>-49</v>
       </c>
       <c r="J87" s="3">
-        <v>405.8</v>
+        <v>472.14</v>
       </c>
       <c r="K87" s="3">
-        <v>405.8</v>
+        <v>472.14</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4187,10 +4175,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4199,25 +4187,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>10687</v>
+        <v>11430</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45885.468888888885</v>
+        <v>45934.485266203701</v>
       </c>
       <c r="H88" s="1">
-        <v>45855.468888888885</v>
+        <v>45874.485266203701</v>
       </c>
       <c r="I88" s="2">
-        <v>-7</v>
+        <v>-49</v>
       </c>
       <c r="J88" s="3">
-        <v>542.13</v>
+        <v>405.8</v>
       </c>
       <c r="K88" s="3">
-        <v>542.13</v>
+        <v>405.8</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4228,160 +4216,160 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89">
-        <v>326</v>
+        <v>11717</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45777</v>
+        <v>45940.541759259257</v>
       </c>
       <c r="H89" s="1">
-        <v>45747</v>
+        <v>45880.541770833333</v>
       </c>
       <c r="I89" s="2">
-        <v>101</v>
+        <v>-55</v>
       </c>
       <c r="J89" s="3">
-        <v>-22</v>
+        <v>100.79</v>
       </c>
       <c r="K89" s="3">
-        <v>-22</v>
+        <v>100.79</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
       </c>
       <c r="E90">
-        <v>327</v>
+        <v>11758</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45777</v>
+        <v>45941.499224537038</v>
       </c>
       <c r="H90" s="1">
-        <v>45747</v>
+        <v>45881.499236111107</v>
       </c>
       <c r="I90" s="2">
-        <v>101</v>
+        <v>-56</v>
       </c>
       <c r="J90" s="3">
-        <v>-27.45</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="K90" s="3">
-        <v>-27.45</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="E91">
-        <v>328</v>
+        <v>11922</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45777</v>
+        <v>45943.619444444441</v>
       </c>
       <c r="H91" s="1">
-        <v>45747</v>
+        <v>45883.620034722218</v>
       </c>
       <c r="I91" s="2">
-        <v>101</v>
+        <v>-58</v>
       </c>
       <c r="J91" s="3">
-        <v>-5.73</v>
+        <v>97.43</v>
       </c>
       <c r="K91" s="3">
-        <v>-5.73</v>
+        <v>97.43</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>546</v>
+        <v>10687</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45879</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H92" s="1">
-        <v>45819</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I92" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J92" s="3">
-        <v>-680.83</v>
+        <v>542.13</v>
       </c>
       <c r="K92" s="3">
-        <v>-680.83</v>
+        <v>542.13</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4392,10 +4380,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4404,25 +4392,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>9182</v>
+        <v>11880</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45881.340092592589</v>
+        <v>45913.40384259259</v>
       </c>
       <c r="H93" s="1">
-        <v>45821.340949074074</v>
+        <v>45883.403854166667</v>
       </c>
       <c r="I93" s="2">
-        <v>-3</v>
+        <v>-28</v>
       </c>
       <c r="J93" s="3">
-        <v>968.26</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="K93" s="3">
-        <v>968.26</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4433,37 +4421,37 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
       </c>
       <c r="E94">
-        <v>569</v>
+        <v>11881</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45885</v>
+        <v>45913.405740740738</v>
       </c>
       <c r="H94" s="1">
-        <v>45825</v>
+        <v>45883.405740740738</v>
       </c>
       <c r="I94" s="2">
-        <v>-7</v>
+        <v>-28</v>
       </c>
       <c r="J94" s="3">
-        <v>-69.09</v>
+        <v>115.78</v>
       </c>
       <c r="K94" s="3">
-        <v>-69.09</v>
+        <v>115.78</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4474,125 +4462,125 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95">
-        <v>9796</v>
+        <v>326</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45894.634768518517</v>
+        <v>45777</v>
       </c>
       <c r="H95" s="1">
-        <v>45834.635682870372</v>
+        <v>45747</v>
       </c>
       <c r="I95" s="2">
-        <v>-16</v>
+        <v>108</v>
       </c>
       <c r="J95" s="3">
-        <v>107.37</v>
+        <v>-22</v>
       </c>
       <c r="K95" s="3">
-        <v>107.37</v>
+        <v>-22</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
       <c r="E96">
-        <v>10369</v>
+        <v>327</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45908.309050925927</v>
+        <v>45777</v>
       </c>
       <c r="H96" s="1">
-        <v>45848.309965277775</v>
+        <v>45747</v>
       </c>
       <c r="I96" s="2">
-        <v>-30</v>
+        <v>108</v>
       </c>
       <c r="J96" s="3">
-        <v>1512.89</v>
+        <v>-27.45</v>
       </c>
       <c r="K96" s="3">
-        <v>1512.89</v>
+        <v>-27.45</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>328</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45922</v>
+        <v>45777</v>
       </c>
       <c r="H97" s="1">
-        <v>45862</v>
+        <v>45747</v>
       </c>
       <c r="I97" s="2">
-        <v>-44</v>
+        <v>108</v>
       </c>
       <c r="J97" s="3">
-        <v>-15.38</v>
+        <v>-5.73</v>
       </c>
       <c r="K97" s="3">
-        <v>-15.38</v>
+        <v>-5.73</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4600,40 +4588,40 @@
         <v>211112052</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98">
         <v>2025</v>
       </c>
       <c r="E98">
-        <v>682</v>
+        <v>546</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45922</v>
+        <v>45879</v>
       </c>
       <c r="H98" s="1">
-        <v>45862</v>
+        <v>45819</v>
       </c>
       <c r="I98" s="2">
-        <v>-44</v>
+        <v>6</v>
       </c>
       <c r="J98" s="3">
-        <v>-606.93000000000006</v>
+        <v>-680.83</v>
       </c>
       <c r="K98" s="3">
-        <v>-606.93000000000006</v>
+        <v>-680.83</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4641,7 +4629,7 @@
         <v>211112052</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4650,31 +4638,31 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>11013</v>
+        <v>9182</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45923.283518518518</v>
+        <v>45881.340092592589</v>
       </c>
       <c r="H99" s="1">
-        <v>45863.287939814814</v>
+        <v>45821.340949074074</v>
       </c>
       <c r="I99" s="2">
-        <v>-45</v>
+        <v>3.6599074074110831</v>
       </c>
       <c r="J99" s="3">
-        <v>417.19</v>
+        <v>968.26</v>
       </c>
       <c r="K99" s="3">
-        <v>417.19</v>
+        <v>968.26</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4682,34 +4670,34 @@
         <v>211112052</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
       </c>
       <c r="E100">
-        <v>11014</v>
+        <v>569</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45923.288171296292</v>
+        <v>45885</v>
       </c>
       <c r="H100" s="1">
-        <v>45863.288368055553</v>
+        <v>45825</v>
       </c>
       <c r="I100" s="2">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>606.93000000000006</v>
+        <v>-69.09</v>
       </c>
       <c r="K100" s="3">
-        <v>606.93000000000006</v>
+        <v>-69.09</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
@@ -4723,7 +4711,7 @@
         <v>211112052</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4732,25 +4720,25 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>11085</v>
+        <v>9796</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45923.645879629628</v>
+        <v>45894.634768518517</v>
       </c>
       <c r="H101" s="1">
-        <v>45863.645879629628</v>
+        <v>45834.635682870372</v>
       </c>
       <c r="I101" s="2">
-        <v>-45</v>
+        <v>-9</v>
       </c>
       <c r="J101" s="3">
-        <v>726.19</v>
+        <v>107.37</v>
       </c>
       <c r="K101" s="3">
-        <v>726.19</v>
+        <v>107.37</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4764,7 +4752,7 @@
         <v>211112052</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4773,25 +4761,25 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>11609</v>
+        <v>10369</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45937.476863425924</v>
+        <v>45908.309050925927</v>
       </c>
       <c r="H102" s="1">
-        <v>45877.477210648147</v>
+        <v>45848.309965277775</v>
       </c>
       <c r="I102" s="2">
-        <v>-59</v>
+        <v>-23</v>
       </c>
       <c r="J102" s="3">
-        <v>957.27</v>
+        <v>1512.89</v>
       </c>
       <c r="K102" s="3">
-        <v>957.27</v>
+        <v>1512.89</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -4802,215 +4790,215 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E103">
-        <v>10043</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45871.497939814813</v>
+        <v>45922</v>
       </c>
       <c r="H103" s="1">
-        <v>45841.497939814813</v>
+        <v>45862</v>
       </c>
       <c r="I103" s="2">
-        <v>7</v>
+        <v>-37</v>
       </c>
       <c r="J103" s="3">
-        <v>1040.5999999999999</v>
+        <v>-15.38</v>
       </c>
       <c r="K103" s="3">
-        <v>1040.5999999999999</v>
+        <v>-15.38</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
       </c>
       <c r="E104">
-        <v>14</v>
+        <v>682</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45627</v>
+        <v>45922</v>
       </c>
       <c r="H104" s="1">
-        <v>45567</v>
+        <v>45862</v>
       </c>
       <c r="I104" s="2">
-        <v>251</v>
+        <v>-37</v>
       </c>
       <c r="J104" s="3">
-        <v>-463.01</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="K104" s="3">
-        <v>-459.04</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>42</v>
-      </c>
-      <c r="E105" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="E105">
+        <v>11013</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45629</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H105" s="1">
-        <v>45569</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I105" s="2">
-        <v>249</v>
+        <v>-38</v>
       </c>
       <c r="J105" s="3">
-        <v>-39741.590000000004</v>
+        <v>417.19</v>
       </c>
       <c r="K105" s="3">
-        <v>-2522.2600000000002</v>
+        <v>417.19</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
-      </c>
-      <c r="D106">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
       </c>
       <c r="E106">
-        <v>331</v>
+        <v>11014</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45816</v>
+        <v>45923.288171296292</v>
       </c>
       <c r="H106" s="1">
-        <v>45756</v>
+        <v>45863.288368055553</v>
       </c>
       <c r="I106" s="2">
-        <v>62</v>
+        <v>-38</v>
       </c>
       <c r="J106" s="3">
-        <v>-2377.96</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="K106" s="3">
-        <v>-2377.96</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>332</v>
+        <v>11085</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45816</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H107" s="1">
-        <v>45756</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I107" s="2">
-        <v>62</v>
+        <v>-38</v>
       </c>
       <c r="J107" s="3">
-        <v>-1248.79</v>
+        <v>726.19</v>
       </c>
       <c r="K107" s="3">
-        <v>-1248.79</v>
+        <v>726.19</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -5019,39 +5007,39 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>8893</v>
+        <v>11609</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45873.43032407407</v>
+        <v>45937.476863425924</v>
       </c>
       <c r="H108" s="1">
-        <v>45813.430856481478</v>
+        <v>45877.477210648147</v>
       </c>
       <c r="I108" s="2">
-        <v>5</v>
+        <v>-52</v>
       </c>
       <c r="J108" s="3">
-        <v>3413.67</v>
+        <v>957.27</v>
       </c>
       <c r="K108" s="3">
-        <v>3413.67</v>
+        <v>957.27</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112151</v>
+        <v>211112098</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5060,31 +5048,31 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>8894</v>
+        <v>11783</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45873.431076388886</v>
+        <v>45912.363032407404</v>
       </c>
       <c r="H109" s="1">
-        <v>45813.431388888886</v>
+        <v>45882.363032407404</v>
       </c>
       <c r="I109" s="2">
-        <v>5</v>
+        <v>-27</v>
       </c>
       <c r="J109" s="3">
-        <v>2973.26</v>
+        <v>468.88</v>
       </c>
       <c r="K109" s="3">
-        <v>2973.26</v>
+        <v>468.88</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5092,7 +5080,7 @@
         <v>211112151</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5113,7 +5101,7 @@
         <v>45820.639421296291</v>
       </c>
       <c r="I110" s="2">
-        <v>-2</v>
+        <v>4.362060185187147</v>
       </c>
       <c r="J110" s="3">
         <v>3277.76</v>
@@ -5125,7 +5113,7 @@
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5133,7 +5121,7 @@
         <v>211112151</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5154,7 +5142,7 @@
         <v>45828.628541666665</v>
       </c>
       <c r="I111" s="2">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="J111" s="3">
         <v>2976.7400000000002</v>
@@ -5174,13 +5162,13 @@
         <v>211112151</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E112">
         <v>123</v>
@@ -5195,7 +5183,7 @@
         <v>45828.673252314809</v>
       </c>
       <c r="I112" s="2">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="J112" s="3">
         <v>1721.02</v>
@@ -5215,7 +5203,7 @@
         <v>211112151</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5236,7 +5224,7 @@
         <v>45834.65211805555</v>
       </c>
       <c r="I113" s="2">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="J113" s="3">
         <v>617.68000000000006</v>
@@ -5256,7 +5244,7 @@
         <v>211112151</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5277,7 +5265,7 @@
         <v>45834.653495370367</v>
       </c>
       <c r="I114" s="2">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="J114" s="3">
         <v>1272.99</v>
@@ -5297,7 +5285,7 @@
         <v>211112151</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5318,7 +5306,7 @@
         <v>45838.702037037037</v>
       </c>
       <c r="I115" s="2">
-        <v>-20</v>
+        <v>-13</v>
       </c>
       <c r="J115" s="3">
         <v>2730.67</v>
@@ -5338,7 +5326,7 @@
         <v>211112151</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5359,7 +5347,7 @@
         <v>45845.635636574072</v>
       </c>
       <c r="I116" s="2">
-        <v>-27</v>
+        <v>-20</v>
       </c>
       <c r="J116" s="3">
         <v>2189.11</v>
@@ -5379,7 +5367,7 @@
         <v>211112151</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5400,7 +5388,7 @@
         <v>45853.353888888887</v>
       </c>
       <c r="I117" s="2">
-        <v>-35</v>
+        <v>-28</v>
       </c>
       <c r="J117" s="3">
         <v>4871.05</v>
@@ -5420,7 +5408,7 @@
         <v>211112151</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5441,7 +5429,7 @@
         <v>45867.359340277777</v>
       </c>
       <c r="I118" s="2">
-        <v>-49</v>
+        <v>-42</v>
       </c>
       <c r="J118" s="3">
         <v>1891.52</v>
@@ -5461,7 +5449,7 @@
         <v>211112151</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5482,7 +5470,7 @@
         <v>45875.332268518519</v>
       </c>
       <c r="I119" s="2">
-        <v>-57</v>
+        <v>-50</v>
       </c>
       <c r="J119" s="3">
         <v>2536.7800000000002</v>
@@ -5502,7 +5490,7 @@
         <v>211112151</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5523,7 +5511,7 @@
         <v>45875.332824074074</v>
       </c>
       <c r="I120" s="2">
-        <v>-57</v>
+        <v>-50</v>
       </c>
       <c r="J120" s="3">
         <v>1486.91</v>
@@ -5540,125 +5528,125 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>211112183</v>
+        <v>211112151</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
-      </c>
-      <c r="D121">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
       </c>
       <c r="E121">
-        <v>14</v>
+        <v>11860</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45693</v>
+        <v>45942.619097222218</v>
       </c>
       <c r="H121" s="1">
-        <v>45663</v>
+        <v>45882.62773148148</v>
       </c>
       <c r="I121" s="2">
-        <v>185</v>
+        <v>-57</v>
       </c>
       <c r="J121" s="3">
-        <v>-4385.22</v>
+        <v>3031.57</v>
       </c>
       <c r="K121" s="3">
-        <v>-782.21</v>
+        <v>3031.57</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E122">
-        <v>8763</v>
+        <v>153</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45841.406585648147</v>
+        <v>45942.62940972222</v>
       </c>
       <c r="H122" s="1">
-        <v>45811.406979166662</v>
+        <v>45882.629641203705</v>
       </c>
       <c r="I122" s="2">
-        <v>37</v>
+        <v>-57</v>
       </c>
       <c r="J122" s="3">
-        <v>808.13</v>
+        <v>1558.65</v>
       </c>
       <c r="K122" s="3">
-        <v>143.54</v>
+        <v>1558.65</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211112216</v>
+        <v>211112183</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="D123">
+        <v>2025</v>
       </c>
       <c r="E123">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45858.629687499997</v>
+        <v>45693</v>
       </c>
       <c r="H123" s="1">
-        <v>45828.63045138889</v>
+        <v>45663</v>
       </c>
       <c r="I123" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="J123" s="3">
-        <v>675.35</v>
+        <v>-4385.22</v>
       </c>
       <c r="K123" s="3">
-        <v>255.70000000000002</v>
+        <v>-782.21</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5666,7 +5654,7 @@
         <v>211112216</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5675,31 +5663,31 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>9924</v>
+        <v>8763</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45869.354363425926</v>
+        <v>45841.406585648147</v>
       </c>
       <c r="H124" s="1">
-        <v>45839.356215277774</v>
+        <v>45811.406979166662</v>
       </c>
       <c r="I124" s="2">
-        <v>9</v>
+        <v>43.593414351853426</v>
       </c>
       <c r="J124" s="3">
-        <v>574.62</v>
+        <v>808.13</v>
       </c>
       <c r="K124" s="3">
-        <v>57.78</v>
+        <v>143.54</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5707,48 +5695,48 @@
         <v>211112216</v>
       </c>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E125">
-        <v>11575</v>
+        <v>122</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45906.462129629625</v>
+        <v>45858.629687499997</v>
       </c>
       <c r="H125" s="1">
-        <v>45876.462129629625</v>
+        <v>45828.63045138889</v>
       </c>
       <c r="I125" s="2">
-        <v>-28</v>
+        <v>26.37031250000291</v>
       </c>
       <c r="J125" s="3">
-        <v>647.14</v>
+        <v>675.35</v>
       </c>
       <c r="K125" s="3">
-        <v>647.14</v>
+        <v>255.70000000000002</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112290</v>
+        <v>211112216</v>
       </c>
       <c r="B126" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5757,277 +5745,277 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>10786</v>
+        <v>9924</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45916.621446759258</v>
+        <v>45869.354363425926</v>
       </c>
       <c r="H126" s="1">
-        <v>45856.622523148144</v>
+        <v>45839.356215277774</v>
       </c>
       <c r="I126" s="2">
-        <v>-38</v>
+        <v>15.64563657407416</v>
       </c>
       <c r="J126" s="3">
-        <v>2347.12</v>
+        <v>574.62</v>
       </c>
       <c r="K126" s="3">
-        <v>2347.12</v>
+        <v>57.78</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112334</v>
+        <v>211112216</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>42</v>
-      </c>
-      <c r="E127" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="E127">
+        <v>11575</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45406</v>
+        <v>45906.462129629625</v>
       </c>
       <c r="H127" s="1">
-        <v>45391</v>
+        <v>45876.462129629625</v>
       </c>
       <c r="I127" s="2">
-        <v>472</v>
+        <v>-21</v>
       </c>
       <c r="J127" s="3">
-        <v>597.29</v>
+        <v>647.14</v>
       </c>
       <c r="K127" s="3">
-        <v>597.29</v>
+        <v>647.14</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
       </c>
       <c r="M127" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112334</v>
+        <v>211112290</v>
       </c>
       <c r="B128" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C128" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>42</v>
-      </c>
-      <c r="E128" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="E128">
+        <v>10786</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45406</v>
+        <v>45916.621446759258</v>
       </c>
       <c r="H128" s="1">
-        <v>45391</v>
+        <v>45856.622523148144</v>
       </c>
       <c r="I128" s="2">
-        <v>472</v>
+        <v>-31</v>
       </c>
       <c r="J128" s="3">
-        <v>591.72</v>
+        <v>2347.12</v>
       </c>
       <c r="K128" s="3">
-        <v>591.72</v>
+        <v>2347.12</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
       </c>
       <c r="M128" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112334</v>
+        <v>211112290</v>
       </c>
       <c r="B129" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>42</v>
-      </c>
-      <c r="E129" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="E129">
+        <v>11859</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45419</v>
+        <v>45942.611527777779</v>
       </c>
       <c r="H129" s="1">
-        <v>45404</v>
+        <v>45882.616122685184</v>
       </c>
       <c r="I129" s="2">
-        <v>459</v>
+        <v>-57</v>
       </c>
       <c r="J129" s="3">
-        <v>599.27</v>
+        <v>1123.45</v>
       </c>
       <c r="K129" s="3">
-        <v>599.27</v>
+        <v>1123.45</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
       </c>
       <c r="M129" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130">
-        <v>411</v>
+        <v>38</v>
+      </c>
+      <c r="E130" t="s">
+        <v>45</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45837</v>
+        <v>45406</v>
       </c>
       <c r="H130" s="1">
-        <v>45777</v>
+        <v>45391</v>
       </c>
       <c r="I130" s="2">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="J130" s="3">
-        <v>-313.76</v>
+        <v>597.29</v>
       </c>
       <c r="K130" s="3">
-        <v>-313.76</v>
+        <v>597.29</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B131" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131">
-        <v>7018</v>
+        <v>38</v>
+      </c>
+      <c r="E131" t="s">
+        <v>46</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45837.739259259259</v>
+        <v>45406</v>
       </c>
       <c r="H131" s="1">
-        <v>45777.741296296292</v>
+        <v>45391</v>
       </c>
       <c r="I131" s="2">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="J131" s="3">
-        <v>4925.1000000000004</v>
+        <v>591.72</v>
       </c>
       <c r="K131" s="3">
-        <v>4925.1000000000004</v>
+        <v>591.72</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B132" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132">
-        <v>7192</v>
+        <v>38</v>
+      </c>
+      <c r="E132" t="s">
+        <v>47</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45843.368854166663</v>
+        <v>45419</v>
       </c>
       <c r="H132" s="1">
-        <v>45783.369363425925</v>
+        <v>45404</v>
       </c>
       <c r="I132" s="2">
-        <v>35</v>
+        <v>466</v>
       </c>
       <c r="J132" s="3">
-        <v>4675.67</v>
+        <v>599.27</v>
       </c>
       <c r="K132" s="3">
-        <v>4675.67</v>
+        <v>599.27</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6035,40 +6023,40 @@
         <v>211112351</v>
       </c>
       <c r="B133" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133">
-        <v>7370</v>
+        <v>411</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45845.34983796296</v>
+        <v>45837</v>
       </c>
       <c r="H133" s="1">
-        <v>45785.350659722222</v>
+        <v>45777</v>
       </c>
       <c r="I133" s="2">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J133" s="3">
-        <v>4323.37</v>
+        <v>-313.76</v>
       </c>
       <c r="K133" s="3">
-        <v>4323.37</v>
+        <v>-313.76</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6076,7 +6064,7 @@
         <v>211112351</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6085,31 +6073,31 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>7619</v>
+        <v>7018</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45850.387407407405</v>
+        <v>45837.739259259259</v>
       </c>
       <c r="H134" s="1">
-        <v>45790.388252314813</v>
+        <v>45777.741296296292</v>
       </c>
       <c r="I134" s="2">
-        <v>28</v>
+        <v>47.260740740741312</v>
       </c>
       <c r="J134" s="3">
-        <v>7394.88</v>
+        <v>4925.1000000000004</v>
       </c>
       <c r="K134" s="3">
-        <v>7394.88</v>
+        <v>4925.1000000000004</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6117,7 +6105,7 @@
         <v>211112351</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6126,31 +6114,31 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>8006</v>
+        <v>7192</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45857.37296296296</v>
+        <v>45843.368854166663</v>
       </c>
       <c r="H135" s="1">
-        <v>45797.375092592592</v>
+        <v>45783.369363425925</v>
       </c>
       <c r="I135" s="2">
-        <v>21</v>
+        <v>41.631145833336632</v>
       </c>
       <c r="J135" s="3">
-        <v>3927.87</v>
+        <v>4675.67</v>
       </c>
       <c r="K135" s="3">
-        <v>3927.87</v>
+        <v>4675.67</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6158,7 +6146,7 @@
         <v>211112351</v>
       </c>
       <c r="B136" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6167,31 +6155,31 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>8750</v>
+        <v>7370</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45871.312986111108</v>
+        <v>45845.34983796296</v>
       </c>
       <c r="H136" s="1">
-        <v>45811.315150462964</v>
+        <v>45785.350659722222</v>
       </c>
       <c r="I136" s="2">
-        <v>7</v>
+        <v>39.650162037039991</v>
       </c>
       <c r="J136" s="3">
-        <v>2626.23</v>
+        <v>4323.37</v>
       </c>
       <c r="K136" s="3">
-        <v>2626.23</v>
+        <v>4323.37</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6199,7 +6187,7 @@
         <v>211112351</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6208,39 +6196,39 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>9758</v>
+        <v>7619</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45894.404513888891</v>
+        <v>45850.387407407405</v>
       </c>
       <c r="H137" s="1">
-        <v>45834.411666666667</v>
+        <v>45790.388252314813</v>
       </c>
       <c r="I137" s="2">
-        <v>-16</v>
+        <v>34.61259259259532</v>
       </c>
       <c r="J137" s="3">
-        <v>2212.2600000000002</v>
+        <v>7394.88</v>
       </c>
       <c r="K137" s="3">
-        <v>2212.2600000000002</v>
+        <v>7394.88</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112421</v>
+        <v>211112351</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6249,39 +6237,39 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>3848</v>
+        <v>8006</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45746.622569444444</v>
+        <v>45857.37296296296</v>
       </c>
       <c r="H138" s="1">
-        <v>45716.624456018515</v>
+        <v>45797.375092592592</v>
       </c>
       <c r="I138" s="2">
-        <v>132</v>
+        <v>27.627037037040282</v>
       </c>
       <c r="J138" s="3">
-        <v>233.77</v>
+        <v>3927.87</v>
       </c>
       <c r="K138" s="3">
-        <v>233.77</v>
+        <v>3927.87</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112443</v>
+        <v>211112351</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6290,39 +6278,39 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>8418</v>
+        <v>8750</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45834.405034722222</v>
+        <v>45871.312986111108</v>
       </c>
       <c r="H139" s="1">
-        <v>45804.405219907407</v>
+        <v>45811.315150462964</v>
       </c>
       <c r="I139" s="2">
-        <v>44</v>
+        <v>13.68701388889167</v>
       </c>
       <c r="J139" s="3">
-        <v>396.04</v>
+        <v>2626.23</v>
       </c>
       <c r="K139" s="3">
-        <v>396.04</v>
+        <v>2626.23</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112443</v>
+        <v>211112351</v>
       </c>
       <c r="B140" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6331,39 +6319,39 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>8910</v>
+        <v>9758</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45843.497025462959</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H140" s="1">
-        <v>45813.497488425921</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I140" s="2">
-        <v>35</v>
+        <v>-9</v>
       </c>
       <c r="J140" s="3">
-        <v>765.47</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K140" s="3">
-        <v>765.47</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112443</v>
+        <v>211112421</v>
       </c>
       <c r="B141" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6372,39 +6360,39 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>10549</v>
+        <v>3848</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45883.354108796295</v>
+        <v>45746.622569444444</v>
       </c>
       <c r="H141" s="1">
-        <v>45853.354548611111</v>
+        <v>45716.624456018515</v>
       </c>
       <c r="I141" s="2">
-        <v>-5</v>
+        <v>138.3774305555562</v>
       </c>
       <c r="J141" s="3">
-        <v>1094.7</v>
+        <v>233.77</v>
       </c>
       <c r="K141" s="3">
-        <v>1094.7</v>
+        <v>233.77</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112455</v>
+        <v>211112443</v>
       </c>
       <c r="B142" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6413,39 +6401,39 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>9912</v>
+        <v>8910</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45868.70212962963</v>
+        <v>45843.497025462959</v>
       </c>
       <c r="H142" s="1">
-        <v>45838.702465277776</v>
+        <v>45813.497488425921</v>
       </c>
       <c r="I142" s="2">
-        <v>10</v>
+        <v>41.502974537041155</v>
       </c>
       <c r="J142" s="3">
-        <v>2033.5</v>
+        <v>765.47</v>
       </c>
       <c r="K142" s="3">
-        <v>2033.5</v>
+        <v>765.47</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112455</v>
+        <v>211112443</v>
       </c>
       <c r="B143" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6454,31 +6442,31 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>10545</v>
+        <v>10549</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45883.337488425925</v>
+        <v>45883.354108796295</v>
       </c>
       <c r="H143" s="1">
-        <v>45853.348136574074</v>
+        <v>45853.354548611111</v>
       </c>
       <c r="I143" s="2">
-        <v>-5</v>
+        <v>1.645891203705105</v>
       </c>
       <c r="J143" s="3">
-        <v>1711.91</v>
+        <v>1094.7</v>
       </c>
       <c r="K143" s="3">
-        <v>1711.91</v>
+        <v>1094.7</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6486,7 +6474,7 @@
         <v>211112455</v>
       </c>
       <c r="B144" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6495,31 +6483,31 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>10837</v>
+        <v>10545</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45890.319421296292</v>
+        <v>45883.337488425925</v>
       </c>
       <c r="H144" s="1">
-        <v>45860.320057870369</v>
+        <v>45853.348136574074</v>
       </c>
       <c r="I144" s="2">
-        <v>-12</v>
+        <v>1.6625115740753245</v>
       </c>
       <c r="J144" s="3">
-        <v>1555.67</v>
+        <v>1711.91</v>
       </c>
       <c r="K144" s="3">
-        <v>1555.67</v>
+        <v>1711.91</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6527,7 +6515,7 @@
         <v>211112455</v>
       </c>
       <c r="B145" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6536,25 +6524,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>11299</v>
+        <v>10837</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45900.301238425927</v>
+        <v>45890.319421296292</v>
       </c>
       <c r="H145" s="1">
-        <v>45870.301851851851</v>
+        <v>45860.320057870369</v>
       </c>
       <c r="I145" s="2">
-        <v>-22</v>
+        <v>-5</v>
       </c>
       <c r="J145" s="3">
-        <v>1512.3600000000001</v>
+        <v>1555.67</v>
       </c>
       <c r="K145" s="3">
-        <v>1512.3600000000001</v>
+        <v>1555.67</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6568,7 +6556,7 @@
         <v>211112455</v>
       </c>
       <c r="B146" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6577,25 +6565,25 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>11471</v>
+        <v>11299</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45905.332974537036</v>
+        <v>45900.301238425927</v>
       </c>
       <c r="H146" s="1">
-        <v>45875.333553240736</v>
+        <v>45870.301851851851</v>
       </c>
       <c r="I146" s="2">
-        <v>-27</v>
+        <v>-15</v>
       </c>
       <c r="J146" s="3">
-        <v>1789.6000000000001</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="K146" s="3">
-        <v>1789.6000000000001</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -6606,10 +6594,10 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112469</v>
+        <v>211112455</v>
       </c>
       <c r="B147" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6618,25 +6606,25 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>10547</v>
+        <v>11471</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45883.352349537032</v>
+        <v>45905.332974537036</v>
       </c>
       <c r="H147" s="1">
-        <v>45853.352858796294</v>
+        <v>45875.333553240736</v>
       </c>
       <c r="I147" s="2">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="J147" s="3">
-        <v>957.17000000000007</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="K147" s="3">
-        <v>957.17000000000007</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -6647,37 +6635,37 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112469</v>
+        <v>211112455</v>
       </c>
       <c r="B148" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E148">
-        <v>7</v>
+        <v>11858</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45892</v>
+        <v>45912.609606481477</v>
       </c>
       <c r="H148" s="1">
-        <v>45862</v>
+        <v>45882.61142361111</v>
       </c>
       <c r="I148" s="2">
-        <v>-14</v>
+        <v>-27</v>
       </c>
       <c r="J148" s="3">
-        <v>-15.38</v>
+        <v>2905.4</v>
       </c>
       <c r="K148" s="3">
-        <v>-15.38</v>
+        <v>2905.4</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -6691,7 +6679,7 @@
         <v>211112469</v>
       </c>
       <c r="B149" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6700,80 +6688,80 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>11558</v>
+        <v>10547</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="1">
-        <v>45906.43645833333</v>
+        <v>45883.352349537032</v>
       </c>
       <c r="H149" s="1">
-        <v>45876.437384259254</v>
+        <v>45853.352858796294</v>
       </c>
       <c r="I149" s="2">
-        <v>-28</v>
+        <v>1.6476504629681585</v>
       </c>
       <c r="J149" s="3">
-        <v>1107.6200000000001</v>
+        <v>957.17000000000007</v>
       </c>
       <c r="K149" s="3">
-        <v>1107.6200000000001</v>
+        <v>957.17000000000007</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
       </c>
       <c r="M149" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112476</v>
+        <v>211112469</v>
       </c>
       <c r="B150" t="s">
+        <v>52</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" t="s">
         <v>58</v>
       </c>
-      <c r="C150" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" t="s">
-        <v>15</v>
-      </c>
       <c r="E150">
-        <v>10023</v>
+        <v>7</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" s="1">
-        <v>45871.36619212963</v>
+        <v>45892</v>
       </c>
       <c r="H150" s="1">
-        <v>45841.366562499999</v>
+        <v>45862</v>
       </c>
       <c r="I150" s="2">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="J150" s="3">
-        <v>275.11</v>
+        <v>-15.38</v>
       </c>
       <c r="K150" s="3">
-        <v>275.11</v>
+        <v>-15.38</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112476</v>
+        <v>211112469</v>
       </c>
       <c r="B151" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6782,25 +6770,25 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>10666</v>
+        <v>11558</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>45885.346874999996</v>
+        <v>45906.43645833333</v>
       </c>
       <c r="H151" s="1">
-        <v>45855.347696759258</v>
+        <v>45876.437384259254</v>
       </c>
       <c r="I151" s="2">
-        <v>-7</v>
+        <v>-21</v>
       </c>
       <c r="J151" s="3">
-        <v>211.36</v>
+        <v>1107.6200000000001</v>
       </c>
       <c r="K151" s="3">
-        <v>211.36</v>
+        <v>1107.6200000000001</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -6811,10 +6799,10 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112488</v>
+        <v>211112476</v>
       </c>
       <c r="B152" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -6823,31 +6811,31 @@
         <v>15</v>
       </c>
       <c r="E152">
-        <v>9567</v>
+        <v>10023</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="1">
-        <v>45828.710740740738</v>
+        <v>45871.36619212963</v>
       </c>
       <c r="H152" s="1">
-        <v>45828.710740740738</v>
+        <v>45841.366562499999</v>
       </c>
       <c r="I152" s="2">
-        <v>50</v>
+        <v>13.633807870370219</v>
       </c>
       <c r="J152" s="3">
-        <v>992.69</v>
+        <v>275.11</v>
       </c>
       <c r="K152" s="3">
-        <v>992.69</v>
+        <v>275.11</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
       </c>
       <c r="M152" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6855,7 +6843,7 @@
         <v>211112488</v>
       </c>
       <c r="B153" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6870,13 +6858,13 @@
         <v>16</v>
       </c>
       <c r="G153" s="1">
-        <v>45842.656388888885</v>
+        <v>45872.656388888885</v>
       </c>
       <c r="H153" s="1">
         <v>45842.656388888885</v>
       </c>
       <c r="I153" s="2">
-        <v>36</v>
+        <v>12.343611111115024</v>
       </c>
       <c r="J153" s="3">
         <v>1008.07</v>
@@ -6888,42 +6876,42 @@
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211112488</v>
+        <v>211112515</v>
       </c>
       <c r="B154" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D154">
         <v>2025</v>
       </c>
       <c r="E154">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="F154" t="s">
         <v>16</v>
       </c>
       <c r="G154" s="1">
-        <v>45848</v>
+        <v>45861</v>
       </c>
       <c r="H154" s="1">
-        <v>45848</v>
+        <v>45831</v>
       </c>
       <c r="I154" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J154" s="3">
-        <v>-992.69</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="K154" s="3">
-        <v>-992.69</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -6934,84 +6922,84 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112494</v>
+        <v>211112515</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D155">
+        <v>2025</v>
       </c>
       <c r="E155">
-        <v>5411</v>
+        <v>621</v>
       </c>
       <c r="F155" t="s">
         <v>16</v>
       </c>
       <c r="G155" s="1">
-        <v>45777.661319444444</v>
+        <v>45875</v>
       </c>
       <c r="H155" s="1">
-        <v>45747.663402777776</v>
+        <v>45845</v>
       </c>
       <c r="I155" s="2">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="J155" s="3">
-        <v>213.1</v>
+        <v>-49.21</v>
       </c>
       <c r="K155" s="3">
-        <v>213.1</v>
+        <v>-49.21</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211112494</v>
+        <v>211112515</v>
       </c>
       <c r="B156" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E156">
-        <v>6692</v>
+        <v>3</v>
       </c>
       <c r="F156" t="s">
         <v>16</v>
       </c>
       <c r="G156" s="1">
-        <v>45800.410613425927</v>
+        <v>45892</v>
       </c>
       <c r="H156" s="1">
-        <v>45770.412349537037</v>
+        <v>45862</v>
       </c>
       <c r="I156" s="2">
-        <v>78</v>
+        <v>-7</v>
       </c>
       <c r="J156" s="3">
-        <v>177.04</v>
+        <v>-15.38</v>
       </c>
       <c r="K156" s="3">
-        <v>177.04</v>
+        <v>-15.38</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
       </c>
       <c r="M156" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7019,40 +7007,40 @@
         <v>211112515</v>
       </c>
       <c r="B157" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D157">
         <v>2025</v>
       </c>
       <c r="E157">
-        <v>575</v>
+        <v>696</v>
       </c>
       <c r="F157" t="s">
         <v>16</v>
       </c>
       <c r="G157" s="1">
-        <v>45861</v>
+        <v>45893</v>
       </c>
       <c r="H157" s="1">
-        <v>45831</v>
+        <v>45863</v>
       </c>
       <c r="I157" s="2">
-        <v>17</v>
+        <v>-8</v>
       </c>
       <c r="J157" s="3">
-        <v>-390.40000000000003</v>
+        <v>-102.25</v>
       </c>
       <c r="K157" s="3">
-        <v>-390.40000000000003</v>
+        <v>-102.25</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
       </c>
       <c r="M157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7060,40 +7048,40 @@
         <v>211112515</v>
       </c>
       <c r="B158" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
-      </c>
-      <c r="D158">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
       </c>
       <c r="E158">
-        <v>621</v>
+        <v>11018</v>
       </c>
       <c r="F158" t="s">
         <v>16</v>
       </c>
       <c r="G158" s="1">
-        <v>45875</v>
+        <v>45893.344247685185</v>
       </c>
       <c r="H158" s="1">
-        <v>45845</v>
+        <v>45863.344930555555</v>
       </c>
       <c r="I158" s="2">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="J158" s="3">
-        <v>-49.21</v>
+        <v>653.94000000000005</v>
       </c>
       <c r="K158" s="3">
-        <v>-49.21</v>
+        <v>653.94000000000005</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
       </c>
       <c r="M158" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7101,34 +7089,34 @@
         <v>211112515</v>
       </c>
       <c r="B159" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>3</v>
+        <v>11868</v>
       </c>
       <c r="F159" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="1">
-        <v>45892</v>
+        <v>45913.38927083333</v>
       </c>
       <c r="H159" s="1">
-        <v>45862</v>
+        <v>45883.390358796292</v>
       </c>
       <c r="I159" s="2">
-        <v>-14</v>
+        <v>-28</v>
       </c>
       <c r="J159" s="3">
-        <v>-15.38</v>
+        <v>1706.69</v>
       </c>
       <c r="K159" s="3">
-        <v>-15.38</v>
+        <v>1706.69</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -7139,37 +7127,37 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>211112515</v>
+        <v>211112518</v>
       </c>
       <c r="B160" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
-      </c>
-      <c r="D160">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
       </c>
       <c r="E160">
-        <v>696</v>
+        <v>9953</v>
       </c>
       <c r="F160" t="s">
         <v>16</v>
       </c>
       <c r="G160" s="1">
-        <v>45893</v>
+        <v>45900.407731481479</v>
       </c>
       <c r="H160" s="1">
-        <v>45863</v>
+        <v>45840.408055555556</v>
       </c>
       <c r="I160" s="2">
         <v>-15</v>
       </c>
       <c r="J160" s="3">
-        <v>-102.25</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="K160" s="3">
-        <v>-102.25</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
@@ -7180,10 +7168,10 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>211112515</v>
+        <v>211112518</v>
       </c>
       <c r="B161" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -7192,25 +7180,25 @@
         <v>15</v>
       </c>
       <c r="E161">
-        <v>11018</v>
+        <v>10114</v>
       </c>
       <c r="F161" t="s">
         <v>16</v>
       </c>
       <c r="G161" s="1">
-        <v>45893.344247685185</v>
+        <v>45902.400694444441</v>
       </c>
       <c r="H161" s="1">
-        <v>45863.344930555555</v>
+        <v>45842.400694444441</v>
       </c>
       <c r="I161" s="2">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="J161" s="3">
-        <v>653.94000000000005</v>
+        <v>219.86</v>
       </c>
       <c r="K161" s="3">
-        <v>653.94000000000005</v>
+        <v>219.86</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
@@ -7224,7 +7212,7 @@
         <v>211112518</v>
       </c>
       <c r="B162" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C162" t="s">
         <v>14</v>
@@ -7233,25 +7221,25 @@
         <v>15</v>
       </c>
       <c r="E162">
-        <v>9953</v>
+        <v>10919</v>
       </c>
       <c r="F162" t="s">
         <v>16</v>
       </c>
       <c r="G162" s="1">
-        <v>45900.407731481479</v>
+        <v>45921.540416666663</v>
       </c>
       <c r="H162" s="1">
-        <v>45840.408055555556</v>
+        <v>45861.54415509259</v>
       </c>
       <c r="I162" s="2">
-        <v>-22</v>
+        <v>-36</v>
       </c>
       <c r="J162" s="3">
-        <v>358.40000000000003</v>
+        <v>817.86</v>
       </c>
       <c r="K162" s="3">
-        <v>358.40000000000003</v>
+        <v>817.86</v>
       </c>
       <c r="L162" t="s">
         <v>17</v>
@@ -7262,37 +7250,37 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>211112518</v>
+        <v>211112531</v>
       </c>
       <c r="B163" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="D163">
+        <v>2025</v>
       </c>
       <c r="E163">
-        <v>10114</v>
+        <v>681</v>
       </c>
       <c r="F163" t="s">
         <v>16</v>
       </c>
       <c r="G163" s="1">
-        <v>45902.400694444441</v>
+        <v>45892</v>
       </c>
       <c r="H163" s="1">
-        <v>45842.400694444441</v>
+        <v>45862</v>
       </c>
       <c r="I163" s="2">
-        <v>-24</v>
+        <v>-7</v>
       </c>
       <c r="J163" s="3">
-        <v>219.86</v>
+        <v>-13.55</v>
       </c>
       <c r="K163" s="3">
-        <v>219.86</v>
+        <v>-13.55</v>
       </c>
       <c r="L163" t="s">
         <v>17</v>
@@ -7303,10 +7291,10 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>211112518</v>
+        <v>211112531</v>
       </c>
       <c r="B164" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -7315,25 +7303,25 @@
         <v>15</v>
       </c>
       <c r="E164">
-        <v>10919</v>
+        <v>11028</v>
       </c>
       <c r="F164" t="s">
         <v>16</v>
       </c>
       <c r="G164" s="1">
-        <v>45921.540416666663</v>
+        <v>45893.474282407406</v>
       </c>
       <c r="H164" s="1">
-        <v>45861.54415509259</v>
+        <v>45863.474293981482</v>
       </c>
       <c r="I164" s="2">
-        <v>-43</v>
+        <v>-8</v>
       </c>
       <c r="J164" s="3">
-        <v>817.86</v>
+        <v>221.74</v>
       </c>
       <c r="K164" s="3">
-        <v>817.86</v>
+        <v>221.74</v>
       </c>
       <c r="L164" t="s">
         <v>17</v>
@@ -7347,7 +7335,7 @@
         <v>211112531</v>
       </c>
       <c r="B165" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
@@ -7356,25 +7344,25 @@
         <v>15</v>
       </c>
       <c r="E165">
-        <v>10440</v>
+        <v>11383</v>
       </c>
       <c r="F165" t="s">
         <v>16</v>
       </c>
       <c r="G165" s="1">
-        <v>45879.370173611111</v>
+        <v>45903.496435185181</v>
       </c>
       <c r="H165" s="1">
-        <v>45849.370173611111</v>
+        <v>45873.497210648144</v>
       </c>
       <c r="I165" s="2">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="J165" s="3">
-        <v>210.75</v>
+        <v>236.21</v>
       </c>
       <c r="K165" s="3">
-        <v>210.75</v>
+        <v>236.21</v>
       </c>
       <c r="L165" t="s">
         <v>17</v>
@@ -7388,34 +7376,34 @@
         <v>211112531</v>
       </c>
       <c r="B166" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
-      </c>
-      <c r="D166">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
       </c>
       <c r="E166">
-        <v>681</v>
+        <v>11813</v>
       </c>
       <c r="F166" t="s">
         <v>16</v>
       </c>
       <c r="G166" s="1">
-        <v>45892</v>
+        <v>45912.512372685182</v>
       </c>
       <c r="H166" s="1">
-        <v>45862</v>
+        <v>45882.512384259258</v>
       </c>
       <c r="I166" s="2">
-        <v>-14</v>
+        <v>-27</v>
       </c>
       <c r="J166" s="3">
-        <v>-13.55</v>
+        <v>110.37</v>
       </c>
       <c r="K166" s="3">
-        <v>-13.55</v>
+        <v>110.37</v>
       </c>
       <c r="L166" t="s">
         <v>17</v>
@@ -7429,7 +7417,7 @@
         <v>211112531</v>
       </c>
       <c r="B167" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
@@ -7438,71 +7426,30 @@
         <v>15</v>
       </c>
       <c r="E167">
-        <v>11028</v>
+        <v>11935</v>
       </c>
       <c r="F167" t="s">
         <v>16</v>
       </c>
       <c r="G167" s="1">
-        <v>45893.474282407406</v>
+        <v>45913.654675925922</v>
       </c>
       <c r="H167" s="1">
-        <v>45863.474293981482</v>
+        <v>45883.654907407406</v>
       </c>
       <c r="I167" s="2">
-        <v>-15</v>
+        <v>-28</v>
       </c>
       <c r="J167" s="3">
-        <v>221.74</v>
+        <v>71.320000000000007</v>
       </c>
       <c r="K167" s="3">
-        <v>221.74</v>
+        <v>71.320000000000007</v>
       </c>
       <c r="L167" t="s">
         <v>17</v>
       </c>
       <c r="M167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>211112531</v>
-      </c>
-      <c r="B168" t="s">
-        <v>63</v>
-      </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" t="s">
-        <v>15</v>
-      </c>
-      <c r="E168">
-        <v>11383</v>
-      </c>
-      <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" s="1">
-        <v>45903.496435185181</v>
-      </c>
-      <c r="H168" s="1">
-        <v>45873.497210648144</v>
-      </c>
-      <c r="I168" s="2">
-        <v>-25</v>
-      </c>
-      <c r="J168" s="3">
-        <v>236.21</v>
-      </c>
-      <c r="K168" s="3">
-        <v>236.21</v>
-      </c>
-      <c r="L168" t="s">
-        <v>17</v>
-      </c>
-      <c r="M168" t="s">
         <v>19</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0460B6-4622-4E49-941D-B11B873BFD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCAD91F-907E-4847-ADB7-77C8591B706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="61">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Artur Matos Xavier Forte &amp; Ca., Lda</t>
-  </si>
-  <si>
-    <t>Paulo Lima-Soc.Unipessoal, Lda</t>
   </si>
   <si>
     <t>31A60</t>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Henrique Mendes Ribeiro - Mm,Lda</t>
+  </si>
+  <si>
+    <t>NCPR</t>
   </si>
 </sst>
 </file>
@@ -593,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,10 +652,10 @@
         <v>211110034</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -673,7 +673,7 @@
         <v>45842</v>
       </c>
       <c r="I2" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J2" s="3">
         <v>-4.08</v>
@@ -693,7 +693,7 @@
         <v>211110034</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -714,7 +714,7 @@
         <v>45842.493854166663</v>
       </c>
       <c r="I3" s="2">
-        <v>12.506157407406135</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3">
         <v>323.56</v>
@@ -734,10 +734,10 @@
         <v>211110034</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -755,7 +755,7 @@
         <v>45853</v>
       </c>
       <c r="I4" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J4" s="3">
         <v>-6.62</v>
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>211110034</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -796,7 +796,7 @@
         <v>45853.631354166668</v>
       </c>
       <c r="I5" s="2">
-        <v>1.3686574074090458</v>
+        <v>11</v>
       </c>
       <c r="J5" s="3">
         <v>524.56000000000006</v>
@@ -808,15 +808,15 @@
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>211110102</v>
+        <v>211110034</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -825,31 +825,31 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>10226</v>
+        <v>12020</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45875.491770833331</v>
+        <v>45918.539293981477</v>
       </c>
       <c r="H6" s="1">
-        <v>45845.491770833331</v>
+        <v>45888.539293981477</v>
       </c>
       <c r="I6" s="2">
-        <v>9.50822916666948</v>
+        <v>-24</v>
       </c>
       <c r="J6" s="3">
-        <v>418.54</v>
+        <v>535.35</v>
       </c>
       <c r="K6" s="3">
-        <v>418.54</v>
+        <v>535.35</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -866,39 +866,39 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>11289</v>
+        <v>10226</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45899.506041666667</v>
+        <v>45875.491770833331</v>
       </c>
       <c r="H7" s="1">
-        <v>45869.506041666667</v>
+        <v>45845.491770833331</v>
       </c>
       <c r="I7" s="2">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="J7" s="3">
-        <v>470.6</v>
+        <v>418.54</v>
       </c>
       <c r="K7" s="3">
-        <v>470.6</v>
+        <v>418.54</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>211110434</v>
+        <v>211110102</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -907,25 +907,25 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>10771</v>
+        <v>11289</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45886.494351851848</v>
+        <v>45899.506041666667</v>
       </c>
       <c r="H8" s="1">
-        <v>45856.494363425925</v>
+        <v>45869.506041666667</v>
       </c>
       <c r="I8" s="2">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="J8" s="3">
-        <v>1004.71</v>
+        <v>470.6</v>
       </c>
       <c r="K8" s="3">
-        <v>1004.71</v>
+        <v>470.6</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -936,51 +936,51 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>211110574</v>
+        <v>211110102</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>615</v>
+        <v>12078</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45872</v>
+        <v>45919.572592592587</v>
       </c>
       <c r="H9" s="1">
-        <v>45842</v>
+        <v>45889.572592592587</v>
       </c>
       <c r="I9" s="2">
-        <v>13</v>
+        <v>-25</v>
       </c>
       <c r="J9" s="3">
-        <v>-28.150000000000002</v>
+        <v>227.44</v>
       </c>
       <c r="K9" s="3">
-        <v>-28.150000000000002</v>
+        <v>227.44</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>211110574</v>
+        <v>211110434</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -989,66 +989,66 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>10155</v>
+        <v>11962</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45872.49386574074</v>
+        <v>45917.510150462964</v>
       </c>
       <c r="H10" s="1">
-        <v>45842.49386574074</v>
+        <v>45887.511157407404</v>
       </c>
       <c r="I10" s="2">
-        <v>12.506134259259852</v>
+        <v>-23</v>
       </c>
       <c r="J10" s="3">
-        <v>595.76</v>
+        <v>397.76</v>
       </c>
       <c r="K10" s="3">
-        <v>595.76</v>
+        <v>397.76</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>211110574</v>
+        <v>211110681</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>625</v>
+        <v>10430</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45876</v>
+        <v>45878.592557870368</v>
       </c>
       <c r="H11" s="1">
-        <v>45846</v>
+        <v>45848.592557870368</v>
       </c>
       <c r="I11" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J11" s="3">
-        <v>-19.89</v>
+        <v>964.74</v>
       </c>
       <c r="K11" s="3">
-        <v>-19.89</v>
+        <v>7.7700000000000005</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>211110574</v>
+        <v>211110681</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1071,312 +1071,312 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>10246</v>
+        <v>11015</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45876.376550925925</v>
+        <v>45893.298807870371</v>
       </c>
       <c r="H12" s="1">
-        <v>45846.376550925925</v>
+        <v>45863.300034722219</v>
       </c>
       <c r="I12" s="2">
-        <v>8.6234490740753245</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>602.47</v>
+        <v>2446.73</v>
       </c>
       <c r="K12" s="3">
-        <v>602.47</v>
+        <v>2446.73</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
+      </c>
+      <c r="E13">
+        <v>603</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45847</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45840</v>
+      </c>
+      <c r="I13" s="2">
+        <v>47</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-42.26</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-42.26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>10574</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1">
-        <v>45883.638935185183</v>
-      </c>
-      <c r="H13" s="1">
-        <v>45853.638935185183</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1.3610648148169275</v>
-      </c>
-      <c r="J13" s="3">
-        <v>612.18000000000006</v>
-      </c>
-      <c r="K13" s="3">
-        <v>612.18000000000006</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>522</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45856</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45849</v>
+      </c>
+      <c r="I14" s="2">
+        <v>38</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-43.6</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-43.6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>10864</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1">
-        <v>45890.531319444446</v>
-      </c>
-      <c r="H14" s="1">
-        <v>45860.531319444446</v>
-      </c>
-      <c r="I14" s="2">
-        <v>-5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>521.47</v>
-      </c>
-      <c r="K14" s="3">
-        <v>521.47</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
+      </c>
+      <c r="E15">
+        <v>653</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45860</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45853</v>
+      </c>
+      <c r="I15" s="2">
+        <v>34</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-113.52</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-113.52</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>11152</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1">
-        <v>45897.537638888884</v>
-      </c>
-      <c r="H15" s="1">
-        <v>45867.53765046296</v>
-      </c>
-      <c r="I15" s="2">
-        <v>-12</v>
-      </c>
-      <c r="J15" s="3">
-        <v>671.6</v>
-      </c>
-      <c r="K15" s="3">
-        <v>671.6</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>533</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45873</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45866</v>
+      </c>
+      <c r="I16" s="2">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>11449</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1">
-        <v>45904.531504629631</v>
-      </c>
-      <c r="H16" s="1">
-        <v>45874.5315162037</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-19</v>
-      </c>
       <c r="J16" s="3">
-        <v>308.06</v>
+        <v>-50.85</v>
       </c>
       <c r="K16" s="3">
-        <v>308.06</v>
+        <v>-50.85</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>2025</v>
       </c>
       <c r="E17">
-        <v>11751</v>
+        <v>711</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45911.462754629625</v>
+        <v>45875</v>
       </c>
       <c r="H17" s="1">
-        <v>45881.462754629625</v>
+        <v>45868</v>
       </c>
       <c r="I17" s="2">
-        <v>-26</v>
+        <v>19</v>
       </c>
       <c r="J17" s="3">
-        <v>800.58</v>
+        <v>-100.23</v>
       </c>
       <c r="K17" s="3">
-        <v>800.58</v>
+        <v>-100.23</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18">
-        <v>11769</v>
+        <v>542</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45911.61515046296</v>
+        <v>45880</v>
       </c>
       <c r="H18" s="1">
-        <v>45881.615937499999</v>
+        <v>45873</v>
       </c>
       <c r="I18" s="2">
-        <v>-26</v>
+        <v>14</v>
       </c>
       <c r="J18" s="3">
-        <v>202.27</v>
+        <v>-67.31</v>
       </c>
       <c r="K18" s="3">
-        <v>202.27</v>
+        <v>-67.31</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>211110681</v>
+        <v>211110903</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>2025</v>
       </c>
       <c r="E19">
-        <v>10430</v>
+        <v>742</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45878.592557870368</v>
+        <v>45885</v>
       </c>
       <c r="H19" s="1">
-        <v>45848.592557870368</v>
+        <v>45878</v>
       </c>
       <c r="I19" s="2">
-        <v>6.4074421296318178</v>
+        <v>9</v>
       </c>
       <c r="J19" s="3">
-        <v>964.74</v>
+        <v>-78.36</v>
       </c>
       <c r="K19" s="3">
-        <v>7.7700000000000005</v>
+        <v>-78.36</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>211110681</v>
+        <v>211110903</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1399,25 +1399,25 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>11015</v>
+        <v>11942</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45893.298807870371</v>
+        <v>45894.34575231481</v>
       </c>
       <c r="H20" s="1">
-        <v>45863.300034722219</v>
+        <v>45887.347222222219</v>
       </c>
       <c r="I20" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>2446.73</v>
+        <v>2081.21</v>
       </c>
       <c r="K20" s="3">
-        <v>2446.73</v>
+        <v>2081.21</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1431,75 +1431,75 @@
         <v>211110903</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>603</v>
+        <v>12041</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45847</v>
+        <v>45896.436064814814</v>
       </c>
       <c r="H21" s="1">
-        <v>45840</v>
+        <v>45889.436689814815</v>
       </c>
       <c r="I21" s="2">
-        <v>38</v>
+        <v>-2</v>
       </c>
       <c r="J21" s="3">
-        <v>-42.26</v>
+        <v>2558.4500000000003</v>
       </c>
       <c r="K21" s="3">
-        <v>-42.26</v>
+        <v>2558.4500000000003</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211110903</v>
+        <v>211111373</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>522</v>
+        <v>11785</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45856</v>
+        <v>45882.399768518517</v>
       </c>
       <c r="H22" s="1">
-        <v>45849</v>
+        <v>45882.399768518517</v>
       </c>
       <c r="I22" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J22" s="3">
-        <v>-43.6</v>
+        <v>240.19</v>
       </c>
       <c r="K22" s="3">
-        <v>-43.6</v>
+        <v>240.19</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1510,78 +1510,78 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>2025</v>
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>653</v>
+        <v>275</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45860</v>
+        <v>45763</v>
       </c>
       <c r="H23" s="1">
-        <v>45853</v>
+        <v>45728</v>
       </c>
       <c r="I23" s="2">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="J23" s="3">
-        <v>-113.52</v>
+        <v>-112.59</v>
       </c>
       <c r="K23" s="3">
-        <v>-113.52</v>
+        <v>-22.1</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45873</v>
+        <v>45877</v>
       </c>
       <c r="H24" s="1">
-        <v>45866</v>
+        <v>45842</v>
       </c>
       <c r="I24" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J24" s="3">
-        <v>-50.85</v>
+        <v>-2.12</v>
       </c>
       <c r="K24" s="3">
-        <v>-50.85</v>
+        <v>-2.12</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1592,48 +1592,48 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>711</v>
+        <v>10988</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45875</v>
+        <v>45897.491388888884</v>
       </c>
       <c r="H25" s="1">
-        <v>45868</v>
+        <v>45862.491388888884</v>
       </c>
       <c r="I25" s="2">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="J25" s="3">
-        <v>-100.23</v>
+        <v>1073.29</v>
       </c>
       <c r="K25" s="3">
-        <v>-100.23</v>
+        <v>1073.29</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1645,25 +1645,25 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>11652</v>
+        <v>11560</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45884.586608796293</v>
+        <v>45911.437928240739</v>
       </c>
       <c r="H26" s="1">
-        <v>45877.586608796293</v>
+        <v>45876.438402777778</v>
       </c>
       <c r="I26" s="2">
-        <v>0.41339120370685123</v>
+        <v>-17</v>
       </c>
       <c r="J26" s="3">
-        <v>1723.43</v>
+        <v>673.4</v>
       </c>
       <c r="K26" s="3">
-        <v>1723.43</v>
+        <v>673.4</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1686,25 +1686,25 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>11721</v>
+        <v>11778</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45887.565509259257</v>
+        <v>45917.361284722218</v>
       </c>
       <c r="H27" s="1">
-        <v>45880.565925925926</v>
+        <v>45882.361284722218</v>
       </c>
       <c r="I27" s="2">
-        <v>-2</v>
+        <v>-23</v>
       </c>
       <c r="J27" s="3">
-        <v>3222.03</v>
+        <v>382.83</v>
       </c>
       <c r="K27" s="3">
-        <v>3222.03</v>
+        <v>382.83</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -1727,25 +1727,25 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>11863</v>
+        <v>12107</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45889.699282407404</v>
+        <v>45925.479895833334</v>
       </c>
       <c r="H28" s="1">
-        <v>45882.699803240735</v>
+        <v>45890.479895833334</v>
       </c>
       <c r="I28" s="2">
-        <v>-4</v>
+        <v>-31</v>
       </c>
       <c r="J28" s="3">
-        <v>2354.5100000000002</v>
+        <v>195.82</v>
       </c>
       <c r="K28" s="3">
-        <v>2354.5100000000002</v>
+        <v>195.82</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211110903</v>
+        <v>211111720</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1768,25 +1768,25 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>11875</v>
+        <v>10727</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45890.397152777776</v>
+        <v>45916.281041666662</v>
       </c>
       <c r="H29" s="1">
-        <v>45883.400231481479</v>
+        <v>45856.283530092587</v>
       </c>
       <c r="I29" s="2">
-        <v>-5</v>
+        <v>-22</v>
       </c>
       <c r="J29" s="3">
-        <v>1198.4100000000001</v>
+        <v>199.79</v>
       </c>
       <c r="K29" s="3">
-        <v>1198.4100000000001</v>
+        <v>199.79</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111373</v>
+        <v>211111720</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1809,80 +1809,80 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>11785</v>
+        <v>11012</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45882.399768518517</v>
+        <v>45923.282870370371</v>
       </c>
       <c r="H30" s="1">
-        <v>45882.399768518517</v>
+        <v>45863.28329861111</v>
       </c>
       <c r="I30" s="2">
-        <v>2.6002314814832062</v>
+        <v>-29</v>
       </c>
       <c r="J30" s="3">
-        <v>240.19</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="K30" s="3">
-        <v>240.19</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>2025</v>
       </c>
       <c r="E31">
-        <v>275</v>
+        <v>630</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45763</v>
+        <v>45876</v>
       </c>
       <c r="H31" s="1">
-        <v>45728</v>
+        <v>45846</v>
       </c>
       <c r="I31" s="2">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="J31" s="3">
-        <v>-112.59</v>
+        <v>-89.27</v>
       </c>
       <c r="K31" s="3">
-        <v>-22.1</v>
+        <v>-89.27</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1891,80 +1891,80 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>9568</v>
+        <v>11604</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45863.713865740741</v>
+        <v>45907.310011574074</v>
       </c>
       <c r="H32" s="1">
-        <v>45828.714143518519</v>
+        <v>45877.31108796296</v>
       </c>
       <c r="I32" s="2">
-        <v>21.286134259258688</v>
+        <v>-13</v>
       </c>
       <c r="J32" s="3">
-        <v>742.15</v>
+        <v>625.66</v>
       </c>
       <c r="K32" s="3">
-        <v>742.15</v>
+        <v>625.66</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>2025</v>
       </c>
       <c r="E33">
-        <v>514</v>
+        <v>731</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45877</v>
+        <v>45908</v>
       </c>
       <c r="H33" s="1">
-        <v>45842</v>
+        <v>45878</v>
       </c>
       <c r="I33" s="2">
-        <v>8</v>
+        <v>-14</v>
       </c>
       <c r="J33" s="3">
-        <v>-2.12</v>
+        <v>-0.85</v>
       </c>
       <c r="K33" s="3">
-        <v>-2.12</v>
+        <v>-0.85</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1973,39 +1973,39 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>10373</v>
+        <v>11767</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45883.311967592592</v>
+        <v>45911.605520833335</v>
       </c>
       <c r="H34" s="1">
-        <v>45848.312951388885</v>
+        <v>45881.605520833335</v>
       </c>
       <c r="I34" s="2">
-        <v>1.6880324074081727</v>
+        <v>-17</v>
       </c>
       <c r="J34" s="3">
-        <v>793.1</v>
+        <v>468.84000000000003</v>
       </c>
       <c r="K34" s="3">
-        <v>793.1</v>
+        <v>468.84000000000003</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2014,25 +2014,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>10988</v>
+        <v>12163</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45897.491388888884</v>
+        <v>45921.42423611111</v>
       </c>
       <c r="H35" s="1">
-        <v>45862.491388888884</v>
+        <v>45891.426354166666</v>
       </c>
       <c r="I35" s="2">
-        <v>-12</v>
+        <v>-27</v>
       </c>
       <c r="J35" s="3">
-        <v>1073.29</v>
+        <v>1200.42</v>
       </c>
       <c r="K35" s="3">
-        <v>1073.29</v>
+        <v>1200.42</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2043,92 +2043,92 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111588</v>
+        <v>211111878</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>2025</v>
       </c>
       <c r="E36">
-        <v>11560</v>
+        <v>522</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45911.437928240739</v>
+        <v>45871</v>
       </c>
       <c r="H36" s="1">
-        <v>45876.438402777778</v>
+        <v>45811</v>
       </c>
       <c r="I36" s="2">
-        <v>-26</v>
+        <v>23</v>
       </c>
       <c r="J36" s="3">
-        <v>673.4</v>
+        <v>-29.34</v>
       </c>
       <c r="K36" s="3">
-        <v>673.4</v>
+        <v>-29.34</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111588</v>
+        <v>211111878</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>2025</v>
       </c>
       <c r="E37">
-        <v>11778</v>
+        <v>525</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45917.361284722218</v>
+        <v>45871</v>
       </c>
       <c r="H37" s="1">
-        <v>45882.361284722218</v>
+        <v>45811</v>
       </c>
       <c r="I37" s="2">
-        <v>-32</v>
+        <v>23</v>
       </c>
       <c r="J37" s="3">
-        <v>382.83</v>
+        <v>-4.99</v>
       </c>
       <c r="K37" s="3">
-        <v>382.83</v>
+        <v>-4.99</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111720</v>
+        <v>211111878</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2137,39 +2137,39 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>10727</v>
+        <v>8798</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45916.281041666662</v>
+        <v>45871.469687500001</v>
       </c>
       <c r="H38" s="1">
-        <v>45856.283530092587</v>
+        <v>45811.47006944444</v>
       </c>
       <c r="I38" s="2">
-        <v>-31</v>
+        <v>23</v>
       </c>
       <c r="J38" s="3">
-        <v>199.79</v>
+        <v>421.25</v>
       </c>
       <c r="K38" s="3">
-        <v>199.79</v>
+        <v>421.25</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111720</v>
+        <v>211111878</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2178,107 +2178,107 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>11012</v>
+        <v>8799</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45923.282870370371</v>
+        <v>45871.471655092588</v>
       </c>
       <c r="H39" s="1">
-        <v>45863.28329861111</v>
+        <v>45811.472187499996</v>
       </c>
       <c r="I39" s="2">
-        <v>-38</v>
+        <v>23</v>
       </c>
       <c r="J39" s="3">
-        <v>1478.6200000000001</v>
+        <v>361.42</v>
       </c>
       <c r="K39" s="3">
-        <v>1478.6200000000001</v>
+        <v>361.42</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>2025</v>
       </c>
       <c r="E40">
-        <v>561</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45854</v>
+        <v>45874.455740740741</v>
       </c>
       <c r="H40" s="1">
-        <v>45824</v>
+        <v>45814.455775462964</v>
       </c>
       <c r="I40" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J40" s="3">
-        <v>-1.73</v>
+        <v>177.99</v>
       </c>
       <c r="K40" s="3">
-        <v>-1.73</v>
+        <v>177.99</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41">
-        <v>630</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45876</v>
+        <v>45874.612268518518</v>
       </c>
       <c r="H41" s="1">
-        <v>45846</v>
+        <v>45814.613090277773</v>
       </c>
       <c r="I41" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J41" s="3">
-        <v>-89.27</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="K41" s="3">
-        <v>-89.27</v>
+        <v>258.84000000000003</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -2289,48 +2289,48 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>2025</v>
       </c>
       <c r="E42">
-        <v>10819</v>
+        <v>542</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45889.487662037034</v>
+        <v>45877</v>
       </c>
       <c r="H42" s="1">
-        <v>45859.487673611111</v>
+        <v>45817</v>
       </c>
       <c r="I42" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="J42" s="3">
-        <v>694.31000000000006</v>
+        <v>-9.41</v>
       </c>
       <c r="K42" s="3">
-        <v>694.31000000000006</v>
+        <v>-9.41</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
@@ -2342,77 +2342,77 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>11069</v>
+        <v>8996</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45893.5234375</v>
+        <v>45877.440046296295</v>
       </c>
       <c r="H43" s="1">
-        <v>45863.5234375</v>
+        <v>45817.44049768518</v>
       </c>
       <c r="I43" s="2">
-        <v>-8</v>
+        <v>17</v>
       </c>
       <c r="J43" s="3">
-        <v>596.72</v>
+        <v>377.68</v>
       </c>
       <c r="K43" s="3">
-        <v>596.72</v>
+        <v>377.68</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>709</v>
+        <v>8998</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45898</v>
+        <v>45877.440960648149</v>
       </c>
       <c r="H44" s="1">
-        <v>45868</v>
+        <v>45817.441377314812</v>
       </c>
       <c r="I44" s="2">
-        <v>-13</v>
+        <v>17</v>
       </c>
       <c r="J44" s="3">
-        <v>-8.6</v>
+        <v>257.82</v>
       </c>
       <c r="K44" s="3">
-        <v>-8.6</v>
+        <v>257.82</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
@@ -2424,77 +2424,77 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>11191</v>
+        <v>9025</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45898.329004629624</v>
+        <v>45877.494490740741</v>
       </c>
       <c r="H45" s="1">
-        <v>45868.329722222217</v>
+        <v>45817.494999999995</v>
       </c>
       <c r="I45" s="2">
-        <v>-13</v>
+        <v>17</v>
       </c>
       <c r="J45" s="3">
-        <v>938.86</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="K45" s="3">
-        <v>938.86</v>
+        <v>315.04000000000002</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>11604</v>
+        <v>570</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45907.310011574074</v>
+        <v>45886</v>
       </c>
       <c r="H46" s="1">
-        <v>45877.31108796296</v>
+        <v>45826</v>
       </c>
       <c r="I46" s="2">
-        <v>-22</v>
+        <v>8</v>
       </c>
       <c r="J46" s="3">
-        <v>625.66</v>
+        <v>-10.74</v>
       </c>
       <c r="K46" s="3">
-        <v>625.66</v>
+        <v>-10.74</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B47" t="s">
         <v>30</v>
@@ -2506,31 +2506,31 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>11767</v>
+        <v>9386</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45911.605520833335</v>
+        <v>45886.314513888887</v>
       </c>
       <c r="H47" s="1">
-        <v>45881.605520833335</v>
+        <v>45826.314837962964</v>
       </c>
       <c r="I47" s="2">
-        <v>-26</v>
+        <v>8</v>
       </c>
       <c r="J47" s="3">
-        <v>468.84000000000003</v>
+        <v>328.96</v>
       </c>
       <c r="K47" s="3">
-        <v>468.84000000000003</v>
+        <v>328.96</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2538,34 +2538,34 @@
         <v>211111878</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>522</v>
+        <v>9436</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45871</v>
+        <v>45886.459780092591</v>
       </c>
       <c r="H48" s="1">
-        <v>45811</v>
+        <v>45826.462314814809</v>
       </c>
       <c r="I48" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J48" s="3">
-        <v>-29.34</v>
+        <v>58.57</v>
       </c>
       <c r="K48" s="3">
-        <v>-29.34</v>
+        <v>58.57</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2579,34 +2579,34 @@
         <v>211111878</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>525</v>
+        <v>9438</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45871</v>
+        <v>45886.462488425925</v>
       </c>
       <c r="H49" s="1">
-        <v>45811</v>
+        <v>45826.466331018513</v>
       </c>
       <c r="I49" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J49" s="3">
-        <v>-4.99</v>
+        <v>408.29</v>
       </c>
       <c r="K49" s="3">
-        <v>-4.99</v>
+        <v>408.29</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2620,7 +2620,7 @@
         <v>211111878</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2629,25 +2629,25 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>8798</v>
+        <v>9456</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45871.469687500001</v>
+        <v>45888.299930555557</v>
       </c>
       <c r="H50" s="1">
-        <v>45811.47006944444</v>
+        <v>45828.300671296296</v>
       </c>
       <c r="I50" s="2">
-        <v>13.530312499999127</v>
+        <v>6</v>
       </c>
       <c r="J50" s="3">
-        <v>421.25</v>
+        <v>20.76</v>
       </c>
       <c r="K50" s="3">
-        <v>421.25</v>
+        <v>20.76</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2661,7 +2661,7 @@
         <v>211111878</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2670,25 +2670,25 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>8799</v>
+        <v>9457</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45871.471655092588</v>
+        <v>45888.30097222222</v>
       </c>
       <c r="H51" s="1">
-        <v>45811.472187499996</v>
+        <v>45828.306631944441</v>
       </c>
       <c r="I51" s="2">
-        <v>13.528344907412247</v>
+        <v>6</v>
       </c>
       <c r="J51" s="3">
-        <v>361.42</v>
+        <v>45.83</v>
       </c>
       <c r="K51" s="3">
-        <v>361.42</v>
+        <v>45.83</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2702,40 +2702,40 @@
         <v>211111878</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="D52">
-        <v>2025</v>
+      <c r="D52" t="s">
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>37</v>
+        <v>9700</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45874.455740740741</v>
+        <v>45893.496446759258</v>
       </c>
       <c r="H52" s="1">
-        <v>45814.455775462964</v>
+        <v>45833.497314814813</v>
       </c>
       <c r="I52" s="2">
-        <v>10.544259259258979</v>
+        <v>1</v>
       </c>
       <c r="J52" s="3">
-        <v>177.99</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="K52" s="3">
-        <v>177.99</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2743,40 +2743,40 @@
         <v>211111878</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
-      <c r="D53">
-        <v>2025</v>
+      <c r="D53" t="s">
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>64</v>
+        <v>9701</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45874.612268518518</v>
+        <v>45893.497546296298</v>
       </c>
       <c r="H53" s="1">
-        <v>45814.613090277773</v>
+        <v>45833.49827546296</v>
       </c>
       <c r="I53" s="2">
-        <v>10.387731481481751</v>
+        <v>1</v>
       </c>
       <c r="J53" s="3">
-        <v>258.84000000000003</v>
+        <v>367.16</v>
       </c>
       <c r="K53" s="3">
-        <v>258.84000000000003</v>
+        <v>367.16</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2784,40 +2784,40 @@
         <v>211111878</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
       </c>
       <c r="E54">
-        <v>542</v>
+        <v>9772</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45877</v>
+        <v>45894.447523148148</v>
       </c>
       <c r="H54" s="1">
-        <v>45817</v>
+        <v>45834.448113425926</v>
       </c>
       <c r="I54" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>-9.41</v>
+        <v>441.87</v>
       </c>
       <c r="K54" s="3">
-        <v>-9.41</v>
+        <v>441.87</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
         <v>211111878</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2834,31 +2834,31 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>8996</v>
+        <v>9871</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45877.440046296295</v>
+        <v>45895.479108796295</v>
       </c>
       <c r="H55" s="1">
-        <v>45817.44049768518</v>
+        <v>45835.481898148144</v>
       </c>
       <c r="I55" s="2">
-        <v>7.559953703705105</v>
+        <v>-1</v>
       </c>
       <c r="J55" s="3">
-        <v>377.68</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="K55" s="3">
-        <v>377.68</v>
+        <v>175.89000000000001</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
         <v>211111878</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2875,31 +2875,31 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>8998</v>
+        <v>9874</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45877.440960648149</v>
+        <v>45895.494687499995</v>
       </c>
       <c r="H56" s="1">
-        <v>45817.441377314812</v>
+        <v>45835.494895833333</v>
       </c>
       <c r="I56" s="2">
-        <v>7.5590393518505152</v>
+        <v>-1</v>
       </c>
       <c r="J56" s="3">
-        <v>257.82</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="K56" s="3">
-        <v>257.82</v>
+        <v>276.79000000000002</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2907,7 +2907,7 @@
         <v>211111878</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2916,31 +2916,31 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>9025</v>
+        <v>9935</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45877.494490740741</v>
+        <v>45899.405474537038</v>
       </c>
       <c r="H57" s="1">
-        <v>45817.494999999995</v>
+        <v>45839.405821759254</v>
       </c>
       <c r="I57" s="2">
-        <v>7.50550925925927</v>
+        <v>-5</v>
       </c>
       <c r="J57" s="3">
-        <v>315.04000000000002</v>
+        <v>249.19</v>
       </c>
       <c r="K57" s="3">
-        <v>315.04000000000002</v>
+        <v>249.19</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2948,34 +2948,34 @@
         <v>211111878</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>570</v>
+        <v>10275</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45886</v>
+        <v>45906.438090277778</v>
       </c>
       <c r="H58" s="1">
-        <v>45826</v>
+        <v>45846.438090277778</v>
       </c>
       <c r="I58" s="2">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="J58" s="3">
-        <v>-10.74</v>
+        <v>333.66</v>
       </c>
       <c r="K58" s="3">
-        <v>-10.74</v>
+        <v>333.66</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -2989,7 +2989,7 @@
         <v>211111878</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2998,25 +2998,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>9386</v>
+        <v>10276</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45886.314513888887</v>
+        <v>45906.438113425924</v>
       </c>
       <c r="H59" s="1">
-        <v>45826.314837962964</v>
+        <v>45846.438125000001</v>
       </c>
       <c r="I59" s="2">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="J59" s="3">
-        <v>328.96</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="K59" s="3">
-        <v>328.96</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3030,7 +3030,7 @@
         <v>211111878</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3039,25 +3039,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>9436</v>
+        <v>10496</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45886.459780092591</v>
+        <v>45909.601944444439</v>
       </c>
       <c r="H60" s="1">
-        <v>45826.462314814809</v>
+        <v>45849.60251157407</v>
       </c>
       <c r="I60" s="2">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="J60" s="3">
-        <v>58.57</v>
+        <v>330.27</v>
       </c>
       <c r="K60" s="3">
-        <v>58.57</v>
+        <v>330.27</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3071,34 +3071,34 @@
         <v>211111878</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D61">
+        <v>2025</v>
       </c>
       <c r="E61">
-        <v>9438</v>
+        <v>646</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45886.462488425925</v>
+        <v>45913</v>
       </c>
       <c r="H61" s="1">
-        <v>45826.466331018513</v>
+        <v>45853</v>
       </c>
       <c r="I61" s="2">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="J61" s="3">
-        <v>408.29</v>
+        <v>-9.23</v>
       </c>
       <c r="K61" s="3">
-        <v>408.29</v>
+        <v>-9.23</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3112,7 +3112,7 @@
         <v>211111878</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3121,25 +3121,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>9456</v>
+        <v>10552</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45888.299930555557</v>
+        <v>45913.414108796293</v>
       </c>
       <c r="H62" s="1">
-        <v>45828.300671296296</v>
+        <v>45853.415949074071</v>
       </c>
       <c r="I62" s="2">
-        <v>-3</v>
+        <v>-19</v>
       </c>
       <c r="J62" s="3">
-        <v>20.76</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="K62" s="3">
-        <v>20.76</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3153,7 +3153,7 @@
         <v>211111878</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3162,25 +3162,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>9457</v>
+        <v>10556</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45888.30097222222</v>
+        <v>45913.417696759258</v>
       </c>
       <c r="H63" s="1">
-        <v>45828.306631944441</v>
+        <v>45853.418020833335</v>
       </c>
       <c r="I63" s="2">
-        <v>-3</v>
+        <v>-19</v>
       </c>
       <c r="J63" s="3">
-        <v>45.83</v>
+        <v>120.59</v>
       </c>
       <c r="K63" s="3">
-        <v>45.83</v>
+        <v>120.59</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3194,7 +3194,7 @@
         <v>211111878</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3203,25 +3203,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>9700</v>
+        <v>10719</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45893.496446759258</v>
+        <v>45915.588217592587</v>
       </c>
       <c r="H64" s="1">
-        <v>45833.497314814813</v>
+        <v>45855.588634259257</v>
       </c>
       <c r="I64" s="2">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="J64" s="3">
-        <v>18.059999999999999</v>
+        <v>107.66</v>
       </c>
       <c r="K64" s="3">
-        <v>18.059999999999999</v>
+        <v>107.66</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3235,7 +3235,7 @@
         <v>211111878</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3244,25 +3244,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>9701</v>
+        <v>10841</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45893.497546296298</v>
+        <v>45920.44799768518</v>
       </c>
       <c r="H65" s="1">
-        <v>45833.49827546296</v>
+        <v>45860.450138888889</v>
       </c>
       <c r="I65" s="2">
-        <v>-8</v>
+        <v>-26</v>
       </c>
       <c r="J65" s="3">
-        <v>367.16</v>
+        <v>391.77</v>
       </c>
       <c r="K65" s="3">
-        <v>367.16</v>
+        <v>391.77</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3276,7 +3276,7 @@
         <v>211111878</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3285,25 +3285,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>9772</v>
+        <v>10940</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45894.447523148148</v>
+        <v>45921.562048611107</v>
       </c>
       <c r="H66" s="1">
-        <v>45834.448113425926</v>
+        <v>45861.562060185184</v>
       </c>
       <c r="I66" s="2">
-        <v>-9</v>
+        <v>-27</v>
       </c>
       <c r="J66" s="3">
-        <v>441.87</v>
+        <v>184.52</v>
       </c>
       <c r="K66" s="3">
-        <v>441.87</v>
+        <v>184.52</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3317,7 +3317,7 @@
         <v>211111878</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3326,25 +3326,25 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>9871</v>
+        <v>10941</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45895.479108796295</v>
+        <v>45921.562083333331</v>
       </c>
       <c r="H67" s="1">
-        <v>45835.481898148144</v>
+        <v>45861.562083333331</v>
       </c>
       <c r="I67" s="2">
-        <v>-10</v>
+        <v>-27</v>
       </c>
       <c r="J67" s="3">
-        <v>175.89000000000001</v>
+        <v>518.65</v>
       </c>
       <c r="K67" s="3">
-        <v>175.89000000000001</v>
+        <v>518.65</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3358,7 +3358,7 @@
         <v>211111878</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3367,25 +3367,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>9874</v>
+        <v>10942</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45895.494687499995</v>
+        <v>45921.562106481477</v>
       </c>
       <c r="H68" s="1">
-        <v>45835.494895833333</v>
+        <v>45861.562106481477</v>
       </c>
       <c r="I68" s="2">
-        <v>-10</v>
+        <v>-27</v>
       </c>
       <c r="J68" s="3">
-        <v>276.79000000000002</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="K68" s="3">
-        <v>276.79000000000002</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3399,7 +3399,7 @@
         <v>211111878</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3408,25 +3408,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>9935</v>
+        <v>11119</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45899.405474537038</v>
+        <v>45926.540925925925</v>
       </c>
       <c r="H69" s="1">
-        <v>45839.405821759254</v>
+        <v>45866.540937500002</v>
       </c>
       <c r="I69" s="2">
-        <v>-14</v>
+        <v>-32</v>
       </c>
       <c r="J69" s="3">
-        <v>249.19</v>
+        <v>665</v>
       </c>
       <c r="K69" s="3">
-        <v>249.19</v>
+        <v>665</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3440,7 +3440,7 @@
         <v>211111878</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3449,25 +3449,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>10275</v>
+        <v>11120</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45906.438090277778</v>
+        <v>45926.540960648148</v>
       </c>
       <c r="H70" s="1">
-        <v>45846.438090277778</v>
+        <v>45866.540960648148</v>
       </c>
       <c r="I70" s="2">
-        <v>-21</v>
+        <v>-32</v>
       </c>
       <c r="J70" s="3">
-        <v>333.66</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="K70" s="3">
-        <v>333.66</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3481,7 +3481,7 @@
         <v>211111878</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3490,25 +3490,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>10276</v>
+        <v>11186</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45906.438113425924</v>
+        <v>45927.594328703701</v>
       </c>
       <c r="H71" s="1">
-        <v>45846.438125000001</v>
+        <v>45867.594340277778</v>
       </c>
       <c r="I71" s="2">
-        <v>-21</v>
+        <v>-33</v>
       </c>
       <c r="J71" s="3">
-        <v>114.07000000000001</v>
+        <v>379.86</v>
       </c>
       <c r="K71" s="3">
-        <v>114.07000000000001</v>
+        <v>379.86</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3522,7 +3522,7 @@
         <v>211111878</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3531,25 +3531,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>10496</v>
+        <v>11366</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45909.601944444439</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H72" s="1">
-        <v>45849.60251157407</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I72" s="2">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="J72" s="3">
-        <v>330.27</v>
+        <v>159.29</v>
       </c>
       <c r="K72" s="3">
-        <v>330.27</v>
+        <v>159.29</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3563,34 +3563,34 @@
         <v>211111878</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>646</v>
+        <v>11369</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45913</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H73" s="1">
-        <v>45853</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I73" s="2">
-        <v>-28</v>
+        <v>-36</v>
       </c>
       <c r="J73" s="3">
-        <v>-9.23</v>
+        <v>106.19</v>
       </c>
       <c r="K73" s="3">
-        <v>-9.23</v>
+        <v>106.19</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3604,7 +3604,7 @@
         <v>211111878</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3613,25 +3613,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10552</v>
+        <v>11428</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45913.414108796293</v>
+        <v>45934.485219907408</v>
       </c>
       <c r="H74" s="1">
-        <v>45853.415949074071</v>
+        <v>45874.485219907408</v>
       </c>
       <c r="I74" s="2">
-        <v>-28</v>
+        <v>-40</v>
       </c>
       <c r="J74" s="3">
-        <v>451.46000000000004</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="K74" s="3">
-        <v>451.46000000000004</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3645,7 +3645,7 @@
         <v>211111878</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3654,25 +3654,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>10556</v>
+        <v>11429</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45913.417696759258</v>
+        <v>45934.485231481478</v>
       </c>
       <c r="H75" s="1">
-        <v>45853.418020833335</v>
+        <v>45874.485231481478</v>
       </c>
       <c r="I75" s="2">
-        <v>-28</v>
+        <v>-40</v>
       </c>
       <c r="J75" s="3">
-        <v>120.59</v>
+        <v>472.14</v>
       </c>
       <c r="K75" s="3">
-        <v>120.59</v>
+        <v>472.14</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3686,7 +3686,7 @@
         <v>211111878</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3695,25 +3695,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>10719</v>
+        <v>11430</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45915.588217592587</v>
+        <v>45934.485266203701</v>
       </c>
       <c r="H76" s="1">
-        <v>45855.588634259257</v>
+        <v>45874.485266203701</v>
       </c>
       <c r="I76" s="2">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="J76" s="3">
-        <v>107.66</v>
+        <v>405.8</v>
       </c>
       <c r="K76" s="3">
-        <v>107.66</v>
+        <v>405.8</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3727,34 +3727,34 @@
         <v>211111878</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
       </c>
       <c r="E77">
-        <v>10841</v>
+        <v>737</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45920.44799768518</v>
+        <v>45938</v>
       </c>
       <c r="H77" s="1">
-        <v>45860.450138888889</v>
+        <v>45878</v>
       </c>
       <c r="I77" s="2">
-        <v>-35</v>
+        <v>-44</v>
       </c>
       <c r="J77" s="3">
-        <v>391.77</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="K77" s="3">
-        <v>391.77</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3768,7 +3768,7 @@
         <v>211111878</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3777,25 +3777,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>10940</v>
+        <v>11717</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45921.562048611107</v>
+        <v>45940.541759259257</v>
       </c>
       <c r="H78" s="1">
-        <v>45861.562060185184</v>
+        <v>45880.541770833333</v>
       </c>
       <c r="I78" s="2">
-        <v>-36</v>
+        <v>-46</v>
       </c>
       <c r="J78" s="3">
-        <v>184.52</v>
+        <v>100.79</v>
       </c>
       <c r="K78" s="3">
-        <v>184.52</v>
+        <v>100.79</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3809,7 +3809,7 @@
         <v>211111878</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3818,25 +3818,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>10941</v>
+        <v>11758</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45921.562083333331</v>
+        <v>45941.499224537038</v>
       </c>
       <c r="H79" s="1">
-        <v>45861.562083333331</v>
+        <v>45881.499236111107</v>
       </c>
       <c r="I79" s="2">
-        <v>-36</v>
+        <v>-47</v>
       </c>
       <c r="J79" s="3">
-        <v>518.65</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="K79" s="3">
-        <v>518.65</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3850,7 +3850,7 @@
         <v>211111878</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3859,25 +3859,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>10942</v>
+        <v>11922</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45921.562106481477</v>
+        <v>45943.619444444441</v>
       </c>
       <c r="H80" s="1">
-        <v>45861.562106481477</v>
+        <v>45883.620034722218</v>
       </c>
       <c r="I80" s="2">
-        <v>-36</v>
+        <v>-49</v>
       </c>
       <c r="J80" s="3">
-        <v>325.40000000000003</v>
+        <v>97.43</v>
       </c>
       <c r="K80" s="3">
-        <v>325.40000000000003</v>
+        <v>97.43</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3891,7 +3891,7 @@
         <v>211111878</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3900,25 +3900,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>11119</v>
+        <v>11999</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45926.540925925925</v>
+        <v>45948.526076388887</v>
       </c>
       <c r="H81" s="1">
-        <v>45866.540937500002</v>
+        <v>45888.526076388887</v>
       </c>
       <c r="I81" s="2">
-        <v>-41</v>
+        <v>-54</v>
       </c>
       <c r="J81" s="3">
-        <v>665</v>
+        <v>53.63</v>
       </c>
       <c r="K81" s="3">
-        <v>665</v>
+        <v>53.63</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3932,7 +3932,7 @@
         <v>211111878</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3941,25 +3941,25 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>11120</v>
+        <v>12000</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45926.540960648148</v>
+        <v>45948.526099537034</v>
       </c>
       <c r="H82" s="1">
-        <v>45866.540960648148</v>
+        <v>45888.526099537034</v>
       </c>
       <c r="I82" s="2">
-        <v>-41</v>
+        <v>-54</v>
       </c>
       <c r="J82" s="3">
-        <v>131.55000000000001</v>
+        <v>140.37</v>
       </c>
       <c r="K82" s="3">
-        <v>131.55000000000001</v>
+        <v>140.37</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3973,7 +3973,7 @@
         <v>211111878</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3982,25 +3982,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>11186</v>
+        <v>12001</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45927.594328703701</v>
+        <v>45948.52612268518</v>
       </c>
       <c r="H83" s="1">
-        <v>45867.594340277778</v>
+        <v>45888.52612268518</v>
       </c>
       <c r="I83" s="2">
-        <v>-42</v>
+        <v>-54</v>
       </c>
       <c r="J83" s="3">
-        <v>379.86</v>
+        <v>212.85</v>
       </c>
       <c r="K83" s="3">
-        <v>379.86</v>
+        <v>212.85</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4014,7 +4014,7 @@
         <v>211111878</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -4023,25 +4023,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>11366</v>
+        <v>12127</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45930.614166666666</v>
+        <v>45950.595092592594</v>
       </c>
       <c r="H84" s="1">
-        <v>45870.614722222221</v>
+        <v>45890.595092592594</v>
       </c>
       <c r="I84" s="2">
-        <v>-45</v>
+        <v>-56</v>
       </c>
       <c r="J84" s="3">
-        <v>159.29</v>
+        <v>54.92</v>
       </c>
       <c r="K84" s="3">
-        <v>159.29</v>
+        <v>54.92</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4055,7 +4055,7 @@
         <v>211111878</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4064,25 +4064,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>11369</v>
+        <v>12215</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45930.684340277774</v>
+        <v>45951.693171296298</v>
       </c>
       <c r="H85" s="1">
-        <v>45870.684976851851</v>
+        <v>45891.693749999999</v>
       </c>
       <c r="I85" s="2">
-        <v>-45</v>
+        <v>-57</v>
       </c>
       <c r="J85" s="3">
-        <v>106.19</v>
+        <v>90.44</v>
       </c>
       <c r="K85" s="3">
-        <v>106.19</v>
+        <v>90.44</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B86" t="s">
         <v>31</v>
@@ -4105,36 +4105,36 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>11428</v>
+        <v>10687</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45934.485219907408</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H86" s="1">
-        <v>45874.485219907408</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I86" s="2">
-        <v>-49</v>
+        <v>9</v>
       </c>
       <c r="J86" s="3">
-        <v>56.480000000000004</v>
+        <v>542.13</v>
       </c>
       <c r="K86" s="3">
-        <v>56.480000000000004</v>
+        <v>542.13</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
@@ -4146,25 +4146,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>11429</v>
+        <v>11880</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45934.485231481478</v>
+        <v>45913.40384259259</v>
       </c>
       <c r="H87" s="1">
-        <v>45874.485231481478</v>
+        <v>45883.403854166667</v>
       </c>
       <c r="I87" s="2">
-        <v>-49</v>
+        <v>-19</v>
       </c>
       <c r="J87" s="3">
-        <v>472.14</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="K87" s="3">
-        <v>472.14</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B88" t="s">
         <v>31</v>
@@ -4187,25 +4187,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>11430</v>
+        <v>11881</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45934.485266203701</v>
+        <v>45913.405740740738</v>
       </c>
       <c r="H88" s="1">
-        <v>45874.485266203701</v>
+        <v>45883.405740740738</v>
       </c>
       <c r="I88" s="2">
-        <v>-49</v>
+        <v>-19</v>
       </c>
       <c r="J88" s="3">
-        <v>405.8</v>
+        <v>115.78</v>
       </c>
       <c r="K88" s="3">
-        <v>405.8</v>
+        <v>115.78</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4216,174 +4216,174 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89">
-        <v>11717</v>
+        <v>326</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45940.541759259257</v>
+        <v>45777</v>
       </c>
       <c r="H89" s="1">
-        <v>45880.541770833333</v>
+        <v>45747</v>
       </c>
       <c r="I89" s="2">
-        <v>-55</v>
+        <v>117</v>
       </c>
       <c r="J89" s="3">
-        <v>100.79</v>
+        <v>-22</v>
       </c>
       <c r="K89" s="3">
-        <v>100.79</v>
+        <v>-22</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
       </c>
       <c r="E90">
-        <v>11758</v>
+        <v>327</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45941.499224537038</v>
+        <v>45777</v>
       </c>
       <c r="H90" s="1">
-        <v>45881.499236111107</v>
+        <v>45747</v>
       </c>
       <c r="I90" s="2">
-        <v>-56</v>
+        <v>117</v>
       </c>
       <c r="J90" s="3">
-        <v>304.79000000000002</v>
+        <v>-27.45</v>
       </c>
       <c r="K90" s="3">
-        <v>304.79000000000002</v>
+        <v>-27.45</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11922</v>
+        <v>328</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45943.619444444441</v>
+        <v>45777</v>
       </c>
       <c r="H91" s="1">
-        <v>45883.620034722218</v>
+        <v>45747</v>
       </c>
       <c r="I91" s="2">
-        <v>-58</v>
+        <v>117</v>
       </c>
       <c r="J91" s="3">
-        <v>97.43</v>
+        <v>-5.73</v>
       </c>
       <c r="K91" s="3">
-        <v>97.43</v>
+        <v>-5.73</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112043</v>
+        <v>211112052</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D92">
+        <v>2025</v>
       </c>
       <c r="E92">
-        <v>10687</v>
+        <v>546</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45885.468888888885</v>
+        <v>45879</v>
       </c>
       <c r="H92" s="1">
-        <v>45855.468888888885</v>
+        <v>45819</v>
       </c>
       <c r="I92" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J92" s="3">
-        <v>542.13</v>
+        <v>-680.83</v>
       </c>
       <c r="K92" s="3">
-        <v>542.13</v>
+        <v>-680.83</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112043</v>
+        <v>211112052</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4392,195 +4392,195 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>11880</v>
+        <v>9182</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45913.40384259259</v>
+        <v>45881.340092592589</v>
       </c>
       <c r="H93" s="1">
-        <v>45883.403854166667</v>
+        <v>45821.340949074074</v>
       </c>
       <c r="I93" s="2">
-        <v>-28</v>
+        <v>13</v>
       </c>
       <c r="J93" s="3">
-        <v>248.76000000000002</v>
+        <v>968.26</v>
       </c>
       <c r="K93" s="3">
-        <v>248.76000000000002</v>
+        <v>968.26</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112043</v>
+        <v>211112052</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D94">
+        <v>2025</v>
       </c>
       <c r="E94">
-        <v>11881</v>
+        <v>569</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45913.405740740738</v>
+        <v>45885</v>
       </c>
       <c r="H94" s="1">
-        <v>45883.405740740738</v>
+        <v>45825</v>
       </c>
       <c r="I94" s="2">
-        <v>-28</v>
+        <v>9</v>
       </c>
       <c r="J94" s="3">
-        <v>115.78</v>
+        <v>-69.09</v>
       </c>
       <c r="K94" s="3">
-        <v>115.78</v>
+        <v>-69.09</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112050</v>
+        <v>211112052</v>
       </c>
       <c r="B95" t="s">
         <v>33</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95">
-        <v>326</v>
+        <v>9796</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45777</v>
+        <v>45894.634768518517</v>
       </c>
       <c r="H95" s="1">
-        <v>45747</v>
+        <v>45834.635682870372</v>
       </c>
       <c r="I95" s="2">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J95" s="3">
-        <v>-22</v>
+        <v>107.37</v>
       </c>
       <c r="K95" s="3">
-        <v>-22</v>
+        <v>107.37</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112050</v>
+        <v>211112052</v>
       </c>
       <c r="B96" t="s">
         <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
       <c r="E96">
-        <v>327</v>
+        <v>10369</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45777</v>
+        <v>45908.309050925927</v>
       </c>
       <c r="H96" s="1">
-        <v>45747</v>
+        <v>45848.309965277775</v>
       </c>
       <c r="I96" s="2">
-        <v>108</v>
+        <v>-14</v>
       </c>
       <c r="J96" s="3">
-        <v>-27.45</v>
+        <v>1512.89</v>
       </c>
       <c r="K96" s="3">
-        <v>-27.45</v>
+        <v>1512.89</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112050</v>
+        <v>211112052</v>
       </c>
       <c r="B97" t="s">
         <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E97">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45777</v>
+        <v>45922</v>
       </c>
       <c r="H97" s="1">
-        <v>45747</v>
+        <v>45862</v>
       </c>
       <c r="I97" s="2">
-        <v>108</v>
+        <v>-28</v>
       </c>
       <c r="J97" s="3">
-        <v>-5.73</v>
+        <v>-15.38</v>
       </c>
       <c r="K97" s="3">
-        <v>-5.73</v>
+        <v>-15.38</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4588,40 +4588,40 @@
         <v>211112052</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D98">
         <v>2025</v>
       </c>
       <c r="E98">
-        <v>546</v>
+        <v>682</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45879</v>
+        <v>45922</v>
       </c>
       <c r="H98" s="1">
-        <v>45819</v>
+        <v>45862</v>
       </c>
       <c r="I98" s="2">
-        <v>6</v>
+        <v>-28</v>
       </c>
       <c r="J98" s="3">
-        <v>-680.83</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="K98" s="3">
-        <v>-680.83</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4629,7 +4629,7 @@
         <v>211112052</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4638,31 +4638,31 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>9182</v>
+        <v>11013</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45881.340092592589</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H99" s="1">
-        <v>45821.340949074074</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I99" s="2">
-        <v>3.6599074074110831</v>
+        <v>-29</v>
       </c>
       <c r="J99" s="3">
-        <v>968.26</v>
+        <v>417.19</v>
       </c>
       <c r="K99" s="3">
-        <v>968.26</v>
+        <v>417.19</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4670,34 +4670,34 @@
         <v>211112052</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
       </c>
       <c r="E100">
-        <v>569</v>
+        <v>11014</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45885</v>
+        <v>45923.288171296292</v>
       </c>
       <c r="H100" s="1">
-        <v>45825</v>
+        <v>45863.288368055553</v>
       </c>
       <c r="I100" s="2">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="J100" s="3">
-        <v>-69.09</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="K100" s="3">
-        <v>-69.09</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
@@ -4711,7 +4711,7 @@
         <v>211112052</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4720,25 +4720,25 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>9796</v>
+        <v>11085</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45894.634768518517</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H101" s="1">
-        <v>45834.635682870372</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I101" s="2">
-        <v>-9</v>
+        <v>-29</v>
       </c>
       <c r="J101" s="3">
-        <v>107.37</v>
+        <v>726.19</v>
       </c>
       <c r="K101" s="3">
-        <v>107.37</v>
+        <v>726.19</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4752,7 +4752,7 @@
         <v>211112052</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4761,25 +4761,25 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>10369</v>
+        <v>11609</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45908.309050925927</v>
+        <v>45937.476863425924</v>
       </c>
       <c r="H102" s="1">
-        <v>45848.309965277775</v>
+        <v>45877.477210648147</v>
       </c>
       <c r="I102" s="2">
-        <v>-23</v>
+        <v>-43</v>
       </c>
       <c r="J102" s="3">
-        <v>1512.89</v>
+        <v>957.27</v>
       </c>
       <c r="K102" s="3">
-        <v>1512.89</v>
+        <v>957.27</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -4790,37 +4790,37 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112052</v>
+        <v>211112098</v>
       </c>
       <c r="B103" t="s">
         <v>34</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>11783</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45922</v>
+        <v>45912.363032407404</v>
       </c>
       <c r="H103" s="1">
-        <v>45862</v>
+        <v>45882.363032407404</v>
       </c>
       <c r="I103" s="2">
-        <v>-37</v>
+        <v>-18</v>
       </c>
       <c r="J103" s="3">
-        <v>-15.38</v>
+        <v>468.88</v>
       </c>
       <c r="K103" s="3">
-        <v>-15.38</v>
+        <v>468.88</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -4831,51 +4831,51 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
       </c>
       <c r="E104">
-        <v>682</v>
+        <v>9177</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45922</v>
+        <v>45880.637939814813</v>
       </c>
       <c r="H104" s="1">
-        <v>45862</v>
+        <v>45820.639421296291</v>
       </c>
       <c r="I104" s="2">
-        <v>-37</v>
+        <v>14</v>
       </c>
       <c r="J104" s="3">
-        <v>-606.93000000000006</v>
+        <v>3277.76</v>
       </c>
       <c r="K104" s="3">
-        <v>-606.93000000000006</v>
+        <v>3277.76</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4884,80 +4884,80 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>11013</v>
+        <v>9560</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45923.283518518518</v>
+        <v>45888.627025462964</v>
       </c>
       <c r="H105" s="1">
-        <v>45863.287939814814</v>
+        <v>45828.628541666665</v>
       </c>
       <c r="I105" s="2">
-        <v>-38</v>
+        <v>6</v>
       </c>
       <c r="J105" s="3">
-        <v>417.19</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="K105" s="3">
-        <v>417.19</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E106">
-        <v>11014</v>
+        <v>123</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45923.288171296292</v>
+        <v>45888.628900462958</v>
       </c>
       <c r="H106" s="1">
-        <v>45863.288368055553</v>
+        <v>45828.673252314809</v>
       </c>
       <c r="I106" s="2">
-        <v>-38</v>
+        <v>6</v>
       </c>
       <c r="J106" s="3">
-        <v>606.93000000000006</v>
+        <v>1721.02</v>
       </c>
       <c r="K106" s="3">
-        <v>606.93000000000006</v>
+        <v>1721.02</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4966,25 +4966,25 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>11085</v>
+        <v>9800</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45923.645879629628</v>
+        <v>45894.651828703703</v>
       </c>
       <c r="H107" s="1">
-        <v>45863.645879629628</v>
+        <v>45834.65211805555</v>
       </c>
       <c r="I107" s="2">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="J107" s="3">
-        <v>726.19</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="K107" s="3">
-        <v>726.19</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -4995,10 +4995,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -5007,25 +5007,25 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>11609</v>
+        <v>9801</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45937.476863425924</v>
+        <v>45894.653275462959</v>
       </c>
       <c r="H108" s="1">
-        <v>45877.477210648147</v>
+        <v>45834.653495370367</v>
       </c>
       <c r="I108" s="2">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="J108" s="3">
-        <v>957.27</v>
+        <v>1272.99</v>
       </c>
       <c r="K108" s="3">
-        <v>957.27</v>
+        <v>1272.99</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112098</v>
+        <v>211112151</v>
       </c>
       <c r="B109" t="s">
         <v>35</v>
@@ -5048,25 +5048,25 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>11783</v>
+        <v>9911</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45912.363032407404</v>
+        <v>45898.70108796296</v>
       </c>
       <c r="H109" s="1">
-        <v>45882.363032407404</v>
+        <v>45838.702037037037</v>
       </c>
       <c r="I109" s="2">
-        <v>-27</v>
+        <v>-4</v>
       </c>
       <c r="J109" s="3">
-        <v>468.88</v>
+        <v>2730.67</v>
       </c>
       <c r="K109" s="3">
-        <v>468.88</v>
+        <v>2730.67</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5080,7 +5080,7 @@
         <v>211112151</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5089,31 +5089,31 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>9177</v>
+        <v>10234</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45880.637939814813</v>
+        <v>45905.634965277779</v>
       </c>
       <c r="H110" s="1">
-        <v>45820.639421296291</v>
+        <v>45845.635636574072</v>
       </c>
       <c r="I110" s="2">
-        <v>4.362060185187147</v>
+        <v>-11</v>
       </c>
       <c r="J110" s="3">
-        <v>3277.76</v>
+        <v>2189.11</v>
       </c>
       <c r="K110" s="3">
-        <v>3277.76</v>
+        <v>2189.11</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
         <v>211112151</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5130,25 +5130,25 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>9560</v>
+        <v>10548</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45888.627025462964</v>
+        <v>45913.353020833332</v>
       </c>
       <c r="H111" s="1">
-        <v>45828.628541666665</v>
+        <v>45853.353888888887</v>
       </c>
       <c r="I111" s="2">
-        <v>-3</v>
+        <v>-19</v>
       </c>
       <c r="J111" s="3">
-        <v>2976.7400000000002</v>
+        <v>4871.05</v>
       </c>
       <c r="K111" s="3">
-        <v>2976.7400000000002</v>
+        <v>4871.05</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -5162,34 +5162,34 @@
         <v>211112151</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E112">
-        <v>123</v>
+        <v>11138</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45888.628900462958</v>
+        <v>45927.358495370368</v>
       </c>
       <c r="H112" s="1">
-        <v>45828.673252314809</v>
+        <v>45867.359340277777</v>
       </c>
       <c r="I112" s="2">
-        <v>-3</v>
+        <v>-33</v>
       </c>
       <c r="J112" s="3">
-        <v>1721.02</v>
+        <v>1891.52</v>
       </c>
       <c r="K112" s="3">
-        <v>1721.02</v>
+        <v>1891.52</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -5203,7 +5203,7 @@
         <v>211112151</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5212,25 +5212,25 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>9800</v>
+        <v>11469</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45894.651828703703</v>
+        <v>45935.331585648149</v>
       </c>
       <c r="H113" s="1">
-        <v>45834.65211805555</v>
+        <v>45875.332268518519</v>
       </c>
       <c r="I113" s="2">
-        <v>-9</v>
+        <v>-41</v>
       </c>
       <c r="J113" s="3">
-        <v>617.68000000000006</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="K113" s="3">
-        <v>617.68000000000006</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -5244,7 +5244,7 @@
         <v>211112151</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5253,25 +5253,25 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>9801</v>
+        <v>11470</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45894.653275462959</v>
+        <v>45935.332488425927</v>
       </c>
       <c r="H114" s="1">
-        <v>45834.653495370367</v>
+        <v>45875.332824074074</v>
       </c>
       <c r="I114" s="2">
-        <v>-9</v>
+        <v>-41</v>
       </c>
       <c r="J114" s="3">
-        <v>1272.99</v>
+        <v>1486.91</v>
       </c>
       <c r="K114" s="3">
-        <v>1272.99</v>
+        <v>1486.91</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -5285,7 +5285,7 @@
         <v>211112151</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5294,25 +5294,25 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>9911</v>
+        <v>11860</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45898.70108796296</v>
+        <v>45942.619097222218</v>
       </c>
       <c r="H115" s="1">
-        <v>45838.702037037037</v>
+        <v>45882.62773148148</v>
       </c>
       <c r="I115" s="2">
-        <v>-13</v>
+        <v>-48</v>
       </c>
       <c r="J115" s="3">
-        <v>2730.67</v>
+        <v>3031.57</v>
       </c>
       <c r="K115" s="3">
-        <v>2730.67</v>
+        <v>3031.57</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -5326,34 +5326,34 @@
         <v>211112151</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E116">
-        <v>10234</v>
+        <v>153</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45905.634965277779</v>
+        <v>45942.62940972222</v>
       </c>
       <c r="H116" s="1">
-        <v>45845.635636574072</v>
+        <v>45882.629641203705</v>
       </c>
       <c r="I116" s="2">
-        <v>-20</v>
+        <v>-48</v>
       </c>
       <c r="J116" s="3">
-        <v>2189.11</v>
+        <v>1558.65</v>
       </c>
       <c r="K116" s="3">
-        <v>2189.11</v>
+        <v>1558.65</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -5364,51 +5364,51 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211112151</v>
+        <v>211112183</v>
       </c>
       <c r="B117" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117">
+        <v>2025</v>
+      </c>
+      <c r="E117">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="1">
+        <v>45693</v>
+      </c>
+      <c r="H117" s="1">
+        <v>45663</v>
+      </c>
+      <c r="I117" s="2">
+        <v>201</v>
+      </c>
+      <c r="J117" s="3">
+        <v>-4385.22</v>
+      </c>
+      <c r="K117" s="3">
+        <v>-782.21</v>
+      </c>
+      <c r="L117" t="s">
+        <v>17</v>
+      </c>
+      <c r="M117" t="s">
         <v>36</v>
-      </c>
-      <c r="C117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117">
-        <v>10548</v>
-      </c>
-      <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" s="1">
-        <v>45913.353020833332</v>
-      </c>
-      <c r="H117" s="1">
-        <v>45853.353888888887</v>
-      </c>
-      <c r="I117" s="2">
-        <v>-28</v>
-      </c>
-      <c r="J117" s="3">
-        <v>4871.05</v>
-      </c>
-      <c r="K117" s="3">
-        <v>4871.05</v>
-      </c>
-      <c r="L117" t="s">
-        <v>17</v>
-      </c>
-      <c r="M117" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5417,80 +5417,80 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>11138</v>
+        <v>8763</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45927.358495370368</v>
+        <v>45841.406585648147</v>
       </c>
       <c r="H118" s="1">
-        <v>45867.359340277777</v>
+        <v>45811.406979166662</v>
       </c>
       <c r="I118" s="2">
-        <v>-42</v>
+        <v>53</v>
       </c>
       <c r="J118" s="3">
-        <v>1891.52</v>
+        <v>808.13</v>
       </c>
       <c r="K118" s="3">
-        <v>1891.52</v>
+        <v>143.54</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119">
+        <v>122</v>
+      </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="1">
+        <v>45858.629687499997</v>
+      </c>
+      <c r="H119" s="1">
+        <v>45828.63045138889</v>
+      </c>
+      <c r="I119" s="2">
         <v>36</v>
       </c>
-      <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119">
-        <v>11469</v>
-      </c>
-      <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" s="1">
-        <v>45935.331585648149</v>
-      </c>
-      <c r="H119" s="1">
-        <v>45875.332268518519</v>
-      </c>
-      <c r="I119" s="2">
-        <v>-50</v>
-      </c>
       <c r="J119" s="3">
-        <v>2536.7800000000002</v>
+        <v>675.35</v>
       </c>
       <c r="K119" s="3">
-        <v>2536.7800000000002</v>
+        <v>255.70000000000002</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5499,39 +5499,39 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>11470</v>
+        <v>9924</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45935.332488425927</v>
+        <v>45869.354363425926</v>
       </c>
       <c r="H120" s="1">
-        <v>45875.332824074074</v>
+        <v>45839.356215277774</v>
       </c>
       <c r="I120" s="2">
-        <v>-50</v>
+        <v>25</v>
       </c>
       <c r="J120" s="3">
-        <v>1486.91</v>
+        <v>574.62</v>
       </c>
       <c r="K120" s="3">
-        <v>1486.91</v>
+        <v>57.78</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -5540,25 +5540,25 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>11860</v>
+        <v>11575</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45942.619097222218</v>
+        <v>45906.462129629625</v>
       </c>
       <c r="H121" s="1">
-        <v>45882.62773148148</v>
+        <v>45876.462129629625</v>
       </c>
       <c r="I121" s="2">
-        <v>-57</v>
+        <v>-12</v>
       </c>
       <c r="J121" s="3">
-        <v>3031.57</v>
+        <v>647.14</v>
       </c>
       <c r="K121" s="3">
-        <v>3031.57</v>
+        <v>647.14</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
@@ -5569,37 +5569,37 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E122">
-        <v>153</v>
+        <v>12113</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45942.62940972222</v>
+        <v>45920.512499999997</v>
       </c>
       <c r="H122" s="1">
-        <v>45882.629641203705</v>
+        <v>45890.512499999997</v>
       </c>
       <c r="I122" s="2">
-        <v>-57</v>
+        <v>-26</v>
       </c>
       <c r="J122" s="3">
-        <v>1558.65</v>
+        <v>265.43</v>
       </c>
       <c r="K122" s="3">
-        <v>1558.65</v>
+        <v>265.43</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
@@ -5610,48 +5610,48 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211112183</v>
+        <v>211112290</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
       </c>
       <c r="E123">
-        <v>14</v>
+        <v>10786</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45693</v>
+        <v>45916.621446759258</v>
       </c>
       <c r="H123" s="1">
-        <v>45663</v>
+        <v>45856.622523148144</v>
       </c>
       <c r="I123" s="2">
-        <v>192</v>
+        <v>-22</v>
       </c>
       <c r="J123" s="3">
-        <v>-4385.22</v>
+        <v>2347.12</v>
       </c>
       <c r="K123" s="3">
-        <v>-782.21</v>
+        <v>2347.12</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211112216</v>
+        <v>211112290</v>
       </c>
       <c r="B124" t="s">
         <v>41</v>
@@ -5663,189 +5663,189 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>8763</v>
+        <v>11859</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45841.406585648147</v>
+        <v>45942.611527777779</v>
       </c>
       <c r="H124" s="1">
-        <v>45811.406979166662</v>
+        <v>45882.616122685184</v>
       </c>
       <c r="I124" s="2">
-        <v>43.593414351853426</v>
+        <v>-48</v>
       </c>
       <c r="J124" s="3">
-        <v>808.13</v>
+        <v>1123.45</v>
       </c>
       <c r="K124" s="3">
-        <v>143.54</v>
+        <v>1123.45</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211112216</v>
+        <v>211112334</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D125" t="s">
-        <v>39</v>
-      </c>
-      <c r="E125">
-        <v>122</v>
+        <v>37</v>
+      </c>
+      <c r="E125" t="s">
+        <v>44</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45858.629687499997</v>
+        <v>45406</v>
       </c>
       <c r="H125" s="1">
-        <v>45828.63045138889</v>
+        <v>45391</v>
       </c>
       <c r="I125" s="2">
-        <v>26.37031250000291</v>
+        <v>488</v>
       </c>
       <c r="J125" s="3">
-        <v>675.35</v>
+        <v>597.29</v>
       </c>
       <c r="K125" s="3">
-        <v>255.70000000000002</v>
+        <v>597.29</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112216</v>
+        <v>211112334</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126">
-        <v>9924</v>
+        <v>37</v>
+      </c>
+      <c r="E126" t="s">
+        <v>45</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45869.354363425926</v>
+        <v>45406</v>
       </c>
       <c r="H126" s="1">
-        <v>45839.356215277774</v>
+        <v>45391</v>
       </c>
       <c r="I126" s="2">
-        <v>15.64563657407416</v>
+        <v>488</v>
       </c>
       <c r="J126" s="3">
-        <v>574.62</v>
+        <v>591.72</v>
       </c>
       <c r="K126" s="3">
-        <v>57.78</v>
+        <v>591.72</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112216</v>
+        <v>211112334</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127">
-        <v>11575</v>
+        <v>37</v>
+      </c>
+      <c r="E127" t="s">
+        <v>46</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45906.462129629625</v>
+        <v>45419</v>
       </c>
       <c r="H127" s="1">
-        <v>45876.462129629625</v>
+        <v>45404</v>
       </c>
       <c r="I127" s="2">
-        <v>-21</v>
+        <v>475</v>
       </c>
       <c r="J127" s="3">
-        <v>647.14</v>
+        <v>599.27</v>
       </c>
       <c r="K127" s="3">
-        <v>647.14</v>
+        <v>599.27</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
       </c>
       <c r="M127" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112290</v>
+        <v>211112334</v>
       </c>
       <c r="B128" t="s">
         <v>42</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="D128">
+        <v>2025</v>
       </c>
       <c r="E128">
-        <v>10786</v>
+        <v>91</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45916.621446759258</v>
+        <v>45906</v>
       </c>
       <c r="H128" s="1">
-        <v>45856.622523148144</v>
+        <v>45876</v>
       </c>
       <c r="I128" s="2">
-        <v>-31</v>
+        <v>-12</v>
       </c>
       <c r="J128" s="3">
-        <v>2347.12</v>
+        <v>-64.14</v>
       </c>
       <c r="K128" s="3">
-        <v>2347.12</v>
+        <v>-64.14</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -5856,37 +5856,37 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112290</v>
+        <v>211112334</v>
       </c>
       <c r="B129" t="s">
         <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="D129">
+        <v>2025</v>
       </c>
       <c r="E129">
-        <v>11859</v>
+        <v>92</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45942.611527777779</v>
+        <v>45906</v>
       </c>
       <c r="H129" s="1">
-        <v>45882.616122685184</v>
+        <v>45876</v>
       </c>
       <c r="I129" s="2">
-        <v>-57</v>
+        <v>-12</v>
       </c>
       <c r="J129" s="3">
-        <v>1123.45</v>
+        <v>-174.57</v>
       </c>
       <c r="K129" s="3">
-        <v>1123.45</v>
+        <v>-174.57</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -5897,125 +5897,125 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112334</v>
+        <v>211112351</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C130" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
-      </c>
-      <c r="E130" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E130">
+        <v>7192</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45406</v>
+        <v>45843.368854166663</v>
       </c>
       <c r="H130" s="1">
-        <v>45391</v>
+        <v>45783.369363425925</v>
       </c>
       <c r="I130" s="2">
-        <v>479</v>
+        <v>51</v>
       </c>
       <c r="J130" s="3">
-        <v>597.29</v>
+        <v>4675.67</v>
       </c>
       <c r="K130" s="3">
-        <v>597.29</v>
+        <v>4675.67</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112334</v>
+        <v>211112351</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C131" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="E131">
+        <v>7370</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45406</v>
+        <v>45845.34983796296</v>
       </c>
       <c r="H131" s="1">
-        <v>45391</v>
+        <v>45785.350659722222</v>
       </c>
       <c r="I131" s="2">
-        <v>479</v>
+        <v>49</v>
       </c>
       <c r="J131" s="3">
-        <v>591.72</v>
+        <v>4323.37</v>
       </c>
       <c r="K131" s="3">
-        <v>591.72</v>
+        <v>4323.37</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112334</v>
+        <v>211112351</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132">
+        <v>7619</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" s="1">
+        <v>45850.387407407405</v>
+      </c>
+      <c r="H132" s="1">
+        <v>45790.388252314813</v>
+      </c>
+      <c r="I132" s="2">
         <v>44</v>
       </c>
-      <c r="D132" t="s">
-        <v>38</v>
-      </c>
-      <c r="E132" t="s">
-        <v>47</v>
-      </c>
-      <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" s="1">
-        <v>45419</v>
-      </c>
-      <c r="H132" s="1">
-        <v>45404</v>
-      </c>
-      <c r="I132" s="2">
-        <v>466</v>
-      </c>
       <c r="J132" s="3">
-        <v>599.27</v>
+        <v>7394.88</v>
       </c>
       <c r="K132" s="3">
-        <v>599.27</v>
+        <v>7394.88</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6023,40 +6023,40 @@
         <v>211112351</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133">
-        <v>411</v>
+        <v>8006</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45837</v>
+        <v>45857.37296296296</v>
       </c>
       <c r="H133" s="1">
-        <v>45777</v>
+        <v>45797.375092592592</v>
       </c>
       <c r="I133" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J133" s="3">
-        <v>-313.76</v>
+        <v>3927.87</v>
       </c>
       <c r="K133" s="3">
-        <v>-313.76</v>
+        <v>3927.87</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6064,7 +6064,7 @@
         <v>211112351</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6073,31 +6073,31 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>7018</v>
+        <v>8750</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45837.739259259259</v>
+        <v>45871.312986111108</v>
       </c>
       <c r="H134" s="1">
-        <v>45777.741296296292</v>
+        <v>45811.315150462964</v>
       </c>
       <c r="I134" s="2">
-        <v>47.260740740741312</v>
+        <v>23</v>
       </c>
       <c r="J134" s="3">
-        <v>4925.1000000000004</v>
+        <v>2626.23</v>
       </c>
       <c r="K134" s="3">
-        <v>4925.1000000000004</v>
+        <v>2626.23</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6105,7 +6105,7 @@
         <v>211112351</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6114,36 +6114,36 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>7192</v>
+        <v>9758</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45843.368854166663</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H135" s="1">
-        <v>45783.369363425925</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I135" s="2">
-        <v>41.631145833336632</v>
+        <v>0</v>
       </c>
       <c r="J135" s="3">
-        <v>4675.67</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K135" s="3">
-        <v>4675.67</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112351</v>
+        <v>211112421</v>
       </c>
       <c r="B136" t="s">
         <v>48</v>
@@ -6155,39 +6155,39 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>7370</v>
+        <v>3848</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45845.34983796296</v>
+        <v>45746.622569444444</v>
       </c>
       <c r="H136" s="1">
-        <v>45785.350659722222</v>
+        <v>45716.624456018515</v>
       </c>
       <c r="I136" s="2">
-        <v>39.650162037039991</v>
+        <v>148</v>
       </c>
       <c r="J136" s="3">
-        <v>4323.37</v>
+        <v>233.77</v>
       </c>
       <c r="K136" s="3">
-        <v>4323.37</v>
+        <v>233.77</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112351</v>
+        <v>211112443</v>
       </c>
       <c r="B137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6196,39 +6196,39 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>7619</v>
+        <v>8910</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45850.387407407405</v>
+        <v>45843.497025462959</v>
       </c>
       <c r="H137" s="1">
-        <v>45790.388252314813</v>
+        <v>45813.497488425921</v>
       </c>
       <c r="I137" s="2">
-        <v>34.61259259259532</v>
+        <v>51</v>
       </c>
       <c r="J137" s="3">
-        <v>7394.88</v>
+        <v>765.47</v>
       </c>
       <c r="K137" s="3">
-        <v>7394.88</v>
+        <v>765.47</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112351</v>
+        <v>211112443</v>
       </c>
       <c r="B138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6237,25 +6237,25 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>8006</v>
+        <v>10549</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45857.37296296296</v>
+        <v>45883.354108796295</v>
       </c>
       <c r="H138" s="1">
-        <v>45797.375092592592</v>
+        <v>45853.354548611111</v>
       </c>
       <c r="I138" s="2">
-        <v>27.627037037040282</v>
+        <v>11</v>
       </c>
       <c r="J138" s="3">
-        <v>3927.87</v>
+        <v>1094.7</v>
       </c>
       <c r="K138" s="3">
-        <v>3927.87</v>
+        <v>1094.7</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -6266,10 +6266,10 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112351</v>
+        <v>211112455</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
@@ -6278,66 +6278,66 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>8750</v>
+        <v>10837</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45871.312986111108</v>
+        <v>45890.319421296292</v>
       </c>
       <c r="H139" s="1">
-        <v>45811.315150462964</v>
+        <v>45860.320057870369</v>
       </c>
       <c r="I139" s="2">
-        <v>13.68701388889167</v>
+        <v>4</v>
       </c>
       <c r="J139" s="3">
-        <v>2626.23</v>
+        <v>1555.67</v>
       </c>
       <c r="K139" s="3">
-        <v>2626.23</v>
+        <v>1555.67</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112351</v>
+        <v>211112455</v>
       </c>
       <c r="B140" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E140">
-        <v>9758</v>
+        <v>9</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45894.404513888891</v>
+        <v>45900</v>
       </c>
       <c r="H140" s="1">
-        <v>45834.411666666667</v>
+        <v>45870</v>
       </c>
       <c r="I140" s="2">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="J140" s="3">
-        <v>2212.2600000000002</v>
+        <v>-15.38</v>
       </c>
       <c r="K140" s="3">
-        <v>2212.2600000000002</v>
+        <v>-15.38</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112421</v>
+        <v>211112455</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6360,36 +6360,36 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>3848</v>
+        <v>11299</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45746.622569444444</v>
+        <v>45900.301238425927</v>
       </c>
       <c r="H141" s="1">
-        <v>45716.624456018515</v>
+        <v>45870.301851851851</v>
       </c>
       <c r="I141" s="2">
-        <v>138.3774305555562</v>
+        <v>-6</v>
       </c>
       <c r="J141" s="3">
-        <v>233.77</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="K141" s="3">
-        <v>233.77</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112443</v>
+        <v>211112455</v>
       </c>
       <c r="B142" t="s">
         <v>50</v>
@@ -6401,36 +6401,36 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>8910</v>
+        <v>11471</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45843.497025462959</v>
+        <v>45905.332974537036</v>
       </c>
       <c r="H142" s="1">
-        <v>45813.497488425921</v>
+        <v>45875.333553240736</v>
       </c>
       <c r="I142" s="2">
-        <v>41.502974537041155</v>
+        <v>-11</v>
       </c>
       <c r="J142" s="3">
-        <v>765.47</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="K142" s="3">
-        <v>765.47</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112443</v>
+        <v>211112455</v>
       </c>
       <c r="B143" t="s">
         <v>50</v>
@@ -6442,31 +6442,31 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>10549</v>
+        <v>11858</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45883.354108796295</v>
+        <v>45912.609606481477</v>
       </c>
       <c r="H143" s="1">
-        <v>45853.354548611111</v>
+        <v>45882.61142361111</v>
       </c>
       <c r="I143" s="2">
-        <v>1.645891203705105</v>
+        <v>-18</v>
       </c>
       <c r="J143" s="3">
-        <v>1094.7</v>
+        <v>2905.4</v>
       </c>
       <c r="K143" s="3">
-        <v>1094.7</v>
+        <v>2905.4</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6474,7 +6474,7 @@
         <v>211112455</v>
       </c>
       <c r="B144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6483,36 +6483,36 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>10545</v>
+        <v>12035</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45883.337488425925</v>
+        <v>45919.369513888887</v>
       </c>
       <c r="H144" s="1">
-        <v>45853.348136574074</v>
+        <v>45889.370081018518</v>
       </c>
       <c r="I144" s="2">
-        <v>1.6625115740753245</v>
+        <v>-25</v>
       </c>
       <c r="J144" s="3">
-        <v>1711.91</v>
+        <v>3591.86</v>
       </c>
       <c r="K144" s="3">
-        <v>1711.91</v>
+        <v>3591.86</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112455</v>
+        <v>211112469</v>
       </c>
       <c r="B145" t="s">
         <v>51</v>
@@ -6524,25 +6524,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>10837</v>
+        <v>11558</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45890.319421296292</v>
+        <v>45906.43645833333</v>
       </c>
       <c r="H145" s="1">
-        <v>45860.320057870369</v>
+        <v>45876.437384259254</v>
       </c>
       <c r="I145" s="2">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="J145" s="3">
-        <v>1555.67</v>
+        <v>1107.6200000000001</v>
       </c>
       <c r="K145" s="3">
-        <v>1555.67</v>
+        <v>1107.6100000000001</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6553,10 +6553,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112455</v>
+        <v>211112476</v>
       </c>
       <c r="B146" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6565,39 +6565,39 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>11299</v>
+        <v>10023</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45900.301238425927</v>
+        <v>45871.36619212963</v>
       </c>
       <c r="H146" s="1">
-        <v>45870.301851851851</v>
+        <v>45841.366562499999</v>
       </c>
       <c r="I146" s="2">
-        <v>-15</v>
+        <v>23</v>
       </c>
       <c r="J146" s="3">
-        <v>1512.3600000000001</v>
+        <v>275.11</v>
       </c>
       <c r="K146" s="3">
-        <v>1512.3600000000001</v>
+        <v>275.11</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112455</v>
+        <v>211112488</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6606,39 +6606,39 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>11471</v>
+        <v>10184</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45905.332974537036</v>
+        <v>45872.656388888885</v>
       </c>
       <c r="H147" s="1">
-        <v>45875.333553240736</v>
+        <v>45842.656388888885</v>
       </c>
       <c r="I147" s="2">
-        <v>-20</v>
+        <v>22</v>
       </c>
       <c r="J147" s="3">
-        <v>1789.6000000000001</v>
+        <v>1008.07</v>
       </c>
       <c r="K147" s="3">
-        <v>1789.6000000000001</v>
+        <v>1008.07</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112455</v>
+        <v>211112488</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6647,25 +6647,25 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>11858</v>
+        <v>12146</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45912.609606481477</v>
+        <v>45920.679456018515</v>
       </c>
       <c r="H148" s="1">
-        <v>45882.61142361111</v>
+        <v>45890.681793981479</v>
       </c>
       <c r="I148" s="2">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="J148" s="3">
-        <v>2905.4</v>
+        <v>1241.79</v>
       </c>
       <c r="K148" s="3">
-        <v>2905.4</v>
+        <v>1241.79</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -6676,171 +6676,171 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112469</v>
+        <v>211112515</v>
       </c>
       <c r="B149" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D149">
+        <v>2025</v>
       </c>
       <c r="E149">
-        <v>10547</v>
+        <v>575</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="1">
-        <v>45883.352349537032</v>
+        <v>45861</v>
       </c>
       <c r="H149" s="1">
-        <v>45853.352858796294</v>
+        <v>45831</v>
       </c>
       <c r="I149" s="2">
-        <v>1.6476504629681585</v>
+        <v>33</v>
       </c>
       <c r="J149" s="3">
-        <v>957.17000000000007</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="K149" s="3">
-        <v>957.17000000000007</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
       </c>
       <c r="M149" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112469</v>
+        <v>211112515</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
-      </c>
-      <c r="D150" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="D150">
+        <v>2025</v>
       </c>
       <c r="E150">
-        <v>7</v>
+        <v>621</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" s="1">
-        <v>45892</v>
+        <v>45875</v>
       </c>
       <c r="H150" s="1">
-        <v>45862</v>
+        <v>45845</v>
       </c>
       <c r="I150" s="2">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="J150" s="3">
-        <v>-15.38</v>
+        <v>-49.21</v>
       </c>
       <c r="K150" s="3">
-        <v>-15.38</v>
+        <v>-49.21</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112469</v>
+        <v>211112515</v>
       </c>
       <c r="B151" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E151">
-        <v>11558</v>
+        <v>3</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>45906.43645833333</v>
+        <v>45892</v>
       </c>
       <c r="H151" s="1">
-        <v>45876.437384259254</v>
+        <v>45862</v>
       </c>
       <c r="I151" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="J151" s="3">
-        <v>1107.6200000000001</v>
+        <v>-15.38</v>
       </c>
       <c r="K151" s="3">
-        <v>1107.6200000000001</v>
+        <v>-15.38</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
       </c>
       <c r="M151" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112476</v>
+        <v>211112515</v>
       </c>
       <c r="B152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D152">
+        <v>2025</v>
       </c>
       <c r="E152">
-        <v>10023</v>
+        <v>696</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="1">
-        <v>45871.36619212963</v>
+        <v>45893</v>
       </c>
       <c r="H152" s="1">
-        <v>45841.366562499999</v>
+        <v>45863</v>
       </c>
       <c r="I152" s="2">
-        <v>13.633807870370219</v>
+        <v>1</v>
       </c>
       <c r="J152" s="3">
-        <v>275.11</v>
+        <v>-102.25</v>
       </c>
       <c r="K152" s="3">
-        <v>275.11</v>
+        <v>-102.25</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
       </c>
       <c r="M152" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112488</v>
+        <v>211112515</v>
       </c>
       <c r="B153" t="s">
         <v>54</v>
@@ -6852,31 +6852,31 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>10184</v>
+        <v>11018</v>
       </c>
       <c r="F153" t="s">
         <v>16</v>
       </c>
       <c r="G153" s="1">
-        <v>45872.656388888885</v>
+        <v>45893.344247685185</v>
       </c>
       <c r="H153" s="1">
-        <v>45842.656388888885</v>
+        <v>45863.344930555555</v>
       </c>
       <c r="I153" s="2">
-        <v>12.343611111115024</v>
+        <v>1</v>
       </c>
       <c r="J153" s="3">
-        <v>1008.07</v>
+        <v>653.94000000000005</v>
       </c>
       <c r="K153" s="3">
-        <v>1008.07</v>
+        <v>653.94000000000005</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6884,40 +6884,40 @@
         <v>211112515</v>
       </c>
       <c r="B154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
-      </c>
-      <c r="D154">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
       </c>
       <c r="E154">
-        <v>575</v>
+        <v>11868</v>
       </c>
       <c r="F154" t="s">
         <v>16</v>
       </c>
       <c r="G154" s="1">
-        <v>45861</v>
+        <v>45913.38927083333</v>
       </c>
       <c r="H154" s="1">
-        <v>45831</v>
+        <v>45883.390358796292</v>
       </c>
       <c r="I154" s="2">
-        <v>24</v>
+        <v>-19</v>
       </c>
       <c r="J154" s="3">
-        <v>-390.40000000000003</v>
+        <v>1706.69</v>
       </c>
       <c r="K154" s="3">
-        <v>-390.40000000000003</v>
+        <v>1706.69</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
       </c>
       <c r="M154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -6925,75 +6925,75 @@
         <v>211112515</v>
       </c>
       <c r="B155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
-      </c>
-      <c r="D155">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>621</v>
+        <v>12042</v>
       </c>
       <c r="F155" t="s">
         <v>16</v>
       </c>
       <c r="G155" s="1">
-        <v>45875</v>
+        <v>45919.439918981479</v>
       </c>
       <c r="H155" s="1">
-        <v>45845</v>
+        <v>45889.441377314812</v>
       </c>
       <c r="I155" s="2">
-        <v>10</v>
+        <v>-25</v>
       </c>
       <c r="J155" s="3">
-        <v>-49.21</v>
+        <v>1864.56</v>
       </c>
       <c r="K155" s="3">
-        <v>-49.21</v>
+        <v>1864.56</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211112515</v>
+        <v>211112518</v>
       </c>
       <c r="B156" t="s">
         <v>55</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>9953</v>
       </c>
       <c r="F156" t="s">
         <v>16</v>
       </c>
       <c r="G156" s="1">
-        <v>45892</v>
+        <v>45900.407731481479</v>
       </c>
       <c r="H156" s="1">
-        <v>45862</v>
+        <v>45840.408055555556</v>
       </c>
       <c r="I156" s="2">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="J156" s="3">
-        <v>-15.38</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="K156" s="3">
-        <v>-15.38</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
@@ -7004,37 +7004,37 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>211112515</v>
+        <v>211112518</v>
       </c>
       <c r="B157" t="s">
         <v>55</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
-      </c>
-      <c r="D157">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
       </c>
       <c r="E157">
-        <v>696</v>
+        <v>10114</v>
       </c>
       <c r="F157" t="s">
         <v>16</v>
       </c>
       <c r="G157" s="1">
-        <v>45893</v>
+        <v>45902.400694444441</v>
       </c>
       <c r="H157" s="1">
-        <v>45863</v>
+        <v>45842.400694444441</v>
       </c>
       <c r="I157" s="2">
         <v>-8</v>
       </c>
       <c r="J157" s="3">
-        <v>-102.25</v>
+        <v>219.86</v>
       </c>
       <c r="K157" s="3">
-        <v>-102.25</v>
+        <v>219.86</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>211112515</v>
+        <v>211112518</v>
       </c>
       <c r="B158" t="s">
         <v>55</v>
@@ -7057,25 +7057,25 @@
         <v>15</v>
       </c>
       <c r="E158">
-        <v>11018</v>
+        <v>10919</v>
       </c>
       <c r="F158" t="s">
         <v>16</v>
       </c>
       <c r="G158" s="1">
-        <v>45893.344247685185</v>
+        <v>45921.540416666663</v>
       </c>
       <c r="H158" s="1">
-        <v>45863.344930555555</v>
+        <v>45861.54415509259</v>
       </c>
       <c r="I158" s="2">
-        <v>-8</v>
+        <v>-27</v>
       </c>
       <c r="J158" s="3">
-        <v>653.94000000000005</v>
+        <v>817.86</v>
       </c>
       <c r="K158" s="3">
-        <v>653.94000000000005</v>
+        <v>817.86</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>211112515</v>
+        <v>211112518</v>
       </c>
       <c r="B159" t="s">
         <v>55</v>
@@ -7098,25 +7098,25 @@
         <v>15</v>
       </c>
       <c r="E159">
-        <v>11868</v>
+        <v>12069</v>
       </c>
       <c r="F159" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="1">
-        <v>45913.38927083333</v>
+        <v>45949.520509259259</v>
       </c>
       <c r="H159" s="1">
-        <v>45883.390358796292</v>
+        <v>45889.520520833328</v>
       </c>
       <c r="I159" s="2">
-        <v>-28</v>
+        <v>-55</v>
       </c>
       <c r="J159" s="3">
-        <v>1706.69</v>
+        <v>624.23</v>
       </c>
       <c r="K159" s="3">
-        <v>1706.69</v>
+        <v>624.23</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -7127,48 +7127,48 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>211112518</v>
+        <v>211112531</v>
       </c>
       <c r="B160" t="s">
         <v>56</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D160">
+        <v>2025</v>
       </c>
       <c r="E160">
-        <v>9953</v>
+        <v>681</v>
       </c>
       <c r="F160" t="s">
         <v>16</v>
       </c>
       <c r="G160" s="1">
-        <v>45900.407731481479</v>
+        <v>45892</v>
       </c>
       <c r="H160" s="1">
-        <v>45840.408055555556</v>
+        <v>45862</v>
       </c>
       <c r="I160" s="2">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="J160" s="3">
-        <v>358.40000000000003</v>
+        <v>-13.55</v>
       </c>
       <c r="K160" s="3">
-        <v>358.40000000000003</v>
+        <v>-13.55</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
       </c>
       <c r="M160" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>211112518</v>
+        <v>211112531</v>
       </c>
       <c r="B161" t="s">
         <v>56</v>
@@ -7180,36 +7180,36 @@
         <v>15</v>
       </c>
       <c r="E161">
-        <v>10114</v>
+        <v>11028</v>
       </c>
       <c r="F161" t="s">
         <v>16</v>
       </c>
       <c r="G161" s="1">
-        <v>45902.400694444441</v>
+        <v>45893.474282407406</v>
       </c>
       <c r="H161" s="1">
-        <v>45842.400694444441</v>
+        <v>45863.474293981482</v>
       </c>
       <c r="I161" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="J161" s="3">
-        <v>219.86</v>
+        <v>221.74</v>
       </c>
       <c r="K161" s="3">
-        <v>219.86</v>
+        <v>221.74</v>
       </c>
       <c r="L161" t="s">
         <v>17</v>
       </c>
       <c r="M161" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>211112518</v>
+        <v>211112531</v>
       </c>
       <c r="B162" t="s">
         <v>56</v>
@@ -7221,25 +7221,25 @@
         <v>15</v>
       </c>
       <c r="E162">
-        <v>10919</v>
+        <v>11383</v>
       </c>
       <c r="F162" t="s">
         <v>16</v>
       </c>
       <c r="G162" s="1">
-        <v>45921.540416666663</v>
+        <v>45903.496435185181</v>
       </c>
       <c r="H162" s="1">
-        <v>45861.54415509259</v>
+        <v>45873.497210648144</v>
       </c>
       <c r="I162" s="2">
-        <v>-36</v>
+        <v>-9</v>
       </c>
       <c r="J162" s="3">
-        <v>817.86</v>
+        <v>236.21</v>
       </c>
       <c r="K162" s="3">
-        <v>817.86</v>
+        <v>236.21</v>
       </c>
       <c r="L162" t="s">
         <v>17</v>
@@ -7253,34 +7253,34 @@
         <v>211112531</v>
       </c>
       <c r="B163" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
-      </c>
-      <c r="D163">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
       </c>
       <c r="E163">
-        <v>681</v>
+        <v>11813</v>
       </c>
       <c r="F163" t="s">
         <v>16</v>
       </c>
       <c r="G163" s="1">
-        <v>45892</v>
+        <v>45912.512372685182</v>
       </c>
       <c r="H163" s="1">
-        <v>45862</v>
+        <v>45882.512384259258</v>
       </c>
       <c r="I163" s="2">
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="J163" s="3">
-        <v>-13.55</v>
+        <v>110.37</v>
       </c>
       <c r="K163" s="3">
-        <v>-13.55</v>
+        <v>110.37</v>
       </c>
       <c r="L163" t="s">
         <v>17</v>
@@ -7294,7 +7294,7 @@
         <v>211112531</v>
       </c>
       <c r="B164" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -7303,153 +7303,30 @@
         <v>15</v>
       </c>
       <c r="E164">
-        <v>11028</v>
+        <v>11935</v>
       </c>
       <c r="F164" t="s">
         <v>16</v>
       </c>
       <c r="G164" s="1">
-        <v>45893.474282407406</v>
+        <v>45913.654675925922</v>
       </c>
       <c r="H164" s="1">
-        <v>45863.474293981482</v>
+        <v>45883.654907407406</v>
       </c>
       <c r="I164" s="2">
-        <v>-8</v>
+        <v>-19</v>
       </c>
       <c r="J164" s="3">
-        <v>221.74</v>
+        <v>71.320000000000007</v>
       </c>
       <c r="K164" s="3">
-        <v>221.74</v>
+        <v>71.320000000000007</v>
       </c>
       <c r="L164" t="s">
         <v>17</v>
       </c>
       <c r="M164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>211112531</v>
-      </c>
-      <c r="B165" t="s">
-        <v>57</v>
-      </c>
-      <c r="C165" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165">
-        <v>11383</v>
-      </c>
-      <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" s="1">
-        <v>45903.496435185181</v>
-      </c>
-      <c r="H165" s="1">
-        <v>45873.497210648144</v>
-      </c>
-      <c r="I165" s="2">
-        <v>-18</v>
-      </c>
-      <c r="J165" s="3">
-        <v>236.21</v>
-      </c>
-      <c r="K165" s="3">
-        <v>236.21</v>
-      </c>
-      <c r="L165" t="s">
-        <v>17</v>
-      </c>
-      <c r="M165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>211112531</v>
-      </c>
-      <c r="B166" t="s">
-        <v>57</v>
-      </c>
-      <c r="C166" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166">
-        <v>11813</v>
-      </c>
-      <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" s="1">
-        <v>45912.512372685182</v>
-      </c>
-      <c r="H166" s="1">
-        <v>45882.512384259258</v>
-      </c>
-      <c r="I166" s="2">
-        <v>-27</v>
-      </c>
-      <c r="J166" s="3">
-        <v>110.37</v>
-      </c>
-      <c r="K166" s="3">
-        <v>110.37</v>
-      </c>
-      <c r="L166" t="s">
-        <v>17</v>
-      </c>
-      <c r="M166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>211112531</v>
-      </c>
-      <c r="B167" t="s">
-        <v>57</v>
-      </c>
-      <c r="C167" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E167">
-        <v>11935</v>
-      </c>
-      <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" s="1">
-        <v>45913.654675925922</v>
-      </c>
-      <c r="H167" s="1">
-        <v>45883.654907407406</v>
-      </c>
-      <c r="I167" s="2">
-        <v>-28</v>
-      </c>
-      <c r="J167" s="3">
-        <v>71.320000000000007</v>
-      </c>
-      <c r="K167" s="3">
-        <v>71.320000000000007</v>
-      </c>
-      <c r="L167" t="s">
-        <v>17</v>
-      </c>
-      <c r="M167" t="s">
         <v>19</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCAD91F-907E-4847-ADB7-77C8591B706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F81AE58-5CD6-4964-B53C-0799EED3B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="61">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Macro-Frio, Comercio Internacional</t>
-  </si>
-  <si>
-    <t>91A120</t>
   </si>
   <si>
     <t>1A5</t>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>NCPR</t>
+  </si>
+  <si>
+    <t>Paulo Lima-Soc.Unipessoal, Lda</t>
   </si>
 </sst>
 </file>
@@ -593,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +652,7 @@
         <v>211110034</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -673,7 +673,7 @@
         <v>45842</v>
       </c>
       <c r="I2" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3">
         <v>-4.08</v>
@@ -693,7 +693,7 @@
         <v>211110034</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -714,7 +714,7 @@
         <v>45842.493854166663</v>
       </c>
       <c r="I3" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3">
         <v>323.56</v>
@@ -734,7 +734,7 @@
         <v>211110034</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -755,7 +755,7 @@
         <v>45853</v>
       </c>
       <c r="I4" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3">
         <v>-6.62</v>
@@ -775,7 +775,7 @@
         <v>211110034</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -796,7 +796,7 @@
         <v>45853.631354166668</v>
       </c>
       <c r="I5" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3">
         <v>524.56000000000006</v>
@@ -816,34 +816,34 @@
         <v>211110034</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6">
-        <v>12020</v>
+        <v>550</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45918.539293981477</v>
+        <v>45918</v>
       </c>
       <c r="H6" s="1">
-        <v>45888.539293981477</v>
+        <v>45888</v>
       </c>
       <c r="I6" s="2">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="J6" s="3">
-        <v>535.35</v>
+        <v>-6.7700000000000005</v>
       </c>
       <c r="K6" s="3">
-        <v>535.35</v>
+        <v>-6.7700000000000005</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>211110102</v>
+        <v>211110034</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -866,31 +866,31 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>10226</v>
+        <v>12020</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45875.491770833331</v>
+        <v>45918.539293981477</v>
       </c>
       <c r="H7" s="1">
-        <v>45845.491770833331</v>
+        <v>45888.539293981477</v>
       </c>
       <c r="I7" s="2">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="J7" s="3">
-        <v>418.54</v>
+        <v>535.35</v>
       </c>
       <c r="K7" s="3">
-        <v>418.54</v>
+        <v>535.35</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>45869.506041666667</v>
       </c>
       <c r="I8" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>470.6</v>
@@ -960,7 +960,7 @@
         <v>45889.572592592587</v>
       </c>
       <c r="I9" s="2">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="J9" s="3">
         <v>227.44</v>
@@ -1001,7 +1001,7 @@
         <v>45887.511157407404</v>
       </c>
       <c r="I10" s="2">
-        <v>-23</v>
+        <v>-18</v>
       </c>
       <c r="J10" s="3">
         <v>397.76</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>211110681</v>
+        <v>211110574</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1030,31 +1030,31 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>10430</v>
+        <v>12254</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45878.592557870368</v>
+        <v>45925.367962962962</v>
       </c>
       <c r="H11" s="1">
-        <v>45848.592557870368</v>
+        <v>45895.367962962962</v>
       </c>
       <c r="I11" s="2">
-        <v>16</v>
+        <v>-26</v>
       </c>
       <c r="J11" s="3">
-        <v>964.74</v>
+        <v>716.14</v>
       </c>
       <c r="K11" s="3">
-        <v>7.7700000000000005</v>
+        <v>716.14</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1071,72 +1071,72 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>11015</v>
+        <v>10430</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45893.298807870371</v>
+        <v>45878.592557870368</v>
       </c>
       <c r="H12" s="1">
-        <v>45863.300034722219</v>
+        <v>45848.592557870368</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J12" s="3">
-        <v>2446.73</v>
+        <v>964.74</v>
       </c>
       <c r="K12" s="3">
-        <v>2446.73</v>
+        <v>7.7700000000000005</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211110903</v>
+        <v>211110681</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>603</v>
+        <v>11015</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45847</v>
+        <v>45893.298807870371</v>
       </c>
       <c r="H13" s="1">
-        <v>45840</v>
+        <v>45863.300034722219</v>
       </c>
       <c r="I13" s="2">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
-        <v>-42.26</v>
+        <v>2446.73</v>
       </c>
       <c r="K13" s="3">
-        <v>-42.26</v>
+        <v>2446.73</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1153,31 +1153,31 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45856</v>
+        <v>45873</v>
       </c>
       <c r="H14" s="1">
-        <v>45849</v>
+        <v>45866</v>
       </c>
       <c r="I14" s="2">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J14" s="3">
-        <v>-43.6</v>
+        <v>-50.85</v>
       </c>
       <c r="K14" s="3">
-        <v>-43.6</v>
+        <v>-50.85</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1194,31 +1194,31 @@
         <v>2025</v>
       </c>
       <c r="E15">
-        <v>653</v>
+        <v>711</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45860</v>
+        <v>45875</v>
       </c>
       <c r="H15" s="1">
-        <v>45853</v>
+        <v>45868</v>
       </c>
       <c r="I15" s="2">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J15" s="3">
-        <v>-113.52</v>
+        <v>-100.23</v>
       </c>
       <c r="K15" s="3">
-        <v>-113.52</v>
+        <v>-100.23</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1235,25 +1235,25 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
+        <v>45880</v>
+      </c>
+      <c r="H16" s="1">
         <v>45873</v>
       </c>
-      <c r="H16" s="1">
-        <v>45866</v>
-      </c>
       <c r="I16" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J16" s="3">
-        <v>-50.85</v>
+        <v>-67.31</v>
       </c>
       <c r="K16" s="3">
-        <v>-50.85</v>
+        <v>-67.31</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1276,25 +1276,25 @@
         <v>2025</v>
       </c>
       <c r="E17">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45875</v>
+        <v>45888</v>
       </c>
       <c r="H17" s="1">
-        <v>45868</v>
+        <v>45881</v>
       </c>
       <c r="I17" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J17" s="3">
-        <v>-100.23</v>
+        <v>-100.91</v>
       </c>
       <c r="K17" s="3">
-        <v>-100.23</v>
+        <v>-100.91</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1313,29 +1313,29 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
-        <v>15</v>
+      <c r="D18">
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>542</v>
+        <v>757</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45880</v>
+        <v>45890</v>
       </c>
       <c r="H18" s="1">
-        <v>45873</v>
+        <v>45883</v>
       </c>
       <c r="I18" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J18" s="3">
-        <v>-67.31</v>
+        <v>-63.35</v>
       </c>
       <c r="K18" s="3">
-        <v>-67.31</v>
+        <v>-63.35</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1358,31 +1358,31 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>742</v>
+        <v>786</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45885</v>
+        <v>45902</v>
       </c>
       <c r="H19" s="1">
-        <v>45878</v>
+        <v>45895</v>
       </c>
       <c r="I19" s="2">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="J19" s="3">
-        <v>-78.36</v>
+        <v>-388.25</v>
       </c>
       <c r="K19" s="3">
-        <v>-78.36</v>
+        <v>-388.25</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1399,25 +1399,25 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>11942</v>
+        <v>12357</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45894.34575231481</v>
+        <v>45904.381412037037</v>
       </c>
       <c r="H20" s="1">
-        <v>45887.347222222219</v>
+        <v>45897.384513888886</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J20" s="3">
-        <v>2081.21</v>
+        <v>848.88</v>
       </c>
       <c r="K20" s="3">
-        <v>2081.21</v>
+        <v>848.88</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211110903</v>
+        <v>211111373</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1440,72 +1440,72 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>12041</v>
+        <v>11785</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45896.436064814814</v>
+        <v>45882.399768518517</v>
       </c>
       <c r="H21" s="1">
-        <v>45889.436689814815</v>
+        <v>45882.399768518517</v>
       </c>
       <c r="I21" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="J21" s="3">
-        <v>2558.4500000000003</v>
+        <v>240.19</v>
       </c>
       <c r="K21" s="3">
-        <v>2558.4500000000003</v>
+        <v>240.19</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211111373</v>
+        <v>211111588</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>11785</v>
+        <v>275</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45882.399768518517</v>
+        <v>45763</v>
       </c>
       <c r="H22" s="1">
-        <v>45882.399768518517</v>
+        <v>45728</v>
       </c>
       <c r="I22" s="2">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="J22" s="3">
-        <v>240.19</v>
+        <v>-112.59</v>
       </c>
       <c r="K22" s="3">
-        <v>240.19</v>
+        <v>-22.1</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1522,31 +1522,31 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>275</v>
+        <v>514</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45763</v>
+        <v>45877</v>
       </c>
       <c r="H23" s="1">
-        <v>45728</v>
+        <v>45842</v>
       </c>
       <c r="I23" s="2">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="J23" s="3">
-        <v>-112.59</v>
+        <v>-2.12</v>
       </c>
       <c r="K23" s="3">
-        <v>-22.1</v>
+        <v>-2.12</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1557,37 +1557,37 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>514</v>
+        <v>10988</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45877</v>
+        <v>45897.491388888884</v>
       </c>
       <c r="H24" s="1">
-        <v>45842</v>
+        <v>45862.491388888884</v>
       </c>
       <c r="I24" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3">
-        <v>-2.12</v>
+        <v>1073.29</v>
       </c>
       <c r="K24" s="3">
-        <v>-2.12</v>
+        <v>1073.29</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1604,25 +1604,25 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>10988</v>
+        <v>11560</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45897.491388888884</v>
+        <v>45911.437928240739</v>
       </c>
       <c r="H25" s="1">
-        <v>45862.491388888884</v>
+        <v>45876.438402777778</v>
       </c>
       <c r="I25" s="2">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="J25" s="3">
-        <v>1073.29</v>
+        <v>673.4</v>
       </c>
       <c r="K25" s="3">
-        <v>1073.29</v>
+        <v>673.4</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
@@ -1645,25 +1645,25 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>11560</v>
+        <v>11778</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45911.437928240739</v>
+        <v>45917.361284722218</v>
       </c>
       <c r="H26" s="1">
-        <v>45876.438402777778</v>
+        <v>45882.361284722218</v>
       </c>
       <c r="I26" s="2">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="J26" s="3">
-        <v>673.4</v>
+        <v>382.83</v>
       </c>
       <c r="K26" s="3">
-        <v>673.4</v>
+        <v>382.83</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1686,25 +1686,25 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>11778</v>
+        <v>12107</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45917.361284722218</v>
+        <v>45925.479895833334</v>
       </c>
       <c r="H27" s="1">
-        <v>45882.361284722218</v>
+        <v>45890.479895833334</v>
       </c>
       <c r="I27" s="2">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="J27" s="3">
-        <v>382.83</v>
+        <v>195.82</v>
       </c>
       <c r="K27" s="3">
-        <v>382.83</v>
+        <v>195.82</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1727,25 +1727,25 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>12107</v>
+        <v>12360</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45925.479895833334</v>
+        <v>45932.391550925924</v>
       </c>
       <c r="H28" s="1">
-        <v>45890.479895833334</v>
+        <v>45897.391562500001</v>
       </c>
       <c r="I28" s="2">
-        <v>-31</v>
+        <v>-33</v>
       </c>
       <c r="J28" s="3">
-        <v>195.82</v>
+        <v>197.81</v>
       </c>
       <c r="K28" s="3">
-        <v>195.82</v>
+        <v>197.81</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1759,7 +1759,7 @@
         <v>211111720</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1780,7 +1780,7 @@
         <v>45856.283530092587</v>
       </c>
       <c r="I29" s="2">
-        <v>-22</v>
+        <v>-17</v>
       </c>
       <c r="J29" s="3">
         <v>199.79</v>
@@ -1800,7 +1800,7 @@
         <v>211111720</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1821,7 +1821,7 @@
         <v>45863.28329861111</v>
       </c>
       <c r="I30" s="2">
-        <v>-29</v>
+        <v>-24</v>
       </c>
       <c r="J30" s="3">
         <v>1478.6200000000001</v>
@@ -1838,43 +1838,43 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111739</v>
+        <v>211111720</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>630</v>
+        <v>12399</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45876</v>
+        <v>45958.36681712963</v>
       </c>
       <c r="H31" s="1">
-        <v>45846</v>
+        <v>45898.3668287037</v>
       </c>
       <c r="I31" s="2">
-        <v>18</v>
+        <v>-59</v>
       </c>
       <c r="J31" s="3">
-        <v>-89.27</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="K31" s="3">
-        <v>-89.27</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1882,40 +1882,40 @@
         <v>211111739</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>2025</v>
       </c>
       <c r="E32">
-        <v>11604</v>
+        <v>630</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45907.310011574074</v>
+        <v>45876</v>
       </c>
       <c r="H32" s="1">
-        <v>45877.31108796296</v>
+        <v>45846</v>
       </c>
       <c r="I32" s="2">
-        <v>-13</v>
+        <v>23</v>
       </c>
       <c r="J32" s="3">
-        <v>625.66</v>
+        <v>-89.27</v>
       </c>
       <c r="K32" s="3">
-        <v>625.66</v>
+        <v>-89.27</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1923,34 +1923,34 @@
         <v>211111739</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>731</v>
+        <v>11604</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45908</v>
+        <v>45907.310011574074</v>
       </c>
       <c r="H33" s="1">
-        <v>45878</v>
+        <v>45877.31108796296</v>
       </c>
       <c r="I33" s="2">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="J33" s="3">
-        <v>-0.85</v>
+        <v>625.66</v>
       </c>
       <c r="K33" s="3">
-        <v>-0.85</v>
+        <v>625.66</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -1964,34 +1964,34 @@
         <v>211111739</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>2025</v>
       </c>
       <c r="E34">
-        <v>11767</v>
+        <v>731</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45911.605520833335</v>
+        <v>45908</v>
       </c>
       <c r="H34" s="1">
-        <v>45881.605520833335</v>
+        <v>45878</v>
       </c>
       <c r="I34" s="2">
-        <v>-17</v>
+        <v>-9</v>
       </c>
       <c r="J34" s="3">
-        <v>468.84000000000003</v>
+        <v>-0.85</v>
       </c>
       <c r="K34" s="3">
-        <v>468.84000000000003</v>
+        <v>-0.85</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2005,7 +2005,7 @@
         <v>211111739</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2014,25 +2014,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>12163</v>
+        <v>11767</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45921.42423611111</v>
+        <v>45911.605520833335</v>
       </c>
       <c r="H35" s="1">
-        <v>45891.426354166666</v>
+        <v>45881.605520833335</v>
       </c>
       <c r="I35" s="2">
-        <v>-27</v>
+        <v>-12</v>
       </c>
       <c r="J35" s="3">
-        <v>1200.42</v>
+        <v>468.84000000000003</v>
       </c>
       <c r="K35" s="3">
-        <v>1200.42</v>
+        <v>468.84000000000003</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
@@ -2055,72 +2055,72 @@
         <v>2025</v>
       </c>
       <c r="E36">
-        <v>522</v>
+        <v>755</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45871</v>
+        <v>45912</v>
       </c>
       <c r="H36" s="1">
-        <v>45811</v>
+        <v>45882</v>
       </c>
       <c r="I36" s="2">
-        <v>23</v>
+        <v>-13</v>
       </c>
       <c r="J36" s="3">
-        <v>-29.34</v>
+        <v>-4.43</v>
       </c>
       <c r="K36" s="3">
-        <v>-29.34</v>
+        <v>-4.43</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>525</v>
+        <v>12163</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45871</v>
+        <v>45921.42423611111</v>
       </c>
       <c r="H37" s="1">
-        <v>45811</v>
+        <v>45891.426354166666</v>
       </c>
       <c r="I37" s="2">
-        <v>23</v>
+        <v>-22</v>
       </c>
       <c r="J37" s="3">
-        <v>-4.99</v>
+        <v>1200.42</v>
       </c>
       <c r="K37" s="3">
-        <v>-4.99</v>
+        <v>1200.42</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>211111878</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2137,31 +2137,31 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>8798</v>
+        <v>9935</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45871.469687500001</v>
+        <v>45899.405474537038</v>
       </c>
       <c r="H38" s="1">
-        <v>45811.47006944444</v>
+        <v>45839.405821759254</v>
       </c>
       <c r="I38" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3">
-        <v>421.25</v>
+        <v>249.19</v>
       </c>
       <c r="K38" s="3">
-        <v>421.25</v>
+        <v>249.19</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
         <v>211111878</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2178,31 +2178,31 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>8799</v>
+        <v>10275</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45871.471655092588</v>
+        <v>45906.438090277778</v>
       </c>
       <c r="H39" s="1">
-        <v>45811.472187499996</v>
+        <v>45846.438090277778</v>
       </c>
       <c r="I39" s="2">
-        <v>23</v>
+        <v>-7</v>
       </c>
       <c r="J39" s="3">
-        <v>361.42</v>
+        <v>333.66</v>
       </c>
       <c r="K39" s="3">
-        <v>361.42</v>
+        <v>333.66</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2210,40 +2210,40 @@
         <v>211111878</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D40">
-        <v>2025</v>
+      <c r="D40" t="s">
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>10276</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45874.455740740741</v>
+        <v>45906.438113425924</v>
       </c>
       <c r="H40" s="1">
-        <v>45814.455775462964</v>
+        <v>45846.438125000001</v>
       </c>
       <c r="I40" s="2">
-        <v>20</v>
+        <v>-7</v>
       </c>
       <c r="J40" s="3">
-        <v>177.99</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="K40" s="3">
-        <v>177.99</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2251,40 +2251,40 @@
         <v>211111878</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="D41">
-        <v>2025</v>
+      <c r="D41" t="s">
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>64</v>
+        <v>10496</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45874.612268518518</v>
+        <v>45909.601944444439</v>
       </c>
       <c r="H41" s="1">
-        <v>45814.613090277773</v>
+        <v>45849.60251157407</v>
       </c>
       <c r="I41" s="2">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="J41" s="3">
-        <v>258.84000000000003</v>
+        <v>330.27</v>
       </c>
       <c r="K41" s="3">
-        <v>258.84000000000003</v>
+        <v>330.27</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>211111878</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
@@ -2301,31 +2301,31 @@
         <v>2025</v>
       </c>
       <c r="E42">
-        <v>542</v>
+        <v>646</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45877</v>
+        <v>45913</v>
       </c>
       <c r="H42" s="1">
-        <v>45817</v>
+        <v>45853</v>
       </c>
       <c r="I42" s="2">
-        <v>17</v>
+        <v>-14</v>
       </c>
       <c r="J42" s="3">
-        <v>-9.41</v>
+        <v>-9.23</v>
       </c>
       <c r="K42" s="3">
-        <v>-9.41</v>
+        <v>-9.23</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2333,7 +2333,7 @@
         <v>211111878</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2342,31 +2342,31 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>8996</v>
+        <v>10552</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45877.440046296295</v>
+        <v>45913.414108796293</v>
       </c>
       <c r="H43" s="1">
-        <v>45817.44049768518</v>
+        <v>45853.415949074071</v>
       </c>
       <c r="I43" s="2">
-        <v>17</v>
+        <v>-14</v>
       </c>
       <c r="J43" s="3">
-        <v>377.68</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="K43" s="3">
-        <v>377.68</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>211111878</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2383,31 +2383,31 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>8998</v>
+        <v>10556</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45877.440960648149</v>
+        <v>45913.417696759258</v>
       </c>
       <c r="H44" s="1">
-        <v>45817.441377314812</v>
+        <v>45853.418020833335</v>
       </c>
       <c r="I44" s="2">
-        <v>17</v>
+        <v>-14</v>
       </c>
       <c r="J44" s="3">
-        <v>257.82</v>
+        <v>120.59</v>
       </c>
       <c r="K44" s="3">
-        <v>257.82</v>
+        <v>120.59</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
         <v>211111878</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2424,31 +2424,31 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>9025</v>
+        <v>10719</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45877.494490740741</v>
+        <v>45915.588217592587</v>
       </c>
       <c r="H45" s="1">
-        <v>45817.494999999995</v>
+        <v>45855.588634259257</v>
       </c>
       <c r="I45" s="2">
-        <v>17</v>
+        <v>-16</v>
       </c>
       <c r="J45" s="3">
-        <v>315.04000000000002</v>
+        <v>107.66</v>
       </c>
       <c r="K45" s="3">
-        <v>315.04000000000002</v>
+        <v>107.66</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2456,40 +2456,40 @@
         <v>211111878</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>570</v>
+        <v>10841</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45886</v>
+        <v>45920.44799768518</v>
       </c>
       <c r="H46" s="1">
-        <v>45826</v>
+        <v>45860.450138888889</v>
       </c>
       <c r="I46" s="2">
-        <v>8</v>
+        <v>-21</v>
       </c>
       <c r="J46" s="3">
-        <v>-10.74</v>
+        <v>391.77</v>
       </c>
       <c r="K46" s="3">
-        <v>-10.74</v>
+        <v>391.77</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2497,7 +2497,7 @@
         <v>211111878</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2506,31 +2506,31 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>9386</v>
+        <v>10940</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45886.314513888887</v>
+        <v>45921.562048611107</v>
       </c>
       <c r="H47" s="1">
-        <v>45826.314837962964</v>
+        <v>45861.562060185184</v>
       </c>
       <c r="I47" s="2">
-        <v>8</v>
+        <v>-22</v>
       </c>
       <c r="J47" s="3">
-        <v>328.96</v>
+        <v>184.52</v>
       </c>
       <c r="K47" s="3">
-        <v>328.96</v>
+        <v>184.52</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2538,7 +2538,7 @@
         <v>211111878</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2547,31 +2547,31 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>9436</v>
+        <v>10941</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45886.459780092591</v>
+        <v>45921.562083333331</v>
       </c>
       <c r="H48" s="1">
-        <v>45826.462314814809</v>
+        <v>45861.562083333331</v>
       </c>
       <c r="I48" s="2">
-        <v>8</v>
+        <v>-22</v>
       </c>
       <c r="J48" s="3">
-        <v>58.57</v>
+        <v>518.65</v>
       </c>
       <c r="K48" s="3">
-        <v>58.57</v>
+        <v>518.65</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2579,7 +2579,7 @@
         <v>211111878</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2588,31 +2588,31 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>9438</v>
+        <v>10942</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45886.462488425925</v>
+        <v>45921.562106481477</v>
       </c>
       <c r="H49" s="1">
-        <v>45826.466331018513</v>
+        <v>45861.562106481477</v>
       </c>
       <c r="I49" s="2">
-        <v>8</v>
+        <v>-22</v>
       </c>
       <c r="J49" s="3">
-        <v>408.29</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="K49" s="3">
-        <v>408.29</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>211111878</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2629,31 +2629,31 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>9456</v>
+        <v>11119</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45888.299930555557</v>
+        <v>45926.540925925925</v>
       </c>
       <c r="H50" s="1">
-        <v>45828.300671296296</v>
+        <v>45866.540937500002</v>
       </c>
       <c r="I50" s="2">
-        <v>6</v>
+        <v>-27</v>
       </c>
       <c r="J50" s="3">
-        <v>20.76</v>
+        <v>665</v>
       </c>
       <c r="K50" s="3">
-        <v>20.76</v>
+        <v>665</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2661,7 +2661,7 @@
         <v>211111878</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2670,31 +2670,31 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>9457</v>
+        <v>11120</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45888.30097222222</v>
+        <v>45926.540960648148</v>
       </c>
       <c r="H51" s="1">
-        <v>45828.306631944441</v>
+        <v>45866.540960648148</v>
       </c>
       <c r="I51" s="2">
-        <v>6</v>
+        <v>-27</v>
       </c>
       <c r="J51" s="3">
-        <v>45.83</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="K51" s="3">
-        <v>45.83</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2702,7 +2702,7 @@
         <v>211111878</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2711,31 +2711,31 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>9700</v>
+        <v>11186</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45893.496446759258</v>
+        <v>45927.594328703701</v>
       </c>
       <c r="H52" s="1">
-        <v>45833.497314814813</v>
+        <v>45867.594340277778</v>
       </c>
       <c r="I52" s="2">
-        <v>1</v>
+        <v>-28</v>
       </c>
       <c r="J52" s="3">
-        <v>18.059999999999999</v>
+        <v>379.86</v>
       </c>
       <c r="K52" s="3">
-        <v>18.059999999999999</v>
+        <v>379.86</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>211111878</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2752,31 +2752,31 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>9701</v>
+        <v>11366</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45893.497546296298</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H53" s="1">
-        <v>45833.49827546296</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I53" s="2">
-        <v>1</v>
+        <v>-31</v>
       </c>
       <c r="J53" s="3">
-        <v>367.16</v>
+        <v>159.29</v>
       </c>
       <c r="K53" s="3">
-        <v>367.16</v>
+        <v>159.29</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2784,7 +2784,7 @@
         <v>211111878</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2793,25 +2793,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>9772</v>
+        <v>11369</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45894.447523148148</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H54" s="1">
-        <v>45834.448113425926</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I54" s="2">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="J54" s="3">
-        <v>441.87</v>
+        <v>106.19</v>
       </c>
       <c r="K54" s="3">
-        <v>441.87</v>
+        <v>106.19</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2825,7 +2825,7 @@
         <v>211111878</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2834,25 +2834,25 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>9871</v>
+        <v>11428</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45895.479108796295</v>
+        <v>45934.485219907408</v>
       </c>
       <c r="H55" s="1">
-        <v>45835.481898148144</v>
+        <v>45874.485219907408</v>
       </c>
       <c r="I55" s="2">
-        <v>-1</v>
+        <v>-35</v>
       </c>
       <c r="J55" s="3">
-        <v>175.89000000000001</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="K55" s="3">
-        <v>175.89000000000001</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2866,7 +2866,7 @@
         <v>211111878</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2875,25 +2875,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>9874</v>
+        <v>11429</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45895.494687499995</v>
+        <v>45934.485231481478</v>
       </c>
       <c r="H56" s="1">
-        <v>45835.494895833333</v>
+        <v>45874.485231481478</v>
       </c>
       <c r="I56" s="2">
-        <v>-1</v>
+        <v>-35</v>
       </c>
       <c r="J56" s="3">
-        <v>276.79000000000002</v>
+        <v>472.14</v>
       </c>
       <c r="K56" s="3">
-        <v>276.79000000000002</v>
+        <v>472.14</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2907,7 +2907,7 @@
         <v>211111878</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2916,25 +2916,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>9935</v>
+        <v>11430</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45899.405474537038</v>
+        <v>45934.485266203701</v>
       </c>
       <c r="H57" s="1">
-        <v>45839.405821759254</v>
+        <v>45874.485266203701</v>
       </c>
       <c r="I57" s="2">
-        <v>-5</v>
+        <v>-35</v>
       </c>
       <c r="J57" s="3">
-        <v>249.19</v>
+        <v>405.8</v>
       </c>
       <c r="K57" s="3">
-        <v>249.19</v>
+        <v>405.8</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2948,34 +2948,34 @@
         <v>211111878</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>2025</v>
       </c>
       <c r="E58">
-        <v>10275</v>
+        <v>737</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45906.438090277778</v>
+        <v>45938</v>
       </c>
       <c r="H58" s="1">
-        <v>45846.438090277778</v>
+        <v>45878</v>
       </c>
       <c r="I58" s="2">
-        <v>-12</v>
+        <v>-39</v>
       </c>
       <c r="J58" s="3">
-        <v>333.66</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="K58" s="3">
-        <v>333.66</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -2989,7 +2989,7 @@
         <v>211111878</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2998,25 +2998,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>10276</v>
+        <v>11717</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45906.438113425924</v>
+        <v>45940.541759259257</v>
       </c>
       <c r="H59" s="1">
-        <v>45846.438125000001</v>
+        <v>45880.541770833333</v>
       </c>
       <c r="I59" s="2">
-        <v>-12</v>
+        <v>-41</v>
       </c>
       <c r="J59" s="3">
-        <v>114.07000000000001</v>
+        <v>100.79</v>
       </c>
       <c r="K59" s="3">
-        <v>114.07000000000001</v>
+        <v>100.79</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3030,34 +3030,34 @@
         <v>211111878</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>2025</v>
       </c>
       <c r="E60">
-        <v>10496</v>
+        <v>751</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45909.601944444439</v>
+        <v>45941</v>
       </c>
       <c r="H60" s="1">
-        <v>45849.60251157407</v>
+        <v>45881</v>
       </c>
       <c r="I60" s="2">
-        <v>-15</v>
+        <v>-42</v>
       </c>
       <c r="J60" s="3">
-        <v>330.27</v>
+        <v>-122.53</v>
       </c>
       <c r="K60" s="3">
-        <v>330.27</v>
+        <v>-122.53</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3071,34 +3071,34 @@
         <v>211111878</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>646</v>
+        <v>11758</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45913</v>
+        <v>45941.499224537038</v>
       </c>
       <c r="H61" s="1">
-        <v>45853</v>
+        <v>45881.499236111107</v>
       </c>
       <c r="I61" s="2">
-        <v>-19</v>
+        <v>-42</v>
       </c>
       <c r="J61" s="3">
-        <v>-9.23</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="K61" s="3">
-        <v>-9.23</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3112,34 +3112,34 @@
         <v>211111878</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D62">
+        <v>2025</v>
       </c>
       <c r="E62">
-        <v>10552</v>
+        <v>753</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45913.414108796293</v>
+        <v>45942</v>
       </c>
       <c r="H62" s="1">
-        <v>45853.415949074071</v>
+        <v>45882</v>
       </c>
       <c r="I62" s="2">
-        <v>-19</v>
+        <v>-43</v>
       </c>
       <c r="J62" s="3">
-        <v>451.46000000000004</v>
+        <v>-10.93</v>
       </c>
       <c r="K62" s="3">
-        <v>451.46000000000004</v>
+        <v>-10.93</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3153,7 +3153,7 @@
         <v>211111878</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3162,25 +3162,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>10556</v>
+        <v>11922</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45913.417696759258</v>
+        <v>45943.619444444441</v>
       </c>
       <c r="H63" s="1">
-        <v>45853.418020833335</v>
+        <v>45883.620034722218</v>
       </c>
       <c r="I63" s="2">
-        <v>-19</v>
+        <v>-44</v>
       </c>
       <c r="J63" s="3">
-        <v>120.59</v>
+        <v>97.43</v>
       </c>
       <c r="K63" s="3">
-        <v>120.59</v>
+        <v>97.43</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3194,7 +3194,7 @@
         <v>211111878</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3203,25 +3203,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>10719</v>
+        <v>11999</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45915.588217592587</v>
+        <v>45948.526076388887</v>
       </c>
       <c r="H64" s="1">
-        <v>45855.588634259257</v>
+        <v>45888.526076388887</v>
       </c>
       <c r="I64" s="2">
-        <v>-21</v>
+        <v>-49</v>
       </c>
       <c r="J64" s="3">
-        <v>107.66</v>
+        <v>53.63</v>
       </c>
       <c r="K64" s="3">
-        <v>107.66</v>
+        <v>53.63</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3235,7 +3235,7 @@
         <v>211111878</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3244,25 +3244,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>10841</v>
+        <v>12000</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45920.44799768518</v>
+        <v>45948.526099537034</v>
       </c>
       <c r="H65" s="1">
-        <v>45860.450138888889</v>
+        <v>45888.526099537034</v>
       </c>
       <c r="I65" s="2">
-        <v>-26</v>
+        <v>-49</v>
       </c>
       <c r="J65" s="3">
-        <v>391.77</v>
+        <v>140.37</v>
       </c>
       <c r="K65" s="3">
-        <v>391.77</v>
+        <v>140.37</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3276,7 +3276,7 @@
         <v>211111878</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3285,25 +3285,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>10940</v>
+        <v>12001</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45921.562048611107</v>
+        <v>45948.52612268518</v>
       </c>
       <c r="H66" s="1">
-        <v>45861.562060185184</v>
+        <v>45888.52612268518</v>
       </c>
       <c r="I66" s="2">
-        <v>-27</v>
+        <v>-49</v>
       </c>
       <c r="J66" s="3">
-        <v>184.52</v>
+        <v>212.85</v>
       </c>
       <c r="K66" s="3">
-        <v>184.52</v>
+        <v>212.85</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3317,34 +3317,34 @@
         <v>211111878</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
       </c>
       <c r="E67">
-        <v>10941</v>
+        <v>774</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45921.562083333331</v>
+        <v>45950</v>
       </c>
       <c r="H67" s="1">
-        <v>45861.562083333331</v>
+        <v>45890</v>
       </c>
       <c r="I67" s="2">
-        <v>-27</v>
+        <v>-51</v>
       </c>
       <c r="J67" s="3">
-        <v>518.65</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="K67" s="3">
-        <v>518.65</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3358,34 +3358,34 @@
         <v>211111878</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
       </c>
       <c r="E68">
-        <v>10942</v>
+        <v>775</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45921.562106481477</v>
+        <v>45950</v>
       </c>
       <c r="H68" s="1">
-        <v>45861.562106481477</v>
+        <v>45890</v>
       </c>
       <c r="I68" s="2">
-        <v>-27</v>
+        <v>-51</v>
       </c>
       <c r="J68" s="3">
-        <v>325.40000000000003</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="K68" s="3">
-        <v>325.40000000000003</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3399,7 +3399,7 @@
         <v>211111878</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3408,25 +3408,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>11119</v>
+        <v>12127</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45926.540925925925</v>
+        <v>45950.595092592594</v>
       </c>
       <c r="H69" s="1">
-        <v>45866.540937500002</v>
+        <v>45890.595092592594</v>
       </c>
       <c r="I69" s="2">
-        <v>-32</v>
+        <v>-51</v>
       </c>
       <c r="J69" s="3">
-        <v>665</v>
+        <v>54.92</v>
       </c>
       <c r="K69" s="3">
-        <v>665</v>
+        <v>54.92</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3440,7 +3440,7 @@
         <v>211111878</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3449,25 +3449,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>11120</v>
+        <v>12215</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45926.540960648148</v>
+        <v>45951.693171296298</v>
       </c>
       <c r="H70" s="1">
-        <v>45866.540960648148</v>
+        <v>45891.693749999999</v>
       </c>
       <c r="I70" s="2">
-        <v>-32</v>
+        <v>-52</v>
       </c>
       <c r="J70" s="3">
-        <v>131.55000000000001</v>
+        <v>90.44</v>
       </c>
       <c r="K70" s="3">
-        <v>131.55000000000001</v>
+        <v>90.44</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3481,7 +3481,7 @@
         <v>211111878</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3490,25 +3490,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>11186</v>
+        <v>12220</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45927.594328703701</v>
+        <v>45954.431423611109</v>
       </c>
       <c r="H71" s="1">
-        <v>45867.594340277778</v>
+        <v>45894.431423611109</v>
       </c>
       <c r="I71" s="2">
-        <v>-33</v>
+        <v>-55</v>
       </c>
       <c r="J71" s="3">
-        <v>379.86</v>
+        <v>471.83</v>
       </c>
       <c r="K71" s="3">
-        <v>379.86</v>
+        <v>471.83</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3522,7 +3522,7 @@
         <v>211111878</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3531,25 +3531,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>11366</v>
+        <v>12221</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45930.614166666666</v>
+        <v>45954.431446759256</v>
       </c>
       <c r="H72" s="1">
-        <v>45870.614722222221</v>
+        <v>45894.431446759256</v>
       </c>
       <c r="I72" s="2">
-        <v>-36</v>
+        <v>-55</v>
       </c>
       <c r="J72" s="3">
-        <v>159.29</v>
+        <v>219.04</v>
       </c>
       <c r="K72" s="3">
-        <v>159.29</v>
+        <v>219.04</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3563,7 +3563,7 @@
         <v>211111878</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3572,25 +3572,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>11369</v>
+        <v>12247</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45930.684340277774</v>
+        <v>45955.347881944443</v>
       </c>
       <c r="H73" s="1">
-        <v>45870.684976851851</v>
+        <v>45895.347893518519</v>
       </c>
       <c r="I73" s="2">
-        <v>-36</v>
+        <v>-56</v>
       </c>
       <c r="J73" s="3">
-        <v>106.19</v>
+        <v>289.57</v>
       </c>
       <c r="K73" s="3">
-        <v>106.19</v>
+        <v>289.57</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3604,7 +3604,7 @@
         <v>211111878</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3613,25 +3613,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>11428</v>
+        <v>12366</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45934.485219907408</v>
+        <v>45957.397465277776</v>
       </c>
       <c r="H74" s="1">
-        <v>45874.485219907408</v>
+        <v>45897.397476851853</v>
       </c>
       <c r="I74" s="2">
-        <v>-40</v>
+        <v>-58</v>
       </c>
       <c r="J74" s="3">
-        <v>56.480000000000004</v>
+        <v>208.44</v>
       </c>
       <c r="K74" s="3">
-        <v>56.480000000000004</v>
+        <v>208.44</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
@@ -3654,36 +3654,36 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>11429</v>
+        <v>10687</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45934.485231481478</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H75" s="1">
-        <v>45874.485231481478</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I75" s="2">
-        <v>-40</v>
+        <v>14</v>
       </c>
       <c r="J75" s="3">
-        <v>472.14</v>
+        <v>542.13</v>
       </c>
       <c r="K75" s="3">
-        <v>472.14</v>
+        <v>542.13</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
@@ -3695,25 +3695,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>11430</v>
+        <v>11880</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45934.485266203701</v>
+        <v>45913.40384259259</v>
       </c>
       <c r="H76" s="1">
-        <v>45874.485266203701</v>
+        <v>45883.403854166667</v>
       </c>
       <c r="I76" s="2">
-        <v>-40</v>
+        <v>-14</v>
       </c>
       <c r="J76" s="3">
-        <v>405.8</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="K76" s="3">
-        <v>405.8</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3724,37 +3724,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
       </c>
       <c r="E77">
-        <v>737</v>
+        <v>11881</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45938</v>
+        <v>45913.405740740738</v>
       </c>
       <c r="H77" s="1">
-        <v>45878</v>
+        <v>45883.405740740738</v>
       </c>
       <c r="I77" s="2">
-        <v>-44</v>
+        <v>-14</v>
       </c>
       <c r="J77" s="3">
-        <v>-22.990000000000002</v>
+        <v>115.78</v>
       </c>
       <c r="K77" s="3">
-        <v>-22.990000000000002</v>
+        <v>115.78</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
@@ -3777,25 +3777,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>11717</v>
+        <v>12370</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45940.541759259257</v>
+        <v>45927.431030092594</v>
       </c>
       <c r="H78" s="1">
-        <v>45880.541770833333</v>
+        <v>45897.431041666663</v>
       </c>
       <c r="I78" s="2">
-        <v>-46</v>
+        <v>-28</v>
       </c>
       <c r="J78" s="3">
-        <v>100.79</v>
+        <v>424.02</v>
       </c>
       <c r="K78" s="3">
-        <v>100.79</v>
+        <v>424.02</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3806,174 +3806,174 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79">
-        <v>11758</v>
+        <v>326</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45941.499224537038</v>
+        <v>45777</v>
       </c>
       <c r="H79" s="1">
-        <v>45881.499236111107</v>
+        <v>45747</v>
       </c>
       <c r="I79" s="2">
-        <v>-47</v>
+        <v>122</v>
       </c>
       <c r="J79" s="3">
-        <v>304.79000000000002</v>
+        <v>-22</v>
       </c>
       <c r="K79" s="3">
-        <v>304.79000000000002</v>
+        <v>-22</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80">
-        <v>11922</v>
+        <v>327</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45943.619444444441</v>
+        <v>45777</v>
       </c>
       <c r="H80" s="1">
-        <v>45883.620034722218</v>
+        <v>45747</v>
       </c>
       <c r="I80" s="2">
-        <v>-49</v>
+        <v>122</v>
       </c>
       <c r="J80" s="3">
-        <v>97.43</v>
+        <v>-27.45</v>
       </c>
       <c r="K80" s="3">
-        <v>97.43</v>
+        <v>-27.45</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81">
-        <v>11999</v>
+        <v>328</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45948.526076388887</v>
+        <v>45777</v>
       </c>
       <c r="H81" s="1">
-        <v>45888.526076388887</v>
+        <v>45747</v>
       </c>
       <c r="I81" s="2">
-        <v>-54</v>
+        <v>122</v>
       </c>
       <c r="J81" s="3">
-        <v>53.63</v>
+        <v>-5.73</v>
       </c>
       <c r="K81" s="3">
-        <v>53.63</v>
+        <v>-5.73</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <v>2025</v>
       </c>
       <c r="E82">
-        <v>12000</v>
+        <v>546</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45948.526099537034</v>
+        <v>45879</v>
       </c>
       <c r="H82" s="1">
-        <v>45888.526099537034</v>
+        <v>45819</v>
       </c>
       <c r="I82" s="2">
-        <v>-54</v>
+        <v>20</v>
       </c>
       <c r="J82" s="3">
-        <v>140.37</v>
+        <v>-680.83</v>
       </c>
       <c r="K82" s="3">
-        <v>140.37</v>
+        <v>-680.83</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3982,80 +3982,80 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>12001</v>
+        <v>9182</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45948.52612268518</v>
+        <v>45881.340092592589</v>
       </c>
       <c r="H83" s="1">
-        <v>45888.52612268518</v>
+        <v>45821.340949074074</v>
       </c>
       <c r="I83" s="2">
-        <v>-54</v>
+        <v>18</v>
       </c>
       <c r="J83" s="3">
-        <v>212.85</v>
+        <v>968.26</v>
       </c>
       <c r="K83" s="3">
-        <v>212.85</v>
+        <v>968.26</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D84">
+        <v>2025</v>
       </c>
       <c r="E84">
-        <v>12127</v>
+        <v>569</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45950.595092592594</v>
+        <v>45885</v>
       </c>
       <c r="H84" s="1">
-        <v>45890.595092592594</v>
+        <v>45825</v>
       </c>
       <c r="I84" s="2">
-        <v>-56</v>
+        <v>14</v>
       </c>
       <c r="J84" s="3">
-        <v>54.92</v>
+        <v>-69.09</v>
       </c>
       <c r="K84" s="3">
-        <v>54.92</v>
+        <v>-69.09</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4064,39 +4064,39 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>12215</v>
+        <v>9796</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45951.693171296298</v>
+        <v>45894.634768518517</v>
       </c>
       <c r="H85" s="1">
-        <v>45891.693749999999</v>
+        <v>45834.635682870372</v>
       </c>
       <c r="I85" s="2">
-        <v>-57</v>
+        <v>5</v>
       </c>
       <c r="J85" s="3">
-        <v>90.44</v>
+        <v>107.37</v>
       </c>
       <c r="K85" s="3">
-        <v>90.44</v>
+        <v>107.37</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211112043</v>
+        <v>211112052</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4105,66 +4105,66 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>10687</v>
+        <v>10369</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45885.468888888885</v>
+        <v>45908.309050925927</v>
       </c>
       <c r="H86" s="1">
-        <v>45855.468888888885</v>
+        <v>45848.309965277775</v>
       </c>
       <c r="I86" s="2">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="J86" s="3">
-        <v>542.13</v>
+        <v>1512.89</v>
       </c>
       <c r="K86" s="3">
-        <v>542.13</v>
+        <v>1512.89</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112043</v>
+        <v>211112052</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E87">
-        <v>11880</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45913.40384259259</v>
+        <v>45922</v>
       </c>
       <c r="H87" s="1">
-        <v>45883.403854166667</v>
+        <v>45862</v>
       </c>
       <c r="I87" s="2">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="J87" s="3">
-        <v>248.76000000000002</v>
+        <v>-15.38</v>
       </c>
       <c r="K87" s="3">
-        <v>248.76000000000002</v>
+        <v>-15.38</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4175,37 +4175,37 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112043</v>
+        <v>211112052</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>2025</v>
       </c>
       <c r="E88">
-        <v>11881</v>
+        <v>682</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45913.405740740738</v>
+        <v>45922</v>
       </c>
       <c r="H88" s="1">
-        <v>45883.405740740738</v>
+        <v>45862</v>
       </c>
       <c r="I88" s="2">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="J88" s="3">
-        <v>115.78</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="K88" s="3">
-        <v>115.78</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4216,125 +4216,125 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112050</v>
+        <v>211112052</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89">
-        <v>326</v>
+        <v>11013</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45777</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H89" s="1">
-        <v>45747</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I89" s="2">
-        <v>117</v>
+        <v>-24</v>
       </c>
       <c r="J89" s="3">
-        <v>-22</v>
+        <v>417.19</v>
       </c>
       <c r="K89" s="3">
-        <v>-22</v>
+        <v>417.19</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112050</v>
+        <v>211112052</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
       </c>
       <c r="E90">
-        <v>327</v>
+        <v>11014</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45777</v>
+        <v>45923.288171296292</v>
       </c>
       <c r="H90" s="1">
-        <v>45747</v>
+        <v>45863.288368055553</v>
       </c>
       <c r="I90" s="2">
-        <v>117</v>
+        <v>-24</v>
       </c>
       <c r="J90" s="3">
-        <v>-27.45</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="K90" s="3">
-        <v>-27.45</v>
+        <v>606.93000000000006</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112050</v>
+        <v>211112052</v>
       </c>
       <c r="B91" t="s">
         <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="E91">
-        <v>328</v>
+        <v>11085</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45777</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H91" s="1">
-        <v>45747</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I91" s="2">
-        <v>117</v>
+        <v>-24</v>
       </c>
       <c r="J91" s="3">
-        <v>-5.73</v>
+        <v>726.19</v>
       </c>
       <c r="K91" s="3">
-        <v>-5.73</v>
+        <v>726.19</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4342,45 +4342,45 @@
         <v>211112052</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>546</v>
+        <v>11609</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45879</v>
+        <v>45937.476863425924</v>
       </c>
       <c r="H92" s="1">
-        <v>45819</v>
+        <v>45877.477210648147</v>
       </c>
       <c r="I92" s="2">
-        <v>15</v>
+        <v>-38</v>
       </c>
       <c r="J92" s="3">
-        <v>-680.83</v>
+        <v>957.27</v>
       </c>
       <c r="K92" s="3">
-        <v>-680.83</v>
+        <v>957.27</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112052</v>
+        <v>211112098</v>
       </c>
       <c r="B93" t="s">
         <v>33</v>
@@ -4392,66 +4392,66 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>9182</v>
+        <v>11783</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45881.340092592589</v>
+        <v>45912.363032407404</v>
       </c>
       <c r="H93" s="1">
-        <v>45821.340949074074</v>
+        <v>45882.363032407404</v>
       </c>
       <c r="I93" s="2">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="J93" s="3">
-        <v>968.26</v>
+        <v>468.88</v>
       </c>
       <c r="K93" s="3">
-        <v>968.26</v>
+        <v>468.88</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
       </c>
       <c r="E94">
-        <v>569</v>
+        <v>9177</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45885</v>
+        <v>45880.637939814813</v>
       </c>
       <c r="H94" s="1">
-        <v>45825</v>
+        <v>45820.639421296291</v>
       </c>
       <c r="I94" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J94" s="3">
-        <v>-69.09</v>
+        <v>3277.76</v>
       </c>
       <c r="K94" s="3">
-        <v>-69.09</v>
+        <v>3277.76</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4462,10 +4462,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4474,162 +4474,162 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>9796</v>
+        <v>9560</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45894.634768518517</v>
+        <v>45888.627025462964</v>
       </c>
       <c r="H95" s="1">
-        <v>45834.635682870372</v>
+        <v>45828.628541666665</v>
       </c>
       <c r="I95" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J95" s="3">
-        <v>107.37</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="K95" s="3">
-        <v>107.37</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E96">
-        <v>10369</v>
+        <v>123</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45908.309050925927</v>
+        <v>45888.628900462958</v>
       </c>
       <c r="H96" s="1">
-        <v>45848.309965277775</v>
+        <v>45828.673252314809</v>
       </c>
       <c r="I96" s="2">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="J96" s="3">
-        <v>1512.89</v>
+        <v>1721.02</v>
       </c>
       <c r="K96" s="3">
-        <v>1512.89</v>
+        <v>1721.02</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>9800</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45922</v>
+        <v>45894.651828703703</v>
       </c>
       <c r="H97" s="1">
-        <v>45862</v>
+        <v>45834.65211805555</v>
       </c>
       <c r="I97" s="2">
-        <v>-28</v>
+        <v>5</v>
       </c>
       <c r="J97" s="3">
-        <v>-15.38</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="K97" s="3">
-        <v>-15.38</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
       </c>
       <c r="E98">
-        <v>682</v>
+        <v>9801</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45922</v>
+        <v>45894.653275462959</v>
       </c>
       <c r="H98" s="1">
-        <v>45862</v>
+        <v>45834.653495370367</v>
       </c>
       <c r="I98" s="2">
-        <v>-28</v>
+        <v>5</v>
       </c>
       <c r="J98" s="3">
-        <v>-606.93000000000006</v>
+        <v>1272.99</v>
       </c>
       <c r="K98" s="3">
-        <v>-606.93000000000006</v>
+        <v>1272.99</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4638,39 +4638,39 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>11013</v>
+        <v>9911</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45923.283518518518</v>
+        <v>45898.70108796296</v>
       </c>
       <c r="H99" s="1">
-        <v>45863.287939814814</v>
+        <v>45838.702037037037</v>
       </c>
       <c r="I99" s="2">
-        <v>-29</v>
+        <v>1</v>
       </c>
       <c r="J99" s="3">
-        <v>417.19</v>
+        <v>2730.67</v>
       </c>
       <c r="K99" s="3">
-        <v>417.19</v>
+        <v>2730.67</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4679,25 +4679,25 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>11014</v>
+        <v>10234</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45923.288171296292</v>
+        <v>45905.634965277779</v>
       </c>
       <c r="H100" s="1">
-        <v>45863.288368055553</v>
+        <v>45845.635636574072</v>
       </c>
       <c r="I100" s="2">
-        <v>-29</v>
+        <v>-6</v>
       </c>
       <c r="J100" s="3">
-        <v>606.93000000000006</v>
+        <v>2189.11</v>
       </c>
       <c r="K100" s="3">
-        <v>606.93000000000006</v>
+        <v>2189.11</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4720,25 +4720,25 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>11085</v>
+        <v>10548</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45923.645879629628</v>
+        <v>45913.353020833332</v>
       </c>
       <c r="H101" s="1">
-        <v>45863.645879629628</v>
+        <v>45853.353888888887</v>
       </c>
       <c r="I101" s="2">
-        <v>-29</v>
+        <v>-14</v>
       </c>
       <c r="J101" s="3">
-        <v>726.19</v>
+        <v>4871.05</v>
       </c>
       <c r="K101" s="3">
-        <v>726.19</v>
+        <v>4871.05</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4749,10 +4749,10 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4761,25 +4761,25 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>11609</v>
+        <v>11138</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45937.476863425924</v>
+        <v>45927.358495370368</v>
       </c>
       <c r="H102" s="1">
-        <v>45877.477210648147</v>
+        <v>45867.359340277777</v>
       </c>
       <c r="I102" s="2">
-        <v>-43</v>
+        <v>-28</v>
       </c>
       <c r="J102" s="3">
-        <v>957.27</v>
+        <v>1891.52</v>
       </c>
       <c r="K102" s="3">
-        <v>957.27</v>
+        <v>1891.52</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112098</v>
+        <v>211112151</v>
       </c>
       <c r="B103" t="s">
         <v>34</v>
@@ -4802,25 +4802,25 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>11783</v>
+        <v>11469</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45912.363032407404</v>
+        <v>45935.331585648149</v>
       </c>
       <c r="H103" s="1">
-        <v>45882.363032407404</v>
+        <v>45875.332268518519</v>
       </c>
       <c r="I103" s="2">
-        <v>-18</v>
+        <v>-36</v>
       </c>
       <c r="J103" s="3">
-        <v>468.88</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="K103" s="3">
-        <v>468.88</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -4834,7 +4834,7 @@
         <v>211112151</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4843,31 +4843,31 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>9177</v>
+        <v>11470</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45880.637939814813</v>
+        <v>45935.332488425927</v>
       </c>
       <c r="H104" s="1">
-        <v>45820.639421296291</v>
+        <v>45875.332824074074</v>
       </c>
       <c r="I104" s="2">
-        <v>14</v>
+        <v>-36</v>
       </c>
       <c r="J104" s="3">
-        <v>3277.76</v>
+        <v>1486.91</v>
       </c>
       <c r="K104" s="3">
-        <v>3277.76</v>
+        <v>1486.91</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4875,40 +4875,40 @@
         <v>211112151</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E105">
-        <v>9560</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45888.627025462964</v>
+        <v>45942</v>
       </c>
       <c r="H105" s="1">
-        <v>45828.628541666665</v>
+        <v>45882</v>
       </c>
       <c r="I105" s="2">
-        <v>6</v>
+        <v>-43</v>
       </c>
       <c r="J105" s="3">
-        <v>2976.7400000000002</v>
+        <v>-30.75</v>
       </c>
       <c r="K105" s="3">
-        <v>2976.7400000000002</v>
+        <v>-30.75</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4916,40 +4916,40 @@
         <v>211112151</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E106">
-        <v>123</v>
+        <v>11860</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45888.628900462958</v>
+        <v>45942.619097222218</v>
       </c>
       <c r="H106" s="1">
-        <v>45828.673252314809</v>
+        <v>45882.62773148148</v>
       </c>
       <c r="I106" s="2">
-        <v>6</v>
+        <v>-43</v>
       </c>
       <c r="J106" s="3">
-        <v>1721.02</v>
+        <v>3031.57</v>
       </c>
       <c r="K106" s="3">
-        <v>1721.02</v>
+        <v>3031.57</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4957,34 +4957,34 @@
         <v>211112151</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E107">
-        <v>9800</v>
+        <v>153</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45894.651828703703</v>
+        <v>45942.62940972222</v>
       </c>
       <c r="H107" s="1">
-        <v>45834.65211805555</v>
+        <v>45882.629641203705</v>
       </c>
       <c r="I107" s="2">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="J107" s="3">
-        <v>617.68000000000006</v>
+        <v>1558.65</v>
       </c>
       <c r="K107" s="3">
-        <v>617.68000000000006</v>
+        <v>1558.65</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -4995,51 +4995,51 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112151</v>
+        <v>211112183</v>
       </c>
       <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
+      </c>
+      <c r="E108">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="1">
+        <v>45693</v>
+      </c>
+      <c r="H108" s="1">
+        <v>45663</v>
+      </c>
+      <c r="I108" s="2">
+        <v>206</v>
+      </c>
+      <c r="J108" s="3">
+        <v>-4385.22</v>
+      </c>
+      <c r="K108" s="3">
+        <v>-782.21</v>
+      </c>
+      <c r="L108" t="s">
+        <v>17</v>
+      </c>
+      <c r="M108" t="s">
         <v>35</v>
-      </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108">
-        <v>9801</v>
-      </c>
-      <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="1">
-        <v>45894.653275462959</v>
-      </c>
-      <c r="H108" s="1">
-        <v>45834.653495370367</v>
-      </c>
-      <c r="I108" s="2">
-        <v>0</v>
-      </c>
-      <c r="J108" s="3">
-        <v>1272.99</v>
-      </c>
-      <c r="K108" s="3">
-        <v>1272.99</v>
-      </c>
-      <c r="L108" t="s">
-        <v>17</v>
-      </c>
-      <c r="M108" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5048,80 +5048,80 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>9911</v>
+        <v>8763</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45898.70108796296</v>
+        <v>45841.406585648147</v>
       </c>
       <c r="H109" s="1">
-        <v>45838.702037037037</v>
+        <v>45811.406979166662</v>
       </c>
       <c r="I109" s="2">
-        <v>-4</v>
+        <v>58</v>
       </c>
       <c r="J109" s="3">
-        <v>2730.67</v>
+        <v>808.13</v>
       </c>
       <c r="K109" s="3">
-        <v>2730.67</v>
+        <v>143.54</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E110">
-        <v>10234</v>
+        <v>122</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45905.634965277779</v>
+        <v>45858.629687499997</v>
       </c>
       <c r="H110" s="1">
-        <v>45845.635636574072</v>
+        <v>45828.63045138889</v>
       </c>
       <c r="I110" s="2">
-        <v>-11</v>
+        <v>41</v>
       </c>
       <c r="J110" s="3">
-        <v>2189.11</v>
+        <v>675.35</v>
       </c>
       <c r="K110" s="3">
-        <v>2189.11</v>
+        <v>255.70000000000002</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5130,39 +5130,39 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>10548</v>
+        <v>9924</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45913.353020833332</v>
+        <v>45869.354363425926</v>
       </c>
       <c r="H111" s="1">
-        <v>45853.353888888887</v>
+        <v>45839.356215277774</v>
       </c>
       <c r="I111" s="2">
-        <v>-19</v>
+        <v>30</v>
       </c>
       <c r="J111" s="3">
-        <v>4871.05</v>
+        <v>574.62</v>
       </c>
       <c r="K111" s="3">
-        <v>4871.05</v>
+        <v>57.78</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5171,25 +5171,25 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>11138</v>
+        <v>11575</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45927.358495370368</v>
+        <v>45906.462129629625</v>
       </c>
       <c r="H112" s="1">
-        <v>45867.359340277777</v>
+        <v>45876.462129629625</v>
       </c>
       <c r="I112" s="2">
-        <v>-33</v>
+        <v>-7</v>
       </c>
       <c r="J112" s="3">
-        <v>1891.52</v>
+        <v>647.14</v>
       </c>
       <c r="K112" s="3">
-        <v>1891.52</v>
+        <v>647.14</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -5200,10 +5200,10 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5212,25 +5212,25 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>11469</v>
+        <v>12113</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45935.331585648149</v>
+        <v>45920.512499999997</v>
       </c>
       <c r="H113" s="1">
-        <v>45875.332268518519</v>
+        <v>45890.512499999997</v>
       </c>
       <c r="I113" s="2">
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="J113" s="3">
-        <v>2536.7800000000002</v>
+        <v>265.43</v>
       </c>
       <c r="K113" s="3">
-        <v>2536.7800000000002</v>
+        <v>265.43</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -5241,10 +5241,10 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211112151</v>
+        <v>211112290</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5253,25 +5253,25 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>11470</v>
+        <v>10786</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45935.332488425927</v>
+        <v>45916.621446759258</v>
       </c>
       <c r="H114" s="1">
-        <v>45875.332824074074</v>
+        <v>45856.622523148144</v>
       </c>
       <c r="I114" s="2">
-        <v>-41</v>
+        <v>-17</v>
       </c>
       <c r="J114" s="3">
-        <v>1486.91</v>
+        <v>2347.12</v>
       </c>
       <c r="K114" s="3">
-        <v>1486.91</v>
+        <v>2347.12</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211112151</v>
+        <v>211112290</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5294,25 +5294,25 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>11860</v>
+        <v>11859</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45942.619097222218</v>
+        <v>45942.611527777779</v>
       </c>
       <c r="H115" s="1">
-        <v>45882.62773148148</v>
+        <v>45882.616122685184</v>
       </c>
       <c r="I115" s="2">
-        <v>-48</v>
+        <v>-43</v>
       </c>
       <c r="J115" s="3">
-        <v>3031.57</v>
+        <v>1123.45</v>
       </c>
       <c r="K115" s="3">
-        <v>3031.57</v>
+        <v>1123.45</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -5323,215 +5323,215 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211112151</v>
+        <v>211112334</v>
       </c>
       <c r="B116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="1">
+        <v>45406</v>
+      </c>
+      <c r="H116" s="1">
+        <v>45391</v>
+      </c>
+      <c r="I116" s="2">
+        <v>493</v>
+      </c>
+      <c r="J116" s="3">
+        <v>597.29</v>
+      </c>
+      <c r="K116" s="3">
+        <v>597.29</v>
+      </c>
+      <c r="L116" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116" t="s">
         <v>35</v>
-      </c>
-      <c r="C116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116">
-        <v>153</v>
-      </c>
-      <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="1">
-        <v>45942.62940972222</v>
-      </c>
-      <c r="H116" s="1">
-        <v>45882.629641203705</v>
-      </c>
-      <c r="I116" s="2">
-        <v>-48</v>
-      </c>
-      <c r="J116" s="3">
-        <v>1558.65</v>
-      </c>
-      <c r="K116" s="3">
-        <v>1558.65</v>
-      </c>
-      <c r="L116" t="s">
-        <v>17</v>
-      </c>
-      <c r="M116" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211112183</v>
+        <v>211112334</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
-      </c>
-      <c r="D117">
-        <v>2025</v>
-      </c>
-      <c r="E117">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="D117" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45693</v>
+        <v>45406</v>
       </c>
       <c r="H117" s="1">
-        <v>45663</v>
+        <v>45391</v>
       </c>
       <c r="I117" s="2">
-        <v>201</v>
+        <v>493</v>
       </c>
       <c r="J117" s="3">
-        <v>-4385.22</v>
+        <v>591.72</v>
       </c>
       <c r="K117" s="3">
-        <v>-782.21</v>
+        <v>591.72</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112216</v>
+        <v>211112334</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118">
-        <v>8763</v>
+        <v>36</v>
+      </c>
+      <c r="E118" t="s">
+        <v>45</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45841.406585648147</v>
+        <v>45419</v>
       </c>
       <c r="H118" s="1">
-        <v>45811.406979166662</v>
+        <v>45404</v>
       </c>
       <c r="I118" s="2">
-        <v>53</v>
+        <v>480</v>
       </c>
       <c r="J118" s="3">
-        <v>808.13</v>
+        <v>599.27</v>
       </c>
       <c r="K118" s="3">
-        <v>143.54</v>
+        <v>599.27</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112216</v>
+        <v>211112334</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="D119">
+        <v>2025</v>
       </c>
       <c r="E119">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45858.629687499997</v>
+        <v>45906</v>
       </c>
       <c r="H119" s="1">
-        <v>45828.63045138889</v>
+        <v>45876</v>
       </c>
       <c r="I119" s="2">
-        <v>36</v>
+        <v>-7</v>
       </c>
       <c r="J119" s="3">
-        <v>675.35</v>
+        <v>-64.14</v>
       </c>
       <c r="K119" s="3">
-        <v>255.70000000000002</v>
+        <v>-64.14</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>211112216</v>
+        <v>211112334</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D120">
+        <v>2025</v>
       </c>
       <c r="E120">
-        <v>9924</v>
+        <v>92</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45869.354363425926</v>
+        <v>45906</v>
       </c>
       <c r="H120" s="1">
-        <v>45839.356215277774</v>
+        <v>45876</v>
       </c>
       <c r="I120" s="2">
-        <v>25</v>
+        <v>-7</v>
       </c>
       <c r="J120" s="3">
-        <v>574.62</v>
+        <v>-174.57</v>
       </c>
       <c r="K120" s="3">
-        <v>57.78</v>
+        <v>-174.57</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>211112216</v>
+        <v>211112351</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -5540,39 +5540,39 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>11575</v>
+        <v>7619</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45906.462129629625</v>
+        <v>45850.387407407405</v>
       </c>
       <c r="H121" s="1">
-        <v>45876.462129629625</v>
+        <v>45790.388252314813</v>
       </c>
       <c r="I121" s="2">
-        <v>-12</v>
+        <v>49</v>
       </c>
       <c r="J121" s="3">
-        <v>647.14</v>
+        <v>7394.88</v>
       </c>
       <c r="K121" s="3">
-        <v>647.14</v>
+        <v>7394.88</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>211112216</v>
+        <v>211112351</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -5581,39 +5581,39 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>12113</v>
+        <v>8006</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45920.512499999997</v>
+        <v>45857.37296296296</v>
       </c>
       <c r="H122" s="1">
-        <v>45890.512499999997</v>
+        <v>45797.375092592592</v>
       </c>
       <c r="I122" s="2">
-        <v>-26</v>
+        <v>42</v>
       </c>
       <c r="J122" s="3">
-        <v>265.43</v>
+        <v>3927.87</v>
       </c>
       <c r="K122" s="3">
-        <v>265.43</v>
+        <v>3927.87</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211112290</v>
+        <v>211112351</v>
       </c>
       <c r="B123" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -5622,39 +5622,39 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>10786</v>
+        <v>8750</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45916.621446759258</v>
+        <v>45871.312986111108</v>
       </c>
       <c r="H123" s="1">
-        <v>45856.622523148144</v>
+        <v>45811.315150462964</v>
       </c>
       <c r="I123" s="2">
-        <v>-22</v>
+        <v>28</v>
       </c>
       <c r="J123" s="3">
-        <v>2347.12</v>
+        <v>2626.23</v>
       </c>
       <c r="K123" s="3">
-        <v>2347.12</v>
+        <v>2626.23</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211112290</v>
+        <v>211112351</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5663,189 +5663,189 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>11859</v>
+        <v>9758</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45942.611527777779</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H124" s="1">
-        <v>45882.616122685184</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I124" s="2">
-        <v>-48</v>
+        <v>5</v>
       </c>
       <c r="J124" s="3">
-        <v>1123.45</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K124" s="3">
-        <v>1123.45</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211112334</v>
+        <v>211112421</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="E125">
+        <v>3848</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45406</v>
+        <v>45746.622569444444</v>
       </c>
       <c r="H125" s="1">
-        <v>45391</v>
+        <v>45716.624456018515</v>
       </c>
       <c r="I125" s="2">
-        <v>488</v>
+        <v>153</v>
       </c>
       <c r="J125" s="3">
-        <v>597.29</v>
+        <v>233.77</v>
       </c>
       <c r="K125" s="3">
-        <v>597.29</v>
+        <v>233.77</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112334</v>
+        <v>211112443</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E126">
+        <v>8910</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45406</v>
+        <v>45843.497025462959</v>
       </c>
       <c r="H126" s="1">
-        <v>45391</v>
+        <v>45813.497488425921</v>
       </c>
       <c r="I126" s="2">
-        <v>488</v>
+        <v>56</v>
       </c>
       <c r="J126" s="3">
-        <v>591.72</v>
+        <v>765.47</v>
       </c>
       <c r="K126" s="3">
-        <v>591.72</v>
+        <v>765.47</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112334</v>
+        <v>211112443</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="E127">
+        <v>10549</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45419</v>
+        <v>45883.354108796295</v>
       </c>
       <c r="H127" s="1">
-        <v>45404</v>
+        <v>45853.354548611111</v>
       </c>
       <c r="I127" s="2">
-        <v>475</v>
+        <v>16</v>
       </c>
       <c r="J127" s="3">
-        <v>599.27</v>
+        <v>1094.7</v>
       </c>
       <c r="K127" s="3">
-        <v>599.27</v>
+        <v>1094.7</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
       </c>
       <c r="M127" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112334</v>
+        <v>211112455</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>60</v>
-      </c>
-      <c r="D128">
-        <v>2025</v>
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>56</v>
       </c>
       <c r="E128">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45906</v>
+        <v>45900</v>
       </c>
       <c r="H128" s="1">
-        <v>45876</v>
+        <v>45870</v>
       </c>
       <c r="I128" s="2">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="J128" s="3">
-        <v>-64.14</v>
+        <v>-15.38</v>
       </c>
       <c r="K128" s="3">
-        <v>-64.14</v>
+        <v>-15.38</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -5856,37 +5856,37 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112334</v>
+        <v>211112455</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C129" t="s">
-        <v>60</v>
-      </c>
-      <c r="D129">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
       </c>
       <c r="E129">
-        <v>92</v>
+        <v>11299</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45906</v>
+        <v>45900.301238425927</v>
       </c>
       <c r="H129" s="1">
-        <v>45876</v>
+        <v>45870.301851851851</v>
       </c>
       <c r="I129" s="2">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="J129" s="3">
-        <v>-174.57</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="K129" s="3">
-        <v>-174.57</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112351</v>
+        <v>211112455</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -5909,39 +5909,39 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>7192</v>
+        <v>11471</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45843.368854166663</v>
+        <v>45905.332974537036</v>
       </c>
       <c r="H130" s="1">
-        <v>45783.369363425925</v>
+        <v>45875.333553240736</v>
       </c>
       <c r="I130" s="2">
-        <v>51</v>
+        <v>-6</v>
       </c>
       <c r="J130" s="3">
-        <v>4675.67</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="K130" s="3">
-        <v>4675.67</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112351</v>
+        <v>211112455</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5950,39 +5950,39 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>7370</v>
+        <v>11858</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45845.34983796296</v>
+        <v>45912.609606481477</v>
       </c>
       <c r="H131" s="1">
-        <v>45785.350659722222</v>
+        <v>45882.61142361111</v>
       </c>
       <c r="I131" s="2">
-        <v>49</v>
+        <v>-13</v>
       </c>
       <c r="J131" s="3">
-        <v>4323.37</v>
+        <v>2905.4</v>
       </c>
       <c r="K131" s="3">
-        <v>4323.37</v>
+        <v>2905.4</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112351</v>
+        <v>211112455</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -5991,39 +5991,39 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>7619</v>
+        <v>12035</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45850.387407407405</v>
+        <v>45919.369513888887</v>
       </c>
       <c r="H132" s="1">
-        <v>45790.388252314813</v>
+        <v>45889.370081018518</v>
       </c>
       <c r="I132" s="2">
-        <v>44</v>
+        <v>-20</v>
       </c>
       <c r="J132" s="3">
-        <v>7394.88</v>
+        <v>3591.86</v>
       </c>
       <c r="K132" s="3">
-        <v>7394.88</v>
+        <v>3591.86</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112351</v>
+        <v>211112455</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6032,39 +6032,39 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>8006</v>
+        <v>12367</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45857.37296296296</v>
+        <v>45927.412766203699</v>
       </c>
       <c r="H133" s="1">
-        <v>45797.375092592592</v>
+        <v>45897.415347222217</v>
       </c>
       <c r="I133" s="2">
-        <v>37</v>
+        <v>-28</v>
       </c>
       <c r="J133" s="3">
-        <v>3927.87</v>
+        <v>3508</v>
       </c>
       <c r="K133" s="3">
-        <v>3927.87</v>
+        <v>3508</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112351</v>
+        <v>211112469</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6073,39 +6073,39 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>8750</v>
+        <v>11558</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45871.312986111108</v>
+        <v>45906.43645833333</v>
       </c>
       <c r="H134" s="1">
-        <v>45811.315150462964</v>
+        <v>45876.437384259254</v>
       </c>
       <c r="I134" s="2">
-        <v>23</v>
+        <v>-7</v>
       </c>
       <c r="J134" s="3">
-        <v>2626.23</v>
+        <v>1107.6200000000001</v>
       </c>
       <c r="K134" s="3">
-        <v>2626.23</v>
+        <v>1107.6100000000001</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112351</v>
+        <v>211112469</v>
       </c>
       <c r="B135" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6114,25 +6114,25 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>9758</v>
+        <v>12361</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45894.404513888891</v>
+        <v>45927.39025462963</v>
       </c>
       <c r="H135" s="1">
-        <v>45834.411666666667</v>
+        <v>45897.394027777773</v>
       </c>
       <c r="I135" s="2">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="J135" s="3">
-        <v>2212.2600000000002</v>
+        <v>351.14</v>
       </c>
       <c r="K135" s="3">
-        <v>2212.2600000000002</v>
+        <v>351.14</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -6143,10 +6143,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112421</v>
+        <v>211112476</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6155,39 +6155,39 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>3848</v>
+        <v>10023</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45746.622569444444</v>
+        <v>45871.36619212963</v>
       </c>
       <c r="H136" s="1">
-        <v>45716.624456018515</v>
+        <v>45841.366562499999</v>
       </c>
       <c r="I136" s="2">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="J136" s="3">
-        <v>233.77</v>
+        <v>275.11</v>
       </c>
       <c r="K136" s="3">
-        <v>233.77</v>
+        <v>275.11</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112443</v>
+        <v>211112488</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6196,142 +6196,142 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>8910</v>
+        <v>12146</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45843.497025462959</v>
+        <v>45920.679456018515</v>
       </c>
       <c r="H137" s="1">
-        <v>45813.497488425921</v>
+        <v>45890.681793981479</v>
       </c>
       <c r="I137" s="2">
-        <v>51</v>
+        <v>-21</v>
       </c>
       <c r="J137" s="3">
-        <v>765.47</v>
+        <v>1241.79</v>
       </c>
       <c r="K137" s="3">
-        <v>765.47</v>
+        <v>1241.79</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112443</v>
+        <v>211112515</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D138">
+        <v>2025</v>
       </c>
       <c r="E138">
-        <v>10549</v>
+        <v>575</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45883.354108796295</v>
+        <v>45861</v>
       </c>
       <c r="H138" s="1">
-        <v>45853.354548611111</v>
+        <v>45831</v>
       </c>
       <c r="I138" s="2">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J138" s="3">
-        <v>1094.7</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="K138" s="3">
-        <v>1094.7</v>
+        <v>-390.40000000000003</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112455</v>
+        <v>211112515</v>
       </c>
       <c r="B139" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D139">
+        <v>2025</v>
       </c>
       <c r="E139">
-        <v>10837</v>
+        <v>621</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45890.319421296292</v>
+        <v>45875</v>
       </c>
       <c r="H139" s="1">
-        <v>45860.320057870369</v>
+        <v>45845</v>
       </c>
       <c r="I139" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J139" s="3">
-        <v>1555.67</v>
+        <v>-49.21</v>
       </c>
       <c r="K139" s="3">
-        <v>1555.67</v>
+        <v>-49.21</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112455</v>
+        <v>211112515</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E140">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45900</v>
+        <v>45892</v>
       </c>
       <c r="H140" s="1">
-        <v>45870</v>
+        <v>45862</v>
       </c>
       <c r="I140" s="2">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="J140" s="3">
         <v>-15.38</v>
@@ -6343,56 +6343,56 @@
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112455</v>
+        <v>211112515</v>
       </c>
       <c r="B141" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D141">
+        <v>2025</v>
       </c>
       <c r="E141">
-        <v>11299</v>
+        <v>696</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45900.301238425927</v>
+        <v>45893</v>
       </c>
       <c r="H141" s="1">
-        <v>45870.301851851851</v>
+        <v>45863</v>
       </c>
       <c r="I141" s="2">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="J141" s="3">
-        <v>1512.3600000000001</v>
+        <v>-102.25</v>
       </c>
       <c r="K141" s="3">
-        <v>1512.3600000000001</v>
+        <v>-102.25</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112455</v>
+        <v>211112515</v>
       </c>
       <c r="B142" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6401,39 +6401,39 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>11471</v>
+        <v>11018</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45905.332974537036</v>
+        <v>45893.344247685185</v>
       </c>
       <c r="H142" s="1">
-        <v>45875.333553240736</v>
+        <v>45863.344930555555</v>
       </c>
       <c r="I142" s="2">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="J142" s="3">
-        <v>1789.6000000000001</v>
+        <v>653.94000000000005</v>
       </c>
       <c r="K142" s="3">
-        <v>1789.6000000000001</v>
+        <v>653.94000000000005</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112455</v>
+        <v>211112515</v>
       </c>
       <c r="B143" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6442,25 +6442,25 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>11858</v>
+        <v>11868</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45912.609606481477</v>
+        <v>45913.38927083333</v>
       </c>
       <c r="H143" s="1">
-        <v>45882.61142361111</v>
+        <v>45883.390358796292</v>
       </c>
       <c r="I143" s="2">
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="J143" s="3">
-        <v>2905.4</v>
+        <v>1706.69</v>
       </c>
       <c r="K143" s="3">
-        <v>2905.4</v>
+        <v>1706.69</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -6471,37 +6471,37 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112455</v>
+        <v>211112515</v>
       </c>
       <c r="B144" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D144">
+        <v>2025</v>
       </c>
       <c r="E144">
-        <v>12035</v>
+        <v>764</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45919.369513888887</v>
+        <v>45914</v>
       </c>
       <c r="H144" s="1">
-        <v>45889.370081018518</v>
+        <v>45884</v>
       </c>
       <c r="I144" s="2">
-        <v>-25</v>
+        <v>-15</v>
       </c>
       <c r="J144" s="3">
-        <v>3591.86</v>
+        <v>-70.45</v>
       </c>
       <c r="K144" s="3">
-        <v>3591.86</v>
+        <v>-70.45</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -6512,10 +6512,10 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112469</v>
+        <v>211112515</v>
       </c>
       <c r="B145" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6524,25 +6524,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>11558</v>
+        <v>12042</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45906.43645833333</v>
+        <v>45919.439918981479</v>
       </c>
       <c r="H145" s="1">
-        <v>45876.437384259254</v>
+        <v>45889.441377314812</v>
       </c>
       <c r="I145" s="2">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="J145" s="3">
-        <v>1107.6200000000001</v>
+        <v>1864.56</v>
       </c>
       <c r="K145" s="3">
-        <v>1107.6100000000001</v>
+        <v>1864.56</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6553,51 +6553,51 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112476</v>
+        <v>211112515</v>
       </c>
       <c r="B146" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D146">
+        <v>2025</v>
       </c>
       <c r="E146">
-        <v>10023</v>
+        <v>778</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45871.36619212963</v>
+        <v>45920</v>
       </c>
       <c r="H146" s="1">
-        <v>45841.366562499999</v>
+        <v>45890</v>
       </c>
       <c r="I146" s="2">
-        <v>23</v>
+        <v>-21</v>
       </c>
       <c r="J146" s="3">
-        <v>275.11</v>
+        <v>-65.08</v>
       </c>
       <c r="K146" s="3">
-        <v>275.11</v>
+        <v>-65.08</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112488</v>
+        <v>211112518</v>
       </c>
       <c r="B147" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6606,39 +6606,39 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>10184</v>
+        <v>9953</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45872.656388888885</v>
+        <v>45900.407731481479</v>
       </c>
       <c r="H147" s="1">
-        <v>45842.656388888885</v>
+        <v>45840.408055555556</v>
       </c>
       <c r="I147" s="2">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="J147" s="3">
-        <v>1008.07</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="K147" s="3">
-        <v>1008.07</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112488</v>
+        <v>211112518</v>
       </c>
       <c r="B148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6647,25 +6647,25 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>12146</v>
+        <v>10114</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45920.679456018515</v>
+        <v>45902.400694444441</v>
       </c>
       <c r="H148" s="1">
-        <v>45890.681793981479</v>
+        <v>45842.400694444441</v>
       </c>
       <c r="I148" s="2">
-        <v>-26</v>
+        <v>-3</v>
       </c>
       <c r="J148" s="3">
-        <v>1241.79</v>
+        <v>219.86</v>
       </c>
       <c r="K148" s="3">
-        <v>1241.79</v>
+        <v>219.86</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -6676,174 +6676,174 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112515</v>
+        <v>211112518</v>
       </c>
       <c r="B149" t="s">
         <v>54</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
-      </c>
-      <c r="D149">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>15</v>
       </c>
       <c r="E149">
-        <v>575</v>
+        <v>10919</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="1">
-        <v>45861</v>
+        <v>45921.540416666663</v>
       </c>
       <c r="H149" s="1">
-        <v>45831</v>
+        <v>45861.54415509259</v>
       </c>
       <c r="I149" s="2">
-        <v>33</v>
+        <v>-22</v>
       </c>
       <c r="J149" s="3">
-        <v>-390.40000000000003</v>
+        <v>817.86</v>
       </c>
       <c r="K149" s="3">
-        <v>-390.40000000000003</v>
+        <v>817.86</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
       </c>
       <c r="M149" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112515</v>
+        <v>211112518</v>
       </c>
       <c r="B150" t="s">
         <v>54</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
-      </c>
-      <c r="D150">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
       </c>
       <c r="E150">
-        <v>621</v>
+        <v>12069</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" s="1">
-        <v>45875</v>
+        <v>45949.520509259259</v>
       </c>
       <c r="H150" s="1">
-        <v>45845</v>
+        <v>45889.520520833328</v>
       </c>
       <c r="I150" s="2">
-        <v>19</v>
+        <v>-50</v>
       </c>
       <c r="J150" s="3">
-        <v>-49.21</v>
+        <v>624.23</v>
       </c>
       <c r="K150" s="3">
-        <v>-49.21</v>
+        <v>624.23</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112515</v>
+        <v>211112531</v>
       </c>
       <c r="B151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C151" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E151">
-        <v>3</v>
+        <v>11383</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>45892</v>
+        <v>45903.496435185181</v>
       </c>
       <c r="H151" s="1">
-        <v>45862</v>
+        <v>45873.497210648144</v>
       </c>
       <c r="I151" s="2">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="J151" s="3">
-        <v>-15.38</v>
+        <v>236.21</v>
       </c>
       <c r="K151" s="3">
-        <v>-15.38</v>
+        <v>236.21</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
       </c>
       <c r="M151" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112515</v>
+        <v>211112531</v>
       </c>
       <c r="B152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
-      </c>
-      <c r="D152">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
       </c>
       <c r="E152">
-        <v>696</v>
+        <v>11813</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="1">
-        <v>45893</v>
+        <v>45912.512372685182</v>
       </c>
       <c r="H152" s="1">
-        <v>45863</v>
+        <v>45882.512384259258</v>
       </c>
       <c r="I152" s="2">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="J152" s="3">
-        <v>-102.25</v>
+        <v>110.37</v>
       </c>
       <c r="K152" s="3">
-        <v>-102.25</v>
+        <v>110.37</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
       </c>
       <c r="M152" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112515</v>
+        <v>211112531</v>
       </c>
       <c r="B153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6852,481 +6852,30 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>11018</v>
+        <v>11935</v>
       </c>
       <c r="F153" t="s">
         <v>16</v>
       </c>
       <c r="G153" s="1">
-        <v>45893.344247685185</v>
+        <v>45913.654675925922</v>
       </c>
       <c r="H153" s="1">
-        <v>45863.344930555555</v>
+        <v>45883.654907407406</v>
       </c>
       <c r="I153" s="2">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="J153" s="3">
-        <v>653.94000000000005</v>
+        <v>71.320000000000007</v>
       </c>
       <c r="K153" s="3">
-        <v>653.94000000000005</v>
+        <v>71.320000000000007</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>211112515</v>
-      </c>
-      <c r="B154" t="s">
-        <v>54</v>
-      </c>
-      <c r="C154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154">
-        <v>11868</v>
-      </c>
-      <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" s="1">
-        <v>45913.38927083333</v>
-      </c>
-      <c r="H154" s="1">
-        <v>45883.390358796292</v>
-      </c>
-      <c r="I154" s="2">
-        <v>-19</v>
-      </c>
-      <c r="J154" s="3">
-        <v>1706.69</v>
-      </c>
-      <c r="K154" s="3">
-        <v>1706.69</v>
-      </c>
-      <c r="L154" t="s">
-        <v>17</v>
-      </c>
-      <c r="M154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>211112515</v>
-      </c>
-      <c r="B155" t="s">
-        <v>54</v>
-      </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155">
-        <v>12042</v>
-      </c>
-      <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" s="1">
-        <v>45919.439918981479</v>
-      </c>
-      <c r="H155" s="1">
-        <v>45889.441377314812</v>
-      </c>
-      <c r="I155" s="2">
-        <v>-25</v>
-      </c>
-      <c r="J155" s="3">
-        <v>1864.56</v>
-      </c>
-      <c r="K155" s="3">
-        <v>1864.56</v>
-      </c>
-      <c r="L155" t="s">
-        <v>17</v>
-      </c>
-      <c r="M155" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>211112518</v>
-      </c>
-      <c r="B156" t="s">
-        <v>55</v>
-      </c>
-      <c r="C156" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156">
-        <v>9953</v>
-      </c>
-      <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" s="1">
-        <v>45900.407731481479</v>
-      </c>
-      <c r="H156" s="1">
-        <v>45840.408055555556</v>
-      </c>
-      <c r="I156" s="2">
-        <v>-6</v>
-      </c>
-      <c r="J156" s="3">
-        <v>358.40000000000003</v>
-      </c>
-      <c r="K156" s="3">
-        <v>358.40000000000003</v>
-      </c>
-      <c r="L156" t="s">
-        <v>17</v>
-      </c>
-      <c r="M156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>211112518</v>
-      </c>
-      <c r="B157" t="s">
-        <v>55</v>
-      </c>
-      <c r="C157" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157">
-        <v>10114</v>
-      </c>
-      <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" s="1">
-        <v>45902.400694444441</v>
-      </c>
-      <c r="H157" s="1">
-        <v>45842.400694444441</v>
-      </c>
-      <c r="I157" s="2">
-        <v>-8</v>
-      </c>
-      <c r="J157" s="3">
-        <v>219.86</v>
-      </c>
-      <c r="K157" s="3">
-        <v>219.86</v>
-      </c>
-      <c r="L157" t="s">
-        <v>17</v>
-      </c>
-      <c r="M157" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>211112518</v>
-      </c>
-      <c r="B158" t="s">
-        <v>55</v>
-      </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158">
-        <v>10919</v>
-      </c>
-      <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" s="1">
-        <v>45921.540416666663</v>
-      </c>
-      <c r="H158" s="1">
-        <v>45861.54415509259</v>
-      </c>
-      <c r="I158" s="2">
-        <v>-27</v>
-      </c>
-      <c r="J158" s="3">
-        <v>817.86</v>
-      </c>
-      <c r="K158" s="3">
-        <v>817.86</v>
-      </c>
-      <c r="L158" t="s">
-        <v>17</v>
-      </c>
-      <c r="M158" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>211112518</v>
-      </c>
-      <c r="B159" t="s">
-        <v>55</v>
-      </c>
-      <c r="C159" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159">
-        <v>12069</v>
-      </c>
-      <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" s="1">
-        <v>45949.520509259259</v>
-      </c>
-      <c r="H159" s="1">
-        <v>45889.520520833328</v>
-      </c>
-      <c r="I159" s="2">
-        <v>-55</v>
-      </c>
-      <c r="J159" s="3">
-        <v>624.23</v>
-      </c>
-      <c r="K159" s="3">
-        <v>624.23</v>
-      </c>
-      <c r="L159" t="s">
-        <v>17</v>
-      </c>
-      <c r="M159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>211112531</v>
-      </c>
-      <c r="B160" t="s">
-        <v>56</v>
-      </c>
-      <c r="C160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D160">
-        <v>2025</v>
-      </c>
-      <c r="E160">
-        <v>681</v>
-      </c>
-      <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" s="1">
-        <v>45892</v>
-      </c>
-      <c r="H160" s="1">
-        <v>45862</v>
-      </c>
-      <c r="I160" s="2">
-        <v>2</v>
-      </c>
-      <c r="J160" s="3">
-        <v>-13.55</v>
-      </c>
-      <c r="K160" s="3">
-        <v>-13.55</v>
-      </c>
-      <c r="L160" t="s">
-        <v>17</v>
-      </c>
-      <c r="M160" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>211112531</v>
-      </c>
-      <c r="B161" t="s">
-        <v>56</v>
-      </c>
-      <c r="C161" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161">
-        <v>11028</v>
-      </c>
-      <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" s="1">
-        <v>45893.474282407406</v>
-      </c>
-      <c r="H161" s="1">
-        <v>45863.474293981482</v>
-      </c>
-      <c r="I161" s="2">
-        <v>1</v>
-      </c>
-      <c r="J161" s="3">
-        <v>221.74</v>
-      </c>
-      <c r="K161" s="3">
-        <v>221.74</v>
-      </c>
-      <c r="L161" t="s">
-        <v>17</v>
-      </c>
-      <c r="M161" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>211112531</v>
-      </c>
-      <c r="B162" t="s">
-        <v>56</v>
-      </c>
-      <c r="C162" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162">
-        <v>11383</v>
-      </c>
-      <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" s="1">
-        <v>45903.496435185181</v>
-      </c>
-      <c r="H162" s="1">
-        <v>45873.497210648144</v>
-      </c>
-      <c r="I162" s="2">
-        <v>-9</v>
-      </c>
-      <c r="J162" s="3">
-        <v>236.21</v>
-      </c>
-      <c r="K162" s="3">
-        <v>236.21</v>
-      </c>
-      <c r="L162" t="s">
-        <v>17</v>
-      </c>
-      <c r="M162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>211112531</v>
-      </c>
-      <c r="B163" t="s">
-        <v>56</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163">
-        <v>11813</v>
-      </c>
-      <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" s="1">
-        <v>45912.512372685182</v>
-      </c>
-      <c r="H163" s="1">
-        <v>45882.512384259258</v>
-      </c>
-      <c r="I163" s="2">
-        <v>-18</v>
-      </c>
-      <c r="J163" s="3">
-        <v>110.37</v>
-      </c>
-      <c r="K163" s="3">
-        <v>110.37</v>
-      </c>
-      <c r="L163" t="s">
-        <v>17</v>
-      </c>
-      <c r="M163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>211112531</v>
-      </c>
-      <c r="B164" t="s">
-        <v>56</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164">
-        <v>11935</v>
-      </c>
-      <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" s="1">
-        <v>45913.654675925922</v>
-      </c>
-      <c r="H164" s="1">
-        <v>45883.654907407406</v>
-      </c>
-      <c r="I164" s="2">
-        <v>-19</v>
-      </c>
-      <c r="J164" s="3">
-        <v>71.320000000000007</v>
-      </c>
-      <c r="K164" s="3">
-        <v>71.320000000000007</v>
-      </c>
-      <c r="L164" t="s">
-        <v>17</v>
-      </c>
-      <c r="M164" t="s">
         <v>19</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F81AE58-5CD6-4964-B53C-0799EED3B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15B32A2-55C7-45A8-B86E-26C8011F212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="60">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Produtos Alimentares, Carina, Lda.</t>
-  </si>
-  <si>
-    <t>Cascata Risonha, Lda.</t>
   </si>
   <si>
     <t>Jupitergália, Lda</t>
@@ -593,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A2" sqref="A2:M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +649,7 @@
         <v>211110034</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -673,7 +670,7 @@
         <v>45842</v>
       </c>
       <c r="I2" s="2">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3">
         <v>-4.08</v>
@@ -685,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -693,7 +690,7 @@
         <v>211110034</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -714,7 +711,7 @@
         <v>45842.493854166663</v>
       </c>
       <c r="I3" s="2">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J3" s="3">
         <v>323.56</v>
@@ -726,7 +723,7 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -734,7 +731,7 @@
         <v>211110034</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -755,7 +752,7 @@
         <v>45853</v>
       </c>
       <c r="I4" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3">
         <v>-6.62</v>
@@ -775,7 +772,7 @@
         <v>211110034</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -796,7 +793,7 @@
         <v>45853.631354166668</v>
       </c>
       <c r="I5" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>524.56000000000006</v>
@@ -816,7 +813,7 @@
         <v>211110034</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -837,7 +834,7 @@
         <v>45888</v>
       </c>
       <c r="I6" s="2">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="J6" s="3">
         <v>-6.7700000000000005</v>
@@ -857,7 +854,7 @@
         <v>211110034</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -878,7 +875,7 @@
         <v>45888.539293981477</v>
       </c>
       <c r="I7" s="2">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="J7" s="3">
         <v>535.35</v>
@@ -919,7 +916,7 @@
         <v>45869.506041666667</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J8" s="3">
         <v>470.6</v>
@@ -931,7 +928,7 @@
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -960,7 +957,7 @@
         <v>45889.572592592587</v>
       </c>
       <c r="I9" s="2">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="J9" s="3">
         <v>227.44</v>
@@ -977,10 +974,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>211110434</v>
+        <v>211110102</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -989,25 +986,25 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>11962</v>
+        <v>12520</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45917.510150462964</v>
+        <v>45947.45107638889</v>
       </c>
       <c r="H10" s="1">
-        <v>45887.511157407404</v>
+        <v>45902.451412037037</v>
       </c>
       <c r="I10" s="2">
-        <v>-18</v>
+        <v>-34</v>
       </c>
       <c r="J10" s="3">
-        <v>397.76</v>
+        <v>775.91</v>
       </c>
       <c r="K10" s="3">
-        <v>397.76</v>
+        <v>775.91</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1018,10 +1015,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>211110574</v>
+        <v>211110434</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1030,25 +1027,25 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>12254</v>
+        <v>11962</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45925.367962962962</v>
+        <v>45917.510150462964</v>
       </c>
       <c r="H11" s="1">
-        <v>45895.367962962962</v>
+        <v>45887.511157407404</v>
       </c>
       <c r="I11" s="2">
-        <v>-26</v>
+        <v>-4</v>
       </c>
       <c r="J11" s="3">
-        <v>716.14</v>
+        <v>397.76</v>
       </c>
       <c r="K11" s="3">
-        <v>716.14</v>
+        <v>397.76</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1059,10 +1056,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>211110681</v>
+        <v>211110574</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1071,39 +1068,39 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>10430</v>
+        <v>12254</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45878.592557870368</v>
+        <v>45925.367962962962</v>
       </c>
       <c r="H12" s="1">
-        <v>45848.592557870368</v>
+        <v>45895.367962962962</v>
       </c>
       <c r="I12" s="2">
-        <v>21</v>
+        <v>-12</v>
       </c>
       <c r="J12" s="3">
-        <v>964.74</v>
+        <v>716.14</v>
       </c>
       <c r="K12" s="3">
-        <v>7.7700000000000005</v>
+        <v>716.14</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211110681</v>
+        <v>211110574</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1112,107 +1109,107 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>11015</v>
+        <v>12660</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45893.298807870371</v>
+        <v>45935.466979166667</v>
       </c>
       <c r="H13" s="1">
-        <v>45863.300034722219</v>
+        <v>45905.467291666668</v>
       </c>
       <c r="I13" s="2">
-        <v>6</v>
+        <v>-22</v>
       </c>
       <c r="J13" s="3">
-        <v>2446.73</v>
+        <v>601.41</v>
       </c>
       <c r="K13" s="3">
-        <v>2446.73</v>
+        <v>601.41</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211110903</v>
+        <v>211110574</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14">
-        <v>533</v>
+        <v>12817</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45873</v>
+        <v>45940.605277777773</v>
       </c>
       <c r="H14" s="1">
-        <v>45866</v>
+        <v>45910.607453703698</v>
       </c>
       <c r="I14" s="2">
-        <v>26</v>
+        <v>-27</v>
       </c>
       <c r="J14" s="3">
-        <v>-50.85</v>
+        <v>520.49</v>
       </c>
       <c r="K14" s="3">
-        <v>-50.85</v>
+        <v>520.49</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>211110903</v>
+        <v>211110681</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>711</v>
+        <v>11015</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45875</v>
+        <v>45893.298807870371</v>
       </c>
       <c r="H15" s="1">
-        <v>45868</v>
+        <v>45863.300034722219</v>
       </c>
       <c r="I15" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J15" s="3">
-        <v>-100.23</v>
+        <v>2446.73</v>
       </c>
       <c r="K15" s="3">
-        <v>-100.23</v>
+        <v>2446.73</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1223,92 +1220,92 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211110903</v>
+        <v>211110681</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>542</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45880</v>
+        <v>45912</v>
       </c>
       <c r="H16" s="1">
-        <v>45873</v>
+        <v>45882</v>
       </c>
       <c r="I16" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>-67.31</v>
+        <v>-30.75</v>
       </c>
       <c r="K16" s="3">
-        <v>-67.31</v>
+        <v>-30.75</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211110903</v>
+        <v>211110681</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>752</v>
+        <v>12507</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45888</v>
+        <v>45932.39262731481</v>
       </c>
       <c r="H17" s="1">
-        <v>45881</v>
+        <v>45902.39262731481</v>
       </c>
       <c r="I17" s="2">
-        <v>11</v>
+        <v>-19</v>
       </c>
       <c r="J17" s="3">
-        <v>-100.91</v>
+        <v>1883.08</v>
       </c>
       <c r="K17" s="3">
-        <v>-100.91</v>
+        <v>1883.08</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>211110903</v>
+        <v>211110681</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1317,31 +1314,31 @@
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>757</v>
+        <v>832</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45890</v>
+        <v>45933</v>
       </c>
       <c r="H18" s="1">
-        <v>45883</v>
+        <v>45903</v>
       </c>
       <c r="I18" s="2">
-        <v>9</v>
+        <v>-20</v>
       </c>
       <c r="J18" s="3">
-        <v>-63.35</v>
+        <v>-4.8</v>
       </c>
       <c r="K18" s="3">
-        <v>-63.35</v>
+        <v>-4.8</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1354,35 +1351,35 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19">
-        <v>2025</v>
+      <c r="D19" t="s">
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>786</v>
+        <v>533</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45902</v>
+        <v>45873</v>
       </c>
       <c r="H19" s="1">
-        <v>45895</v>
+        <v>45866</v>
       </c>
       <c r="I19" s="2">
-        <v>-3</v>
+        <v>40</v>
       </c>
       <c r="J19" s="3">
-        <v>-388.25</v>
+        <v>-50.85</v>
       </c>
       <c r="K19" s="3">
-        <v>-388.25</v>
+        <v>-50.85</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1393,154 +1390,154 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>2025</v>
       </c>
       <c r="E20">
-        <v>12357</v>
+        <v>711</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45904.381412037037</v>
+        <v>45875</v>
       </c>
       <c r="H20" s="1">
-        <v>45897.384513888886</v>
+        <v>45868</v>
       </c>
       <c r="I20" s="2">
-        <v>-5</v>
+        <v>38</v>
       </c>
       <c r="J20" s="3">
-        <v>848.88</v>
+        <v>-100.23</v>
       </c>
       <c r="K20" s="3">
-        <v>848.88</v>
+        <v>-100.23</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211111373</v>
+        <v>211110903</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21">
-        <v>11785</v>
+        <v>542</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45882.399768518517</v>
+        <v>45880</v>
       </c>
       <c r="H21" s="1">
-        <v>45882.399768518517</v>
+        <v>45873</v>
       </c>
       <c r="I21" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J21" s="3">
-        <v>240.19</v>
+        <v>-67.31</v>
       </c>
       <c r="K21" s="3">
-        <v>240.19</v>
+        <v>-67.31</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
-        <v>15</v>
+      <c r="D22">
+        <v>2025</v>
       </c>
       <c r="E22">
-        <v>275</v>
+        <v>752</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45763</v>
+        <v>45888</v>
       </c>
       <c r="H22" s="1">
-        <v>45728</v>
+        <v>45881</v>
       </c>
       <c r="I22" s="2">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="J22" s="3">
-        <v>-112.59</v>
+        <v>-100.91</v>
       </c>
       <c r="K22" s="3">
-        <v>-22.1</v>
+        <v>-100.91</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
+      <c r="D23">
+        <v>2025</v>
       </c>
       <c r="E23">
-        <v>514</v>
+        <v>757</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45877</v>
+        <v>45890</v>
       </c>
       <c r="H23" s="1">
-        <v>45842</v>
+        <v>45883</v>
       </c>
       <c r="I23" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J23" s="3">
-        <v>-2.12</v>
+        <v>-63.35</v>
       </c>
       <c r="K23" s="3">
-        <v>-2.12</v>
+        <v>-63.35</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1551,92 +1548,92 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>2025</v>
       </c>
       <c r="E24">
-        <v>10988</v>
+        <v>786</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45897.491388888884</v>
+        <v>45902</v>
       </c>
       <c r="H24" s="1">
-        <v>45862.491388888884</v>
+        <v>45895</v>
       </c>
       <c r="I24" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J24" s="3">
-        <v>1073.29</v>
+        <v>-388.25</v>
       </c>
       <c r="K24" s="3">
-        <v>1073.29</v>
+        <v>-388.25</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>2025</v>
       </c>
       <c r="E25">
-        <v>11560</v>
+        <v>804</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45911.437928240739</v>
+        <v>45903</v>
       </c>
       <c r="H25" s="1">
-        <v>45876.438402777778</v>
+        <v>45896</v>
       </c>
       <c r="I25" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="J25" s="3">
-        <v>673.4</v>
+        <v>-82.94</v>
       </c>
       <c r="K25" s="3">
-        <v>673.4</v>
+        <v>-82.94</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1645,25 +1642,25 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>11778</v>
+        <v>12682</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45917.361284722218</v>
+        <v>45915.430173611108</v>
       </c>
       <c r="H26" s="1">
-        <v>45882.361284722218</v>
+        <v>45908.430185185185</v>
       </c>
       <c r="I26" s="2">
-        <v>-18</v>
+        <v>-2</v>
       </c>
       <c r="J26" s="3">
-        <v>382.83</v>
+        <v>4481.24</v>
       </c>
       <c r="K26" s="3">
-        <v>382.83</v>
+        <v>4481.24</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1674,10 +1671,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1686,25 +1683,25 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>12107</v>
+        <v>12759</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45925.479895833334</v>
+        <v>45916.483055555553</v>
       </c>
       <c r="H27" s="1">
-        <v>45890.479895833334</v>
+        <v>45909.483055555553</v>
       </c>
       <c r="I27" s="2">
-        <v>-26</v>
+        <v>-3</v>
       </c>
       <c r="J27" s="3">
-        <v>195.82</v>
+        <v>427.02</v>
       </c>
       <c r="K27" s="3">
-        <v>195.82</v>
+        <v>427.02</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1715,10 +1712,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1727,25 +1724,25 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>12360</v>
+        <v>12793</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45932.391550925924</v>
+        <v>45917.459386574075</v>
       </c>
       <c r="H28" s="1">
-        <v>45897.391562500001</v>
+        <v>45910.459398148145</v>
       </c>
       <c r="I28" s="2">
-        <v>-33</v>
+        <v>-4</v>
       </c>
       <c r="J28" s="3">
-        <v>197.81</v>
+        <v>3205.06</v>
       </c>
       <c r="K28" s="3">
-        <v>197.81</v>
+        <v>3205.06</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1756,10 +1753,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111720</v>
+        <v>211111373</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1768,39 +1765,39 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>10727</v>
+        <v>11785</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45916.281041666662</v>
+        <v>45882.399768518517</v>
       </c>
       <c r="H29" s="1">
-        <v>45856.283530092587</v>
+        <v>45882.399768518517</v>
       </c>
       <c r="I29" s="2">
-        <v>-17</v>
+        <v>31</v>
       </c>
       <c r="J29" s="3">
-        <v>199.79</v>
+        <v>240.19</v>
       </c>
       <c r="K29" s="3">
-        <v>199.79</v>
+        <v>240.19</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1809,39 +1806,39 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>11012</v>
+        <v>10988</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45923.282870370371</v>
+        <v>45897.491388888884</v>
       </c>
       <c r="H30" s="1">
-        <v>45863.28329861111</v>
+        <v>45862.491388888884</v>
       </c>
       <c r="I30" s="2">
-        <v>-24</v>
+        <v>16</v>
       </c>
       <c r="J30" s="3">
-        <v>1478.6200000000001</v>
+        <v>1073.29</v>
       </c>
       <c r="K30" s="3">
-        <v>1478.6200000000001</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1850,80 +1847,80 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>12399</v>
+        <v>11560</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45958.36681712963</v>
+        <v>45911.437928240739</v>
       </c>
       <c r="H31" s="1">
-        <v>45898.3668287037</v>
+        <v>45876.438402777778</v>
       </c>
       <c r="I31" s="2">
-        <v>-59</v>
+        <v>2</v>
       </c>
       <c r="J31" s="3">
-        <v>615.18000000000006</v>
+        <v>673.4</v>
       </c>
       <c r="K31" s="3">
-        <v>615.18000000000006</v>
+        <v>673.4</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>630</v>
+        <v>11778</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45876</v>
+        <v>45917.361284722218</v>
       </c>
       <c r="H32" s="1">
-        <v>45846</v>
+        <v>45882.361284722218</v>
       </c>
       <c r="I32" s="2">
-        <v>23</v>
+        <v>-4</v>
       </c>
       <c r="J32" s="3">
-        <v>-89.27</v>
+        <v>382.83</v>
       </c>
       <c r="K32" s="3">
-        <v>-89.27</v>
+        <v>382.83</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1932,25 +1929,25 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>11604</v>
+        <v>12107</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45907.310011574074</v>
+        <v>45925.479895833334</v>
       </c>
       <c r="H33" s="1">
-        <v>45877.31108796296</v>
+        <v>45890.479895833334</v>
       </c>
       <c r="I33" s="2">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="J33" s="3">
-        <v>625.66</v>
+        <v>195.82</v>
       </c>
       <c r="K33" s="3">
-        <v>625.66</v>
+        <v>195.82</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -1961,10 +1958,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -1973,25 +1970,25 @@
         <v>2025</v>
       </c>
       <c r="E34">
-        <v>731</v>
+        <v>809</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45908</v>
+        <v>45932</v>
       </c>
       <c r="H34" s="1">
-        <v>45878</v>
+        <v>45897</v>
       </c>
       <c r="I34" s="2">
-        <v>-9</v>
+        <v>-19</v>
       </c>
       <c r="J34" s="3">
-        <v>-0.85</v>
+        <v>-0.97</v>
       </c>
       <c r="K34" s="3">
-        <v>-0.85</v>
+        <v>-0.97</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2002,10 +1999,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2014,25 +2011,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>11767</v>
+        <v>12360</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45911.605520833335</v>
+        <v>45932.391550925924</v>
       </c>
       <c r="H35" s="1">
-        <v>45881.605520833335</v>
+        <v>45897.391562500001</v>
       </c>
       <c r="I35" s="2">
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="J35" s="3">
-        <v>468.84000000000003</v>
+        <v>197.81</v>
       </c>
       <c r="K35" s="3">
-        <v>468.84000000000003</v>
+        <v>197.81</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2043,37 +2040,37 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
       </c>
-      <c r="D36">
-        <v>2025</v>
+      <c r="D36" t="s">
+        <v>15</v>
       </c>
       <c r="E36">
-        <v>755</v>
+        <v>568</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45912</v>
+        <v>45939</v>
       </c>
       <c r="H36" s="1">
-        <v>45882</v>
+        <v>45904</v>
       </c>
       <c r="I36" s="2">
-        <v>-13</v>
+        <v>-26</v>
       </c>
       <c r="J36" s="3">
-        <v>-4.43</v>
+        <v>-0.52</v>
       </c>
       <c r="K36" s="3">
-        <v>-4.43</v>
+        <v>-0.52</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2084,10 +2081,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2096,25 +2093,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>12163</v>
+        <v>12605</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45921.42423611111</v>
+        <v>45939.432569444441</v>
       </c>
       <c r="H37" s="1">
-        <v>45891.426354166666</v>
+        <v>45904.433935185181</v>
       </c>
       <c r="I37" s="2">
-        <v>-22</v>
+        <v>-26</v>
       </c>
       <c r="J37" s="3">
-        <v>1200.42</v>
+        <v>953.69</v>
       </c>
       <c r="K37" s="3">
-        <v>1200.42</v>
+        <v>953.69</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2125,10 +2122,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111878</v>
+        <v>211111588</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2137,25 +2134,25 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>9935</v>
+        <v>12625</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45899.405474537038</v>
+        <v>45940.365300925921</v>
       </c>
       <c r="H38" s="1">
-        <v>45839.405821759254</v>
+        <v>45905.366354166668</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="J38" s="3">
-        <v>249.19</v>
+        <v>487.36</v>
       </c>
       <c r="K38" s="3">
-        <v>249.19</v>
+        <v>487.36</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2166,10 +2163,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111878</v>
+        <v>211111720</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2178,25 +2175,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>10275</v>
+        <v>10727</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45906.438090277778</v>
+        <v>45916.281041666662</v>
       </c>
       <c r="H39" s="1">
-        <v>45846.438090277778</v>
+        <v>45856.283530092587</v>
       </c>
       <c r="I39" s="2">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="J39" s="3">
-        <v>333.66</v>
+        <v>199.79</v>
       </c>
       <c r="K39" s="3">
-        <v>333.66</v>
+        <v>199.79</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2207,10 +2204,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>211111878</v>
+        <v>211111720</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2219,25 +2216,25 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>10276</v>
+        <v>11012</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45906.438113425924</v>
+        <v>45923.282870370371</v>
       </c>
       <c r="H40" s="1">
-        <v>45846.438125000001</v>
+        <v>45863.28329861111</v>
       </c>
       <c r="I40" s="2">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="J40" s="3">
-        <v>114.07000000000001</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="K40" s="3">
-        <v>114.07000000000001</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -2248,10 +2245,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>211111878</v>
+        <v>211111720</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2260,25 +2257,25 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>10496</v>
+        <v>12399</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45909.601944444439</v>
+        <v>45958.36681712963</v>
       </c>
       <c r="H41" s="1">
-        <v>45849.60251157407</v>
+        <v>45898.3668287037</v>
       </c>
       <c r="I41" s="2">
-        <v>-10</v>
+        <v>-45</v>
       </c>
       <c r="J41" s="3">
-        <v>330.27</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="K41" s="3">
-        <v>330.27</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -2289,10 +2286,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
@@ -2301,66 +2298,66 @@
         <v>2025</v>
       </c>
       <c r="E42">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45913</v>
+        <v>45876</v>
       </c>
       <c r="H42" s="1">
-        <v>45853</v>
+        <v>45846</v>
       </c>
       <c r="I42" s="2">
-        <v>-14</v>
+        <v>37</v>
       </c>
       <c r="J42" s="3">
-        <v>-9.23</v>
+        <v>-89.27</v>
       </c>
       <c r="K42" s="3">
-        <v>-9.23</v>
+        <v>-89.27</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>2025</v>
       </c>
       <c r="E43">
-        <v>10552</v>
+        <v>827</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45913.414108796293</v>
+        <v>45932</v>
       </c>
       <c r="H43" s="1">
-        <v>45853.415949074071</v>
+        <v>45902</v>
       </c>
       <c r="I43" s="2">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="J43" s="3">
-        <v>451.46000000000004</v>
+        <v>-1.77</v>
       </c>
       <c r="K43" s="3">
-        <v>451.46000000000004</v>
+        <v>-1.77</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2371,10 +2368,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2383,25 +2380,25 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>10556</v>
+        <v>12496</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45913.417696759258</v>
+        <v>45932.339016203703</v>
       </c>
       <c r="H44" s="1">
-        <v>45853.418020833335</v>
+        <v>45902.34710648148</v>
       </c>
       <c r="I44" s="2">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="J44" s="3">
-        <v>120.59</v>
+        <v>1799.69</v>
       </c>
       <c r="K44" s="3">
-        <v>120.59</v>
+        <v>1799.69</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2412,10 +2409,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2424,25 +2421,25 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>10719</v>
+        <v>12693</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45915.588217592587</v>
+        <v>45938.456111111111</v>
       </c>
       <c r="H45" s="1">
-        <v>45855.588634259257</v>
+        <v>45908.45612268518</v>
       </c>
       <c r="I45" s="2">
-        <v>-16</v>
+        <v>-25</v>
       </c>
       <c r="J45" s="3">
-        <v>107.66</v>
+        <v>1831.69</v>
       </c>
       <c r="K45" s="3">
-        <v>107.66</v>
+        <v>1831.69</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2453,10 +2450,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2465,25 +2462,25 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>10841</v>
+        <v>12764</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45920.44799768518</v>
+        <v>45940.312048611107</v>
       </c>
       <c r="H46" s="1">
-        <v>45860.450138888889</v>
+        <v>45910.315740740742</v>
       </c>
       <c r="I46" s="2">
-        <v>-21</v>
+        <v>-27</v>
       </c>
       <c r="J46" s="3">
-        <v>391.77</v>
+        <v>564.66</v>
       </c>
       <c r="K46" s="3">
-        <v>391.77</v>
+        <v>564.66</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2506,31 +2503,31 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>10940</v>
+        <v>9935</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45921.562048611107</v>
+        <v>45899.405474537038</v>
       </c>
       <c r="H47" s="1">
-        <v>45861.562060185184</v>
+        <v>45839.405821759254</v>
       </c>
       <c r="I47" s="2">
-        <v>-22</v>
+        <v>14</v>
       </c>
       <c r="J47" s="3">
-        <v>184.52</v>
+        <v>249.19</v>
       </c>
       <c r="K47" s="3">
-        <v>184.52</v>
+        <v>249.19</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2547,31 +2544,31 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>10941</v>
+        <v>10275</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45921.562083333331</v>
+        <v>45906.438090277778</v>
       </c>
       <c r="H48" s="1">
-        <v>45861.562083333331</v>
+        <v>45846.438090277778</v>
       </c>
       <c r="I48" s="2">
-        <v>-22</v>
+        <v>7</v>
       </c>
       <c r="J48" s="3">
-        <v>518.65</v>
+        <v>333.66</v>
       </c>
       <c r="K48" s="3">
-        <v>518.65</v>
+        <v>333.66</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2588,31 +2585,31 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>10942</v>
+        <v>10276</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45921.562106481477</v>
+        <v>45906.438113425924</v>
       </c>
       <c r="H49" s="1">
-        <v>45861.562106481477</v>
+        <v>45846.438125000001</v>
       </c>
       <c r="I49" s="2">
-        <v>-22</v>
+        <v>7</v>
       </c>
       <c r="J49" s="3">
-        <v>325.40000000000003</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="K49" s="3">
-        <v>325.40000000000003</v>
+        <v>114.07000000000001</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2629,31 +2626,31 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>11119</v>
+        <v>10496</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45926.540925925925</v>
+        <v>45909.601944444439</v>
       </c>
       <c r="H50" s="1">
-        <v>45866.540937500002</v>
+        <v>45849.60251157407</v>
       </c>
       <c r="I50" s="2">
-        <v>-27</v>
+        <v>4</v>
       </c>
       <c r="J50" s="3">
-        <v>665</v>
+        <v>330.27</v>
       </c>
       <c r="K50" s="3">
-        <v>665</v>
+        <v>330.27</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2664,31 +2661,31 @@
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>2025</v>
       </c>
       <c r="E51">
-        <v>11120</v>
+        <v>646</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45926.540960648148</v>
+        <v>45913</v>
       </c>
       <c r="H51" s="1">
-        <v>45866.540960648148</v>
+        <v>45853</v>
       </c>
       <c r="I51" s="2">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3">
-        <v>131.55000000000001</v>
+        <v>-9.23</v>
       </c>
       <c r="K51" s="3">
-        <v>131.55000000000001</v>
+        <v>-9.23</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2711,25 +2708,25 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>11186</v>
+        <v>10552</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45927.594328703701</v>
+        <v>45913.414108796293</v>
       </c>
       <c r="H52" s="1">
-        <v>45867.594340277778</v>
+        <v>45853.415949074071</v>
       </c>
       <c r="I52" s="2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>379.86</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="K52" s="3">
-        <v>379.86</v>
+        <v>451.46000000000004</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2752,25 +2749,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>11366</v>
+        <v>10556</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45930.614166666666</v>
+        <v>45913.417696759258</v>
       </c>
       <c r="H53" s="1">
-        <v>45870.614722222221</v>
+        <v>45853.418020833335</v>
       </c>
       <c r="I53" s="2">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>159.29</v>
+        <v>120.59</v>
       </c>
       <c r="K53" s="3">
-        <v>159.29</v>
+        <v>120.59</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2793,25 +2790,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>11369</v>
+        <v>10719</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45930.684340277774</v>
+        <v>45915.588217592587</v>
       </c>
       <c r="H54" s="1">
-        <v>45870.684976851851</v>
+        <v>45855.588634259257</v>
       </c>
       <c r="I54" s="2">
-        <v>-31</v>
+        <v>-2</v>
       </c>
       <c r="J54" s="3">
-        <v>106.19</v>
+        <v>107.66</v>
       </c>
       <c r="K54" s="3">
-        <v>106.19</v>
+        <v>107.66</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2834,25 +2831,25 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>11428</v>
+        <v>10841</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45934.485219907408</v>
+        <v>45920.44799768518</v>
       </c>
       <c r="H55" s="1">
-        <v>45874.485219907408</v>
+        <v>45860.450138888889</v>
       </c>
       <c r="I55" s="2">
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="J55" s="3">
-        <v>56.480000000000004</v>
+        <v>391.77</v>
       </c>
       <c r="K55" s="3">
-        <v>56.480000000000004</v>
+        <v>391.77</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2875,25 +2872,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>11429</v>
+        <v>10940</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45934.485231481478</v>
+        <v>45921.562048611107</v>
       </c>
       <c r="H56" s="1">
-        <v>45874.485231481478</v>
+        <v>45861.562060185184</v>
       </c>
       <c r="I56" s="2">
-        <v>-35</v>
+        <v>-8</v>
       </c>
       <c r="J56" s="3">
-        <v>472.14</v>
+        <v>184.52</v>
       </c>
       <c r="K56" s="3">
-        <v>472.14</v>
+        <v>184.52</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2916,25 +2913,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>11430</v>
+        <v>10941</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45934.485266203701</v>
+        <v>45921.562083333331</v>
       </c>
       <c r="H57" s="1">
-        <v>45874.485266203701</v>
+        <v>45861.562083333331</v>
       </c>
       <c r="I57" s="2">
-        <v>-35</v>
+        <v>-8</v>
       </c>
       <c r="J57" s="3">
-        <v>405.8</v>
+        <v>518.65</v>
       </c>
       <c r="K57" s="3">
-        <v>405.8</v>
+        <v>518.65</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2951,31 +2948,31 @@
         <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>737</v>
+        <v>10942</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45938</v>
+        <v>45921.562106481477</v>
       </c>
       <c r="H58" s="1">
-        <v>45878</v>
+        <v>45861.562106481477</v>
       </c>
       <c r="I58" s="2">
-        <v>-39</v>
+        <v>-8</v>
       </c>
       <c r="J58" s="3">
-        <v>-22.990000000000002</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="K58" s="3">
-        <v>-22.990000000000002</v>
+        <v>325.40000000000003</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -2998,25 +2995,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>11717</v>
+        <v>11119</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45940.541759259257</v>
+        <v>45926.540925925925</v>
       </c>
       <c r="H59" s="1">
-        <v>45880.541770833333</v>
+        <v>45866.540937500002</v>
       </c>
       <c r="I59" s="2">
-        <v>-41</v>
+        <v>-13</v>
       </c>
       <c r="J59" s="3">
-        <v>100.79</v>
+        <v>665</v>
       </c>
       <c r="K59" s="3">
-        <v>100.79</v>
+        <v>665</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3033,31 +3030,31 @@
         <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>751</v>
+        <v>11120</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45941</v>
+        <v>45926.540960648148</v>
       </c>
       <c r="H60" s="1">
-        <v>45881</v>
+        <v>45866.540960648148</v>
       </c>
       <c r="I60" s="2">
-        <v>-42</v>
+        <v>-13</v>
       </c>
       <c r="J60" s="3">
-        <v>-122.53</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="K60" s="3">
-        <v>-122.53</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3080,25 +3077,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>11758</v>
+        <v>11186</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45941.499224537038</v>
+        <v>45927.594328703701</v>
       </c>
       <c r="H61" s="1">
-        <v>45881.499236111107</v>
+        <v>45867.594340277778</v>
       </c>
       <c r="I61" s="2">
-        <v>-42</v>
+        <v>-14</v>
       </c>
       <c r="J61" s="3">
-        <v>304.79000000000002</v>
+        <v>379.86</v>
       </c>
       <c r="K61" s="3">
-        <v>304.79000000000002</v>
+        <v>379.86</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3115,31 +3112,31 @@
         <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
       </c>
       <c r="E62">
-        <v>753</v>
+        <v>11366</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45942</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H62" s="1">
-        <v>45882</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I62" s="2">
-        <v>-43</v>
+        <v>-17</v>
       </c>
       <c r="J62" s="3">
-        <v>-10.93</v>
+        <v>159.29</v>
       </c>
       <c r="K62" s="3">
-        <v>-10.93</v>
+        <v>159.29</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3162,25 +3159,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>11922</v>
+        <v>11369</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45943.619444444441</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H63" s="1">
-        <v>45883.620034722218</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I63" s="2">
-        <v>-44</v>
+        <v>-17</v>
       </c>
       <c r="J63" s="3">
-        <v>97.43</v>
+        <v>106.19</v>
       </c>
       <c r="K63" s="3">
-        <v>97.43</v>
+        <v>106.19</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3203,25 +3200,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>11999</v>
+        <v>11428</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45948.526076388887</v>
+        <v>45934.485219907408</v>
       </c>
       <c r="H64" s="1">
-        <v>45888.526076388887</v>
+        <v>45874.485219907408</v>
       </c>
       <c r="I64" s="2">
-        <v>-49</v>
+        <v>-21</v>
       </c>
       <c r="J64" s="3">
-        <v>53.63</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="K64" s="3">
-        <v>53.63</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3244,25 +3241,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>12000</v>
+        <v>11429</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45948.526099537034</v>
+        <v>45934.485231481478</v>
       </c>
       <c r="H65" s="1">
-        <v>45888.526099537034</v>
+        <v>45874.485231481478</v>
       </c>
       <c r="I65" s="2">
-        <v>-49</v>
+        <v>-21</v>
       </c>
       <c r="J65" s="3">
-        <v>140.37</v>
+        <v>472.14</v>
       </c>
       <c r="K65" s="3">
-        <v>140.37</v>
+        <v>472.14</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3285,25 +3282,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>12001</v>
+        <v>11430</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45948.52612268518</v>
+        <v>45934.485266203701</v>
       </c>
       <c r="H66" s="1">
-        <v>45888.52612268518</v>
+        <v>45874.485266203701</v>
       </c>
       <c r="I66" s="2">
-        <v>-49</v>
+        <v>-21</v>
       </c>
       <c r="J66" s="3">
-        <v>212.85</v>
+        <v>405.8</v>
       </c>
       <c r="K66" s="3">
-        <v>212.85</v>
+        <v>405.8</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3326,25 +3323,25 @@
         <v>2025</v>
       </c>
       <c r="E67">
-        <v>774</v>
+        <v>737</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45950</v>
+        <v>45938</v>
       </c>
       <c r="H67" s="1">
-        <v>45890</v>
+        <v>45878</v>
       </c>
       <c r="I67" s="2">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="J67" s="3">
-        <v>-56.480000000000004</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="K67" s="3">
-        <v>-56.480000000000004</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3361,31 +3358,31 @@
         <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
       </c>
       <c r="E68">
-        <v>775</v>
+        <v>11717</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45950</v>
+        <v>45940.541759259257</v>
       </c>
       <c r="H68" s="1">
-        <v>45890</v>
+        <v>45880.541770833333</v>
       </c>
       <c r="I68" s="2">
-        <v>-51</v>
+        <v>-27</v>
       </c>
       <c r="J68" s="3">
-        <v>-4.8500000000000005</v>
+        <v>100.79</v>
       </c>
       <c r="K68" s="3">
-        <v>-4.8500000000000005</v>
+        <v>100.79</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3402,31 +3399,31 @@
         <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
       </c>
       <c r="E69">
-        <v>12127</v>
+        <v>751</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45950.595092592594</v>
+        <v>45941</v>
       </c>
       <c r="H69" s="1">
-        <v>45890.595092592594</v>
+        <v>45881</v>
       </c>
       <c r="I69" s="2">
-        <v>-51</v>
+        <v>-28</v>
       </c>
       <c r="J69" s="3">
-        <v>54.92</v>
+        <v>-122.53</v>
       </c>
       <c r="K69" s="3">
-        <v>54.92</v>
+        <v>-122.53</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3449,25 +3446,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>12215</v>
+        <v>11758</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45951.693171296298</v>
+        <v>45941.499224537038</v>
       </c>
       <c r="H70" s="1">
-        <v>45891.693749999999</v>
+        <v>45881.499236111107</v>
       </c>
       <c r="I70" s="2">
-        <v>-52</v>
+        <v>-28</v>
       </c>
       <c r="J70" s="3">
-        <v>90.44</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="K70" s="3">
-        <v>90.44</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3484,31 +3481,31 @@
         <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>2025</v>
       </c>
       <c r="E71">
-        <v>12220</v>
+        <v>753</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45954.431423611109</v>
+        <v>45942</v>
       </c>
       <c r="H71" s="1">
-        <v>45894.431423611109</v>
+        <v>45882</v>
       </c>
       <c r="I71" s="2">
-        <v>-55</v>
+        <v>-29</v>
       </c>
       <c r="J71" s="3">
-        <v>471.83</v>
+        <v>-10.93</v>
       </c>
       <c r="K71" s="3">
-        <v>471.83</v>
+        <v>-10.93</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3531,25 +3528,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>12221</v>
+        <v>11922</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45954.431446759256</v>
+        <v>45943.619444444441</v>
       </c>
       <c r="H72" s="1">
-        <v>45894.431446759256</v>
+        <v>45883.620034722218</v>
       </c>
       <c r="I72" s="2">
-        <v>-55</v>
+        <v>-30</v>
       </c>
       <c r="J72" s="3">
-        <v>219.04</v>
+        <v>97.43</v>
       </c>
       <c r="K72" s="3">
-        <v>219.04</v>
+        <v>97.43</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3572,25 +3569,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>12247</v>
+        <v>11999</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45955.347881944443</v>
+        <v>45948.526076388887</v>
       </c>
       <c r="H73" s="1">
-        <v>45895.347893518519</v>
+        <v>45888.526076388887</v>
       </c>
       <c r="I73" s="2">
-        <v>-56</v>
+        <v>-35</v>
       </c>
       <c r="J73" s="3">
-        <v>289.57</v>
+        <v>53.63</v>
       </c>
       <c r="K73" s="3">
-        <v>289.57</v>
+        <v>53.63</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3613,25 +3610,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>12366</v>
+        <v>12000</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45957.397465277776</v>
+        <v>45948.526099537034</v>
       </c>
       <c r="H74" s="1">
-        <v>45897.397476851853</v>
+        <v>45888.526099537034</v>
       </c>
       <c r="I74" s="2">
-        <v>-58</v>
+        <v>-35</v>
       </c>
       <c r="J74" s="3">
-        <v>208.44</v>
+        <v>140.37</v>
       </c>
       <c r="K74" s="3">
-        <v>208.44</v>
+        <v>140.37</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3642,10 +3639,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3654,66 +3651,66 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>10687</v>
+        <v>12001</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45885.468888888885</v>
+        <v>45948.52612268518</v>
       </c>
       <c r="H75" s="1">
-        <v>45855.468888888885</v>
+        <v>45888.52612268518</v>
       </c>
       <c r="I75" s="2">
-        <v>14</v>
+        <v>-35</v>
       </c>
       <c r="J75" s="3">
-        <v>542.13</v>
+        <v>212.85</v>
       </c>
       <c r="K75" s="3">
-        <v>542.13</v>
+        <v>212.85</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
       </c>
       <c r="E76">
-        <v>11880</v>
+        <v>774</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45913.40384259259</v>
+        <v>45950</v>
       </c>
       <c r="H76" s="1">
-        <v>45883.403854166667</v>
+        <v>45890</v>
       </c>
       <c r="I76" s="2">
-        <v>-14</v>
+        <v>-37</v>
       </c>
       <c r="J76" s="3">
-        <v>248.76000000000002</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="K76" s="3">
-        <v>248.76000000000002</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3724,37 +3721,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
       </c>
       <c r="E77">
-        <v>11881</v>
+        <v>775</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45913.405740740738</v>
+        <v>45950</v>
       </c>
       <c r="H77" s="1">
-        <v>45883.405740740738</v>
+        <v>45890</v>
       </c>
       <c r="I77" s="2">
-        <v>-14</v>
+        <v>-37</v>
       </c>
       <c r="J77" s="3">
-        <v>115.78</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="K77" s="3">
-        <v>115.78</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3765,10 +3762,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3777,25 +3774,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>12370</v>
+        <v>12127</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45927.431030092594</v>
+        <v>45950.595092592594</v>
       </c>
       <c r="H78" s="1">
-        <v>45897.431041666663</v>
+        <v>45890.595092592594</v>
       </c>
       <c r="I78" s="2">
-        <v>-28</v>
+        <v>-37</v>
       </c>
       <c r="J78" s="3">
-        <v>424.02</v>
+        <v>54.92</v>
       </c>
       <c r="K78" s="3">
-        <v>424.02</v>
+        <v>54.92</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3806,174 +3803,174 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79">
-        <v>326</v>
+        <v>12215</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45777</v>
+        <v>45951.693171296298</v>
       </c>
       <c r="H79" s="1">
-        <v>45747</v>
+        <v>45891.693749999999</v>
       </c>
       <c r="I79" s="2">
-        <v>122</v>
+        <v>-38</v>
       </c>
       <c r="J79" s="3">
-        <v>-22</v>
+        <v>90.44</v>
       </c>
       <c r="K79" s="3">
-        <v>-22</v>
+        <v>90.44</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80">
-        <v>327</v>
+        <v>12220</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45777</v>
+        <v>45954.431423611109</v>
       </c>
       <c r="H80" s="1">
-        <v>45747</v>
+        <v>45894.431423611109</v>
       </c>
       <c r="I80" s="2">
-        <v>122</v>
+        <v>-41</v>
       </c>
       <c r="J80" s="3">
-        <v>-27.45</v>
+        <v>471.83</v>
       </c>
       <c r="K80" s="3">
-        <v>-27.45</v>
+        <v>471.83</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81">
-        <v>328</v>
+        <v>12221</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45777</v>
+        <v>45954.431446759256</v>
       </c>
       <c r="H81" s="1">
-        <v>45747</v>
+        <v>45894.431446759256</v>
       </c>
       <c r="I81" s="2">
-        <v>122</v>
+        <v>-41</v>
       </c>
       <c r="J81" s="3">
-        <v>-5.73</v>
+        <v>219.04</v>
       </c>
       <c r="K81" s="3">
-        <v>-5.73</v>
+        <v>219.04</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>546</v>
+        <v>12247</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45879</v>
+        <v>45955.347881944443</v>
       </c>
       <c r="H82" s="1">
-        <v>45819</v>
+        <v>45895.347893518519</v>
       </c>
       <c r="I82" s="2">
-        <v>20</v>
+        <v>-42</v>
       </c>
       <c r="J82" s="3">
-        <v>-680.83</v>
+        <v>289.57</v>
       </c>
       <c r="K82" s="3">
-        <v>-680.83</v>
+        <v>289.57</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3982,39 +3979,39 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>9182</v>
+        <v>12366</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45881.340092592589</v>
+        <v>45957.397465277776</v>
       </c>
       <c r="H83" s="1">
-        <v>45821.340949074074</v>
+        <v>45897.397476851853</v>
       </c>
       <c r="I83" s="2">
-        <v>18</v>
+        <v>-44</v>
       </c>
       <c r="J83" s="3">
-        <v>968.26</v>
+        <v>208.44</v>
       </c>
       <c r="K83" s="3">
-        <v>968.26</v>
+        <v>208.44</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
@@ -4023,39 +4020,39 @@
         <v>2025</v>
       </c>
       <c r="E84">
-        <v>569</v>
+        <v>824</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45885</v>
+        <v>45961</v>
       </c>
       <c r="H84" s="1">
-        <v>45825</v>
+        <v>45901</v>
       </c>
       <c r="I84" s="2">
-        <v>14</v>
+        <v>-48</v>
       </c>
       <c r="J84" s="3">
-        <v>-69.09</v>
+        <v>-4.82</v>
       </c>
       <c r="K84" s="3">
-        <v>-69.09</v>
+        <v>-4.82</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4064,39 +4061,39 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>9796</v>
+        <v>12471</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45894.634768518517</v>
+        <v>45961.437303240738</v>
       </c>
       <c r="H85" s="1">
-        <v>45834.635682870372</v>
+        <v>45901.437303240738</v>
       </c>
       <c r="I85" s="2">
-        <v>5</v>
+        <v>-48</v>
       </c>
       <c r="J85" s="3">
-        <v>107.37</v>
+        <v>513.09</v>
       </c>
       <c r="K85" s="3">
-        <v>107.37</v>
+        <v>513.09</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4105,25 +4102,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>10369</v>
+        <v>12509</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45908.309050925927</v>
+        <v>45962.411041666666</v>
       </c>
       <c r="H86" s="1">
-        <v>45848.309965277775</v>
+        <v>45902.411759259259</v>
       </c>
       <c r="I86" s="2">
-        <v>-9</v>
+        <v>-49</v>
       </c>
       <c r="J86" s="3">
-        <v>1512.89</v>
+        <v>128.47</v>
       </c>
       <c r="K86" s="3">
-        <v>1512.89</v>
+        <v>128.47</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4134,37 +4131,37 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>12568</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45922</v>
+        <v>45963.458773148144</v>
       </c>
       <c r="H87" s="1">
-        <v>45862</v>
+        <v>45903.458773148144</v>
       </c>
       <c r="I87" s="2">
-        <v>-23</v>
+        <v>-50</v>
       </c>
       <c r="J87" s="3">
-        <v>-15.38</v>
+        <v>50.21</v>
       </c>
       <c r="K87" s="3">
-        <v>-15.38</v>
+        <v>50.21</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4175,37 +4172,37 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
       </c>
       <c r="E88">
-        <v>682</v>
+        <v>12618</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45922</v>
+        <v>45964.490069444444</v>
       </c>
       <c r="H88" s="1">
-        <v>45862</v>
+        <v>45904.490740740737</v>
       </c>
       <c r="I88" s="2">
-        <v>-23</v>
+        <v>-51</v>
       </c>
       <c r="J88" s="3">
-        <v>-606.93000000000006</v>
+        <v>286.05</v>
       </c>
       <c r="K88" s="3">
-        <v>-606.93000000000006</v>
+        <v>286.05</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4216,10 +4213,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4228,25 +4225,25 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>11013</v>
+        <v>12691</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45923.283518518518</v>
+        <v>45968.456053240741</v>
       </c>
       <c r="H89" s="1">
-        <v>45863.287939814814</v>
+        <v>45908.456064814811</v>
       </c>
       <c r="I89" s="2">
-        <v>-24</v>
+        <v>-55</v>
       </c>
       <c r="J89" s="3">
-        <v>417.19</v>
+        <v>110.88</v>
       </c>
       <c r="K89" s="3">
-        <v>417.19</v>
+        <v>110.88</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4257,10 +4254,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4269,25 +4266,25 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>11014</v>
+        <v>12703</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45923.288171296292</v>
+        <v>45968.466249999998</v>
       </c>
       <c r="H90" s="1">
-        <v>45863.288368055553</v>
+        <v>45908.467557870368</v>
       </c>
       <c r="I90" s="2">
-        <v>-24</v>
+        <v>-55</v>
       </c>
       <c r="J90" s="3">
-        <v>606.93000000000006</v>
+        <v>414.35</v>
       </c>
       <c r="K90" s="3">
-        <v>606.93000000000006</v>
+        <v>414.35</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4298,10 +4295,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4310,25 +4307,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11085</v>
+        <v>12755</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45923.645879629628</v>
+        <v>45969.482951388884</v>
       </c>
       <c r="H91" s="1">
-        <v>45863.645879629628</v>
+        <v>45909.482951388884</v>
       </c>
       <c r="I91" s="2">
-        <v>-24</v>
+        <v>-56</v>
       </c>
       <c r="J91" s="3">
-        <v>726.19</v>
+        <v>183.26</v>
       </c>
       <c r="K91" s="3">
-        <v>726.19</v>
+        <v>183.26</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4339,10 +4336,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4351,25 +4348,25 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>11609</v>
+        <v>12756</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45937.476863425924</v>
+        <v>45969.482974537037</v>
       </c>
       <c r="H92" s="1">
-        <v>45877.477210648147</v>
+        <v>45909.482974537037</v>
       </c>
       <c r="I92" s="2">
-        <v>-38</v>
+        <v>-56</v>
       </c>
       <c r="J92" s="3">
-        <v>957.27</v>
+        <v>101.91</v>
       </c>
       <c r="K92" s="3">
-        <v>957.27</v>
+        <v>101.91</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4380,10 +4377,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112098</v>
+        <v>211111878</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4392,25 +4389,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>11783</v>
+        <v>12804</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45912.363032407404</v>
+        <v>45970.484317129631</v>
       </c>
       <c r="H93" s="1">
-        <v>45882.363032407404</v>
+        <v>45910.4843287037</v>
       </c>
       <c r="I93" s="2">
-        <v>-13</v>
+        <v>-57</v>
       </c>
       <c r="J93" s="3">
-        <v>468.88</v>
+        <v>182.32</v>
       </c>
       <c r="K93" s="3">
-        <v>468.88</v>
+        <v>182.32</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4421,10 +4418,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112151</v>
+        <v>211111878</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4433,39 +4430,39 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>9177</v>
+        <v>12837</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45880.637939814813</v>
+        <v>45971.366631944446</v>
       </c>
       <c r="H94" s="1">
-        <v>45820.639421296291</v>
+        <v>45911.366631944446</v>
       </c>
       <c r="I94" s="2">
-        <v>19</v>
+        <v>-58</v>
       </c>
       <c r="J94" s="3">
-        <v>3277.76</v>
+        <v>146.12</v>
       </c>
       <c r="K94" s="3">
-        <v>3277.76</v>
+        <v>146.12</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112151</v>
+        <v>211112043</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4474,25 +4471,25 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>9560</v>
+        <v>10687</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45888.627025462964</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H95" s="1">
-        <v>45828.628541666665</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I95" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J95" s="3">
-        <v>2976.7400000000002</v>
+        <v>542.13</v>
       </c>
       <c r="K95" s="3">
-        <v>2976.7400000000002</v>
+        <v>542.13</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4503,51 +4500,51 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112151</v>
+        <v>211112043</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E96">
-        <v>123</v>
+        <v>11880</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45888.628900462958</v>
+        <v>45943.403854166667</v>
       </c>
       <c r="H96" s="1">
-        <v>45828.673252314809</v>
+        <v>45883.403854166667</v>
       </c>
       <c r="I96" s="2">
-        <v>11</v>
+        <v>-30</v>
       </c>
       <c r="J96" s="3">
-        <v>1721.02</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="K96" s="3">
-        <v>1721.02</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112151</v>
+        <v>211112043</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4556,39 +4553,39 @@
         <v>15</v>
       </c>
       <c r="E97">
-        <v>9800</v>
+        <v>11881</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45894.651828703703</v>
+        <v>45943.405740740738</v>
       </c>
       <c r="H97" s="1">
-        <v>45834.65211805555</v>
+        <v>45883.405740740738</v>
       </c>
       <c r="I97" s="2">
-        <v>5</v>
+        <v>-30</v>
       </c>
       <c r="J97" s="3">
-        <v>617.68000000000006</v>
+        <v>115.78</v>
       </c>
       <c r="K97" s="3">
-        <v>617.68000000000006</v>
+        <v>115.78</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112151</v>
+        <v>211112043</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4597,39 +4594,39 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>9801</v>
+        <v>12370</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45894.653275462959</v>
+        <v>45957.431041666663</v>
       </c>
       <c r="H98" s="1">
-        <v>45834.653495370367</v>
+        <v>45897.431041666663</v>
       </c>
       <c r="I98" s="2">
-        <v>5</v>
+        <v>-44</v>
       </c>
       <c r="J98" s="3">
-        <v>1272.99</v>
+        <v>424.02</v>
       </c>
       <c r="K98" s="3">
-        <v>1272.99</v>
+        <v>424.02</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112151</v>
+        <v>211112043</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4638,162 +4635,162 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>9911</v>
+        <v>12513</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45898.70108796296</v>
+        <v>45962.418460648143</v>
       </c>
       <c r="H99" s="1">
-        <v>45838.702037037037</v>
+        <v>45902.41847222222</v>
       </c>
       <c r="I99" s="2">
-        <v>1</v>
+        <v>-49</v>
       </c>
       <c r="J99" s="3">
-        <v>2730.67</v>
+        <v>539.91</v>
       </c>
       <c r="K99" s="3">
-        <v>2730.67</v>
+        <v>539.91</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112151</v>
+        <v>211112050</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
       </c>
       <c r="E100">
-        <v>10234</v>
+        <v>326</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45905.634965277779</v>
+        <v>45777</v>
       </c>
       <c r="H100" s="1">
-        <v>45845.635636574072</v>
+        <v>45747</v>
       </c>
       <c r="I100" s="2">
-        <v>-6</v>
+        <v>136</v>
       </c>
       <c r="J100" s="3">
-        <v>2189.11</v>
+        <v>-22</v>
       </c>
       <c r="K100" s="3">
-        <v>2189.11</v>
+        <v>-22</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112151</v>
+        <v>211112050</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101">
-        <v>10548</v>
+        <v>327</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45913.353020833332</v>
+        <v>45777</v>
       </c>
       <c r="H101" s="1">
-        <v>45853.353888888887</v>
+        <v>45747</v>
       </c>
       <c r="I101" s="2">
-        <v>-14</v>
+        <v>136</v>
       </c>
       <c r="J101" s="3">
-        <v>4871.05</v>
+        <v>-27.45</v>
       </c>
       <c r="K101" s="3">
-        <v>4871.05</v>
+        <v>-27.45</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112151</v>
+        <v>211112050</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
       </c>
       <c r="E102">
-        <v>11138</v>
+        <v>328</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45927.358495370368</v>
+        <v>45777</v>
       </c>
       <c r="H102" s="1">
-        <v>45867.359340277777</v>
+        <v>45747</v>
       </c>
       <c r="I102" s="2">
-        <v>-28</v>
+        <v>136</v>
       </c>
       <c r="J102" s="3">
-        <v>1891.52</v>
+        <v>-5.73</v>
       </c>
       <c r="K102" s="3">
-        <v>1891.52</v>
+        <v>-5.73</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4802,66 +4799,66 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>11469</v>
+        <v>10369</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45935.331585648149</v>
+        <v>45908.309050925927</v>
       </c>
       <c r="H103" s="1">
-        <v>45875.332268518519</v>
+        <v>45848.309965277775</v>
       </c>
       <c r="I103" s="2">
-        <v>-36</v>
+        <v>5</v>
       </c>
       <c r="J103" s="3">
-        <v>2536.7800000000002</v>
+        <v>1512.89</v>
       </c>
       <c r="K103" s="3">
-        <v>2536.7800000000002</v>
+        <v>1512.89</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E104">
-        <v>11470</v>
+        <v>4</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45935.332488425927</v>
+        <v>45922</v>
       </c>
       <c r="H104" s="1">
-        <v>45875.332824074074</v>
+        <v>45862</v>
       </c>
       <c r="I104" s="2">
-        <v>-36</v>
+        <v>-9</v>
       </c>
       <c r="J104" s="3">
-        <v>1486.91</v>
+        <v>-15.38</v>
       </c>
       <c r="K104" s="3">
-        <v>1486.91</v>
+        <v>-15.38</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -4872,37 +4869,37 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>22</v>
       </c>
-      <c r="D105" t="s">
-        <v>56</v>
+      <c r="D105">
+        <v>2025</v>
       </c>
       <c r="E105">
-        <v>10</v>
+        <v>682</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45942</v>
+        <v>45922</v>
       </c>
       <c r="H105" s="1">
-        <v>45882</v>
+        <v>45862</v>
       </c>
       <c r="I105" s="2">
-        <v>-43</v>
+        <v>-9</v>
       </c>
       <c r="J105" s="3">
-        <v>-30.75</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="K105" s="3">
-        <v>-30.75</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -4913,10 +4910,10 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4925,25 +4922,25 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>11860</v>
+        <v>11013</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45942.619097222218</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H106" s="1">
-        <v>45882.62773148148</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I106" s="2">
-        <v>-43</v>
+        <v>-10</v>
       </c>
       <c r="J106" s="3">
-        <v>3031.57</v>
+        <v>417.19</v>
       </c>
       <c r="K106" s="3">
-        <v>3031.57</v>
+        <v>417.19</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -4954,37 +4951,37 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>153</v>
+        <v>11085</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45942.62940972222</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H107" s="1">
-        <v>45882.629641203705</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I107" s="2">
-        <v>-43</v>
+        <v>-10</v>
       </c>
       <c r="J107" s="3">
-        <v>1558.65</v>
+        <v>726.19</v>
       </c>
       <c r="K107" s="3">
-        <v>1558.65</v>
+        <v>726.19</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -4995,174 +4992,174 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112183</v>
+        <v>211112052</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
       </c>
       <c r="E108">
-        <v>14</v>
+        <v>11609</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45693</v>
+        <v>45937.476863425924</v>
       </c>
       <c r="H108" s="1">
-        <v>45663</v>
+        <v>45877.477210648147</v>
       </c>
       <c r="I108" s="2">
-        <v>206</v>
+        <v>-24</v>
       </c>
       <c r="J108" s="3">
-        <v>-4385.22</v>
+        <v>957.27</v>
       </c>
       <c r="K108" s="3">
-        <v>-782.21</v>
+        <v>957.27</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112216</v>
+        <v>211112052</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
       </c>
       <c r="E109">
-        <v>8763</v>
+        <v>794</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45841.406585648147</v>
+        <v>45955</v>
       </c>
       <c r="H109" s="1">
-        <v>45811.406979166662</v>
+        <v>45895</v>
       </c>
       <c r="I109" s="2">
-        <v>58</v>
+        <v>-42</v>
       </c>
       <c r="J109" s="3">
-        <v>808.13</v>
+        <v>-13.25</v>
       </c>
       <c r="K109" s="3">
-        <v>143.54</v>
+        <v>-13.25</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112216</v>
+        <v>211112052</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
       </c>
       <c r="E110">
-        <v>122</v>
+        <v>795</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45858.629687499997</v>
+        <v>45955</v>
       </c>
       <c r="H110" s="1">
-        <v>45828.63045138889</v>
+        <v>45895</v>
       </c>
       <c r="I110" s="2">
-        <v>41</v>
+        <v>-42</v>
       </c>
       <c r="J110" s="3">
-        <v>675.35</v>
+        <v>-250.03</v>
       </c>
       <c r="K110" s="3">
-        <v>255.70000000000002</v>
+        <v>-250.03</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112216</v>
+        <v>211112052</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D111">
+        <v>2025</v>
       </c>
       <c r="E111">
-        <v>9924</v>
+        <v>839</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45869.354363425926</v>
+        <v>45965</v>
       </c>
       <c r="H111" s="1">
-        <v>45839.356215277774</v>
+        <v>45905</v>
       </c>
       <c r="I111" s="2">
-        <v>30</v>
+        <v>-52</v>
       </c>
       <c r="J111" s="3">
-        <v>574.62</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="K111" s="3">
-        <v>57.78</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112216</v>
+        <v>211112052</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5171,25 +5168,25 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>11575</v>
+        <v>12638</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45906.462129629625</v>
+        <v>45965.438287037032</v>
       </c>
       <c r="H112" s="1">
-        <v>45876.462129629625</v>
+        <v>45905.438854166663</v>
       </c>
       <c r="I112" s="2">
-        <v>-7</v>
+        <v>-52</v>
       </c>
       <c r="J112" s="3">
-        <v>647.14</v>
+        <v>982.94</v>
       </c>
       <c r="K112" s="3">
-        <v>647.14</v>
+        <v>982.94</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -5200,10 +5197,10 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211112216</v>
+        <v>211112052</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5212,25 +5209,25 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>12113</v>
+        <v>12831</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45920.512499999997</v>
+        <v>45971.32534722222</v>
       </c>
       <c r="H113" s="1">
-        <v>45890.512499999997</v>
+        <v>45911.325358796297</v>
       </c>
       <c r="I113" s="2">
-        <v>-21</v>
+        <v>-58</v>
       </c>
       <c r="J113" s="3">
-        <v>265.43</v>
+        <v>383.06</v>
       </c>
       <c r="K113" s="3">
-        <v>265.43</v>
+        <v>383.06</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -5241,10 +5238,10 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211112290</v>
+        <v>211112098</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5253,39 +5250,39 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>10786</v>
+        <v>11783</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45916.621446759258</v>
+        <v>45912.363032407404</v>
       </c>
       <c r="H114" s="1">
-        <v>45856.622523148144</v>
+        <v>45882.363032407404</v>
       </c>
       <c r="I114" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="J114" s="3">
-        <v>2347.12</v>
+        <v>468.88</v>
       </c>
       <c r="K114" s="3">
-        <v>2347.12</v>
+        <v>468.88</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211112290</v>
+        <v>211112098</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5294,25 +5291,25 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>11859</v>
+        <v>12474</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45942.611527777779</v>
+        <v>45931.437384259254</v>
       </c>
       <c r="H115" s="1">
-        <v>45882.616122685184</v>
+        <v>45901.437384259254</v>
       </c>
       <c r="I115" s="2">
-        <v>-43</v>
+        <v>-18</v>
       </c>
       <c r="J115" s="3">
-        <v>1123.45</v>
+        <v>1269.1500000000001</v>
       </c>
       <c r="K115" s="3">
-        <v>1123.45</v>
+        <v>1269.1500000000001</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -5323,215 +5320,215 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211112334</v>
+        <v>211112098</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>12871</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45406</v>
+        <v>45941.701736111107</v>
       </c>
       <c r="H116" s="1">
-        <v>45391</v>
+        <v>45911.701736111107</v>
       </c>
       <c r="I116" s="2">
-        <v>493</v>
+        <v>-28</v>
       </c>
       <c r="J116" s="3">
-        <v>597.29</v>
+        <v>148.14000000000001</v>
       </c>
       <c r="K116" s="3">
-        <v>597.29</v>
+        <v>148.14000000000001</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
       </c>
       <c r="M116" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
-      </c>
-      <c r="E117" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="E117">
+        <v>9177</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45406</v>
+        <v>45880.637939814813</v>
       </c>
       <c r="H117" s="1">
-        <v>45391</v>
+        <v>45820.639421296291</v>
       </c>
       <c r="I117" s="2">
-        <v>493</v>
+        <v>33</v>
       </c>
       <c r="J117" s="3">
-        <v>591.72</v>
+        <v>3277.76</v>
       </c>
       <c r="K117" s="3">
-        <v>591.72</v>
+        <v>3277.76</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E118">
+        <v>9560</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45419</v>
+        <v>45888.627025462964</v>
       </c>
       <c r="H118" s="1">
-        <v>45404</v>
+        <v>45828.628541666665</v>
       </c>
       <c r="I118" s="2">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="J118" s="3">
-        <v>599.27</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="K118" s="3">
-        <v>599.27</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C119" t="s">
-        <v>59</v>
-      </c>
-      <c r="D119">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>37</v>
       </c>
       <c r="E119">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45906</v>
+        <v>45888.628900462958</v>
       </c>
       <c r="H119" s="1">
-        <v>45876</v>
+        <v>45828.673252314809</v>
       </c>
       <c r="I119" s="2">
-        <v>-7</v>
+        <v>25</v>
       </c>
       <c r="J119" s="3">
-        <v>-64.14</v>
+        <v>1721.02</v>
       </c>
       <c r="K119" s="3">
-        <v>-64.14</v>
+        <v>1721.02</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C120" t="s">
-        <v>59</v>
-      </c>
-      <c r="D120">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D120" t="s">
+        <v>15</v>
       </c>
       <c r="E120">
-        <v>92</v>
+        <v>9800</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45906</v>
+        <v>45894.651828703703</v>
       </c>
       <c r="H120" s="1">
-        <v>45876</v>
+        <v>45834.65211805555</v>
       </c>
       <c r="I120" s="2">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="J120" s="3">
-        <v>-174.57</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="K120" s="3">
-        <v>-174.57</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>211112351</v>
+        <v>211112151</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -5540,39 +5537,39 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>7619</v>
+        <v>9801</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45850.387407407405</v>
+        <v>45894.653275462959</v>
       </c>
       <c r="H121" s="1">
-        <v>45790.388252314813</v>
+        <v>45834.653495370367</v>
       </c>
       <c r="I121" s="2">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J121" s="3">
-        <v>7394.88</v>
+        <v>1272.99</v>
       </c>
       <c r="K121" s="3">
-        <v>7394.88</v>
+        <v>1272.99</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>211112351</v>
+        <v>211112151</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -5581,39 +5578,39 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>8006</v>
+        <v>9911</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45857.37296296296</v>
+        <v>45898.70108796296</v>
       </c>
       <c r="H122" s="1">
-        <v>45797.375092592592</v>
+        <v>45838.702037037037</v>
       </c>
       <c r="I122" s="2">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="J122" s="3">
-        <v>3927.87</v>
+        <v>2730.67</v>
       </c>
       <c r="K122" s="3">
-        <v>3927.87</v>
+        <v>2730.67</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211112351</v>
+        <v>211112151</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -5622,25 +5619,25 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>8750</v>
+        <v>10234</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45871.312986111108</v>
+        <v>45905.634965277779</v>
       </c>
       <c r="H123" s="1">
-        <v>45811.315150462964</v>
+        <v>45845.635636574072</v>
       </c>
       <c r="I123" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J123" s="3">
-        <v>2626.23</v>
+        <v>2189.11</v>
       </c>
       <c r="K123" s="3">
-        <v>2626.23</v>
+        <v>2189.11</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
@@ -5651,10 +5648,10 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211112351</v>
+        <v>211112151</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -5663,39 +5660,39 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>9758</v>
+        <v>10548</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45894.404513888891</v>
+        <v>45913.353020833332</v>
       </c>
       <c r="H124" s="1">
-        <v>45834.411666666667</v>
+        <v>45853.353888888887</v>
       </c>
       <c r="I124" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J124" s="3">
-        <v>2212.2600000000002</v>
+        <v>4871.05</v>
       </c>
       <c r="K124" s="3">
-        <v>2212.2600000000002</v>
+        <v>4871.05</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211112421</v>
+        <v>211112151</v>
       </c>
       <c r="B125" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -5704,39 +5701,39 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>3848</v>
+        <v>11138</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45746.622569444444</v>
+        <v>45927.358495370368</v>
       </c>
       <c r="H125" s="1">
-        <v>45716.624456018515</v>
+        <v>45867.359340277777</v>
       </c>
       <c r="I125" s="2">
-        <v>153</v>
+        <v>-14</v>
       </c>
       <c r="J125" s="3">
-        <v>233.77</v>
+        <v>1891.52</v>
       </c>
       <c r="K125" s="3">
-        <v>233.77</v>
+        <v>1891.52</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112443</v>
+        <v>211112151</v>
       </c>
       <c r="B126" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5745,39 +5742,39 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>8910</v>
+        <v>11469</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45843.497025462959</v>
+        <v>45935.331585648149</v>
       </c>
       <c r="H126" s="1">
-        <v>45813.497488425921</v>
+        <v>45875.332268518519</v>
       </c>
       <c r="I126" s="2">
-        <v>56</v>
+        <v>-22</v>
       </c>
       <c r="J126" s="3">
-        <v>765.47</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="K126" s="3">
-        <v>765.47</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112443</v>
+        <v>211112151</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -5786,66 +5783,66 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>10549</v>
+        <v>11470</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45883.354108796295</v>
+        <v>45935.332488425927</v>
       </c>
       <c r="H127" s="1">
-        <v>45853.354548611111</v>
+        <v>45875.332824074074</v>
       </c>
       <c r="I127" s="2">
-        <v>16</v>
+        <v>-22</v>
       </c>
       <c r="J127" s="3">
-        <v>1094.7</v>
+        <v>1486.91</v>
       </c>
       <c r="K127" s="3">
-        <v>1094.7</v>
+        <v>1486.91</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
       </c>
       <c r="M127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112455</v>
+        <v>211112151</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C128" t="s">
         <v>22</v>
       </c>
       <c r="D128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45900</v>
+        <v>45942</v>
       </c>
       <c r="H128" s="1">
-        <v>45870</v>
+        <v>45882</v>
       </c>
       <c r="I128" s="2">
-        <v>-1</v>
+        <v>-29</v>
       </c>
       <c r="J128" s="3">
-        <v>-15.38</v>
+        <v>-30.75</v>
       </c>
       <c r="K128" s="3">
-        <v>-15.38</v>
+        <v>-30.75</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -5856,10 +5853,10 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112455</v>
+        <v>211112151</v>
       </c>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -5868,25 +5865,25 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>11299</v>
+        <v>11860</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45900.301238425927</v>
+        <v>45942.619097222218</v>
       </c>
       <c r="H129" s="1">
-        <v>45870.301851851851</v>
+        <v>45882.62773148148</v>
       </c>
       <c r="I129" s="2">
-        <v>-1</v>
+        <v>-29</v>
       </c>
       <c r="J129" s="3">
-        <v>1512.3600000000001</v>
+        <v>3031.57</v>
       </c>
       <c r="K129" s="3">
-        <v>1512.3600000000001</v>
+        <v>3031.57</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -5897,37 +5894,37 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112455</v>
+        <v>211112151</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E130">
-        <v>11471</v>
+        <v>153</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45905.332974537036</v>
+        <v>45942.62940972222</v>
       </c>
       <c r="H130" s="1">
-        <v>45875.333553240736</v>
+        <v>45882.629641203705</v>
       </c>
       <c r="I130" s="2">
-        <v>-6</v>
+        <v>-29</v>
       </c>
       <c r="J130" s="3">
-        <v>1789.6000000000001</v>
+        <v>1558.65</v>
       </c>
       <c r="K130" s="3">
-        <v>1789.6000000000001</v>
+        <v>1558.65</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -5938,10 +5935,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112455</v>
+        <v>211112151</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5950,25 +5947,25 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>11858</v>
+        <v>12581</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45912.609606481477</v>
+        <v>45963.658715277779</v>
       </c>
       <c r="H131" s="1">
-        <v>45882.61142361111</v>
+        <v>45903.659988425927</v>
       </c>
       <c r="I131" s="2">
-        <v>-13</v>
+        <v>-50</v>
       </c>
       <c r="J131" s="3">
-        <v>2905.4</v>
+        <v>177.22</v>
       </c>
       <c r="K131" s="3">
-        <v>2905.4</v>
+        <v>177.22</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -5979,10 +5976,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112455</v>
+        <v>211112151</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -5991,25 +5988,25 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>12035</v>
+        <v>12582</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45919.369513888887</v>
+        <v>45963.660312499997</v>
       </c>
       <c r="H132" s="1">
-        <v>45889.370081018518</v>
+        <v>45903.661365740736</v>
       </c>
       <c r="I132" s="2">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="J132" s="3">
-        <v>3591.86</v>
+        <v>3123.88</v>
       </c>
       <c r="K132" s="3">
-        <v>3591.86</v>
+        <v>3123.88</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
@@ -6020,51 +6017,51 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112455</v>
+        <v>211112183</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D133">
+        <v>2025</v>
       </c>
       <c r="E133">
-        <v>12367</v>
+        <v>14</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45927.412766203699</v>
+        <v>45693</v>
       </c>
       <c r="H133" s="1">
-        <v>45897.415347222217</v>
+        <v>45663</v>
       </c>
       <c r="I133" s="2">
-        <v>-28</v>
+        <v>220</v>
       </c>
       <c r="J133" s="3">
-        <v>3508</v>
+        <v>-4385.22</v>
       </c>
       <c r="K133" s="3">
-        <v>3508</v>
+        <v>-782.21</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112469</v>
+        <v>211112216</v>
       </c>
       <c r="B134" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6073,25 +6070,25 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>11558</v>
+        <v>12113</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45906.43645833333</v>
+        <v>45920.512499999997</v>
       </c>
       <c r="H134" s="1">
-        <v>45876.437384259254</v>
+        <v>45890.512499999997</v>
       </c>
       <c r="I134" s="2">
         <v>-7</v>
       </c>
       <c r="J134" s="3">
-        <v>1107.6200000000001</v>
+        <v>265.43</v>
       </c>
       <c r="K134" s="3">
-        <v>1107.6100000000001</v>
+        <v>265.43</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -6102,10 +6099,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112469</v>
+        <v>211112216</v>
       </c>
       <c r="B135" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6114,25 +6111,25 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>12361</v>
+        <v>12597</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45927.39025462963</v>
+        <v>45934.389282407406</v>
       </c>
       <c r="H135" s="1">
-        <v>45897.394027777773</v>
+        <v>45904.390023148146</v>
       </c>
       <c r="I135" s="2">
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="J135" s="3">
-        <v>351.14</v>
+        <v>1068</v>
       </c>
       <c r="K135" s="3">
-        <v>351.14</v>
+        <v>1068</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -6143,10 +6140,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112476</v>
+        <v>211112216</v>
       </c>
       <c r="B136" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6155,39 +6152,39 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>10023</v>
+        <v>12876</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45871.36619212963</v>
+        <v>45942.335138888884</v>
       </c>
       <c r="H136" s="1">
-        <v>45841.366562499999</v>
+        <v>45912.335138888884</v>
       </c>
       <c r="I136" s="2">
-        <v>28</v>
+        <v>-29</v>
       </c>
       <c r="J136" s="3">
-        <v>275.11</v>
+        <v>582.91</v>
       </c>
       <c r="K136" s="3">
-        <v>275.11</v>
+        <v>582.91</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112488</v>
+        <v>211112290</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6196,25 +6193,25 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>12146</v>
+        <v>10786</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45920.679456018515</v>
+        <v>45916.621446759258</v>
       </c>
       <c r="H137" s="1">
-        <v>45890.681793981479</v>
+        <v>45856.622523148144</v>
       </c>
       <c r="I137" s="2">
-        <v>-21</v>
+        <v>-3</v>
       </c>
       <c r="J137" s="3">
-        <v>1241.79</v>
+        <v>2347.12</v>
       </c>
       <c r="K137" s="3">
-        <v>1241.79</v>
+        <v>2347.12</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
@@ -6225,201 +6222,201 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112515</v>
+        <v>211112290</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
       </c>
       <c r="E138">
-        <v>575</v>
+        <v>11859</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45861</v>
+        <v>45942.611527777779</v>
       </c>
       <c r="H138" s="1">
-        <v>45831</v>
+        <v>45882.616122685184</v>
       </c>
       <c r="I138" s="2">
-        <v>38</v>
+        <v>-29</v>
       </c>
       <c r="J138" s="3">
-        <v>-390.40000000000003</v>
+        <v>1123.45</v>
       </c>
       <c r="K138" s="3">
-        <v>-390.40000000000003</v>
+        <v>1123.45</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112515</v>
+        <v>211112334</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
-      </c>
-      <c r="D139">
-        <v>2025</v>
-      </c>
-      <c r="E139">
-        <v>621</v>
+        <v>42</v>
+      </c>
+      <c r="D139" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" t="s">
+        <v>43</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45875</v>
+        <v>45406</v>
       </c>
       <c r="H139" s="1">
-        <v>45845</v>
+        <v>45391</v>
       </c>
       <c r="I139" s="2">
-        <v>24</v>
+        <v>507</v>
       </c>
       <c r="J139" s="3">
-        <v>-49.21</v>
+        <v>597.29</v>
       </c>
       <c r="K139" s="3">
-        <v>-49.21</v>
+        <v>597.29</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112515</v>
+        <v>211112334</v>
       </c>
       <c r="B140" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D140" t="s">
-        <v>56</v>
-      </c>
-      <c r="E140">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E140" t="s">
+        <v>44</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45892</v>
+        <v>45406</v>
       </c>
       <c r="H140" s="1">
-        <v>45862</v>
+        <v>45391</v>
       </c>
       <c r="I140" s="2">
-        <v>7</v>
+        <v>507</v>
       </c>
       <c r="J140" s="3">
-        <v>-15.38</v>
+        <v>591.72</v>
       </c>
       <c r="K140" s="3">
-        <v>-15.38</v>
+        <v>591.72</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112515</v>
+        <v>211112334</v>
       </c>
       <c r="B141" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
-      </c>
-      <c r="D141">
-        <v>2025</v>
-      </c>
-      <c r="E141">
-        <v>696</v>
+        <v>42</v>
+      </c>
+      <c r="D141" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" t="s">
+        <v>45</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45893</v>
+        <v>45419</v>
       </c>
       <c r="H141" s="1">
-        <v>45863</v>
+        <v>45404</v>
       </c>
       <c r="I141" s="2">
-        <v>6</v>
+        <v>494</v>
       </c>
       <c r="J141" s="3">
-        <v>-102.25</v>
+        <v>599.27</v>
       </c>
       <c r="K141" s="3">
-        <v>-102.25</v>
+        <v>599.27</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112515</v>
+        <v>211112334</v>
       </c>
       <c r="B142" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="D142">
+        <v>2025</v>
       </c>
       <c r="E142">
-        <v>11018</v>
+        <v>91</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45893.344247685185</v>
+        <v>45906</v>
       </c>
       <c r="H142" s="1">
-        <v>45863.344930555555</v>
+        <v>45876</v>
       </c>
       <c r="I142" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J142" s="3">
-        <v>653.94000000000005</v>
+        <v>-64.14</v>
       </c>
       <c r="K142" s="3">
-        <v>653.94000000000005</v>
+        <v>-64.14</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
@@ -6430,92 +6427,92 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112515</v>
+        <v>211112334</v>
       </c>
       <c r="B143" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="D143">
+        <v>2025</v>
       </c>
       <c r="E143">
-        <v>11868</v>
+        <v>92</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45913.38927083333</v>
+        <v>45906</v>
       </c>
       <c r="H143" s="1">
-        <v>45883.390358796292</v>
+        <v>45876</v>
       </c>
       <c r="I143" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="J143" s="3">
-        <v>1706.69</v>
+        <v>-174.57</v>
       </c>
       <c r="K143" s="3">
-        <v>1706.69</v>
+        <v>-174.57</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112515</v>
+        <v>211112351</v>
       </c>
       <c r="B144" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
       </c>
       <c r="E144">
-        <v>764</v>
+        <v>8750</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45914</v>
+        <v>45871.312986111108</v>
       </c>
       <c r="H144" s="1">
-        <v>45884</v>
+        <v>45811.315150462964</v>
       </c>
       <c r="I144" s="2">
-        <v>-15</v>
+        <v>42</v>
       </c>
       <c r="J144" s="3">
-        <v>-70.45</v>
+        <v>2626.23</v>
       </c>
       <c r="K144" s="3">
-        <v>-70.45</v>
+        <v>2626.23</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112515</v>
+        <v>211112351</v>
       </c>
       <c r="B145" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6524,80 +6521,80 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>12042</v>
+        <v>9758</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45919.439918981479</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H145" s="1">
-        <v>45889.441377314812</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I145" s="2">
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="J145" s="3">
-        <v>1864.56</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K145" s="3">
-        <v>1864.56</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
       </c>
       <c r="M145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112515</v>
+        <v>211112421</v>
       </c>
       <c r="B146" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
-      </c>
-      <c r="D146">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>15</v>
       </c>
       <c r="E146">
-        <v>778</v>
+        <v>3848</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45920</v>
+        <v>45746.622569444444</v>
       </c>
       <c r="H146" s="1">
-        <v>45890</v>
+        <v>45716.624456018515</v>
       </c>
       <c r="I146" s="2">
-        <v>-21</v>
+        <v>167</v>
       </c>
       <c r="J146" s="3">
-        <v>-65.08</v>
+        <v>233.77</v>
       </c>
       <c r="K146" s="3">
-        <v>-65.08</v>
+        <v>233.77</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112518</v>
+        <v>211112443</v>
       </c>
       <c r="B147" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6606,80 +6603,80 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>9953</v>
+        <v>10549</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45900.407731481479</v>
+        <v>45883.354108796295</v>
       </c>
       <c r="H147" s="1">
-        <v>45840.408055555556</v>
+        <v>45853.354548611111</v>
       </c>
       <c r="I147" s="2">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="J147" s="3">
-        <v>358.40000000000003</v>
+        <v>1094.7</v>
       </c>
       <c r="K147" s="3">
-        <v>358.40000000000003</v>
+        <v>1094.7</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112518</v>
+        <v>211112455</v>
       </c>
       <c r="B148" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E148">
-        <v>10114</v>
+        <v>9</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45902.400694444441</v>
+        <v>45900</v>
       </c>
       <c r="H148" s="1">
-        <v>45842.400694444441</v>
+        <v>45870</v>
       </c>
       <c r="I148" s="2">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="J148" s="3">
-        <v>219.86</v>
+        <v>-15.38</v>
       </c>
       <c r="K148" s="3">
-        <v>219.86</v>
+        <v>-15.38</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112518</v>
+        <v>211112455</v>
       </c>
       <c r="B149" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6688,39 +6685,39 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>10919</v>
+        <v>11299</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="1">
-        <v>45921.540416666663</v>
+        <v>45900.301238425927</v>
       </c>
       <c r="H149" s="1">
-        <v>45861.54415509259</v>
+        <v>45870.301851851851</v>
       </c>
       <c r="I149" s="2">
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="J149" s="3">
-        <v>817.86</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="K149" s="3">
-        <v>817.86</v>
+        <v>1512.3600000000001</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
       </c>
       <c r="M149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112518</v>
+        <v>211112455</v>
       </c>
       <c r="B150" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6729,39 +6726,39 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>12069</v>
+        <v>11471</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" s="1">
-        <v>45949.520509259259</v>
+        <v>45905.332974537036</v>
       </c>
       <c r="H150" s="1">
-        <v>45889.520520833328</v>
+        <v>45875.333553240736</v>
       </c>
       <c r="I150" s="2">
-        <v>-50</v>
+        <v>8</v>
       </c>
       <c r="J150" s="3">
-        <v>624.23</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="K150" s="3">
-        <v>624.23</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112531</v>
+        <v>211112455</v>
       </c>
       <c r="B151" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6770,39 +6767,39 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>11383</v>
+        <v>11858</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>45903.496435185181</v>
+        <v>45912.609606481477</v>
       </c>
       <c r="H151" s="1">
-        <v>45873.497210648144</v>
+        <v>45882.61142361111</v>
       </c>
       <c r="I151" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J151" s="3">
-        <v>236.21</v>
+        <v>2905.4</v>
       </c>
       <c r="K151" s="3">
-        <v>236.21</v>
+        <v>2905.4</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
       </c>
       <c r="M151" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112531</v>
+        <v>211112455</v>
       </c>
       <c r="B152" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -6811,25 +6808,25 @@
         <v>15</v>
       </c>
       <c r="E152">
-        <v>11813</v>
+        <v>12035</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="1">
-        <v>45912.512372685182</v>
+        <v>45919.369513888887</v>
       </c>
       <c r="H152" s="1">
-        <v>45882.512384259258</v>
+        <v>45889.370081018518</v>
       </c>
       <c r="I152" s="2">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="J152" s="3">
-        <v>110.37</v>
+        <v>3591.86</v>
       </c>
       <c r="K152" s="3">
-        <v>110.37</v>
+        <v>3591.86</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
@@ -6840,10 +6837,10 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112531</v>
+        <v>211112455</v>
       </c>
       <c r="B153" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6852,30 +6849,686 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>11935</v>
+        <v>12367</v>
       </c>
       <c r="F153" t="s">
         <v>16</v>
       </c>
       <c r="G153" s="1">
-        <v>45913.654675925922</v>
+        <v>45927.412766203699</v>
       </c>
       <c r="H153" s="1">
-        <v>45883.654907407406</v>
+        <v>45897.415347222217</v>
       </c>
       <c r="I153" s="2">
         <v>-14</v>
       </c>
       <c r="J153" s="3">
+        <v>3508</v>
+      </c>
+      <c r="K153" s="3">
+        <v>3508</v>
+      </c>
+      <c r="L153" t="s">
+        <v>17</v>
+      </c>
+      <c r="M153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>211112455</v>
+      </c>
+      <c r="B154" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154">
+        <v>12863</v>
+      </c>
+      <c r="F154" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" s="1">
+        <v>45941.622974537036</v>
+      </c>
+      <c r="H154" s="1">
+        <v>45911.623657407406</v>
+      </c>
+      <c r="I154" s="2">
+        <v>-28</v>
+      </c>
+      <c r="J154" s="3">
+        <v>2219.06</v>
+      </c>
+      <c r="K154" s="3">
+        <v>2219.06</v>
+      </c>
+      <c r="L154" t="s">
+        <v>17</v>
+      </c>
+      <c r="M154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>211112469</v>
+      </c>
+      <c r="B155" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>11558</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="1">
+        <v>45906.43645833333</v>
+      </c>
+      <c r="H155" s="1">
+        <v>45876.437384259254</v>
+      </c>
+      <c r="I155" s="2">
+        <v>7</v>
+      </c>
+      <c r="J155" s="3">
+        <v>1107.6200000000001</v>
+      </c>
+      <c r="K155" s="3">
+        <v>15.370000000000001</v>
+      </c>
+      <c r="L155" t="s">
+        <v>17</v>
+      </c>
+      <c r="M155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>211112469</v>
+      </c>
+      <c r="B156" t="s">
+        <v>50</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>12361</v>
+      </c>
+      <c r="F156" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" s="1">
+        <v>45927.39025462963</v>
+      </c>
+      <c r="H156" s="1">
+        <v>45897.394027777773</v>
+      </c>
+      <c r="I156" s="2">
+        <v>-14</v>
+      </c>
+      <c r="J156" s="3">
+        <v>351.14</v>
+      </c>
+      <c r="K156" s="3">
+        <v>351.14</v>
+      </c>
+      <c r="L156" t="s">
+        <v>17</v>
+      </c>
+      <c r="M156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>211112469</v>
+      </c>
+      <c r="B157" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157">
+        <v>12705</v>
+      </c>
+      <c r="F157" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="1">
+        <v>45938.519317129627</v>
+      </c>
+      <c r="H157" s="1">
+        <v>45908.521111111106</v>
+      </c>
+      <c r="I157" s="2">
+        <v>-25</v>
+      </c>
+      <c r="J157" s="3">
+        <v>825.99</v>
+      </c>
+      <c r="K157" s="3">
+        <v>825.99</v>
+      </c>
+      <c r="L157" t="s">
+        <v>17</v>
+      </c>
+      <c r="M157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>211112488</v>
+      </c>
+      <c r="B158" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>12146</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="1">
+        <v>45920.679456018515</v>
+      </c>
+      <c r="H158" s="1">
+        <v>45890.681793981479</v>
+      </c>
+      <c r="I158" s="2">
+        <v>-7</v>
+      </c>
+      <c r="J158" s="3">
+        <v>1241.79</v>
+      </c>
+      <c r="K158" s="3">
+        <v>1241.79</v>
+      </c>
+      <c r="L158" t="s">
+        <v>17</v>
+      </c>
+      <c r="M158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>211112515</v>
+      </c>
+      <c r="B159" t="s">
+        <v>52</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159">
+        <v>11868</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="1">
+        <v>45913.38927083333</v>
+      </c>
+      <c r="H159" s="1">
+        <v>45883.390358796292</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="3">
+        <v>1706.69</v>
+      </c>
+      <c r="K159" s="3">
+        <v>1706.69</v>
+      </c>
+      <c r="L159" t="s">
+        <v>17</v>
+      </c>
+      <c r="M159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>211112515</v>
+      </c>
+      <c r="B160" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160">
+        <v>2025</v>
+      </c>
+      <c r="E160">
+        <v>764</v>
+      </c>
+      <c r="F160" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="1">
+        <v>45914</v>
+      </c>
+      <c r="H160" s="1">
+        <v>45884</v>
+      </c>
+      <c r="I160" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J160" s="3">
+        <v>-70.45</v>
+      </c>
+      <c r="K160" s="3">
+        <v>-70.45</v>
+      </c>
+      <c r="L160" t="s">
+        <v>17</v>
+      </c>
+      <c r="M160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>211112515</v>
+      </c>
+      <c r="B161" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161">
+        <v>12042</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="1">
+        <v>45919.439918981479</v>
+      </c>
+      <c r="H161" s="1">
+        <v>45889.441377314812</v>
+      </c>
+      <c r="I161" s="2">
+        <v>-6</v>
+      </c>
+      <c r="J161" s="3">
+        <v>1864.56</v>
+      </c>
+      <c r="K161" s="3">
+        <v>1864.56</v>
+      </c>
+      <c r="L161" t="s">
+        <v>17</v>
+      </c>
+      <c r="M161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>211112515</v>
+      </c>
+      <c r="B162" t="s">
+        <v>52</v>
+      </c>
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162">
+        <v>2025</v>
+      </c>
+      <c r="E162">
+        <v>778</v>
+      </c>
+      <c r="F162" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="1">
+        <v>45920</v>
+      </c>
+      <c r="H162" s="1">
+        <v>45890</v>
+      </c>
+      <c r="I162" s="2">
+        <v>-7</v>
+      </c>
+      <c r="J162" s="3">
+        <v>-65.08</v>
+      </c>
+      <c r="K162" s="3">
+        <v>-65.08</v>
+      </c>
+      <c r="L162" t="s">
+        <v>17</v>
+      </c>
+      <c r="M162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>211112518</v>
+      </c>
+      <c r="B163" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163">
+        <v>9953</v>
+      </c>
+      <c r="F163" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="1">
+        <v>45900.407731481479</v>
+      </c>
+      <c r="H163" s="1">
+        <v>45840.408055555556</v>
+      </c>
+      <c r="I163" s="2">
+        <v>13</v>
+      </c>
+      <c r="J163" s="3">
+        <v>358.40000000000003</v>
+      </c>
+      <c r="K163" s="3">
+        <v>358.40000000000003</v>
+      </c>
+      <c r="L163" t="s">
+        <v>17</v>
+      </c>
+      <c r="M163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>211112518</v>
+      </c>
+      <c r="B164" t="s">
+        <v>53</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164">
+        <v>10114</v>
+      </c>
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="1">
+        <v>45902.400694444441</v>
+      </c>
+      <c r="H164" s="1">
+        <v>45842.400694444441</v>
+      </c>
+      <c r="I164" s="2">
+        <v>11</v>
+      </c>
+      <c r="J164" s="3">
+        <v>219.86</v>
+      </c>
+      <c r="K164" s="3">
+        <v>219.86</v>
+      </c>
+      <c r="L164" t="s">
+        <v>17</v>
+      </c>
+      <c r="M164" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>211112518</v>
+      </c>
+      <c r="B165" t="s">
+        <v>53</v>
+      </c>
+      <c r="C165" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165">
+        <v>10919</v>
+      </c>
+      <c r="F165" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="1">
+        <v>45921.540416666663</v>
+      </c>
+      <c r="H165" s="1">
+        <v>45861.54415509259</v>
+      </c>
+      <c r="I165" s="2">
+        <v>-8</v>
+      </c>
+      <c r="J165" s="3">
+        <v>817.86</v>
+      </c>
+      <c r="K165" s="3">
+        <v>817.86</v>
+      </c>
+      <c r="L165" t="s">
+        <v>17</v>
+      </c>
+      <c r="M165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>211112518</v>
+      </c>
+      <c r="B166" t="s">
+        <v>53</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166">
+        <v>12069</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="1">
+        <v>45949.520509259259</v>
+      </c>
+      <c r="H166" s="1">
+        <v>45889.520520833328</v>
+      </c>
+      <c r="I166" s="2">
+        <v>-36</v>
+      </c>
+      <c r="J166" s="3">
+        <v>624.23</v>
+      </c>
+      <c r="K166" s="3">
+        <v>624.23</v>
+      </c>
+      <c r="L166" t="s">
+        <v>17</v>
+      </c>
+      <c r="M166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>211112531</v>
+      </c>
+      <c r="B167" t="s">
+        <v>54</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167">
+        <v>11813</v>
+      </c>
+      <c r="F167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="1">
+        <v>45912.512372685182</v>
+      </c>
+      <c r="H167" s="1">
+        <v>45882.512384259258</v>
+      </c>
+      <c r="I167" s="2">
+        <v>1</v>
+      </c>
+      <c r="J167" s="3">
+        <v>110.37</v>
+      </c>
+      <c r="K167" s="3">
+        <v>110.37</v>
+      </c>
+      <c r="L167" t="s">
+        <v>17</v>
+      </c>
+      <c r="M167" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>211112531</v>
+      </c>
+      <c r="B168" t="s">
+        <v>54</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168">
+        <v>11935</v>
+      </c>
+      <c r="F168" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" s="1">
+        <v>45913.654675925922</v>
+      </c>
+      <c r="H168" s="1">
+        <v>45883.654907407406</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="3">
         <v>71.320000000000007</v>
       </c>
-      <c r="K153" s="3">
+      <c r="K168" s="3">
         <v>71.320000000000007</v>
       </c>
-      <c r="L153" t="s">
-        <v>17</v>
-      </c>
-      <c r="M153" t="s">
+      <c r="L168" t="s">
+        <v>17</v>
+      </c>
+      <c r="M168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>211112531</v>
+      </c>
+      <c r="B169" t="s">
+        <v>54</v>
+      </c>
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169">
+        <v>12821</v>
+      </c>
+      <c r="F169" t="s">
+        <v>16</v>
+      </c>
+      <c r="G169" s="1">
+        <v>45940.714884259258</v>
+      </c>
+      <c r="H169" s="1">
+        <v>45910.715243055551</v>
+      </c>
+      <c r="I169" s="2">
+        <v>-27</v>
+      </c>
+      <c r="J169" s="3">
+        <v>164.15</v>
+      </c>
+      <c r="K169" s="3">
+        <v>164.15</v>
+      </c>
+      <c r="L169" t="s">
+        <v>17</v>
+      </c>
+      <c r="M169" t="s">
         <v>19</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15B32A2-55C7-45A8-B86E-26C8011F212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E032F9-B17F-47A2-AFAA-1DC5D6D774AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="60">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>NC</t>
-  </si>
-  <si>
-    <t>Pantera Cor De Rosa</t>
   </si>
   <si>
     <t>Reis &amp; Pacheco, Lda</t>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Paulo Lima-Soc.Unipessoal, Lda</t>
+  </si>
+  <si>
+    <t>Pura Paixão - Unipessoal, Lda.</t>
   </si>
 </sst>
 </file>
@@ -590,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M169"/>
+      <selection activeCell="A2" sqref="A2:M149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,48 +649,48 @@
         <v>211110034</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2">
-        <v>512</v>
+        <v>12980</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1">
-        <v>45872</v>
+        <v>45946.422337962962</v>
       </c>
       <c r="H2" s="1">
-        <v>45842</v>
+        <v>45916.422337962962</v>
       </c>
       <c r="I2" s="2">
-        <v>41</v>
+        <v>-26</v>
       </c>
       <c r="J2" s="3">
-        <v>-4.08</v>
+        <v>664.32</v>
       </c>
       <c r="K2" s="3">
-        <v>-4.08</v>
+        <v>664.32</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>211110034</v>
+        <v>211110102</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -699,80 +699,80 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>10154</v>
+        <v>11289</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1">
-        <v>45872.493842592594</v>
+        <v>45899.506041666667</v>
       </c>
       <c r="H3" s="1">
-        <v>45842.493854166663</v>
+        <v>45869.506041666667</v>
       </c>
       <c r="I3" s="2">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3">
-        <v>323.56</v>
+        <v>470.6</v>
       </c>
       <c r="K3" s="3">
-        <v>323.56</v>
+        <v>470.6</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>211110034</v>
+        <v>211110102</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4">
-        <v>523</v>
+        <v>12078</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>45883</v>
+        <v>45919.572592592587</v>
       </c>
       <c r="H4" s="1">
-        <v>45853</v>
+        <v>45889.572592592587</v>
       </c>
       <c r="I4" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>-6.62</v>
+        <v>227.44</v>
       </c>
       <c r="K4" s="3">
-        <v>-6.62</v>
+        <v>227.44</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>211110034</v>
+        <v>211110102</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -781,66 +781,66 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>10564</v>
+        <v>12520</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>45883.631342592591</v>
+        <v>45947.45107638889</v>
       </c>
       <c r="H5" s="1">
-        <v>45853.631354166668</v>
+        <v>45902.451412037037</v>
       </c>
       <c r="I5" s="2">
-        <v>30</v>
+        <v>-27</v>
       </c>
       <c r="J5" s="3">
-        <v>524.56000000000006</v>
+        <v>775.91</v>
       </c>
       <c r="K5" s="3">
-        <v>524.56000000000006</v>
+        <v>775.91</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>211110034</v>
+        <v>211110434</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6">
-        <v>550</v>
+        <v>13108</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45918</v>
+        <v>45948.345138888886</v>
       </c>
       <c r="H6" s="1">
-        <v>45888</v>
+        <v>45918.345590277779</v>
       </c>
       <c r="I6" s="2">
-        <v>-5</v>
+        <v>-28</v>
       </c>
       <c r="J6" s="3">
-        <v>-6.7700000000000005</v>
+        <v>408.72</v>
       </c>
       <c r="K6" s="3">
-        <v>-6.7700000000000005</v>
+        <v>408.72</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -851,10 +851,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>211110034</v>
+        <v>211110574</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -863,25 +863,25 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>12020</v>
+        <v>12254</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45918.539293981477</v>
+        <v>45925.367962962962</v>
       </c>
       <c r="H7" s="1">
-        <v>45888.539293981477</v>
+        <v>45895.367962962962</v>
       </c>
       <c r="I7" s="2">
         <v>-5</v>
       </c>
       <c r="J7" s="3">
-        <v>535.35</v>
+        <v>716.14</v>
       </c>
       <c r="K7" s="3">
-        <v>535.35</v>
+        <v>716.14</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>211110102</v>
+        <v>211110574</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -904,39 +904,39 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>11289</v>
+        <v>12660</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45899.506041666667</v>
+        <v>45935.466979166667</v>
       </c>
       <c r="H8" s="1">
-        <v>45869.506041666667</v>
+        <v>45905.467291666668</v>
       </c>
       <c r="I8" s="2">
-        <v>14</v>
+        <v>-15</v>
       </c>
       <c r="J8" s="3">
-        <v>470.6</v>
+        <v>601.41</v>
       </c>
       <c r="K8" s="3">
-        <v>470.6</v>
+        <v>601.41</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>211110102</v>
+        <v>211110574</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -945,25 +945,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>12078</v>
+        <v>12817</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45919.572592592587</v>
+        <v>45940.605277777773</v>
       </c>
       <c r="H9" s="1">
-        <v>45889.572592592587</v>
+        <v>45910.607453703698</v>
       </c>
       <c r="I9" s="2">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="J9" s="3">
-        <v>227.44</v>
+        <v>520.49</v>
       </c>
       <c r="K9" s="3">
-        <v>227.44</v>
+        <v>520.49</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -974,212 +974,212 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>211110102</v>
+        <v>211110903</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10">
-        <v>12520</v>
+        <v>533</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45947.45107638889</v>
+        <v>45873</v>
       </c>
       <c r="H10" s="1">
-        <v>45902.451412037037</v>
+        <v>45866</v>
       </c>
       <c r="I10" s="2">
-        <v>-34</v>
+        <v>47</v>
       </c>
       <c r="J10" s="3">
-        <v>775.91</v>
+        <v>-50.85</v>
       </c>
       <c r="K10" s="3">
-        <v>775.91</v>
+        <v>-50.85</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>211110434</v>
+        <v>211110903</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>2025</v>
       </c>
       <c r="E11">
-        <v>11962</v>
+        <v>711</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45917.510150462964</v>
+        <v>45875</v>
       </c>
       <c r="H11" s="1">
-        <v>45887.511157407404</v>
+        <v>45868</v>
       </c>
       <c r="I11" s="2">
-        <v>-4</v>
+        <v>45</v>
       </c>
       <c r="J11" s="3">
-        <v>397.76</v>
+        <v>-100.23</v>
       </c>
       <c r="K11" s="3">
-        <v>397.76</v>
+        <v>-100.23</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12">
-        <v>12254</v>
+        <v>542</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45925.367962962962</v>
+        <v>45880</v>
       </c>
       <c r="H12" s="1">
-        <v>45895.367962962962</v>
+        <v>45873</v>
       </c>
       <c r="I12" s="2">
-        <v>-12</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3">
-        <v>716.14</v>
+        <v>-67.31</v>
       </c>
       <c r="K12" s="3">
-        <v>716.14</v>
+        <v>-67.31</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
       </c>
       <c r="E13">
-        <v>12660</v>
+        <v>752</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45935.466979166667</v>
+        <v>45888</v>
       </c>
       <c r="H13" s="1">
-        <v>45905.467291666668</v>
+        <v>45881</v>
       </c>
       <c r="I13" s="2">
-        <v>-22</v>
+        <v>32</v>
       </c>
       <c r="J13" s="3">
-        <v>601.41</v>
+        <v>-100.91</v>
       </c>
       <c r="K13" s="3">
-        <v>601.41</v>
+        <v>-100.91</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>2025</v>
       </c>
       <c r="E14">
-        <v>12817</v>
+        <v>757</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45940.605277777773</v>
+        <v>45890</v>
       </c>
       <c r="H14" s="1">
-        <v>45910.607453703698</v>
+        <v>45883</v>
       </c>
       <c r="I14" s="2">
-        <v>-27</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3">
-        <v>520.49</v>
+        <v>-63.35</v>
       </c>
       <c r="K14" s="3">
-        <v>520.49</v>
+        <v>-63.35</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>211110681</v>
+        <v>211110903</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1191,80 +1191,80 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>11015</v>
+        <v>13089</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45893.298807870371</v>
+        <v>45924.497233796297</v>
       </c>
       <c r="H15" s="1">
-        <v>45863.300034722219</v>
+        <v>45917.498333333329</v>
       </c>
       <c r="I15" s="2">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="J15" s="3">
-        <v>2446.73</v>
+        <v>1298.07</v>
       </c>
       <c r="K15" s="3">
-        <v>2446.73</v>
+        <v>1298.07</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211110681</v>
+        <v>211111373</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>11785</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45912</v>
+        <v>45882.399768518517</v>
       </c>
       <c r="H16" s="1">
-        <v>45882</v>
+        <v>45882.399768518517</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J16" s="3">
-        <v>-30.75</v>
+        <v>240.19</v>
       </c>
       <c r="K16" s="3">
-        <v>-30.75</v>
+        <v>240.19</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211110681</v>
+        <v>211111588</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1273,66 +1273,66 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>12507</v>
+        <v>11778</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45932.39262731481</v>
+        <v>45917.361284722218</v>
       </c>
       <c r="H17" s="1">
-        <v>45902.39262731481</v>
+        <v>45882.361284722218</v>
       </c>
       <c r="I17" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>1883.08</v>
+        <v>382.83</v>
       </c>
       <c r="K17" s="3">
-        <v>1883.08</v>
+        <v>382.83</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>211110681</v>
+        <v>211111588</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>832</v>
+        <v>12107</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45933</v>
+        <v>45925.479895833334</v>
       </c>
       <c r="H18" s="1">
-        <v>45903</v>
+        <v>45890.479895833334</v>
       </c>
       <c r="I18" s="2">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="J18" s="3">
-        <v>-4.8</v>
+        <v>195.82</v>
       </c>
       <c r="K18" s="3">
-        <v>-4.8</v>
+        <v>195.82</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1351,81 +1351,81 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
+      <c r="D19">
+        <v>2025</v>
       </c>
       <c r="E19">
-        <v>533</v>
+        <v>809</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45873</v>
+        <v>45932</v>
       </c>
       <c r="H19" s="1">
-        <v>45866</v>
+        <v>45897</v>
       </c>
       <c r="I19" s="2">
-        <v>40</v>
+        <v>-12</v>
       </c>
       <c r="J19" s="3">
-        <v>-50.85</v>
+        <v>-0.97</v>
       </c>
       <c r="K19" s="3">
-        <v>-50.85</v>
+        <v>-0.97</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>711</v>
+        <v>12360</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45875</v>
+        <v>45932.391550925924</v>
       </c>
       <c r="H20" s="1">
-        <v>45868</v>
+        <v>45897.391562500001</v>
       </c>
       <c r="I20" s="2">
-        <v>38</v>
+        <v>-12</v>
       </c>
       <c r="J20" s="3">
-        <v>-100.23</v>
+        <v>197.81</v>
       </c>
       <c r="K20" s="3">
-        <v>-100.23</v>
+        <v>197.81</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -1437,203 +1437,203 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45880</v>
+        <v>45939</v>
       </c>
       <c r="H21" s="1">
-        <v>45873</v>
+        <v>45904</v>
       </c>
       <c r="I21" s="2">
-        <v>33</v>
+        <v>-19</v>
       </c>
       <c r="J21" s="3">
-        <v>-67.31</v>
+        <v>-0.52</v>
       </c>
       <c r="K21" s="3">
-        <v>-67.31</v>
+        <v>-0.52</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>752</v>
+        <v>12605</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45888</v>
+        <v>45939.432569444441</v>
       </c>
       <c r="H22" s="1">
-        <v>45881</v>
+        <v>45904.433935185181</v>
       </c>
       <c r="I22" s="2">
-        <v>25</v>
+        <v>-19</v>
       </c>
       <c r="J22" s="3">
-        <v>-100.91</v>
+        <v>953.69</v>
       </c>
       <c r="K22" s="3">
-        <v>-100.91</v>
+        <v>953.69</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>757</v>
+        <v>12625</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45890</v>
+        <v>45940.365300925921</v>
       </c>
       <c r="H23" s="1">
-        <v>45883</v>
+        <v>45905.366354166668</v>
       </c>
       <c r="I23" s="2">
-        <v>23</v>
+        <v>-20</v>
       </c>
       <c r="J23" s="3">
-        <v>-63.35</v>
+        <v>487.36</v>
       </c>
       <c r="K23" s="3">
-        <v>-63.35</v>
+        <v>487.36</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>786</v>
+        <v>13128</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45902</v>
+        <v>45953.382881944446</v>
       </c>
       <c r="H24" s="1">
-        <v>45895</v>
+        <v>45918.402905092589</v>
       </c>
       <c r="I24" s="2">
-        <v>11</v>
+        <v>-33</v>
       </c>
       <c r="J24" s="3">
-        <v>-388.25</v>
+        <v>444.22</v>
       </c>
       <c r="K24" s="3">
-        <v>-388.25</v>
+        <v>444.22</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211110903</v>
+        <v>211111720</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>804</v>
+        <v>10727</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45903</v>
+        <v>45916.281041666662</v>
       </c>
       <c r="H25" s="1">
-        <v>45896</v>
+        <v>45856.283530092587</v>
       </c>
       <c r="I25" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J25" s="3">
-        <v>-82.94</v>
+        <v>199.79</v>
       </c>
       <c r="K25" s="3">
-        <v>-82.94</v>
+        <v>199.79</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211110903</v>
+        <v>211111720</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1642,25 +1642,25 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>12682</v>
+        <v>11012</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45915.430173611108</v>
+        <v>45923.282870370371</v>
       </c>
       <c r="H26" s="1">
-        <v>45908.430185185185</v>
+        <v>45863.28329861111</v>
       </c>
       <c r="I26" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J26" s="3">
-        <v>4481.24</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="K26" s="3">
-        <v>4481.24</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211110903</v>
+        <v>211111720</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1683,25 +1683,25 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>12759</v>
+        <v>12399</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45916.483055555553</v>
+        <v>45958.36681712963</v>
       </c>
       <c r="H27" s="1">
-        <v>45909.483055555553</v>
+        <v>45898.3668287037</v>
       </c>
       <c r="I27" s="2">
-        <v>-3</v>
+        <v>-38</v>
       </c>
       <c r="J27" s="3">
-        <v>427.02</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="K27" s="3">
-        <v>427.02</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1712,92 +1712,92 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211110903</v>
+        <v>211111739</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>2025</v>
       </c>
       <c r="E28">
-        <v>12793</v>
+        <v>630</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45917.459386574075</v>
+        <v>45876</v>
       </c>
       <c r="H28" s="1">
-        <v>45910.459398148145</v>
+        <v>45846</v>
       </c>
       <c r="I28" s="2">
-        <v>-4</v>
+        <v>44</v>
       </c>
       <c r="J28" s="3">
-        <v>3205.06</v>
+        <v>-89.27</v>
       </c>
       <c r="K28" s="3">
-        <v>3205.06</v>
+        <v>-89.27</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111373</v>
+        <v>211111739</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>2025</v>
       </c>
       <c r="E29">
-        <v>11785</v>
+        <v>827</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45882.399768518517</v>
+        <v>45932</v>
       </c>
       <c r="H29" s="1">
-        <v>45882.399768518517</v>
+        <v>45902</v>
       </c>
       <c r="I29" s="2">
-        <v>31</v>
+        <v>-12</v>
       </c>
       <c r="J29" s="3">
-        <v>240.19</v>
+        <v>-1.77</v>
       </c>
       <c r="K29" s="3">
-        <v>240.19</v>
+        <v>-1.77</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1806,39 +1806,39 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>10988</v>
+        <v>12496</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45897.491388888884</v>
+        <v>45932.339016203703</v>
       </c>
       <c r="H30" s="1">
-        <v>45862.491388888884</v>
+        <v>45902.34710648148</v>
       </c>
       <c r="I30" s="2">
-        <v>16</v>
+        <v>-12</v>
       </c>
       <c r="J30" s="3">
-        <v>1073.29</v>
+        <v>1799.69</v>
       </c>
       <c r="K30" s="3">
-        <v>5.1100000000000003</v>
+        <v>1799.69</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1847,39 +1847,39 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>11560</v>
+        <v>12693</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45911.437928240739</v>
+        <v>45938.456111111111</v>
       </c>
       <c r="H31" s="1">
-        <v>45876.438402777778</v>
+        <v>45908.45612268518</v>
       </c>
       <c r="I31" s="2">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="J31" s="3">
-        <v>673.4</v>
+        <v>1831.69</v>
       </c>
       <c r="K31" s="3">
-        <v>673.4</v>
+        <v>1831.69</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1888,25 +1888,25 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>11778</v>
+        <v>12764</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45917.361284722218</v>
+        <v>45940.312048611107</v>
       </c>
       <c r="H32" s="1">
-        <v>45882.361284722218</v>
+        <v>45910.315740740742</v>
       </c>
       <c r="I32" s="2">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="J32" s="3">
-        <v>382.83</v>
+        <v>564.66</v>
       </c>
       <c r="K32" s="3">
-        <v>382.83</v>
+        <v>564.66</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111588</v>
+        <v>211111878</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1929,25 +1929,25 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>12107</v>
+        <v>11366</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45925.479895833334</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H33" s="1">
-        <v>45890.479895833334</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I33" s="2">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="J33" s="3">
-        <v>195.82</v>
+        <v>159.29</v>
       </c>
       <c r="K33" s="3">
-        <v>195.82</v>
+        <v>159.29</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -1958,37 +1958,37 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111588</v>
+        <v>211111878</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>809</v>
+        <v>11369</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45932</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H34" s="1">
-        <v>45897</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I34" s="2">
-        <v>-19</v>
+        <v>-10</v>
       </c>
       <c r="J34" s="3">
-        <v>-0.97</v>
+        <v>106.19</v>
       </c>
       <c r="K34" s="3">
-        <v>-0.97</v>
+        <v>106.19</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211111588</v>
+        <v>211111878</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2011,25 +2011,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>12360</v>
+        <v>11428</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45932.391550925924</v>
+        <v>45934.485219907408</v>
       </c>
       <c r="H35" s="1">
-        <v>45897.391562500001</v>
+        <v>45874.485219907408</v>
       </c>
       <c r="I35" s="2">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="J35" s="3">
-        <v>197.81</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="K35" s="3">
-        <v>197.81</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2040,37 +2040,37 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111588</v>
+        <v>211111878</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36">
-        <v>568</v>
+        <v>11429</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45939</v>
+        <v>45934.485231481478</v>
       </c>
       <c r="H36" s="1">
-        <v>45904</v>
+        <v>45874.485231481478</v>
       </c>
       <c r="I36" s="2">
-        <v>-26</v>
+        <v>-14</v>
       </c>
       <c r="J36" s="3">
-        <v>-0.52</v>
+        <v>472.14</v>
       </c>
       <c r="K36" s="3">
-        <v>-0.52</v>
+        <v>472.14</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111588</v>
+        <v>211111878</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2093,25 +2093,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>12605</v>
+        <v>11430</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45939.432569444441</v>
+        <v>45934.485266203701</v>
       </c>
       <c r="H37" s="1">
-        <v>45904.433935185181</v>
+        <v>45874.485266203701</v>
       </c>
       <c r="I37" s="2">
-        <v>-26</v>
+        <v>-14</v>
       </c>
       <c r="J37" s="3">
-        <v>953.69</v>
+        <v>405.8</v>
       </c>
       <c r="K37" s="3">
-        <v>953.69</v>
+        <v>405.8</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2122,37 +2122,37 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111588</v>
+        <v>211111878</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>2025</v>
       </c>
       <c r="E38">
-        <v>12625</v>
+        <v>737</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45940.365300925921</v>
+        <v>45938</v>
       </c>
       <c r="H38" s="1">
-        <v>45905.366354166668</v>
+        <v>45878</v>
       </c>
       <c r="I38" s="2">
-        <v>-27</v>
+        <v>-18</v>
       </c>
       <c r="J38" s="3">
-        <v>487.36</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="K38" s="3">
-        <v>487.36</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111720</v>
+        <v>211111878</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2175,25 +2175,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>10727</v>
+        <v>11717</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45916.281041666662</v>
+        <v>45940.541759259257</v>
       </c>
       <c r="H39" s="1">
-        <v>45856.283530092587</v>
+        <v>45880.541770833333</v>
       </c>
       <c r="I39" s="2">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="J39" s="3">
-        <v>199.79</v>
+        <v>100.79</v>
       </c>
       <c r="K39" s="3">
-        <v>199.79</v>
+        <v>100.79</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2204,37 +2204,37 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>211111720</v>
+        <v>211111878</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
       </c>
       <c r="E40">
-        <v>11012</v>
+        <v>751</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45923.282870370371</v>
+        <v>45941</v>
       </c>
       <c r="H40" s="1">
-        <v>45863.28329861111</v>
+        <v>45881</v>
       </c>
       <c r="I40" s="2">
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="J40" s="3">
-        <v>1478.6200000000001</v>
+        <v>-122.53</v>
       </c>
       <c r="K40" s="3">
-        <v>1478.6200000000001</v>
+        <v>-122.53</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>211111720</v>
+        <v>211111878</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2257,25 +2257,25 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>12399</v>
+        <v>11758</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45958.36681712963</v>
+        <v>45941.499224537038</v>
       </c>
       <c r="H41" s="1">
-        <v>45898.3668287037</v>
+        <v>45881.499236111107</v>
       </c>
       <c r="I41" s="2">
-        <v>-45</v>
+        <v>-21</v>
       </c>
       <c r="J41" s="3">
-        <v>615.18000000000006</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="K41" s="3">
-        <v>615.18000000000006</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -2298,66 +2298,66 @@
         <v>2025</v>
       </c>
       <c r="E42">
-        <v>630</v>
+        <v>753</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45876</v>
+        <v>45942</v>
       </c>
       <c r="H42" s="1">
-        <v>45846</v>
+        <v>45882</v>
       </c>
       <c r="I42" s="2">
-        <v>37</v>
+        <v>-22</v>
       </c>
       <c r="J42" s="3">
-        <v>-89.27</v>
+        <v>-10.93</v>
       </c>
       <c r="K42" s="3">
-        <v>-89.27</v>
+        <v>-10.93</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>827</v>
+        <v>11922</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45932</v>
+        <v>45943.619444444441</v>
       </c>
       <c r="H43" s="1">
-        <v>45902</v>
+        <v>45883.620034722218</v>
       </c>
       <c r="I43" s="2">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="J43" s="3">
-        <v>-1.77</v>
+        <v>97.43</v>
       </c>
       <c r="K43" s="3">
-        <v>-1.77</v>
+        <v>97.43</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -2380,25 +2380,25 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>12496</v>
+        <v>11999</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45932.339016203703</v>
+        <v>45948.526076388887</v>
       </c>
       <c r="H44" s="1">
-        <v>45902.34710648148</v>
+        <v>45888.526076388887</v>
       </c>
       <c r="I44" s="2">
-        <v>-19</v>
+        <v>-28</v>
       </c>
       <c r="J44" s="3">
-        <v>1799.69</v>
+        <v>53.63</v>
       </c>
       <c r="K44" s="3">
-        <v>1799.69</v>
+        <v>53.63</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
@@ -2421,25 +2421,25 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>12693</v>
+        <v>12000</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45938.456111111111</v>
+        <v>45948.526099537034</v>
       </c>
       <c r="H45" s="1">
-        <v>45908.45612268518</v>
+        <v>45888.526099537034</v>
       </c>
       <c r="I45" s="2">
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="J45" s="3">
-        <v>1831.69</v>
+        <v>140.37</v>
       </c>
       <c r="K45" s="3">
-        <v>1831.69</v>
+        <v>140.37</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -2462,25 +2462,25 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>12764</v>
+        <v>12001</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45940.312048611107</v>
+        <v>45948.52612268518</v>
       </c>
       <c r="H46" s="1">
-        <v>45910.315740740742</v>
+        <v>45888.52612268518</v>
       </c>
       <c r="I46" s="2">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="J46" s="3">
-        <v>564.66</v>
+        <v>212.85</v>
       </c>
       <c r="K46" s="3">
-        <v>564.66</v>
+        <v>212.85</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2494,40 +2494,40 @@
         <v>211111878</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>2025</v>
       </c>
       <c r="E47">
-        <v>9935</v>
+        <v>774</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45899.405474537038</v>
+        <v>45950</v>
       </c>
       <c r="H47" s="1">
-        <v>45839.405821759254</v>
+        <v>45890</v>
       </c>
       <c r="I47" s="2">
-        <v>14</v>
+        <v>-30</v>
       </c>
       <c r="J47" s="3">
-        <v>249.19</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="K47" s="3">
-        <v>249.19</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2535,40 +2535,40 @@
         <v>211111878</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>2025</v>
       </c>
       <c r="E48">
-        <v>10275</v>
+        <v>775</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45906.438090277778</v>
+        <v>45950</v>
       </c>
       <c r="H48" s="1">
-        <v>45846.438090277778</v>
+        <v>45890</v>
       </c>
       <c r="I48" s="2">
-        <v>7</v>
+        <v>-30</v>
       </c>
       <c r="J48" s="3">
-        <v>333.66</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="K48" s="3">
-        <v>333.66</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>211111878</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2585,31 +2585,31 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>10276</v>
+        <v>12127</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45906.438113425924</v>
+        <v>45950.595092592594</v>
       </c>
       <c r="H49" s="1">
-        <v>45846.438125000001</v>
+        <v>45890.595092592594</v>
       </c>
       <c r="I49" s="2">
-        <v>7</v>
+        <v>-30</v>
       </c>
       <c r="J49" s="3">
-        <v>114.07000000000001</v>
+        <v>54.92</v>
       </c>
       <c r="K49" s="3">
-        <v>114.07000000000001</v>
+        <v>54.92</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2617,7 +2617,7 @@
         <v>211111878</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2626,31 +2626,31 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>10496</v>
+        <v>12215</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45909.601944444439</v>
+        <v>45951.693171296298</v>
       </c>
       <c r="H50" s="1">
-        <v>45849.60251157407</v>
+        <v>45891.693749999999</v>
       </c>
       <c r="I50" s="2">
-        <v>4</v>
+        <v>-31</v>
       </c>
       <c r="J50" s="3">
-        <v>330.27</v>
+        <v>90.44</v>
       </c>
       <c r="K50" s="3">
-        <v>330.27</v>
+        <v>90.44</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2658,34 +2658,34 @@
         <v>211111878</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>646</v>
+        <v>12220</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45913</v>
+        <v>45954.431423611109</v>
       </c>
       <c r="H51" s="1">
-        <v>45853</v>
+        <v>45894.431423611109</v>
       </c>
       <c r="I51" s="2">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="J51" s="3">
-        <v>-9.23</v>
+        <v>471.83</v>
       </c>
       <c r="K51" s="3">
-        <v>-9.23</v>
+        <v>471.83</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2699,7 +2699,7 @@
         <v>211111878</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2708,25 +2708,25 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>10552</v>
+        <v>12221</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45913.414108796293</v>
+        <v>45954.431446759256</v>
       </c>
       <c r="H52" s="1">
-        <v>45853.415949074071</v>
+        <v>45894.431446759256</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="J52" s="3">
-        <v>451.46000000000004</v>
+        <v>219.04</v>
       </c>
       <c r="K52" s="3">
-        <v>451.46000000000004</v>
+        <v>219.04</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2740,7 +2740,7 @@
         <v>211111878</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2749,25 +2749,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>10556</v>
+        <v>12247</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45913.417696759258</v>
+        <v>45955.347881944443</v>
       </c>
       <c r="H53" s="1">
-        <v>45853.418020833335</v>
+        <v>45895.347893518519</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="J53" s="3">
-        <v>120.59</v>
+        <v>289.57</v>
       </c>
       <c r="K53" s="3">
-        <v>120.59</v>
+        <v>289.57</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2781,7 +2781,7 @@
         <v>211111878</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2790,25 +2790,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>10719</v>
+        <v>12366</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45915.588217592587</v>
+        <v>45957.397465277776</v>
       </c>
       <c r="H54" s="1">
-        <v>45855.588634259257</v>
+        <v>45897.397476851853</v>
       </c>
       <c r="I54" s="2">
-        <v>-2</v>
+        <v>-37</v>
       </c>
       <c r="J54" s="3">
-        <v>107.66</v>
+        <v>208.44</v>
       </c>
       <c r="K54" s="3">
-        <v>107.66</v>
+        <v>208.44</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2822,34 +2822,34 @@
         <v>211111878</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D55">
+        <v>2025</v>
       </c>
       <c r="E55">
-        <v>10841</v>
+        <v>824</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45920.44799768518</v>
+        <v>45961</v>
       </c>
       <c r="H55" s="1">
-        <v>45860.450138888889</v>
+        <v>45901</v>
       </c>
       <c r="I55" s="2">
-        <v>-7</v>
+        <v>-41</v>
       </c>
       <c r="J55" s="3">
-        <v>391.77</v>
+        <v>-4.82</v>
       </c>
       <c r="K55" s="3">
-        <v>391.77</v>
+        <v>-4.82</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2863,7 +2863,7 @@
         <v>211111878</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2872,25 +2872,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>10940</v>
+        <v>12471</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45921.562048611107</v>
+        <v>45961.437303240738</v>
       </c>
       <c r="H56" s="1">
-        <v>45861.562060185184</v>
+        <v>45901.437303240738</v>
       </c>
       <c r="I56" s="2">
-        <v>-8</v>
+        <v>-41</v>
       </c>
       <c r="J56" s="3">
-        <v>184.52</v>
+        <v>513.09</v>
       </c>
       <c r="K56" s="3">
-        <v>184.52</v>
+        <v>513.09</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2904,7 +2904,7 @@
         <v>211111878</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2913,25 +2913,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>10941</v>
+        <v>12509</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45921.562083333331</v>
+        <v>45962.411041666666</v>
       </c>
       <c r="H57" s="1">
-        <v>45861.562083333331</v>
+        <v>45902.411759259259</v>
       </c>
       <c r="I57" s="2">
-        <v>-8</v>
+        <v>-42</v>
       </c>
       <c r="J57" s="3">
-        <v>518.65</v>
+        <v>128.47</v>
       </c>
       <c r="K57" s="3">
-        <v>518.65</v>
+        <v>128.47</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2945,7 +2945,7 @@
         <v>211111878</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2954,25 +2954,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>10942</v>
+        <v>12568</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45921.562106481477</v>
+        <v>45963.458773148144</v>
       </c>
       <c r="H58" s="1">
-        <v>45861.562106481477</v>
+        <v>45903.458773148144</v>
       </c>
       <c r="I58" s="2">
-        <v>-8</v>
+        <v>-43</v>
       </c>
       <c r="J58" s="3">
-        <v>325.40000000000003</v>
+        <v>50.21</v>
       </c>
       <c r="K58" s="3">
-        <v>325.40000000000003</v>
+        <v>50.21</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -2986,7 +2986,7 @@
         <v>211111878</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2995,25 +2995,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>11119</v>
+        <v>12618</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45926.540925925925</v>
+        <v>45964.490069444444</v>
       </c>
       <c r="H59" s="1">
-        <v>45866.540937500002</v>
+        <v>45904.490740740737</v>
       </c>
       <c r="I59" s="2">
-        <v>-13</v>
+        <v>-44</v>
       </c>
       <c r="J59" s="3">
-        <v>665</v>
+        <v>286.05</v>
       </c>
       <c r="K59" s="3">
-        <v>665</v>
+        <v>286.05</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3027,7 +3027,7 @@
         <v>211111878</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3036,25 +3036,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>11120</v>
+        <v>12691</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45926.540960648148</v>
+        <v>45968.456053240741</v>
       </c>
       <c r="H60" s="1">
-        <v>45866.540960648148</v>
+        <v>45908.456064814811</v>
       </c>
       <c r="I60" s="2">
-        <v>-13</v>
+        <v>-48</v>
       </c>
       <c r="J60" s="3">
-        <v>131.55000000000001</v>
+        <v>110.88</v>
       </c>
       <c r="K60" s="3">
-        <v>131.55000000000001</v>
+        <v>110.88</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3068,7 +3068,7 @@
         <v>211111878</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3077,25 +3077,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>11186</v>
+        <v>12703</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45927.594328703701</v>
+        <v>45968.466249999998</v>
       </c>
       <c r="H61" s="1">
-        <v>45867.594340277778</v>
+        <v>45908.467557870368</v>
       </c>
       <c r="I61" s="2">
-        <v>-14</v>
+        <v>-48</v>
       </c>
       <c r="J61" s="3">
-        <v>379.86</v>
+        <v>414.35</v>
       </c>
       <c r="K61" s="3">
-        <v>379.86</v>
+        <v>414.35</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3109,7 +3109,7 @@
         <v>211111878</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3118,25 +3118,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>11366</v>
+        <v>12755</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45930.614166666666</v>
+        <v>45969.482951388884</v>
       </c>
       <c r="H62" s="1">
-        <v>45870.614722222221</v>
+        <v>45909.482951388884</v>
       </c>
       <c r="I62" s="2">
-        <v>-17</v>
+        <v>-49</v>
       </c>
       <c r="J62" s="3">
-        <v>159.29</v>
+        <v>183.26</v>
       </c>
       <c r="K62" s="3">
-        <v>159.29</v>
+        <v>183.26</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3150,7 +3150,7 @@
         <v>211111878</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3159,25 +3159,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>11369</v>
+        <v>12756</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45930.684340277774</v>
+        <v>45969.482974537037</v>
       </c>
       <c r="H63" s="1">
-        <v>45870.684976851851</v>
+        <v>45909.482974537037</v>
       </c>
       <c r="I63" s="2">
-        <v>-17</v>
+        <v>-49</v>
       </c>
       <c r="J63" s="3">
-        <v>106.19</v>
+        <v>101.91</v>
       </c>
       <c r="K63" s="3">
-        <v>106.19</v>
+        <v>101.91</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3191,7 +3191,7 @@
         <v>211111878</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3200,25 +3200,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>11428</v>
+        <v>12804</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45934.485219907408</v>
+        <v>45970.484317129631</v>
       </c>
       <c r="H64" s="1">
-        <v>45874.485219907408</v>
+        <v>45910.4843287037</v>
       </c>
       <c r="I64" s="2">
-        <v>-21</v>
+        <v>-50</v>
       </c>
       <c r="J64" s="3">
-        <v>56.480000000000004</v>
+        <v>182.32</v>
       </c>
       <c r="K64" s="3">
-        <v>56.480000000000004</v>
+        <v>182.32</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3232,7 +3232,7 @@
         <v>211111878</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3241,25 +3241,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>11429</v>
+        <v>12837</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45934.485231481478</v>
+        <v>45971.366631944446</v>
       </c>
       <c r="H65" s="1">
-        <v>45874.485231481478</v>
+        <v>45911.366631944446</v>
       </c>
       <c r="I65" s="2">
-        <v>-21</v>
+        <v>-51</v>
       </c>
       <c r="J65" s="3">
-        <v>472.14</v>
+        <v>146.12</v>
       </c>
       <c r="K65" s="3">
-        <v>472.14</v>
+        <v>146.12</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3273,7 +3273,7 @@
         <v>211111878</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3282,25 +3282,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>11430</v>
+        <v>12952</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45934.485266203701</v>
+        <v>45976.371041666665</v>
       </c>
       <c r="H66" s="1">
-        <v>45874.485266203701</v>
+        <v>45916.371041666665</v>
       </c>
       <c r="I66" s="2">
-        <v>-21</v>
+        <v>-56</v>
       </c>
       <c r="J66" s="3">
-        <v>405.8</v>
+        <v>60.120000000000005</v>
       </c>
       <c r="K66" s="3">
-        <v>405.8</v>
+        <v>60.120000000000005</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3314,34 +3314,34 @@
         <v>211111878</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>737</v>
+        <v>12982</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45938</v>
+        <v>45976.428738425922</v>
       </c>
       <c r="H67" s="1">
-        <v>45878</v>
+        <v>45916.428738425922</v>
       </c>
       <c r="I67" s="2">
-        <v>-25</v>
+        <v>-56</v>
       </c>
       <c r="J67" s="3">
-        <v>-22.990000000000002</v>
+        <v>314.78000000000003</v>
       </c>
       <c r="K67" s="3">
-        <v>-22.990000000000002</v>
+        <v>314.78000000000003</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3355,7 +3355,7 @@
         <v>211111878</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3364,25 +3364,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>11717</v>
+        <v>13085</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45940.541759259257</v>
+        <v>45977.492696759255</v>
       </c>
       <c r="H68" s="1">
-        <v>45880.541770833333</v>
+        <v>45917.493043981478</v>
       </c>
       <c r="I68" s="2">
-        <v>-27</v>
+        <v>-57</v>
       </c>
       <c r="J68" s="3">
-        <v>100.79</v>
+        <v>261.24</v>
       </c>
       <c r="K68" s="3">
-        <v>100.79</v>
+        <v>261.24</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3396,34 +3396,34 @@
         <v>211111878</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
       </c>
       <c r="E69">
-        <v>751</v>
+        <v>13086</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45941</v>
+        <v>45977.49319444444</v>
       </c>
       <c r="H69" s="1">
-        <v>45881</v>
+        <v>45917.495011574072</v>
       </c>
       <c r="I69" s="2">
-        <v>-28</v>
+        <v>-57</v>
       </c>
       <c r="J69" s="3">
-        <v>-122.53</v>
+        <v>62.53</v>
       </c>
       <c r="K69" s="3">
-        <v>-122.53</v>
+        <v>62.53</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3437,7 +3437,7 @@
         <v>211111878</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3446,25 +3446,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>11758</v>
+        <v>13099</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45941.499224537038</v>
+        <v>45977.5465162037</v>
       </c>
       <c r="H70" s="1">
-        <v>45881.499236111107</v>
+        <v>45917.547303240739</v>
       </c>
       <c r="I70" s="2">
-        <v>-28</v>
+        <v>-57</v>
       </c>
       <c r="J70" s="3">
-        <v>304.79000000000002</v>
+        <v>19.98</v>
       </c>
       <c r="K70" s="3">
-        <v>304.79000000000002</v>
+        <v>19.98</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3478,34 +3478,34 @@
         <v>211111878</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>753</v>
+        <v>13100</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45942</v>
+        <v>45977.547442129631</v>
       </c>
       <c r="H71" s="1">
-        <v>45882</v>
+        <v>45917.547754629624</v>
       </c>
       <c r="I71" s="2">
-        <v>-29</v>
+        <v>-57</v>
       </c>
       <c r="J71" s="3">
-        <v>-10.93</v>
+        <v>264.92</v>
       </c>
       <c r="K71" s="3">
-        <v>-10.93</v>
+        <v>264.92</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3519,7 +3519,7 @@
         <v>211111878</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3528,25 +3528,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>11922</v>
+        <v>13184</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45943.619444444441</v>
+        <v>45979.401666666665</v>
       </c>
       <c r="H72" s="1">
-        <v>45883.620034722218</v>
+        <v>45919.401678240742</v>
       </c>
       <c r="I72" s="2">
-        <v>-30</v>
+        <v>-59</v>
       </c>
       <c r="J72" s="3">
-        <v>97.43</v>
+        <v>81.41</v>
       </c>
       <c r="K72" s="3">
-        <v>97.43</v>
+        <v>81.41</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3560,7 +3560,7 @@
         <v>211111878</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3569,25 +3569,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>11999</v>
+        <v>13198</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45948.526076388887</v>
+        <v>45979.583379629628</v>
       </c>
       <c r="H73" s="1">
-        <v>45888.526076388887</v>
+        <v>45919.584699074076</v>
       </c>
       <c r="I73" s="2">
-        <v>-35</v>
+        <v>-59</v>
       </c>
       <c r="J73" s="3">
-        <v>53.63</v>
+        <v>179.69</v>
       </c>
       <c r="K73" s="3">
-        <v>53.63</v>
+        <v>179.69</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B74" t="s">
         <v>29</v>
@@ -3610,36 +3610,36 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>12000</v>
+        <v>10687</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45948.526099537034</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H74" s="1">
-        <v>45888.526099537034</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I74" s="2">
-        <v>-35</v>
+        <v>35</v>
       </c>
       <c r="J74" s="3">
-        <v>140.37</v>
+        <v>542.13</v>
       </c>
       <c r="K74" s="3">
-        <v>140.37</v>
+        <v>542.13</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B75" t="s">
         <v>29</v>
@@ -3651,25 +3651,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>12001</v>
+        <v>11880</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45948.52612268518</v>
+        <v>45943.403854166667</v>
       </c>
       <c r="H75" s="1">
-        <v>45888.52612268518</v>
+        <v>45883.403854166667</v>
       </c>
       <c r="I75" s="2">
-        <v>-35</v>
+        <v>-23</v>
       </c>
       <c r="J75" s="3">
-        <v>212.85</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="K75" s="3">
-        <v>212.85</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3680,37 +3680,37 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B76" t="s">
         <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
       </c>
       <c r="E76">
-        <v>774</v>
+        <v>11881</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45950</v>
+        <v>45943.405740740738</v>
       </c>
       <c r="H76" s="1">
-        <v>45890</v>
+        <v>45883.405740740738</v>
       </c>
       <c r="I76" s="2">
-        <v>-37</v>
+        <v>-23</v>
       </c>
       <c r="J76" s="3">
-        <v>-56.480000000000004</v>
+        <v>115.78</v>
       </c>
       <c r="K76" s="3">
-        <v>-56.480000000000004</v>
+        <v>115.78</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3721,37 +3721,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B77" t="s">
         <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
       </c>
       <c r="E77">
-        <v>775</v>
+        <v>12370</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45950</v>
+        <v>45957.431041666663</v>
       </c>
       <c r="H77" s="1">
-        <v>45890</v>
+        <v>45897.431041666663</v>
       </c>
       <c r="I77" s="2">
         <v>-37</v>
       </c>
       <c r="J77" s="3">
-        <v>-4.8500000000000005</v>
+        <v>424.02</v>
       </c>
       <c r="K77" s="3">
-        <v>-4.8500000000000005</v>
+        <v>424.02</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211111878</v>
+        <v>211112043</v>
       </c>
       <c r="B78" t="s">
         <v>29</v>
@@ -3774,25 +3774,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>12127</v>
+        <v>12513</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45950.595092592594</v>
+        <v>45962.418460648143</v>
       </c>
       <c r="H78" s="1">
-        <v>45890.595092592594</v>
+        <v>45902.41847222222</v>
       </c>
       <c r="I78" s="2">
-        <v>-37</v>
+        <v>-42</v>
       </c>
       <c r="J78" s="3">
-        <v>54.92</v>
+        <v>539.91</v>
       </c>
       <c r="K78" s="3">
-        <v>54.92</v>
+        <v>539.91</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3803,133 +3803,133 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79">
-        <v>12215</v>
+        <v>326</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45951.693171296298</v>
+        <v>45777</v>
       </c>
       <c r="H79" s="1">
-        <v>45891.693749999999</v>
+        <v>45747</v>
       </c>
       <c r="I79" s="2">
-        <v>-38</v>
+        <v>143</v>
       </c>
       <c r="J79" s="3">
-        <v>90.44</v>
+        <v>-22</v>
       </c>
       <c r="K79" s="3">
-        <v>90.44</v>
+        <v>-22</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80">
-        <v>12220</v>
+        <v>327</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45954.431423611109</v>
+        <v>45777</v>
       </c>
       <c r="H80" s="1">
-        <v>45894.431423611109</v>
+        <v>45747</v>
       </c>
       <c r="I80" s="2">
-        <v>-41</v>
+        <v>143</v>
       </c>
       <c r="J80" s="3">
-        <v>471.83</v>
+        <v>-27.45</v>
       </c>
       <c r="K80" s="3">
-        <v>471.83</v>
+        <v>-27.45</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211111878</v>
+        <v>211112050</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81">
-        <v>12221</v>
+        <v>328</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45954.431446759256</v>
+        <v>45777</v>
       </c>
       <c r="H81" s="1">
-        <v>45894.431446759256</v>
+        <v>45747</v>
       </c>
       <c r="I81" s="2">
-        <v>-41</v>
+        <v>143</v>
       </c>
       <c r="J81" s="3">
-        <v>219.04</v>
+        <v>-5.73</v>
       </c>
       <c r="K81" s="3">
-        <v>219.04</v>
+        <v>-5.73</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3938,66 +3938,66 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>12247</v>
+        <v>10369</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45955.347881944443</v>
+        <v>45908.309050925927</v>
       </c>
       <c r="H82" s="1">
-        <v>45895.347893518519</v>
+        <v>45848.309965277775</v>
       </c>
       <c r="I82" s="2">
-        <v>-42</v>
+        <v>12</v>
       </c>
       <c r="J82" s="3">
-        <v>289.57</v>
+        <v>1512.89</v>
       </c>
       <c r="K82" s="3">
-        <v>289.57</v>
+        <v>1512.89</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E83">
-        <v>12366</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45957.397465277776</v>
+        <v>45922</v>
       </c>
       <c r="H83" s="1">
-        <v>45897.397476851853</v>
+        <v>45862</v>
       </c>
       <c r="I83" s="2">
-        <v>-44</v>
+        <v>-2</v>
       </c>
       <c r="J83" s="3">
-        <v>208.44</v>
+        <v>-15.38</v>
       </c>
       <c r="K83" s="3">
-        <v>208.44</v>
+        <v>-15.38</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
@@ -4020,25 +4020,25 @@
         <v>2025</v>
       </c>
       <c r="E84">
-        <v>824</v>
+        <v>682</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45961</v>
+        <v>45922</v>
       </c>
       <c r="H84" s="1">
-        <v>45901</v>
+        <v>45862</v>
       </c>
       <c r="I84" s="2">
-        <v>-48</v>
+        <v>-2</v>
       </c>
       <c r="J84" s="3">
-        <v>-4.82</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="K84" s="3">
-        <v>-4.82</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4061,25 +4061,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>12471</v>
+        <v>11013</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45961.437303240738</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H85" s="1">
-        <v>45901.437303240738</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I85" s="2">
-        <v>-48</v>
+        <v>-3</v>
       </c>
       <c r="J85" s="3">
-        <v>513.09</v>
+        <v>417.19</v>
       </c>
       <c r="K85" s="3">
-        <v>513.09</v>
+        <v>417.19</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4090,10 +4090,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4102,25 +4102,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>12509</v>
+        <v>11085</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45962.411041666666</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H86" s="1">
-        <v>45902.411759259259</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I86" s="2">
-        <v>-49</v>
+        <v>-3</v>
       </c>
       <c r="J86" s="3">
-        <v>128.47</v>
+        <v>726.19</v>
       </c>
       <c r="K86" s="3">
-        <v>128.47</v>
+        <v>726.19</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4131,10 +4131,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4143,25 +4143,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>12568</v>
+        <v>11609</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45963.458773148144</v>
+        <v>45937.476863425924</v>
       </c>
       <c r="H87" s="1">
-        <v>45903.458773148144</v>
+        <v>45877.477210648147</v>
       </c>
       <c r="I87" s="2">
-        <v>-50</v>
+        <v>-17</v>
       </c>
       <c r="J87" s="3">
-        <v>50.21</v>
+        <v>957.27</v>
       </c>
       <c r="K87" s="3">
-        <v>50.21</v>
+        <v>957.27</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4172,37 +4172,37 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>2025</v>
       </c>
       <c r="E88">
-        <v>12618</v>
+        <v>794</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45964.490069444444</v>
+        <v>45955</v>
       </c>
       <c r="H88" s="1">
-        <v>45904.490740740737</v>
+        <v>45895</v>
       </c>
       <c r="I88" s="2">
-        <v>-51</v>
+        <v>-35</v>
       </c>
       <c r="J88" s="3">
-        <v>286.05</v>
+        <v>-13.25</v>
       </c>
       <c r="K88" s="3">
-        <v>286.05</v>
+        <v>-13.25</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4213,37 +4213,37 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>2025</v>
       </c>
       <c r="E89">
-        <v>12691</v>
+        <v>795</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45968.456053240741</v>
+        <v>45955</v>
       </c>
       <c r="H89" s="1">
-        <v>45908.456064814811</v>
+        <v>45895</v>
       </c>
       <c r="I89" s="2">
-        <v>-55</v>
+        <v>-35</v>
       </c>
       <c r="J89" s="3">
-        <v>110.88</v>
+        <v>-250.03</v>
       </c>
       <c r="K89" s="3">
-        <v>110.88</v>
+        <v>-250.03</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4254,37 +4254,37 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D90">
+        <v>2025</v>
       </c>
       <c r="E90">
-        <v>12703</v>
+        <v>839</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45968.466249999998</v>
+        <v>45965</v>
       </c>
       <c r="H90" s="1">
-        <v>45908.467557870368</v>
+        <v>45905</v>
       </c>
       <c r="I90" s="2">
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="J90" s="3">
-        <v>414.35</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="K90" s="3">
-        <v>414.35</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4295,10 +4295,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4307,25 +4307,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>12755</v>
+        <v>12638</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45969.482951388884</v>
+        <v>45965.438287037032</v>
       </c>
       <c r="H91" s="1">
-        <v>45909.482951388884</v>
+        <v>45905.438854166663</v>
       </c>
       <c r="I91" s="2">
-        <v>-56</v>
+        <v>-45</v>
       </c>
       <c r="J91" s="3">
-        <v>183.26</v>
+        <v>982.94</v>
       </c>
       <c r="K91" s="3">
-        <v>183.26</v>
+        <v>982.94</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4348,25 +4348,25 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>12756</v>
+        <v>12831</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45969.482974537037</v>
+        <v>45971.32534722222</v>
       </c>
       <c r="H92" s="1">
-        <v>45909.482974537037</v>
+        <v>45911.325358796297</v>
       </c>
       <c r="I92" s="2">
-        <v>-56</v>
+        <v>-51</v>
       </c>
       <c r="J92" s="3">
-        <v>101.91</v>
+        <v>383.06</v>
       </c>
       <c r="K92" s="3">
-        <v>101.91</v>
+        <v>383.06</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4389,25 +4389,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>12804</v>
+        <v>13102</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45970.484317129631</v>
+        <v>45977.582523148143</v>
       </c>
       <c r="H93" s="1">
-        <v>45910.4843287037</v>
+        <v>45917.583622685182</v>
       </c>
       <c r="I93" s="2">
         <v>-57</v>
       </c>
       <c r="J93" s="3">
-        <v>182.32</v>
+        <v>242.06</v>
       </c>
       <c r="K93" s="3">
-        <v>182.32</v>
+        <v>242.06</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211111878</v>
+        <v>211112052</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4430,25 +4430,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>12837</v>
+        <v>13196</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45971.366631944446</v>
+        <v>45979.259525462963</v>
       </c>
       <c r="H94" s="1">
-        <v>45911.366631944446</v>
+        <v>45919.518483796295</v>
       </c>
       <c r="I94" s="2">
-        <v>-58</v>
+        <v>-59</v>
       </c>
       <c r="J94" s="3">
-        <v>146.12</v>
+        <v>556.75</v>
       </c>
       <c r="K94" s="3">
-        <v>146.12</v>
+        <v>556.75</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112043</v>
+        <v>211112098</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4471,25 +4471,25 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>10687</v>
+        <v>11783</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45885.468888888885</v>
+        <v>45912.363032407404</v>
       </c>
       <c r="H95" s="1">
-        <v>45855.468888888885</v>
+        <v>45882.363032407404</v>
       </c>
       <c r="I95" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J95" s="3">
-        <v>542.13</v>
+        <v>468.88</v>
       </c>
       <c r="K95" s="3">
-        <v>542.13</v>
+        <v>468.88</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112043</v>
+        <v>211112098</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4512,25 +4512,25 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>11880</v>
+        <v>12474</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45943.403854166667</v>
+        <v>45931.437384259254</v>
       </c>
       <c r="H96" s="1">
-        <v>45883.403854166667</v>
+        <v>45901.437384259254</v>
       </c>
       <c r="I96" s="2">
-        <v>-30</v>
+        <v>-11</v>
       </c>
       <c r="J96" s="3">
-        <v>248.76000000000002</v>
+        <v>1269.1500000000001</v>
       </c>
       <c r="K96" s="3">
-        <v>248.76000000000002</v>
+        <v>1269.1500000000001</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -4541,10 +4541,10 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112043</v>
+        <v>211112098</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4553,25 +4553,25 @@
         <v>15</v>
       </c>
       <c r="E97">
-        <v>11881</v>
+        <v>12871</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45943.405740740738</v>
+        <v>45941.701736111107</v>
       </c>
       <c r="H97" s="1">
-        <v>45883.405740740738</v>
+        <v>45911.701736111107</v>
       </c>
       <c r="I97" s="2">
-        <v>-30</v>
+        <v>-21</v>
       </c>
       <c r="J97" s="3">
-        <v>115.78</v>
+        <v>148.14000000000001</v>
       </c>
       <c r="K97" s="3">
-        <v>115.78</v>
+        <v>148.14000000000001</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -4582,10 +4582,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112043</v>
+        <v>211112151</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4594,39 +4594,39 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>12370</v>
+        <v>9177</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45957.431041666663</v>
+        <v>45880.637939814813</v>
       </c>
       <c r="H98" s="1">
-        <v>45897.431041666663</v>
+        <v>45820.639421296291</v>
       </c>
       <c r="I98" s="2">
-        <v>-44</v>
+        <v>40</v>
       </c>
       <c r="J98" s="3">
-        <v>424.02</v>
+        <v>3277.76</v>
       </c>
       <c r="K98" s="3">
-        <v>424.02</v>
+        <v>3277.76</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112043</v>
+        <v>211112151</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4635,162 +4635,162 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>12513</v>
+        <v>9560</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45962.418460648143</v>
+        <v>45888.627025462964</v>
       </c>
       <c r="H99" s="1">
-        <v>45902.41847222222</v>
+        <v>45828.628541666665</v>
       </c>
       <c r="I99" s="2">
-        <v>-49</v>
+        <v>32</v>
       </c>
       <c r="J99" s="3">
-        <v>539.91</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="K99" s="3">
-        <v>539.91</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112050</v>
+        <v>211112151</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E100">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45777</v>
+        <v>45888.628900462958</v>
       </c>
       <c r="H100" s="1">
-        <v>45747</v>
+        <v>45828.673252314809</v>
       </c>
       <c r="I100" s="2">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="J100" s="3">
-        <v>-22</v>
+        <v>1721.02</v>
       </c>
       <c r="K100" s="3">
-        <v>-22</v>
+        <v>1721.02</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112050</v>
+        <v>211112151</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101">
-        <v>327</v>
+        <v>9800</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45777</v>
+        <v>45894.651828703703</v>
       </c>
       <c r="H101" s="1">
-        <v>45747</v>
+        <v>45834.65211805555</v>
       </c>
       <c r="I101" s="2">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="J101" s="3">
-        <v>-27.45</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="K101" s="3">
-        <v>-27.45</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112050</v>
+        <v>211112151</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
       </c>
       <c r="E102">
-        <v>328</v>
+        <v>9801</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45777</v>
+        <v>45894.653275462959</v>
       </c>
       <c r="H102" s="1">
-        <v>45747</v>
+        <v>45834.653495370367</v>
       </c>
       <c r="I102" s="2">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="J102" s="3">
-        <v>-5.73</v>
+        <v>1272.99</v>
       </c>
       <c r="K102" s="3">
-        <v>-5.73</v>
+        <v>1272.99</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4799,121 +4799,121 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>10369</v>
+        <v>9911</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45908.309050925927</v>
+        <v>45898.70108796296</v>
       </c>
       <c r="H103" s="1">
-        <v>45848.309965277775</v>
+        <v>45838.702037037037</v>
       </c>
       <c r="I103" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J103" s="3">
-        <v>1512.89</v>
+        <v>2730.67</v>
       </c>
       <c r="K103" s="3">
-        <v>1512.89</v>
+        <v>2730.67</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>10234</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45922</v>
+        <v>45905.634965277779</v>
       </c>
       <c r="H104" s="1">
-        <v>45862</v>
+        <v>45845.635636574072</v>
       </c>
       <c r="I104" s="2">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="J104" s="3">
-        <v>-15.38</v>
+        <v>2189.11</v>
       </c>
       <c r="K104" s="3">
-        <v>-15.38</v>
+        <v>2189.11</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
-      </c>
-      <c r="D105">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
       </c>
       <c r="E105">
-        <v>682</v>
+        <v>10548</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45922</v>
+        <v>45913.353020833332</v>
       </c>
       <c r="H105" s="1">
-        <v>45862</v>
+        <v>45853.353888888887</v>
       </c>
       <c r="I105" s="2">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="J105" s="3">
-        <v>-606.93000000000006</v>
+        <v>4871.05</v>
       </c>
       <c r="K105" s="3">
-        <v>-606.93000000000006</v>
+        <v>4871.05</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4922,25 +4922,25 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>11013</v>
+        <v>11138</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45923.283518518518</v>
+        <v>45927.358495370368</v>
       </c>
       <c r="H106" s="1">
-        <v>45863.287939814814</v>
+        <v>45867.359340277777</v>
       </c>
       <c r="I106" s="2">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="J106" s="3">
-        <v>417.19</v>
+        <v>1891.52</v>
       </c>
       <c r="K106" s="3">
-        <v>417.19</v>
+        <v>1891.52</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4963,25 +4963,25 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>11085</v>
+        <v>11469</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45923.645879629628</v>
+        <v>45935.331585648149</v>
       </c>
       <c r="H107" s="1">
-        <v>45863.645879629628</v>
+        <v>45875.332268518519</v>
       </c>
       <c r="I107" s="2">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="J107" s="3">
-        <v>726.19</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="K107" s="3">
-        <v>726.19</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -4992,10 +4992,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -5004,25 +5004,25 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>11609</v>
+        <v>11470</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45937.476863425924</v>
+        <v>45935.332488425927</v>
       </c>
       <c r="H108" s="1">
-        <v>45877.477210648147</v>
+        <v>45875.332824074074</v>
       </c>
       <c r="I108" s="2">
-        <v>-24</v>
+        <v>-15</v>
       </c>
       <c r="J108" s="3">
-        <v>957.27</v>
+        <v>1486.91</v>
       </c>
       <c r="K108" s="3">
-        <v>957.27</v>
+        <v>1486.91</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -5033,37 +5033,37 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C109" t="s">
         <v>22</v>
       </c>
-      <c r="D109">
-        <v>2025</v>
+      <c r="D109" t="s">
+        <v>54</v>
       </c>
       <c r="E109">
-        <v>794</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45955</v>
+        <v>45942</v>
       </c>
       <c r="H109" s="1">
-        <v>45895</v>
+        <v>45882</v>
       </c>
       <c r="I109" s="2">
-        <v>-42</v>
+        <v>-22</v>
       </c>
       <c r="J109" s="3">
-        <v>-13.25</v>
+        <v>-30.75</v>
       </c>
       <c r="K109" s="3">
-        <v>-13.25</v>
+        <v>-30.75</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5074,37 +5074,37 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
-      </c>
-      <c r="D110">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>795</v>
+        <v>11860</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45955</v>
+        <v>45942.619097222218</v>
       </c>
       <c r="H110" s="1">
-        <v>45895</v>
+        <v>45882.62773148148</v>
       </c>
       <c r="I110" s="2">
-        <v>-42</v>
+        <v>-22</v>
       </c>
       <c r="J110" s="3">
-        <v>-250.03</v>
+        <v>3031.57</v>
       </c>
       <c r="K110" s="3">
-        <v>-250.03</v>
+        <v>3031.57</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -5115,37 +5115,37 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
-      </c>
-      <c r="D111">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>36</v>
       </c>
       <c r="E111">
-        <v>839</v>
+        <v>153</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45965</v>
+        <v>45942.62940972222</v>
       </c>
       <c r="H111" s="1">
-        <v>45905</v>
+        <v>45882.629641203705</v>
       </c>
       <c r="I111" s="2">
-        <v>-52</v>
+        <v>-22</v>
       </c>
       <c r="J111" s="3">
-        <v>-18.150000000000002</v>
+        <v>1558.65</v>
       </c>
       <c r="K111" s="3">
-        <v>-18.150000000000002</v>
+        <v>1558.65</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -5156,10 +5156,10 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5168,25 +5168,25 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>12638</v>
+        <v>12581</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45965.438287037032</v>
+        <v>45963.658715277779</v>
       </c>
       <c r="H112" s="1">
-        <v>45905.438854166663</v>
+        <v>45903.659988425927</v>
       </c>
       <c r="I112" s="2">
-        <v>-52</v>
+        <v>-43</v>
       </c>
       <c r="J112" s="3">
-        <v>982.94</v>
+        <v>177.22</v>
       </c>
       <c r="K112" s="3">
-        <v>982.94</v>
+        <v>177.22</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211112052</v>
+        <v>211112151</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5209,25 +5209,25 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>12831</v>
+        <v>12582</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45971.32534722222</v>
+        <v>45963.660312499997</v>
       </c>
       <c r="H113" s="1">
-        <v>45911.325358796297</v>
+        <v>45903.661365740736</v>
       </c>
       <c r="I113" s="2">
-        <v>-58</v>
+        <v>-43</v>
       </c>
       <c r="J113" s="3">
-        <v>383.06</v>
+        <v>3123.88</v>
       </c>
       <c r="K113" s="3">
-        <v>383.06</v>
+        <v>3123.88</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -5238,92 +5238,92 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211112098</v>
+        <v>211112151</v>
       </c>
       <c r="B114" t="s">
         <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D114">
+        <v>2025</v>
       </c>
       <c r="E114">
-        <v>11783</v>
+        <v>847</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45912.363032407404</v>
+        <v>45969</v>
       </c>
       <c r="H114" s="1">
-        <v>45882.363032407404</v>
+        <v>45909</v>
       </c>
       <c r="I114" s="2">
-        <v>1</v>
+        <v>-49</v>
       </c>
       <c r="J114" s="3">
-        <v>468.88</v>
+        <v>-463.14</v>
       </c>
       <c r="K114" s="3">
-        <v>468.88</v>
+        <v>-463.14</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211112098</v>
+        <v>211112183</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D115">
+        <v>2025</v>
       </c>
       <c r="E115">
-        <v>12474</v>
+        <v>14</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45931.437384259254</v>
+        <v>45693</v>
       </c>
       <c r="H115" s="1">
-        <v>45901.437384259254</v>
+        <v>45663</v>
       </c>
       <c r="I115" s="2">
-        <v>-18</v>
+        <v>227</v>
       </c>
       <c r="J115" s="3">
-        <v>1269.1500000000001</v>
+        <v>-4385.22</v>
       </c>
       <c r="K115" s="3">
-        <v>1269.1500000000001</v>
+        <v>-782.21</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211112098</v>
+        <v>211112216</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5332,25 +5332,25 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>12871</v>
+        <v>12113</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45941.701736111107</v>
+        <v>45920.512499999997</v>
       </c>
       <c r="H116" s="1">
-        <v>45911.701736111107</v>
+        <v>45890.512499999997</v>
       </c>
       <c r="I116" s="2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="J116" s="3">
-        <v>148.14000000000001</v>
+        <v>265.43</v>
       </c>
       <c r="K116" s="3">
-        <v>148.14000000000001</v>
+        <v>265.43</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -5361,10 +5361,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5373,39 +5373,39 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>9177</v>
+        <v>12597</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45880.637939814813</v>
+        <v>45934.389282407406</v>
       </c>
       <c r="H117" s="1">
-        <v>45820.639421296291</v>
+        <v>45904.390023148146</v>
       </c>
       <c r="I117" s="2">
-        <v>33</v>
+        <v>-14</v>
       </c>
       <c r="J117" s="3">
-        <v>3277.76</v>
+        <v>1068</v>
       </c>
       <c r="K117" s="3">
-        <v>3277.76</v>
+        <v>1068</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5414,80 +5414,80 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>9560</v>
+        <v>12876</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45888.627025462964</v>
+        <v>45942.335138888884</v>
       </c>
       <c r="H118" s="1">
-        <v>45828.628541666665</v>
+        <v>45912.335138888884</v>
       </c>
       <c r="I118" s="2">
-        <v>25</v>
+        <v>-22</v>
       </c>
       <c r="J118" s="3">
-        <v>2976.7400000000002</v>
+        <v>582.91</v>
       </c>
       <c r="K118" s="3">
-        <v>2976.7400000000002</v>
+        <v>582.91</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112151</v>
+        <v>211112290</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E119">
-        <v>123</v>
+        <v>10786</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45888.628900462958</v>
+        <v>45916.621446759258</v>
       </c>
       <c r="H119" s="1">
-        <v>45828.673252314809</v>
+        <v>45856.622523148144</v>
       </c>
       <c r="I119" s="2">
+        <v>4</v>
+      </c>
+      <c r="J119" s="3">
+        <v>2347.12</v>
+      </c>
+      <c r="K119" s="3">
+        <v>2347.12</v>
+      </c>
+      <c r="L119" t="s">
+        <v>17</v>
+      </c>
+      <c r="M119" t="s">
         <v>25</v>
-      </c>
-      <c r="J119" s="3">
-        <v>1721.02</v>
-      </c>
-      <c r="K119" s="3">
-        <v>1721.02</v>
-      </c>
-      <c r="L119" t="s">
-        <v>17</v>
-      </c>
-      <c r="M119" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>211112151</v>
+        <v>211112290</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5496,244 +5496,244 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>9800</v>
+        <v>11859</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45894.651828703703</v>
+        <v>45942.611527777779</v>
       </c>
       <c r="H120" s="1">
-        <v>45834.65211805555</v>
+        <v>45882.616122685184</v>
       </c>
       <c r="I120" s="2">
-        <v>19</v>
+        <v>-22</v>
       </c>
       <c r="J120" s="3">
-        <v>617.68000000000006</v>
+        <v>1123.45</v>
       </c>
       <c r="K120" s="3">
-        <v>617.68000000000006</v>
+        <v>1123.45</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>211112151</v>
+        <v>211112334</v>
       </c>
       <c r="B121" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" t="s">
+        <v>35</v>
+      </c>
+      <c r="E121" t="s">
+        <v>42</v>
+      </c>
+      <c r="F121" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" s="1">
+        <v>45406</v>
+      </c>
+      <c r="H121" s="1">
+        <v>45391</v>
+      </c>
+      <c r="I121" s="2">
+        <v>514</v>
+      </c>
+      <c r="J121" s="3">
+        <v>597.29</v>
+      </c>
+      <c r="K121" s="3">
+        <v>597.29</v>
+      </c>
+      <c r="L121" t="s">
+        <v>17</v>
+      </c>
+      <c r="M121" t="s">
         <v>34</v>
-      </c>
-      <c r="C121" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121">
-        <v>9801</v>
-      </c>
-      <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" s="1">
-        <v>45894.653275462959</v>
-      </c>
-      <c r="H121" s="1">
-        <v>45834.653495370367</v>
-      </c>
-      <c r="I121" s="2">
-        <v>19</v>
-      </c>
-      <c r="J121" s="3">
-        <v>1272.99</v>
-      </c>
-      <c r="K121" s="3">
-        <v>1272.99</v>
-      </c>
-      <c r="L121" t="s">
-        <v>17</v>
-      </c>
-      <c r="M121" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>211112151</v>
+        <v>211112334</v>
       </c>
       <c r="B122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="1">
+        <v>45406</v>
+      </c>
+      <c r="H122" s="1">
+        <v>45391</v>
+      </c>
+      <c r="I122" s="2">
+        <v>514</v>
+      </c>
+      <c r="J122" s="3">
+        <v>591.72</v>
+      </c>
+      <c r="K122" s="3">
+        <v>591.72</v>
+      </c>
+      <c r="L122" t="s">
+        <v>17</v>
+      </c>
+      <c r="M122" t="s">
         <v>34</v>
-      </c>
-      <c r="C122" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122">
-        <v>9911</v>
-      </c>
-      <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="1">
-        <v>45898.70108796296</v>
-      </c>
-      <c r="H122" s="1">
-        <v>45838.702037037037</v>
-      </c>
-      <c r="I122" s="2">
-        <v>15</v>
-      </c>
-      <c r="J122" s="3">
-        <v>2730.67</v>
-      </c>
-      <c r="K122" s="3">
-        <v>2730.67</v>
-      </c>
-      <c r="L122" t="s">
-        <v>17</v>
-      </c>
-      <c r="M122" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211112151</v>
+        <v>211112334</v>
       </c>
       <c r="B123" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="1">
+        <v>45419</v>
+      </c>
+      <c r="H123" s="1">
+        <v>45404</v>
+      </c>
+      <c r="I123" s="2">
+        <v>501</v>
+      </c>
+      <c r="J123" s="3">
+        <v>599.27</v>
+      </c>
+      <c r="K123" s="3">
+        <v>599.27</v>
+      </c>
+      <c r="L123" t="s">
+        <v>17</v>
+      </c>
+      <c r="M123" t="s">
         <v>34</v>
-      </c>
-      <c r="C123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123">
-        <v>10234</v>
-      </c>
-      <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" s="1">
-        <v>45905.634965277779</v>
-      </c>
-      <c r="H123" s="1">
-        <v>45845.635636574072</v>
-      </c>
-      <c r="I123" s="2">
-        <v>8</v>
-      </c>
-      <c r="J123" s="3">
-        <v>2189.11</v>
-      </c>
-      <c r="K123" s="3">
-        <v>2189.11</v>
-      </c>
-      <c r="L123" t="s">
-        <v>17</v>
-      </c>
-      <c r="M123" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211112151</v>
+        <v>211112334</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="D124">
+        <v>2025</v>
       </c>
       <c r="E124">
-        <v>10548</v>
+        <v>91</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45913.353020833332</v>
+        <v>45906</v>
       </c>
       <c r="H124" s="1">
-        <v>45853.353888888887</v>
+        <v>45876</v>
       </c>
       <c r="I124" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J124" s="3">
-        <v>4871.05</v>
+        <v>-64.14</v>
       </c>
       <c r="K124" s="3">
-        <v>4871.05</v>
+        <v>-64.14</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211112151</v>
+        <v>211112334</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="D125">
+        <v>2025</v>
       </c>
       <c r="E125">
-        <v>11138</v>
+        <v>92</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45927.358495370368</v>
+        <v>45906</v>
       </c>
       <c r="H125" s="1">
-        <v>45867.359340277777</v>
+        <v>45876</v>
       </c>
       <c r="I125" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="J125" s="3">
-        <v>1891.52</v>
+        <v>-174.57</v>
       </c>
       <c r="K125" s="3">
-        <v>1891.52</v>
+        <v>-174.57</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112151</v>
+        <v>211112351</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5742,39 +5742,39 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>11469</v>
+        <v>8750</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45935.331585648149</v>
+        <v>45871.312986111108</v>
       </c>
       <c r="H126" s="1">
-        <v>45875.332268518519</v>
+        <v>45811.315150462964</v>
       </c>
       <c r="I126" s="2">
-        <v>-22</v>
+        <v>49</v>
       </c>
       <c r="J126" s="3">
-        <v>2536.7800000000002</v>
+        <v>2626.23</v>
       </c>
       <c r="K126" s="3">
-        <v>2536.7800000000002</v>
+        <v>2626.23</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112151</v>
+        <v>211112351</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -5783,80 +5783,80 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>11470</v>
+        <v>9758</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45935.332488425927</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H127" s="1">
-        <v>45875.332824074074</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I127" s="2">
-        <v>-22</v>
+        <v>26</v>
       </c>
       <c r="J127" s="3">
-        <v>1486.91</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K127" s="3">
-        <v>1486.91</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
       </c>
       <c r="M127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112151</v>
+        <v>211112421</v>
       </c>
       <c r="B128" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128">
+        <v>3848</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="1">
+        <v>45746.622569444444</v>
+      </c>
+      <c r="H128" s="1">
+        <v>45716.624456018515</v>
+      </c>
+      <c r="I128" s="2">
+        <v>174</v>
+      </c>
+      <c r="J128" s="3">
+        <v>233.77</v>
+      </c>
+      <c r="K128" s="3">
+        <v>233.77</v>
+      </c>
+      <c r="L128" t="s">
+        <v>17</v>
+      </c>
+      <c r="M128" t="s">
         <v>34</v>
-      </c>
-      <c r="C128" t="s">
-        <v>22</v>
-      </c>
-      <c r="D128" t="s">
-        <v>55</v>
-      </c>
-      <c r="E128">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" s="1">
-        <v>45942</v>
-      </c>
-      <c r="H128" s="1">
-        <v>45882</v>
-      </c>
-      <c r="I128" s="2">
-        <v>-29</v>
-      </c>
-      <c r="J128" s="3">
-        <v>-30.75</v>
-      </c>
-      <c r="K128" s="3">
-        <v>-30.75</v>
-      </c>
-      <c r="L128" t="s">
-        <v>17</v>
-      </c>
-      <c r="M128" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112151</v>
+        <v>211112443</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -5865,80 +5865,80 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>11860</v>
+        <v>10549</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45942.619097222218</v>
+        <v>45883.354108796295</v>
       </c>
       <c r="H129" s="1">
-        <v>45882.62773148148</v>
+        <v>45853.354548611111</v>
       </c>
       <c r="I129" s="2">
-        <v>-29</v>
+        <v>37</v>
       </c>
       <c r="J129" s="3">
-        <v>3031.57</v>
+        <v>1094.7</v>
       </c>
       <c r="K129" s="3">
-        <v>3031.57</v>
+        <v>1094.7</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
       </c>
       <c r="M129" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112151</v>
+        <v>211112455</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E130">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45942.62940972222</v>
+        <v>45900</v>
       </c>
       <c r="H130" s="1">
-        <v>45882.629641203705</v>
+        <v>45870</v>
       </c>
       <c r="I130" s="2">
-        <v>-29</v>
+        <v>20</v>
       </c>
       <c r="J130" s="3">
-        <v>1558.65</v>
+        <v>-15.38</v>
       </c>
       <c r="K130" s="3">
-        <v>1558.65</v>
+        <v>-15.38</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112151</v>
+        <v>211112455</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5947,39 +5947,39 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>12581</v>
+        <v>11471</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45963.658715277779</v>
+        <v>45905.332974537036</v>
       </c>
       <c r="H131" s="1">
-        <v>45903.659988425927</v>
+        <v>45875.333553240736</v>
       </c>
       <c r="I131" s="2">
-        <v>-50</v>
+        <v>15</v>
       </c>
       <c r="J131" s="3">
-        <v>177.22</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="K131" s="3">
-        <v>177.22</v>
+        <v>1789.6000000000001</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112151</v>
+        <v>211112455</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -5988,80 +5988,80 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>12582</v>
+        <v>11858</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45963.660312499997</v>
+        <v>45912.609606481477</v>
       </c>
       <c r="H132" s="1">
-        <v>45903.661365740736</v>
+        <v>45882.61142361111</v>
       </c>
       <c r="I132" s="2">
-        <v>-50</v>
+        <v>8</v>
       </c>
       <c r="J132" s="3">
-        <v>3123.88</v>
+        <v>2905.4</v>
       </c>
       <c r="K132" s="3">
-        <v>3123.88</v>
+        <v>2905.4</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112183</v>
+        <v>211112455</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
-      </c>
-      <c r="D133">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
       </c>
       <c r="E133">
-        <v>14</v>
+        <v>12035</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45693</v>
+        <v>45919.369513888887</v>
       </c>
       <c r="H133" s="1">
-        <v>45663</v>
+        <v>45889.370081018518</v>
       </c>
       <c r="I133" s="2">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="J133" s="3">
-        <v>-4385.22</v>
+        <v>3591.86</v>
       </c>
       <c r="K133" s="3">
-        <v>-782.21</v>
+        <v>3591.86</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112216</v>
+        <v>211112455</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6070,25 +6070,25 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>12113</v>
+        <v>12367</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45920.512499999997</v>
+        <v>45927.412766203699</v>
       </c>
       <c r="H134" s="1">
-        <v>45890.512499999997</v>
+        <v>45897.415347222217</v>
       </c>
       <c r="I134" s="2">
         <v>-7</v>
       </c>
       <c r="J134" s="3">
-        <v>265.43</v>
+        <v>3508</v>
       </c>
       <c r="K134" s="3">
-        <v>265.43</v>
+        <v>3508</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -6099,37 +6099,37 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112216</v>
+        <v>211112455</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="E135">
-        <v>12597</v>
+        <v>569</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45934.389282407406</v>
+        <v>45934</v>
       </c>
       <c r="H135" s="1">
-        <v>45904.390023148146</v>
+        <v>45904</v>
       </c>
       <c r="I135" s="2">
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="J135" s="3">
-        <v>1068</v>
+        <v>-576.78</v>
       </c>
       <c r="K135" s="3">
-        <v>1068</v>
+        <v>-576.78</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -6140,10 +6140,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112216</v>
+        <v>211112455</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -6152,25 +6152,25 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>12876</v>
+        <v>12863</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45942.335138888884</v>
+        <v>45941.622974537036</v>
       </c>
       <c r="H136" s="1">
-        <v>45912.335138888884</v>
+        <v>45911.623657407406</v>
       </c>
       <c r="I136" s="2">
-        <v>-29</v>
+        <v>-21</v>
       </c>
       <c r="J136" s="3">
-        <v>582.91</v>
+        <v>2219.06</v>
       </c>
       <c r="K136" s="3">
-        <v>582.91</v>
+        <v>2219.06</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112290</v>
+        <v>211112469</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -6193,39 +6193,39 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>10786</v>
+        <v>11558</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45916.621446759258</v>
+        <v>45906.43645833333</v>
       </c>
       <c r="H137" s="1">
-        <v>45856.622523148144</v>
+        <v>45876.437384259254</v>
       </c>
       <c r="I137" s="2">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="J137" s="3">
-        <v>2347.12</v>
+        <v>1107.6200000000001</v>
       </c>
       <c r="K137" s="3">
-        <v>2347.12</v>
+        <v>15.370000000000001</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112290</v>
+        <v>211112469</v>
       </c>
       <c r="B138" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -6234,25 +6234,25 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>11859</v>
+        <v>12361</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45942.611527777779</v>
+        <v>45927.39025462963</v>
       </c>
       <c r="H138" s="1">
-        <v>45882.616122685184</v>
+        <v>45897.394027777773</v>
       </c>
       <c r="I138" s="2">
-        <v>-29</v>
+        <v>-7</v>
       </c>
       <c r="J138" s="3">
-        <v>1123.45</v>
+        <v>351.14</v>
       </c>
       <c r="K138" s="3">
-        <v>1123.45</v>
+        <v>351.14</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -6263,215 +6263,215 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112334</v>
+        <v>211112469</v>
       </c>
       <c r="B139" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C139" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>36</v>
-      </c>
-      <c r="E139" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="E139">
+        <v>12705</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45406</v>
+        <v>45938.519317129627</v>
       </c>
       <c r="H139" s="1">
-        <v>45391</v>
+        <v>45908.521111111106</v>
       </c>
       <c r="I139" s="2">
-        <v>507</v>
+        <v>-18</v>
       </c>
       <c r="J139" s="3">
-        <v>597.29</v>
+        <v>825.99</v>
       </c>
       <c r="K139" s="3">
-        <v>597.29</v>
+        <v>825.99</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112334</v>
+        <v>211112488</v>
       </c>
       <c r="B140" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C140" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>36</v>
-      </c>
-      <c r="E140" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="E140">
+        <v>12146</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45406</v>
+        <v>45920.679456018515</v>
       </c>
       <c r="H140" s="1">
-        <v>45391</v>
+        <v>45890.681793981479</v>
       </c>
       <c r="I140" s="2">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="J140" s="3">
-        <v>591.72</v>
+        <v>1241.79</v>
       </c>
       <c r="K140" s="3">
-        <v>591.72</v>
+        <v>1241.79</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112334</v>
+        <v>211112489</v>
       </c>
       <c r="B141" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
-      </c>
-      <c r="E141" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E141">
+        <v>12944</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45419</v>
+        <v>45975.520891203705</v>
       </c>
       <c r="H141" s="1">
-        <v>45404</v>
+        <v>45915.521157407406</v>
       </c>
       <c r="I141" s="2">
-        <v>494</v>
+        <v>-55</v>
       </c>
       <c r="J141" s="3">
-        <v>599.27</v>
+        <v>2866.7400000000002</v>
       </c>
       <c r="K141" s="3">
-        <v>599.27</v>
+        <v>2866.7400000000002</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112334</v>
+        <v>211112515</v>
       </c>
       <c r="B142" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C142" t="s">
-        <v>58</v>
-      </c>
-      <c r="D142">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
       </c>
       <c r="E142">
-        <v>91</v>
+        <v>12949</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45906</v>
+        <v>45946.310219907406</v>
       </c>
       <c r="H142" s="1">
-        <v>45876</v>
+        <v>45916.310243055552</v>
       </c>
       <c r="I142" s="2">
-        <v>7</v>
+        <v>-26</v>
       </c>
       <c r="J142" s="3">
-        <v>-64.14</v>
+        <v>1067.78</v>
       </c>
       <c r="K142" s="3">
-        <v>-64.14</v>
+        <v>1067.78</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112334</v>
+        <v>211112515</v>
       </c>
       <c r="B143" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C143" t="s">
-        <v>58</v>
-      </c>
-      <c r="D143">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
       </c>
       <c r="E143">
-        <v>92</v>
+        <v>13157</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45906</v>
+        <v>45949.347083333334</v>
       </c>
       <c r="H143" s="1">
-        <v>45876</v>
+        <v>45919.347291666665</v>
       </c>
       <c r="I143" s="2">
-        <v>7</v>
+        <v>-29</v>
       </c>
       <c r="J143" s="3">
-        <v>-174.57</v>
+        <v>146.07</v>
       </c>
       <c r="K143" s="3">
-        <v>-174.57</v>
+        <v>146.07</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112351</v>
+        <v>211112518</v>
       </c>
       <c r="B144" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6480,39 +6480,39 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>8750</v>
+        <v>9953</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45871.312986111108</v>
+        <v>45900.407731481479</v>
       </c>
       <c r="H144" s="1">
-        <v>45811.315150462964</v>
+        <v>45840.408055555556</v>
       </c>
       <c r="I144" s="2">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J144" s="3">
-        <v>2626.23</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="K144" s="3">
-        <v>2626.23</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112351</v>
+        <v>211112518</v>
       </c>
       <c r="B145" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6521,25 +6521,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>9758</v>
+        <v>10114</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45894.404513888891</v>
+        <v>45902.400694444441</v>
       </c>
       <c r="H145" s="1">
-        <v>45834.411666666667</v>
+        <v>45842.400694444441</v>
       </c>
       <c r="I145" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J145" s="3">
-        <v>2212.2600000000002</v>
+        <v>219.86</v>
       </c>
       <c r="K145" s="3">
-        <v>2212.2600000000002</v>
+        <v>219.86</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112421</v>
+        <v>211112518</v>
       </c>
       <c r="B146" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6562,39 +6562,39 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>3848</v>
+        <v>10919</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45746.622569444444</v>
+        <v>45921.540416666663</v>
       </c>
       <c r="H146" s="1">
-        <v>45716.624456018515</v>
+        <v>45861.54415509259</v>
       </c>
       <c r="I146" s="2">
-        <v>167</v>
+        <v>-1</v>
       </c>
       <c r="J146" s="3">
-        <v>233.77</v>
+        <v>817.86</v>
       </c>
       <c r="K146" s="3">
-        <v>233.77</v>
+        <v>817.86</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112443</v>
+        <v>211112518</v>
       </c>
       <c r="B147" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6603,80 +6603,80 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>10549</v>
+        <v>12069</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45883.354108796295</v>
+        <v>45949.520509259259</v>
       </c>
       <c r="H147" s="1">
-        <v>45853.354548611111</v>
+        <v>45889.520520833328</v>
       </c>
       <c r="I147" s="2">
-        <v>30</v>
+        <v>-29</v>
       </c>
       <c r="J147" s="3">
-        <v>1094.7</v>
+        <v>624.23</v>
       </c>
       <c r="K147" s="3">
-        <v>1094.7</v>
+        <v>624.23</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112455</v>
+        <v>211112531</v>
       </c>
       <c r="B148" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E148">
-        <v>9</v>
+        <v>12821</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45900</v>
+        <v>45940.714884259258</v>
       </c>
       <c r="H148" s="1">
-        <v>45870</v>
+        <v>45910.715243055551</v>
       </c>
       <c r="I148" s="2">
-        <v>13</v>
+        <v>-20</v>
       </c>
       <c r="J148" s="3">
-        <v>-15.38</v>
+        <v>164.15</v>
       </c>
       <c r="K148" s="3">
-        <v>-15.38</v>
+        <v>164.15</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112455</v>
+        <v>211112531</v>
       </c>
       <c r="B149" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6685,850 +6685,30 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>11299</v>
+        <v>12929</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="1">
-        <v>45900.301238425927</v>
+        <v>45945.396874999999</v>
       </c>
       <c r="H149" s="1">
-        <v>45870.301851851851</v>
+        <v>45915.396874999999</v>
       </c>
       <c r="I149" s="2">
-        <v>13</v>
+        <v>-25</v>
       </c>
       <c r="J149" s="3">
-        <v>1512.3600000000001</v>
+        <v>227.9</v>
       </c>
       <c r="K149" s="3">
-        <v>1512.3600000000001</v>
+        <v>227.9</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
       </c>
       <c r="M149" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>211112455</v>
-      </c>
-      <c r="B150" t="s">
-        <v>49</v>
-      </c>
-      <c r="C150" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E150">
-        <v>11471</v>
-      </c>
-      <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" s="1">
-        <v>45905.332974537036</v>
-      </c>
-      <c r="H150" s="1">
-        <v>45875.333553240736</v>
-      </c>
-      <c r="I150" s="2">
-        <v>8</v>
-      </c>
-      <c r="J150" s="3">
-        <v>1789.6000000000001</v>
-      </c>
-      <c r="K150" s="3">
-        <v>1789.6000000000001</v>
-      </c>
-      <c r="L150" t="s">
-        <v>17</v>
-      </c>
-      <c r="M150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>211112455</v>
-      </c>
-      <c r="B151" t="s">
-        <v>49</v>
-      </c>
-      <c r="C151" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151">
-        <v>11858</v>
-      </c>
-      <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" s="1">
-        <v>45912.609606481477</v>
-      </c>
-      <c r="H151" s="1">
-        <v>45882.61142361111</v>
-      </c>
-      <c r="I151" s="2">
-        <v>1</v>
-      </c>
-      <c r="J151" s="3">
-        <v>2905.4</v>
-      </c>
-      <c r="K151" s="3">
-        <v>2905.4</v>
-      </c>
-      <c r="L151" t="s">
-        <v>17</v>
-      </c>
-      <c r="M151" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>211112455</v>
-      </c>
-      <c r="B152" t="s">
-        <v>49</v>
-      </c>
-      <c r="C152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152">
-        <v>12035</v>
-      </c>
-      <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" s="1">
-        <v>45919.369513888887</v>
-      </c>
-      <c r="H152" s="1">
-        <v>45889.370081018518</v>
-      </c>
-      <c r="I152" s="2">
-        <v>-6</v>
-      </c>
-      <c r="J152" s="3">
-        <v>3591.86</v>
-      </c>
-      <c r="K152" s="3">
-        <v>3591.86</v>
-      </c>
-      <c r="L152" t="s">
-        <v>17</v>
-      </c>
-      <c r="M152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>211112455</v>
-      </c>
-      <c r="B153" t="s">
-        <v>49</v>
-      </c>
-      <c r="C153" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153">
-        <v>12367</v>
-      </c>
-      <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" s="1">
-        <v>45927.412766203699</v>
-      </c>
-      <c r="H153" s="1">
-        <v>45897.415347222217</v>
-      </c>
-      <c r="I153" s="2">
-        <v>-14</v>
-      </c>
-      <c r="J153" s="3">
-        <v>3508</v>
-      </c>
-      <c r="K153" s="3">
-        <v>3508</v>
-      </c>
-      <c r="L153" t="s">
-        <v>17</v>
-      </c>
-      <c r="M153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>211112455</v>
-      </c>
-      <c r="B154" t="s">
-        <v>49</v>
-      </c>
-      <c r="C154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154">
-        <v>12863</v>
-      </c>
-      <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" s="1">
-        <v>45941.622974537036</v>
-      </c>
-      <c r="H154" s="1">
-        <v>45911.623657407406</v>
-      </c>
-      <c r="I154" s="2">
-        <v>-28</v>
-      </c>
-      <c r="J154" s="3">
-        <v>2219.06</v>
-      </c>
-      <c r="K154" s="3">
-        <v>2219.06</v>
-      </c>
-      <c r="L154" t="s">
-        <v>17</v>
-      </c>
-      <c r="M154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>211112469</v>
-      </c>
-      <c r="B155" t="s">
-        <v>50</v>
-      </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155">
-        <v>11558</v>
-      </c>
-      <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" s="1">
-        <v>45906.43645833333</v>
-      </c>
-      <c r="H155" s="1">
-        <v>45876.437384259254</v>
-      </c>
-      <c r="I155" s="2">
-        <v>7</v>
-      </c>
-      <c r="J155" s="3">
-        <v>1107.6200000000001</v>
-      </c>
-      <c r="K155" s="3">
-        <v>15.370000000000001</v>
-      </c>
-      <c r="L155" t="s">
-        <v>17</v>
-      </c>
-      <c r="M155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>211112469</v>
-      </c>
-      <c r="B156" t="s">
-        <v>50</v>
-      </c>
-      <c r="C156" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156">
-        <v>12361</v>
-      </c>
-      <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" s="1">
-        <v>45927.39025462963</v>
-      </c>
-      <c r="H156" s="1">
-        <v>45897.394027777773</v>
-      </c>
-      <c r="I156" s="2">
-        <v>-14</v>
-      </c>
-      <c r="J156" s="3">
-        <v>351.14</v>
-      </c>
-      <c r="K156" s="3">
-        <v>351.14</v>
-      </c>
-      <c r="L156" t="s">
-        <v>17</v>
-      </c>
-      <c r="M156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>211112469</v>
-      </c>
-      <c r="B157" t="s">
-        <v>50</v>
-      </c>
-      <c r="C157" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157">
-        <v>12705</v>
-      </c>
-      <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" s="1">
-        <v>45938.519317129627</v>
-      </c>
-      <c r="H157" s="1">
-        <v>45908.521111111106</v>
-      </c>
-      <c r="I157" s="2">
-        <v>-25</v>
-      </c>
-      <c r="J157" s="3">
-        <v>825.99</v>
-      </c>
-      <c r="K157" s="3">
-        <v>825.99</v>
-      </c>
-      <c r="L157" t="s">
-        <v>17</v>
-      </c>
-      <c r="M157" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>211112488</v>
-      </c>
-      <c r="B158" t="s">
-        <v>51</v>
-      </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158">
-        <v>12146</v>
-      </c>
-      <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" s="1">
-        <v>45920.679456018515</v>
-      </c>
-      <c r="H158" s="1">
-        <v>45890.681793981479</v>
-      </c>
-      <c r="I158" s="2">
-        <v>-7</v>
-      </c>
-      <c r="J158" s="3">
-        <v>1241.79</v>
-      </c>
-      <c r="K158" s="3">
-        <v>1241.79</v>
-      </c>
-      <c r="L158" t="s">
-        <v>17</v>
-      </c>
-      <c r="M158" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>211112515</v>
-      </c>
-      <c r="B159" t="s">
-        <v>52</v>
-      </c>
-      <c r="C159" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159">
-        <v>11868</v>
-      </c>
-      <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" s="1">
-        <v>45913.38927083333</v>
-      </c>
-      <c r="H159" s="1">
-        <v>45883.390358796292</v>
-      </c>
-      <c r="I159" s="2">
-        <v>0</v>
-      </c>
-      <c r="J159" s="3">
-        <v>1706.69</v>
-      </c>
-      <c r="K159" s="3">
-        <v>1706.69</v>
-      </c>
-      <c r="L159" t="s">
-        <v>17</v>
-      </c>
-      <c r="M159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>211112515</v>
-      </c>
-      <c r="B160" t="s">
-        <v>52</v>
-      </c>
-      <c r="C160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D160">
-        <v>2025</v>
-      </c>
-      <c r="E160">
-        <v>764</v>
-      </c>
-      <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" s="1">
-        <v>45914</v>
-      </c>
-      <c r="H160" s="1">
-        <v>45884</v>
-      </c>
-      <c r="I160" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J160" s="3">
-        <v>-70.45</v>
-      </c>
-      <c r="K160" s="3">
-        <v>-70.45</v>
-      </c>
-      <c r="L160" t="s">
-        <v>17</v>
-      </c>
-      <c r="M160" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>211112515</v>
-      </c>
-      <c r="B161" t="s">
-        <v>52</v>
-      </c>
-      <c r="C161" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161">
-        <v>12042</v>
-      </c>
-      <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" s="1">
-        <v>45919.439918981479</v>
-      </c>
-      <c r="H161" s="1">
-        <v>45889.441377314812</v>
-      </c>
-      <c r="I161" s="2">
-        <v>-6</v>
-      </c>
-      <c r="J161" s="3">
-        <v>1864.56</v>
-      </c>
-      <c r="K161" s="3">
-        <v>1864.56</v>
-      </c>
-      <c r="L161" t="s">
-        <v>17</v>
-      </c>
-      <c r="M161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>211112515</v>
-      </c>
-      <c r="B162" t="s">
-        <v>52</v>
-      </c>
-      <c r="C162" t="s">
-        <v>22</v>
-      </c>
-      <c r="D162">
-        <v>2025</v>
-      </c>
-      <c r="E162">
-        <v>778</v>
-      </c>
-      <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" s="1">
-        <v>45920</v>
-      </c>
-      <c r="H162" s="1">
-        <v>45890</v>
-      </c>
-      <c r="I162" s="2">
-        <v>-7</v>
-      </c>
-      <c r="J162" s="3">
-        <v>-65.08</v>
-      </c>
-      <c r="K162" s="3">
-        <v>-65.08</v>
-      </c>
-      <c r="L162" t="s">
-        <v>17</v>
-      </c>
-      <c r="M162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>211112518</v>
-      </c>
-      <c r="B163" t="s">
-        <v>53</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163">
-        <v>9953</v>
-      </c>
-      <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" s="1">
-        <v>45900.407731481479</v>
-      </c>
-      <c r="H163" s="1">
-        <v>45840.408055555556</v>
-      </c>
-      <c r="I163" s="2">
-        <v>13</v>
-      </c>
-      <c r="J163" s="3">
-        <v>358.40000000000003</v>
-      </c>
-      <c r="K163" s="3">
-        <v>358.40000000000003</v>
-      </c>
-      <c r="L163" t="s">
-        <v>17</v>
-      </c>
-      <c r="M163" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>211112518</v>
-      </c>
-      <c r="B164" t="s">
-        <v>53</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164">
-        <v>10114</v>
-      </c>
-      <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" s="1">
-        <v>45902.400694444441</v>
-      </c>
-      <c r="H164" s="1">
-        <v>45842.400694444441</v>
-      </c>
-      <c r="I164" s="2">
-        <v>11</v>
-      </c>
-      <c r="J164" s="3">
-        <v>219.86</v>
-      </c>
-      <c r="K164" s="3">
-        <v>219.86</v>
-      </c>
-      <c r="L164" t="s">
-        <v>17</v>
-      </c>
-      <c r="M164" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>211112518</v>
-      </c>
-      <c r="B165" t="s">
-        <v>53</v>
-      </c>
-      <c r="C165" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165">
-        <v>10919</v>
-      </c>
-      <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" s="1">
-        <v>45921.540416666663</v>
-      </c>
-      <c r="H165" s="1">
-        <v>45861.54415509259</v>
-      </c>
-      <c r="I165" s="2">
-        <v>-8</v>
-      </c>
-      <c r="J165" s="3">
-        <v>817.86</v>
-      </c>
-      <c r="K165" s="3">
-        <v>817.86</v>
-      </c>
-      <c r="L165" t="s">
-        <v>17</v>
-      </c>
-      <c r="M165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>211112518</v>
-      </c>
-      <c r="B166" t="s">
-        <v>53</v>
-      </c>
-      <c r="C166" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166">
-        <v>12069</v>
-      </c>
-      <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" s="1">
-        <v>45949.520509259259</v>
-      </c>
-      <c r="H166" s="1">
-        <v>45889.520520833328</v>
-      </c>
-      <c r="I166" s="2">
-        <v>-36</v>
-      </c>
-      <c r="J166" s="3">
-        <v>624.23</v>
-      </c>
-      <c r="K166" s="3">
-        <v>624.23</v>
-      </c>
-      <c r="L166" t="s">
-        <v>17</v>
-      </c>
-      <c r="M166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>211112531</v>
-      </c>
-      <c r="B167" t="s">
-        <v>54</v>
-      </c>
-      <c r="C167" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E167">
-        <v>11813</v>
-      </c>
-      <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" s="1">
-        <v>45912.512372685182</v>
-      </c>
-      <c r="H167" s="1">
-        <v>45882.512384259258</v>
-      </c>
-      <c r="I167" s="2">
-        <v>1</v>
-      </c>
-      <c r="J167" s="3">
-        <v>110.37</v>
-      </c>
-      <c r="K167" s="3">
-        <v>110.37</v>
-      </c>
-      <c r="L167" t="s">
-        <v>17</v>
-      </c>
-      <c r="M167" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>211112531</v>
-      </c>
-      <c r="B168" t="s">
-        <v>54</v>
-      </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" t="s">
-        <v>15</v>
-      </c>
-      <c r="E168">
-        <v>11935</v>
-      </c>
-      <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" s="1">
-        <v>45913.654675925922</v>
-      </c>
-      <c r="H168" s="1">
-        <v>45883.654907407406</v>
-      </c>
-      <c r="I168" s="2">
-        <v>0</v>
-      </c>
-      <c r="J168" s="3">
-        <v>71.320000000000007</v>
-      </c>
-      <c r="K168" s="3">
-        <v>71.320000000000007</v>
-      </c>
-      <c r="L168" t="s">
-        <v>17</v>
-      </c>
-      <c r="M168" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>211112531</v>
-      </c>
-      <c r="B169" t="s">
-        <v>54</v>
-      </c>
-      <c r="C169" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" t="s">
-        <v>15</v>
-      </c>
-      <c r="E169">
-        <v>12821</v>
-      </c>
-      <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" s="1">
-        <v>45940.714884259258</v>
-      </c>
-      <c r="H169" s="1">
-        <v>45910.715243055551</v>
-      </c>
-      <c r="I169" s="2">
-        <v>-27</v>
-      </c>
-      <c r="J169" s="3">
-        <v>164.15</v>
-      </c>
-      <c r="K169" s="3">
-        <v>164.15</v>
-      </c>
-      <c r="L169" t="s">
-        <v>17</v>
-      </c>
-      <c r="M169" t="s">
         <v>19</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E032F9-B17F-47A2-AFAA-1DC5D6D774AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ED6626-3021-4D70-A5A9-0BCBAFE101DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="59">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>Pereira &amp; Ribeiro, Lda.</t>
-  </si>
-  <si>
-    <t>Henrique Mendes Ribeiro - Mm,Lda</t>
   </si>
   <si>
     <t>NCPR</t>
@@ -590,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M149"/>
+      <selection activeCell="A2" sqref="A2:M165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,31 +649,31 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2">
-        <v>12980</v>
+        <v>573</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1">
-        <v>45946.422337962962</v>
+        <v>45946</v>
       </c>
       <c r="H2" s="1">
-        <v>45916.422337962962</v>
+        <v>45916</v>
       </c>
       <c r="I2" s="2">
-        <v>-26</v>
+        <v>-17</v>
       </c>
       <c r="J2" s="3">
-        <v>664.32</v>
+        <v>-47.94</v>
       </c>
       <c r="K2" s="3">
-        <v>664.32</v>
+        <v>-47.94</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -687,10 +684,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>211110102</v>
+        <v>211110034</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -699,31 +696,31 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>11289</v>
+        <v>12980</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1">
-        <v>45899.506041666667</v>
+        <v>45946.422337962962</v>
       </c>
       <c r="H3" s="1">
-        <v>45869.506041666667</v>
+        <v>45916.422337962962</v>
       </c>
       <c r="I3" s="2">
-        <v>21</v>
+        <v>-17.422337962962047</v>
       </c>
       <c r="J3" s="3">
-        <v>470.6</v>
+        <v>664.32</v>
       </c>
       <c r="K3" s="3">
-        <v>470.6</v>
+        <v>664.32</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -740,31 +737,31 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>12078</v>
+        <v>11289</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>45919.572592592587</v>
+        <v>45899.506041666667</v>
       </c>
       <c r="H4" s="1">
-        <v>45889.572592592587</v>
+        <v>45869.506041666667</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>29.493958333332557</v>
       </c>
       <c r="J4" s="3">
-        <v>227.44</v>
+        <v>470.6</v>
       </c>
       <c r="K4" s="3">
-        <v>227.44</v>
+        <v>470.6</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -781,39 +778,39 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12520</v>
+        <v>12078</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>45947.45107638889</v>
+        <v>45919.572592592587</v>
       </c>
       <c r="H5" s="1">
-        <v>45902.451412037037</v>
+        <v>45889.572592592587</v>
       </c>
       <c r="I5" s="2">
-        <v>-27</v>
+        <v>9.4274074074128293</v>
       </c>
       <c r="J5" s="3">
-        <v>775.91</v>
+        <v>227.44</v>
       </c>
       <c r="K5" s="3">
-        <v>775.91</v>
+        <v>227.44</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>211110434</v>
+        <v>211110102</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -822,25 +819,25 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>13108</v>
+        <v>12520</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45948.345138888886</v>
+        <v>45947.45107638889</v>
       </c>
       <c r="H6" s="1">
-        <v>45918.345590277779</v>
+        <v>45902.451412037037</v>
       </c>
       <c r="I6" s="2">
-        <v>-28</v>
+        <v>-18.451076388890215</v>
       </c>
       <c r="J6" s="3">
-        <v>408.72</v>
+        <v>775.91</v>
       </c>
       <c r="K6" s="3">
-        <v>408.72</v>
+        <v>775.91</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -851,10 +848,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>211110574</v>
+        <v>211110102</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -863,25 +860,25 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>12254</v>
+        <v>13350</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45925.367962962962</v>
+        <v>45970.361527777779</v>
       </c>
       <c r="H7" s="1">
-        <v>45895.367962962962</v>
+        <v>45925.368599537032</v>
       </c>
       <c r="I7" s="2">
-        <v>-5</v>
+        <v>-41.361527777778974</v>
       </c>
       <c r="J7" s="3">
-        <v>716.14</v>
+        <v>368.86</v>
       </c>
       <c r="K7" s="3">
-        <v>716.14</v>
+        <v>368.86</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -892,10 +889,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>211110574</v>
+        <v>211110102</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -904,25 +901,25 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>12660</v>
+        <v>13397</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45935.466979166667</v>
+        <v>45971.361874999995</v>
       </c>
       <c r="H8" s="1">
-        <v>45905.467291666668</v>
+        <v>45926.362696759257</v>
       </c>
       <c r="I8" s="2">
-        <v>-15</v>
+        <v>-42.361874999995052</v>
       </c>
       <c r="J8" s="3">
-        <v>601.41</v>
+        <v>404.12</v>
       </c>
       <c r="K8" s="3">
-        <v>601.41</v>
+        <v>404.12</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -933,10 +930,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>211110574</v>
+        <v>211110434</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -945,25 +942,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>12817</v>
+        <v>13108</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45940.605277777773</v>
+        <v>45948.345138888886</v>
       </c>
       <c r="H9" s="1">
-        <v>45910.607453703698</v>
+        <v>45918.345590277779</v>
       </c>
       <c r="I9" s="2">
-        <v>-20</v>
+        <v>-19.34513888888614</v>
       </c>
       <c r="J9" s="3">
-        <v>520.49</v>
+        <v>408.72</v>
       </c>
       <c r="K9" s="3">
-        <v>520.49</v>
+        <v>408.72</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -974,166 +971,166 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>211110903</v>
+        <v>211110574</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10">
-        <v>533</v>
+        <v>12254</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45873</v>
+        <v>45925.367962962962</v>
       </c>
       <c r="H10" s="1">
-        <v>45866</v>
+        <v>45895.367962962962</v>
       </c>
       <c r="I10" s="2">
-        <v>47</v>
+        <v>3.6320370370376622</v>
       </c>
       <c r="J10" s="3">
-        <v>-50.85</v>
+        <v>716.14</v>
       </c>
       <c r="K10" s="3">
-        <v>-50.85</v>
+        <v>716.14</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>211110903</v>
+        <v>211110574</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>711</v>
+        <v>12660</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45875</v>
+        <v>45935.466979166667</v>
       </c>
       <c r="H11" s="1">
-        <v>45868</v>
+        <v>45905.467291666668</v>
       </c>
       <c r="I11" s="2">
-        <v>45</v>
+        <v>-6.4669791666674428</v>
       </c>
       <c r="J11" s="3">
-        <v>-100.23</v>
+        <v>601.41</v>
       </c>
       <c r="K11" s="3">
-        <v>-100.23</v>
+        <v>601.41</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>211110903</v>
+        <v>211110574</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12">
-        <v>542</v>
+        <v>12817</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45880</v>
+        <v>45940.605277777773</v>
       </c>
       <c r="H12" s="1">
-        <v>45873</v>
+        <v>45910.607453703698</v>
       </c>
       <c r="I12" s="2">
-        <v>40</v>
+        <v>-11.605277777773154</v>
       </c>
       <c r="J12" s="3">
-        <v>-67.31</v>
+        <v>520.49</v>
       </c>
       <c r="K12" s="3">
-        <v>-67.31</v>
+        <v>520.49</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211110903</v>
+        <v>211110574</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>752</v>
+        <v>13339</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45888</v>
+        <v>45954.466331018513</v>
       </c>
       <c r="H13" s="1">
-        <v>45881</v>
+        <v>45924.467106481483</v>
       </c>
       <c r="I13" s="2">
-        <v>32</v>
+        <v>-25.466331018513301</v>
       </c>
       <c r="J13" s="3">
-        <v>-100.91</v>
+        <v>442.21000000000004</v>
       </c>
       <c r="K13" s="3">
-        <v>-100.91</v>
+        <v>442.21000000000004</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1146,35 +1143,35 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14">
-        <v>2025</v>
+      <c r="D14" t="s">
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>757</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45890</v>
+        <v>45873</v>
       </c>
       <c r="H14" s="1">
-        <v>45883</v>
+        <v>45866</v>
       </c>
       <c r="I14" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J14" s="3">
-        <v>-63.35</v>
+        <v>-50.85</v>
       </c>
       <c r="K14" s="3">
-        <v>-63.35</v>
+        <v>-50.85</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1185,72 +1182,72 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
       </c>
       <c r="E15">
-        <v>13089</v>
+        <v>711</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45924.497233796297</v>
+        <v>45875</v>
       </c>
       <c r="H15" s="1">
-        <v>45917.498333333329</v>
+        <v>45868</v>
       </c>
       <c r="I15" s="2">
-        <v>-4</v>
+        <v>54</v>
       </c>
       <c r="J15" s="3">
-        <v>1298.07</v>
+        <v>-100.23</v>
       </c>
       <c r="K15" s="3">
-        <v>1298.07</v>
+        <v>-100.23</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211111373</v>
+        <v>211110903</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>11785</v>
+        <v>542</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45882.399768518517</v>
+        <v>45880</v>
       </c>
       <c r="H16" s="1">
-        <v>45882.399768518517</v>
+        <v>45873</v>
       </c>
       <c r="I16" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J16" s="3">
-        <v>240.19</v>
+        <v>-67.31</v>
       </c>
       <c r="K16" s="3">
-        <v>240.19</v>
+        <v>-67.31</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1261,92 +1258,92 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>2025</v>
       </c>
       <c r="E17">
-        <v>11778</v>
+        <v>752</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45917.361284722218</v>
+        <v>45888</v>
       </c>
       <c r="H17" s="1">
-        <v>45882.361284722218</v>
+        <v>45881</v>
       </c>
       <c r="I17" s="2">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J17" s="3">
-        <v>382.83</v>
+        <v>-100.91</v>
       </c>
       <c r="K17" s="3">
-        <v>382.83</v>
+        <v>-100.91</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>12107</v>
+        <v>757</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45925.479895833334</v>
+        <v>45890</v>
       </c>
       <c r="H18" s="1">
-        <v>45890.479895833334</v>
+        <v>45883</v>
       </c>
       <c r="I18" s="2">
-        <v>-5</v>
+        <v>39</v>
       </c>
       <c r="J18" s="3">
-        <v>195.82</v>
+        <v>-63.35</v>
       </c>
       <c r="K18" s="3">
-        <v>195.82</v>
+        <v>-63.35</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1355,39 +1352,39 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>809</v>
+        <v>865</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45932</v>
+        <v>45922</v>
       </c>
       <c r="H19" s="1">
-        <v>45897</v>
+        <v>45915</v>
       </c>
       <c r="I19" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="J19" s="3">
-        <v>-0.97</v>
+        <v>-96.53</v>
       </c>
       <c r="K19" s="3">
-        <v>-0.97</v>
+        <v>-96.53</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1396,25 +1393,25 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>12360</v>
+        <v>13341</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45932.391550925924</v>
+        <v>45931.470682870371</v>
       </c>
       <c r="H20" s="1">
-        <v>45897.391562500001</v>
+        <v>45924.470949074072</v>
       </c>
       <c r="I20" s="2">
-        <v>-12</v>
+        <v>-2.4706828703710926</v>
       </c>
       <c r="J20" s="3">
-        <v>197.81</v>
+        <v>1328.27</v>
       </c>
       <c r="K20" s="3">
-        <v>197.81</v>
+        <v>1328.27</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1425,37 +1422,37 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211111588</v>
+        <v>211110903</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21">
-        <v>568</v>
+        <v>13361</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45939</v>
+        <v>45932.446724537032</v>
       </c>
       <c r="H21" s="1">
-        <v>45904</v>
+        <v>45925.446863425925</v>
       </c>
       <c r="I21" s="2">
-        <v>-19</v>
+        <v>-3.4467245370324235</v>
       </c>
       <c r="J21" s="3">
-        <v>-0.52</v>
+        <v>2240.9500000000003</v>
       </c>
       <c r="K21" s="3">
-        <v>-0.52</v>
+        <v>2240.9500000000003</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1478,31 +1475,31 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>12605</v>
+        <v>11778</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45939.432569444441</v>
+        <v>45917.361284722218</v>
       </c>
       <c r="H22" s="1">
-        <v>45904.433935185181</v>
+        <v>45882.361284722218</v>
       </c>
       <c r="I22" s="2">
-        <v>-19</v>
+        <v>11.638715277782467</v>
       </c>
       <c r="J22" s="3">
-        <v>953.69</v>
+        <v>382.83</v>
       </c>
       <c r="K22" s="3">
-        <v>953.69</v>
+        <v>382.83</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1519,31 +1516,31 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>12625</v>
+        <v>12107</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45940.365300925921</v>
+        <v>45925.479895833334</v>
       </c>
       <c r="H23" s="1">
-        <v>45905.366354166668</v>
+        <v>45890.479895833334</v>
       </c>
       <c r="I23" s="2">
-        <v>-20</v>
+        <v>3.5201041666659876</v>
       </c>
       <c r="J23" s="3">
-        <v>487.36</v>
+        <v>195.82</v>
       </c>
       <c r="K23" s="3">
-        <v>487.36</v>
+        <v>195.82</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1554,31 +1551,31 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>2025</v>
       </c>
       <c r="E24">
-        <v>13128</v>
+        <v>809</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45953.382881944446</v>
+        <v>45932</v>
       </c>
       <c r="H24" s="1">
-        <v>45918.402905092589</v>
+        <v>45897</v>
       </c>
       <c r="I24" s="2">
-        <v>-33</v>
+        <v>-3</v>
       </c>
       <c r="J24" s="3">
-        <v>444.22</v>
+        <v>-0.97</v>
       </c>
       <c r="K24" s="3">
-        <v>444.22</v>
+        <v>-0.97</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1589,10 +1586,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1601,66 +1598,66 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>10727</v>
+        <v>12360</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45916.281041666662</v>
+        <v>45932.391550925924</v>
       </c>
       <c r="H25" s="1">
-        <v>45856.283530092587</v>
+        <v>45897.391562500001</v>
       </c>
       <c r="I25" s="2">
-        <v>4</v>
+        <v>-3.3915509259240935</v>
       </c>
       <c r="J25" s="3">
-        <v>199.79</v>
+        <v>197.81</v>
       </c>
       <c r="K25" s="3">
-        <v>199.79</v>
+        <v>197.81</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26">
-        <v>11012</v>
+        <v>568</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45923.282870370371</v>
+        <v>45939</v>
       </c>
       <c r="H26" s="1">
-        <v>45863.28329861111</v>
+        <v>45904</v>
       </c>
       <c r="I26" s="2">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="J26" s="3">
-        <v>1478.6200000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="K26" s="3">
-        <v>1478.6200000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1671,10 +1668,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1683,25 +1680,25 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>12399</v>
+        <v>12605</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45958.36681712963</v>
+        <v>45939.432569444441</v>
       </c>
       <c r="H27" s="1">
-        <v>45898.3668287037</v>
+        <v>45904.433935185181</v>
       </c>
       <c r="I27" s="2">
-        <v>-38</v>
+        <v>-10.432569444441469</v>
       </c>
       <c r="J27" s="3">
-        <v>615.18000000000006</v>
+        <v>953.69</v>
       </c>
       <c r="K27" s="3">
-        <v>615.18000000000006</v>
+        <v>953.69</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1712,78 +1709,78 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>630</v>
+        <v>12625</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45876</v>
+        <v>45940.365300925921</v>
       </c>
       <c r="H28" s="1">
-        <v>45846</v>
+        <v>45905.366354166668</v>
       </c>
       <c r="I28" s="2">
-        <v>44</v>
+        <v>-11.365300925921474</v>
       </c>
       <c r="J28" s="3">
-        <v>-89.27</v>
+        <v>487.36</v>
       </c>
       <c r="K28" s="3">
-        <v>-89.27</v>
+        <v>487.36</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>827</v>
+        <v>13128</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45932</v>
+        <v>45953.382881944446</v>
       </c>
       <c r="H29" s="1">
-        <v>45902</v>
+        <v>45918.402905092589</v>
       </c>
       <c r="I29" s="2">
-        <v>-12</v>
+        <v>-24.382881944446126</v>
       </c>
       <c r="J29" s="3">
-        <v>-1.77</v>
+        <v>444.22</v>
       </c>
       <c r="K29" s="3">
-        <v>-1.77</v>
+        <v>444.22</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1794,10 +1791,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111739</v>
+        <v>211111588</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1806,25 +1803,25 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>12496</v>
+        <v>13348</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45932.339016203703</v>
+        <v>45959.678217592591</v>
       </c>
       <c r="H30" s="1">
-        <v>45902.34710648148</v>
+        <v>45924.678518518514</v>
       </c>
       <c r="I30" s="2">
-        <v>-12</v>
+        <v>-30.678217592590954</v>
       </c>
       <c r="J30" s="3">
-        <v>1799.69</v>
+        <v>1198.05</v>
       </c>
       <c r="K30" s="3">
-        <v>1799.69</v>
+        <v>1198.05</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -1835,10 +1832,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111739</v>
+        <v>211111720</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1847,39 +1844,39 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>12693</v>
+        <v>10727</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45938.456111111111</v>
+        <v>45916.281041666662</v>
       </c>
       <c r="H31" s="1">
-        <v>45908.45612268518</v>
+        <v>45856.283530092587</v>
       </c>
       <c r="I31" s="2">
-        <v>-18</v>
+        <v>12.718958333338378</v>
       </c>
       <c r="J31" s="3">
-        <v>1831.69</v>
+        <v>199.79</v>
       </c>
       <c r="K31" s="3">
-        <v>1831.69</v>
+        <v>199.79</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111739</v>
+        <v>211111720</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1888,39 +1885,39 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>12764</v>
+        <v>11012</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45940.312048611107</v>
+        <v>45923.282870370371</v>
       </c>
       <c r="H32" s="1">
-        <v>45910.315740740742</v>
+        <v>45863.28329861111</v>
       </c>
       <c r="I32" s="2">
-        <v>-20</v>
+        <v>5.7171296296291985</v>
       </c>
       <c r="J32" s="3">
-        <v>564.66</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="K32" s="3">
-        <v>564.66</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111878</v>
+        <v>211111720</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1929,25 +1926,25 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>11366</v>
+        <v>12399</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45930.614166666666</v>
+        <v>45958.36681712963</v>
       </c>
       <c r="H33" s="1">
-        <v>45870.614722222221</v>
+        <v>45898.3668287037</v>
       </c>
       <c r="I33" s="2">
-        <v>-10</v>
+        <v>-29.366817129630363</v>
       </c>
       <c r="J33" s="3">
-        <v>159.29</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="K33" s="3">
-        <v>159.29</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -1958,37 +1955,37 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111878</v>
+        <v>211111720</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E34">
-        <v>11369</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45930.684340277774</v>
+        <v>45970</v>
       </c>
       <c r="H34" s="1">
-        <v>45870.684976851851</v>
+        <v>45910</v>
       </c>
       <c r="I34" s="2">
-        <v>-10</v>
+        <v>-41</v>
       </c>
       <c r="J34" s="3">
-        <v>106.19</v>
+        <v>-30.75</v>
       </c>
       <c r="K34" s="3">
-        <v>106.19</v>
+        <v>-30.75</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -1999,78 +1996,78 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>2025</v>
       </c>
       <c r="E35">
-        <v>11428</v>
+        <v>630</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45934.485219907408</v>
+        <v>45876</v>
       </c>
       <c r="H35" s="1">
-        <v>45874.485219907408</v>
+        <v>45846</v>
       </c>
       <c r="I35" s="2">
-        <v>-14</v>
+        <v>53</v>
       </c>
       <c r="J35" s="3">
-        <v>56.480000000000004</v>
+        <v>-89.27</v>
       </c>
       <c r="K35" s="3">
-        <v>56.480000000000004</v>
+        <v>-89.27</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>2025</v>
       </c>
       <c r="E36">
-        <v>11429</v>
+        <v>827</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45934.485231481478</v>
+        <v>45932</v>
       </c>
       <c r="H36" s="1">
-        <v>45874.485231481478</v>
+        <v>45902</v>
       </c>
       <c r="I36" s="2">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="J36" s="3">
-        <v>472.14</v>
+        <v>-1.77</v>
       </c>
       <c r="K36" s="3">
-        <v>472.14</v>
+        <v>-1.77</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2081,10 +2078,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2093,25 +2090,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>11430</v>
+        <v>12496</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45934.485266203701</v>
+        <v>45932.339016203703</v>
       </c>
       <c r="H37" s="1">
-        <v>45874.485266203701</v>
+        <v>45902.34710648148</v>
       </c>
       <c r="I37" s="2">
-        <v>-14</v>
+        <v>-3.3390162037030677</v>
       </c>
       <c r="J37" s="3">
-        <v>405.8</v>
+        <v>1799.69</v>
       </c>
       <c r="K37" s="3">
-        <v>405.8</v>
+        <v>1799.69</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2122,37 +2119,37 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>737</v>
+        <v>12693</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45938</v>
+        <v>45938.456111111111</v>
       </c>
       <c r="H38" s="1">
-        <v>45878</v>
+        <v>45908.45612268518</v>
       </c>
       <c r="I38" s="2">
-        <v>-18</v>
+        <v>-9.4561111111106584</v>
       </c>
       <c r="J38" s="3">
-        <v>-22.990000000000002</v>
+        <v>1831.69</v>
       </c>
       <c r="K38" s="3">
-        <v>-22.990000000000002</v>
+        <v>1831.69</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2163,10 +2160,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2175,25 +2172,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>11717</v>
+        <v>12764</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45940.541759259257</v>
+        <v>45940.312048611107</v>
       </c>
       <c r="H39" s="1">
-        <v>45880.541770833333</v>
+        <v>45910.315740740742</v>
       </c>
       <c r="I39" s="2">
-        <v>-20</v>
+        <v>-11.312048611107457</v>
       </c>
       <c r="J39" s="3">
-        <v>100.79</v>
+        <v>564.66</v>
       </c>
       <c r="K39" s="3">
-        <v>100.79</v>
+        <v>564.66</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2204,37 +2201,37 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>751</v>
+        <v>13206</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45941</v>
+        <v>45952.35560185185</v>
       </c>
       <c r="H40" s="1">
-        <v>45881</v>
+        <v>45922.356840277775</v>
       </c>
       <c r="I40" s="2">
-        <v>-21</v>
+        <v>-23.355601851850224</v>
       </c>
       <c r="J40" s="3">
-        <v>-122.53</v>
+        <v>848.55000000000007</v>
       </c>
       <c r="K40" s="3">
-        <v>-122.53</v>
+        <v>848.55000000000007</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -2257,25 +2254,25 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>11758</v>
+        <v>11366</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45941.499224537038</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H41" s="1">
-        <v>45881.499236111107</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I41" s="2">
-        <v>-21</v>
+        <v>-1.6141666666662786</v>
       </c>
       <c r="J41" s="3">
-        <v>304.79000000000002</v>
+        <v>159.29</v>
       </c>
       <c r="K41" s="3">
-        <v>304.79000000000002</v>
+        <v>159.29</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -2292,31 +2289,31 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>753</v>
+        <v>11369</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45942</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H42" s="1">
-        <v>45882</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I42" s="2">
-        <v>-22</v>
+        <v>-1.6843402777740266</v>
       </c>
       <c r="J42" s="3">
-        <v>-10.93</v>
+        <v>106.19</v>
       </c>
       <c r="K42" s="3">
-        <v>-10.93</v>
+        <v>106.19</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2339,25 +2336,25 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>11922</v>
+        <v>11428</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45943.619444444441</v>
+        <v>45934.485219907408</v>
       </c>
       <c r="H43" s="1">
-        <v>45883.620034722218</v>
+        <v>45874.485219907408</v>
       </c>
       <c r="I43" s="2">
-        <v>-23</v>
+        <v>-5.4852199074084638</v>
       </c>
       <c r="J43" s="3">
-        <v>97.43</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="K43" s="3">
-        <v>97.43</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2380,25 +2377,25 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>11999</v>
+        <v>11429</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45948.526076388887</v>
+        <v>45934.485231481478</v>
       </c>
       <c r="H44" s="1">
-        <v>45888.526076388887</v>
+        <v>45874.485231481478</v>
       </c>
       <c r="I44" s="2">
-        <v>-28</v>
+        <v>-5.4852314814779675</v>
       </c>
       <c r="J44" s="3">
-        <v>53.63</v>
+        <v>472.14</v>
       </c>
       <c r="K44" s="3">
-        <v>53.63</v>
+        <v>472.14</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2421,25 +2418,25 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>12000</v>
+        <v>11430</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45948.526099537034</v>
+        <v>45934.485266203701</v>
       </c>
       <c r="H45" s="1">
-        <v>45888.526099537034</v>
+        <v>45874.485266203701</v>
       </c>
       <c r="I45" s="2">
-        <v>-28</v>
+        <v>-5.4852662037010305</v>
       </c>
       <c r="J45" s="3">
-        <v>140.37</v>
+        <v>405.8</v>
       </c>
       <c r="K45" s="3">
-        <v>140.37</v>
+        <v>405.8</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2456,31 +2453,31 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>12001</v>
+        <v>737</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45948.52612268518</v>
+        <v>45938</v>
       </c>
       <c r="H46" s="1">
-        <v>45888.52612268518</v>
+        <v>45878</v>
       </c>
       <c r="I46" s="2">
-        <v>-28</v>
+        <v>-9</v>
       </c>
       <c r="J46" s="3">
-        <v>212.85</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="K46" s="3">
-        <v>212.85</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2497,31 +2494,31 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>774</v>
+        <v>11717</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45950</v>
+        <v>45940.541759259257</v>
       </c>
       <c r="H47" s="1">
-        <v>45890</v>
+        <v>45880.541770833333</v>
       </c>
       <c r="I47" s="2">
-        <v>-30</v>
+        <v>-11.541759259256651</v>
       </c>
       <c r="J47" s="3">
-        <v>-56.480000000000004</v>
+        <v>100.79</v>
       </c>
       <c r="K47" s="3">
-        <v>-56.480000000000004</v>
+        <v>100.79</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2544,25 +2541,25 @@
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45950</v>
+        <v>45941</v>
       </c>
       <c r="H48" s="1">
-        <v>45890</v>
+        <v>45881</v>
       </c>
       <c r="I48" s="2">
-        <v>-30</v>
+        <v>-12</v>
       </c>
       <c r="J48" s="3">
-        <v>-4.8500000000000005</v>
+        <v>-122.53</v>
       </c>
       <c r="K48" s="3">
-        <v>-4.8500000000000005</v>
+        <v>-122.53</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2585,25 +2582,25 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>12127</v>
+        <v>11758</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45950.595092592594</v>
+        <v>45941.499224537038</v>
       </c>
       <c r="H49" s="1">
-        <v>45890.595092592594</v>
+        <v>45881.499236111107</v>
       </c>
       <c r="I49" s="2">
-        <v>-30</v>
+        <v>-12.499224537037662</v>
       </c>
       <c r="J49" s="3">
-        <v>54.92</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="K49" s="3">
-        <v>54.92</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2620,31 +2617,31 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>2025</v>
       </c>
       <c r="E50">
-        <v>12215</v>
+        <v>753</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45951.693171296298</v>
+        <v>45942</v>
       </c>
       <c r="H50" s="1">
-        <v>45891.693749999999</v>
+        <v>45882</v>
       </c>
       <c r="I50" s="2">
-        <v>-31</v>
+        <v>-13</v>
       </c>
       <c r="J50" s="3">
-        <v>90.44</v>
+        <v>-10.93</v>
       </c>
       <c r="K50" s="3">
-        <v>90.44</v>
+        <v>-10.93</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2667,25 +2664,25 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>12220</v>
+        <v>11922</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45954.431423611109</v>
+        <v>45943.619444444441</v>
       </c>
       <c r="H51" s="1">
-        <v>45894.431423611109</v>
+        <v>45883.620034722218</v>
       </c>
       <c r="I51" s="2">
-        <v>-34</v>
+        <v>-14.619444444440887</v>
       </c>
       <c r="J51" s="3">
-        <v>471.83</v>
+        <v>97.43</v>
       </c>
       <c r="K51" s="3">
-        <v>471.83</v>
+        <v>97.43</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2708,25 +2705,25 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>12221</v>
+        <v>11999</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45954.431446759256</v>
+        <v>45948.526076388887</v>
       </c>
       <c r="H52" s="1">
-        <v>45894.431446759256</v>
+        <v>45888.526076388887</v>
       </c>
       <c r="I52" s="2">
-        <v>-34</v>
+        <v>-19.526076388887304</v>
       </c>
       <c r="J52" s="3">
-        <v>219.04</v>
+        <v>53.63</v>
       </c>
       <c r="K52" s="3">
-        <v>219.04</v>
+        <v>53.63</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2749,25 +2746,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>12247</v>
+        <v>12000</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45955.347881944443</v>
+        <v>45948.526099537034</v>
       </c>
       <c r="H53" s="1">
-        <v>45895.347893518519</v>
+        <v>45888.526099537034</v>
       </c>
       <c r="I53" s="2">
-        <v>-35</v>
+        <v>-19.526099537033588</v>
       </c>
       <c r="J53" s="3">
-        <v>289.57</v>
+        <v>140.37</v>
       </c>
       <c r="K53" s="3">
-        <v>289.57</v>
+        <v>140.37</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2790,25 +2787,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>12366</v>
+        <v>12001</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45957.397465277776</v>
+        <v>45948.52612268518</v>
       </c>
       <c r="H54" s="1">
-        <v>45897.397476851853</v>
+        <v>45888.52612268518</v>
       </c>
       <c r="I54" s="2">
-        <v>-37</v>
+        <v>-19.526122685179871</v>
       </c>
       <c r="J54" s="3">
-        <v>208.44</v>
+        <v>212.85</v>
       </c>
       <c r="K54" s="3">
-        <v>208.44</v>
+        <v>212.85</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2831,25 +2828,25 @@
         <v>2025</v>
       </c>
       <c r="E55">
-        <v>824</v>
+        <v>774</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45961</v>
+        <v>45950</v>
       </c>
       <c r="H55" s="1">
-        <v>45901</v>
+        <v>45890</v>
       </c>
       <c r="I55" s="2">
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="J55" s="3">
-        <v>-4.82</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="K55" s="3">
-        <v>-4.82</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2866,31 +2863,31 @@
         <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <v>2025</v>
       </c>
       <c r="E56">
-        <v>12471</v>
+        <v>775</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45961.437303240738</v>
+        <v>45950</v>
       </c>
       <c r="H56" s="1">
-        <v>45901.437303240738</v>
+        <v>45890</v>
       </c>
       <c r="I56" s="2">
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="J56" s="3">
-        <v>513.09</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="K56" s="3">
-        <v>513.09</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2913,25 +2910,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>12509</v>
+        <v>12127</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45962.411041666666</v>
+        <v>45950.595092592594</v>
       </c>
       <c r="H57" s="1">
-        <v>45902.411759259259</v>
+        <v>45890.595092592594</v>
       </c>
       <c r="I57" s="2">
-        <v>-42</v>
+        <v>-21.595092592593573</v>
       </c>
       <c r="J57" s="3">
-        <v>128.47</v>
+        <v>54.92</v>
       </c>
       <c r="K57" s="3">
-        <v>128.47</v>
+        <v>54.92</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2954,25 +2951,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>12568</v>
+        <v>12215</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45963.458773148144</v>
+        <v>45951.693171296298</v>
       </c>
       <c r="H58" s="1">
-        <v>45903.458773148144</v>
+        <v>45891.693749999999</v>
       </c>
       <c r="I58" s="2">
-        <v>-43</v>
+        <v>-22.693171296297805</v>
       </c>
       <c r="J58" s="3">
-        <v>50.21</v>
+        <v>90.44</v>
       </c>
       <c r="K58" s="3">
-        <v>50.21</v>
+        <v>90.44</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -2995,25 +2992,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>12618</v>
+        <v>12220</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45964.490069444444</v>
+        <v>45954.431423611109</v>
       </c>
       <c r="H59" s="1">
-        <v>45904.490740740737</v>
+        <v>45894.431423611109</v>
       </c>
       <c r="I59" s="2">
-        <v>-44</v>
+        <v>-25.431423611109494</v>
       </c>
       <c r="J59" s="3">
-        <v>286.05</v>
+        <v>471.83</v>
       </c>
       <c r="K59" s="3">
-        <v>286.05</v>
+        <v>471.83</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3036,25 +3033,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>12691</v>
+        <v>12221</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45968.456053240741</v>
+        <v>45954.431446759256</v>
       </c>
       <c r="H60" s="1">
-        <v>45908.456064814811</v>
+        <v>45894.431446759256</v>
       </c>
       <c r="I60" s="2">
-        <v>-48</v>
+        <v>-25.431446759255778</v>
       </c>
       <c r="J60" s="3">
-        <v>110.88</v>
+        <v>219.04</v>
       </c>
       <c r="K60" s="3">
-        <v>110.88</v>
+        <v>219.04</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3077,25 +3074,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>12703</v>
+        <v>12247</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45968.466249999998</v>
+        <v>45955.347881944443</v>
       </c>
       <c r="H61" s="1">
-        <v>45908.467557870368</v>
+        <v>45895.347893518519</v>
       </c>
       <c r="I61" s="2">
-        <v>-48</v>
+        <v>-26.347881944442634</v>
       </c>
       <c r="J61" s="3">
-        <v>414.35</v>
+        <v>289.57</v>
       </c>
       <c r="K61" s="3">
-        <v>414.35</v>
+        <v>289.57</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3118,25 +3115,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>12755</v>
+        <v>12366</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45969.482951388884</v>
+        <v>45957.397465277776</v>
       </c>
       <c r="H62" s="1">
-        <v>45909.482951388884</v>
+        <v>45897.397476851853</v>
       </c>
       <c r="I62" s="2">
-        <v>-49</v>
+        <v>-28.397465277776064</v>
       </c>
       <c r="J62" s="3">
-        <v>183.26</v>
+        <v>208.44</v>
       </c>
       <c r="K62" s="3">
-        <v>183.26</v>
+        <v>208.44</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3153,31 +3150,31 @@
         <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>2025</v>
       </c>
       <c r="E63">
-        <v>12756</v>
+        <v>824</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45969.482974537037</v>
+        <v>45961</v>
       </c>
       <c r="H63" s="1">
-        <v>45909.482974537037</v>
+        <v>45901</v>
       </c>
       <c r="I63" s="2">
-        <v>-49</v>
+        <v>-32</v>
       </c>
       <c r="J63" s="3">
-        <v>101.91</v>
+        <v>-4.82</v>
       </c>
       <c r="K63" s="3">
-        <v>101.91</v>
+        <v>-4.82</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3200,25 +3197,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>12804</v>
+        <v>12471</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45970.484317129631</v>
+        <v>45961.437303240738</v>
       </c>
       <c r="H64" s="1">
-        <v>45910.4843287037</v>
+        <v>45901.437303240738</v>
       </c>
       <c r="I64" s="2">
-        <v>-50</v>
+        <v>-32.437303240738402</v>
       </c>
       <c r="J64" s="3">
-        <v>182.32</v>
+        <v>513.09</v>
       </c>
       <c r="K64" s="3">
-        <v>182.32</v>
+        <v>513.09</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3241,25 +3238,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>12837</v>
+        <v>12509</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45971.366631944446</v>
+        <v>45962.411041666666</v>
       </c>
       <c r="H65" s="1">
-        <v>45911.366631944446</v>
+        <v>45902.411759259259</v>
       </c>
       <c r="I65" s="2">
-        <v>-51</v>
+        <v>-33.411041666666279</v>
       </c>
       <c r="J65" s="3">
-        <v>146.12</v>
+        <v>128.47</v>
       </c>
       <c r="K65" s="3">
-        <v>146.12</v>
+        <v>128.47</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3282,25 +3279,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>12952</v>
+        <v>12568</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45976.371041666665</v>
+        <v>45963.458773148144</v>
       </c>
       <c r="H66" s="1">
-        <v>45916.371041666665</v>
+        <v>45903.458773148144</v>
       </c>
       <c r="I66" s="2">
-        <v>-56</v>
+        <v>-34.458773148144246</v>
       </c>
       <c r="J66" s="3">
-        <v>60.120000000000005</v>
+        <v>50.21</v>
       </c>
       <c r="K66" s="3">
-        <v>60.120000000000005</v>
+        <v>50.21</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3323,25 +3320,25 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>12982</v>
+        <v>12618</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45976.428738425922</v>
+        <v>45964.490069444444</v>
       </c>
       <c r="H67" s="1">
-        <v>45916.428738425922</v>
+        <v>45904.490740740737</v>
       </c>
       <c r="I67" s="2">
-        <v>-56</v>
+        <v>-35.490069444444089</v>
       </c>
       <c r="J67" s="3">
-        <v>314.78000000000003</v>
+        <v>286.05</v>
       </c>
       <c r="K67" s="3">
-        <v>314.78000000000003</v>
+        <v>286.05</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3364,25 +3361,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>13085</v>
+        <v>12691</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45977.492696759255</v>
+        <v>45968.456053240741</v>
       </c>
       <c r="H68" s="1">
-        <v>45917.493043981478</v>
+        <v>45908.456064814811</v>
       </c>
       <c r="I68" s="2">
-        <v>-57</v>
+        <v>-39.456053240741312</v>
       </c>
       <c r="J68" s="3">
-        <v>261.24</v>
+        <v>110.88</v>
       </c>
       <c r="K68" s="3">
-        <v>261.24</v>
+        <v>110.88</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3405,25 +3402,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>13086</v>
+        <v>12703</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45977.49319444444</v>
+        <v>45968.466249999998</v>
       </c>
       <c r="H69" s="1">
-        <v>45917.495011574072</v>
+        <v>45908.467557870368</v>
       </c>
       <c r="I69" s="2">
-        <v>-57</v>
+        <v>-39.466249999997672</v>
       </c>
       <c r="J69" s="3">
-        <v>62.53</v>
+        <v>414.35</v>
       </c>
       <c r="K69" s="3">
-        <v>62.53</v>
+        <v>414.35</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3446,25 +3443,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>13099</v>
+        <v>12755</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45977.5465162037</v>
+        <v>45969.482951388884</v>
       </c>
       <c r="H70" s="1">
-        <v>45917.547303240739</v>
+        <v>45909.482951388884</v>
       </c>
       <c r="I70" s="2">
-        <v>-57</v>
+        <v>-40.482951388883521</v>
       </c>
       <c r="J70" s="3">
-        <v>19.98</v>
+        <v>183.26</v>
       </c>
       <c r="K70" s="3">
-        <v>19.98</v>
+        <v>183.26</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3487,25 +3484,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>13100</v>
+        <v>12756</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45977.547442129631</v>
+        <v>45969.482974537037</v>
       </c>
       <c r="H71" s="1">
-        <v>45917.547754629624</v>
+        <v>45909.482974537037</v>
       </c>
       <c r="I71" s="2">
-        <v>-57</v>
+        <v>-40.48297453703708</v>
       </c>
       <c r="J71" s="3">
-        <v>264.92</v>
+        <v>101.91</v>
       </c>
       <c r="K71" s="3">
-        <v>264.92</v>
+        <v>101.91</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3528,25 +3525,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>13184</v>
+        <v>12804</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45979.401666666665</v>
+        <v>45970.484317129631</v>
       </c>
       <c r="H72" s="1">
-        <v>45919.401678240742</v>
+        <v>45910.4843287037</v>
       </c>
       <c r="I72" s="2">
-        <v>-59</v>
+        <v>-41.484317129630654</v>
       </c>
       <c r="J72" s="3">
-        <v>81.41</v>
+        <v>182.32</v>
       </c>
       <c r="K72" s="3">
-        <v>81.41</v>
+        <v>182.32</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3569,25 +3566,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>13198</v>
+        <v>12837</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45979.583379629628</v>
+        <v>45971.366631944446</v>
       </c>
       <c r="H73" s="1">
-        <v>45919.584699074076</v>
+        <v>45911.366631944446</v>
       </c>
       <c r="I73" s="2">
-        <v>-59</v>
+        <v>-42.366631944445544</v>
       </c>
       <c r="J73" s="3">
-        <v>179.69</v>
+        <v>146.12</v>
       </c>
       <c r="K73" s="3">
-        <v>179.69</v>
+        <v>146.12</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3598,51 +3595,51 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D74">
+        <v>2025</v>
       </c>
       <c r="E74">
-        <v>10687</v>
+        <v>869</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45885.468888888885</v>
+        <v>45976</v>
       </c>
       <c r="H74" s="1">
-        <v>45855.468888888885</v>
+        <v>45916</v>
       </c>
       <c r="I74" s="2">
-        <v>35</v>
+        <v>-47</v>
       </c>
       <c r="J74" s="3">
-        <v>542.13</v>
+        <v>-13.21</v>
       </c>
       <c r="K74" s="3">
-        <v>542.13</v>
+        <v>-13.21</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3651,25 +3648,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>11880</v>
+        <v>12952</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45943.403854166667</v>
+        <v>45976.371041666665</v>
       </c>
       <c r="H75" s="1">
-        <v>45883.403854166667</v>
+        <v>45916.371041666665</v>
       </c>
       <c r="I75" s="2">
-        <v>-23</v>
+        <v>-47.371041666665406</v>
       </c>
       <c r="J75" s="3">
-        <v>248.76000000000002</v>
+        <v>60.120000000000005</v>
       </c>
       <c r="K75" s="3">
-        <v>248.76000000000002</v>
+        <v>60.120000000000005</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3680,10 +3677,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3692,25 +3689,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>11881</v>
+        <v>12982</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45943.405740740738</v>
+        <v>45976.428738425922</v>
       </c>
       <c r="H76" s="1">
-        <v>45883.405740740738</v>
+        <v>45916.428738425922</v>
       </c>
       <c r="I76" s="2">
-        <v>-23</v>
+        <v>-47.428738425922347</v>
       </c>
       <c r="J76" s="3">
-        <v>115.78</v>
+        <v>314.78000000000003</v>
       </c>
       <c r="K76" s="3">
-        <v>115.78</v>
+        <v>314.78000000000003</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3721,37 +3718,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
       </c>
       <c r="E77">
-        <v>12370</v>
+        <v>871</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45957.431041666663</v>
+        <v>45977</v>
       </c>
       <c r="H77" s="1">
-        <v>45897.431041666663</v>
+        <v>45917</v>
       </c>
       <c r="I77" s="2">
-        <v>-37</v>
+        <v>-48</v>
       </c>
       <c r="J77" s="3">
-        <v>424.02</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="K77" s="3">
-        <v>424.02</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3762,10 +3759,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3774,25 +3771,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>12513</v>
+        <v>13085</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45962.418460648143</v>
+        <v>45977.492696759255</v>
       </c>
       <c r="H78" s="1">
-        <v>45902.41847222222</v>
+        <v>45917.493043981478</v>
       </c>
       <c r="I78" s="2">
-        <v>-42</v>
+        <v>-48.492696759254613</v>
       </c>
       <c r="J78" s="3">
-        <v>539.91</v>
+        <v>261.24</v>
       </c>
       <c r="K78" s="3">
-        <v>539.91</v>
+        <v>261.24</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3803,133 +3800,133 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79">
-        <v>326</v>
+        <v>13086</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45777</v>
+        <v>45977.49319444444</v>
       </c>
       <c r="H79" s="1">
-        <v>45747</v>
+        <v>45917.495011574072</v>
       </c>
       <c r="I79" s="2">
-        <v>143</v>
+        <v>-48.493194444439723</v>
       </c>
       <c r="J79" s="3">
-        <v>-22</v>
+        <v>62.53</v>
       </c>
       <c r="K79" s="3">
-        <v>-22</v>
+        <v>62.53</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80">
-        <v>327</v>
+        <v>13099</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45777</v>
+        <v>45977.5465162037</v>
       </c>
       <c r="H80" s="1">
-        <v>45747</v>
+        <v>45917.547303240739</v>
       </c>
       <c r="I80" s="2">
-        <v>143</v>
+        <v>-48.546516203699866</v>
       </c>
       <c r="J80" s="3">
-        <v>-27.45</v>
+        <v>19.98</v>
       </c>
       <c r="K80" s="3">
-        <v>-27.45</v>
+        <v>19.98</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81">
-        <v>328</v>
+        <v>13100</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45777</v>
+        <v>45977.547442129631</v>
       </c>
       <c r="H81" s="1">
-        <v>45747</v>
+        <v>45917.547754629624</v>
       </c>
       <c r="I81" s="2">
-        <v>143</v>
+        <v>-48.547442129631236</v>
       </c>
       <c r="J81" s="3">
-        <v>-5.73</v>
+        <v>264.92</v>
       </c>
       <c r="K81" s="3">
-        <v>-5.73</v>
+        <v>264.92</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3938,66 +3935,66 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>10369</v>
+        <v>13184</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45908.309050925927</v>
+        <v>45979.401666666665</v>
       </c>
       <c r="H82" s="1">
-        <v>45848.309965277775</v>
+        <v>45919.401678240742</v>
       </c>
       <c r="I82" s="2">
-        <v>12</v>
+        <v>-50.401666666664823</v>
       </c>
       <c r="J82" s="3">
-        <v>1512.89</v>
+        <v>81.41</v>
       </c>
       <c r="K82" s="3">
-        <v>1512.89</v>
+        <v>81.41</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>13198</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45922</v>
+        <v>45979.583379629628</v>
       </c>
       <c r="H83" s="1">
-        <v>45862</v>
+        <v>45919.584699074076</v>
       </c>
       <c r="I83" s="2">
-        <v>-2</v>
+        <v>-50.583379629628325</v>
       </c>
       <c r="J83" s="3">
-        <v>-15.38</v>
+        <v>179.69</v>
       </c>
       <c r="K83" s="3">
-        <v>-15.38</v>
+        <v>179.69</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4008,37 +4005,37 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
       </c>
       <c r="E84">
-        <v>682</v>
+        <v>13240</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45922</v>
+        <v>45983.354143518518</v>
       </c>
       <c r="H84" s="1">
-        <v>45862</v>
+        <v>45923.354942129627</v>
       </c>
       <c r="I84" s="2">
-        <v>-2</v>
+        <v>-54.354143518517958</v>
       </c>
       <c r="J84" s="3">
-        <v>-606.93000000000006</v>
+        <v>86.14</v>
       </c>
       <c r="K84" s="3">
-        <v>-606.93000000000006</v>
+        <v>86.14</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4049,10 +4046,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4061,25 +4058,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>11013</v>
+        <v>13252</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45923.283518518518</v>
+        <v>45983.394085648149</v>
       </c>
       <c r="H85" s="1">
-        <v>45863.287939814814</v>
+        <v>45923.395983796298</v>
       </c>
       <c r="I85" s="2">
-        <v>-3</v>
+        <v>-54.394085648149485</v>
       </c>
       <c r="J85" s="3">
-        <v>417.19</v>
+        <v>421.83</v>
       </c>
       <c r="K85" s="3">
-        <v>417.19</v>
+        <v>421.83</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4090,10 +4087,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4102,25 +4099,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>11085</v>
+        <v>13351</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45923.645879629628</v>
+        <v>45985.368807870371</v>
       </c>
       <c r="H86" s="1">
-        <v>45863.645879629628</v>
+        <v>45925.369293981479</v>
       </c>
       <c r="I86" s="2">
-        <v>-3</v>
+        <v>-56.368807870370802</v>
       </c>
       <c r="J86" s="3">
-        <v>726.19</v>
+        <v>254.13</v>
       </c>
       <c r="K86" s="3">
-        <v>726.19</v>
+        <v>254.13</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4131,10 +4128,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4143,66 +4140,66 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>11609</v>
+        <v>10687</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45937.476863425924</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H87" s="1">
-        <v>45877.477210648147</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I87" s="2">
-        <v>-17</v>
+        <v>43.531111111115024</v>
       </c>
       <c r="J87" s="3">
-        <v>957.27</v>
+        <v>542.13</v>
       </c>
       <c r="K87" s="3">
-        <v>957.27</v>
+        <v>542.13</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
       </c>
       <c r="E88">
-        <v>794</v>
+        <v>11880</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45955</v>
+        <v>45943.403854166667</v>
       </c>
       <c r="H88" s="1">
-        <v>45895</v>
+        <v>45883.403854166667</v>
       </c>
       <c r="I88" s="2">
-        <v>-35</v>
+        <v>-14.403854166666861</v>
       </c>
       <c r="J88" s="3">
-        <v>-13.25</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="K88" s="3">
-        <v>-13.25</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4213,37 +4210,37 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>795</v>
+        <v>11881</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45955</v>
+        <v>45943.405740740738</v>
       </c>
       <c r="H89" s="1">
-        <v>45895</v>
+        <v>45883.405740740738</v>
       </c>
       <c r="I89" s="2">
-        <v>-35</v>
+        <v>-14.405740740738111</v>
       </c>
       <c r="J89" s="3">
-        <v>-250.03</v>
+        <v>115.78</v>
       </c>
       <c r="K89" s="3">
-        <v>-250.03</v>
+        <v>115.78</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4254,37 +4251,37 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>839</v>
+        <v>12370</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45965</v>
+        <v>45957.431041666663</v>
       </c>
       <c r="H90" s="1">
-        <v>45905</v>
+        <v>45897.431041666663</v>
       </c>
       <c r="I90" s="2">
-        <v>-45</v>
+        <v>-28.431041666663077</v>
       </c>
       <c r="J90" s="3">
-        <v>-18.150000000000002</v>
+        <v>424.02</v>
       </c>
       <c r="K90" s="3">
-        <v>-18.150000000000002</v>
+        <v>424.02</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4295,10 +4292,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4307,25 +4304,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>12638</v>
+        <v>12513</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45965.438287037032</v>
+        <v>45962.418460648143</v>
       </c>
       <c r="H91" s="1">
-        <v>45905.438854166663</v>
+        <v>45902.41847222222</v>
       </c>
       <c r="I91" s="2">
-        <v>-45</v>
+        <v>-33.418460648143082</v>
       </c>
       <c r="J91" s="3">
-        <v>982.94</v>
+        <v>539.91</v>
       </c>
       <c r="K91" s="3">
-        <v>982.94</v>
+        <v>539.91</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4336,160 +4333,160 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92">
-        <v>12831</v>
+        <v>326</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45971.32534722222</v>
+        <v>45777</v>
       </c>
       <c r="H92" s="1">
-        <v>45911.325358796297</v>
+        <v>45747</v>
       </c>
       <c r="I92" s="2">
-        <v>-51</v>
+        <v>152</v>
       </c>
       <c r="J92" s="3">
-        <v>383.06</v>
+        <v>-22</v>
       </c>
       <c r="K92" s="3">
-        <v>383.06</v>
+        <v>-22</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
       </c>
       <c r="E93">
-        <v>13102</v>
+        <v>327</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45977.582523148143</v>
+        <v>45777</v>
       </c>
       <c r="H93" s="1">
-        <v>45917.583622685182</v>
+        <v>45747</v>
       </c>
       <c r="I93" s="2">
-        <v>-57</v>
+        <v>152</v>
       </c>
       <c r="J93" s="3">
-        <v>242.06</v>
+        <v>-27.45</v>
       </c>
       <c r="K93" s="3">
-        <v>242.06</v>
+        <v>-27.45</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94">
-        <v>13196</v>
+        <v>328</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45979.259525462963</v>
+        <v>45777</v>
       </c>
       <c r="H94" s="1">
-        <v>45919.518483796295</v>
+        <v>45747</v>
       </c>
       <c r="I94" s="2">
-        <v>-59</v>
+        <v>152</v>
       </c>
       <c r="J94" s="3">
-        <v>556.75</v>
+        <v>-5.73</v>
       </c>
       <c r="K94" s="3">
-        <v>556.75</v>
+        <v>-5.73</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E95">
-        <v>11783</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45912.363032407404</v>
+        <v>45922</v>
       </c>
       <c r="H95" s="1">
-        <v>45882.363032407404</v>
+        <v>45862</v>
       </c>
       <c r="I95" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J95" s="3">
-        <v>468.88</v>
+        <v>-15.38</v>
       </c>
       <c r="K95" s="3">
-        <v>468.88</v>
+        <v>-15.38</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4500,51 +4497,51 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
       </c>
       <c r="E96">
-        <v>12474</v>
+        <v>682</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45931.437384259254</v>
+        <v>45922</v>
       </c>
       <c r="H96" s="1">
-        <v>45901.437384259254</v>
+        <v>45862</v>
       </c>
       <c r="I96" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="J96" s="3">
-        <v>1269.1500000000001</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="K96" s="3">
-        <v>1269.1500000000001</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4553,39 +4550,39 @@
         <v>15</v>
       </c>
       <c r="E97">
-        <v>12871</v>
+        <v>11013</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45941.701736111107</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H97" s="1">
-        <v>45911.701736111107</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I97" s="2">
-        <v>-21</v>
+        <v>5.716481481482333</v>
       </c>
       <c r="J97" s="3">
-        <v>148.14000000000001</v>
+        <v>417.19</v>
       </c>
       <c r="K97" s="3">
-        <v>148.14000000000001</v>
+        <v>417.19</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4594,39 +4591,39 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>9177</v>
+        <v>11085</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45880.637939814813</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H98" s="1">
-        <v>45820.639421296291</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I98" s="2">
-        <v>40</v>
+        <v>5.3541203703716747</v>
       </c>
       <c r="J98" s="3">
-        <v>3277.76</v>
+        <v>726.19</v>
       </c>
       <c r="K98" s="3">
-        <v>3277.76</v>
+        <v>726.19</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4635,162 +4632,162 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>9560</v>
+        <v>11609</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45888.627025462964</v>
+        <v>45937.476863425924</v>
       </c>
       <c r="H99" s="1">
-        <v>45828.628541666665</v>
+        <v>45877.477210648147</v>
       </c>
       <c r="I99" s="2">
-        <v>32</v>
+        <v>-8.4768634259235114</v>
       </c>
       <c r="J99" s="3">
-        <v>2976.7400000000002</v>
+        <v>957.27</v>
       </c>
       <c r="K99" s="3">
-        <v>2976.7400000000002</v>
+        <v>957.27</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
       </c>
       <c r="E100">
-        <v>123</v>
+        <v>794</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45888.628900462958</v>
+        <v>45955</v>
       </c>
       <c r="H100" s="1">
-        <v>45828.673252314809</v>
+        <v>45895</v>
       </c>
       <c r="I100" s="2">
-        <v>32</v>
+        <v>-26</v>
       </c>
       <c r="J100" s="3">
-        <v>1721.02</v>
+        <v>-13.25</v>
       </c>
       <c r="K100" s="3">
-        <v>1721.02</v>
+        <v>-13.25</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
       </c>
       <c r="E101">
-        <v>9800</v>
+        <v>795</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45894.651828703703</v>
+        <v>45955</v>
       </c>
       <c r="H101" s="1">
-        <v>45834.65211805555</v>
+        <v>45895</v>
       </c>
       <c r="I101" s="2">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="J101" s="3">
-        <v>617.68000000000006</v>
+        <v>-250.03</v>
       </c>
       <c r="K101" s="3">
-        <v>617.68000000000006</v>
+        <v>-250.03</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>2025</v>
       </c>
       <c r="E102">
-        <v>9801</v>
+        <v>839</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45894.653275462959</v>
+        <v>45965</v>
       </c>
       <c r="H102" s="1">
-        <v>45834.653495370367</v>
+        <v>45905</v>
       </c>
       <c r="I102" s="2">
-        <v>26</v>
+        <v>-36</v>
       </c>
       <c r="J102" s="3">
-        <v>1272.99</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="K102" s="3">
-        <v>1272.99</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4799,39 +4796,39 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>9911</v>
+        <v>12638</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45898.70108796296</v>
+        <v>45965.438287037032</v>
       </c>
       <c r="H103" s="1">
-        <v>45838.702037037037</v>
+        <v>45905.438854166663</v>
       </c>
       <c r="I103" s="2">
-        <v>22</v>
+        <v>-36.438287037031841</v>
       </c>
       <c r="J103" s="3">
-        <v>2730.67</v>
+        <v>982.94</v>
       </c>
       <c r="K103" s="3">
-        <v>2730.67</v>
+        <v>982.94</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4840,39 +4837,39 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>10234</v>
+        <v>12831</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45905.634965277779</v>
+        <v>45971.32534722222</v>
       </c>
       <c r="H104" s="1">
-        <v>45845.635636574072</v>
+        <v>45911.325358796297</v>
       </c>
       <c r="I104" s="2">
-        <v>15</v>
+        <v>-42.325347222220444</v>
       </c>
       <c r="J104" s="3">
-        <v>2189.11</v>
+        <v>383.06</v>
       </c>
       <c r="K104" s="3">
-        <v>2189.11</v>
+        <v>383.06</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4881,39 +4878,39 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>10548</v>
+        <v>13102</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45913.353020833332</v>
+        <v>45977.582523148143</v>
       </c>
       <c r="H105" s="1">
-        <v>45853.353888888887</v>
+        <v>45917.583622685182</v>
       </c>
       <c r="I105" s="2">
-        <v>7</v>
+        <v>-48.582523148143082</v>
       </c>
       <c r="J105" s="3">
-        <v>4871.05</v>
+        <v>242.06</v>
       </c>
       <c r="K105" s="3">
-        <v>4871.05</v>
+        <v>242.06</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4922,25 +4919,25 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>11138</v>
+        <v>13196</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45927.358495370368</v>
+        <v>45979.259525462963</v>
       </c>
       <c r="H106" s="1">
-        <v>45867.359340277777</v>
+        <v>45919.518483796295</v>
       </c>
       <c r="I106" s="2">
-        <v>-7</v>
+        <v>-50.259525462963211</v>
       </c>
       <c r="J106" s="3">
-        <v>1891.52</v>
+        <v>556.75</v>
       </c>
       <c r="K106" s="3">
-        <v>1891.52</v>
+        <v>556.75</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -4951,10 +4948,10 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4963,25 +4960,25 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>11469</v>
+        <v>13329</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45935.331585648149</v>
+        <v>45984.375659722224</v>
       </c>
       <c r="H107" s="1">
-        <v>45875.332268518519</v>
+        <v>45924.395439814813</v>
       </c>
       <c r="I107" s="2">
-        <v>-15</v>
+        <v>-55.375659722223645</v>
       </c>
       <c r="J107" s="3">
-        <v>2536.7800000000002</v>
+        <v>805.08</v>
       </c>
       <c r="K107" s="3">
-        <v>2536.7800000000002</v>
+        <v>805.08</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -4992,10 +4989,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112151</v>
+        <v>211112098</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -5004,66 +5001,66 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>11470</v>
+        <v>11783</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45935.332488425927</v>
+        <v>45912.363032407404</v>
       </c>
       <c r="H108" s="1">
-        <v>45875.332824074074</v>
+        <v>45882.363032407404</v>
       </c>
       <c r="I108" s="2">
-        <v>-15</v>
+        <v>16.636967592596193</v>
       </c>
       <c r="J108" s="3">
-        <v>1486.91</v>
+        <v>468.88</v>
       </c>
       <c r="K108" s="3">
-        <v>1486.91</v>
+        <v>468.88</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112151</v>
+        <v>211112098</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>12474</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45942</v>
+        <v>45931.437384259254</v>
       </c>
       <c r="H109" s="1">
-        <v>45882</v>
+        <v>45901.437384259254</v>
       </c>
       <c r="I109" s="2">
-        <v>-22</v>
+        <v>-2.4373842592540313</v>
       </c>
       <c r="J109" s="3">
-        <v>-30.75</v>
+        <v>1269.1500000000001</v>
       </c>
       <c r="K109" s="3">
-        <v>-30.75</v>
+        <v>1269.1500000000001</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5074,10 +5071,10 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112151</v>
+        <v>211112098</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5086,25 +5083,25 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>11860</v>
+        <v>12871</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45942.619097222218</v>
+        <v>45941.701736111107</v>
       </c>
       <c r="H110" s="1">
-        <v>45882.62773148148</v>
+        <v>45911.701736111107</v>
       </c>
       <c r="I110" s="2">
-        <v>-22</v>
+        <v>-12.701736111106584</v>
       </c>
       <c r="J110" s="3">
-        <v>3031.57</v>
+        <v>148.14000000000001</v>
       </c>
       <c r="K110" s="3">
-        <v>3031.57</v>
+        <v>148.14000000000001</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -5124,34 +5121,34 @@
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E111">
-        <v>153</v>
+        <v>9177</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45942.62940972222</v>
+        <v>45880.637939814813</v>
       </c>
       <c r="H111" s="1">
-        <v>45882.629641203705</v>
+        <v>45820.639421296291</v>
       </c>
       <c r="I111" s="2">
-        <v>-22</v>
+        <v>48.362060185187147</v>
       </c>
       <c r="J111" s="3">
-        <v>1558.65</v>
+        <v>3277.76</v>
       </c>
       <c r="K111" s="3">
-        <v>1558.65</v>
+        <v>3277.76</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5168,31 +5165,31 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>12581</v>
+        <v>9560</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45963.658715277779</v>
+        <v>45888.627025462964</v>
       </c>
       <c r="H112" s="1">
-        <v>45903.659988425927</v>
+        <v>45828.628541666665</v>
       </c>
       <c r="I112" s="2">
-        <v>-43</v>
+        <v>40.372974537036498</v>
       </c>
       <c r="J112" s="3">
-        <v>177.22</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="K112" s="3">
-        <v>177.22</v>
+        <v>2976.7400000000002</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5206,34 +5203,34 @@
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E113">
-        <v>12582</v>
+        <v>123</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45963.660312499997</v>
+        <v>45888.628900462958</v>
       </c>
       <c r="H113" s="1">
-        <v>45903.661365740736</v>
+        <v>45828.673252314809</v>
       </c>
       <c r="I113" s="2">
-        <v>-43</v>
+        <v>40.371099537042028</v>
       </c>
       <c r="J113" s="3">
-        <v>3123.88</v>
+        <v>1721.02</v>
       </c>
       <c r="K113" s="3">
-        <v>3123.88</v>
+        <v>1721.02</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5244,86 +5241,86 @@
         <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
       </c>
       <c r="E114">
-        <v>847</v>
+        <v>9800</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45969</v>
+        <v>45894.651828703703</v>
       </c>
       <c r="H114" s="1">
-        <v>45909</v>
+        <v>45834.65211805555</v>
       </c>
       <c r="I114" s="2">
-        <v>-49</v>
+        <v>34.348171296296641</v>
       </c>
       <c r="J114" s="3">
-        <v>-463.14</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="K114" s="3">
-        <v>-463.14</v>
+        <v>617.68000000000006</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211112183</v>
+        <v>211112151</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
       </c>
       <c r="E115">
-        <v>14</v>
+        <v>9801</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45693</v>
+        <v>45894.653275462959</v>
       </c>
       <c r="H115" s="1">
-        <v>45663</v>
+        <v>45834.653495370367</v>
       </c>
       <c r="I115" s="2">
-        <v>227</v>
+        <v>34.346724537041155</v>
       </c>
       <c r="J115" s="3">
-        <v>-4385.22</v>
+        <v>1272.99</v>
       </c>
       <c r="K115" s="3">
-        <v>-782.21</v>
+        <v>1272.99</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5332,25 +5329,25 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>12113</v>
+        <v>9911</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45920.512499999997</v>
+        <v>45898.70108796296</v>
       </c>
       <c r="H116" s="1">
-        <v>45890.512499999997</v>
+        <v>45838.702037037037</v>
       </c>
       <c r="I116" s="2">
-        <v>0</v>
+        <v>30.298912037040282</v>
       </c>
       <c r="J116" s="3">
-        <v>265.43</v>
+        <v>2730.67</v>
       </c>
       <c r="K116" s="3">
-        <v>265.43</v>
+        <v>2730.67</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -5361,10 +5358,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5373,39 +5370,39 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>12597</v>
+        <v>10234</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45934.389282407406</v>
+        <v>45905.634965277779</v>
       </c>
       <c r="H117" s="1">
-        <v>45904.390023148146</v>
+        <v>45845.635636574072</v>
       </c>
       <c r="I117" s="2">
-        <v>-14</v>
+        <v>23.365034722221026</v>
       </c>
       <c r="J117" s="3">
-        <v>1068</v>
+        <v>2189.11</v>
       </c>
       <c r="K117" s="3">
-        <v>1068</v>
+        <v>2189.11</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5414,39 +5411,39 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>12876</v>
+        <v>10548</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45942.335138888884</v>
+        <v>45913.353020833332</v>
       </c>
       <c r="H118" s="1">
-        <v>45912.335138888884</v>
+        <v>45853.353888888887</v>
       </c>
       <c r="I118" s="2">
-        <v>-22</v>
+        <v>15.646979166667734</v>
       </c>
       <c r="J118" s="3">
-        <v>582.91</v>
+        <v>4871.05</v>
       </c>
       <c r="K118" s="3">
-        <v>582.91</v>
+        <v>4871.05</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112290</v>
+        <v>211112151</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5455,25 +5452,25 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>10786</v>
+        <v>11138</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45916.621446759258</v>
+        <v>45927.358495370368</v>
       </c>
       <c r="H119" s="1">
-        <v>45856.622523148144</v>
+        <v>45867.359340277777</v>
       </c>
       <c r="I119" s="2">
-        <v>4</v>
+        <v>1.6415046296315268</v>
       </c>
       <c r="J119" s="3">
-        <v>2347.12</v>
+        <v>1891.52</v>
       </c>
       <c r="K119" s="3">
-        <v>2347.12</v>
+        <v>1891.52</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
@@ -5484,10 +5481,10 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>211112290</v>
+        <v>211112151</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5496,25 +5493,25 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>11859</v>
+        <v>11469</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45942.611527777779</v>
+        <v>45935.331585648149</v>
       </c>
       <c r="H120" s="1">
-        <v>45882.616122685184</v>
+        <v>45875.332268518519</v>
       </c>
       <c r="I120" s="2">
-        <v>-22</v>
+        <v>-6.3315856481494848</v>
       </c>
       <c r="J120" s="3">
-        <v>1123.45</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="K120" s="3">
-        <v>1123.45</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -5525,215 +5522,215 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
-      </c>
-      <c r="E121" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="E121">
+        <v>11470</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45406</v>
+        <v>45935.332488425927</v>
       </c>
       <c r="H121" s="1">
-        <v>45391</v>
+        <v>45875.332824074074</v>
       </c>
       <c r="I121" s="2">
-        <v>514</v>
+        <v>-6.3324884259272949</v>
       </c>
       <c r="J121" s="3">
-        <v>597.29</v>
+        <v>1486.91</v>
       </c>
       <c r="K121" s="3">
-        <v>597.29</v>
+        <v>1486.91</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
-      </c>
-      <c r="E122" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45406</v>
+        <v>45942</v>
       </c>
       <c r="H122" s="1">
-        <v>45391</v>
+        <v>45882</v>
       </c>
       <c r="I122" s="2">
-        <v>514</v>
+        <v>-13</v>
       </c>
       <c r="J122" s="3">
-        <v>591.72</v>
+        <v>-30.75</v>
       </c>
       <c r="K122" s="3">
-        <v>591.72</v>
+        <v>-30.75</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="E123">
+        <v>11860</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45419</v>
+        <v>45942.619097222218</v>
       </c>
       <c r="H123" s="1">
-        <v>45404</v>
+        <v>45882.62773148148</v>
       </c>
       <c r="I123" s="2">
-        <v>501</v>
+        <v>-13.619097222217533</v>
       </c>
       <c r="J123" s="3">
-        <v>599.27</v>
+        <v>3031.57</v>
       </c>
       <c r="K123" s="3">
-        <v>599.27</v>
+        <v>3031.57</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
-      </c>
-      <c r="D124">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>36</v>
       </c>
       <c r="E124">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45906</v>
+        <v>45942.62940972222</v>
       </c>
       <c r="H124" s="1">
-        <v>45876</v>
+        <v>45882.629641203705</v>
       </c>
       <c r="I124" s="2">
-        <v>14</v>
+        <v>-13.629409722219862</v>
       </c>
       <c r="J124" s="3">
-        <v>-64.14</v>
+        <v>1558.65</v>
       </c>
       <c r="K124" s="3">
-        <v>-64.14</v>
+        <v>1558.65</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211112334</v>
+        <v>211112151</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>57</v>
-      </c>
-      <c r="D125">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
       </c>
       <c r="E125">
-        <v>92</v>
+        <v>12581</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45906</v>
+        <v>45963.658715277779</v>
       </c>
       <c r="H125" s="1">
-        <v>45876</v>
+        <v>45903.659988425927</v>
       </c>
       <c r="I125" s="2">
-        <v>14</v>
+        <v>-34.658715277779265</v>
       </c>
       <c r="J125" s="3">
-        <v>-174.57</v>
+        <v>177.22</v>
       </c>
       <c r="K125" s="3">
-        <v>-174.57</v>
+        <v>177.22</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112351</v>
+        <v>211112151</v>
       </c>
       <c r="B126" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5742,203 +5739,203 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>8750</v>
+        <v>12582</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45871.312986111108</v>
+        <v>45963.660312499997</v>
       </c>
       <c r="H126" s="1">
-        <v>45811.315150462964</v>
+        <v>45903.661365740736</v>
       </c>
       <c r="I126" s="2">
-        <v>49</v>
+        <v>-34.660312499996508</v>
       </c>
       <c r="J126" s="3">
-        <v>2626.23</v>
+        <v>3123.88</v>
       </c>
       <c r="K126" s="3">
-        <v>2626.23</v>
+        <v>3123.88</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112351</v>
+        <v>211112151</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D127">
+        <v>2025</v>
       </c>
       <c r="E127">
-        <v>9758</v>
+        <v>847</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45894.404513888891</v>
+        <v>45969</v>
       </c>
       <c r="H127" s="1">
-        <v>45834.411666666667</v>
+        <v>45909</v>
       </c>
       <c r="I127" s="2">
-        <v>26</v>
+        <v>-40</v>
       </c>
       <c r="J127" s="3">
-        <v>2212.2600000000002</v>
+        <v>-463.14</v>
       </c>
       <c r="K127" s="3">
-        <v>2212.2600000000002</v>
+        <v>-463.14</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
       </c>
       <c r="M127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112421</v>
+        <v>211112151</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128">
-        <v>3848</v>
+        <v>581</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45746.622569444444</v>
+        <v>45984</v>
       </c>
       <c r="H128" s="1">
-        <v>45716.624456018515</v>
+        <v>45924</v>
       </c>
       <c r="I128" s="2">
-        <v>174</v>
+        <v>-55</v>
       </c>
       <c r="J128" s="3">
-        <v>233.77</v>
+        <v>-62.32</v>
       </c>
       <c r="K128" s="3">
-        <v>233.77</v>
+        <v>-62.32</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
       </c>
       <c r="M128" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112443</v>
+        <v>211112151</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129">
-        <v>10549</v>
+        <v>582</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45883.354108796295</v>
+        <v>45984</v>
       </c>
       <c r="H129" s="1">
-        <v>45853.354548611111</v>
+        <v>45924</v>
       </c>
       <c r="I129" s="2">
-        <v>37</v>
+        <v>-55</v>
       </c>
       <c r="J129" s="3">
-        <v>1094.7</v>
+        <v>-112.07000000000001</v>
       </c>
       <c r="K129" s="3">
-        <v>1094.7</v>
+        <v>-112.07000000000001</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
       </c>
       <c r="M129" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112455</v>
+        <v>211112183</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
         <v>22</v>
       </c>
-      <c r="D130" t="s">
-        <v>54</v>
+      <c r="D130">
+        <v>2025</v>
       </c>
       <c r="E130">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45900</v>
+        <v>45693</v>
       </c>
       <c r="H130" s="1">
-        <v>45870</v>
+        <v>45663</v>
       </c>
       <c r="I130" s="2">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="J130" s="3">
-        <v>-15.38</v>
+        <v>-4385.22</v>
       </c>
       <c r="K130" s="3">
-        <v>-15.38</v>
+        <v>-782.21</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112455</v>
+        <v>211112216</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5947,80 +5944,80 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>11471</v>
+        <v>12597</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45905.332974537036</v>
+        <v>45934.389282407406</v>
       </c>
       <c r="H131" s="1">
-        <v>45875.333553240736</v>
+        <v>45904.390023148146</v>
       </c>
       <c r="I131" s="2">
-        <v>15</v>
+        <v>-5.3892824074064265</v>
       </c>
       <c r="J131" s="3">
-        <v>1789.6000000000001</v>
+        <v>1068</v>
       </c>
       <c r="K131" s="3">
-        <v>1789.6000000000001</v>
+        <v>1068</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112455</v>
+        <v>211112216</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132">
-        <v>11858</v>
+        <v>572</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45912.609606481477</v>
+        <v>45942</v>
       </c>
       <c r="H132" s="1">
-        <v>45882.61142361111</v>
+        <v>45912</v>
       </c>
       <c r="I132" s="2">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="J132" s="3">
-        <v>2905.4</v>
+        <v>-36.480000000000004</v>
       </c>
       <c r="K132" s="3">
-        <v>2905.4</v>
+        <v>-36.480000000000004</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112455</v>
+        <v>211112216</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6029,39 +6026,39 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>12035</v>
+        <v>12876</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45919.369513888887</v>
+        <v>45942.335138888884</v>
       </c>
       <c r="H133" s="1">
-        <v>45889.370081018518</v>
+        <v>45912.335138888884</v>
       </c>
       <c r="I133" s="2">
-        <v>1</v>
+        <v>-13.335138888884103</v>
       </c>
       <c r="J133" s="3">
-        <v>3591.86</v>
+        <v>582.91</v>
       </c>
       <c r="K133" s="3">
-        <v>3591.86</v>
+        <v>582.91</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112455</v>
+        <v>211112290</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6070,66 +6067,66 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>12367</v>
+        <v>10786</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45927.412766203699</v>
+        <v>45916.621446759258</v>
       </c>
       <c r="H134" s="1">
-        <v>45897.415347222217</v>
+        <v>45856.622523148144</v>
       </c>
       <c r="I134" s="2">
-        <v>-7</v>
+        <v>12.378553240741894</v>
       </c>
       <c r="J134" s="3">
-        <v>3508</v>
+        <v>2347.12</v>
       </c>
       <c r="K134" s="3">
-        <v>3508</v>
+        <v>2347.12</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112455</v>
+        <v>211112290</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="E135">
-        <v>569</v>
+        <v>11859</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45934</v>
+        <v>45942.611527777779</v>
       </c>
       <c r="H135" s="1">
-        <v>45904</v>
+        <v>45882.616122685184</v>
       </c>
       <c r="I135" s="2">
-        <v>-14</v>
+        <v>-13.611527777778974</v>
       </c>
       <c r="J135" s="3">
-        <v>-576.78</v>
+        <v>1123.45</v>
       </c>
       <c r="K135" s="3">
-        <v>-576.78</v>
+        <v>1123.45</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -6140,215 +6137,215 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112455</v>
+        <v>211112334</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136">
-        <v>12863</v>
+        <v>35</v>
+      </c>
+      <c r="E136" t="s">
+        <v>42</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45941.622974537036</v>
+        <v>45406</v>
       </c>
       <c r="H136" s="1">
-        <v>45911.623657407406</v>
+        <v>45391</v>
       </c>
       <c r="I136" s="2">
-        <v>-21</v>
+        <v>523</v>
       </c>
       <c r="J136" s="3">
-        <v>2219.06</v>
+        <v>597.29</v>
       </c>
       <c r="K136" s="3">
-        <v>2219.06</v>
+        <v>597.29</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112469</v>
+        <v>211112334</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137">
-        <v>11558</v>
+        <v>35</v>
+      </c>
+      <c r="E137" t="s">
+        <v>43</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45906.43645833333</v>
+        <v>45406</v>
       </c>
       <c r="H137" s="1">
-        <v>45876.437384259254</v>
+        <v>45391</v>
       </c>
       <c r="I137" s="2">
-        <v>14</v>
+        <v>523</v>
       </c>
       <c r="J137" s="3">
-        <v>1107.6200000000001</v>
+        <v>591.72</v>
       </c>
       <c r="K137" s="3">
-        <v>15.370000000000001</v>
+        <v>591.72</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112469</v>
+        <v>211112334</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138">
-        <v>12361</v>
+        <v>35</v>
+      </c>
+      <c r="E138" t="s">
+        <v>44</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45927.39025462963</v>
+        <v>45419</v>
       </c>
       <c r="H138" s="1">
-        <v>45897.394027777773</v>
+        <v>45404</v>
       </c>
       <c r="I138" s="2">
-        <v>-7</v>
+        <v>510</v>
       </c>
       <c r="J138" s="3">
-        <v>351.14</v>
+        <v>599.27</v>
       </c>
       <c r="K138" s="3">
-        <v>351.14</v>
+        <v>599.27</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112469</v>
+        <v>211112334</v>
       </c>
       <c r="B139" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="D139">
+        <v>2025</v>
       </c>
       <c r="E139">
-        <v>12705</v>
+        <v>91</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45938.519317129627</v>
+        <v>45906</v>
       </c>
       <c r="H139" s="1">
-        <v>45908.521111111106</v>
+        <v>45876</v>
       </c>
       <c r="I139" s="2">
-        <v>-18</v>
+        <v>23</v>
       </c>
       <c r="J139" s="3">
-        <v>825.99</v>
+        <v>-64.14</v>
       </c>
       <c r="K139" s="3">
-        <v>825.99</v>
+        <v>-64.14</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112488</v>
+        <v>211112334</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="D140">
+        <v>2025</v>
       </c>
       <c r="E140">
-        <v>12146</v>
+        <v>92</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45920.679456018515</v>
+        <v>45906</v>
       </c>
       <c r="H140" s="1">
-        <v>45890.681793981479</v>
+        <v>45876</v>
       </c>
       <c r="I140" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J140" s="3">
-        <v>1241.79</v>
+        <v>-174.57</v>
       </c>
       <c r="K140" s="3">
-        <v>1241.79</v>
+        <v>-174.57</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112489</v>
+        <v>211112351</v>
       </c>
       <c r="B141" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6357,39 +6354,39 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>12944</v>
+        <v>9758</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45975.520891203705</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H141" s="1">
-        <v>45915.521157407406</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I141" s="2">
-        <v>-55</v>
+        <v>34.595486111109494</v>
       </c>
       <c r="J141" s="3">
-        <v>2866.7400000000002</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K141" s="3">
-        <v>2866.7400000000002</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112515</v>
+        <v>211112421</v>
       </c>
       <c r="B142" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6398,39 +6395,39 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>12949</v>
+        <v>3848</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45946.310219907406</v>
+        <v>45746.622569444444</v>
       </c>
       <c r="H142" s="1">
-        <v>45916.310243055552</v>
+        <v>45716.624456018515</v>
       </c>
       <c r="I142" s="2">
-        <v>-26</v>
+        <v>182.3774305555562</v>
       </c>
       <c r="J142" s="3">
-        <v>1067.78</v>
+        <v>233.77</v>
       </c>
       <c r="K142" s="3">
-        <v>1067.78</v>
+        <v>233.77</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112515</v>
+        <v>211112443</v>
       </c>
       <c r="B143" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6439,25 +6436,25 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>13157</v>
+        <v>13234</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45949.347083333334</v>
+        <v>45952.654594907406</v>
       </c>
       <c r="H143" s="1">
-        <v>45919.347291666665</v>
+        <v>45922.655439814815</v>
       </c>
       <c r="I143" s="2">
-        <v>-29</v>
+        <v>-23.654594907406135</v>
       </c>
       <c r="J143" s="3">
-        <v>146.07</v>
+        <v>387.03000000000003</v>
       </c>
       <c r="K143" s="3">
-        <v>146.07</v>
+        <v>387.03000000000003</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -6468,10 +6465,10 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112518</v>
+        <v>211112443</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6480,39 +6477,39 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>9953</v>
+        <v>13244</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45900.407731481479</v>
+        <v>45953.358194444445</v>
       </c>
       <c r="H144" s="1">
-        <v>45840.408055555556</v>
+        <v>45923.359027777777</v>
       </c>
       <c r="I144" s="2">
-        <v>20</v>
+        <v>-24.358194444444962</v>
       </c>
       <c r="J144" s="3">
-        <v>358.40000000000003</v>
+        <v>164.76</v>
       </c>
       <c r="K144" s="3">
-        <v>358.40000000000003</v>
+        <v>164.76</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112518</v>
+        <v>211112455</v>
       </c>
       <c r="B145" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6521,25 +6518,25 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>10114</v>
+        <v>12035</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45902.400694444441</v>
+        <v>45919.369513888887</v>
       </c>
       <c r="H145" s="1">
-        <v>45842.400694444441</v>
+        <v>45889.370081018518</v>
       </c>
       <c r="I145" s="2">
-        <v>18</v>
+        <v>9.6304861111129867</v>
       </c>
       <c r="J145" s="3">
-        <v>219.86</v>
+        <v>3591.86</v>
       </c>
       <c r="K145" s="3">
-        <v>219.86</v>
+        <v>3591.86</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6550,10 +6547,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112518</v>
+        <v>211112455</v>
       </c>
       <c r="B146" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6562,66 +6559,66 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>10919</v>
+        <v>12367</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45921.540416666663</v>
+        <v>45927.412766203699</v>
       </c>
       <c r="H146" s="1">
-        <v>45861.54415509259</v>
+        <v>45897.415347222217</v>
       </c>
       <c r="I146" s="2">
-        <v>-1</v>
+        <v>1.5872337963010068</v>
       </c>
       <c r="J146" s="3">
-        <v>817.86</v>
+        <v>3508</v>
       </c>
       <c r="K146" s="3">
-        <v>817.86</v>
+        <v>3508</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112518</v>
+        <v>211112455</v>
       </c>
       <c r="B147" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E147">
-        <v>12069</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45949.520509259259</v>
+        <v>45931</v>
       </c>
       <c r="H147" s="1">
-        <v>45889.520520833328</v>
+        <v>45901</v>
       </c>
       <c r="I147" s="2">
-        <v>-29</v>
+        <v>-2</v>
       </c>
       <c r="J147" s="3">
-        <v>624.23</v>
+        <v>-46.13</v>
       </c>
       <c r="K147" s="3">
-        <v>624.23</v>
+        <v>-46.13</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -6632,10 +6629,10 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112531</v>
+        <v>211112455</v>
       </c>
       <c r="B148" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6644,25 +6641,25 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>12821</v>
+        <v>12863</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45940.714884259258</v>
+        <v>45941.622974537036</v>
       </c>
       <c r="H148" s="1">
-        <v>45910.715243055551</v>
+        <v>45911.623657407406</v>
       </c>
       <c r="I148" s="2">
-        <v>-20</v>
+        <v>-12.622974537036498</v>
       </c>
       <c r="J148" s="3">
-        <v>164.15</v>
+        <v>2219.06</v>
       </c>
       <c r="K148" s="3">
-        <v>164.15</v>
+        <v>2219.06</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -6673,42 +6670,698 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
+        <v>211112455</v>
+      </c>
+      <c r="B149" t="s">
+        <v>48</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149">
+        <v>13342</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" s="1">
+        <v>45954.493402777778</v>
+      </c>
+      <c r="H149" s="1">
+        <v>45924.494317129625</v>
+      </c>
+      <c r="I149" s="2">
+        <v>-25.493402777778101</v>
+      </c>
+      <c r="J149" s="3">
+        <v>1487.93</v>
+      </c>
+      <c r="K149" s="3">
+        <v>1487.93</v>
+      </c>
+      <c r="L149" t="s">
+        <v>17</v>
+      </c>
+      <c r="M149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>211112469</v>
+      </c>
+      <c r="B150" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150">
+        <v>12361</v>
+      </c>
+      <c r="F150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" s="1">
+        <v>45927.39025462963</v>
+      </c>
+      <c r="H150" s="1">
+        <v>45897.394027777773</v>
+      </c>
+      <c r="I150" s="2">
+        <v>1.6097453703696374</v>
+      </c>
+      <c r="J150" s="3">
+        <v>351.14</v>
+      </c>
+      <c r="K150" s="3">
+        <v>351.14</v>
+      </c>
+      <c r="L150" t="s">
+        <v>17</v>
+      </c>
+      <c r="M150" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>211112469</v>
+      </c>
+      <c r="B151" t="s">
+        <v>49</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151">
+        <v>12705</v>
+      </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="1">
+        <v>45938.519317129627</v>
+      </c>
+      <c r="H151" s="1">
+        <v>45908.521111111106</v>
+      </c>
+      <c r="I151" s="2">
+        <v>-9.5193171296268702</v>
+      </c>
+      <c r="J151" s="3">
+        <v>825.99</v>
+      </c>
+      <c r="K151" s="3">
+        <v>825.99</v>
+      </c>
+      <c r="L151" t="s">
+        <v>17</v>
+      </c>
+      <c r="M151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>211112469</v>
+      </c>
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>13418</v>
+      </c>
+      <c r="F152" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="1">
+        <v>45956.386076388888</v>
+      </c>
+      <c r="H152" s="1">
+        <v>45926.38722222222</v>
+      </c>
+      <c r="I152" s="2">
+        <v>-27.386076388887886</v>
+      </c>
+      <c r="J152" s="3">
+        <v>762.54</v>
+      </c>
+      <c r="K152" s="3">
+        <v>762.54</v>
+      </c>
+      <c r="L152" t="s">
+        <v>17</v>
+      </c>
+      <c r="M152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>211112488</v>
+      </c>
+      <c r="B153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153">
+        <v>12146</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="1">
+        <v>45920.679456018515</v>
+      </c>
+      <c r="H153" s="1">
+        <v>45890.681793981479</v>
+      </c>
+      <c r="I153" s="2">
+        <v>8.3205439814846613</v>
+      </c>
+      <c r="J153" s="3">
+        <v>1241.79</v>
+      </c>
+      <c r="K153" s="3">
+        <v>1241.79</v>
+      </c>
+      <c r="L153" t="s">
+        <v>17</v>
+      </c>
+      <c r="M153" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>211112489</v>
+      </c>
+      <c r="B154" t="s">
+        <v>58</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154">
+        <v>12944</v>
+      </c>
+      <c r="F154" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" s="1">
+        <v>45975.520891203705</v>
+      </c>
+      <c r="H154" s="1">
+        <v>45915.521157407406</v>
+      </c>
+      <c r="I154" s="2">
+        <v>-46.520891203705105</v>
+      </c>
+      <c r="J154" s="3">
+        <v>2866.7400000000002</v>
+      </c>
+      <c r="K154" s="3">
+        <v>2866.7400000000002</v>
+      </c>
+      <c r="L154" t="s">
+        <v>17</v>
+      </c>
+      <c r="M154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>211112515</v>
+      </c>
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155">
+        <v>2025</v>
+      </c>
+      <c r="E155">
+        <v>867</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="1">
+        <v>45946</v>
+      </c>
+      <c r="H155" s="1">
+        <v>45916</v>
+      </c>
+      <c r="I155" s="2">
+        <v>-17</v>
+      </c>
+      <c r="J155" s="3">
+        <v>-69.900000000000006</v>
+      </c>
+      <c r="K155" s="3">
+        <v>-69.900000000000006</v>
+      </c>
+      <c r="L155" t="s">
+        <v>17</v>
+      </c>
+      <c r="M155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>211112515</v>
+      </c>
+      <c r="B156" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>12949</v>
+      </c>
+      <c r="F156" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" s="1">
+        <v>45946.310219907406</v>
+      </c>
+      <c r="H156" s="1">
+        <v>45916.310243055552</v>
+      </c>
+      <c r="I156" s="2">
+        <v>-17.310219907405553</v>
+      </c>
+      <c r="J156" s="3">
+        <v>1067.78</v>
+      </c>
+      <c r="K156" s="3">
+        <v>1067.78</v>
+      </c>
+      <c r="L156" t="s">
+        <v>17</v>
+      </c>
+      <c r="M156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>211112515</v>
+      </c>
+      <c r="B157" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157">
+        <v>13157</v>
+      </c>
+      <c r="F157" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="1">
+        <v>45949.347083333334</v>
+      </c>
+      <c r="H157" s="1">
+        <v>45919.347291666665</v>
+      </c>
+      <c r="I157" s="2">
+        <v>-20.347083333334012</v>
+      </c>
+      <c r="J157" s="3">
+        <v>146.07</v>
+      </c>
+      <c r="K157" s="3">
+        <v>146.07</v>
+      </c>
+      <c r="L157" t="s">
+        <v>17</v>
+      </c>
+      <c r="M157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>211112518</v>
+      </c>
+      <c r="B158" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>9953</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="1">
+        <v>45900.407731481479</v>
+      </c>
+      <c r="H158" s="1">
+        <v>45840.408055555556</v>
+      </c>
+      <c r="I158" s="2">
+        <v>28.59226851852145</v>
+      </c>
+      <c r="J158" s="3">
+        <v>358.40000000000003</v>
+      </c>
+      <c r="K158" s="3">
+        <v>358.40000000000003</v>
+      </c>
+      <c r="L158" t="s">
+        <v>17</v>
+      </c>
+      <c r="M158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>211112518</v>
+      </c>
+      <c r="B159" t="s">
+        <v>52</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159">
+        <v>10114</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="1">
+        <v>45902.400694444441</v>
+      </c>
+      <c r="H159" s="1">
+        <v>45842.400694444441</v>
+      </c>
+      <c r="I159" s="2">
+        <v>26.599305555559113</v>
+      </c>
+      <c r="J159" s="3">
+        <v>219.86</v>
+      </c>
+      <c r="K159" s="3">
+        <v>219.86</v>
+      </c>
+      <c r="L159" t="s">
+        <v>17</v>
+      </c>
+      <c r="M159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>211112518</v>
+      </c>
+      <c r="B160" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160">
+        <v>10919</v>
+      </c>
+      <c r="F160" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="1">
+        <v>45921.540416666663</v>
+      </c>
+      <c r="H160" s="1">
+        <v>45861.54415509259</v>
+      </c>
+      <c r="I160" s="2">
+        <v>7.4595833333369228</v>
+      </c>
+      <c r="J160" s="3">
+        <v>817.86</v>
+      </c>
+      <c r="K160" s="3">
+        <v>817.86</v>
+      </c>
+      <c r="L160" t="s">
+        <v>17</v>
+      </c>
+      <c r="M160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>211112518</v>
+      </c>
+      <c r="B161" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161">
+        <v>12069</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="1">
+        <v>45949.520509259259</v>
+      </c>
+      <c r="H161" s="1">
+        <v>45889.520520833328</v>
+      </c>
+      <c r="I161" s="2">
+        <v>-20.520509259258688</v>
+      </c>
+      <c r="J161" s="3">
+        <v>624.23</v>
+      </c>
+      <c r="K161" s="3">
+        <v>624.23</v>
+      </c>
+      <c r="L161" t="s">
+        <v>17</v>
+      </c>
+      <c r="M161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>211112531</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B162" t="s">
         <v>53</v>
       </c>
-      <c r="C149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149">
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162">
+        <v>12821</v>
+      </c>
+      <c r="F162" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="1">
+        <v>45940.714884259258</v>
+      </c>
+      <c r="H162" s="1">
+        <v>45910.715243055551</v>
+      </c>
+      <c r="I162" s="2">
+        <v>-11.714884259257815</v>
+      </c>
+      <c r="J162" s="3">
+        <v>164.15</v>
+      </c>
+      <c r="K162" s="3">
+        <v>164.15</v>
+      </c>
+      <c r="L162" t="s">
+        <v>17</v>
+      </c>
+      <c r="M162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>211112531</v>
+      </c>
+      <c r="B163" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163">
         <v>12929</v>
       </c>
-      <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" s="1">
+      <c r="F163" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="1">
         <v>45945.396874999999</v>
       </c>
-      <c r="H149" s="1">
+      <c r="H163" s="1">
         <v>45915.396874999999</v>
       </c>
-      <c r="I149" s="2">
-        <v>-25</v>
-      </c>
-      <c r="J149" s="3">
+      <c r="I163" s="2">
+        <v>-16.396874999998545</v>
+      </c>
+      <c r="J163" s="3">
         <v>227.9</v>
       </c>
-      <c r="K149" s="3">
+      <c r="K163" s="3">
         <v>227.9</v>
       </c>
-      <c r="L149" t="s">
-        <v>17</v>
-      </c>
-      <c r="M149" t="s">
+      <c r="L163" t="s">
+        <v>17</v>
+      </c>
+      <c r="M163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>211112531</v>
+      </c>
+      <c r="B164" t="s">
+        <v>53</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164">
+        <v>13349</v>
+      </c>
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="1">
+        <v>45955.344722222224</v>
+      </c>
+      <c r="H164" s="1">
+        <v>45925.344988425924</v>
+      </c>
+      <c r="I164" s="2">
+        <v>-26.344722222223936</v>
+      </c>
+      <c r="J164" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="K164" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="L164" t="s">
+        <v>17</v>
+      </c>
+      <c r="M164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>211112531</v>
+      </c>
+      <c r="B165" t="s">
+        <v>53</v>
+      </c>
+      <c r="C165" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165">
+        <v>13380</v>
+      </c>
+      <c r="F165" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="1">
+        <v>45955.700185185182</v>
+      </c>
+      <c r="H165" s="1">
+        <v>45925.702268518515</v>
+      </c>
+      <c r="I165" s="2">
+        <v>-26.700185185181908</v>
+      </c>
+      <c r="J165" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="K165" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="L165" t="s">
+        <v>17</v>
+      </c>
+      <c r="M165" t="s">
         <v>19</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ED6626-3021-4D70-A5A9-0BCBAFE101DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B6B82B-56A7-4C2D-8552-9B7B4B68F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>Vânia Silva</t>
   </si>
   <si>
-    <t>6A30</t>
-  </si>
-  <si>
     <t>A VENCER</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Macro-Frio, Comercio Internacional</t>
-  </si>
-  <si>
-    <t>1A5</t>
   </si>
   <si>
     <t>Aviarmada - Comércio De Produtos</t>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>Pura Paixão - Unipessoal, Lda.</t>
+  </si>
+  <si>
+    <t>16A30</t>
+  </si>
+  <si>
+    <t>1A15</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M165"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,10 +646,10 @@
         <v>211110034</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>211110034</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -720,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>211110434</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -966,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>211110574</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>211110574</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1048,7 +1048,7 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>211110574</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1089,7 +1089,7 @@
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>211110574</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1130,7 +1130,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1138,10 +1138,10 @@
         <v>211110903</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1171,7 +1171,7 @@
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1179,10 +1179,10 @@
         <v>211110903</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>2025</v>
@@ -1212,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
         <v>211110903</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1253,7 +1253,7 @@
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1261,10 +1261,10 @@
         <v>211110903</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>2025</v>
@@ -1294,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1302,10 +1302,10 @@
         <v>211110903</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>2025</v>
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1343,10 +1343,10 @@
         <v>211110903</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>2025</v>
@@ -1376,7 +1376,7 @@
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>211110903</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1417,7 +1417,7 @@
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>211110903</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1458,7 +1458,7 @@
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>211111588</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1499,7 +1499,7 @@
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
         <v>211111588</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1548,10 +1548,10 @@
         <v>211111588</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>2025</v>
@@ -1581,7 +1581,7 @@
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>211111588</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1622,7 +1622,7 @@
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1630,10 +1630,10 @@
         <v>211111588</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1663,7 +1663,7 @@
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>211111588</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1704,7 +1704,7 @@
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>211111588</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1753,7 +1753,7 @@
         <v>211111588</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1786,7 +1786,7 @@
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>211111588</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1827,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>211111720</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1868,7 +1868,7 @@
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
         <v>211111720</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1909,7 +1909,7 @@
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>211111720</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1950,7 +1950,7 @@
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1958,13 +1958,13 @@
         <v>211111720</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>13</v>
@@ -1991,7 +1991,7 @@
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1999,10 +1999,10 @@
         <v>211111739</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35">
         <v>2025</v>
@@ -2032,7 +2032,7 @@
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2040,10 +2040,10 @@
         <v>211111739</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <v>2025</v>
@@ -2073,7 +2073,7 @@
         <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2081,7 +2081,7 @@
         <v>211111739</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2114,7 +2114,7 @@
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
         <v>211111739</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2155,7 +2155,7 @@
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2163,7 +2163,7 @@
         <v>211111739</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2196,7 +2196,7 @@
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
         <v>211111739</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2237,7 +2237,7 @@
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>211111878</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>211111878</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2319,7 +2319,7 @@
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
         <v>211111878</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2360,7 +2360,7 @@
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>211111878</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2401,7 +2401,7 @@
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>211111878</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2442,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2450,10 +2450,10 @@
         <v>211111878</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46">
         <v>2025</v>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>211111878</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2524,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2532,10 +2532,10 @@
         <v>211111878</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48">
         <v>2025</v>
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>211111878</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2606,7 +2606,7 @@
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2614,10 +2614,10 @@
         <v>211111878</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -2647,7 +2647,7 @@
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>211111878</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2688,7 +2688,7 @@
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>211111878</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2729,7 +2729,7 @@
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2737,7 +2737,7 @@
         <v>211111878</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2770,7 +2770,7 @@
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2778,7 +2778,7 @@
         <v>211111878</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2811,7 +2811,7 @@
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2819,10 +2819,10 @@
         <v>211111878</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55">
         <v>2025</v>
@@ -2852,7 +2852,7 @@
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2860,10 +2860,10 @@
         <v>211111878</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56">
         <v>2025</v>
@@ -2893,7 +2893,7 @@
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2901,7 +2901,7 @@
         <v>211111878</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2934,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>211111878</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2975,7 +2975,7 @@
         <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
         <v>211111878</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -3016,7 +3016,7 @@
         <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3024,7 +3024,7 @@
         <v>211111878</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3057,7 +3057,7 @@
         <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>211111878</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3098,7 +3098,7 @@
         <v>17</v>
       </c>
       <c r="M61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3106,7 +3106,7 @@
         <v>211111878</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3139,7 +3139,7 @@
         <v>17</v>
       </c>
       <c r="M62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>211111878</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63">
         <v>2025</v>
@@ -3180,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>211111878</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3221,7 +3221,7 @@
         <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>211111878</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3262,7 +3262,7 @@
         <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3270,7 +3270,7 @@
         <v>211111878</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3303,7 +3303,7 @@
         <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3311,7 +3311,7 @@
         <v>211111878</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3344,7 +3344,7 @@
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
         <v>211111878</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3393,7 +3393,7 @@
         <v>211111878</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3426,7 +3426,7 @@
         <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3434,7 +3434,7 @@
         <v>211111878</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3467,7 +3467,7 @@
         <v>17</v>
       </c>
       <c r="M70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3475,7 +3475,7 @@
         <v>211111878</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3508,7 +3508,7 @@
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>211111878</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3549,7 +3549,7 @@
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>211111878</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3590,7 +3590,7 @@
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3598,10 +3598,10 @@
         <v>211111878</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74">
         <v>2025</v>
@@ -3631,7 +3631,7 @@
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>211111878</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3672,7 +3672,7 @@
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3680,7 +3680,7 @@
         <v>211111878</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3713,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="M76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3721,10 +3721,10 @@
         <v>211111878</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77">
         <v>2025</v>
@@ -3754,7 +3754,7 @@
         <v>17</v>
       </c>
       <c r="M77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3762,7 +3762,7 @@
         <v>211111878</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3795,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>211111878</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3836,7 +3836,7 @@
         <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>211111878</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3877,7 +3877,7 @@
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3885,7 +3885,7 @@
         <v>211111878</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3918,7 +3918,7 @@
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3926,7 +3926,7 @@
         <v>211111878</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3959,7 +3959,7 @@
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3967,7 +3967,7 @@
         <v>211111878</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -4000,7 +4000,7 @@
         <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4008,7 +4008,7 @@
         <v>211111878</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -4041,7 +4041,7 @@
         <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4049,7 +4049,7 @@
         <v>211111878</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4082,7 +4082,7 @@
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4090,7 +4090,7 @@
         <v>211111878</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4123,7 +4123,7 @@
         <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
         <v>211112043</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4164,7 +4164,7 @@
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>211112043</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="M88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4213,7 +4213,7 @@
         <v>211112043</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4246,7 +4246,7 @@
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4254,7 +4254,7 @@
         <v>211112043</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4287,7 +4287,7 @@
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>211112043</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4328,7 +4328,7 @@
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4336,10 +4336,10 @@
         <v>211112050</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
@@ -4369,7 +4369,7 @@
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4377,10 +4377,10 @@
         <v>211112050</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
@@ -4410,7 +4410,7 @@
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4418,10 +4418,10 @@
         <v>211112050</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
@@ -4451,7 +4451,7 @@
         <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4459,13 +4459,13 @@
         <v>211112052</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4500,10 +4500,10 @@
         <v>211112052</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D96">
         <v>2025</v>
@@ -4533,7 +4533,7 @@
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4541,7 +4541,7 @@
         <v>211112052</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4574,7 +4574,7 @@
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4582,7 +4582,7 @@
         <v>211112052</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4615,7 +4615,7 @@
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4623,7 +4623,7 @@
         <v>211112052</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4656,7 +4656,7 @@
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4664,10 +4664,10 @@
         <v>211112052</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100">
         <v>2025</v>
@@ -4697,7 +4697,7 @@
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4705,10 +4705,10 @@
         <v>211112052</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101">
         <v>2025</v>
@@ -4738,7 +4738,7 @@
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4746,10 +4746,10 @@
         <v>211112052</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102">
         <v>2025</v>
@@ -4779,7 +4779,7 @@
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4787,7 +4787,7 @@
         <v>211112052</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4820,7 +4820,7 @@
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4828,7 +4828,7 @@
         <v>211112052</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4861,7 +4861,7 @@
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4869,7 +4869,7 @@
         <v>211112052</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4902,7 +4902,7 @@
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4910,7 +4910,7 @@
         <v>211112052</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4943,7 +4943,7 @@
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4951,7 +4951,7 @@
         <v>211112052</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,7 @@
         <v>211112098</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5033,7 +5033,7 @@
         <v>211112098</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5066,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5074,7 +5074,7 @@
         <v>211112098</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5107,7 +5107,7 @@
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5115,7 +5115,7 @@
         <v>211112151</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5148,7 +5148,7 @@
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5156,7 +5156,7 @@
         <v>211112151</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5189,7 +5189,7 @@
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5197,13 +5197,13 @@
         <v>211112151</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E113">
         <v>123</v>
@@ -5230,7 +5230,7 @@
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5238,7 +5238,7 @@
         <v>211112151</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5271,7 +5271,7 @@
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5279,7 +5279,7 @@
         <v>211112151</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5312,7 +5312,7 @@
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5320,7 +5320,7 @@
         <v>211112151</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5353,7 +5353,7 @@
         <v>17</v>
       </c>
       <c r="M116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5361,7 +5361,7 @@
         <v>211112151</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -5394,7 +5394,7 @@
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5402,7 +5402,7 @@
         <v>211112151</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5435,7 +5435,7 @@
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5443,7 +5443,7 @@
         <v>211112151</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5476,7 +5476,7 @@
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5484,7 +5484,7 @@
         <v>211112151</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -5517,7 +5517,7 @@
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5525,7 +5525,7 @@
         <v>211112151</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -5558,7 +5558,7 @@
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5566,13 +5566,13 @@
         <v>211112151</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E122">
         <v>10</v>
@@ -5599,7 +5599,7 @@
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5607,7 +5607,7 @@
         <v>211112151</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -5640,7 +5640,7 @@
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5648,13 +5648,13 @@
         <v>211112151</v>
       </c>
       <c r="B124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E124">
         <v>153</v>
@@ -5681,7 +5681,7 @@
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5689,7 +5689,7 @@
         <v>211112151</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -5722,7 +5722,7 @@
         <v>17</v>
       </c>
       <c r="M125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5730,7 +5730,7 @@
         <v>211112151</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5763,7 +5763,7 @@
         <v>17</v>
       </c>
       <c r="M126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5771,10 +5771,10 @@
         <v>211112151</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D127">
         <v>2025</v>
@@ -5804,7 +5804,7 @@
         <v>17</v>
       </c>
       <c r="M127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5812,10 +5812,10 @@
         <v>211112151</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="M128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5853,10 +5853,10 @@
         <v>211112151</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
@@ -5886,7 +5886,7 @@
         <v>17</v>
       </c>
       <c r="M129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5894,10 +5894,10 @@
         <v>211112183</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D130">
         <v>2025</v>
@@ -5927,7 +5927,7 @@
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -5935,7 +5935,7 @@
         <v>211112216</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -5968,7 +5968,7 @@
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -5976,10 +5976,10 @@
         <v>211112216</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
@@ -6009,7 +6009,7 @@
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6017,7 +6017,7 @@
         <v>211112216</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6050,7 +6050,7 @@
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6058,7 +6058,7 @@
         <v>211112290</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -6091,7 +6091,7 @@
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6099,7 +6099,7 @@
         <v>211112290</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6132,7 +6132,7 @@
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6140,16 +6140,16 @@
         <v>211112334</v>
       </c>
       <c r="B136" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" t="s">
         <v>40</v>
-      </c>
-      <c r="C136" t="s">
-        <v>41</v>
-      </c>
-      <c r="D136" t="s">
-        <v>35</v>
-      </c>
-      <c r="E136" t="s">
-        <v>42</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -6173,7 +6173,7 @@
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6181,16 +6181,16 @@
         <v>211112334</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C137" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
         <v>41</v>
-      </c>
-      <c r="D137" t="s">
-        <v>35</v>
-      </c>
-      <c r="E137" t="s">
-        <v>43</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
@@ -6214,7 +6214,7 @@
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6222,16 +6222,16 @@
         <v>211112334</v>
       </c>
       <c r="B138" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
@@ -6255,7 +6255,7 @@
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6263,10 +6263,10 @@
         <v>211112334</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C139" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D139">
         <v>2025</v>
@@ -6296,7 +6296,7 @@
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6304,10 +6304,10 @@
         <v>211112334</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D140">
         <v>2025</v>
@@ -6337,7 +6337,7 @@
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6345,7 +6345,7 @@
         <v>211112351</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6378,7 +6378,7 @@
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6386,7 +6386,7 @@
         <v>211112421</v>
       </c>
       <c r="B142" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
@@ -6419,7 +6419,7 @@
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6427,7 +6427,7 @@
         <v>211112443</v>
       </c>
       <c r="B143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6460,7 +6460,7 @@
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6468,7 +6468,7 @@
         <v>211112443</v>
       </c>
       <c r="B144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6501,7 +6501,7 @@
         <v>17</v>
       </c>
       <c r="M144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6509,7 +6509,7 @@
         <v>211112455</v>
       </c>
       <c r="B145" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
@@ -6542,7 +6542,7 @@
         <v>17</v>
       </c>
       <c r="M145" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6550,7 +6550,7 @@
         <v>211112455</v>
       </c>
       <c r="B146" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6583,7 +6583,7 @@
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6591,13 +6591,13 @@
         <v>211112455</v>
       </c>
       <c r="B147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E147">
         <v>12</v>
@@ -6624,7 +6624,7 @@
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
         <v>211112455</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6665,7 +6665,7 @@
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6673,7 +6673,7 @@
         <v>211112455</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -6706,7 +6706,7 @@
         <v>17</v>
       </c>
       <c r="M149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6714,7 +6714,7 @@
         <v>211112469</v>
       </c>
       <c r="B150" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6747,7 +6747,7 @@
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6755,7 +6755,7 @@
         <v>211112469</v>
       </c>
       <c r="B151" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6788,7 +6788,7 @@
         <v>17</v>
       </c>
       <c r="M151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6796,7 +6796,7 @@
         <v>211112469</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -6829,7 +6829,7 @@
         <v>17</v>
       </c>
       <c r="M152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6837,7 +6837,7 @@
         <v>211112488</v>
       </c>
       <c r="B153" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6870,7 +6870,7 @@
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6878,7 +6878,7 @@
         <v>211112489</v>
       </c>
       <c r="B154" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -6911,7 +6911,7 @@
         <v>17</v>
       </c>
       <c r="M154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -6919,10 +6919,10 @@
         <v>211112515</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D155">
         <v>2025</v>
@@ -6952,7 +6952,7 @@
         <v>17</v>
       </c>
       <c r="M155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -6960,7 +6960,7 @@
         <v>211112515</v>
       </c>
       <c r="B156" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -6993,7 +6993,7 @@
         <v>17</v>
       </c>
       <c r="M156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7001,7 +7001,7 @@
         <v>211112515</v>
       </c>
       <c r="B157" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -7034,7 +7034,7 @@
         <v>17</v>
       </c>
       <c r="M157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7042,7 +7042,7 @@
         <v>211112518</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
@@ -7075,7 +7075,7 @@
         <v>17</v>
       </c>
       <c r="M158" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7083,7 +7083,7 @@
         <v>211112518</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
@@ -7116,7 +7116,7 @@
         <v>17</v>
       </c>
       <c r="M159" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7124,7 +7124,7 @@
         <v>211112518</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
@@ -7157,7 +7157,7 @@
         <v>17</v>
       </c>
       <c r="M160" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7165,7 +7165,7 @@
         <v>211112518</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -7198,7 +7198,7 @@
         <v>17</v>
       </c>
       <c r="M161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7206,7 +7206,7 @@
         <v>211112531</v>
       </c>
       <c r="B162" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C162" t="s">
         <v>14</v>
@@ -7239,7 +7239,7 @@
         <v>17</v>
       </c>
       <c r="M162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7247,7 +7247,7 @@
         <v>211112531</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
@@ -7280,7 +7280,7 @@
         <v>17</v>
       </c>
       <c r="M163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7288,7 +7288,7 @@
         <v>211112531</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -7321,7 +7321,7 @@
         <v>17</v>
       </c>
       <c r="M164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7329,7 +7329,7 @@
         <v>211112531</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
@@ -7362,7 +7362,7 @@
         <v>17</v>
       </c>
       <c r="M165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B6B82B-56A7-4C2D-8552-9B7B4B68F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A41DE-0F00-4F92-8EEC-77119992000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="60">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Silva &amp; Carlos, Lda.</t>
   </si>
   <si>
-    <t>Oceanamesa, Lda.</t>
-  </si>
-  <si>
     <t>Segredos Ibéricos - Com. Distrib. Produtos Alimentares, Lda.</t>
   </si>
   <si>
@@ -209,10 +206,16 @@
     <t>Pura Paixão - Unipessoal, Lda.</t>
   </si>
   <si>
-    <t>16A30</t>
+    <t>Osfama - Dist. Import. E Export. De</t>
   </si>
   <si>
-    <t>1A15</t>
+    <t>6A30</t>
+  </si>
+  <si>
+    <t>61A90</t>
+  </si>
+  <si>
+    <t>1A5</t>
   </si>
 </sst>
 </file>
@@ -587,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A2" sqref="A2:M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +649,7 @@
         <v>211110034</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -667,7 +670,7 @@
         <v>45916</v>
       </c>
       <c r="I2" s="2">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="J2" s="3">
         <v>-47.94</v>
@@ -687,7 +690,7 @@
         <v>211110034</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -708,7 +711,7 @@
         <v>45916.422337962962</v>
       </c>
       <c r="I3" s="2">
-        <v>-17.422337962962047</v>
+        <v>-10.422337962962047</v>
       </c>
       <c r="J3" s="3">
         <v>664.32</v>
@@ -737,31 +740,31 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>11289</v>
+        <v>12520</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>45899.506041666667</v>
+        <v>45947.45107638889</v>
       </c>
       <c r="H4" s="1">
-        <v>45869.506041666667</v>
+        <v>45902.451412037037</v>
       </c>
       <c r="I4" s="2">
-        <v>29.493958333332557</v>
+        <v>-11.451076388890215</v>
       </c>
       <c r="J4" s="3">
-        <v>470.6</v>
+        <v>775.91</v>
       </c>
       <c r="K4" s="3">
-        <v>470.6</v>
+        <v>775.9</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -778,31 +781,31 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12078</v>
+        <v>13350</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>45919.572592592587</v>
+        <v>45970.361527777779</v>
       </c>
       <c r="H5" s="1">
-        <v>45889.572592592587</v>
+        <v>45925.368599537032</v>
       </c>
       <c r="I5" s="2">
-        <v>9.4274074074128293</v>
+        <v>-34.361527777778974</v>
       </c>
       <c r="J5" s="3">
-        <v>227.44</v>
+        <v>368.86</v>
       </c>
       <c r="K5" s="3">
-        <v>227.44</v>
+        <v>368.86</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -819,25 +822,25 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>12520</v>
+        <v>13397</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45947.45107638889</v>
+        <v>45971.361874999995</v>
       </c>
       <c r="H6" s="1">
-        <v>45902.451412037037</v>
+        <v>45926.362696759257</v>
       </c>
       <c r="I6" s="2">
-        <v>-18.451076388890215</v>
+        <v>-35.361874999995052</v>
       </c>
       <c r="J6" s="3">
-        <v>775.91</v>
+        <v>404.12</v>
       </c>
       <c r="K6" s="3">
-        <v>775.91</v>
+        <v>404.12</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -848,10 +851,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>211110102</v>
+        <v>211110434</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -860,25 +863,25 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>13350</v>
+        <v>13108</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45970.361527777779</v>
+        <v>45948.345138888886</v>
       </c>
       <c r="H7" s="1">
-        <v>45925.368599537032</v>
+        <v>45918.345590277779</v>
       </c>
       <c r="I7" s="2">
-        <v>-41.361527777778974</v>
+        <v>-12.34513888888614</v>
       </c>
       <c r="J7" s="3">
-        <v>368.86</v>
+        <v>408.72</v>
       </c>
       <c r="K7" s="3">
-        <v>368.86</v>
+        <v>408.72</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -889,10 +892,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>211110102</v>
+        <v>211110434</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -901,25 +904,25 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>13397</v>
+        <v>13478</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45971.361874999995</v>
+        <v>45960.350081018514</v>
       </c>
       <c r="H8" s="1">
-        <v>45926.362696759257</v>
+        <v>45930.350300925922</v>
       </c>
       <c r="I8" s="2">
-        <v>-42.361874999995052</v>
+        <v>-24.350081018514175</v>
       </c>
       <c r="J8" s="3">
-        <v>404.12</v>
+        <v>619.97</v>
       </c>
       <c r="K8" s="3">
-        <v>404.12</v>
+        <v>619.97</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -930,10 +933,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>211110434</v>
+        <v>211110477</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -942,25 +945,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>13108</v>
+        <v>13532</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45948.345138888886</v>
+        <v>45961.370902777773</v>
       </c>
       <c r="H9" s="1">
-        <v>45918.345590277779</v>
+        <v>45931.371504629627</v>
       </c>
       <c r="I9" s="2">
-        <v>-19.34513888888614</v>
+        <v>-25.370902777773154</v>
       </c>
       <c r="J9" s="3">
-        <v>408.72</v>
+        <v>130.21</v>
       </c>
       <c r="K9" s="3">
-        <v>408.72</v>
+        <v>130.21</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -974,7 +977,7 @@
         <v>211110574</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -995,7 +998,7 @@
         <v>45895.367962962962</v>
       </c>
       <c r="I10" s="2">
-        <v>3.6320370370376622</v>
+        <v>10.632037037037662</v>
       </c>
       <c r="J10" s="3">
         <v>716.14</v>
@@ -1007,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1015,7 +1018,7 @@
         <v>211110574</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1036,7 +1039,7 @@
         <v>45905.467291666668</v>
       </c>
       <c r="I11" s="2">
-        <v>-6.4669791666674428</v>
+        <v>0.53302083333255723</v>
       </c>
       <c r="J11" s="3">
         <v>601.41</v>
@@ -1056,7 +1059,7 @@
         <v>211110574</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1077,7 +1080,7 @@
         <v>45910.607453703698</v>
       </c>
       <c r="I12" s="2">
-        <v>-11.605277777773154</v>
+        <v>-4.6052777777731535</v>
       </c>
       <c r="J12" s="3">
         <v>520.49</v>
@@ -1097,7 +1100,7 @@
         <v>211110574</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1118,7 +1121,7 @@
         <v>45924.467106481483</v>
       </c>
       <c r="I13" s="2">
-        <v>-25.466331018513301</v>
+        <v>-18.466331018513301</v>
       </c>
       <c r="J13" s="3">
         <v>442.21000000000004</v>
@@ -1135,43 +1138,43 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211110903</v>
+        <v>211110574</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14">
-        <v>533</v>
+        <v>13473</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45873</v>
+        <v>45960.344895833332</v>
       </c>
       <c r="H14" s="1">
-        <v>45866</v>
+        <v>45930.345810185187</v>
       </c>
       <c r="I14" s="2">
-        <v>56</v>
+        <v>-24.344895833331975</v>
       </c>
       <c r="J14" s="3">
-        <v>-50.85</v>
+        <v>368.53000000000003</v>
       </c>
       <c r="K14" s="3">
-        <v>-50.85</v>
+        <v>368.53000000000003</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1184,35 +1187,35 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15">
-        <v>2025</v>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>711</v>
+        <v>533</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45875</v>
+        <v>45873</v>
       </c>
       <c r="H15" s="1">
-        <v>45868</v>
+        <v>45866</v>
       </c>
       <c r="I15" s="2">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J15" s="3">
-        <v>-100.23</v>
+        <v>-50.85</v>
       </c>
       <c r="K15" s="3">
-        <v>-100.23</v>
+        <v>-50.85</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1225,35 +1228,35 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
+      <c r="D16">
+        <v>2025</v>
       </c>
       <c r="E16">
-        <v>542</v>
+        <v>711</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45880</v>
+        <v>45875</v>
       </c>
       <c r="H16" s="1">
-        <v>45873</v>
+        <v>45868</v>
       </c>
       <c r="I16" s="2">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J16" s="3">
-        <v>-67.31</v>
+        <v>-100.23</v>
       </c>
       <c r="K16" s="3">
-        <v>-67.31</v>
+        <v>-100.23</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1266,29 +1269,29 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17">
-        <v>2025</v>
+      <c r="D17" t="s">
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>752</v>
+        <v>542</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45888</v>
+        <v>45880</v>
       </c>
       <c r="H17" s="1">
-        <v>45881</v>
+        <v>45873</v>
       </c>
       <c r="I17" s="2">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="J17" s="3">
-        <v>-100.91</v>
+        <v>-67.31</v>
       </c>
       <c r="K17" s="3">
-        <v>-100.91</v>
+        <v>-67.31</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1311,121 +1314,121 @@
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>757</v>
+        <v>878</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45890</v>
+        <v>45932</v>
       </c>
       <c r="H18" s="1">
-        <v>45883</v>
+        <v>45925</v>
       </c>
       <c r="I18" s="2">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>-63.35</v>
+        <v>-59.86</v>
       </c>
       <c r="K18" s="3">
-        <v>-63.35</v>
+        <v>-59.86</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>865</v>
+        <v>12107</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45922</v>
+        <v>45925.479895833334</v>
       </c>
       <c r="H19" s="1">
-        <v>45915</v>
+        <v>45890.479895833334</v>
       </c>
       <c r="I19" s="2">
-        <v>7</v>
+        <v>10.520104166665988</v>
       </c>
       <c r="J19" s="3">
-        <v>-96.53</v>
+        <v>195.82</v>
       </c>
       <c r="K19" s="3">
-        <v>-96.53</v>
+        <v>195.82</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>2025</v>
       </c>
       <c r="E20">
-        <v>13341</v>
+        <v>809</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45931.470682870371</v>
+        <v>45932</v>
       </c>
       <c r="H20" s="1">
-        <v>45924.470949074072</v>
+        <v>45897</v>
       </c>
       <c r="I20" s="2">
-        <v>-2.4706828703710926</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3">
-        <v>1328.27</v>
+        <v>-0.97</v>
       </c>
       <c r="K20" s="3">
-        <v>1328.27</v>
+        <v>-0.97</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1434,31 +1437,31 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>13361</v>
+        <v>12360</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45932.446724537032</v>
+        <v>45932.391550925924</v>
       </c>
       <c r="H21" s="1">
-        <v>45925.446863425925</v>
+        <v>45897.391562500001</v>
       </c>
       <c r="I21" s="2">
-        <v>-3.4467245370324235</v>
+        <v>3.6084490740759065</v>
       </c>
       <c r="J21" s="3">
-        <v>2240.9500000000003</v>
+        <v>197.81</v>
       </c>
       <c r="K21" s="3">
-        <v>2240.9500000000003</v>
+        <v>197.81</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1469,37 +1472,37 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>11778</v>
+        <v>568</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45917.361284722218</v>
+        <v>45939</v>
       </c>
       <c r="H22" s="1">
-        <v>45882.361284722218</v>
+        <v>45904</v>
       </c>
       <c r="I22" s="2">
-        <v>11.638715277782467</v>
+        <v>-3</v>
       </c>
       <c r="J22" s="3">
-        <v>382.83</v>
+        <v>-0.52</v>
       </c>
       <c r="K22" s="3">
-        <v>382.83</v>
+        <v>-0.52</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1516,31 +1519,31 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>12107</v>
+        <v>12605</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45925.479895833334</v>
+        <v>45939.432569444441</v>
       </c>
       <c r="H23" s="1">
-        <v>45890.479895833334</v>
+        <v>45904.433935185181</v>
       </c>
       <c r="I23" s="2">
-        <v>3.5201041666659876</v>
+        <v>-3.4325694444414694</v>
       </c>
       <c r="J23" s="3">
-        <v>195.82</v>
+        <v>953.69</v>
       </c>
       <c r="K23" s="3">
-        <v>195.82</v>
+        <v>953.69</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1551,31 +1554,31 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>809</v>
+        <v>12625</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45932</v>
+        <v>45940.365300925921</v>
       </c>
       <c r="H24" s="1">
-        <v>45897</v>
+        <v>45905.366354166668</v>
       </c>
       <c r="I24" s="2">
-        <v>-3</v>
+        <v>-4.3653009259214741</v>
       </c>
       <c r="J24" s="3">
-        <v>-0.97</v>
+        <v>487.36</v>
       </c>
       <c r="K24" s="3">
-        <v>-0.97</v>
+        <v>487.36</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1598,25 +1601,25 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>12360</v>
+        <v>13128</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45932.391550925924</v>
+        <v>45953.382881944446</v>
       </c>
       <c r="H25" s="1">
-        <v>45897.391562500001</v>
+        <v>45918.402905092589</v>
       </c>
       <c r="I25" s="2">
-        <v>-3.3915509259240935</v>
+        <v>-17.382881944446126</v>
       </c>
       <c r="J25" s="3">
-        <v>197.81</v>
+        <v>444.22</v>
       </c>
       <c r="K25" s="3">
-        <v>197.81</v>
+        <v>444.22</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
@@ -1633,31 +1636,31 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26">
-        <v>568</v>
+        <v>13348</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45939</v>
+        <v>45959.678217592591</v>
       </c>
       <c r="H26" s="1">
-        <v>45904</v>
+        <v>45924.678518518514</v>
       </c>
       <c r="I26" s="2">
-        <v>-10</v>
+        <v>-23.678217592590954</v>
       </c>
       <c r="J26" s="3">
-        <v>-0.52</v>
+        <v>1198.05</v>
       </c>
       <c r="K26" s="3">
-        <v>-0.52</v>
+        <v>1198.05</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1680,25 +1683,25 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>12605</v>
+        <v>13576</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45939.432569444441</v>
+        <v>45967.393101851849</v>
       </c>
       <c r="H27" s="1">
-        <v>45904.433935185181</v>
+        <v>45932.393449074072</v>
       </c>
       <c r="I27" s="2">
-        <v>-10.432569444441469</v>
+        <v>-31.393101851848769</v>
       </c>
       <c r="J27" s="3">
-        <v>953.69</v>
+        <v>242.47</v>
       </c>
       <c r="K27" s="3">
-        <v>953.69</v>
+        <v>242.47</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1709,10 +1712,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111588</v>
+        <v>211111720</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1721,39 +1724,39 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>12625</v>
+        <v>10727</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45940.365300925921</v>
+        <v>45916.281041666662</v>
       </c>
       <c r="H28" s="1">
-        <v>45905.366354166668</v>
+        <v>45856.283530092587</v>
       </c>
       <c r="I28" s="2">
-        <v>-11.365300925921474</v>
+        <v>19.718958333338378</v>
       </c>
       <c r="J28" s="3">
-        <v>487.36</v>
+        <v>199.79</v>
       </c>
       <c r="K28" s="3">
-        <v>487.36</v>
+        <v>199.79</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111588</v>
+        <v>211111720</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1762,39 +1765,39 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>13128</v>
+        <v>11012</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45953.382881944446</v>
+        <v>45923.282870370371</v>
       </c>
       <c r="H29" s="1">
-        <v>45918.402905092589</v>
+        <v>45863.28329861111</v>
       </c>
       <c r="I29" s="2">
-        <v>-24.382881944446126</v>
+        <v>12.717129629629198</v>
       </c>
       <c r="J29" s="3">
-        <v>444.22</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="K29" s="3">
-        <v>444.22</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111588</v>
+        <v>211111720</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1803,25 +1806,25 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>13348</v>
+        <v>12399</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45959.678217592591</v>
+        <v>45958.36681712963</v>
       </c>
       <c r="H30" s="1">
-        <v>45924.678518518514</v>
+        <v>45898.3668287037</v>
       </c>
       <c r="I30" s="2">
-        <v>-30.678217592590954</v>
+        <v>-22.366817129630363</v>
       </c>
       <c r="J30" s="3">
-        <v>1198.05</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="K30" s="3">
-        <v>1198.05</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -1838,86 +1841,86 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E31">
-        <v>10727</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45916.281041666662</v>
+        <v>45970</v>
       </c>
       <c r="H31" s="1">
-        <v>45856.283530092587</v>
+        <v>45910</v>
       </c>
       <c r="I31" s="2">
-        <v>12.718958333338378</v>
+        <v>-34</v>
       </c>
       <c r="J31" s="3">
-        <v>199.79</v>
+        <v>-30.75</v>
       </c>
       <c r="K31" s="3">
-        <v>199.79</v>
+        <v>-30.75</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>2025</v>
       </c>
       <c r="E32">
-        <v>11012</v>
+        <v>827</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45923.282870370371</v>
+        <v>45932</v>
       </c>
       <c r="H32" s="1">
-        <v>45863.28329861111</v>
+        <v>45902</v>
       </c>
       <c r="I32" s="2">
-        <v>5.7171296296291985</v>
+        <v>4</v>
       </c>
       <c r="J32" s="3">
-        <v>1478.6200000000001</v>
+        <v>-1.77</v>
       </c>
       <c r="K32" s="3">
-        <v>1478.6200000000001</v>
+        <v>-1.77</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1926,25 +1929,25 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>12399</v>
+        <v>12693</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45958.36681712963</v>
+        <v>45938.456111111111</v>
       </c>
       <c r="H33" s="1">
-        <v>45898.3668287037</v>
+        <v>45908.45612268518</v>
       </c>
       <c r="I33" s="2">
-        <v>-29.366817129630363</v>
+        <v>-2.4561111111106584</v>
       </c>
       <c r="J33" s="3">
-        <v>615.18000000000006</v>
+        <v>1831.69</v>
       </c>
       <c r="K33" s="3">
-        <v>615.18000000000006</v>
+        <v>1831.69</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -1955,37 +1958,37 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>13</v>
+        <v>12764</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45970</v>
+        <v>45940.312048611107</v>
       </c>
       <c r="H34" s="1">
-        <v>45910</v>
+        <v>45910.315740740742</v>
       </c>
       <c r="I34" s="2">
-        <v>-41</v>
+        <v>-4.312048611107457</v>
       </c>
       <c r="J34" s="3">
-        <v>-30.75</v>
+        <v>564.66</v>
       </c>
       <c r="K34" s="3">
-        <v>-30.75</v>
+        <v>564.66</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2002,37 +2005,37 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>630</v>
+        <v>13206</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45876</v>
+        <v>45952.35560185185</v>
       </c>
       <c r="H35" s="1">
-        <v>45846</v>
+        <v>45922.356840277775</v>
       </c>
       <c r="I35" s="2">
-        <v>53</v>
+        <v>-16.355601851850224</v>
       </c>
       <c r="J35" s="3">
-        <v>-89.27</v>
+        <v>848.55000000000007</v>
       </c>
       <c r="K35" s="3">
-        <v>-89.27</v>
+        <v>848.55000000000007</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2043,31 +2046,31 @@
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
       </c>
       <c r="E36">
-        <v>827</v>
+        <v>13511</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45932</v>
+        <v>45961.320532407408</v>
       </c>
       <c r="H36" s="1">
-        <v>45902</v>
+        <v>45931.322465277779</v>
       </c>
       <c r="I36" s="2">
-        <v>-3</v>
+        <v>-25.320532407407882</v>
       </c>
       <c r="J36" s="3">
-        <v>-1.77</v>
+        <v>1487.93</v>
       </c>
       <c r="K36" s="3">
-        <v>-1.77</v>
+        <v>1487.93</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2078,10 +2081,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2090,39 +2093,39 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>12496</v>
+        <v>11366</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45932.339016203703</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H37" s="1">
-        <v>45902.34710648148</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I37" s="2">
-        <v>-3.3390162037030677</v>
+        <v>5.3858333333337214</v>
       </c>
       <c r="J37" s="3">
-        <v>1799.69</v>
+        <v>159.29</v>
       </c>
       <c r="K37" s="3">
-        <v>1799.69</v>
+        <v>159.29</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2131,39 +2134,39 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>12693</v>
+        <v>11369</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45938.456111111111</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H38" s="1">
-        <v>45908.45612268518</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I38" s="2">
-        <v>-9.4561111111106584</v>
+        <v>5.3156597222259734</v>
       </c>
       <c r="J38" s="3">
-        <v>1831.69</v>
+        <v>106.19</v>
       </c>
       <c r="K38" s="3">
-        <v>1831.69</v>
+        <v>106.19</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2172,39 +2175,39 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>12764</v>
+        <v>11428</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45940.312048611107</v>
+        <v>45934.485219907408</v>
       </c>
       <c r="H39" s="1">
-        <v>45910.315740740742</v>
+        <v>45874.485219907408</v>
       </c>
       <c r="I39" s="2">
-        <v>-11.312048611107457</v>
+        <v>1.5147800925915362</v>
       </c>
       <c r="J39" s="3">
-        <v>564.66</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="K39" s="3">
-        <v>564.66</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2213,31 +2216,31 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>13206</v>
+        <v>11429</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45952.35560185185</v>
+        <v>45934.485231481478</v>
       </c>
       <c r="H40" s="1">
-        <v>45922.356840277775</v>
+        <v>45874.485231481478</v>
       </c>
       <c r="I40" s="2">
-        <v>-23.355601851850224</v>
+        <v>1.5147685185220325</v>
       </c>
       <c r="J40" s="3">
-        <v>848.55000000000007</v>
+        <v>472.14</v>
       </c>
       <c r="K40" s="3">
-        <v>848.55000000000007</v>
+        <v>472.14</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2254,31 +2257,31 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>11366</v>
+        <v>11430</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45930.614166666666</v>
+        <v>45934.485266203701</v>
       </c>
       <c r="H41" s="1">
-        <v>45870.614722222221</v>
+        <v>45874.485266203701</v>
       </c>
       <c r="I41" s="2">
-        <v>-1.6141666666662786</v>
+        <v>1.5147337962989695</v>
       </c>
       <c r="J41" s="3">
-        <v>159.29</v>
+        <v>405.8</v>
       </c>
       <c r="K41" s="3">
-        <v>159.29</v>
+        <v>405.8</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2289,31 +2292,31 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>2025</v>
       </c>
       <c r="E42">
-        <v>11369</v>
+        <v>737</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45930.684340277774</v>
+        <v>45938</v>
       </c>
       <c r="H42" s="1">
-        <v>45870.684976851851</v>
+        <v>45878</v>
       </c>
       <c r="I42" s="2">
-        <v>-1.6843402777740266</v>
+        <v>-2</v>
       </c>
       <c r="J42" s="3">
-        <v>106.19</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="K42" s="3">
-        <v>106.19</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2336,25 +2339,25 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>11428</v>
+        <v>11717</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45934.485219907408</v>
+        <v>45940.541759259257</v>
       </c>
       <c r="H43" s="1">
-        <v>45874.485219907408</v>
+        <v>45880.541770833333</v>
       </c>
       <c r="I43" s="2">
-        <v>-5.4852199074084638</v>
+        <v>-4.5417592592566507</v>
       </c>
       <c r="J43" s="3">
-        <v>56.480000000000004</v>
+        <v>100.79</v>
       </c>
       <c r="K43" s="3">
-        <v>56.480000000000004</v>
+        <v>100.79</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2371,31 +2374,31 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>2025</v>
       </c>
       <c r="E44">
-        <v>11429</v>
+        <v>751</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45934.485231481478</v>
+        <v>45941</v>
       </c>
       <c r="H44" s="1">
-        <v>45874.485231481478</v>
+        <v>45881</v>
       </c>
       <c r="I44" s="2">
-        <v>-5.4852314814779675</v>
+        <v>-5</v>
       </c>
       <c r="J44" s="3">
-        <v>472.14</v>
+        <v>-122.53</v>
       </c>
       <c r="K44" s="3">
-        <v>472.14</v>
+        <v>-122.53</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2418,25 +2421,25 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>11430</v>
+        <v>11758</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45934.485266203701</v>
+        <v>45941.499224537038</v>
       </c>
       <c r="H45" s="1">
-        <v>45874.485266203701</v>
+        <v>45881.499236111107</v>
       </c>
       <c r="I45" s="2">
-        <v>-5.4852662037010305</v>
+        <v>-5.4992245370376622</v>
       </c>
       <c r="J45" s="3">
-        <v>405.8</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="K45" s="3">
-        <v>405.8</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2459,25 +2462,25 @@
         <v>2025</v>
       </c>
       <c r="E46">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45938</v>
+        <v>45942</v>
       </c>
       <c r="H46" s="1">
-        <v>45878</v>
+        <v>45882</v>
       </c>
       <c r="I46" s="2">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="J46" s="3">
-        <v>-22.990000000000002</v>
+        <v>-10.93</v>
       </c>
       <c r="K46" s="3">
-        <v>-22.990000000000002</v>
+        <v>-10.93</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2500,25 +2503,25 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>11717</v>
+        <v>11922</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45940.541759259257</v>
+        <v>45943.619444444441</v>
       </c>
       <c r="H47" s="1">
-        <v>45880.541770833333</v>
+        <v>45883.620034722218</v>
       </c>
       <c r="I47" s="2">
-        <v>-11.541759259256651</v>
+        <v>-7.6194444444408873</v>
       </c>
       <c r="J47" s="3">
-        <v>100.79</v>
+        <v>97.43</v>
       </c>
       <c r="K47" s="3">
-        <v>100.79</v>
+        <v>97.43</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2535,31 +2538,31 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>751</v>
+        <v>11999</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45941</v>
+        <v>45948.526076388887</v>
       </c>
       <c r="H48" s="1">
-        <v>45881</v>
+        <v>45888.526076388887</v>
       </c>
       <c r="I48" s="2">
-        <v>-12</v>
+        <v>-12.526076388887304</v>
       </c>
       <c r="J48" s="3">
-        <v>-122.53</v>
+        <v>53.63</v>
       </c>
       <c r="K48" s="3">
-        <v>-122.53</v>
+        <v>53.63</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2582,25 +2585,25 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>11758</v>
+        <v>12000</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45941.499224537038</v>
+        <v>45948.526099537034</v>
       </c>
       <c r="H49" s="1">
-        <v>45881.499236111107</v>
+        <v>45888.526099537034</v>
       </c>
       <c r="I49" s="2">
-        <v>-12.499224537037662</v>
+        <v>-12.526099537033588</v>
       </c>
       <c r="J49" s="3">
-        <v>304.79000000000002</v>
+        <v>140.37</v>
       </c>
       <c r="K49" s="3">
-        <v>304.79000000000002</v>
+        <v>140.37</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2617,31 +2620,31 @@
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>753</v>
+        <v>12001</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45942</v>
+        <v>45948.52612268518</v>
       </c>
       <c r="H50" s="1">
-        <v>45882</v>
+        <v>45888.52612268518</v>
       </c>
       <c r="I50" s="2">
-        <v>-13</v>
+        <v>-12.526122685179871</v>
       </c>
       <c r="J50" s="3">
-        <v>-10.93</v>
+        <v>212.85</v>
       </c>
       <c r="K50" s="3">
-        <v>-10.93</v>
+        <v>212.85</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2658,31 +2661,31 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>2025</v>
       </c>
       <c r="E51">
-        <v>11922</v>
+        <v>774</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45943.619444444441</v>
+        <v>45950</v>
       </c>
       <c r="H51" s="1">
-        <v>45883.620034722218</v>
+        <v>45890</v>
       </c>
       <c r="I51" s="2">
-        <v>-14.619444444440887</v>
+        <v>-14</v>
       </c>
       <c r="J51" s="3">
-        <v>97.43</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="K51" s="3">
-        <v>97.43</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2699,31 +2702,31 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>2025</v>
       </c>
       <c r="E52">
-        <v>11999</v>
+        <v>775</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45948.526076388887</v>
+        <v>45950</v>
       </c>
       <c r="H52" s="1">
-        <v>45888.526076388887</v>
+        <v>45890</v>
       </c>
       <c r="I52" s="2">
-        <v>-19.526076388887304</v>
+        <v>-14</v>
       </c>
       <c r="J52" s="3">
-        <v>53.63</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="K52" s="3">
-        <v>53.63</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2746,25 +2749,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>12000</v>
+        <v>12127</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45948.526099537034</v>
+        <v>45950.595092592594</v>
       </c>
       <c r="H53" s="1">
-        <v>45888.526099537034</v>
+        <v>45890.595092592594</v>
       </c>
       <c r="I53" s="2">
-        <v>-19.526099537033588</v>
+        <v>-14.595092592593573</v>
       </c>
       <c r="J53" s="3">
-        <v>140.37</v>
+        <v>54.92</v>
       </c>
       <c r="K53" s="3">
-        <v>140.37</v>
+        <v>54.92</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2787,25 +2790,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>12001</v>
+        <v>12215</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45948.52612268518</v>
+        <v>45951.693171296298</v>
       </c>
       <c r="H54" s="1">
-        <v>45888.52612268518</v>
+        <v>45891.693749999999</v>
       </c>
       <c r="I54" s="2">
-        <v>-19.526122685179871</v>
+        <v>-15.693171296297805</v>
       </c>
       <c r="J54" s="3">
-        <v>212.85</v>
+        <v>90.44</v>
       </c>
       <c r="K54" s="3">
-        <v>212.85</v>
+        <v>90.44</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2822,31 +2825,31 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>774</v>
+        <v>12220</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45950</v>
+        <v>45954.431423611109</v>
       </c>
       <c r="H55" s="1">
-        <v>45890</v>
+        <v>45894.431423611109</v>
       </c>
       <c r="I55" s="2">
-        <v>-21</v>
+        <v>-18.431423611109494</v>
       </c>
       <c r="J55" s="3">
-        <v>-56.480000000000004</v>
+        <v>471.83</v>
       </c>
       <c r="K55" s="3">
-        <v>-56.480000000000004</v>
+        <v>471.83</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2863,31 +2866,31 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>775</v>
+        <v>12221</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45950</v>
+        <v>45954.431446759256</v>
       </c>
       <c r="H56" s="1">
-        <v>45890</v>
+        <v>45894.431446759256</v>
       </c>
       <c r="I56" s="2">
-        <v>-21</v>
+        <v>-18.431446759255778</v>
       </c>
       <c r="J56" s="3">
-        <v>-4.8500000000000005</v>
+        <v>219.04</v>
       </c>
       <c r="K56" s="3">
-        <v>-4.8500000000000005</v>
+        <v>219.04</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2910,25 +2913,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>12127</v>
+        <v>12247</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45950.595092592594</v>
+        <v>45955.347881944443</v>
       </c>
       <c r="H57" s="1">
-        <v>45890.595092592594</v>
+        <v>45895.347893518519</v>
       </c>
       <c r="I57" s="2">
-        <v>-21.595092592593573</v>
+        <v>-19.347881944442634</v>
       </c>
       <c r="J57" s="3">
-        <v>54.92</v>
+        <v>289.57</v>
       </c>
       <c r="K57" s="3">
-        <v>54.92</v>
+        <v>289.57</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2951,25 +2954,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>12215</v>
+        <v>12366</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45951.693171296298</v>
+        <v>45957.397465277776</v>
       </c>
       <c r="H58" s="1">
-        <v>45891.693749999999</v>
+        <v>45897.397476851853</v>
       </c>
       <c r="I58" s="2">
-        <v>-22.693171296297805</v>
+        <v>-21.397465277776064</v>
       </c>
       <c r="J58" s="3">
-        <v>90.44</v>
+        <v>208.44</v>
       </c>
       <c r="K58" s="3">
-        <v>90.44</v>
+        <v>208.44</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -2986,31 +2989,31 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>2025</v>
       </c>
       <c r="E59">
-        <v>12220</v>
+        <v>824</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45954.431423611109</v>
+        <v>45961</v>
       </c>
       <c r="H59" s="1">
-        <v>45894.431423611109</v>
+        <v>45901</v>
       </c>
       <c r="I59" s="2">
-        <v>-25.431423611109494</v>
+        <v>-25</v>
       </c>
       <c r="J59" s="3">
-        <v>471.83</v>
+        <v>-4.82</v>
       </c>
       <c r="K59" s="3">
-        <v>471.83</v>
+        <v>-4.82</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3033,25 +3036,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>12221</v>
+        <v>12471</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45954.431446759256</v>
+        <v>45961.437303240738</v>
       </c>
       <c r="H60" s="1">
-        <v>45894.431446759256</v>
+        <v>45901.437303240738</v>
       </c>
       <c r="I60" s="2">
-        <v>-25.431446759255778</v>
+        <v>-25.437303240738402</v>
       </c>
       <c r="J60" s="3">
-        <v>219.04</v>
+        <v>513.09</v>
       </c>
       <c r="K60" s="3">
-        <v>219.04</v>
+        <v>513.09</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3074,25 +3077,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>12247</v>
+        <v>12509</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45955.347881944443</v>
+        <v>45962.411041666666</v>
       </c>
       <c r="H61" s="1">
-        <v>45895.347893518519</v>
+        <v>45902.411759259259</v>
       </c>
       <c r="I61" s="2">
-        <v>-26.347881944442634</v>
+        <v>-26.411041666666279</v>
       </c>
       <c r="J61" s="3">
-        <v>289.57</v>
+        <v>128.47</v>
       </c>
       <c r="K61" s="3">
-        <v>289.57</v>
+        <v>128.47</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3115,25 +3118,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>12366</v>
+        <v>12568</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45957.397465277776</v>
+        <v>45963.458773148144</v>
       </c>
       <c r="H62" s="1">
-        <v>45897.397476851853</v>
+        <v>45903.458773148144</v>
       </c>
       <c r="I62" s="2">
-        <v>-28.397465277776064</v>
+        <v>-27.458773148144246</v>
       </c>
       <c r="J62" s="3">
-        <v>208.44</v>
+        <v>50.21</v>
       </c>
       <c r="K62" s="3">
-        <v>208.44</v>
+        <v>50.21</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3150,31 +3153,31 @@
         <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>824</v>
+        <v>12618</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45961</v>
+        <v>45964.490069444444</v>
       </c>
       <c r="H63" s="1">
-        <v>45901</v>
+        <v>45904.490740740737</v>
       </c>
       <c r="I63" s="2">
-        <v>-32</v>
+        <v>-28.490069444444089</v>
       </c>
       <c r="J63" s="3">
-        <v>-4.82</v>
+        <v>286.05</v>
       </c>
       <c r="K63" s="3">
-        <v>-4.82</v>
+        <v>286.05</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3197,25 +3200,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>12471</v>
+        <v>12691</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45961.437303240738</v>
+        <v>45968.456053240741</v>
       </c>
       <c r="H64" s="1">
-        <v>45901.437303240738</v>
+        <v>45908.456064814811</v>
       </c>
       <c r="I64" s="2">
-        <v>-32.437303240738402</v>
+        <v>-32.456053240741312</v>
       </c>
       <c r="J64" s="3">
-        <v>513.09</v>
+        <v>110.88</v>
       </c>
       <c r="K64" s="3">
-        <v>513.09</v>
+        <v>110.88</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3238,25 +3241,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>12509</v>
+        <v>12703</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45962.411041666666</v>
+        <v>45968.466249999998</v>
       </c>
       <c r="H65" s="1">
-        <v>45902.411759259259</v>
+        <v>45908.467557870368</v>
       </c>
       <c r="I65" s="2">
-        <v>-33.411041666666279</v>
+        <v>-32.466249999997672</v>
       </c>
       <c r="J65" s="3">
-        <v>128.47</v>
+        <v>414.35</v>
       </c>
       <c r="K65" s="3">
-        <v>128.47</v>
+        <v>414.35</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3279,25 +3282,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>12568</v>
+        <v>12755</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45963.458773148144</v>
+        <v>45969.482951388884</v>
       </c>
       <c r="H66" s="1">
-        <v>45903.458773148144</v>
+        <v>45909.482951388884</v>
       </c>
       <c r="I66" s="2">
-        <v>-34.458773148144246</v>
+        <v>-33.482951388883521</v>
       </c>
       <c r="J66" s="3">
-        <v>50.21</v>
+        <v>183.26</v>
       </c>
       <c r="K66" s="3">
-        <v>50.21</v>
+        <v>183.26</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3320,25 +3323,25 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>12618</v>
+        <v>12756</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45964.490069444444</v>
+        <v>45969.482974537037</v>
       </c>
       <c r="H67" s="1">
-        <v>45904.490740740737</v>
+        <v>45909.482974537037</v>
       </c>
       <c r="I67" s="2">
-        <v>-35.490069444444089</v>
+        <v>-33.48297453703708</v>
       </c>
       <c r="J67" s="3">
-        <v>286.05</v>
+        <v>101.91</v>
       </c>
       <c r="K67" s="3">
-        <v>286.05</v>
+        <v>101.91</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3361,25 +3364,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>12691</v>
+        <v>12804</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45968.456053240741</v>
+        <v>45970.484317129631</v>
       </c>
       <c r="H68" s="1">
-        <v>45908.456064814811</v>
+        <v>45910.4843287037</v>
       </c>
       <c r="I68" s="2">
-        <v>-39.456053240741312</v>
+        <v>-34.484317129630654</v>
       </c>
       <c r="J68" s="3">
-        <v>110.88</v>
+        <v>182.32</v>
       </c>
       <c r="K68" s="3">
-        <v>110.88</v>
+        <v>182.32</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3402,25 +3405,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>12703</v>
+        <v>12837</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45968.466249999998</v>
+        <v>45971.366631944446</v>
       </c>
       <c r="H69" s="1">
-        <v>45908.467557870368</v>
+        <v>45911.366631944446</v>
       </c>
       <c r="I69" s="2">
-        <v>-39.466249999997672</v>
+        <v>-35.366631944445544</v>
       </c>
       <c r="J69" s="3">
-        <v>414.35</v>
+        <v>146.12</v>
       </c>
       <c r="K69" s="3">
-        <v>414.35</v>
+        <v>146.12</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3437,31 +3440,31 @@
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
       </c>
       <c r="E70">
-        <v>12755</v>
+        <v>869</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45969.482951388884</v>
+        <v>45976</v>
       </c>
       <c r="H70" s="1">
-        <v>45909.482951388884</v>
+        <v>45916</v>
       </c>
       <c r="I70" s="2">
-        <v>-40.482951388883521</v>
+        <v>-40</v>
       </c>
       <c r="J70" s="3">
-        <v>183.26</v>
+        <v>-13.21</v>
       </c>
       <c r="K70" s="3">
-        <v>183.26</v>
+        <v>-13.21</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3484,25 +3487,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>12756</v>
+        <v>12952</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45969.482974537037</v>
+        <v>45976.371041666665</v>
       </c>
       <c r="H71" s="1">
-        <v>45909.482974537037</v>
+        <v>45916.371041666665</v>
       </c>
       <c r="I71" s="2">
-        <v>-40.48297453703708</v>
+        <v>-40.371041666665406</v>
       </c>
       <c r="J71" s="3">
-        <v>101.91</v>
+        <v>60.120000000000005</v>
       </c>
       <c r="K71" s="3">
-        <v>101.91</v>
+        <v>60.120000000000005</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3525,25 +3528,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>12804</v>
+        <v>12982</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45970.484317129631</v>
+        <v>45976.428738425922</v>
       </c>
       <c r="H72" s="1">
-        <v>45910.4843287037</v>
+        <v>45916.428738425922</v>
       </c>
       <c r="I72" s="2">
-        <v>-41.484317129630654</v>
+        <v>-40.428738425922347</v>
       </c>
       <c r="J72" s="3">
-        <v>182.32</v>
+        <v>314.78000000000003</v>
       </c>
       <c r="K72" s="3">
-        <v>182.32</v>
+        <v>314.78000000000003</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3560,31 +3563,31 @@
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
       </c>
       <c r="E73">
-        <v>12837</v>
+        <v>871</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45971.366631944446</v>
+        <v>45977</v>
       </c>
       <c r="H73" s="1">
-        <v>45911.366631944446</v>
+        <v>45917</v>
       </c>
       <c r="I73" s="2">
-        <v>-42.366631944445544</v>
+        <v>-41</v>
       </c>
       <c r="J73" s="3">
-        <v>146.12</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="K73" s="3">
-        <v>146.12</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3601,31 +3604,31 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
       </c>
       <c r="E74">
-        <v>869</v>
+        <v>13085</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45976</v>
+        <v>45977.492696759255</v>
       </c>
       <c r="H74" s="1">
-        <v>45916</v>
+        <v>45917.493043981478</v>
       </c>
       <c r="I74" s="2">
-        <v>-47</v>
+        <v>-41.492696759254613</v>
       </c>
       <c r="J74" s="3">
-        <v>-13.21</v>
+        <v>261.24</v>
       </c>
       <c r="K74" s="3">
-        <v>-13.21</v>
+        <v>261.24</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3648,25 +3651,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>12952</v>
+        <v>13086</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45976.371041666665</v>
+        <v>45977.49319444444</v>
       </c>
       <c r="H75" s="1">
-        <v>45916.371041666665</v>
+        <v>45917.495011574072</v>
       </c>
       <c r="I75" s="2">
-        <v>-47.371041666665406</v>
+        <v>-41.493194444439723</v>
       </c>
       <c r="J75" s="3">
-        <v>60.120000000000005</v>
+        <v>62.53</v>
       </c>
       <c r="K75" s="3">
-        <v>60.120000000000005</v>
+        <v>62.53</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3689,25 +3692,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>12982</v>
+        <v>13099</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45976.428738425922</v>
+        <v>45977.5465162037</v>
       </c>
       <c r="H76" s="1">
-        <v>45916.428738425922</v>
+        <v>45917.547303240739</v>
       </c>
       <c r="I76" s="2">
-        <v>-47.428738425922347</v>
+        <v>-41.546516203699866</v>
       </c>
       <c r="J76" s="3">
-        <v>314.78000000000003</v>
+        <v>19.98</v>
       </c>
       <c r="K76" s="3">
-        <v>314.78000000000003</v>
+        <v>19.98</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3724,31 +3727,31 @@
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
       </c>
       <c r="E77">
-        <v>871</v>
+        <v>13100</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45977</v>
+        <v>45977.547442129631</v>
       </c>
       <c r="H77" s="1">
-        <v>45917</v>
+        <v>45917.547754629624</v>
       </c>
       <c r="I77" s="2">
-        <v>-48</v>
+        <v>-41.547442129631236</v>
       </c>
       <c r="J77" s="3">
-        <v>-18.150000000000002</v>
+        <v>264.92</v>
       </c>
       <c r="K77" s="3">
-        <v>-18.150000000000002</v>
+        <v>264.92</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3771,25 +3774,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>13085</v>
+        <v>13184</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45977.492696759255</v>
+        <v>45979.401666666665</v>
       </c>
       <c r="H78" s="1">
-        <v>45917.493043981478</v>
+        <v>45919.401678240742</v>
       </c>
       <c r="I78" s="2">
-        <v>-48.492696759254613</v>
+        <v>-43.401666666664823</v>
       </c>
       <c r="J78" s="3">
-        <v>261.24</v>
+        <v>81.41</v>
       </c>
       <c r="K78" s="3">
-        <v>261.24</v>
+        <v>81.41</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3812,25 +3815,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>13086</v>
+        <v>13198</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45977.49319444444</v>
+        <v>45979.583379629628</v>
       </c>
       <c r="H79" s="1">
-        <v>45917.495011574072</v>
+        <v>45919.584699074076</v>
       </c>
       <c r="I79" s="2">
-        <v>-48.493194444439723</v>
+        <v>-43.583379629628325</v>
       </c>
       <c r="J79" s="3">
-        <v>62.53</v>
+        <v>179.69</v>
       </c>
       <c r="K79" s="3">
-        <v>62.53</v>
+        <v>179.69</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3853,25 +3856,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>13099</v>
+        <v>13240</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45977.5465162037</v>
+        <v>45983.354143518518</v>
       </c>
       <c r="H80" s="1">
-        <v>45917.547303240739</v>
+        <v>45923.354942129627</v>
       </c>
       <c r="I80" s="2">
-        <v>-48.546516203699866</v>
+        <v>-47.354143518517958</v>
       </c>
       <c r="J80" s="3">
-        <v>19.98</v>
+        <v>86.14</v>
       </c>
       <c r="K80" s="3">
-        <v>19.98</v>
+        <v>86.14</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3894,25 +3897,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>13100</v>
+        <v>13252</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45977.547442129631</v>
+        <v>45983.394085648149</v>
       </c>
       <c r="H81" s="1">
-        <v>45917.547754629624</v>
+        <v>45923.395983796298</v>
       </c>
       <c r="I81" s="2">
-        <v>-48.547442129631236</v>
+        <v>-47.394085648149485</v>
       </c>
       <c r="J81" s="3">
-        <v>264.92</v>
+        <v>421.83</v>
       </c>
       <c r="K81" s="3">
-        <v>264.92</v>
+        <v>421.83</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3929,31 +3932,31 @@
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>2025</v>
       </c>
       <c r="E82">
-        <v>13184</v>
+        <v>880</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45979.401666666665</v>
+        <v>45985</v>
       </c>
       <c r="H82" s="1">
-        <v>45919.401678240742</v>
+        <v>45925</v>
       </c>
       <c r="I82" s="2">
-        <v>-50.401666666664823</v>
+        <v>-49</v>
       </c>
       <c r="J82" s="3">
-        <v>81.41</v>
+        <v>-63.27</v>
       </c>
       <c r="K82" s="3">
-        <v>81.41</v>
+        <v>-63.27</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3976,25 +3979,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>13198</v>
+        <v>13351</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45979.583379629628</v>
+        <v>45985.368807870371</v>
       </c>
       <c r="H83" s="1">
-        <v>45919.584699074076</v>
+        <v>45925.369293981479</v>
       </c>
       <c r="I83" s="2">
-        <v>-50.583379629628325</v>
+        <v>-49.368807870370802</v>
       </c>
       <c r="J83" s="3">
-        <v>179.69</v>
+        <v>254.13</v>
       </c>
       <c r="K83" s="3">
-        <v>179.69</v>
+        <v>254.13</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4017,25 +4020,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>13240</v>
+        <v>13462</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45983.354143518518</v>
+        <v>45990.338275462964</v>
       </c>
       <c r="H84" s="1">
-        <v>45923.354942129627</v>
+        <v>45930.338923611111</v>
       </c>
       <c r="I84" s="2">
-        <v>-54.354143518517958</v>
+        <v>-54.338275462963793</v>
       </c>
       <c r="J84" s="3">
-        <v>86.14</v>
+        <v>229.78</v>
       </c>
       <c r="K84" s="3">
-        <v>86.14</v>
+        <v>229.78</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4058,25 +4061,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>13252</v>
+        <v>13480</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45983.394085648149</v>
+        <v>45990.352280092593</v>
       </c>
       <c r="H85" s="1">
-        <v>45923.395983796298</v>
+        <v>45930.352638888886</v>
       </c>
       <c r="I85" s="2">
-        <v>-54.394085648149485</v>
+        <v>-54.352280092592991</v>
       </c>
       <c r="J85" s="3">
-        <v>421.83</v>
+        <v>163.55000000000001</v>
       </c>
       <c r="K85" s="3">
-        <v>421.83</v>
+        <v>163.55000000000001</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4099,25 +4102,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>13351</v>
+        <v>13498</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45985.368807870371</v>
+        <v>45990.368750000001</v>
       </c>
       <c r="H86" s="1">
-        <v>45925.369293981479</v>
+        <v>45930.369108796294</v>
       </c>
       <c r="I86" s="2">
-        <v>-56.368807870370802</v>
+        <v>-54.368750000001455</v>
       </c>
       <c r="J86" s="3">
-        <v>254.13</v>
+        <v>112.15</v>
       </c>
       <c r="K86" s="3">
-        <v>254.13</v>
+        <v>112.15</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4128,10 +4131,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4140,39 +4143,39 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>10687</v>
+        <v>13570</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45885.468888888885</v>
+        <v>45992.384363425925</v>
       </c>
       <c r="H87" s="1">
-        <v>45855.468888888885</v>
+        <v>45932.385370370372</v>
       </c>
       <c r="I87" s="2">
-        <v>43.531111111115024</v>
+        <v>-56.384363425924676</v>
       </c>
       <c r="J87" s="3">
-        <v>542.13</v>
+        <v>325.26</v>
       </c>
       <c r="K87" s="3">
-        <v>542.13</v>
+        <v>325.26</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4181,25 +4184,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>11880</v>
+        <v>13585</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45943.403854166667</v>
+        <v>45992.406064814815</v>
       </c>
       <c r="H88" s="1">
-        <v>45883.403854166667</v>
+        <v>45932.406597222223</v>
       </c>
       <c r="I88" s="2">
-        <v>-14.403854166666861</v>
+        <v>-56.406064814815181</v>
       </c>
       <c r="J88" s="3">
-        <v>248.76000000000002</v>
+        <v>262.31</v>
       </c>
       <c r="K88" s="3">
-        <v>248.76000000000002</v>
+        <v>262.31</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4222,31 +4225,31 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>11881</v>
+        <v>10687</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45943.405740740738</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H89" s="1">
-        <v>45883.405740740738</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I89" s="2">
-        <v>-14.405740740738111</v>
+        <v>50.531111111115024</v>
       </c>
       <c r="J89" s="3">
-        <v>115.78</v>
+        <v>542.13</v>
       </c>
       <c r="K89" s="3">
-        <v>115.78</v>
+        <v>542.13</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4263,25 +4266,25 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>12370</v>
+        <v>11880</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45957.431041666663</v>
+        <v>45943.403854166667</v>
       </c>
       <c r="H90" s="1">
-        <v>45897.431041666663</v>
+        <v>45883.403854166667</v>
       </c>
       <c r="I90" s="2">
-        <v>-28.431041666663077</v>
+        <v>-7.4038541666668607</v>
       </c>
       <c r="J90" s="3">
-        <v>424.02</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="K90" s="3">
-        <v>424.02</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4304,25 +4307,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>12513</v>
+        <v>11881</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45962.418460648143</v>
+        <v>45943.405740740738</v>
       </c>
       <c r="H91" s="1">
-        <v>45902.41847222222</v>
+        <v>45883.405740740738</v>
       </c>
       <c r="I91" s="2">
-        <v>-33.418460648143082</v>
+        <v>-7.4057407407381106</v>
       </c>
       <c r="J91" s="3">
-        <v>539.91</v>
+        <v>115.78</v>
       </c>
       <c r="K91" s="3">
-        <v>539.91</v>
+        <v>115.78</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4333,84 +4336,84 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112050</v>
+        <v>211112043</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92">
-        <v>326</v>
+        <v>12370</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45777</v>
+        <v>45957.431041666663</v>
       </c>
       <c r="H92" s="1">
-        <v>45747</v>
+        <v>45897.431041666663</v>
       </c>
       <c r="I92" s="2">
-        <v>152</v>
+        <v>-21.431041666663077</v>
       </c>
       <c r="J92" s="3">
-        <v>-22</v>
+        <v>424.02</v>
       </c>
       <c r="K92" s="3">
-        <v>-22</v>
+        <v>424.02</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112050</v>
+        <v>211112043</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
       </c>
       <c r="E93">
-        <v>327</v>
+        <v>12513</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45777</v>
+        <v>45962.418460648143</v>
       </c>
       <c r="H93" s="1">
-        <v>45747</v>
+        <v>45902.41847222222</v>
       </c>
       <c r="I93" s="2">
-        <v>152</v>
+        <v>-26.418460648143082</v>
       </c>
       <c r="J93" s="3">
-        <v>-27.45</v>
+        <v>539.91</v>
       </c>
       <c r="K93" s="3">
-        <v>-27.45</v>
+        <v>539.91</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4427,7 +4430,7 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -4439,13 +4442,13 @@
         <v>45747</v>
       </c>
       <c r="I94" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="J94" s="3">
-        <v>-5.73</v>
+        <v>-22</v>
       </c>
       <c r="K94" s="3">
-        <v>-5.73</v>
+        <v>-22</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4456,84 +4459,84 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
         <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45922</v>
+        <v>45777</v>
       </c>
       <c r="H95" s="1">
-        <v>45862</v>
+        <v>45747</v>
       </c>
       <c r="I95" s="2">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="J95" s="3">
-        <v>-15.38</v>
+        <v>-27.45</v>
       </c>
       <c r="K95" s="3">
-        <v>-15.38</v>
+        <v>-27.45</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s">
         <v>21</v>
       </c>
-      <c r="D96">
-        <v>2025</v>
+      <c r="D96" t="s">
+        <v>15</v>
       </c>
       <c r="E96">
-        <v>682</v>
+        <v>328</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45922</v>
+        <v>45777</v>
       </c>
       <c r="H96" s="1">
-        <v>45862</v>
+        <v>45747</v>
       </c>
       <c r="I96" s="2">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="J96" s="3">
-        <v>-606.93000000000006</v>
+        <v>-5.73</v>
       </c>
       <c r="K96" s="3">
-        <v>-606.93000000000006</v>
+        <v>-5.73</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4544,37 +4547,37 @@
         <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E97">
-        <v>11013</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45923.283518518518</v>
+        <v>45922</v>
       </c>
       <c r="H97" s="1">
-        <v>45863.287939814814</v>
+        <v>45862</v>
       </c>
       <c r="I97" s="2">
-        <v>5.716481481482333</v>
+        <v>14</v>
       </c>
       <c r="J97" s="3">
-        <v>417.19</v>
+        <v>-15.38</v>
       </c>
       <c r="K97" s="3">
-        <v>417.19</v>
+        <v>-15.38</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4585,37 +4588,37 @@
         <v>29</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
       </c>
       <c r="E98">
-        <v>11085</v>
+        <v>682</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45923.645879629628</v>
+        <v>45922</v>
       </c>
       <c r="H98" s="1">
-        <v>45863.645879629628</v>
+        <v>45862</v>
       </c>
       <c r="I98" s="2">
-        <v>5.3541203703716747</v>
+        <v>14</v>
       </c>
       <c r="J98" s="3">
-        <v>726.19</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="K98" s="3">
-        <v>726.19</v>
+        <v>-606.93000000000006</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4632,31 +4635,31 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>11609</v>
+        <v>11013</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45937.476863425924</v>
+        <v>45923.283518518518</v>
       </c>
       <c r="H99" s="1">
-        <v>45877.477210648147</v>
+        <v>45863.287939814814</v>
       </c>
       <c r="I99" s="2">
-        <v>-8.4768634259235114</v>
+        <v>12.716481481482333</v>
       </c>
       <c r="J99" s="3">
-        <v>957.27</v>
+        <v>417.19</v>
       </c>
       <c r="K99" s="3">
-        <v>957.27</v>
+        <v>417.19</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4667,37 +4670,37 @@
         <v>29</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
       </c>
       <c r="E100">
-        <v>794</v>
+        <v>11085</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45955</v>
+        <v>45923.645879629628</v>
       </c>
       <c r="H100" s="1">
-        <v>45895</v>
+        <v>45863.645879629628</v>
       </c>
       <c r="I100" s="2">
-        <v>-26</v>
+        <v>12.354120370371675</v>
       </c>
       <c r="J100" s="3">
-        <v>-13.25</v>
+        <v>726.19</v>
       </c>
       <c r="K100" s="3">
-        <v>-13.25</v>
+        <v>726.19</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4708,31 +4711,31 @@
         <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
       </c>
       <c r="E101">
-        <v>795</v>
+        <v>11609</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45955</v>
+        <v>45937.476863425924</v>
       </c>
       <c r="H101" s="1">
-        <v>45895</v>
+        <v>45877.477210648147</v>
       </c>
       <c r="I101" s="2">
-        <v>-26</v>
+        <v>-1.4768634259235114</v>
       </c>
       <c r="J101" s="3">
-        <v>-250.03</v>
+        <v>957.27</v>
       </c>
       <c r="K101" s="3">
-        <v>-250.03</v>
+        <v>957.27</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4755,25 +4758,25 @@
         <v>2025</v>
       </c>
       <c r="E102">
-        <v>839</v>
+        <v>794</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45965</v>
+        <v>45955</v>
       </c>
       <c r="H102" s="1">
-        <v>45905</v>
+        <v>45895</v>
       </c>
       <c r="I102" s="2">
-        <v>-36</v>
+        <v>-19</v>
       </c>
       <c r="J102" s="3">
-        <v>-18.150000000000002</v>
+        <v>-13.25</v>
       </c>
       <c r="K102" s="3">
-        <v>-18.150000000000002</v>
+        <v>-13.25</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -4790,31 +4793,31 @@
         <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
       </c>
       <c r="E103">
-        <v>12638</v>
+        <v>795</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45965.438287037032</v>
+        <v>45955</v>
       </c>
       <c r="H103" s="1">
-        <v>45905.438854166663</v>
+        <v>45895</v>
       </c>
       <c r="I103" s="2">
-        <v>-36.438287037031841</v>
+        <v>-19</v>
       </c>
       <c r="J103" s="3">
-        <v>982.94</v>
+        <v>-250.03</v>
       </c>
       <c r="K103" s="3">
-        <v>982.94</v>
+        <v>-250.03</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -4831,31 +4834,31 @@
         <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
       </c>
       <c r="E104">
-        <v>12831</v>
+        <v>839</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45971.32534722222</v>
+        <v>45965</v>
       </c>
       <c r="H104" s="1">
-        <v>45911.325358796297</v>
+        <v>45905</v>
       </c>
       <c r="I104" s="2">
-        <v>-42.325347222220444</v>
+        <v>-29</v>
       </c>
       <c r="J104" s="3">
-        <v>383.06</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="K104" s="3">
-        <v>383.06</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -4878,25 +4881,25 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>13102</v>
+        <v>12638</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45977.582523148143</v>
+        <v>45965.438287037032</v>
       </c>
       <c r="H105" s="1">
-        <v>45917.583622685182</v>
+        <v>45905.438854166663</v>
       </c>
       <c r="I105" s="2">
-        <v>-48.582523148143082</v>
+        <v>-29.438287037031841</v>
       </c>
       <c r="J105" s="3">
-        <v>242.06</v>
+        <v>982.94</v>
       </c>
       <c r="K105" s="3">
-        <v>242.06</v>
+        <v>982.94</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -4919,25 +4922,25 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>13196</v>
+        <v>12831</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45979.259525462963</v>
+        <v>45971.32534722222</v>
       </c>
       <c r="H106" s="1">
-        <v>45919.518483796295</v>
+        <v>45911.325358796297</v>
       </c>
       <c r="I106" s="2">
-        <v>-50.259525462963211</v>
+        <v>-35.325347222220444</v>
       </c>
       <c r="J106" s="3">
-        <v>556.75</v>
+        <v>383.06</v>
       </c>
       <c r="K106" s="3">
-        <v>556.75</v>
+        <v>383.06</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -4960,25 +4963,25 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>13329</v>
+        <v>13102</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45984.375659722224</v>
+        <v>45977.582523148143</v>
       </c>
       <c r="H107" s="1">
-        <v>45924.395439814813</v>
+        <v>45917.583622685182</v>
       </c>
       <c r="I107" s="2">
-        <v>-55.375659722223645</v>
+        <v>-41.582523148143082</v>
       </c>
       <c r="J107" s="3">
-        <v>805.08</v>
+        <v>242.06</v>
       </c>
       <c r="K107" s="3">
-        <v>805.08</v>
+        <v>242.06</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -4989,10 +4992,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -5001,39 +5004,39 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>11783</v>
+        <v>13196</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45912.363032407404</v>
+        <v>45979.259525462963</v>
       </c>
       <c r="H108" s="1">
-        <v>45882.363032407404</v>
+        <v>45919.518483796295</v>
       </c>
       <c r="I108" s="2">
-        <v>16.636967592596193</v>
+        <v>-43.259525462963211</v>
       </c>
       <c r="J108" s="3">
-        <v>468.88</v>
+        <v>556.75</v>
       </c>
       <c r="K108" s="3">
-        <v>468.88</v>
+        <v>556.75</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5042,25 +5045,25 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>12474</v>
+        <v>13329</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45931.437384259254</v>
+        <v>45984.375659722224</v>
       </c>
       <c r="H109" s="1">
-        <v>45901.437384259254</v>
+        <v>45924.395439814813</v>
       </c>
       <c r="I109" s="2">
-        <v>-2.4373842592540313</v>
+        <v>-48.375659722223645</v>
       </c>
       <c r="J109" s="3">
-        <v>1269.1500000000001</v>
+        <v>805.08</v>
       </c>
       <c r="K109" s="3">
-        <v>1269.1500000000001</v>
+        <v>805.08</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5083,39 +5086,39 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>12871</v>
+        <v>11783</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45941.701736111107</v>
+        <v>45912.363032407404</v>
       </c>
       <c r="H110" s="1">
-        <v>45911.701736111107</v>
+        <v>45882.363032407404</v>
       </c>
       <c r="I110" s="2">
-        <v>-12.701736111106584</v>
+        <v>23.636967592596193</v>
       </c>
       <c r="J110" s="3">
-        <v>148.14000000000001</v>
+        <v>468.88</v>
       </c>
       <c r="K110" s="3">
-        <v>148.14000000000001</v>
+        <v>468.88</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112151</v>
+        <v>211112098</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5124,72 +5127,72 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>9177</v>
+        <v>12871</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45880.637939814813</v>
+        <v>45941.701736111107</v>
       </c>
       <c r="H111" s="1">
-        <v>45820.639421296291</v>
+        <v>45911.701736111107</v>
       </c>
       <c r="I111" s="2">
-        <v>48.362060185187147</v>
+        <v>-5.7017361111065838</v>
       </c>
       <c r="J111" s="3">
-        <v>3277.76</v>
+        <v>148.14000000000001</v>
       </c>
       <c r="K111" s="3">
-        <v>3277.76</v>
+        <v>148.14000000000001</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112151</v>
+        <v>211112098</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112">
-        <v>9560</v>
+        <v>585</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45888.627025462964</v>
+        <v>45960</v>
       </c>
       <c r="H112" s="1">
-        <v>45828.628541666665</v>
+        <v>45930</v>
       </c>
       <c r="I112" s="2">
-        <v>40.372974537036498</v>
+        <v>-24</v>
       </c>
       <c r="J112" s="3">
-        <v>2976.7400000000002</v>
+        <v>-39.46</v>
       </c>
       <c r="K112" s="3">
-        <v>2976.7400000000002</v>
+        <v>-39.46</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5203,34 +5206,34 @@
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E113">
-        <v>123</v>
+        <v>11469</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45888.628900462958</v>
+        <v>45935.331585648149</v>
       </c>
       <c r="H113" s="1">
-        <v>45828.673252314809</v>
+        <v>45875.332268518519</v>
       </c>
       <c r="I113" s="2">
-        <v>40.371099537042028</v>
+        <v>0.66841435185051523</v>
       </c>
       <c r="J113" s="3">
-        <v>1721.02</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="K113" s="3">
-        <v>1721.02</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5247,31 +5250,31 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>9800</v>
+        <v>11470</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45894.651828703703</v>
+        <v>45935.332488425927</v>
       </c>
       <c r="H114" s="1">
-        <v>45834.65211805555</v>
+        <v>45875.332824074074</v>
       </c>
       <c r="I114" s="2">
-        <v>34.348171296296641</v>
+        <v>0.66751157407270512</v>
       </c>
       <c r="J114" s="3">
-        <v>617.68000000000006</v>
+        <v>1486.91</v>
       </c>
       <c r="K114" s="3">
-        <v>617.68000000000006</v>
+        <v>1486.91</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5282,37 +5285,37 @@
         <v>31</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E115">
-        <v>9801</v>
+        <v>10</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45894.653275462959</v>
+        <v>45942</v>
       </c>
       <c r="H115" s="1">
-        <v>45834.653495370367</v>
+        <v>45882</v>
       </c>
       <c r="I115" s="2">
-        <v>34.346724537041155</v>
+        <v>-6</v>
       </c>
       <c r="J115" s="3">
-        <v>1272.99</v>
+        <v>-30.75</v>
       </c>
       <c r="K115" s="3">
-        <v>1272.99</v>
+        <v>-30.75</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
       </c>
       <c r="M115" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5329,25 +5332,25 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>9911</v>
+        <v>11860</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45898.70108796296</v>
+        <v>45942.619097222218</v>
       </c>
       <c r="H116" s="1">
-        <v>45838.702037037037</v>
+        <v>45882.62773148148</v>
       </c>
       <c r="I116" s="2">
-        <v>30.298912037040282</v>
+        <v>-6.6190972222175333</v>
       </c>
       <c r="J116" s="3">
-        <v>2730.67</v>
+        <v>3031.57</v>
       </c>
       <c r="K116" s="3">
-        <v>2730.67</v>
+        <v>3031.57</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -5367,34 +5370,34 @@
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E117">
-        <v>10234</v>
+        <v>153</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45905.634965277779</v>
+        <v>45942.62940972222</v>
       </c>
       <c r="H117" s="1">
-        <v>45845.635636574072</v>
+        <v>45882.629641203705</v>
       </c>
       <c r="I117" s="2">
-        <v>23.365034722221026</v>
+        <v>-6.6294097222198616</v>
       </c>
       <c r="J117" s="3">
-        <v>2189.11</v>
+        <v>1558.65</v>
       </c>
       <c r="K117" s="3">
-        <v>2189.11</v>
+        <v>1558.65</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5411,31 +5414,31 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>10548</v>
+        <v>12581</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45913.353020833332</v>
+        <v>45963.658715277779</v>
       </c>
       <c r="H118" s="1">
-        <v>45853.353888888887</v>
+        <v>45903.659988425927</v>
       </c>
       <c r="I118" s="2">
-        <v>15.646979166667734</v>
+        <v>-27.658715277779265</v>
       </c>
       <c r="J118" s="3">
-        <v>4871.05</v>
+        <v>177.22</v>
       </c>
       <c r="K118" s="3">
-        <v>4871.05</v>
+        <v>177.22</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5452,31 +5455,31 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>11138</v>
+        <v>12582</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45927.358495370368</v>
+        <v>45963.660312499997</v>
       </c>
       <c r="H119" s="1">
-        <v>45867.359340277777</v>
+        <v>45903.661365740736</v>
       </c>
       <c r="I119" s="2">
-        <v>1.6415046296315268</v>
+        <v>-27.660312499996508</v>
       </c>
       <c r="J119" s="3">
-        <v>1891.52</v>
+        <v>3123.88</v>
       </c>
       <c r="K119" s="3">
-        <v>1891.52</v>
+        <v>3123.88</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5487,31 +5490,31 @@
         <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D120">
+        <v>2025</v>
       </c>
       <c r="E120">
-        <v>11469</v>
+        <v>847</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45935.331585648149</v>
+        <v>45969</v>
       </c>
       <c r="H120" s="1">
-        <v>45875.332268518519</v>
+        <v>45909</v>
       </c>
       <c r="I120" s="2">
-        <v>-6.3315856481494848</v>
+        <v>-33</v>
       </c>
       <c r="J120" s="3">
-        <v>2536.7800000000002</v>
+        <v>-463.14</v>
       </c>
       <c r="K120" s="3">
-        <v>2536.7800000000002</v>
+        <v>-463.14</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -5528,31 +5531,31 @@
         <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121">
-        <v>11470</v>
+        <v>581</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45935.332488425927</v>
+        <v>45984</v>
       </c>
       <c r="H121" s="1">
-        <v>45875.332824074074</v>
+        <v>45924</v>
       </c>
       <c r="I121" s="2">
-        <v>-6.3324884259272949</v>
+        <v>-48</v>
       </c>
       <c r="J121" s="3">
-        <v>1486.91</v>
+        <v>-62.32</v>
       </c>
       <c r="K121" s="3">
-        <v>1486.91</v>
+        <v>-62.32</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
@@ -5572,28 +5575,28 @@
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E122">
-        <v>10</v>
+        <v>582</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45942</v>
+        <v>45984</v>
       </c>
       <c r="H122" s="1">
-        <v>45882</v>
+        <v>45924</v>
       </c>
       <c r="I122" s="2">
-        <v>-13</v>
+        <v>-48</v>
       </c>
       <c r="J122" s="3">
-        <v>-30.75</v>
+        <v>-112.07000000000001</v>
       </c>
       <c r="K122" s="3">
-        <v>-30.75</v>
+        <v>-112.07000000000001</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
@@ -5604,119 +5607,119 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211112151</v>
+        <v>211112183</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D123">
+        <v>2025</v>
       </c>
       <c r="E123">
-        <v>11860</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45942.619097222218</v>
+        <v>45693</v>
       </c>
       <c r="H123" s="1">
-        <v>45882.62773148148</v>
+        <v>45663</v>
       </c>
       <c r="I123" s="2">
-        <v>-13.619097222217533</v>
+        <v>243</v>
       </c>
       <c r="J123" s="3">
-        <v>3031.57</v>
+        <v>-4385.22</v>
       </c>
       <c r="K123" s="3">
-        <v>3031.57</v>
+        <v>-782.21</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E124">
-        <v>153</v>
+        <v>12597</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45942.62940972222</v>
+        <v>45934.389282407406</v>
       </c>
       <c r="H124" s="1">
-        <v>45882.629641203705</v>
+        <v>45904.390023148146</v>
       </c>
       <c r="I124" s="2">
-        <v>-13.629409722219862</v>
+        <v>1.6107175925935735</v>
       </c>
       <c r="J124" s="3">
-        <v>1558.65</v>
+        <v>1068</v>
       </c>
       <c r="K124" s="3">
-        <v>1558.65</v>
+        <v>1068</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="E125">
-        <v>12581</v>
+        <v>572</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45963.658715277779</v>
+        <v>45942</v>
       </c>
       <c r="H125" s="1">
-        <v>45903.659988425927</v>
+        <v>45912</v>
       </c>
       <c r="I125" s="2">
-        <v>-34.658715277779265</v>
+        <v>-6</v>
       </c>
       <c r="J125" s="3">
-        <v>177.22</v>
+        <v>-36.480000000000004</v>
       </c>
       <c r="K125" s="3">
-        <v>177.22</v>
+        <v>-36.480000000000004</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
@@ -5727,10 +5730,10 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5739,25 +5742,25 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>12582</v>
+        <v>12876</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45963.660312499997</v>
+        <v>45942.335138888884</v>
       </c>
       <c r="H126" s="1">
-        <v>45903.661365740736</v>
+        <v>45912.335138888884</v>
       </c>
       <c r="I126" s="2">
-        <v>-34.660312499996508</v>
+        <v>-6.3351388888841029</v>
       </c>
       <c r="J126" s="3">
-        <v>3123.88</v>
+        <v>582.91</v>
       </c>
       <c r="K126" s="3">
-        <v>3123.88</v>
+        <v>582.91</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -5768,10 +5771,10 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112151</v>
+        <v>211112216</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
@@ -5780,25 +5783,25 @@
         <v>2025</v>
       </c>
       <c r="E127">
-        <v>847</v>
+        <v>874</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45969</v>
+        <v>45953</v>
       </c>
       <c r="H127" s="1">
-        <v>45909</v>
+        <v>45923</v>
       </c>
       <c r="I127" s="2">
-        <v>-40</v>
+        <v>-17</v>
       </c>
       <c r="J127" s="3">
-        <v>-463.14</v>
+        <v>-7.75</v>
       </c>
       <c r="K127" s="3">
-        <v>-463.14</v>
+        <v>-7.75</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -5809,37 +5812,37 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112151</v>
+        <v>211112290</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128">
-        <v>581</v>
+        <v>11859</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45984</v>
+        <v>45942.611527777779</v>
       </c>
       <c r="H128" s="1">
-        <v>45924</v>
+        <v>45882.616122685184</v>
       </c>
       <c r="I128" s="2">
-        <v>-55</v>
+        <v>-6.6115277777789743</v>
       </c>
       <c r="J128" s="3">
-        <v>-62.32</v>
+        <v>1123.45</v>
       </c>
       <c r="K128" s="3">
-        <v>-62.32</v>
+        <v>1123.45</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -5850,37 +5853,37 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112151</v>
+        <v>211112290</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C129" t="s">
         <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E129">
-        <v>582</v>
+        <v>15</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45984</v>
+        <v>45970</v>
       </c>
       <c r="H129" s="1">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="I129" s="2">
-        <v>-55</v>
+        <v>-34</v>
       </c>
       <c r="J129" s="3">
-        <v>-112.07000000000001</v>
+        <v>-30.75</v>
       </c>
       <c r="K129" s="3">
-        <v>-112.07000000000001</v>
+        <v>-30.75</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -5891,37 +5894,37 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112183</v>
+        <v>211112334</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130">
-        <v>2025</v>
-      </c>
-      <c r="E130">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="D130" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>40</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45693</v>
+        <v>45406</v>
       </c>
       <c r="H130" s="1">
-        <v>45663</v>
+        <v>45391</v>
       </c>
       <c r="I130" s="2">
-        <v>236</v>
+        <v>530</v>
       </c>
       <c r="J130" s="3">
-        <v>-4385.22</v>
+        <v>597.29</v>
       </c>
       <c r="K130" s="3">
-        <v>-782.21</v>
+        <v>597.29</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -5932,174 +5935,174 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112216</v>
+        <v>211112334</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131">
-        <v>12597</v>
+        <v>33</v>
+      </c>
+      <c r="E131" t="s">
+        <v>41</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45934.389282407406</v>
+        <v>45406</v>
       </c>
       <c r="H131" s="1">
-        <v>45904.390023148146</v>
+        <v>45391</v>
       </c>
       <c r="I131" s="2">
-        <v>-5.3892824074064265</v>
+        <v>530</v>
       </c>
       <c r="J131" s="3">
-        <v>1068</v>
+        <v>591.72</v>
       </c>
       <c r="K131" s="3">
-        <v>1068</v>
+        <v>591.72</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112216</v>
+        <v>211112334</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132">
-        <v>572</v>
+        <v>33</v>
+      </c>
+      <c r="E132" t="s">
+        <v>42</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45942</v>
+        <v>45419</v>
       </c>
       <c r="H132" s="1">
-        <v>45912</v>
+        <v>45404</v>
       </c>
       <c r="I132" s="2">
-        <v>-13</v>
+        <v>517</v>
       </c>
       <c r="J132" s="3">
-        <v>-36.480000000000004</v>
+        <v>599.27</v>
       </c>
       <c r="K132" s="3">
-        <v>-36.480000000000004</v>
+        <v>599.27</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112216</v>
+        <v>211112334</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="D133">
+        <v>2025</v>
       </c>
       <c r="E133">
-        <v>12876</v>
+        <v>91</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45942.335138888884</v>
+        <v>45906</v>
       </c>
       <c r="H133" s="1">
-        <v>45912.335138888884</v>
+        <v>45876</v>
       </c>
       <c r="I133" s="2">
-        <v>-13.335138888884103</v>
+        <v>30</v>
       </c>
       <c r="J133" s="3">
-        <v>582.91</v>
+        <v>-64.14</v>
       </c>
       <c r="K133" s="3">
-        <v>582.91</v>
+        <v>-64.14</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112290</v>
+        <v>211112334</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="D134">
+        <v>2025</v>
       </c>
       <c r="E134">
-        <v>10786</v>
+        <v>92</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45916.621446759258</v>
+        <v>45906</v>
       </c>
       <c r="H134" s="1">
-        <v>45856.622523148144</v>
+        <v>45876</v>
       </c>
       <c r="I134" s="2">
-        <v>12.378553240741894</v>
+        <v>30</v>
       </c>
       <c r="J134" s="3">
-        <v>2347.12</v>
+        <v>-174.57</v>
       </c>
       <c r="K134" s="3">
-        <v>2347.12</v>
+        <v>-174.57</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112290</v>
+        <v>211112351</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6108,244 +6111,244 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>11859</v>
+        <v>9758</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45942.611527777779</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H135" s="1">
-        <v>45882.616122685184</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I135" s="2">
-        <v>-13.611527777778974</v>
+        <v>41.595486111109494</v>
       </c>
       <c r="J135" s="3">
-        <v>1123.45</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K135" s="3">
-        <v>1123.45</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112334</v>
+        <v>211112443</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
-      </c>
-      <c r="E136" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="E136">
+        <v>13234</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45406</v>
+        <v>45952.654594907406</v>
       </c>
       <c r="H136" s="1">
-        <v>45391</v>
+        <v>45922.655439814815</v>
       </c>
       <c r="I136" s="2">
-        <v>523</v>
+        <v>-16.654594907406135</v>
       </c>
       <c r="J136" s="3">
-        <v>597.29</v>
+        <v>387.03000000000003</v>
       </c>
       <c r="K136" s="3">
-        <v>597.29</v>
+        <v>387.03000000000003</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112334</v>
+        <v>211112443</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C137" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>33</v>
-      </c>
-      <c r="E137" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="E137">
+        <v>13244</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45406</v>
+        <v>45953.358194444445</v>
       </c>
       <c r="H137" s="1">
-        <v>45391</v>
+        <v>45923.359027777777</v>
       </c>
       <c r="I137" s="2">
-        <v>523</v>
+        <v>-17.358194444444962</v>
       </c>
       <c r="J137" s="3">
-        <v>591.72</v>
+        <v>164.76</v>
       </c>
       <c r="K137" s="3">
-        <v>591.72</v>
+        <v>164.76</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112334</v>
+        <v>211112455</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C138" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
-      </c>
-      <c r="E138" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="E138">
+        <v>12367</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45419</v>
+        <v>45927.412766203699</v>
       </c>
       <c r="H138" s="1">
-        <v>45404</v>
+        <v>45897.415347222217</v>
       </c>
       <c r="I138" s="2">
-        <v>510</v>
+        <v>8.5872337963010068</v>
       </c>
       <c r="J138" s="3">
-        <v>599.27</v>
+        <v>3508</v>
       </c>
       <c r="K138" s="3">
-        <v>599.27</v>
+        <v>3508</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112334</v>
+        <v>211112455</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C139" t="s">
-        <v>54</v>
-      </c>
-      <c r="D139">
-        <v>2025</v>
+        <v>21</v>
+      </c>
+      <c r="D139" t="s">
+        <v>51</v>
       </c>
       <c r="E139">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45906</v>
+        <v>45931</v>
       </c>
       <c r="H139" s="1">
-        <v>45876</v>
+        <v>45901</v>
       </c>
       <c r="I139" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J139" s="3">
-        <v>-64.14</v>
+        <v>-46.13</v>
       </c>
       <c r="K139" s="3">
-        <v>-64.14</v>
+        <v>-46.13</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112334</v>
+        <v>211112455</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C140" t="s">
-        <v>54</v>
-      </c>
-      <c r="D140">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
       </c>
       <c r="E140">
-        <v>92</v>
+        <v>12863</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45906</v>
+        <v>45941.622974537036</v>
       </c>
       <c r="H140" s="1">
-        <v>45876</v>
+        <v>45911.623657407406</v>
       </c>
       <c r="I140" s="2">
-        <v>23</v>
+        <v>-5.6229745370364981</v>
       </c>
       <c r="J140" s="3">
-        <v>-174.57</v>
+        <v>2219.06</v>
       </c>
       <c r="K140" s="3">
-        <v>-174.57</v>
+        <v>2219.06</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112351</v>
+        <v>211112455</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6354,77 +6357,77 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>9758</v>
+        <v>13342</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45894.404513888891</v>
+        <v>45954.493402777778</v>
       </c>
       <c r="H141" s="1">
-        <v>45834.411666666667</v>
+        <v>45924.494317129625</v>
       </c>
       <c r="I141" s="2">
-        <v>34.595486111109494</v>
+        <v>-18.493402777778101</v>
       </c>
       <c r="J141" s="3">
-        <v>2212.2600000000002</v>
+        <v>1487.93</v>
       </c>
       <c r="K141" s="3">
-        <v>2212.2600000000002</v>
+        <v>1487.93</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
       </c>
       <c r="M141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112421</v>
+        <v>211112455</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D142">
+        <v>2025</v>
       </c>
       <c r="E142">
-        <v>3848</v>
+        <v>891</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45746.622569444444</v>
+        <v>45959</v>
       </c>
       <c r="H142" s="1">
-        <v>45716.624456018515</v>
+        <v>45929</v>
       </c>
       <c r="I142" s="2">
-        <v>182.3774305555562</v>
+        <v>-23</v>
       </c>
       <c r="J142" s="3">
-        <v>233.77</v>
+        <v>-2040.82</v>
       </c>
       <c r="K142" s="3">
-        <v>233.77</v>
+        <v>-2040.82</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
       </c>
       <c r="M142" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>211112443</v>
+        <v>211112455</v>
       </c>
       <c r="B143" t="s">
         <v>45</v>
@@ -6436,25 +6439,25 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>13234</v>
+        <v>13508</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45952.654594907406</v>
+        <v>45960.706296296295</v>
       </c>
       <c r="H143" s="1">
-        <v>45922.655439814815</v>
+        <v>45930.709282407406</v>
       </c>
       <c r="I143" s="2">
-        <v>-23.654594907406135</v>
+        <v>-24.706296296295477</v>
       </c>
       <c r="J143" s="3">
-        <v>387.03000000000003</v>
+        <v>1572.81</v>
       </c>
       <c r="K143" s="3">
-        <v>387.03000000000003</v>
+        <v>1572.81</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -6465,7 +6468,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>211112443</v>
+        <v>211112455</v>
       </c>
       <c r="B144" t="s">
         <v>45</v>
@@ -6477,25 +6480,25 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>13244</v>
+        <v>13616</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45953.358194444445</v>
+        <v>45962.658182870371</v>
       </c>
       <c r="H144" s="1">
-        <v>45923.359027777777</v>
+        <v>45932.68005787037</v>
       </c>
       <c r="I144" s="2">
-        <v>-24.358194444444962</v>
+        <v>-26.658182870371093</v>
       </c>
       <c r="J144" s="3">
-        <v>164.76</v>
+        <v>1991.39</v>
       </c>
       <c r="K144" s="3">
-        <v>164.76</v>
+        <v>1991.39</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -6506,7 +6509,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112455</v>
+        <v>211112469</v>
       </c>
       <c r="B145" t="s">
         <v>46</v>
@@ -6518,36 +6521,36 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>12035</v>
+        <v>12705</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45919.369513888887</v>
+        <v>45938.519317129627</v>
       </c>
       <c r="H145" s="1">
-        <v>45889.370081018518</v>
+        <v>45908.521111111106</v>
       </c>
       <c r="I145" s="2">
-        <v>9.6304861111129867</v>
+        <v>-2.5193171296268702</v>
       </c>
       <c r="J145" s="3">
-        <v>3591.86</v>
+        <v>825.99</v>
       </c>
       <c r="K145" s="3">
-        <v>3591.86</v>
+        <v>825.99</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
       </c>
       <c r="M145" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112455</v>
+        <v>211112469</v>
       </c>
       <c r="B146" t="s">
         <v>46</v>
@@ -6559,80 +6562,80 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>12367</v>
+        <v>13418</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45927.412766203699</v>
+        <v>45956.386076388888</v>
       </c>
       <c r="H146" s="1">
-        <v>45897.415347222217</v>
+        <v>45926.38722222222</v>
       </c>
       <c r="I146" s="2">
-        <v>1.5872337963010068</v>
+        <v>-20.386076388887886</v>
       </c>
       <c r="J146" s="3">
-        <v>3508</v>
+        <v>762.54</v>
       </c>
       <c r="K146" s="3">
-        <v>3508</v>
+        <v>762.54</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
       </c>
       <c r="M146" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112455</v>
+        <v>211112488</v>
       </c>
       <c r="B147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E147">
-        <v>12</v>
+        <v>12146</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45931</v>
+        <v>45920.679456018515</v>
       </c>
       <c r="H147" s="1">
-        <v>45901</v>
+        <v>45890.681793981479</v>
       </c>
       <c r="I147" s="2">
-        <v>-2</v>
+        <v>15.320543981484661</v>
       </c>
       <c r="J147" s="3">
-        <v>-46.13</v>
+        <v>1241.79</v>
       </c>
       <c r="K147" s="3">
-        <v>-46.13</v>
+        <v>1241.79</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112455</v>
+        <v>211112489</v>
       </c>
       <c r="B148" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6641,25 +6644,25 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>12863</v>
+        <v>12944</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45941.622974537036</v>
+        <v>45975.520891203705</v>
       </c>
       <c r="H148" s="1">
-        <v>45911.623657407406</v>
+        <v>45915.521157407406</v>
       </c>
       <c r="I148" s="2">
-        <v>-12.622974537036498</v>
+        <v>-39.520891203705105</v>
       </c>
       <c r="J148" s="3">
-        <v>2219.06</v>
+        <v>2866.7400000000002</v>
       </c>
       <c r="K148" s="3">
-        <v>2219.06</v>
+        <v>2866.7400000000002</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -6670,37 +6673,37 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112455</v>
+        <v>211112515</v>
       </c>
       <c r="B149" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D149">
+        <v>2025</v>
       </c>
       <c r="E149">
-        <v>13342</v>
+        <v>867</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="1">
-        <v>45954.493402777778</v>
+        <v>45946</v>
       </c>
       <c r="H149" s="1">
-        <v>45924.494317129625</v>
+        <v>45916</v>
       </c>
       <c r="I149" s="2">
-        <v>-25.493402777778101</v>
+        <v>-10</v>
       </c>
       <c r="J149" s="3">
-        <v>1487.93</v>
+        <v>-69.900000000000006</v>
       </c>
       <c r="K149" s="3">
-        <v>1487.93</v>
+        <v>-69.900000000000006</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
@@ -6711,10 +6714,10 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112469</v>
+        <v>211112515</v>
       </c>
       <c r="B150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6723,39 +6726,39 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>12361</v>
+        <v>12949</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" s="1">
-        <v>45927.39025462963</v>
+        <v>45946.310219907406</v>
       </c>
       <c r="H150" s="1">
-        <v>45897.394027777773</v>
+        <v>45916.310243055552</v>
       </c>
       <c r="I150" s="2">
-        <v>1.6097453703696374</v>
+        <v>-10.310219907405553</v>
       </c>
       <c r="J150" s="3">
-        <v>351.14</v>
+        <v>1067.78</v>
       </c>
       <c r="K150" s="3">
-        <v>351.14</v>
+        <v>1067.78</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
       </c>
       <c r="M150" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112469</v>
+        <v>211112515</v>
       </c>
       <c r="B151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6764,25 +6767,25 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>12705</v>
+        <v>13157</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>45938.519317129627</v>
+        <v>45949.347083333334</v>
       </c>
       <c r="H151" s="1">
-        <v>45908.521111111106</v>
+        <v>45919.347291666665</v>
       </c>
       <c r="I151" s="2">
-        <v>-9.5193171296268702</v>
+        <v>-13.347083333334012</v>
       </c>
       <c r="J151" s="3">
-        <v>825.99</v>
+        <v>146.07</v>
       </c>
       <c r="K151" s="3">
-        <v>825.99</v>
+        <v>146.07</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -6793,10 +6796,10 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112469</v>
+        <v>211112515</v>
       </c>
       <c r="B152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -6805,25 +6808,25 @@
         <v>15</v>
       </c>
       <c r="E152">
-        <v>13418</v>
+        <v>13626</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="1">
-        <v>45956.386076388888</v>
+        <v>45963.360069444439</v>
       </c>
       <c r="H152" s="1">
-        <v>45926.38722222222</v>
+        <v>45933.360752314809</v>
       </c>
       <c r="I152" s="2">
-        <v>-27.386076388887886</v>
+        <v>-27.360069444439432</v>
       </c>
       <c r="J152" s="3">
-        <v>762.54</v>
+        <v>1216.8399999999999</v>
       </c>
       <c r="K152" s="3">
-        <v>762.54</v>
+        <v>1216.8399999999999</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
@@ -6834,10 +6837,10 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112488</v>
+        <v>211112518</v>
       </c>
       <c r="B153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -6846,39 +6849,39 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>12146</v>
+        <v>10919</v>
       </c>
       <c r="F153" t="s">
         <v>16</v>
       </c>
       <c r="G153" s="1">
-        <v>45920.679456018515</v>
+        <v>45921.540416666663</v>
       </c>
       <c r="H153" s="1">
-        <v>45890.681793981479</v>
+        <v>45861.54415509259</v>
       </c>
       <c r="I153" s="2">
-        <v>8.3205439814846613</v>
+        <v>14.459583333336923</v>
       </c>
       <c r="J153" s="3">
-        <v>1241.79</v>
+        <v>817.86</v>
       </c>
       <c r="K153" s="3">
-        <v>1241.79</v>
+        <v>817.86</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211112489</v>
+        <v>211112518</v>
       </c>
       <c r="B154" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -6887,25 +6890,25 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>12944</v>
+        <v>12069</v>
       </c>
       <c r="F154" t="s">
         <v>16</v>
       </c>
       <c r="G154" s="1">
-        <v>45975.520891203705</v>
+        <v>45949.520509259259</v>
       </c>
       <c r="H154" s="1">
-        <v>45915.521157407406</v>
+        <v>45889.520520833328</v>
       </c>
       <c r="I154" s="2">
-        <v>-46.520891203705105</v>
+        <v>-13.520509259258688</v>
       </c>
       <c r="J154" s="3">
-        <v>2866.7400000000002</v>
+        <v>624.23</v>
       </c>
       <c r="K154" s="3">
-        <v>2866.7400000000002</v>
+        <v>624.23</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -6916,37 +6919,37 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112515</v>
+        <v>211112518</v>
       </c>
       <c r="B155" t="s">
         <v>49</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
-      </c>
-      <c r="D155">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>867</v>
+        <v>13579</v>
       </c>
       <c r="F155" t="s">
         <v>16</v>
       </c>
       <c r="G155" s="1">
-        <v>45946</v>
+        <v>45992.397800925923</v>
       </c>
       <c r="H155" s="1">
-        <v>45916</v>
+        <v>45932.398275462961</v>
       </c>
       <c r="I155" s="2">
-        <v>-17</v>
+        <v>-56.397800925922638</v>
       </c>
       <c r="J155" s="3">
-        <v>-69.900000000000006</v>
+        <v>568.20000000000005</v>
       </c>
       <c r="K155" s="3">
-        <v>-69.900000000000006</v>
+        <v>568.20000000000005</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
@@ -6957,10 +6960,10 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211112515</v>
+        <v>211112531</v>
       </c>
       <c r="B156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -6969,25 +6972,25 @@
         <v>15</v>
       </c>
       <c r="E156">
-        <v>12949</v>
+        <v>12821</v>
       </c>
       <c r="F156" t="s">
         <v>16</v>
       </c>
       <c r="G156" s="1">
-        <v>45946.310219907406</v>
+        <v>45940.714884259258</v>
       </c>
       <c r="H156" s="1">
-        <v>45916.310243055552</v>
+        <v>45910.715243055551</v>
       </c>
       <c r="I156" s="2">
-        <v>-17.310219907405553</v>
+        <v>-4.7148842592578148</v>
       </c>
       <c r="J156" s="3">
-        <v>1067.78</v>
+        <v>164.15</v>
       </c>
       <c r="K156" s="3">
-        <v>1067.78</v>
+        <v>164.15</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
@@ -6998,10 +7001,10 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>211112515</v>
+        <v>211112531</v>
       </c>
       <c r="B157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -7010,25 +7013,25 @@
         <v>15</v>
       </c>
       <c r="E157">
-        <v>13157</v>
+        <v>12929</v>
       </c>
       <c r="F157" t="s">
         <v>16</v>
       </c>
       <c r="G157" s="1">
-        <v>45949.347083333334</v>
+        <v>45945.396874999999</v>
       </c>
       <c r="H157" s="1">
-        <v>45919.347291666665</v>
+        <v>45915.396874999999</v>
       </c>
       <c r="I157" s="2">
-        <v>-20.347083333334012</v>
+        <v>-9.3968749999985448</v>
       </c>
       <c r="J157" s="3">
-        <v>146.07</v>
+        <v>227.9</v>
       </c>
       <c r="K157" s="3">
-        <v>146.07</v>
+        <v>227.9</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -7039,7 +7042,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>211112518</v>
+        <v>211112531</v>
       </c>
       <c r="B158" t="s">
         <v>50</v>
@@ -7051,36 +7054,36 @@
         <v>15</v>
       </c>
       <c r="E158">
-        <v>9953</v>
+        <v>13349</v>
       </c>
       <c r="F158" t="s">
         <v>16</v>
       </c>
       <c r="G158" s="1">
-        <v>45900.407731481479</v>
+        <v>45955.344722222224</v>
       </c>
       <c r="H158" s="1">
-        <v>45840.408055555556</v>
+        <v>45925.344988425924</v>
       </c>
       <c r="I158" s="2">
-        <v>28.59226851852145</v>
+        <v>-19.344722222223936</v>
       </c>
       <c r="J158" s="3">
-        <v>358.40000000000003</v>
+        <v>50.01</v>
       </c>
       <c r="K158" s="3">
-        <v>358.40000000000003</v>
+        <v>50.01</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
       </c>
       <c r="M158" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>211112518</v>
+        <v>211112531</v>
       </c>
       <c r="B159" t="s">
         <v>50</v>
@@ -7092,36 +7095,36 @@
         <v>15</v>
       </c>
       <c r="E159">
-        <v>10114</v>
+        <v>13380</v>
       </c>
       <c r="F159" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="1">
-        <v>45902.400694444441</v>
+        <v>45955.700185185182</v>
       </c>
       <c r="H159" s="1">
-        <v>45842.400694444441</v>
+        <v>45925.702268518515</v>
       </c>
       <c r="I159" s="2">
-        <v>26.599305555559113</v>
+        <v>-19.700185185181908</v>
       </c>
       <c r="J159" s="3">
-        <v>219.86</v>
+        <v>36.4</v>
       </c>
       <c r="K159" s="3">
-        <v>219.86</v>
+        <v>36.4</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
       </c>
       <c r="M159" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>211112518</v>
+        <v>211112531</v>
       </c>
       <c r="B160" t="s">
         <v>50</v>
@@ -7133,235 +7136,30 @@
         <v>15</v>
       </c>
       <c r="E160">
-        <v>10919</v>
+        <v>13569</v>
       </c>
       <c r="F160" t="s">
         <v>16</v>
       </c>
       <c r="G160" s="1">
-        <v>45921.540416666663</v>
+        <v>45962.380231481482</v>
       </c>
       <c r="H160" s="1">
-        <v>45861.54415509259</v>
+        <v>45932.383726851847</v>
       </c>
       <c r="I160" s="2">
-        <v>7.4595833333369228</v>
+        <v>-26.380231481482042</v>
       </c>
       <c r="J160" s="3">
-        <v>817.86</v>
+        <v>62.96</v>
       </c>
       <c r="K160" s="3">
-        <v>817.86</v>
+        <v>62.96</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
       </c>
       <c r="M160" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>211112518</v>
-      </c>
-      <c r="B161" t="s">
-        <v>50</v>
-      </c>
-      <c r="C161" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161">
-        <v>12069</v>
-      </c>
-      <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" s="1">
-        <v>45949.520509259259</v>
-      </c>
-      <c r="H161" s="1">
-        <v>45889.520520833328</v>
-      </c>
-      <c r="I161" s="2">
-        <v>-20.520509259258688</v>
-      </c>
-      <c r="J161" s="3">
-        <v>624.23</v>
-      </c>
-      <c r="K161" s="3">
-        <v>624.23</v>
-      </c>
-      <c r="L161" t="s">
-        <v>17</v>
-      </c>
-      <c r="M161" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>211112531</v>
-      </c>
-      <c r="B162" t="s">
-        <v>51</v>
-      </c>
-      <c r="C162" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162">
-        <v>12821</v>
-      </c>
-      <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" s="1">
-        <v>45940.714884259258</v>
-      </c>
-      <c r="H162" s="1">
-        <v>45910.715243055551</v>
-      </c>
-      <c r="I162" s="2">
-        <v>-11.714884259257815</v>
-      </c>
-      <c r="J162" s="3">
-        <v>164.15</v>
-      </c>
-      <c r="K162" s="3">
-        <v>164.15</v>
-      </c>
-      <c r="L162" t="s">
-        <v>17</v>
-      </c>
-      <c r="M162" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>211112531</v>
-      </c>
-      <c r="B163" t="s">
-        <v>51</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163">
-        <v>12929</v>
-      </c>
-      <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" s="1">
-        <v>45945.396874999999</v>
-      </c>
-      <c r="H163" s="1">
-        <v>45915.396874999999</v>
-      </c>
-      <c r="I163" s="2">
-        <v>-16.396874999998545</v>
-      </c>
-      <c r="J163" s="3">
-        <v>227.9</v>
-      </c>
-      <c r="K163" s="3">
-        <v>227.9</v>
-      </c>
-      <c r="L163" t="s">
-        <v>17</v>
-      </c>
-      <c r="M163" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>211112531</v>
-      </c>
-      <c r="B164" t="s">
-        <v>51</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164">
-        <v>13349</v>
-      </c>
-      <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" s="1">
-        <v>45955.344722222224</v>
-      </c>
-      <c r="H164" s="1">
-        <v>45925.344988425924</v>
-      </c>
-      <c r="I164" s="2">
-        <v>-26.344722222223936</v>
-      </c>
-      <c r="J164" s="3">
-        <v>50.01</v>
-      </c>
-      <c r="K164" s="3">
-        <v>50.01</v>
-      </c>
-      <c r="L164" t="s">
-        <v>17</v>
-      </c>
-      <c r="M164" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>211112531</v>
-      </c>
-      <c r="B165" t="s">
-        <v>51</v>
-      </c>
-      <c r="C165" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165">
-        <v>13380</v>
-      </c>
-      <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" s="1">
-        <v>45955.700185185182</v>
-      </c>
-      <c r="H165" s="1">
-        <v>45925.702268518515</v>
-      </c>
-      <c r="I165" s="2">
-        <v>-26.700185185181908</v>
-      </c>
-      <c r="J165" s="3">
-        <v>36.4</v>
-      </c>
-      <c r="K165" s="3">
-        <v>36.4</v>
-      </c>
-      <c r="L165" t="s">
-        <v>17</v>
-      </c>
-      <c r="M165" t="s">
         <v>18</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A41DE-0F00-4F92-8EEC-77119992000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506E0411-C5A1-4794-8F58-E410E427694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="60">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Mtz, Lda</t>
   </si>
   <si>
-    <t>Pankir-Indústria E Com.De Produtos</t>
-  </si>
-  <si>
     <t>Glacialis Soc.Unipessoal,Lda</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>Pura Paixão - Unipessoal, Lda.</t>
   </si>
   <si>
-    <t>Osfama - Dist. Import. E Export. De</t>
-  </si>
-  <si>
     <t>6A30</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>1A5</t>
+  </si>
+  <si>
+    <t>Pantera Cor De Rosa</t>
+  </si>
+  <si>
+    <t>Lameguiper - Soc. Distribuição S.A.</t>
   </si>
 </sst>
 </file>
@@ -590,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M160"/>
+      <selection activeCell="A2" sqref="A2:M166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
         <v>211110034</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -670,7 +670,7 @@
         <v>45916</v>
       </c>
       <c r="I2" s="2">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="J2" s="3">
         <v>-47.94</v>
@@ -690,7 +690,7 @@
         <v>211110034</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -711,7 +711,7 @@
         <v>45916.422337962962</v>
       </c>
       <c r="I3" s="2">
-        <v>-10.422337962962047</v>
+        <v>-2.4223379629620467</v>
       </c>
       <c r="J3" s="3">
         <v>664.32</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>211110102</v>
+        <v>211110034</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -740,25 +740,25 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>12520</v>
+        <v>13702</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>45947.45107638889</v>
+        <v>45967.351527777777</v>
       </c>
       <c r="H4" s="1">
-        <v>45902.451412037037</v>
+        <v>45937.352592592593</v>
       </c>
       <c r="I4" s="2">
-        <v>-11.451076388890215</v>
+        <v>-23.351527777776937</v>
       </c>
       <c r="J4" s="3">
-        <v>775.91</v>
+        <v>497.47</v>
       </c>
       <c r="K4" s="3">
-        <v>775.9</v>
+        <v>497.47</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -769,37 +769,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>211110102</v>
+        <v>211110034</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>2025</v>
       </c>
       <c r="E5">
-        <v>13350</v>
+        <v>914</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>45970.361527777779</v>
+        <v>45968</v>
       </c>
       <c r="H5" s="1">
-        <v>45925.368599537032</v>
+        <v>45938</v>
       </c>
       <c r="I5" s="2">
-        <v>-34.361527777778974</v>
+        <v>-24</v>
       </c>
       <c r="J5" s="3">
-        <v>368.86</v>
+        <v>-208.93</v>
       </c>
       <c r="K5" s="3">
-        <v>368.86</v>
+        <v>-208.93</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -822,25 +822,25 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>13397</v>
+        <v>12520</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45971.361874999995</v>
+        <v>45947.45107638889</v>
       </c>
       <c r="H6" s="1">
-        <v>45926.362696759257</v>
+        <v>45902.451412037037</v>
       </c>
       <c r="I6" s="2">
-        <v>-35.361874999995052</v>
+        <v>-3.4510763888902147</v>
       </c>
       <c r="J6" s="3">
-        <v>404.12</v>
+        <v>775.91</v>
       </c>
       <c r="K6" s="3">
-        <v>404.12</v>
+        <v>775.9</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -851,10 +851,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>211110434</v>
+        <v>211110102</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -863,25 +863,25 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>13108</v>
+        <v>13350</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45948.345138888886</v>
+        <v>45970.361527777779</v>
       </c>
       <c r="H7" s="1">
-        <v>45918.345590277779</v>
+        <v>45925.368599537032</v>
       </c>
       <c r="I7" s="2">
-        <v>-12.34513888888614</v>
+        <v>-26.361527777778974</v>
       </c>
       <c r="J7" s="3">
-        <v>408.72</v>
+        <v>368.86</v>
       </c>
       <c r="K7" s="3">
-        <v>408.72</v>
+        <v>368.86</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>211110434</v>
+        <v>211110102</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -904,25 +904,25 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>13478</v>
+        <v>13397</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45960.350081018514</v>
+        <v>45971.361874999995</v>
       </c>
       <c r="H8" s="1">
-        <v>45930.350300925922</v>
+        <v>45926.362696759257</v>
       </c>
       <c r="I8" s="2">
-        <v>-24.350081018514175</v>
+        <v>-27.361874999995052</v>
       </c>
       <c r="J8" s="3">
-        <v>619.97</v>
+        <v>404.12</v>
       </c>
       <c r="K8" s="3">
-        <v>619.97</v>
+        <v>404.12</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>211110477</v>
+        <v>211110434</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -945,25 +945,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>13532</v>
+        <v>13108</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45961.370902777773</v>
+        <v>45948.345138888886</v>
       </c>
       <c r="H9" s="1">
-        <v>45931.371504629627</v>
+        <v>45918.345590277779</v>
       </c>
       <c r="I9" s="2">
-        <v>-25.370902777773154</v>
+        <v>-4.3451388888861402</v>
       </c>
       <c r="J9" s="3">
-        <v>130.21</v>
+        <v>408.72</v>
       </c>
       <c r="K9" s="3">
-        <v>130.21</v>
+        <v>408.72</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -974,10 +974,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>211110574</v>
+        <v>211110434</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -986,31 +986,31 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>12254</v>
+        <v>13478</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45925.367962962962</v>
+        <v>45960.350081018514</v>
       </c>
       <c r="H10" s="1">
-        <v>45895.367962962962</v>
+        <v>45930.350300925922</v>
       </c>
       <c r="I10" s="2">
-        <v>10.632037037037662</v>
+        <v>-16.350081018514175</v>
       </c>
       <c r="J10" s="3">
-        <v>716.14</v>
+        <v>619.97</v>
       </c>
       <c r="K10" s="3">
-        <v>716.14</v>
+        <v>619.97</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1018,34 +1018,34 @@
         <v>211110574</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>2025</v>
       </c>
       <c r="E11">
-        <v>12660</v>
+        <v>896</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45935.466979166667</v>
+        <v>45960</v>
       </c>
       <c r="H11" s="1">
-        <v>45905.467291666668</v>
+        <v>45930</v>
       </c>
       <c r="I11" s="2">
-        <v>0.53302083333255723</v>
+        <v>-16</v>
       </c>
       <c r="J11" s="3">
-        <v>601.41</v>
+        <v>-293.06</v>
       </c>
       <c r="K11" s="3">
-        <v>601.41</v>
+        <v>-293.06</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1059,7 +1059,7 @@
         <v>211110574</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1068,25 +1068,25 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>12817</v>
+        <v>13707</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45940.605277777773</v>
+        <v>45967.35533564815</v>
       </c>
       <c r="H12" s="1">
-        <v>45910.607453703698</v>
+        <v>45937.356365740736</v>
       </c>
       <c r="I12" s="2">
-        <v>-4.6052777777731535</v>
+        <v>-23.355335648149776</v>
       </c>
       <c r="J12" s="3">
-        <v>520.49</v>
+        <v>327.33</v>
       </c>
       <c r="K12" s="3">
-        <v>520.49</v>
+        <v>327.33</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211110574</v>
+        <v>211110681</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1109,25 +1109,25 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>13339</v>
+        <v>13774</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45954.466331018513</v>
+        <v>45968.352500000001</v>
       </c>
       <c r="H13" s="1">
-        <v>45924.467106481483</v>
+        <v>45938.353310185186</v>
       </c>
       <c r="I13" s="2">
-        <v>-18.466331018513301</v>
+        <v>-24.352500000000873</v>
       </c>
       <c r="J13" s="3">
-        <v>442.21000000000004</v>
+        <v>2293.8000000000002</v>
       </c>
       <c r="K13" s="3">
-        <v>442.21000000000004</v>
+        <v>2293.8000000000002</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1138,43 +1138,43 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211110574</v>
+        <v>211110903</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14">
-        <v>13473</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45960.344895833332</v>
+        <v>45873</v>
       </c>
       <c r="H14" s="1">
-        <v>45930.345810185187</v>
+        <v>45866</v>
       </c>
       <c r="I14" s="2">
-        <v>-24.344895833331975</v>
+        <v>71</v>
       </c>
       <c r="J14" s="3">
-        <v>368.53000000000003</v>
+        <v>-50.85</v>
       </c>
       <c r="K14" s="3">
-        <v>368.53000000000003</v>
+        <v>-50.85</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1187,35 +1187,35 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
+      <c r="D15">
+        <v>2025</v>
       </c>
       <c r="E15">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="H15" s="1">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="I15" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J15" s="3">
-        <v>-50.85</v>
+        <v>-100.23</v>
       </c>
       <c r="K15" s="3">
-        <v>-50.85</v>
+        <v>-100.23</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1228,35 +1228,35 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16">
-        <v>2025</v>
+      <c r="D16" t="s">
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>711</v>
+        <v>542</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45875</v>
+        <v>45880</v>
       </c>
       <c r="H16" s="1">
-        <v>45868</v>
+        <v>45873</v>
       </c>
       <c r="I16" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J16" s="3">
-        <v>-100.23</v>
+        <v>-67.31</v>
       </c>
       <c r="K16" s="3">
-        <v>-100.23</v>
+        <v>-67.31</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1269,35 +1269,35 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
+      <c r="D17">
+        <v>2025</v>
       </c>
       <c r="E17">
-        <v>542</v>
+        <v>878</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45880</v>
+        <v>45932</v>
       </c>
       <c r="H17" s="1">
-        <v>45873</v>
+        <v>45925</v>
       </c>
       <c r="I17" s="2">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="J17" s="3">
-        <v>-67.31</v>
+        <v>-59.86</v>
       </c>
       <c r="K17" s="3">
-        <v>-67.31</v>
+        <v>-59.86</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1314,31 +1314,31 @@
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45932</v>
+        <v>45938</v>
       </c>
       <c r="H18" s="1">
-        <v>45925</v>
+        <v>45931</v>
       </c>
       <c r="I18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
-        <v>-59.86</v>
+        <v>-42.24</v>
       </c>
       <c r="K18" s="3">
-        <v>-59.86</v>
+        <v>-42.24</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>45890.479895833334</v>
       </c>
       <c r="I19" s="2">
-        <v>10.520104166665988</v>
+        <v>18.520104166665988</v>
       </c>
       <c r="J19" s="3">
         <v>195.82</v>
@@ -1379,7 +1379,7 @@
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
         <v>45897</v>
       </c>
       <c r="I20" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J20" s="3">
         <v>-0.97</v>
@@ -1420,7 +1420,7 @@
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
         <v>45897.391562500001</v>
       </c>
       <c r="I21" s="2">
-        <v>3.6084490740759065</v>
+        <v>11.608449074075907</v>
       </c>
       <c r="J21" s="3">
         <v>197.81</v>
@@ -1461,7 +1461,7 @@
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>45904</v>
       </c>
       <c r="I22" s="2">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3">
         <v>-0.52</v>
@@ -1502,7 +1502,7 @@
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>45904.433935185181</v>
       </c>
       <c r="I23" s="2">
-        <v>-3.4325694444414694</v>
+        <v>4.5674305555585306</v>
       </c>
       <c r="J23" s="3">
         <v>953.69</v>
@@ -1543,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>45905.366354166668</v>
       </c>
       <c r="I24" s="2">
-        <v>-4.3653009259214741</v>
+        <v>3.6346990740785259</v>
       </c>
       <c r="J24" s="3">
         <v>487.36</v>
@@ -1584,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
         <v>45918.402905092589</v>
       </c>
       <c r="I25" s="2">
-        <v>-17.382881944446126</v>
+        <v>-9.382881944446126</v>
       </c>
       <c r="J25" s="3">
         <v>444.22</v>
@@ -1654,7 +1654,7 @@
         <v>45924.678518518514</v>
       </c>
       <c r="I26" s="2">
-        <v>-23.678217592590954</v>
+        <v>-15.678217592590954</v>
       </c>
       <c r="J26" s="3">
         <v>1198.05</v>
@@ -1695,7 +1695,7 @@
         <v>45932.393449074072</v>
       </c>
       <c r="I27" s="2">
-        <v>-31.393101851848769</v>
+        <v>-23.393101851848769</v>
       </c>
       <c r="J27" s="3">
         <v>242.47</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111720</v>
+        <v>211111588</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1724,31 +1724,31 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>10727</v>
+        <v>13818</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45916.281041666662</v>
+        <v>45974.352847222217</v>
       </c>
       <c r="H28" s="1">
-        <v>45856.283530092587</v>
+        <v>45939.353101851848</v>
       </c>
       <c r="I28" s="2">
-        <v>19.718958333338378</v>
+        <v>-30.352847222216951</v>
       </c>
       <c r="J28" s="3">
-        <v>199.79</v>
+        <v>683.7</v>
       </c>
       <c r="K28" s="3">
-        <v>199.79</v>
+        <v>683.7</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1765,31 +1765,31 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>11012</v>
+        <v>10727</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45923.282870370371</v>
+        <v>45916.281041666662</v>
       </c>
       <c r="H29" s="1">
-        <v>45863.28329861111</v>
+        <v>45856.283530092587</v>
       </c>
       <c r="I29" s="2">
-        <v>12.717129629629198</v>
+        <v>27.718958333338378</v>
       </c>
       <c r="J29" s="3">
-        <v>1478.6200000000001</v>
+        <v>199.79</v>
       </c>
       <c r="K29" s="3">
-        <v>1478.6200000000001</v>
+        <v>199.79</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1806,31 +1806,31 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>12399</v>
+        <v>11012</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45958.36681712963</v>
+        <v>45923.282870370371</v>
       </c>
       <c r="H30" s="1">
-        <v>45898.3668287037</v>
+        <v>45863.28329861111</v>
       </c>
       <c r="I30" s="2">
-        <v>-22.366817129630363</v>
+        <v>20.717129629629198</v>
       </c>
       <c r="J30" s="3">
-        <v>615.18000000000006</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="K30" s="3">
-        <v>615.18000000000006</v>
+        <v>1478.6200000000001</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1841,31 +1841,31 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>13</v>
+        <v>12399</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45970</v>
+        <v>45958.36681712963</v>
       </c>
       <c r="H31" s="1">
-        <v>45910</v>
+        <v>45898.3668287037</v>
       </c>
       <c r="I31" s="2">
-        <v>-34</v>
+        <v>-14.366817129630363</v>
       </c>
       <c r="J31" s="3">
-        <v>-30.75</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="K31" s="3">
-        <v>-30.75</v>
+        <v>615.18000000000006</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1876,43 +1876,43 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111739</v>
+        <v>211111720</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D32">
-        <v>2025</v>
+      <c r="D32" t="s">
+        <v>50</v>
       </c>
       <c r="E32">
-        <v>827</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45932</v>
+        <v>45970</v>
       </c>
       <c r="H32" s="1">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I32" s="2">
-        <v>4</v>
+        <v>-26</v>
       </c>
       <c r="J32" s="3">
-        <v>-1.77</v>
+        <v>-30.75</v>
       </c>
       <c r="K32" s="3">
-        <v>-1.77</v>
+        <v>-30.75</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1923,37 +1923,37 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>2025</v>
       </c>
       <c r="E33">
-        <v>12693</v>
+        <v>827</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45938.456111111111</v>
+        <v>45932</v>
       </c>
       <c r="H33" s="1">
-        <v>45908.45612268518</v>
+        <v>45902</v>
       </c>
       <c r="I33" s="2">
-        <v>-2.4561111111106584</v>
+        <v>12</v>
       </c>
       <c r="J33" s="3">
-        <v>1831.69</v>
+        <v>-1.77</v>
       </c>
       <c r="K33" s="3">
-        <v>1831.69</v>
+        <v>-1.77</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1970,25 +1970,25 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>12764</v>
+        <v>13206</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45940.312048611107</v>
+        <v>45952.35560185185</v>
       </c>
       <c r="H34" s="1">
-        <v>45910.315740740742</v>
+        <v>45922.356840277775</v>
       </c>
       <c r="I34" s="2">
-        <v>-4.312048611107457</v>
+        <v>-8.3556018518502242</v>
       </c>
       <c r="J34" s="3">
-        <v>564.66</v>
+        <v>848.55000000000007</v>
       </c>
       <c r="K34" s="3">
-        <v>564.66</v>
+        <v>848.55000000000007</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2005,31 +2005,31 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>2025</v>
       </c>
       <c r="E35">
-        <v>13206</v>
+        <v>899</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45952.35560185185</v>
+        <v>45961</v>
       </c>
       <c r="H35" s="1">
-        <v>45922.356840277775</v>
+        <v>45931</v>
       </c>
       <c r="I35" s="2">
-        <v>-16.355601851850224</v>
+        <v>-17</v>
       </c>
       <c r="J35" s="3">
-        <v>848.55000000000007</v>
+        <v>-0.89</v>
       </c>
       <c r="K35" s="3">
-        <v>848.55000000000007</v>
+        <v>-0.89</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2064,7 +2064,7 @@
         <v>45931.322465277779</v>
       </c>
       <c r="I36" s="2">
-        <v>-25.320532407407882</v>
+        <v>-17.320532407407882</v>
       </c>
       <c r="J36" s="3">
         <v>1487.93</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2093,39 +2093,39 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>11366</v>
+        <v>13668</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45930.614166666666</v>
+        <v>45966.375104166662</v>
       </c>
       <c r="H37" s="1">
-        <v>45870.614722222221</v>
+        <v>45936.376192129625</v>
       </c>
       <c r="I37" s="2">
-        <v>5.3858333333337214</v>
+        <v>-22.375104166661913</v>
       </c>
       <c r="J37" s="3">
-        <v>159.29</v>
+        <v>709.66</v>
       </c>
       <c r="K37" s="3">
-        <v>159.29</v>
+        <v>709.66</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2134,39 +2134,39 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>11369</v>
+        <v>13898</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45930.684340277774</v>
+        <v>45985.41737268518</v>
       </c>
       <c r="H38" s="1">
-        <v>45870.684976851851</v>
+        <v>45940.417881944442</v>
       </c>
       <c r="I38" s="2">
-        <v>5.3156597222259734</v>
+        <v>-41.417372685180453</v>
       </c>
       <c r="J38" s="3">
-        <v>106.19</v>
+        <v>466.18</v>
       </c>
       <c r="K38" s="3">
-        <v>106.19</v>
+        <v>466.18</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111878</v>
+        <v>211111739</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2175,31 +2175,31 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>11428</v>
+        <v>13901</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45934.485219907408</v>
+        <v>45985.422662037032</v>
       </c>
       <c r="H39" s="1">
-        <v>45874.485219907408</v>
+        <v>45940.423078703701</v>
       </c>
       <c r="I39" s="2">
-        <v>1.5147800925915362</v>
+        <v>-41.422662037031841</v>
       </c>
       <c r="J39" s="3">
-        <v>56.480000000000004</v>
+        <v>581.72</v>
       </c>
       <c r="K39" s="3">
-        <v>56.480000000000004</v>
+        <v>581.72</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2216,31 +2216,31 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>11429</v>
+        <v>11366</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45934.485231481478</v>
+        <v>45930.614166666666</v>
       </c>
       <c r="H40" s="1">
-        <v>45874.485231481478</v>
+        <v>45870.614722222221</v>
       </c>
       <c r="I40" s="2">
-        <v>1.5147685185220325</v>
+        <v>13.385833333333721</v>
       </c>
       <c r="J40" s="3">
-        <v>472.14</v>
+        <v>159.29</v>
       </c>
       <c r="K40" s="3">
-        <v>472.14</v>
+        <v>159.29</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2257,31 +2257,31 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>11430</v>
+        <v>11369</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45934.485266203701</v>
+        <v>45930.684340277774</v>
       </c>
       <c r="H41" s="1">
-        <v>45874.485266203701</v>
+        <v>45870.684976851851</v>
       </c>
       <c r="I41" s="2">
-        <v>1.5147337962989695</v>
+        <v>13.315659722225973</v>
       </c>
       <c r="J41" s="3">
-        <v>405.8</v>
+        <v>106.19</v>
       </c>
       <c r="K41" s="3">
-        <v>405.8</v>
+        <v>106.19</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2292,37 +2292,37 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>737</v>
+        <v>11428</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45938</v>
+        <v>45934.485219907408</v>
       </c>
       <c r="H42" s="1">
-        <v>45878</v>
+        <v>45874.485219907408</v>
       </c>
       <c r="I42" s="2">
-        <v>-2</v>
+        <v>9.5147800925915362</v>
       </c>
       <c r="J42" s="3">
-        <v>-22.990000000000002</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="K42" s="3">
-        <v>-22.990000000000002</v>
+        <v>56.480000000000004</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2339,31 +2339,31 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>11717</v>
+        <v>11429</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45940.541759259257</v>
+        <v>45934.485231481478</v>
       </c>
       <c r="H43" s="1">
-        <v>45880.541770833333</v>
+        <v>45874.485231481478</v>
       </c>
       <c r="I43" s="2">
-        <v>-4.5417592592566507</v>
+        <v>9.5147685185220325</v>
       </c>
       <c r="J43" s="3">
-        <v>100.79</v>
+        <v>472.14</v>
       </c>
       <c r="K43" s="3">
-        <v>100.79</v>
+        <v>472.14</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2374,37 +2374,37 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>751</v>
+        <v>11430</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45941</v>
+        <v>45934.485266203701</v>
       </c>
       <c r="H44" s="1">
-        <v>45881</v>
+        <v>45874.485266203701</v>
       </c>
       <c r="I44" s="2">
-        <v>-5</v>
+        <v>9.5147337962989695</v>
       </c>
       <c r="J44" s="3">
-        <v>-122.53</v>
+        <v>405.8</v>
       </c>
       <c r="K44" s="3">
-        <v>-122.53</v>
+        <v>405.8</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2415,37 +2415,37 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>2025</v>
       </c>
       <c r="E45">
-        <v>11758</v>
+        <v>737</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45941.499224537038</v>
+        <v>45938</v>
       </c>
       <c r="H45" s="1">
-        <v>45881.499236111107</v>
+        <v>45878</v>
       </c>
       <c r="I45" s="2">
-        <v>-5.4992245370376622</v>
+        <v>6</v>
       </c>
       <c r="J45" s="3">
-        <v>304.79000000000002</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="K45" s="3">
-        <v>304.79000000000002</v>
+        <v>-22.990000000000002</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2456,37 +2456,37 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>753</v>
+        <v>11717</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45942</v>
+        <v>45940.541759259257</v>
       </c>
       <c r="H46" s="1">
-        <v>45882</v>
+        <v>45880.541770833333</v>
       </c>
       <c r="I46" s="2">
-        <v>-6</v>
+        <v>3.4582407407433493</v>
       </c>
       <c r="J46" s="3">
-        <v>-10.93</v>
+        <v>100.79</v>
       </c>
       <c r="K46" s="3">
-        <v>-10.93</v>
+        <v>100.79</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2497,37 +2497,37 @@
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>2025</v>
       </c>
       <c r="E47">
-        <v>11922</v>
+        <v>751</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45943.619444444441</v>
+        <v>45941</v>
       </c>
       <c r="H47" s="1">
-        <v>45883.620034722218</v>
+        <v>45881</v>
       </c>
       <c r="I47" s="2">
-        <v>-7.6194444444408873</v>
+        <v>3</v>
       </c>
       <c r="J47" s="3">
-        <v>97.43</v>
+        <v>-122.53</v>
       </c>
       <c r="K47" s="3">
-        <v>97.43</v>
+        <v>-122.53</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2544,31 +2544,31 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>11999</v>
+        <v>11758</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45948.526076388887</v>
+        <v>45941.499224537038</v>
       </c>
       <c r="H48" s="1">
-        <v>45888.526076388887</v>
+        <v>45881.499236111107</v>
       </c>
       <c r="I48" s="2">
-        <v>-12.526076388887304</v>
+        <v>2.5007754629623378</v>
       </c>
       <c r="J48" s="3">
-        <v>53.63</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="K48" s="3">
-        <v>53.63</v>
+        <v>304.79000000000002</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2579,37 +2579,37 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>2025</v>
       </c>
       <c r="E49">
-        <v>12000</v>
+        <v>753</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45948.526099537034</v>
+        <v>45942</v>
       </c>
       <c r="H49" s="1">
-        <v>45888.526099537034</v>
+        <v>45882</v>
       </c>
       <c r="I49" s="2">
-        <v>-12.526099537033588</v>
+        <v>2</v>
       </c>
       <c r="J49" s="3">
-        <v>140.37</v>
+        <v>-10.93</v>
       </c>
       <c r="K49" s="3">
-        <v>140.37</v>
+        <v>-10.93</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2626,25 +2626,25 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>12001</v>
+        <v>11922</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45948.52612268518</v>
+        <v>45943.619444444441</v>
       </c>
       <c r="H50" s="1">
-        <v>45888.52612268518</v>
+        <v>45883.620034722218</v>
       </c>
       <c r="I50" s="2">
-        <v>-12.526122685179871</v>
+        <v>0.38055555555911269</v>
       </c>
       <c r="J50" s="3">
-        <v>212.85</v>
+        <v>97.43</v>
       </c>
       <c r="K50" s="3">
-        <v>212.85</v>
+        <v>97.43</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2661,31 +2661,31 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>774</v>
+        <v>11999</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45950</v>
+        <v>45948.526076388887</v>
       </c>
       <c r="H51" s="1">
-        <v>45890</v>
+        <v>45888.526076388887</v>
       </c>
       <c r="I51" s="2">
-        <v>-14</v>
+        <v>-4.5260763888873043</v>
       </c>
       <c r="J51" s="3">
-        <v>-56.480000000000004</v>
+        <v>53.63</v>
       </c>
       <c r="K51" s="3">
-        <v>-56.480000000000004</v>
+        <v>53.63</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2702,31 +2702,31 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>775</v>
+        <v>12000</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45950</v>
+        <v>45948.526099537034</v>
       </c>
       <c r="H52" s="1">
-        <v>45890</v>
+        <v>45888.526099537034</v>
       </c>
       <c r="I52" s="2">
-        <v>-14</v>
+        <v>-4.5260995370335877</v>
       </c>
       <c r="J52" s="3">
-        <v>-4.8500000000000005</v>
+        <v>140.37</v>
       </c>
       <c r="K52" s="3">
-        <v>-4.8500000000000005</v>
+        <v>140.37</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2749,25 +2749,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>12127</v>
+        <v>12001</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45950.595092592594</v>
+        <v>45948.52612268518</v>
       </c>
       <c r="H53" s="1">
-        <v>45890.595092592594</v>
+        <v>45888.52612268518</v>
       </c>
       <c r="I53" s="2">
-        <v>-14.595092592593573</v>
+        <v>-4.526122685179871</v>
       </c>
       <c r="J53" s="3">
-        <v>54.92</v>
+        <v>212.85</v>
       </c>
       <c r="K53" s="3">
-        <v>54.92</v>
+        <v>212.85</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2784,31 +2784,31 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>2025</v>
       </c>
       <c r="E54">
-        <v>12215</v>
+        <v>774</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45951.693171296298</v>
+        <v>45950</v>
       </c>
       <c r="H54" s="1">
-        <v>45891.693749999999</v>
+        <v>45890</v>
       </c>
       <c r="I54" s="2">
-        <v>-15.693171296297805</v>
+        <v>-6</v>
       </c>
       <c r="J54" s="3">
-        <v>90.44</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="K54" s="3">
-        <v>90.44</v>
+        <v>-56.480000000000004</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2825,31 +2825,31 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>2025</v>
       </c>
       <c r="E55">
-        <v>12220</v>
+        <v>775</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45954.431423611109</v>
+        <v>45950</v>
       </c>
       <c r="H55" s="1">
-        <v>45894.431423611109</v>
+        <v>45890</v>
       </c>
       <c r="I55" s="2">
-        <v>-18.431423611109494</v>
+        <v>-6</v>
       </c>
       <c r="J55" s="3">
-        <v>471.83</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="K55" s="3">
-        <v>471.83</v>
+        <v>-4.8500000000000005</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2872,25 +2872,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>12221</v>
+        <v>12127</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45954.431446759256</v>
+        <v>45950.595092592594</v>
       </c>
       <c r="H56" s="1">
-        <v>45894.431446759256</v>
+        <v>45890.595092592594</v>
       </c>
       <c r="I56" s="2">
-        <v>-18.431446759255778</v>
+        <v>-6.5950925925935735</v>
       </c>
       <c r="J56" s="3">
-        <v>219.04</v>
+        <v>54.92</v>
       </c>
       <c r="K56" s="3">
-        <v>219.04</v>
+        <v>54.92</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2913,25 +2913,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>12247</v>
+        <v>12215</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45955.347881944443</v>
+        <v>45951.693171296298</v>
       </c>
       <c r="H57" s="1">
-        <v>45895.347893518519</v>
+        <v>45891.693749999999</v>
       </c>
       <c r="I57" s="2">
-        <v>-19.347881944442634</v>
+        <v>-7.6931712962978054</v>
       </c>
       <c r="J57" s="3">
-        <v>289.57</v>
+        <v>90.44</v>
       </c>
       <c r="K57" s="3">
-        <v>289.57</v>
+        <v>90.44</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2954,25 +2954,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>12366</v>
+        <v>12220</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45957.397465277776</v>
+        <v>45954.431423611109</v>
       </c>
       <c r="H58" s="1">
-        <v>45897.397476851853</v>
+        <v>45894.431423611109</v>
       </c>
       <c r="I58" s="2">
-        <v>-21.397465277776064</v>
+        <v>-10.431423611109494</v>
       </c>
       <c r="J58" s="3">
-        <v>208.44</v>
+        <v>471.83</v>
       </c>
       <c r="K58" s="3">
-        <v>208.44</v>
+        <v>471.83</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -2989,31 +2989,31 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>824</v>
+        <v>12221</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45961</v>
+        <v>45954.431446759256</v>
       </c>
       <c r="H59" s="1">
-        <v>45901</v>
+        <v>45894.431446759256</v>
       </c>
       <c r="I59" s="2">
-        <v>-25</v>
+        <v>-10.431446759255778</v>
       </c>
       <c r="J59" s="3">
-        <v>-4.82</v>
+        <v>219.04</v>
       </c>
       <c r="K59" s="3">
-        <v>-4.82</v>
+        <v>219.04</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3036,25 +3036,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>12471</v>
+        <v>12247</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45961.437303240738</v>
+        <v>45955.347881944443</v>
       </c>
       <c r="H60" s="1">
-        <v>45901.437303240738</v>
+        <v>45895.347893518519</v>
       </c>
       <c r="I60" s="2">
-        <v>-25.437303240738402</v>
+        <v>-11.347881944442634</v>
       </c>
       <c r="J60" s="3">
-        <v>513.09</v>
+        <v>289.57</v>
       </c>
       <c r="K60" s="3">
-        <v>513.09</v>
+        <v>289.57</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3077,25 +3077,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>12509</v>
+        <v>12366</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45962.411041666666</v>
+        <v>45957.397465277776</v>
       </c>
       <c r="H61" s="1">
-        <v>45902.411759259259</v>
+        <v>45897.397476851853</v>
       </c>
       <c r="I61" s="2">
-        <v>-26.411041666666279</v>
+        <v>-13.397465277776064</v>
       </c>
       <c r="J61" s="3">
-        <v>128.47</v>
+        <v>208.44</v>
       </c>
       <c r="K61" s="3">
-        <v>128.47</v>
+        <v>208.44</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3112,31 +3112,31 @@
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>2025</v>
       </c>
       <c r="E62">
-        <v>12568</v>
+        <v>824</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45963.458773148144</v>
+        <v>45961</v>
       </c>
       <c r="H62" s="1">
-        <v>45903.458773148144</v>
+        <v>45901</v>
       </c>
       <c r="I62" s="2">
-        <v>-27.458773148144246</v>
+        <v>-17</v>
       </c>
       <c r="J62" s="3">
-        <v>50.21</v>
+        <v>-4.82</v>
       </c>
       <c r="K62" s="3">
-        <v>50.21</v>
+        <v>-4.82</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3159,25 +3159,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>12618</v>
+        <v>12471</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45964.490069444444</v>
+        <v>45961.437303240738</v>
       </c>
       <c r="H63" s="1">
-        <v>45904.490740740737</v>
+        <v>45901.437303240738</v>
       </c>
       <c r="I63" s="2">
-        <v>-28.490069444444089</v>
+        <v>-17.437303240738402</v>
       </c>
       <c r="J63" s="3">
-        <v>286.05</v>
+        <v>513.09</v>
       </c>
       <c r="K63" s="3">
-        <v>286.05</v>
+        <v>513.09</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3200,25 +3200,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>12691</v>
+        <v>12509</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45968.456053240741</v>
+        <v>45962.411041666666</v>
       </c>
       <c r="H64" s="1">
-        <v>45908.456064814811</v>
+        <v>45902.411759259259</v>
       </c>
       <c r="I64" s="2">
-        <v>-32.456053240741312</v>
+        <v>-18.411041666666279</v>
       </c>
       <c r="J64" s="3">
-        <v>110.88</v>
+        <v>128.47</v>
       </c>
       <c r="K64" s="3">
-        <v>110.88</v>
+        <v>128.47</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3241,25 +3241,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>12703</v>
+        <v>12568</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45968.466249999998</v>
+        <v>45963.458773148144</v>
       </c>
       <c r="H65" s="1">
-        <v>45908.467557870368</v>
+        <v>45903.458773148144</v>
       </c>
       <c r="I65" s="2">
-        <v>-32.466249999997672</v>
+        <v>-19.458773148144246</v>
       </c>
       <c r="J65" s="3">
-        <v>414.35</v>
+        <v>50.21</v>
       </c>
       <c r="K65" s="3">
-        <v>414.35</v>
+        <v>50.21</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3282,25 +3282,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>12755</v>
+        <v>12618</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45969.482951388884</v>
+        <v>45964.490069444444</v>
       </c>
       <c r="H66" s="1">
-        <v>45909.482951388884</v>
+        <v>45904.490740740737</v>
       </c>
       <c r="I66" s="2">
-        <v>-33.482951388883521</v>
+        <v>-20.490069444444089</v>
       </c>
       <c r="J66" s="3">
-        <v>183.26</v>
+        <v>286.05</v>
       </c>
       <c r="K66" s="3">
-        <v>183.26</v>
+        <v>286.05</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3323,25 +3323,25 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>12756</v>
+        <v>12691</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45969.482974537037</v>
+        <v>45968.456053240741</v>
       </c>
       <c r="H67" s="1">
-        <v>45909.482974537037</v>
+        <v>45908.456064814811</v>
       </c>
       <c r="I67" s="2">
-        <v>-33.48297453703708</v>
+        <v>-24.456053240741312</v>
       </c>
       <c r="J67" s="3">
-        <v>101.91</v>
+        <v>110.88</v>
       </c>
       <c r="K67" s="3">
-        <v>101.91</v>
+        <v>110.88</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -3364,25 +3364,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>12804</v>
+        <v>12703</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45970.484317129631</v>
+        <v>45968.466249999998</v>
       </c>
       <c r="H68" s="1">
-        <v>45910.4843287037</v>
+        <v>45908.467557870368</v>
       </c>
       <c r="I68" s="2">
-        <v>-34.484317129630654</v>
+        <v>-24.466249999997672</v>
       </c>
       <c r="J68" s="3">
-        <v>182.32</v>
+        <v>414.35</v>
       </c>
       <c r="K68" s="3">
-        <v>182.32</v>
+        <v>414.35</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3405,25 +3405,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>12837</v>
+        <v>12755</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45971.366631944446</v>
+        <v>45969.482951388884</v>
       </c>
       <c r="H69" s="1">
-        <v>45911.366631944446</v>
+        <v>45909.482951388884</v>
       </c>
       <c r="I69" s="2">
-        <v>-35.366631944445544</v>
+        <v>-25.482951388883521</v>
       </c>
       <c r="J69" s="3">
-        <v>146.12</v>
+        <v>183.26</v>
       </c>
       <c r="K69" s="3">
-        <v>146.12</v>
+        <v>183.26</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3440,31 +3440,31 @@
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
       </c>
       <c r="E70">
-        <v>869</v>
+        <v>12756</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45976</v>
+        <v>45969.482974537037</v>
       </c>
       <c r="H70" s="1">
-        <v>45916</v>
+        <v>45909.482974537037</v>
       </c>
       <c r="I70" s="2">
-        <v>-40</v>
+        <v>-25.48297453703708</v>
       </c>
       <c r="J70" s="3">
-        <v>-13.21</v>
+        <v>101.91</v>
       </c>
       <c r="K70" s="3">
-        <v>-13.21</v>
+        <v>101.91</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3487,25 +3487,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>12952</v>
+        <v>12804</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45976.371041666665</v>
+        <v>45970.484317129631</v>
       </c>
       <c r="H71" s="1">
-        <v>45916.371041666665</v>
+        <v>45910.4843287037</v>
       </c>
       <c r="I71" s="2">
-        <v>-40.371041666665406</v>
+        <v>-26.484317129630654</v>
       </c>
       <c r="J71" s="3">
-        <v>60.120000000000005</v>
+        <v>182.32</v>
       </c>
       <c r="K71" s="3">
-        <v>60.120000000000005</v>
+        <v>182.32</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3528,25 +3528,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>12982</v>
+        <v>12837</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45976.428738425922</v>
+        <v>45971.366631944446</v>
       </c>
       <c r="H72" s="1">
-        <v>45916.428738425922</v>
+        <v>45911.366631944446</v>
       </c>
       <c r="I72" s="2">
-        <v>-40.428738425922347</v>
+        <v>-27.366631944445544</v>
       </c>
       <c r="J72" s="3">
-        <v>314.78000000000003</v>
+        <v>146.12</v>
       </c>
       <c r="K72" s="3">
-        <v>314.78000000000003</v>
+        <v>146.12</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3569,25 +3569,25 @@
         <v>2025</v>
       </c>
       <c r="E73">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45977</v>
+        <v>45976</v>
       </c>
       <c r="H73" s="1">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="I73" s="2">
-        <v>-41</v>
+        <v>-32</v>
       </c>
       <c r="J73" s="3">
-        <v>-18.150000000000002</v>
+        <v>-13.21</v>
       </c>
       <c r="K73" s="3">
-        <v>-18.150000000000002</v>
+        <v>-13.21</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3610,25 +3610,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>13085</v>
+        <v>12952</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45977.492696759255</v>
+        <v>45976.371041666665</v>
       </c>
       <c r="H74" s="1">
-        <v>45917.493043981478</v>
+        <v>45916.371041666665</v>
       </c>
       <c r="I74" s="2">
-        <v>-41.492696759254613</v>
+        <v>-32.371041666665406</v>
       </c>
       <c r="J74" s="3">
-        <v>261.24</v>
+        <v>60.120000000000005</v>
       </c>
       <c r="K74" s="3">
-        <v>261.24</v>
+        <v>60.120000000000005</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3651,25 +3651,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>13086</v>
+        <v>12982</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45977.49319444444</v>
+        <v>45976.428738425922</v>
       </c>
       <c r="H75" s="1">
-        <v>45917.495011574072</v>
+        <v>45916.428738425922</v>
       </c>
       <c r="I75" s="2">
-        <v>-41.493194444439723</v>
+        <v>-32.428738425922347</v>
       </c>
       <c r="J75" s="3">
-        <v>62.53</v>
+        <v>314.78000000000003</v>
       </c>
       <c r="K75" s="3">
-        <v>62.53</v>
+        <v>314.78000000000003</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3686,31 +3686,31 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
       </c>
       <c r="E76">
-        <v>13099</v>
+        <v>871</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45977.5465162037</v>
+        <v>45977</v>
       </c>
       <c r="H76" s="1">
-        <v>45917.547303240739</v>
+        <v>45917</v>
       </c>
       <c r="I76" s="2">
-        <v>-41.546516203699866</v>
+        <v>-33</v>
       </c>
       <c r="J76" s="3">
-        <v>19.98</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="K76" s="3">
-        <v>19.98</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3733,25 +3733,25 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>13100</v>
+        <v>13085</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45977.547442129631</v>
+        <v>45977.492696759255</v>
       </c>
       <c r="H77" s="1">
-        <v>45917.547754629624</v>
+        <v>45917.493043981478</v>
       </c>
       <c r="I77" s="2">
-        <v>-41.547442129631236</v>
+        <v>-33.492696759254613</v>
       </c>
       <c r="J77" s="3">
-        <v>264.92</v>
+        <v>261.24</v>
       </c>
       <c r="K77" s="3">
-        <v>264.92</v>
+        <v>261.24</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3774,25 +3774,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>13184</v>
+        <v>13086</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45979.401666666665</v>
+        <v>45977.49319444444</v>
       </c>
       <c r="H78" s="1">
-        <v>45919.401678240742</v>
+        <v>45917.495011574072</v>
       </c>
       <c r="I78" s="2">
-        <v>-43.401666666664823</v>
+        <v>-33.493194444439723</v>
       </c>
       <c r="J78" s="3">
-        <v>81.41</v>
+        <v>62.53</v>
       </c>
       <c r="K78" s="3">
-        <v>81.41</v>
+        <v>62.53</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3815,25 +3815,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>13198</v>
+        <v>13099</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45979.583379629628</v>
+        <v>45977.5465162037</v>
       </c>
       <c r="H79" s="1">
-        <v>45919.584699074076</v>
+        <v>45917.547303240739</v>
       </c>
       <c r="I79" s="2">
-        <v>-43.583379629628325</v>
+        <v>-33.546516203699866</v>
       </c>
       <c r="J79" s="3">
-        <v>179.69</v>
+        <v>19.98</v>
       </c>
       <c r="K79" s="3">
-        <v>179.69</v>
+        <v>19.98</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3856,25 +3856,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>13240</v>
+        <v>13100</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45983.354143518518</v>
+        <v>45977.547442129631</v>
       </c>
       <c r="H80" s="1">
-        <v>45923.354942129627</v>
+        <v>45917.547754629624</v>
       </c>
       <c r="I80" s="2">
-        <v>-47.354143518517958</v>
+        <v>-33.547442129631236</v>
       </c>
       <c r="J80" s="3">
-        <v>86.14</v>
+        <v>264.92</v>
       </c>
       <c r="K80" s="3">
-        <v>86.14</v>
+        <v>264.92</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3897,25 +3897,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>13252</v>
+        <v>13184</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45983.394085648149</v>
+        <v>45979.401666666665</v>
       </c>
       <c r="H81" s="1">
-        <v>45923.395983796298</v>
+        <v>45919.401678240742</v>
       </c>
       <c r="I81" s="2">
-        <v>-47.394085648149485</v>
+        <v>-35.401666666664823</v>
       </c>
       <c r="J81" s="3">
-        <v>421.83</v>
+        <v>81.41</v>
       </c>
       <c r="K81" s="3">
-        <v>421.83</v>
+        <v>81.41</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3932,31 +3932,31 @@
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>880</v>
+        <v>13198</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45985</v>
+        <v>45979.583379629628</v>
       </c>
       <c r="H82" s="1">
-        <v>45925</v>
+        <v>45919.584699074076</v>
       </c>
       <c r="I82" s="2">
-        <v>-49</v>
+        <v>-35.583379629628325</v>
       </c>
       <c r="J82" s="3">
-        <v>-63.27</v>
+        <v>179.69</v>
       </c>
       <c r="K82" s="3">
-        <v>-63.27</v>
+        <v>179.69</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3979,25 +3979,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>13351</v>
+        <v>13240</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45985.368807870371</v>
+        <v>45983.354143518518</v>
       </c>
       <c r="H83" s="1">
-        <v>45925.369293981479</v>
+        <v>45923.354942129627</v>
       </c>
       <c r="I83" s="2">
-        <v>-49.368807870370802</v>
+        <v>-39.354143518517958</v>
       </c>
       <c r="J83" s="3">
-        <v>254.13</v>
+        <v>86.14</v>
       </c>
       <c r="K83" s="3">
-        <v>254.13</v>
+        <v>86.14</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4020,25 +4020,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>13462</v>
+        <v>13252</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45990.338275462964</v>
+        <v>45983.394085648149</v>
       </c>
       <c r="H84" s="1">
-        <v>45930.338923611111</v>
+        <v>45923.395983796298</v>
       </c>
       <c r="I84" s="2">
-        <v>-54.338275462963793</v>
+        <v>-39.394085648149485</v>
       </c>
       <c r="J84" s="3">
-        <v>229.78</v>
+        <v>421.83</v>
       </c>
       <c r="K84" s="3">
-        <v>229.78</v>
+        <v>421.83</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4055,31 +4055,31 @@
         <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>2025</v>
       </c>
       <c r="E85">
-        <v>13480</v>
+        <v>880</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45990.352280092593</v>
+        <v>45985</v>
       </c>
       <c r="H85" s="1">
-        <v>45930.352638888886</v>
+        <v>45925</v>
       </c>
       <c r="I85" s="2">
-        <v>-54.352280092592991</v>
+        <v>-41</v>
       </c>
       <c r="J85" s="3">
-        <v>163.55000000000001</v>
+        <v>-63.27</v>
       </c>
       <c r="K85" s="3">
-        <v>163.55000000000001</v>
+        <v>-63.27</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4102,25 +4102,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>13498</v>
+        <v>13351</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45990.368750000001</v>
+        <v>45985.368807870371</v>
       </c>
       <c r="H86" s="1">
-        <v>45930.369108796294</v>
+        <v>45925.369293981479</v>
       </c>
       <c r="I86" s="2">
-        <v>-54.368750000001455</v>
+        <v>-41.368807870370802</v>
       </c>
       <c r="J86" s="3">
-        <v>112.15</v>
+        <v>254.13</v>
       </c>
       <c r="K86" s="3">
-        <v>112.15</v>
+        <v>254.13</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4143,25 +4143,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>13570</v>
+        <v>13462</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45992.384363425925</v>
+        <v>45990.338275462964</v>
       </c>
       <c r="H87" s="1">
-        <v>45932.385370370372</v>
+        <v>45930.338923611111</v>
       </c>
       <c r="I87" s="2">
-        <v>-56.384363425924676</v>
+        <v>-46.338275462963793</v>
       </c>
       <c r="J87" s="3">
-        <v>325.26</v>
+        <v>229.78</v>
       </c>
       <c r="K87" s="3">
-        <v>325.26</v>
+        <v>229.78</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4184,25 +4184,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>13585</v>
+        <v>13480</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45992.406064814815</v>
+        <v>45990.352280092593</v>
       </c>
       <c r="H88" s="1">
-        <v>45932.406597222223</v>
+        <v>45930.352638888886</v>
       </c>
       <c r="I88" s="2">
-        <v>-56.406064814815181</v>
+        <v>-46.352280092592991</v>
       </c>
       <c r="J88" s="3">
-        <v>262.31</v>
+        <v>163.55000000000001</v>
       </c>
       <c r="K88" s="3">
-        <v>262.31</v>
+        <v>163.55000000000001</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4213,10 +4213,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4225,39 +4225,39 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>10687</v>
+        <v>13498</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45885.468888888885</v>
+        <v>45990.368750000001</v>
       </c>
       <c r="H89" s="1">
-        <v>45855.468888888885</v>
+        <v>45930.369108796294</v>
       </c>
       <c r="I89" s="2">
-        <v>50.531111111115024</v>
+        <v>-46.368750000001455</v>
       </c>
       <c r="J89" s="3">
-        <v>542.13</v>
+        <v>112.15</v>
       </c>
       <c r="K89" s="3">
-        <v>542.13</v>
+        <v>112.15</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4266,25 +4266,25 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>11880</v>
+        <v>13570</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45943.403854166667</v>
+        <v>45992.384363425925</v>
       </c>
       <c r="H90" s="1">
-        <v>45883.403854166667</v>
+        <v>45932.385370370372</v>
       </c>
       <c r="I90" s="2">
-        <v>-7.4038541666668607</v>
+        <v>-48.384363425924676</v>
       </c>
       <c r="J90" s="3">
-        <v>248.76000000000002</v>
+        <v>325.26</v>
       </c>
       <c r="K90" s="3">
-        <v>248.76000000000002</v>
+        <v>325.26</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4295,10 +4295,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4307,25 +4307,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11881</v>
+        <v>13585</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45943.405740740738</v>
+        <v>45992.406064814815</v>
       </c>
       <c r="H91" s="1">
-        <v>45883.405740740738</v>
+        <v>45932.406597222223</v>
       </c>
       <c r="I91" s="2">
-        <v>-7.4057407407381106</v>
+        <v>-48.406064814815181</v>
       </c>
       <c r="J91" s="3">
-        <v>115.78</v>
+        <v>262.31</v>
       </c>
       <c r="K91" s="3">
-        <v>115.78</v>
+        <v>262.31</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4336,37 +4336,37 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>2025</v>
       </c>
       <c r="E92">
-        <v>12370</v>
+        <v>904</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45957.431041666663</v>
+        <v>45993</v>
       </c>
       <c r="H92" s="1">
-        <v>45897.431041666663</v>
+        <v>45933</v>
       </c>
       <c r="I92" s="2">
-        <v>-21.431041666663077</v>
+        <v>-49</v>
       </c>
       <c r="J92" s="3">
-        <v>424.02</v>
+        <v>-19.27</v>
       </c>
       <c r="K92" s="3">
-        <v>424.02</v>
+        <v>-19.27</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112043</v>
+        <v>211111878</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4389,25 +4389,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>12513</v>
+        <v>13721</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45962.418460648143</v>
+        <v>45997.374594907407</v>
       </c>
       <c r="H93" s="1">
-        <v>45902.41847222222</v>
+        <v>45937.37532407407</v>
       </c>
       <c r="I93" s="2">
-        <v>-26.418460648143082</v>
+        <v>-53.3745949074073</v>
       </c>
       <c r="J93" s="3">
-        <v>539.91</v>
+        <v>281.93</v>
       </c>
       <c r="K93" s="3">
-        <v>539.91</v>
+        <v>281.93</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4418,92 +4418,92 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94">
-        <v>326</v>
+        <v>13722</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45777</v>
+        <v>45997.375972222224</v>
       </c>
       <c r="H94" s="1">
-        <v>45747</v>
+        <v>45937.376655092594</v>
       </c>
       <c r="I94" s="2">
-        <v>159</v>
+        <v>-53.375972222223936</v>
       </c>
       <c r="J94" s="3">
-        <v>-22</v>
+        <v>618.26</v>
       </c>
       <c r="K94" s="3">
-        <v>-22</v>
+        <v>618.26</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95">
-        <v>327</v>
+        <v>13723</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45777</v>
+        <v>45997.377557870372</v>
       </c>
       <c r="H95" s="1">
-        <v>45747</v>
+        <v>45937.377986111111</v>
       </c>
       <c r="I95" s="2">
-        <v>159</v>
+        <v>-53.377557870371675</v>
       </c>
       <c r="J95" s="3">
-        <v>-27.45</v>
+        <v>900.14</v>
       </c>
       <c r="K95" s="3">
-        <v>-27.45</v>
+        <v>900.14</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112050</v>
+        <v>211111878</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
         <v>21</v>
@@ -4512,121 +4512,121 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>328</v>
+        <v>595</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45777</v>
+        <v>45998</v>
       </c>
       <c r="H96" s="1">
-        <v>45747</v>
+        <v>45938</v>
       </c>
       <c r="I96" s="2">
-        <v>159</v>
+        <v>-54</v>
       </c>
       <c r="J96" s="3">
-        <v>-5.73</v>
+        <v>-25.240000000000002</v>
       </c>
       <c r="K96" s="3">
-        <v>-5.73</v>
+        <v>-25.240000000000002</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>13810</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45922</v>
+        <v>45998.508958333332</v>
       </c>
       <c r="H97" s="1">
-        <v>45862</v>
+        <v>45938.510034722218</v>
       </c>
       <c r="I97" s="2">
-        <v>14</v>
+        <v>-54.508958333331975</v>
       </c>
       <c r="J97" s="3">
-        <v>-15.38</v>
+        <v>304.13</v>
       </c>
       <c r="K97" s="3">
-        <v>-15.38</v>
+        <v>304.13</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
       </c>
       <c r="E98">
-        <v>682</v>
+        <v>13811</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45922</v>
+        <v>45998.510219907403</v>
       </c>
       <c r="H98" s="1">
-        <v>45862</v>
+        <v>45938.515081018515</v>
       </c>
       <c r="I98" s="2">
-        <v>14</v>
+        <v>-54.510219907402643</v>
       </c>
       <c r="J98" s="3">
-        <v>-606.93000000000006</v>
+        <v>609.88</v>
       </c>
       <c r="K98" s="3">
-        <v>-606.93000000000006</v>
+        <v>609.88</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4635,39 +4635,39 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>11013</v>
+        <v>13812</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45923.283518518518</v>
+        <v>45998.516458333332</v>
       </c>
       <c r="H99" s="1">
-        <v>45863.287939814814</v>
+        <v>45938.517025462963</v>
       </c>
       <c r="I99" s="2">
-        <v>12.716481481482333</v>
+        <v>-54.516458333331684</v>
       </c>
       <c r="J99" s="3">
-        <v>417.19</v>
+        <v>846.47</v>
       </c>
       <c r="K99" s="3">
-        <v>417.19</v>
+        <v>846.47</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4676,39 +4676,39 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>11085</v>
+        <v>13856</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45923.645879629628</v>
+        <v>45999.445358796293</v>
       </c>
       <c r="H100" s="1">
-        <v>45863.645879629628</v>
+        <v>45939.450486111113</v>
       </c>
       <c r="I100" s="2">
-        <v>12.354120370371675</v>
+        <v>-55.445358796292567</v>
       </c>
       <c r="J100" s="3">
-        <v>726.19</v>
+        <v>98.47</v>
       </c>
       <c r="K100" s="3">
-        <v>726.19</v>
+        <v>98.47</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112052</v>
+        <v>211111878</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4717,25 +4717,25 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>11609</v>
+        <v>13857</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45937.476863425924</v>
+        <v>45999.455092592594</v>
       </c>
       <c r="H101" s="1">
-        <v>45877.477210648147</v>
+        <v>45939.456967592589</v>
       </c>
       <c r="I101" s="2">
-        <v>-1.4768634259235114</v>
+        <v>-55.455092592594156</v>
       </c>
       <c r="J101" s="3">
-        <v>957.27</v>
+        <v>54.76</v>
       </c>
       <c r="K101" s="3">
-        <v>957.27</v>
+        <v>54.76</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4746,78 +4746,78 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
       </c>
       <c r="E102">
-        <v>794</v>
+        <v>10687</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45955</v>
+        <v>45885.468888888885</v>
       </c>
       <c r="H102" s="1">
-        <v>45895</v>
+        <v>45855.468888888885</v>
       </c>
       <c r="I102" s="2">
-        <v>-19</v>
+        <v>58.531111111115024</v>
       </c>
       <c r="J102" s="3">
-        <v>-13.25</v>
+        <v>542.13</v>
       </c>
       <c r="K102" s="3">
-        <v>-13.25</v>
+        <v>542.13</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>795</v>
+        <v>11880</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45955</v>
+        <v>45943.403854166667</v>
       </c>
       <c r="H103" s="1">
-        <v>45895</v>
+        <v>45883.403854166667</v>
       </c>
       <c r="I103" s="2">
-        <v>-19</v>
+        <v>0.59614583333313931</v>
       </c>
       <c r="J103" s="3">
-        <v>-250.03</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="K103" s="3">
-        <v>-250.03</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -4828,37 +4828,37 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
       </c>
       <c r="E104">
-        <v>839</v>
+        <v>11881</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45965</v>
+        <v>45943.405740740738</v>
       </c>
       <c r="H104" s="1">
-        <v>45905</v>
+        <v>45883.405740740738</v>
       </c>
       <c r="I104" s="2">
-        <v>-29</v>
+        <v>0.59425925926188938</v>
       </c>
       <c r="J104" s="3">
-        <v>-18.150000000000002</v>
+        <v>115.78</v>
       </c>
       <c r="K104" s="3">
-        <v>-18.150000000000002</v>
+        <v>115.78</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4881,25 +4881,25 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>12638</v>
+        <v>12370</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45965.438287037032</v>
+        <v>45957.431041666663</v>
       </c>
       <c r="H105" s="1">
-        <v>45905.438854166663</v>
+        <v>45897.431041666663</v>
       </c>
       <c r="I105" s="2">
-        <v>-29.438287037031841</v>
+        <v>-13.431041666663077</v>
       </c>
       <c r="J105" s="3">
-        <v>982.94</v>
+        <v>424.02</v>
       </c>
       <c r="K105" s="3">
-        <v>982.94</v>
+        <v>424.02</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112052</v>
+        <v>211112043</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4922,25 +4922,25 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>12831</v>
+        <v>12513</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45971.32534722222</v>
+        <v>45962.418460648143</v>
       </c>
       <c r="H106" s="1">
-        <v>45911.325358796297</v>
+        <v>45902.41847222222</v>
       </c>
       <c r="I106" s="2">
-        <v>-35.325347222220444</v>
+        <v>-18.418460648143082</v>
       </c>
       <c r="J106" s="3">
-        <v>383.06</v>
+        <v>539.91</v>
       </c>
       <c r="K106" s="3">
-        <v>383.06</v>
+        <v>539.91</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -4951,133 +4951,133 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
       </c>
       <c r="E107">
-        <v>13102</v>
+        <v>326</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45977.582523148143</v>
+        <v>45777</v>
       </c>
       <c r="H107" s="1">
-        <v>45917.583622685182</v>
+        <v>45747</v>
       </c>
       <c r="I107" s="2">
-        <v>-41.582523148143082</v>
+        <v>167</v>
       </c>
       <c r="J107" s="3">
-        <v>242.06</v>
+        <v>-22</v>
       </c>
       <c r="K107" s="3">
-        <v>242.06</v>
+        <v>-22</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108">
-        <v>13196</v>
+        <v>327</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45979.259525462963</v>
+        <v>45777</v>
       </c>
       <c r="H108" s="1">
-        <v>45919.518483796295</v>
+        <v>45747</v>
       </c>
       <c r="I108" s="2">
-        <v>-43.259525462963211</v>
+        <v>167</v>
       </c>
       <c r="J108" s="3">
-        <v>556.75</v>
+        <v>-27.45</v>
       </c>
       <c r="K108" s="3">
-        <v>556.75</v>
+        <v>-27.45</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112052</v>
+        <v>211112050</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109">
-        <v>13329</v>
+        <v>328</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45984.375659722224</v>
+        <v>45777</v>
       </c>
       <c r="H109" s="1">
-        <v>45924.395439814813</v>
+        <v>45747</v>
       </c>
       <c r="I109" s="2">
-        <v>-48.375659722223645</v>
+        <v>167</v>
       </c>
       <c r="J109" s="3">
-        <v>805.08</v>
+        <v>-5.73</v>
       </c>
       <c r="K109" s="3">
-        <v>805.08</v>
+        <v>-5.73</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5086,66 +5086,66 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>11783</v>
+        <v>11609</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45912.363032407404</v>
+        <v>45937.476863425924</v>
       </c>
       <c r="H110" s="1">
-        <v>45882.363032407404</v>
+        <v>45877.477210648147</v>
       </c>
       <c r="I110" s="2">
-        <v>23.636967592596193</v>
+        <v>6.5231365740764886</v>
       </c>
       <c r="J110" s="3">
-        <v>468.88</v>
+        <v>957.27</v>
       </c>
       <c r="K110" s="3">
-        <v>468.88</v>
+        <v>957.27</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D111">
+        <v>2025</v>
       </c>
       <c r="E111">
-        <v>12871</v>
+        <v>794</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45941.701736111107</v>
+        <v>45955</v>
       </c>
       <c r="H111" s="1">
-        <v>45911.701736111107</v>
+        <v>45895</v>
       </c>
       <c r="I111" s="2">
-        <v>-5.7017361111065838</v>
+        <v>-11</v>
       </c>
       <c r="J111" s="3">
-        <v>148.14000000000001</v>
+        <v>-13.25</v>
       </c>
       <c r="K111" s="3">
-        <v>148.14000000000001</v>
+        <v>-13.25</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -5156,37 +5156,37 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112098</v>
+        <v>211112052</v>
       </c>
       <c r="B112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
       </c>
-      <c r="D112" t="s">
-        <v>15</v>
+      <c r="D112">
+        <v>2025</v>
       </c>
       <c r="E112">
-        <v>585</v>
+        <v>795</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45960</v>
+        <v>45955</v>
       </c>
       <c r="H112" s="1">
-        <v>45930</v>
+        <v>45895</v>
       </c>
       <c r="I112" s="2">
-        <v>-24</v>
+        <v>-11</v>
       </c>
       <c r="J112" s="3">
-        <v>-39.46</v>
+        <v>-250.03</v>
       </c>
       <c r="K112" s="3">
-        <v>-39.46</v>
+        <v>-250.03</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -5197,37 +5197,37 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D113">
+        <v>2025</v>
       </c>
       <c r="E113">
-        <v>11469</v>
+        <v>839</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45935.331585648149</v>
+        <v>45965</v>
       </c>
       <c r="H113" s="1">
-        <v>45875.332268518519</v>
+        <v>45905</v>
       </c>
       <c r="I113" s="2">
-        <v>0.66841435185051523</v>
+        <v>-21</v>
       </c>
       <c r="J113" s="3">
-        <v>2536.7800000000002</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="K113" s="3">
-        <v>2536.7800000000002</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5250,25 +5250,25 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>11470</v>
+        <v>12638</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45935.332488425927</v>
+        <v>45965.438287037032</v>
       </c>
       <c r="H114" s="1">
-        <v>45875.332824074074</v>
+        <v>45905.438854166663</v>
       </c>
       <c r="I114" s="2">
-        <v>0.66751157407270512</v>
+        <v>-21.438287037031841</v>
       </c>
       <c r="J114" s="3">
-        <v>1486.91</v>
+        <v>982.94</v>
       </c>
       <c r="K114" s="3">
-        <v>1486.91</v>
+        <v>982.94</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -5279,37 +5279,37 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E115">
-        <v>10</v>
+        <v>12831</v>
       </c>
       <c r="F115" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45942</v>
+        <v>45971.32534722222</v>
       </c>
       <c r="H115" s="1">
-        <v>45882</v>
+        <v>45911.325358796297</v>
       </c>
       <c r="I115" s="2">
-        <v>-6</v>
+        <v>-27.325347222220444</v>
       </c>
       <c r="J115" s="3">
-        <v>-30.75</v>
+        <v>383.06</v>
       </c>
       <c r="K115" s="3">
-        <v>-30.75</v>
+        <v>383.06</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -5320,10 +5320,10 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -5332,25 +5332,25 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>11860</v>
+        <v>13102</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45942.619097222218</v>
+        <v>45977.582523148143</v>
       </c>
       <c r="H116" s="1">
-        <v>45882.62773148148</v>
+        <v>45917.583622685182</v>
       </c>
       <c r="I116" s="2">
-        <v>-6.6190972222175333</v>
+        <v>-33.582523148143082</v>
       </c>
       <c r="J116" s="3">
-        <v>3031.57</v>
+        <v>242.06</v>
       </c>
       <c r="K116" s="3">
-        <v>3031.57</v>
+        <v>242.06</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -5361,37 +5361,37 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E117">
-        <v>153</v>
+        <v>13196</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45942.62940972222</v>
+        <v>45979.259525462963</v>
       </c>
       <c r="H117" s="1">
-        <v>45882.629641203705</v>
+        <v>45919.518483796295</v>
       </c>
       <c r="I117" s="2">
-        <v>-6.6294097222198616</v>
+        <v>-35.259525462963211</v>
       </c>
       <c r="J117" s="3">
-        <v>1558.65</v>
+        <v>556.75</v>
       </c>
       <c r="K117" s="3">
-        <v>1558.65</v>
+        <v>556.75</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -5414,25 +5414,25 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>12581</v>
+        <v>13329</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="1">
-        <v>45963.658715277779</v>
+        <v>45984.375659722224</v>
       </c>
       <c r="H118" s="1">
-        <v>45903.659988425927</v>
+        <v>45924.395439814813</v>
       </c>
       <c r="I118" s="2">
-        <v>-27.658715277779265</v>
+        <v>-40.375659722223645</v>
       </c>
       <c r="J118" s="3">
-        <v>177.22</v>
+        <v>805.08</v>
       </c>
       <c r="K118" s="3">
-        <v>177.22</v>
+        <v>805.08</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
@@ -5443,10 +5443,10 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112151</v>
+        <v>211112052</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -5455,25 +5455,25 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>12582</v>
+        <v>13906</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45963.660312499997</v>
+        <v>46000.436759259261</v>
       </c>
       <c r="H119" s="1">
-        <v>45903.661365740736</v>
+        <v>45940.437430555554</v>
       </c>
       <c r="I119" s="2">
-        <v>-27.660312499996508</v>
+        <v>-56.436759259260725</v>
       </c>
       <c r="J119" s="3">
-        <v>3123.88</v>
+        <v>695.23</v>
       </c>
       <c r="K119" s="3">
-        <v>3123.88</v>
+        <v>695.23</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
@@ -5487,40 +5487,40 @@
         <v>211112151</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D120" t="s">
+        <v>15</v>
       </c>
       <c r="E120">
-        <v>847</v>
+        <v>11469</v>
       </c>
       <c r="F120" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>45969</v>
+        <v>45935.331585648149</v>
       </c>
       <c r="H120" s="1">
-        <v>45909</v>
+        <v>45875.332268518519</v>
       </c>
       <c r="I120" s="2">
-        <v>-33</v>
+        <v>8.6684143518505152</v>
       </c>
       <c r="J120" s="3">
-        <v>-463.14</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="K120" s="3">
-        <v>-463.14</v>
+        <v>2536.7800000000002</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
       </c>
       <c r="M120" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5528,40 +5528,40 @@
         <v>211112151</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121">
-        <v>581</v>
+        <v>11470</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>45984</v>
+        <v>45935.332488425927</v>
       </c>
       <c r="H121" s="1">
-        <v>45924</v>
+        <v>45875.332824074074</v>
       </c>
       <c r="I121" s="2">
-        <v>-48</v>
+        <v>8.6675115740727051</v>
       </c>
       <c r="J121" s="3">
-        <v>-62.32</v>
+        <v>1486.91</v>
       </c>
       <c r="K121" s="3">
-        <v>-62.32</v>
+        <v>1486.91</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
       </c>
       <c r="M121" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5569,157 +5569,157 @@
         <v>211112151</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C122" t="s">
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E122">
-        <v>582</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>45984</v>
+        <v>45942</v>
       </c>
       <c r="H122" s="1">
-        <v>45924</v>
+        <v>45882</v>
       </c>
       <c r="I122" s="2">
-        <v>-48</v>
+        <v>2</v>
       </c>
       <c r="J122" s="3">
-        <v>-112.07000000000001</v>
+        <v>-30.75</v>
       </c>
       <c r="K122" s="3">
-        <v>-112.07000000000001</v>
+        <v>-30.75</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
       </c>
       <c r="M122" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>211112183</v>
+        <v>211112151</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
       </c>
       <c r="E123">
-        <v>14</v>
+        <v>11860</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>45693</v>
+        <v>45942.619097222218</v>
       </c>
       <c r="H123" s="1">
-        <v>45663</v>
+        <v>45882.62773148148</v>
       </c>
       <c r="I123" s="2">
-        <v>243</v>
+        <v>1.3809027777824667</v>
       </c>
       <c r="J123" s="3">
-        <v>-4385.22</v>
+        <v>3031.57</v>
       </c>
       <c r="K123" s="3">
-        <v>-782.21</v>
+        <v>3031.57</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
       </c>
       <c r="M123" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E124">
-        <v>12597</v>
+        <v>153</v>
       </c>
       <c r="F124" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>45934.389282407406</v>
+        <v>45942.62940972222</v>
       </c>
       <c r="H124" s="1">
-        <v>45904.390023148146</v>
+        <v>45882.629641203705</v>
       </c>
       <c r="I124" s="2">
-        <v>1.6107175925935735</v>
+        <v>1.3705902777801384</v>
       </c>
       <c r="J124" s="3">
-        <v>1068</v>
+        <v>1558.65</v>
       </c>
       <c r="K124" s="3">
-        <v>1068</v>
+        <v>1558.65</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="E125">
-        <v>572</v>
+        <v>12581</v>
       </c>
       <c r="F125" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>45942</v>
+        <v>45963.658715277779</v>
       </c>
       <c r="H125" s="1">
-        <v>45912</v>
+        <v>45903.659988425927</v>
       </c>
       <c r="I125" s="2">
-        <v>-6</v>
+        <v>-19.658715277779265</v>
       </c>
       <c r="J125" s="3">
-        <v>-36.480000000000004</v>
+        <v>177.22</v>
       </c>
       <c r="K125" s="3">
-        <v>-36.480000000000004</v>
+        <v>177.22</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
@@ -5742,25 +5742,25 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>12876</v>
+        <v>12582</v>
       </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>45942.335138888884</v>
+        <v>45963.660312499997</v>
       </c>
       <c r="H126" s="1">
-        <v>45912.335138888884</v>
+        <v>45903.661365740736</v>
       </c>
       <c r="I126" s="2">
-        <v>-6.3351388888841029</v>
+        <v>-19.660312499996508</v>
       </c>
       <c r="J126" s="3">
-        <v>582.91</v>
+        <v>3123.88</v>
       </c>
       <c r="K126" s="3">
-        <v>582.91</v>
+        <v>3123.88</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211112216</v>
+        <v>211112151</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
@@ -5783,25 +5783,25 @@
         <v>2025</v>
       </c>
       <c r="E127">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>45953</v>
+        <v>45969</v>
       </c>
       <c r="H127" s="1">
-        <v>45923</v>
+        <v>45909</v>
       </c>
       <c r="I127" s="2">
-        <v>-17</v>
+        <v>-25</v>
       </c>
       <c r="J127" s="3">
-        <v>-7.75</v>
+        <v>-463.14</v>
       </c>
       <c r="K127" s="3">
-        <v>-7.75</v>
+        <v>-463.14</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -5812,37 +5812,37 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211112290</v>
+        <v>211112151</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128">
-        <v>11859</v>
+        <v>581</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>45942.611527777779</v>
+        <v>45984</v>
       </c>
       <c r="H128" s="1">
-        <v>45882.616122685184</v>
+        <v>45924</v>
       </c>
       <c r="I128" s="2">
-        <v>-6.6115277777789743</v>
+        <v>-40</v>
       </c>
       <c r="J128" s="3">
-        <v>1123.45</v>
+        <v>-62.32</v>
       </c>
       <c r="K128" s="3">
-        <v>1123.45</v>
+        <v>-62.32</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -5853,37 +5853,37 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211112290</v>
+        <v>211112151</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C129" t="s">
         <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E129">
-        <v>15</v>
+        <v>582</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>45970</v>
+        <v>45984</v>
       </c>
       <c r="H129" s="1">
-        <v>45910</v>
+        <v>45924</v>
       </c>
       <c r="I129" s="2">
-        <v>-34</v>
+        <v>-40</v>
       </c>
       <c r="J129" s="3">
-        <v>-30.75</v>
+        <v>-112.07000000000001</v>
       </c>
       <c r="K129" s="3">
-        <v>-30.75</v>
+        <v>-112.07000000000001</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -5894,160 +5894,160 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211112334</v>
+        <v>211112183</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C130" t="s">
-        <v>39</v>
-      </c>
-      <c r="D130" t="s">
-        <v>33</v>
-      </c>
-      <c r="E130" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="D130">
+        <v>2025</v>
+      </c>
+      <c r="E130">
+        <v>14</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>45406</v>
+        <v>45693</v>
       </c>
       <c r="H130" s="1">
-        <v>45391</v>
+        <v>45663</v>
       </c>
       <c r="I130" s="2">
-        <v>530</v>
+        <v>251</v>
       </c>
       <c r="J130" s="3">
-        <v>597.29</v>
+        <v>-4385.22</v>
       </c>
       <c r="K130" s="3">
-        <v>597.29</v>
+        <v>-782.21</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211112334</v>
+        <v>211112216</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
-      </c>
-      <c r="E131" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="E131">
+        <v>572</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="1">
-        <v>45406</v>
+        <v>45942</v>
       </c>
       <c r="H131" s="1">
-        <v>45391</v>
+        <v>45912</v>
       </c>
       <c r="I131" s="2">
-        <v>530</v>
+        <v>2</v>
       </c>
       <c r="J131" s="3">
-        <v>591.72</v>
+        <v>-36.480000000000004</v>
       </c>
       <c r="K131" s="3">
-        <v>591.72</v>
+        <v>-36.480000000000004</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211112334</v>
+        <v>211112216</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>33</v>
-      </c>
-      <c r="E132" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="E132">
+        <v>12876</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>45419</v>
+        <v>45942.335138888884</v>
       </c>
       <c r="H132" s="1">
-        <v>45404</v>
+        <v>45912.335138888884</v>
       </c>
       <c r="I132" s="2">
-        <v>517</v>
+        <v>1.6648611111158971</v>
       </c>
       <c r="J132" s="3">
-        <v>599.27</v>
+        <v>582.91</v>
       </c>
       <c r="K132" s="3">
-        <v>599.27</v>
+        <v>582.91</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211112334</v>
+        <v>211112290</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C133" t="s">
-        <v>53</v>
-      </c>
-      <c r="D133">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
       </c>
       <c r="E133">
-        <v>91</v>
+        <v>11859</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>45906</v>
+        <v>45942.611527777779</v>
       </c>
       <c r="H133" s="1">
-        <v>45876</v>
+        <v>45882.616122685184</v>
       </c>
       <c r="I133" s="2">
-        <v>30</v>
+        <v>1.3884722222210257</v>
       </c>
       <c r="J133" s="3">
-        <v>-64.14</v>
+        <v>1123.45</v>
       </c>
       <c r="K133" s="3">
-        <v>-64.14</v>
+        <v>1123.45</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
@@ -6058,256 +6058,256 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>211112334</v>
+        <v>211112290</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C134" t="s">
-        <v>53</v>
-      </c>
-      <c r="D134">
-        <v>2025</v>
+        <v>21</v>
+      </c>
+      <c r="D134" t="s">
+        <v>50</v>
       </c>
       <c r="E134">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>45906</v>
+        <v>45970</v>
       </c>
       <c r="H134" s="1">
-        <v>45876</v>
+        <v>45910</v>
       </c>
       <c r="I134" s="2">
-        <v>30</v>
+        <v>-26</v>
       </c>
       <c r="J134" s="3">
-        <v>-174.57</v>
+        <v>-30.75</v>
       </c>
       <c r="K134" s="3">
-        <v>-174.57</v>
+        <v>-30.75</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
       </c>
       <c r="M134" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>211112351</v>
+        <v>211112334</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135">
-        <v>9758</v>
+        <v>32</v>
+      </c>
+      <c r="E135" t="s">
+        <v>39</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>45894.404513888891</v>
+        <v>45406</v>
       </c>
       <c r="H135" s="1">
-        <v>45834.411666666667</v>
+        <v>45391</v>
       </c>
       <c r="I135" s="2">
-        <v>41.595486111109494</v>
+        <v>538</v>
       </c>
       <c r="J135" s="3">
-        <v>2212.2600000000002</v>
+        <v>597.29</v>
       </c>
       <c r="K135" s="3">
-        <v>2212.2600000000002</v>
+        <v>597.29</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
       </c>
       <c r="M135" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>211112443</v>
+        <v>211112334</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136">
-        <v>13234</v>
+        <v>32</v>
+      </c>
+      <c r="E136" t="s">
+        <v>40</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>45952.654594907406</v>
+        <v>45406</v>
       </c>
       <c r="H136" s="1">
-        <v>45922.655439814815</v>
+        <v>45391</v>
       </c>
       <c r="I136" s="2">
-        <v>-16.654594907406135</v>
+        <v>538</v>
       </c>
       <c r="J136" s="3">
-        <v>387.03000000000003</v>
+        <v>591.72</v>
       </c>
       <c r="K136" s="3">
-        <v>387.03000000000003</v>
+        <v>591.72</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
       </c>
       <c r="M136" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>211112443</v>
+        <v>211112334</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137">
-        <v>13244</v>
+        <v>32</v>
+      </c>
+      <c r="E137" t="s">
+        <v>41</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>45953.358194444445</v>
+        <v>45419</v>
       </c>
       <c r="H137" s="1">
-        <v>45923.359027777777</v>
+        <v>45404</v>
       </c>
       <c r="I137" s="2">
-        <v>-17.358194444444962</v>
+        <v>525</v>
       </c>
       <c r="J137" s="3">
-        <v>164.76</v>
+        <v>599.27</v>
       </c>
       <c r="K137" s="3">
-        <v>164.76</v>
+        <v>599.27</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
       </c>
       <c r="M137" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>211112455</v>
+        <v>211112334</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="D138">
+        <v>2025</v>
       </c>
       <c r="E138">
-        <v>12367</v>
+        <v>91</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>45927.412766203699</v>
+        <v>45906</v>
       </c>
       <c r="H138" s="1">
-        <v>45897.415347222217</v>
+        <v>45876</v>
       </c>
       <c r="I138" s="2">
-        <v>8.5872337963010068</v>
+        <v>38</v>
       </c>
       <c r="J138" s="3">
-        <v>3508</v>
+        <v>-64.14</v>
       </c>
       <c r="K138" s="3">
-        <v>3508</v>
+        <v>-64.14</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
       </c>
       <c r="M138" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>211112455</v>
+        <v>211112334</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="D139">
+        <v>2025</v>
       </c>
       <c r="E139">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="1">
-        <v>45931</v>
+        <v>45906</v>
       </c>
       <c r="H139" s="1">
-        <v>45901</v>
+        <v>45876</v>
       </c>
       <c r="I139" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J139" s="3">
-        <v>-46.13</v>
+        <v>-174.57</v>
       </c>
       <c r="K139" s="3">
-        <v>-46.13</v>
+        <v>-174.57</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
       </c>
       <c r="M139" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>211112455</v>
+        <v>211112351</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6316,39 +6316,39 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>12863</v>
+        <v>9758</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>45941.622974537036</v>
+        <v>45894.404513888891</v>
       </c>
       <c r="H140" s="1">
-        <v>45911.623657407406</v>
+        <v>45834.411666666667</v>
       </c>
       <c r="I140" s="2">
-        <v>-5.6229745370364981</v>
+        <v>49.595486111109494</v>
       </c>
       <c r="J140" s="3">
-        <v>2219.06</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="K140" s="3">
-        <v>2219.06</v>
+        <v>2212.2600000000002</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
       </c>
       <c r="M140" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>211112455</v>
+        <v>211112443</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
@@ -6357,25 +6357,25 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>13342</v>
+        <v>13234</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="1">
-        <v>45954.493402777778</v>
+        <v>45952.654594907406</v>
       </c>
       <c r="H141" s="1">
-        <v>45924.494317129625</v>
+        <v>45922.655439814815</v>
       </c>
       <c r="I141" s="2">
-        <v>-18.493402777778101</v>
+        <v>-8.6545949074061355</v>
       </c>
       <c r="J141" s="3">
-        <v>1487.93</v>
+        <v>387.03000000000003</v>
       </c>
       <c r="K141" s="3">
-        <v>1487.93</v>
+        <v>387.03000000000003</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -6386,37 +6386,37 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>211112455</v>
+        <v>211112443</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
-      </c>
-      <c r="D142">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
       </c>
       <c r="E142">
-        <v>891</v>
+        <v>13244</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>45959</v>
+        <v>45953.358194444445</v>
       </c>
       <c r="H142" s="1">
-        <v>45929</v>
+        <v>45923.359027777777</v>
       </c>
       <c r="I142" s="2">
-        <v>-23</v>
+        <v>-9.3581944444449618</v>
       </c>
       <c r="J142" s="3">
-        <v>-2040.82</v>
+        <v>164.76</v>
       </c>
       <c r="K142" s="3">
-        <v>-2040.82</v>
+        <v>164.76</v>
       </c>
       <c r="L142" t="s">
         <v>17</v>
@@ -6430,7 +6430,7 @@
         <v>211112455</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
@@ -6439,31 +6439,31 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>13508</v>
+        <v>12863</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>45960.706296296295</v>
+        <v>45941.622974537036</v>
       </c>
       <c r="H143" s="1">
-        <v>45930.709282407406</v>
+        <v>45911.623657407406</v>
       </c>
       <c r="I143" s="2">
-        <v>-24.706296296295477</v>
+        <v>2.3770254629635019</v>
       </c>
       <c r="J143" s="3">
-        <v>1572.81</v>
+        <v>2219.06</v>
       </c>
       <c r="K143" s="3">
-        <v>1572.81</v>
+        <v>2219.06</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
       </c>
       <c r="M143" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6471,7 +6471,7 @@
         <v>211112455</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -6480,25 +6480,25 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>13616</v>
+        <v>13342</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>45962.658182870371</v>
+        <v>45954.493402777778</v>
       </c>
       <c r="H144" s="1">
-        <v>45932.68005787037</v>
+        <v>45924.494317129625</v>
       </c>
       <c r="I144" s="2">
-        <v>-26.658182870371093</v>
+        <v>-10.493402777778101</v>
       </c>
       <c r="J144" s="3">
-        <v>1991.39</v>
+        <v>1487.93</v>
       </c>
       <c r="K144" s="3">
-        <v>1991.39</v>
+        <v>1487.93</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -6509,37 +6509,37 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>211112469</v>
+        <v>211112455</v>
       </c>
       <c r="B145" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D145">
+        <v>2025</v>
       </c>
       <c r="E145">
-        <v>12705</v>
+        <v>891</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>45938.519317129627</v>
+        <v>45959</v>
       </c>
       <c r="H145" s="1">
-        <v>45908.521111111106</v>
+        <v>45929</v>
       </c>
       <c r="I145" s="2">
-        <v>-2.5193171296268702</v>
+        <v>-15</v>
       </c>
       <c r="J145" s="3">
-        <v>825.99</v>
+        <v>-2040.82</v>
       </c>
       <c r="K145" s="3">
-        <v>825.99</v>
+        <v>-2040.82</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>211112469</v>
+        <v>211112455</v>
       </c>
       <c r="B146" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -6562,25 +6562,25 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>13418</v>
+        <v>13508</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="1">
-        <v>45956.386076388888</v>
+        <v>45960.706296296295</v>
       </c>
       <c r="H146" s="1">
-        <v>45926.38722222222</v>
+        <v>45930.709282407406</v>
       </c>
       <c r="I146" s="2">
-        <v>-20.386076388887886</v>
+        <v>-16.706296296295477</v>
       </c>
       <c r="J146" s="3">
-        <v>762.54</v>
+        <v>1572.81</v>
       </c>
       <c r="K146" s="3">
-        <v>762.54</v>
+        <v>1572.81</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -6591,10 +6591,10 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>211112488</v>
+        <v>211112455</v>
       </c>
       <c r="B147" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
@@ -6603,39 +6603,39 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>12146</v>
+        <v>13616</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>45920.679456018515</v>
+        <v>45962.658182870371</v>
       </c>
       <c r="H147" s="1">
-        <v>45890.681793981479</v>
+        <v>45932.68005787037</v>
       </c>
       <c r="I147" s="2">
-        <v>15.320543981484661</v>
+        <v>-18.658182870371093</v>
       </c>
       <c r="J147" s="3">
-        <v>1241.79</v>
+        <v>1991.39</v>
       </c>
       <c r="K147" s="3">
-        <v>1241.79</v>
+        <v>1991.39</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
       </c>
       <c r="M147" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>211112489</v>
+        <v>211112455</v>
       </c>
       <c r="B148" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -6644,25 +6644,25 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>12944</v>
+        <v>13860</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>45975.520891203705</v>
+        <v>45969.629120370366</v>
       </c>
       <c r="H148" s="1">
-        <v>45915.521157407406</v>
+        <v>45939.629525462959</v>
       </c>
       <c r="I148" s="2">
-        <v>-39.520891203705105</v>
+        <v>-25.629120370365854</v>
       </c>
       <c r="J148" s="3">
-        <v>2866.7400000000002</v>
+        <v>3969.25</v>
       </c>
       <c r="K148" s="3">
-        <v>2866.7400000000002</v>
+        <v>3969.25</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -6673,37 +6673,37 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>211112515</v>
+        <v>211112469</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
-      </c>
-      <c r="D149">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>15</v>
       </c>
       <c r="E149">
-        <v>867</v>
+        <v>13418</v>
       </c>
       <c r="F149" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="1">
-        <v>45946</v>
+        <v>45956.386076388888</v>
       </c>
       <c r="H149" s="1">
-        <v>45916</v>
+        <v>45926.38722222222</v>
       </c>
       <c r="I149" s="2">
-        <v>-10</v>
+        <v>-12.386076388887886</v>
       </c>
       <c r="J149" s="3">
-        <v>-69.900000000000006</v>
+        <v>762.54</v>
       </c>
       <c r="K149" s="3">
-        <v>-69.900000000000006</v>
+        <v>762.54</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
@@ -6714,10 +6714,10 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>211112515</v>
+        <v>211112469</v>
       </c>
       <c r="B150" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
@@ -6726,25 +6726,25 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>12949</v>
+        <v>13825</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" s="1">
-        <v>45946.310219907406</v>
+        <v>45969.360706018517</v>
       </c>
       <c r="H150" s="1">
-        <v>45916.310243055552</v>
+        <v>45939.361111111109</v>
       </c>
       <c r="I150" s="2">
-        <v>-10.310219907405553</v>
+        <v>-25.360706018516794</v>
       </c>
       <c r="J150" s="3">
-        <v>1067.78</v>
+        <v>889.08</v>
       </c>
       <c r="K150" s="3">
-        <v>1067.78</v>
+        <v>889.08</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
@@ -6755,10 +6755,10 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>211112515</v>
+        <v>211112488</v>
       </c>
       <c r="B151" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -6767,39 +6767,39 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>13157</v>
+        <v>12146</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>45949.347083333334</v>
+        <v>45920.679456018515</v>
       </c>
       <c r="H151" s="1">
-        <v>45919.347291666665</v>
+        <v>45890.681793981479</v>
       </c>
       <c r="I151" s="2">
-        <v>-13.347083333334012</v>
+        <v>23.320543981484661</v>
       </c>
       <c r="J151" s="3">
-        <v>146.07</v>
+        <v>1241.79</v>
       </c>
       <c r="K151" s="3">
-        <v>146.07</v>
+        <v>1241.79</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
       </c>
       <c r="M151" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211112515</v>
+        <v>211112489</v>
       </c>
       <c r="B152" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -6808,25 +6808,25 @@
         <v>15</v>
       </c>
       <c r="E152">
-        <v>13626</v>
+        <v>12944</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="1">
-        <v>45963.360069444439</v>
+        <v>45975.520891203705</v>
       </c>
       <c r="H152" s="1">
-        <v>45933.360752314809</v>
+        <v>45915.521157407406</v>
       </c>
       <c r="I152" s="2">
-        <v>-27.360069444439432</v>
+        <v>-31.520891203705105</v>
       </c>
       <c r="J152" s="3">
-        <v>1216.8399999999999</v>
+        <v>2866.7400000000002</v>
       </c>
       <c r="K152" s="3">
-        <v>1216.8399999999999</v>
+        <v>2866.7400000000002</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
@@ -6837,51 +6837,51 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211112518</v>
+        <v>211112515</v>
       </c>
       <c r="B153" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C153" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D153">
+        <v>2025</v>
       </c>
       <c r="E153">
-        <v>10919</v>
+        <v>867</v>
       </c>
       <c r="F153" t="s">
         <v>16</v>
       </c>
       <c r="G153" s="1">
-        <v>45921.540416666663</v>
+        <v>45946</v>
       </c>
       <c r="H153" s="1">
-        <v>45861.54415509259</v>
+        <v>45916</v>
       </c>
       <c r="I153" s="2">
-        <v>14.459583333336923</v>
+        <v>-2</v>
       </c>
       <c r="J153" s="3">
-        <v>817.86</v>
+        <v>-69.900000000000006</v>
       </c>
       <c r="K153" s="3">
-        <v>817.86</v>
+        <v>-69.900000000000006</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
       </c>
       <c r="M153" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211112518</v>
+        <v>211112515</v>
       </c>
       <c r="B154" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -6890,25 +6890,25 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>12069</v>
+        <v>12949</v>
       </c>
       <c r="F154" t="s">
         <v>16</v>
       </c>
       <c r="G154" s="1">
-        <v>45949.520509259259</v>
+        <v>45946.310219907406</v>
       </c>
       <c r="H154" s="1">
-        <v>45889.520520833328</v>
+        <v>45916.310243055552</v>
       </c>
       <c r="I154" s="2">
-        <v>-13.520509259258688</v>
+        <v>-2.3102199074055534</v>
       </c>
       <c r="J154" s="3">
-        <v>624.23</v>
+        <v>1067.78</v>
       </c>
       <c r="K154" s="3">
-        <v>624.23</v>
+        <v>1067.78</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -6919,10 +6919,10 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211112518</v>
+        <v>211112515</v>
       </c>
       <c r="B155" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -6931,25 +6931,25 @@
         <v>15</v>
       </c>
       <c r="E155">
-        <v>13579</v>
+        <v>13157</v>
       </c>
       <c r="F155" t="s">
         <v>16</v>
       </c>
       <c r="G155" s="1">
-        <v>45992.397800925923</v>
+        <v>45949.347083333334</v>
       </c>
       <c r="H155" s="1">
-        <v>45932.398275462961</v>
+        <v>45919.347291666665</v>
       </c>
       <c r="I155" s="2">
-        <v>-56.397800925922638</v>
+        <v>-5.3470833333340124</v>
       </c>
       <c r="J155" s="3">
-        <v>568.20000000000005</v>
+        <v>146.07</v>
       </c>
       <c r="K155" s="3">
-        <v>568.20000000000005</v>
+        <v>146.07</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
@@ -6960,37 +6960,37 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211112531</v>
+        <v>211112515</v>
       </c>
       <c r="B156" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D156">
+        <v>2025</v>
       </c>
       <c r="E156">
-        <v>12821</v>
+        <v>907</v>
       </c>
       <c r="F156" t="s">
         <v>16</v>
       </c>
       <c r="G156" s="1">
-        <v>45940.714884259258</v>
+        <v>45963</v>
       </c>
       <c r="H156" s="1">
-        <v>45910.715243055551</v>
+        <v>45933</v>
       </c>
       <c r="I156" s="2">
-        <v>-4.7148842592578148</v>
+        <v>-19</v>
       </c>
       <c r="J156" s="3">
-        <v>164.15</v>
+        <v>-50.730000000000004</v>
       </c>
       <c r="K156" s="3">
-        <v>164.15</v>
+        <v>-50.730000000000004</v>
       </c>
       <c r="L156" t="s">
         <v>17</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>211112531</v>
+        <v>211112515</v>
       </c>
       <c r="B157" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -7013,25 +7013,25 @@
         <v>15</v>
       </c>
       <c r="E157">
-        <v>12929</v>
+        <v>13626</v>
       </c>
       <c r="F157" t="s">
         <v>16</v>
       </c>
       <c r="G157" s="1">
-        <v>45945.396874999999</v>
+        <v>45963.360069444439</v>
       </c>
       <c r="H157" s="1">
-        <v>45915.396874999999</v>
+        <v>45933.360752314809</v>
       </c>
       <c r="I157" s="2">
-        <v>-9.3968749999985448</v>
+        <v>-19.360069444439432</v>
       </c>
       <c r="J157" s="3">
-        <v>227.9</v>
+        <v>1216.8399999999999</v>
       </c>
       <c r="K157" s="3">
-        <v>227.9</v>
+        <v>1216.8399999999999</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -7042,10 +7042,10 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>211112531</v>
+        <v>211112518</v>
       </c>
       <c r="B158" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
@@ -7054,39 +7054,39 @@
         <v>15</v>
       </c>
       <c r="E158">
-        <v>13349</v>
+        <v>10919</v>
       </c>
       <c r="F158" t="s">
         <v>16</v>
       </c>
       <c r="G158" s="1">
-        <v>45955.344722222224</v>
+        <v>45921.540416666663</v>
       </c>
       <c r="H158" s="1">
-        <v>45925.344988425924</v>
+        <v>45861.54415509259</v>
       </c>
       <c r="I158" s="2">
-        <v>-19.344722222223936</v>
+        <v>22.459583333336923</v>
       </c>
       <c r="J158" s="3">
-        <v>50.01</v>
+        <v>817.86</v>
       </c>
       <c r="K158" s="3">
-        <v>50.01</v>
+        <v>817.86</v>
       </c>
       <c r="L158" t="s">
         <v>17</v>
       </c>
       <c r="M158" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>211112531</v>
+        <v>211112518</v>
       </c>
       <c r="B159" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
@@ -7095,25 +7095,25 @@
         <v>15</v>
       </c>
       <c r="E159">
-        <v>13380</v>
+        <v>12069</v>
       </c>
       <c r="F159" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="1">
-        <v>45955.700185185182</v>
+        <v>45949.520509259259</v>
       </c>
       <c r="H159" s="1">
-        <v>45925.702268518515</v>
+        <v>45889.520520833328</v>
       </c>
       <c r="I159" s="2">
-        <v>-19.700185185181908</v>
+        <v>-5.520509259258688</v>
       </c>
       <c r="J159" s="3">
-        <v>36.4</v>
+        <v>624.23</v>
       </c>
       <c r="K159" s="3">
-        <v>36.4</v>
+        <v>624.23</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -7124,42 +7124,288 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
+        <v>211112518</v>
+      </c>
+      <c r="B160" t="s">
+        <v>48</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160">
+        <v>13579</v>
+      </c>
+      <c r="F160" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="1">
+        <v>45992.397800925923</v>
+      </c>
+      <c r="H160" s="1">
+        <v>45932.398275462961</v>
+      </c>
+      <c r="I160" s="2">
+        <v>-48.397800925922638</v>
+      </c>
+      <c r="J160" s="3">
+        <v>568.20000000000005</v>
+      </c>
+      <c r="K160" s="3">
+        <v>568.20000000000005</v>
+      </c>
+      <c r="L160" t="s">
+        <v>17</v>
+      </c>
+      <c r="M160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>211112531</v>
       </c>
-      <c r="B160" t="s">
-        <v>50</v>
-      </c>
-      <c r="C160" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160">
+      <c r="B161" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161">
+        <v>12929</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="1">
+        <v>45945.396874999999</v>
+      </c>
+      <c r="H161" s="1">
+        <v>45915.396874999999</v>
+      </c>
+      <c r="I161" s="2">
+        <v>-1.3968749999985448</v>
+      </c>
+      <c r="J161" s="3">
+        <v>227.9</v>
+      </c>
+      <c r="K161" s="3">
+        <v>227.9</v>
+      </c>
+      <c r="L161" t="s">
+        <v>17</v>
+      </c>
+      <c r="M161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>211112531</v>
+      </c>
+      <c r="B162" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162">
+        <v>13349</v>
+      </c>
+      <c r="F162" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="1">
+        <v>45955.344722222224</v>
+      </c>
+      <c r="H162" s="1">
+        <v>45925.344988425924</v>
+      </c>
+      <c r="I162" s="2">
+        <v>-11.344722222223936</v>
+      </c>
+      <c r="J162" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="K162" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="L162" t="s">
+        <v>17</v>
+      </c>
+      <c r="M162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>211112531</v>
+      </c>
+      <c r="B163" t="s">
+        <v>49</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163">
+        <v>13380</v>
+      </c>
+      <c r="F163" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="1">
+        <v>45955.700185185182</v>
+      </c>
+      <c r="H163" s="1">
+        <v>45925.702268518515</v>
+      </c>
+      <c r="I163" s="2">
+        <v>-11.700185185181908</v>
+      </c>
+      <c r="J163" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="K163" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="L163" t="s">
+        <v>17</v>
+      </c>
+      <c r="M163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>211112531</v>
+      </c>
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164">
         <v>13569</v>
       </c>
-      <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" s="1">
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="1">
         <v>45962.380231481482</v>
       </c>
-      <c r="H160" s="1">
+      <c r="H164" s="1">
         <v>45932.383726851847</v>
       </c>
-      <c r="I160" s="2">
-        <v>-26.380231481482042</v>
-      </c>
-      <c r="J160" s="3">
+      <c r="I164" s="2">
+        <v>-18.380231481482042</v>
+      </c>
+      <c r="J164" s="3">
         <v>62.96</v>
       </c>
-      <c r="K160" s="3">
+      <c r="K164" s="3">
         <v>62.96</v>
       </c>
-      <c r="L160" t="s">
-        <v>17</v>
-      </c>
-      <c r="M160" t="s">
+      <c r="L164" t="s">
+        <v>17</v>
+      </c>
+      <c r="M164" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>211112531</v>
+      </c>
+      <c r="B165" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165">
+        <v>13793</v>
+      </c>
+      <c r="F165" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="1">
+        <v>45968.400983796295</v>
+      </c>
+      <c r="H165" s="1">
+        <v>45938.401736111111</v>
+      </c>
+      <c r="I165" s="2">
+        <v>-24.400983796294895</v>
+      </c>
+      <c r="J165" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="K165" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="L165" t="s">
+        <v>17</v>
+      </c>
+      <c r="M165" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>211112563</v>
+      </c>
+      <c r="B166" t="s">
+        <v>59</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166">
+        <v>13861</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="1">
+        <v>45969.629803240736</v>
+      </c>
+      <c r="H166" s="1">
+        <v>45939.630335648144</v>
+      </c>
+      <c r="I166" s="2">
+        <v>-25.629803240735782</v>
+      </c>
+      <c r="J166" s="3">
+        <v>716.27</v>
+      </c>
+      <c r="K166" s="3">
+        <v>716.27</v>
+      </c>
+      <c r="L166" t="s">
+        <v>17</v>
+      </c>
+      <c r="M166" t="s">
         <v>18</v>
       </c>
     </row>

--- a/VSilva.xlsx
+++ b/VSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506E0411-C5A1-4794-8F58-E410E427694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE0715-0391-459C-86E8-A33A22A2BA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="59">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Macro-Frio, Comercio Internacional</t>
   </si>
   <si>
-    <t>Aviarmada - Comércio De Produtos</t>
-  </si>
-  <si>
     <t>Saner - Sociedade Alimentar Do</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
   </si>
   <si>
     <t>2025B</t>
-  </si>
-  <si>
-    <t>Alexandrino P. &amp; Silva Pereira, Lda</t>
   </si>
   <si>
     <t>Arcol, S.A.</t>
@@ -176,9 +170,6 @@
     <t>Produtos Alimentares, Carina, Lda.</t>
   </si>
   <si>
-    <t>Jupitergália, Lda</t>
-  </si>
-  <si>
     <t>Lordelodis - Soc. Distribuição S.A.</t>
   </si>
   <si>
@@ -212,10 +203,16 @@
     <t>1A5</t>
   </si>
   <si>
-    <t>Pantera Cor De Rosa</t>
+    <t>Lameguiper - Soc. Distribuição S.A.</t>
   </si>
   <si>
-    <t>Lameguiper - Soc. Distribuição S.A.</t>
+    <t>Pankir-Indústria E Com.De Produtos</t>
+  </si>
+  <si>
+    <t>Savorium, Lda.</t>
+  </si>
+  <si>
+    <t>António Ezequiel, Lda.</t>
   </si>
 </sst>
 </file>
@@ -590,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98545641-E23A-472A-9221-1A284396E192}">
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M166"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +646,7 @@
         <v>211110034</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -670,7 +667,7 @@
         <v>45916</v>
       </c>
       <c r="I2" s="2">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="J2" s="3">
         <v>-47.94</v>
@@ -682,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -690,7 +687,7 @@
         <v>211110034</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -711,7 +708,7 @@
         <v>45916.422337962962</v>
       </c>
       <c r="I3" s="2">
-        <v>-2.4223379629620467</v>
+        <v>8</v>
       </c>
       <c r="J3" s="3">
         <v>664.32</v>
@@ -723,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -731,7 +728,7 @@
         <v>211110034</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -752,7 +749,7 @@
         <v>45937.352592592593</v>
       </c>
       <c r="I4" s="2">
-        <v>-23.351527777776937</v>
+        <v>-13</v>
       </c>
       <c r="J4" s="3">
         <v>497.47</v>
@@ -772,7 +769,7 @@
         <v>211110034</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -793,7 +790,7 @@
         <v>45938</v>
       </c>
       <c r="I5" s="2">
-        <v>-24</v>
+        <v>-14</v>
       </c>
       <c r="J5" s="3">
         <v>-208.93</v>
@@ -834,7 +831,7 @@
         <v>45902.451412037037</v>
       </c>
       <c r="I6" s="2">
-        <v>-3.4510763888902147</v>
+        <v>7</v>
       </c>
       <c r="J6" s="3">
         <v>775.91</v>
@@ -846,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -875,7 +872,7 @@
         <v>45925.368599537032</v>
       </c>
       <c r="I7" s="2">
-        <v>-26.361527777778974</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3">
         <v>368.86</v>
@@ -916,7 +913,7 @@
         <v>45926.362696759257</v>
       </c>
       <c r="I8" s="2">
-        <v>-27.361874999995052</v>
+        <v>-17</v>
       </c>
       <c r="J8" s="3">
         <v>404.12</v>
@@ -945,25 +942,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>13108</v>
+        <v>13478</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45948.345138888886</v>
+        <v>45960.350081018514</v>
       </c>
       <c r="H9" s="1">
-        <v>45918.345590277779</v>
+        <v>45930.350300925922</v>
       </c>
       <c r="I9" s="2">
-        <v>-4.3451388888861402</v>
+        <v>-6</v>
       </c>
       <c r="J9" s="3">
-        <v>408.72</v>
+        <v>619.97</v>
       </c>
       <c r="K9" s="3">
-        <v>408.72</v>
+        <v>619.97</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -986,25 +983,25 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>13478</v>
+        <v>14304</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45960.350081018514</v>
+        <v>45984.313854166663</v>
       </c>
       <c r="H10" s="1">
-        <v>45930.350300925922</v>
+        <v>45954.314212962963</v>
       </c>
       <c r="I10" s="2">
-        <v>-16.350081018514175</v>
+        <v>-30</v>
       </c>
       <c r="J10" s="3">
-        <v>619.97</v>
+        <v>621.49</v>
       </c>
       <c r="K10" s="3">
-        <v>619.97</v>
+        <v>621.49</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1018,7 +1015,7 @@
         <v>211110574</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1039,7 +1036,7 @@
         <v>45930</v>
       </c>
       <c r="I11" s="2">
-        <v>-16</v>
+        <v>-6</v>
       </c>
       <c r="J11" s="3">
         <v>-293.06</v>
@@ -1059,7 +1056,7 @@
         <v>211110574</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1080,7 +1077,7 @@
         <v>45937.356365740736</v>
       </c>
       <c r="I12" s="2">
-        <v>-23.355335648149776</v>
+        <v>-13</v>
       </c>
       <c r="J12" s="3">
         <v>327.33</v>
@@ -1097,10 +1094,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211110681</v>
+        <v>211110574</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1109,25 +1106,25 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>13774</v>
+        <v>13981</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45968.352500000001</v>
+        <v>45974.392037037032</v>
       </c>
       <c r="H13" s="1">
-        <v>45938.353310185186</v>
+        <v>45944.393518518518</v>
       </c>
       <c r="I13" s="2">
-        <v>-24.352500000000873</v>
+        <v>-20</v>
       </c>
       <c r="J13" s="3">
-        <v>2293.8000000000002</v>
+        <v>248.98000000000002</v>
       </c>
       <c r="K13" s="3">
-        <v>2293.8000000000002</v>
+        <v>248.98000000000002</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1138,43 +1135,43 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211110903</v>
+        <v>211110574</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14">
-        <v>533</v>
+        <v>14168</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45873</v>
+        <v>45981.350856481477</v>
       </c>
       <c r="H14" s="1">
-        <v>45866</v>
+        <v>45951.351053240738</v>
       </c>
       <c r="I14" s="2">
-        <v>71</v>
+        <v>-27</v>
       </c>
       <c r="J14" s="3">
-        <v>-50.85</v>
+        <v>182.34</v>
       </c>
       <c r="K14" s="3">
-        <v>-50.85</v>
+        <v>182.34</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1187,35 +1184,35 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15">
-        <v>2025</v>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>711</v>
+        <v>533</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45875</v>
+        <v>45873</v>
       </c>
       <c r="H15" s="1">
-        <v>45868</v>
+        <v>45866</v>
       </c>
       <c r="I15" s="2">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="J15" s="3">
-        <v>-100.23</v>
+        <v>-50.85</v>
       </c>
       <c r="K15" s="3">
-        <v>-100.23</v>
+        <v>-50.85</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1228,35 +1225,35 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
+      <c r="D16">
+        <v>2025</v>
       </c>
       <c r="E16">
-        <v>542</v>
+        <v>711</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45880</v>
+        <v>45875</v>
       </c>
       <c r="H16" s="1">
-        <v>45873</v>
+        <v>45868</v>
       </c>
       <c r="I16" s="2">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J16" s="3">
-        <v>-67.31</v>
+        <v>-100.23</v>
       </c>
       <c r="K16" s="3">
-        <v>-67.31</v>
+        <v>-100.23</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1273,72 +1270,72 @@
         <v>2025</v>
       </c>
       <c r="E17">
-        <v>878</v>
+        <v>932</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45932</v>
+        <v>45950</v>
       </c>
       <c r="H17" s="1">
-        <v>45925</v>
+        <v>45943</v>
       </c>
       <c r="I17" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>-59.86</v>
+        <v>-27.54</v>
       </c>
       <c r="K17" s="3">
-        <v>-59.86</v>
+        <v>-27.54</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>211110903</v>
+        <v>211111588</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18">
-        <v>2025</v>
+      <c r="D18" t="s">
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>901</v>
+        <v>568</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="H18" s="1">
-        <v>45931</v>
+        <v>45904</v>
       </c>
       <c r="I18" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3">
-        <v>-42.24</v>
+        <v>-0.52</v>
       </c>
       <c r="K18" s="3">
-        <v>-42.24</v>
+        <v>-0.52</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1355,31 +1352,31 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>12107</v>
+        <v>13128</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45925.479895833334</v>
+        <v>45953.382881944446</v>
       </c>
       <c r="H19" s="1">
-        <v>45890.479895833334</v>
+        <v>45918.402905092589</v>
       </c>
       <c r="I19" s="2">
-        <v>18.520104166665988</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>195.82</v>
+        <v>444.22</v>
       </c>
       <c r="K19" s="3">
-        <v>195.82</v>
+        <v>444.22</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1390,37 +1387,37 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>809</v>
+        <v>13348</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45932</v>
+        <v>45959.678217592591</v>
       </c>
       <c r="H20" s="1">
-        <v>45897</v>
+        <v>45924.678518518514</v>
       </c>
       <c r="I20" s="2">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="J20" s="3">
-        <v>-0.97</v>
+        <v>1198.05</v>
       </c>
       <c r="K20" s="3">
-        <v>-0.97</v>
+        <v>1198.05</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1437,31 +1434,31 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>12360</v>
+        <v>13576</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45932.391550925924</v>
+        <v>45967.393101851849</v>
       </c>
       <c r="H21" s="1">
-        <v>45897.391562500001</v>
+        <v>45932.393449074072</v>
       </c>
       <c r="I21" s="2">
-        <v>11.608449074075907</v>
+        <v>-13</v>
       </c>
       <c r="J21" s="3">
-        <v>197.81</v>
+        <v>242.47</v>
       </c>
       <c r="K21" s="3">
-        <v>197.81</v>
+        <v>242.47</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1472,37 +1469,37 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>568</v>
+        <v>13818</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45939</v>
+        <v>45974.352847222217</v>
       </c>
       <c r="H22" s="1">
-        <v>45904</v>
+        <v>45939.353101851848</v>
       </c>
       <c r="I22" s="2">
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="J22" s="3">
-        <v>-0.52</v>
+        <v>683.7</v>
       </c>
       <c r="K22" s="3">
-        <v>-0.52</v>
+        <v>683.7</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1513,37 +1510,37 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23">
-        <v>12605</v>
+        <v>598</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45939.432569444441</v>
+        <v>45984</v>
       </c>
       <c r="H23" s="1">
-        <v>45904.433935185181</v>
+        <v>45939</v>
       </c>
       <c r="I23" s="2">
-        <v>4.5674305555585306</v>
+        <v>-30</v>
       </c>
       <c r="J23" s="3">
-        <v>953.69</v>
+        <v>-0.53</v>
       </c>
       <c r="K23" s="3">
-        <v>953.69</v>
+        <v>-0.53</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1560,31 +1557,31 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>12625</v>
+        <v>14044</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45940.365300925921</v>
+        <v>45991.350011574075</v>
       </c>
       <c r="H24" s="1">
-        <v>45905.366354166668</v>
+        <v>45946.350532407407</v>
       </c>
       <c r="I24" s="2">
-        <v>3.6346990740785259</v>
+        <v>-37</v>
       </c>
       <c r="J24" s="3">
-        <v>487.36</v>
+        <v>884.80000000000007</v>
       </c>
       <c r="K24" s="3">
-        <v>487.36</v>
+        <v>884.80000000000007</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1601,25 +1598,25 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>13128</v>
+        <v>14126</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45953.382881944446</v>
+        <v>45992.645243055551</v>
       </c>
       <c r="H25" s="1">
-        <v>45918.402905092589</v>
+        <v>45947.645902777775</v>
       </c>
       <c r="I25" s="2">
-        <v>-9.382881944446126</v>
+        <v>-38</v>
       </c>
       <c r="J25" s="3">
-        <v>444.22</v>
+        <v>492.02000000000004</v>
       </c>
       <c r="K25" s="3">
-        <v>444.22</v>
+        <v>492.02000000000004</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
@@ -1642,25 +1639,25 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>13348</v>
+        <v>14281</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45959.678217592591</v>
+        <v>45998.378124999996</v>
       </c>
       <c r="H26" s="1">
-        <v>45924.678518518514</v>
+        <v>45953.378969907404</v>
       </c>
       <c r="I26" s="2">
-        <v>-15.678217592590954</v>
+        <v>-44</v>
       </c>
       <c r="J26" s="3">
-        <v>1198.05</v>
+        <v>1187.8900000000001</v>
       </c>
       <c r="K26" s="3">
-        <v>1198.05</v>
+        <v>1187.8900000000001</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1671,78 +1668,78 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>2025</v>
       </c>
       <c r="E27">
-        <v>13576</v>
+        <v>827</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45967.393101851849</v>
+        <v>45932</v>
       </c>
       <c r="H27" s="1">
-        <v>45932.393449074072</v>
+        <v>45902</v>
       </c>
       <c r="I27" s="2">
-        <v>-23.393101851848769</v>
+        <v>22</v>
       </c>
       <c r="J27" s="3">
-        <v>242.47</v>
+        <v>-1.77</v>
       </c>
       <c r="K27" s="3">
-        <v>242.47</v>
+        <v>-1.77</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111588</v>
+        <v>211111739</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>2025</v>
       </c>
       <c r="E28">
-        <v>13818</v>
+        <v>899</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45974.352847222217</v>
+        <v>45961</v>
       </c>
       <c r="H28" s="1">
-        <v>45939.353101851848</v>
+        <v>45931</v>
       </c>
       <c r="I28" s="2">
-        <v>-30.352847222216951</v>
+        <v>-7</v>
       </c>
       <c r="J28" s="3">
-        <v>683.7</v>
+        <v>-0.89</v>
       </c>
       <c r="K28" s="3">
-        <v>683.7</v>
+        <v>-0.89</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1753,7 +1750,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -1765,36 +1762,36 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>10727</v>
+        <v>13511</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45916.281041666662</v>
+        <v>45961.320532407408</v>
       </c>
       <c r="H29" s="1">
-        <v>45856.283530092587</v>
+        <v>45931.322465277779</v>
       </c>
       <c r="I29" s="2">
-        <v>27.718958333338378</v>
+        <v>-7</v>
       </c>
       <c r="J29" s="3">
-        <v>199.79</v>
+        <v>1487.93</v>
       </c>
       <c r="K29" s="3">
-        <v>199.79</v>
+        <v>1487.93</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -1806,66 +1803,66 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>11012</v>
+        <v>13668</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45923.282870370371</v>
+        <v>45966.375104166662</v>
       </c>
       <c r="H30" s="1">
-        <v>45863.28329861111</v>
+        <v>45936.376192129625</v>
       </c>
       <c r="I30" s="2">
-        <v>20.717129629629198</v>
+        <v>-12</v>
       </c>
       <c r="J30" s="3">
-        <v>1478.6200000000001</v>
+        <v>709.66</v>
       </c>
       <c r="K30" s="3">
-        <v>1478.6200000000001</v>
+        <v>709.66</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>2025</v>
       </c>
       <c r="E31">
-        <v>12399</v>
+        <v>929</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45958.36681712963</v>
+        <v>45985</v>
       </c>
       <c r="H31" s="1">
-        <v>45898.3668287037</v>
+        <v>45940</v>
       </c>
       <c r="I31" s="2">
-        <v>-14.366817129630363</v>
+        <v>-31</v>
       </c>
       <c r="J31" s="3">
-        <v>615.18000000000006</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="K31" s="3">
-        <v>615.18000000000006</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1876,7 +1873,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111720</v>
+        <v>211111739</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -1884,29 +1881,29 @@
       <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
-        <v>50</v>
+      <c r="D32">
+        <v>2025</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>931</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45970</v>
+        <v>45985</v>
       </c>
       <c r="H32" s="1">
-        <v>45910</v>
+        <v>45940</v>
       </c>
       <c r="I32" s="2">
-        <v>-26</v>
+        <v>-31</v>
       </c>
       <c r="J32" s="3">
-        <v>-30.75</v>
+        <v>-24.55</v>
       </c>
       <c r="K32" s="3">
-        <v>-30.75</v>
+        <v>-24.55</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
@@ -1920,40 +1917,40 @@
         <v>211111739</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>827</v>
+        <v>13898</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45932</v>
+        <v>45985.41737268518</v>
       </c>
       <c r="H33" s="1">
-        <v>45902</v>
+        <v>45940.417881944442</v>
       </c>
       <c r="I33" s="2">
-        <v>12</v>
+        <v>-31</v>
       </c>
       <c r="J33" s="3">
-        <v>-1.77</v>
+        <v>466.18</v>
       </c>
       <c r="K33" s="3">
-        <v>-1.77</v>
+        <v>466.18</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1961,7 +1958,7 @@
         <v>211111739</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1970,25 +1967,25 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>13206</v>
+        <v>13901</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45952.35560185185</v>
+        <v>45985.422662037032</v>
       </c>
       <c r="H34" s="1">
-        <v>45922.356840277775</v>
+        <v>45940.423078703701</v>
       </c>
       <c r="I34" s="2">
-        <v>-8.3556018518502242</v>
+        <v>-31</v>
       </c>
       <c r="J34" s="3">
-        <v>848.55000000000007</v>
+        <v>581.72</v>
       </c>
       <c r="K34" s="3">
-        <v>848.55000000000007</v>
+        <v>581.72</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2002,34 +1999,34 @@
         <v>211111739</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>899</v>
+        <v>14090</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45961</v>
+        <v>45992.339583333334</v>
       </c>
       <c r="H35" s="1">
-        <v>45931</v>
+        <v>45947.340578703705</v>
       </c>
       <c r="I35" s="2">
-        <v>-17</v>
+        <v>-38</v>
       </c>
       <c r="J35" s="3">
-        <v>-0.89</v>
+        <v>2070.34</v>
       </c>
       <c r="K35" s="3">
-        <v>-0.89</v>
+        <v>2070.34</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2043,7 +2040,7 @@
         <v>211111739</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2052,25 +2049,25 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>13511</v>
+        <v>14220</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45961.320532407408</v>
+        <v>45997.359085648146</v>
       </c>
       <c r="H36" s="1">
-        <v>45931.322465277779</v>
+        <v>45952.359525462962</v>
       </c>
       <c r="I36" s="2">
-        <v>-17.320532407407882</v>
+        <v>-43</v>
       </c>
       <c r="J36" s="3">
-        <v>1487.93</v>
+        <v>665.32</v>
       </c>
       <c r="K36" s="3">
-        <v>1487.93</v>
+        <v>665.32</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2084,7 +2081,7 @@
         <v>211111739</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2093,25 +2090,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>13668</v>
+        <v>14303</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45966.375104166662</v>
+        <v>45999.310902777775</v>
       </c>
       <c r="H37" s="1">
-        <v>45936.376192129625</v>
+        <v>45954.313437500001</v>
       </c>
       <c r="I37" s="2">
-        <v>-22.375104166661913</v>
+        <v>-45</v>
       </c>
       <c r="J37" s="3">
-        <v>709.66</v>
+        <v>557.03</v>
       </c>
       <c r="K37" s="3">
-        <v>709.66</v>
+        <v>557.03</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2122,37 +2119,37 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>2025</v>
       </c>
       <c r="E38">
-        <v>13898</v>
+        <v>824</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45985.41737268518</v>
+        <v>45961</v>
       </c>
       <c r="H38" s="1">
-        <v>45940.417881944442</v>
+        <v>45901</v>
       </c>
       <c r="I38" s="2">
-        <v>-41.417372685180453</v>
+        <v>-7</v>
       </c>
       <c r="J38" s="3">
-        <v>466.18</v>
+        <v>-4.82</v>
       </c>
       <c r="K38" s="3">
-        <v>466.18</v>
+        <v>-4.82</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2163,7 +2160,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111739</v>
+        <v>211111878</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -2175,25 +2172,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>13901</v>
+        <v>12471</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45985.422662037032</v>
+        <v>45961.437303240738</v>
       </c>
       <c r="H39" s="1">
-        <v>45940.423078703701</v>
+        <v>45901.437303240738</v>
       </c>
       <c r="I39" s="2">
-        <v>-41.422662037031841</v>
+        <v>-7</v>
       </c>
       <c r="J39" s="3">
-        <v>581.72</v>
+        <v>513.09</v>
       </c>
       <c r="K39" s="3">
-        <v>581.72</v>
+        <v>513.09</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2207,7 +2204,7 @@
         <v>211111878</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2216,31 +2213,31 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>11366</v>
+        <v>12509</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45930.614166666666</v>
+        <v>45962.411041666666</v>
       </c>
       <c r="H40" s="1">
-        <v>45870.614722222221</v>
+        <v>45902.411759259259</v>
       </c>
       <c r="I40" s="2">
-        <v>13.385833333333721</v>
+        <v>-8</v>
       </c>
       <c r="J40" s="3">
-        <v>159.29</v>
+        <v>128.47</v>
       </c>
       <c r="K40" s="3">
-        <v>159.29</v>
+        <v>128.47</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2248,7 +2245,7 @@
         <v>211111878</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2257,31 +2254,31 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>11369</v>
+        <v>12568</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45930.684340277774</v>
+        <v>45963.458773148144</v>
       </c>
       <c r="H41" s="1">
-        <v>45870.684976851851</v>
+        <v>45903.458773148144</v>
       </c>
       <c r="I41" s="2">
-        <v>13.315659722225973</v>
+        <v>-9</v>
       </c>
       <c r="J41" s="3">
-        <v>106.19</v>
+        <v>50.21</v>
       </c>
       <c r="K41" s="3">
-        <v>106.19</v>
+        <v>50.21</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2289,7 +2286,7 @@
         <v>211111878</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2298,31 +2295,31 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>11428</v>
+        <v>12618</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45934.485219907408</v>
+        <v>45964.490069444444</v>
       </c>
       <c r="H42" s="1">
-        <v>45874.485219907408</v>
+        <v>45904.490740740737</v>
       </c>
       <c r="I42" s="2">
-        <v>9.5147800925915362</v>
+        <v>-10</v>
       </c>
       <c r="J42" s="3">
-        <v>56.480000000000004</v>
+        <v>286.05</v>
       </c>
       <c r="K42" s="3">
-        <v>56.480000000000004</v>
+        <v>286.05</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2330,7 +2327,7 @@
         <v>211111878</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2339,31 +2336,31 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>11429</v>
+        <v>12691</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45934.485231481478</v>
+        <v>45968.456053240741</v>
       </c>
       <c r="H43" s="1">
-        <v>45874.485231481478</v>
+        <v>45908.456064814811</v>
       </c>
       <c r="I43" s="2">
-        <v>9.5147685185220325</v>
+        <v>-14</v>
       </c>
       <c r="J43" s="3">
-        <v>472.14</v>
+        <v>110.88</v>
       </c>
       <c r="K43" s="3">
-        <v>472.14</v>
+        <v>110.88</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2371,7 +2368,7 @@
         <v>211111878</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2380,31 +2377,31 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>11430</v>
+        <v>12703</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45934.485266203701</v>
+        <v>45968.466249999998</v>
       </c>
       <c r="H44" s="1">
-        <v>45874.485266203701</v>
+        <v>45908.467557870368</v>
       </c>
       <c r="I44" s="2">
-        <v>9.5147337962989695</v>
+        <v>-14</v>
       </c>
       <c r="J44" s="3">
-        <v>405.8</v>
+        <v>414.35</v>
       </c>
       <c r="K44" s="3">
-        <v>405.8</v>
+        <v>414.35</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2412,40 +2409,40 @@
         <v>211111878</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>737</v>
+        <v>12755</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45938</v>
+        <v>45969.482951388884</v>
       </c>
       <c r="H45" s="1">
-        <v>45878</v>
+        <v>45909.482951388884</v>
       </c>
       <c r="I45" s="2">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="J45" s="3">
-        <v>-22.990000000000002</v>
+        <v>183.26</v>
       </c>
       <c r="K45" s="3">
-        <v>-22.990000000000002</v>
+        <v>183.26</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2453,7 +2450,7 @@
         <v>211111878</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2462,31 +2459,31 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>11717</v>
+        <v>12756</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45940.541759259257</v>
+        <v>45969.482974537037</v>
       </c>
       <c r="H46" s="1">
-        <v>45880.541770833333</v>
+        <v>45909.482974537037</v>
       </c>
       <c r="I46" s="2">
-        <v>3.4582407407433493</v>
+        <v>-15</v>
       </c>
       <c r="J46" s="3">
-        <v>100.79</v>
+        <v>101.91</v>
       </c>
       <c r="K46" s="3">
-        <v>100.79</v>
+        <v>101.91</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2494,40 +2491,40 @@
         <v>211111878</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>751</v>
+        <v>12804</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45941</v>
+        <v>45970.484317129631</v>
       </c>
       <c r="H47" s="1">
-        <v>45881</v>
+        <v>45910.4843287037</v>
       </c>
       <c r="I47" s="2">
-        <v>3</v>
+        <v>-16</v>
       </c>
       <c r="J47" s="3">
-        <v>-122.53</v>
+        <v>182.32</v>
       </c>
       <c r="K47" s="3">
-        <v>-122.53</v>
+        <v>182.32</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2535,7 +2532,7 @@
         <v>211111878</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2544,31 +2541,31 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>11758</v>
+        <v>12837</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45941.499224537038</v>
+        <v>45971.366631944446</v>
       </c>
       <c r="H48" s="1">
-        <v>45881.499236111107</v>
+        <v>45911.366631944446</v>
       </c>
       <c r="I48" s="2">
-        <v>2.5007754629623378</v>
+        <v>-17</v>
       </c>
       <c r="J48" s="3">
-        <v>304.79000000000002</v>
+        <v>146.12</v>
       </c>
       <c r="K48" s="3">
-        <v>304.79000000000002</v>
+        <v>146.12</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2576,7 +2573,7 @@
         <v>211111878</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
         <v>21</v>
@@ -2585,31 +2582,31 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>753</v>
+        <v>869</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45942</v>
+        <v>45976</v>
       </c>
       <c r="H49" s="1">
-        <v>45882</v>
+        <v>45916</v>
       </c>
       <c r="I49" s="2">
-        <v>2</v>
+        <v>-22</v>
       </c>
       <c r="J49" s="3">
-        <v>-10.93</v>
+        <v>-13.21</v>
       </c>
       <c r="K49" s="3">
-        <v>-10.93</v>
+        <v>-13.21</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2617,7 +2614,7 @@
         <v>211111878</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2626,25 +2623,25 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>11922</v>
+        <v>12952</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45943.619444444441</v>
+        <v>45976.371041666665</v>
       </c>
       <c r="H50" s="1">
-        <v>45883.620034722218</v>
+        <v>45916.371041666665</v>
       </c>
       <c r="I50" s="2">
-        <v>0.38055555555911269</v>
+        <v>-22</v>
       </c>
       <c r="J50" s="3">
-        <v>97.43</v>
+        <v>60.120000000000005</v>
       </c>
       <c r="K50" s="3">
-        <v>97.43</v>
+        <v>60.120000000000005</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2658,7 +2655,7 @@
         <v>211111878</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2667,25 +2664,25 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>11999</v>
+        <v>12982</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45948.526076388887</v>
+        <v>45976.428738425922</v>
       </c>
       <c r="H51" s="1">
-        <v>45888.526076388887</v>
+        <v>45916.428738425922</v>
       </c>
       <c r="I51" s="2">
-        <v>-4.5260763888873043</v>
+        <v>-22</v>
       </c>
       <c r="J51" s="3">
-        <v>53.63</v>
+        <v>314.78000000000003</v>
       </c>
       <c r="K51" s="3">
-        <v>53.63</v>
+        <v>314.78000000000003</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2699,34 +2696,34 @@
         <v>211111878</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>2025</v>
       </c>
       <c r="E52">
-        <v>12000</v>
+        <v>871</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45948.526099537034</v>
+        <v>45977</v>
       </c>
       <c r="H52" s="1">
-        <v>45888.526099537034</v>
+        <v>45917</v>
       </c>
       <c r="I52" s="2">
-        <v>-4.5260995370335877</v>
+        <v>-23</v>
       </c>
       <c r="J52" s="3">
-        <v>140.37</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="K52" s="3">
-        <v>140.37</v>
+        <v>-18.150000000000002</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2740,7 +2737,7 @@
         <v>211111878</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2749,25 +2746,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>12001</v>
+        <v>13085</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45948.52612268518</v>
+        <v>45977.492696759255</v>
       </c>
       <c r="H53" s="1">
-        <v>45888.52612268518</v>
+        <v>45917.493043981478</v>
       </c>
       <c r="I53" s="2">
-        <v>-4.526122685179871</v>
+        <v>-23</v>
       </c>
       <c r="J53" s="3">
-        <v>212.85</v>
+        <v>261.24</v>
       </c>
       <c r="K53" s="3">
-        <v>212.85</v>
+        <v>261.24</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2781,34 +2778,34 @@
         <v>211111878</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
       </c>
       <c r="E54">
-        <v>774</v>
+        <v>13086</v>
       </c>
       <c r="F54" t="s">
       